--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4128546</v>
+        <v>4018573</v>
       </c>
       <c r="F2" t="n">
-        <v>1361.018097208722</v>
+        <v>1233.216282127669</v>
       </c>
       <c r="G2" t="n">
-        <v>945.5161994685926</v>
+        <v>794.6011719754322</v>
       </c>
       <c r="H2" t="n">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="I2" t="n">
-        <v>150114</v>
+        <v>155823</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>657742841</v>
+        <v>650703328</v>
       </c>
       <c r="E3" t="n">
-        <v>1276356402</v>
+        <v>1262699731</v>
       </c>
       <c r="F3" t="n">
-        <v>73172.62441269598</v>
+        <v>62649.66083417053</v>
       </c>
       <c r="G3" t="n">
-        <v>67768.72309904607</v>
+        <v>69323.72847856031</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I3" t="n">
-        <v>29211168</v>
+        <v>32371275</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>258520511</v>
+        <v>254197149</v>
       </c>
       <c r="E4" t="n">
-        <v>1621145787</v>
+        <v>1594034589</v>
       </c>
       <c r="F4" t="n">
-        <v>145121.7508910322</v>
+        <v>204247.5403691398</v>
       </c>
       <c r="G4" t="n">
-        <v>260495.3849949887</v>
+        <v>322104.5136409786</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>17740622</v>
+        <v>19486404</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152589861</v>
+        <v>149913192</v>
       </c>
       <c r="E5" t="n">
-        <v>169093412</v>
+        <v>166127245</v>
       </c>
       <c r="F5" t="n">
-        <v>8585.831535300134</v>
+        <v>8467.665537848798</v>
       </c>
       <c r="G5" t="n">
-        <v>1067.137015443757</v>
+        <v>2749.511262869124</v>
       </c>
       <c r="H5" t="n">
         <v>0.36</v>
       </c>
       <c r="I5" t="n">
-        <v>44734473</v>
+        <v>45781688</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51868116</v>
+        <v>51268551</v>
       </c>
       <c r="E6" t="n">
-        <v>64885684</v>
+        <v>64135643</v>
       </c>
       <c r="F6" t="n">
-        <v>5774.656164265386</v>
+        <v>5328.338145393865</v>
       </c>
       <c r="G6" t="n">
-        <v>4794.406201184977</v>
+        <v>7364.744966999236</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="I6" t="n">
-        <v>814219</v>
+        <v>831713</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69485984</v>
+        <v>69398964</v>
       </c>
       <c r="E7" t="n">
-        <v>138392563</v>
+        <v>138219249</v>
       </c>
       <c r="F7" t="n">
-        <v>8523.662677736726</v>
+        <v>12556.22127021514</v>
       </c>
       <c r="G7" t="n">
-        <v>9165.955508032621</v>
+        <v>12286.69103323803</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I7" t="n">
-        <v>839492</v>
+        <v>820968</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41687308</v>
+        <v>41275614</v>
       </c>
       <c r="E8" t="n">
-        <v>46654102</v>
+        <v>46193358</v>
       </c>
       <c r="F8" t="n">
-        <v>1802.042206075598</v>
+        <v>685.5332385981621</v>
       </c>
       <c r="G8" t="n">
-        <v>529.9964431974679</v>
+        <v>631.7886496130337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="I8" t="n">
-        <v>4834653</v>
+        <v>4871994</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14280929</v>
+        <v>14217619</v>
       </c>
       <c r="E9" t="n">
-        <v>42084974</v>
+        <v>41898404</v>
       </c>
       <c r="F9" t="n">
-        <v>4941.754962489042</v>
+        <v>5566.022320567213</v>
       </c>
       <c r="G9" t="n">
-        <v>4982.766818033085</v>
+        <v>4894.700237613835</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="I9" t="n">
-        <v>933778</v>
+        <v>952512</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10094109</v>
+        <v>9764261</v>
       </c>
       <c r="E10" t="n">
-        <v>43392745</v>
+        <v>41974791</v>
       </c>
       <c r="F10" t="n">
-        <v>830.072098755246</v>
+        <v>382.2211202419833</v>
       </c>
       <c r="G10" t="n">
-        <v>319.2993133340543</v>
+        <v>937.684332661797</v>
       </c>
       <c r="H10" t="n">
-        <v>0.89</v>
+        <v>1.07</v>
       </c>
       <c r="I10" t="n">
-        <v>759484</v>
+        <v>839326</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>600708743</v>
+        <v>597757995</v>
       </c>
       <c r="E11" t="n">
-        <v>751397356</v>
+        <v>747706409</v>
       </c>
       <c r="F11" t="n">
-        <v>357744.9378746406</v>
+        <v>299952.3070485878</v>
       </c>
       <c r="G11" t="n">
-        <v>308571.8553194898</v>
+        <v>281939.7823733192</v>
       </c>
       <c r="H11" t="n">
         <v>0.13</v>
       </c>
       <c r="I11" t="n">
-        <v>60861911</v>
+        <v>69370405</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4618892</v>
+        <v>4584972</v>
       </c>
       <c r="E12" t="n">
-        <v>28362352</v>
+        <v>28154070</v>
       </c>
       <c r="F12" t="n">
-        <v>11256.62383273644</v>
+        <v>7978.912993850365</v>
       </c>
       <c r="G12" t="n">
-        <v>10335.11348054677</v>
+        <v>5582.086216576567</v>
       </c>
       <c r="H12" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I12" t="n">
-        <v>702238</v>
+        <v>693809</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23264177</v>
+        <v>23597835</v>
       </c>
       <c r="E13" t="n">
-        <v>23307323</v>
+        <v>23641600</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>826141</v>
+        <v>833520</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>83450601</v>
+        <v>82895014</v>
       </c>
       <c r="E14" t="n">
-        <v>245522018</v>
+        <v>243887412</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>390166</v>
+        <v>406800</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>543932586</v>
+        <v>520376197</v>
       </c>
       <c r="E15" t="n">
-        <v>543932586</v>
+        <v>520376199</v>
       </c>
       <c r="F15" t="n">
-        <v>14957.49690447812</v>
+        <v>16351.16458248185</v>
       </c>
       <c r="G15" t="n">
-        <v>18102.72487919632</v>
+        <v>18679.13350642452</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>82258004</v>
+        <v>81271296</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4807891</v>
+        <v>4720175</v>
       </c>
       <c r="E16" t="n">
-        <v>4807891</v>
+        <v>4720175</v>
       </c>
       <c r="F16" t="n">
-        <v>278.6035879333744</v>
+        <v>587.8669388540803</v>
       </c>
       <c r="G16" t="n">
-        <v>1360.288234861366</v>
+        <v>561.1365001039145</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2093831</v>
+        <v>2111635</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3438173</v>
+        <v>3417865</v>
       </c>
       <c r="E17" t="n">
-        <v>3438173</v>
+        <v>3417865</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>523209</v>
+        <v>520107</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>171017891</v>
+        <v>170409281</v>
       </c>
       <c r="E18" t="n">
-        <v>211727271</v>
+        <v>210973786</v>
       </c>
       <c r="F18" t="n">
-        <v>9222.982072953371</v>
+        <v>5351.62869741788</v>
       </c>
       <c r="G18" t="n">
-        <v>9500.634642869758</v>
+        <v>11498.36435531801</v>
       </c>
       <c r="H18" t="n">
-        <v>1.42</v>
+        <v>0.87</v>
       </c>
       <c r="I18" t="n">
-        <v>610192</v>
+        <v>599074</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6807266</v>
+        <v>6927182</v>
       </c>
       <c r="E19" t="n">
-        <v>9375345</v>
+        <v>9540500</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>324252</v>
+        <v>299472</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>904173</v>
+        <v>907098</v>
       </c>
       <c r="E20" t="n">
-        <v>6329210</v>
+        <v>6349689</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>254748</v>
+        <v>234569</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115434799</v>
+        <v>114975927</v>
       </c>
       <c r="E21" t="n">
-        <v>448904807</v>
+        <v>447085666</v>
       </c>
       <c r="F21" t="n">
-        <v>45862.60639305853</v>
+        <v>45990.60657105992</v>
       </c>
       <c r="G21" t="n">
-        <v>82012.86127354867</v>
+        <v>67547.88151846989</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>18585292</v>
+        <v>12649864</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1725359</v>
+        <v>1725168</v>
       </c>
       <c r="E22" t="n">
-        <v>12427614</v>
+        <v>12426242</v>
       </c>
       <c r="F22" t="n">
-        <v>6222.435149074126</v>
+        <v>5981.087687403563</v>
       </c>
       <c r="G22" t="n">
-        <v>3334.918022432409</v>
+        <v>4586.425625147024</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>52187</v>
+        <v>49531</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>148623384</v>
+        <v>146079539</v>
       </c>
       <c r="E23" t="n">
-        <v>148623384</v>
+        <v>146079539</v>
       </c>
       <c r="F23" t="n">
-        <v>1013071.523807666</v>
+        <v>997015.0046036375</v>
       </c>
       <c r="G23" t="n">
-        <v>1388869.853752496</v>
+        <v>1165942.911928115</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>77035596</v>
+        <v>78286553</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69382272</v>
+        <v>68097228</v>
       </c>
       <c r="E24" t="n">
-        <v>355806522</v>
+        <v>349216553</v>
       </c>
       <c r="F24" t="n">
-        <v>69170.47312875817</v>
+        <v>82829.99200627329</v>
       </c>
       <c r="G24" t="n">
-        <v>123721.0877684659</v>
+        <v>135414.2806483036</v>
       </c>
       <c r="H24" t="n">
         <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>25222542</v>
+        <v>24740045</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>275031712</v>
+        <v>270451176</v>
       </c>
       <c r="E25" t="n">
-        <v>275031712</v>
+        <v>270451176</v>
       </c>
       <c r="F25" t="n">
-        <v>375066.4286090549</v>
+        <v>345695.2663792032</v>
       </c>
       <c r="G25" t="n">
-        <v>423007.3085430784</v>
+        <v>459607.8944300369</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>16449803</v>
+        <v>21177207</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1130644</v>
+        <v>1134122</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>150688</v>
+        <v>146777</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
         <v>2016174</v>
       </c>
       <c r="E27" t="n">
-        <v>2196556</v>
+        <v>2063698</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1393,22 +1393,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4069811</v>
+        <v>4029607</v>
       </c>
       <c r="E28" t="n">
-        <v>4070632</v>
+        <v>4030396</v>
       </c>
       <c r="F28" t="n">
-        <v>642.8443174523404</v>
+        <v>1110.145617540246</v>
       </c>
       <c r="G28" t="n">
-        <v>2818.466609794347</v>
+        <v>2745.373702912907</v>
       </c>
       <c r="H28" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="I28" t="n">
-        <v>250454</v>
+        <v>249169</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6941800</v>
+        <v>6892068</v>
       </c>
       <c r="E29" t="n">
-        <v>16861097</v>
+        <v>16740303</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>475819</v>
+        <v>468087</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>101971010</v>
+        <v>100708735</v>
       </c>
       <c r="E30" t="n">
-        <v>127145896</v>
+        <v>125571987</v>
       </c>
       <c r="F30" t="n">
-        <v>128620.1701432928</v>
+        <v>112500.920468175</v>
       </c>
       <c r="G30" t="n">
-        <v>123278.846722474</v>
+        <v>107352.6958184581</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>10311249</v>
+        <v>12368109</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1156925</v>
+        <v>1141608</v>
       </c>
       <c r="E31" t="n">
-        <v>12573030</v>
+        <v>12406572</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>10205.86</v>
+        <v>8422.059999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1529,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>87042638</v>
+        <v>84940195</v>
       </c>
       <c r="E32" t="n">
-        <v>243446358</v>
+        <v>237608107</v>
       </c>
       <c r="F32" t="n">
-        <v>50661.73798987672</v>
+        <v>59617.25029615881</v>
       </c>
       <c r="G32" t="n">
-        <v>81549.87158017134</v>
+        <v>77177.68182147529</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>49440278</v>
+        <v>49090394</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1564,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4149958</v>
+        <v>4148654</v>
       </c>
       <c r="E33" t="n">
-        <v>8184066</v>
+        <v>8181494</v>
       </c>
       <c r="F33" t="n">
-        <v>8433.086934965024</v>
+        <v>8783.537703887263</v>
       </c>
       <c r="G33" t="n">
-        <v>6204.270593654889</v>
+        <v>7552.598794679636</v>
       </c>
       <c r="H33" t="n">
         <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1628399</v>
+        <v>1624433</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>35448107</v>
+        <v>36720006</v>
       </c>
       <c r="F34" t="n">
-        <v>40.47440575384769</v>
+        <v>219.5351232201093</v>
       </c>
       <c r="G34" t="n">
-        <v>530.395196251478</v>
+        <v>181.3169286840945</v>
       </c>
       <c r="H34" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I34" t="n">
-        <v>52913</v>
+        <v>50459</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1634,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17284151</v>
+        <v>17230507</v>
       </c>
       <c r="E35" t="n">
-        <v>18217090</v>
+        <v>18160550</v>
       </c>
       <c r="F35" t="n">
-        <v>3471.239097411987</v>
+        <v>3488.868518325166</v>
       </c>
       <c r="G35" t="n">
-        <v>2655.026804211956</v>
+        <v>2655.869256019307</v>
       </c>
       <c r="H35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="I35" t="n">
-        <v>34509</v>
+        <v>36008</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23472594</v>
+        <v>22909892</v>
       </c>
       <c r="F36" t="n">
-        <v>5078.660631159478</v>
+        <v>5079.633317079881</v>
       </c>
       <c r="G36" t="n">
-        <v>5583.751975732281</v>
+        <v>5551.731204268695</v>
       </c>
       <c r="H36" t="n">
-        <v>1.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>17512.44</v>
+        <v>125061</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1704,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>93029944</v>
+        <v>89712558</v>
       </c>
       <c r="E37" t="n">
-        <v>193959962</v>
+        <v>187043479</v>
       </c>
       <c r="F37" t="n">
-        <v>103972.4205125654</v>
+        <v>84319.66120435151</v>
       </c>
       <c r="G37" t="n">
-        <v>99683.94028076607</v>
+        <v>109679.97162935</v>
       </c>
       <c r="H37" t="n">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>49519324</v>
+        <v>56181879</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>290942416</v>
+        <v>285340951</v>
       </c>
       <c r="E38" t="n">
-        <v>290942416</v>
+        <v>285340951</v>
       </c>
       <c r="F38" t="n">
-        <v>23906.63445439836</v>
+        <v>24041.37441430839</v>
       </c>
       <c r="G38" t="n">
-        <v>29731.53701200157</v>
+        <v>33014.94812751376</v>
       </c>
       <c r="H38" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>10728216</v>
+        <v>11259710</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>209783386</v>
+        <v>207597231</v>
       </c>
       <c r="E39" t="n">
-        <v>728806442</v>
+        <v>721211542</v>
       </c>
       <c r="F39" t="n">
-        <v>171025.2298587252</v>
+        <v>193322.3690722237</v>
       </c>
       <c r="G39" t="n">
-        <v>171003.8460492894</v>
+        <v>232881.3464856828</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>34074229</v>
+        <v>38644363</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3701475</v>
+        <v>3719344</v>
       </c>
       <c r="E40" t="n">
-        <v>3701475</v>
+        <v>3719344</v>
       </c>
       <c r="F40" t="n">
-        <v>1357.069095862076</v>
+        <v>841.4204882670591</v>
       </c>
       <c r="G40" t="n">
-        <v>2564.981107746497</v>
+        <v>2779.4200480364</v>
       </c>
       <c r="H40" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I40" t="n">
-        <v>2499770</v>
+        <v>2423399</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1844,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>120308323</v>
+        <v>117312975</v>
       </c>
       <c r="E41" t="n">
-        <v>510708550</v>
+        <v>497940788</v>
       </c>
       <c r="F41" t="n">
-        <v>5575.846851234875</v>
+        <v>5272.413651000512</v>
       </c>
       <c r="G41" t="n">
-        <v>6516.382620691914</v>
+        <v>5996.283255589067</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="I41" t="n">
-        <v>15145160</v>
+        <v>15037322</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1879,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>566866</v>
+        <v>556570</v>
       </c>
       <c r="E42" t="n">
-        <v>6875529</v>
+        <v>6750658</v>
       </c>
       <c r="F42" t="n">
-        <v>587.1849034188094</v>
+        <v>373.0161652166213</v>
       </c>
       <c r="G42" t="n">
-        <v>1000.780529466503</v>
+        <v>1010.07348010205</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7</v>
+        <v>1.06</v>
       </c>
       <c r="I42" t="n">
-        <v>2744992</v>
+        <v>2766355</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1914,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1452902816</v>
+        <v>1412304348</v>
       </c>
       <c r="E43" t="n">
-        <v>6966966552</v>
+        <v>6772288581</v>
       </c>
       <c r="F43" t="n">
-        <v>35594.96846880139</v>
+        <v>51895.82372842757</v>
       </c>
       <c r="G43" t="n">
-        <v>62638.79677570017</v>
+        <v>61866.26243241793</v>
       </c>
       <c r="H43" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>260624905</v>
+        <v>271685577</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6049976368</v>
+        <v>6035537071</v>
       </c>
       <c r="E44" t="n">
-        <v>6049976368</v>
+        <v>6035537071</v>
       </c>
       <c r="F44" t="n">
-        <v>1982403.104933595</v>
+        <v>1314512.371089453</v>
       </c>
       <c r="G44" t="n">
-        <v>1366032.243998263</v>
+        <v>9067.494220426981</v>
       </c>
       <c r="H44" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I44" t="n">
-        <v>86033730</v>
+        <v>98718129</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1984,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>284014926</v>
+        <v>274425324</v>
       </c>
       <c r="E45" t="n">
-        <v>1225966091</v>
+        <v>1184572044</v>
       </c>
       <c r="F45" t="n">
-        <v>84763.6587160971</v>
+        <v>61753.60610906006</v>
       </c>
       <c r="G45" t="n">
-        <v>115585.392312368</v>
+        <v>82724.04983943608</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>112834206</v>
+        <v>113258702</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>117659540</v>
+        <v>116570409</v>
       </c>
       <c r="E46" t="n">
-        <v>117659540</v>
+        <v>116570409</v>
       </c>
       <c r="F46" t="n">
-        <v>25200.0918837125</v>
+        <v>24586.60070279053</v>
       </c>
       <c r="G46" t="n">
-        <v>40776.25784582172</v>
+        <v>40157.88412572798</v>
       </c>
       <c r="H46" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>6351907</v>
+        <v>7567912</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2054,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2045717761</v>
+        <v>2022170988</v>
       </c>
       <c r="E47" t="n">
-        <v>2045717761</v>
+        <v>2022170988</v>
       </c>
       <c r="F47" t="n">
-        <v>225996.6381207767</v>
+        <v>226026.6100291137</v>
       </c>
       <c r="G47" t="n">
-        <v>199299.6672076925</v>
+        <v>198125.3597746617</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I47" t="n">
-        <v>7983422000</v>
+        <v>7039899071</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10140312</v>
+        <v>10181481</v>
       </c>
       <c r="F48" t="n">
-        <v>6787.980109337635</v>
+        <v>6230.270874369482</v>
       </c>
       <c r="G48" t="n">
-        <v>5879.344504779164</v>
+        <v>5954.395357878567</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>172840</v>
+        <v>183581</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2124,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4449421</v>
+        <v>4436231</v>
       </c>
       <c r="E49" t="n">
-        <v>5841509</v>
+        <v>5824193</v>
       </c>
       <c r="F49" t="n">
-        <v>10338.88960817928</v>
+        <v>15443.94957373001</v>
       </c>
       <c r="G49" t="n">
-        <v>14703.27777850784</v>
+        <v>8270.654989202285</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I49" t="n">
-        <v>623051</v>
+        <v>613280</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12981922</v>
+        <v>12920332</v>
       </c>
       <c r="E50" t="n">
-        <v>19089671</v>
+        <v>18999105</v>
       </c>
       <c r="F50" t="n">
-        <v>6285.224859705239</v>
+        <v>6259.812483988389</v>
       </c>
       <c r="G50" t="n">
-        <v>7371.201987868436</v>
+        <v>17935.10690884519</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>4209338</v>
+        <v>5033590</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2194,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23501972</v>
+        <v>23341405</v>
       </c>
       <c r="E51" t="n">
-        <v>30487434</v>
+        <v>30279142</v>
       </c>
       <c r="F51" t="n">
-        <v>10820.12278098832</v>
+        <v>9049.639943915539</v>
       </c>
       <c r="G51" t="n">
-        <v>15396.75273958737</v>
+        <v>12826.29147826461</v>
       </c>
       <c r="H51" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>177442</v>
+        <v>168789</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14921405</v>
+        <v>14548934</v>
       </c>
       <c r="E52" t="n">
-        <v>14921405</v>
+        <v>14548934</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5384442</v>
+        <v>5361525</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2262,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>100698978</v>
+        <v>100044586</v>
       </c>
       <c r="E53" t="n">
-        <v>124561032</v>
+        <v>123751572</v>
       </c>
       <c r="F53" t="n">
-        <v>938.0901926761911</v>
+        <v>745.494132439375</v>
       </c>
       <c r="G53" t="n">
-        <v>3726.880015891811</v>
+        <v>1370.104260942898</v>
       </c>
       <c r="H53" t="n">
-        <v>0.27</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>977684</v>
+        <v>700177</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5160836</v>
+        <v>5084517</v>
       </c>
       <c r="E54" t="n">
-        <v>7220757</v>
+        <v>7113976</v>
       </c>
       <c r="F54" t="n">
-        <v>28.65184099817506</v>
+        <v>9.876123018343769</v>
       </c>
       <c r="G54" t="n">
-        <v>271.7869216844707</v>
+        <v>59.20921277638202</v>
       </c>
       <c r="H54" t="n">
-        <v>2.82</v>
+        <v>2.51</v>
       </c>
       <c r="I54" t="n">
-        <v>60825</v>
+        <v>62751</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16941520</v>
+        <v>16089987</v>
       </c>
       <c r="E55" t="n">
-        <v>82050484</v>
+        <v>77926373</v>
       </c>
       <c r="F55" t="n">
-        <v>27142.21065673515</v>
+        <v>18106.48633110386</v>
       </c>
       <c r="G55" t="n">
-        <v>22404.30095353155</v>
+        <v>29439.8071672994</v>
       </c>
       <c r="H55" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="I55" t="n">
-        <v>4482379</v>
+        <v>4730153</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60507</v>
+        <v>60545</v>
       </c>
       <c r="E56" t="n">
-        <v>144928</v>
+        <v>145019</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3580.7</v>
+        <v>10500.82</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1920088615</v>
+        <v>1894235118</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>28203949</v>
+        <v>28629038</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12471472</v>
+        <v>12350971</v>
       </c>
       <c r="E58" t="n">
-        <v>18081836</v>
+        <v>17907127</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1987859</v>
+        <v>1970048</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2462,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>124364622</v>
+        <v>123974036</v>
       </c>
       <c r="E59" t="n">
-        <v>330738999</v>
+        <v>329700264</v>
       </c>
       <c r="F59" t="n">
-        <v>8455.223569497837</v>
+        <v>707.0069555262625</v>
       </c>
       <c r="G59" t="n">
-        <v>7194.771669993185</v>
+        <v>1989.569797486861</v>
       </c>
       <c r="H59" t="n">
-        <v>0.51</v>
+        <v>0.97</v>
       </c>
       <c r="I59" t="n">
-        <v>750429</v>
+        <v>724854</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2497,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>32118017</v>
+        <v>31788020</v>
       </c>
       <c r="E60" t="n">
-        <v>100005199</v>
+        <v>98977696</v>
       </c>
       <c r="F60" t="n">
-        <v>1291.712203137005</v>
+        <v>1746.340353492098</v>
       </c>
       <c r="G60" t="n">
-        <v>5379.807199871414</v>
+        <v>6232.376120709388</v>
       </c>
       <c r="H60" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
-        <v>9886465</v>
+        <v>9900144</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1987413</v>
+        <v>1993101</v>
       </c>
       <c r="E61" t="n">
-        <v>14251544</v>
+        <v>14292331</v>
       </c>
       <c r="F61" t="n">
-        <v>5253.544139605535</v>
+        <v>2563.204177919364</v>
       </c>
       <c r="G61" t="n">
-        <v>5448.207249496494</v>
+        <v>448.7499450562681</v>
       </c>
       <c r="H61" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="I61" t="n">
-        <v>2040066</v>
+        <v>2061443</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>213017583</v>
+        <v>208158161</v>
       </c>
       <c r="E62" t="n">
-        <v>1206236442</v>
+        <v>1178719409</v>
       </c>
       <c r="F62" t="n">
-        <v>563420.1390367538</v>
+        <v>554449.0558462349</v>
       </c>
       <c r="G62" t="n">
-        <v>805112.3385649088</v>
+        <v>1005676.714600103</v>
       </c>
       <c r="H62" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>68565842</v>
+        <v>69455570</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2602,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>499171</v>
+        <v>501963</v>
       </c>
       <c r="E63" t="n">
-        <v>1680141</v>
+        <v>1689538</v>
       </c>
       <c r="F63" t="n">
-        <v>4364.0561458996</v>
+        <v>4531.594247197217</v>
       </c>
       <c r="G63" t="n">
-        <v>678.8943229218822</v>
+        <v>379.4088277034619</v>
       </c>
       <c r="H63" t="n">
         <v>0.6</v>
       </c>
       <c r="I63" t="n">
-        <v>625016</v>
+        <v>625334</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2637,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>358925</v>
+        <v>354740</v>
       </c>
       <c r="E64" t="n">
-        <v>358925</v>
+        <v>354740</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2631.37</v>
+        <v>2178.47</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>146393930</v>
+        <v>144295428</v>
       </c>
       <c r="E65" t="n">
-        <v>1084399485</v>
+        <v>1068855020</v>
       </c>
       <c r="F65" t="n">
-        <v>29394.31572317257</v>
+        <v>32003.09332990488</v>
       </c>
       <c r="G65" t="n">
-        <v>28442.4055825016</v>
+        <v>38159.14626471698</v>
       </c>
       <c r="H65" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>8325361</v>
+        <v>8437293</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8371294</v>
+        <v>8359747</v>
       </c>
       <c r="E66" t="n">
-        <v>11214743</v>
+        <v>11199273</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59394</v>
+        <v>57965</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2738,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26584574</v>
+        <v>26469096</v>
       </c>
       <c r="E67" t="n">
-        <v>26584574</v>
+        <v>26469096</v>
       </c>
       <c r="F67" t="n">
-        <v>6225.030109579599</v>
+        <v>8695.66026109934</v>
       </c>
       <c r="G67" t="n">
-        <v>10651.03012039848</v>
+        <v>10560.21845061081</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="I67" t="n">
-        <v>328228</v>
+        <v>329994</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2773,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1622106</v>
+        <v>1588284</v>
       </c>
       <c r="E68" t="n">
-        <v>12597460</v>
+        <v>12334795</v>
       </c>
       <c r="F68" t="n">
-        <v>18903.95475290036</v>
+        <v>15313.09540624105</v>
       </c>
       <c r="G68" t="n">
-        <v>17033.85348574917</v>
+        <v>22148.49382458505</v>
       </c>
       <c r="H68" t="n">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="I68" t="n">
-        <v>527399</v>
+        <v>505211</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2808,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>345102934</v>
+        <v>339716863</v>
       </c>
       <c r="E69" t="n">
-        <v>3104759988</v>
+        <v>3056303553</v>
       </c>
       <c r="F69" t="n">
-        <v>1111356.67100102</v>
+        <v>1061908.611128401</v>
       </c>
       <c r="G69" t="n">
-        <v>1803062.221648029</v>
+        <v>1818331.302295267</v>
       </c>
       <c r="H69" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>44810124</v>
+        <v>46920039</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>248105</v>
+        <v>243993</v>
       </c>
       <c r="E70" t="n">
-        <v>2189717</v>
+        <v>2153419</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>81846</v>
+        <v>76405</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1571769</v>
+        <v>1572360</v>
       </c>
       <c r="E71" t="n">
-        <v>13098075</v>
+        <v>13103002</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>18487.25</v>
+        <v>17857.75</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2909,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9656634</v>
+        <v>9591111</v>
       </c>
       <c r="E72" t="n">
-        <v>44759052</v>
+        <v>44455352</v>
       </c>
       <c r="F72" t="n">
-        <v>100.3144088281672</v>
+        <v>105.4879412572035</v>
       </c>
       <c r="G72" t="n">
-        <v>623.7026286708109</v>
+        <v>1187.51585366649</v>
       </c>
       <c r="H72" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="I72" t="n">
-        <v>110455</v>
+        <v>112664</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50898953</v>
+        <v>50558218</v>
       </c>
       <c r="E73" t="n">
-        <v>294683907</v>
+        <v>292711191</v>
       </c>
       <c r="F73" t="n">
-        <v>95589.83627547127</v>
+        <v>97268.55050911667</v>
       </c>
       <c r="G73" t="n">
-        <v>176699.1033069828</v>
+        <v>176702.9892713593</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>42352397</v>
+        <v>43746955</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40733821</v>
+        <v>39749184</v>
       </c>
       <c r="E74" t="n">
-        <v>56259208</v>
+        <v>54899283</v>
       </c>
       <c r="F74" t="n">
-        <v>4496.686077679876</v>
+        <v>852.0847302556992</v>
       </c>
       <c r="G74" t="n">
-        <v>10593.37644922139</v>
+        <v>220.5368375338879</v>
       </c>
       <c r="H74" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I74" t="n">
-        <v>352620</v>
+        <v>346968</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>101861</v>
+        <v>100335</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>315.61</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14276477</v>
+        <v>14049555</v>
       </c>
       <c r="E76" t="n">
-        <v>14325061</v>
+        <v>14097367</v>
       </c>
       <c r="F76" t="n">
-        <v>1246.750641844103</v>
+        <v>424.3770712910376</v>
       </c>
       <c r="G76" t="n">
-        <v>3771.540672328973</v>
+        <v>6086.901376548415</v>
       </c>
       <c r="H76" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I76" t="n">
-        <v>6595236</v>
+        <v>6578640</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3082,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43410149</v>
+        <v>43292857</v>
       </c>
       <c r="E77" t="n">
-        <v>73700334</v>
+        <v>73501200</v>
       </c>
       <c r="F77" t="n">
-        <v>6735.684426122567</v>
+        <v>4520.201790945976</v>
       </c>
       <c r="G77" t="n">
-        <v>2422.165496073259</v>
+        <v>6671.61308027518</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1075490</v>
+        <v>1078348</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>23031112</v>
+        <v>22705323</v>
       </c>
       <c r="E78" t="n">
-        <v>69041863</v>
+        <v>68065269</v>
       </c>
       <c r="F78" t="n">
-        <v>139477.9538080266</v>
+        <v>101031.1369277474</v>
       </c>
       <c r="G78" t="n">
-        <v>132542.0306753718</v>
+        <v>128974.8656455061</v>
       </c>
       <c r="H78" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>3619560</v>
+        <v>3567020</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3152,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>103423910</v>
+        <v>104017763</v>
       </c>
       <c r="E79" t="n">
-        <v>109948963</v>
+        <v>110580283</v>
       </c>
       <c r="F79" t="n">
-        <v>2374.134274861294</v>
+        <v>1502.301556499948</v>
       </c>
       <c r="G79" t="n">
-        <v>4004.592369198019</v>
+        <v>5055.357099913393</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="I79" t="n">
-        <v>620416</v>
+        <v>1580178</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3187,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10423930</v>
+        <v>10434332</v>
       </c>
       <c r="E80" t="n">
-        <v>45274255</v>
+        <v>45365990</v>
       </c>
       <c r="F80" t="n">
-        <v>4276.940964909661</v>
+        <v>6294.551741956611</v>
       </c>
       <c r="G80" t="n">
-        <v>9702.943606980391</v>
+        <v>5821.378693252919</v>
       </c>
       <c r="H80" t="n">
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>110291</v>
+        <v>117807</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3222,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15849407</v>
+        <v>15953395</v>
       </c>
       <c r="E81" t="n">
-        <v>97146229</v>
+        <v>97783602</v>
       </c>
       <c r="F81" t="n">
-        <v>4207.007607716328</v>
+        <v>5234.650314818988</v>
       </c>
       <c r="G81" t="n">
-        <v>6187.586018241765</v>
+        <v>5006.826362303921</v>
       </c>
       <c r="H81" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I81" t="n">
-        <v>10725801</v>
+        <v>10774153</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3257,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1521101</v>
+        <v>1519654</v>
       </c>
       <c r="E82" t="n">
-        <v>1563888</v>
+        <v>1562400</v>
       </c>
       <c r="F82" t="n">
-        <v>5516.579071987755</v>
+        <v>5885.819221617535</v>
       </c>
       <c r="G82" t="n">
-        <v>7163.867471373054</v>
+        <v>4944.947188792041</v>
       </c>
       <c r="H82" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I82" t="n">
-        <v>147973</v>
+        <v>143994</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3292,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51638313</v>
+        <v>51134989</v>
       </c>
       <c r="E83" t="n">
-        <v>222452208</v>
+        <v>220283943</v>
       </c>
       <c r="F83" t="n">
-        <v>3487.47569408752</v>
+        <v>3353.411689664777</v>
       </c>
       <c r="G83" t="n">
-        <v>4728.036891438194</v>
+        <v>4947.228811308196</v>
       </c>
       <c r="H83" t="n">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="I83" t="n">
-        <v>10774932</v>
+        <v>10738696</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2189810</v>
+        <v>2197985</v>
       </c>
       <c r="E84" t="n">
-        <v>7950361</v>
+        <v>7979973</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>199466</v>
+        <v>201953</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9258162</v>
+        <v>9300248</v>
       </c>
       <c r="E85" t="n">
-        <v>20546582</v>
+        <v>20639983</v>
       </c>
       <c r="F85" t="n">
-        <v>6071.635307925465</v>
+        <v>6240.659577552612</v>
       </c>
       <c r="G85" t="n">
-        <v>8286.202640300357</v>
+        <v>9670.598904726705</v>
       </c>
       <c r="H85" t="n">
-        <v>0.97</v>
+        <v>0.39</v>
       </c>
       <c r="I85" t="n">
-        <v>341695</v>
+        <v>245811</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3395,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2445691</v>
+        <v>2435404</v>
       </c>
       <c r="E86" t="n">
-        <v>18403194</v>
+        <v>18325792</v>
       </c>
       <c r="F86" t="n">
-        <v>4737.336748271688</v>
+        <v>5048.183932237768</v>
       </c>
       <c r="G86" t="n">
-        <v>12242.57679506683</v>
+        <v>12248.55770951662</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161535</v>
+        <v>162376</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3430,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20875326</v>
+        <v>20516370</v>
       </c>
       <c r="E87" t="n">
-        <v>83501302</v>
+        <v>82065481</v>
       </c>
       <c r="F87" t="n">
-        <v>13178.85354096357</v>
+        <v>10659.41496512501</v>
       </c>
       <c r="G87" t="n">
-        <v>597.3776988821854</v>
+        <v>876.403361701563</v>
       </c>
       <c r="H87" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="I87" t="n">
-        <v>2454922</v>
+        <v>2372264</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3465,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4959655</v>
+        <v>4878334</v>
       </c>
       <c r="E88" t="n">
-        <v>4959655</v>
+        <v>4878334</v>
       </c>
       <c r="F88" t="n">
-        <v>927.4169123932641</v>
+        <v>942.3563842172545</v>
       </c>
       <c r="G88" t="n">
-        <v>2012.611089719055</v>
+        <v>1267.78320318907</v>
       </c>
       <c r="H88" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="I88" t="n">
-        <v>2945812</v>
+        <v>2911934</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12882124</v>
+        <v>12747187</v>
       </c>
       <c r="E89" t="n">
-        <v>40747328</v>
+        <v>40317966</v>
       </c>
       <c r="F89" t="n">
-        <v>15520.5687634537</v>
+        <v>12852.76054755324</v>
       </c>
       <c r="G89" t="n">
-        <v>7977.893723264222</v>
+        <v>15577.74052191954</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I89" t="n">
-        <v>899501</v>
+        <v>880505</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3535,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25290</v>
+        <v>25050</v>
       </c>
       <c r="E90" t="n">
-        <v>198896</v>
+        <v>197010</v>
       </c>
       <c r="F90" t="n">
-        <v>4889.454666242289</v>
+        <v>332.3274899259457</v>
       </c>
       <c r="G90" t="n">
-        <v>326.2242872515421</v>
+        <v>331.6318984604371</v>
       </c>
       <c r="H90" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>48611</v>
+        <v>47700</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8836978</v>
+        <v>8665594</v>
       </c>
       <c r="E91" t="n">
-        <v>8836978</v>
+        <v>8665594</v>
       </c>
       <c r="F91" t="n">
-        <v>4250.559306336527</v>
+        <v>4392.843892151752</v>
       </c>
       <c r="G91" t="n">
-        <v>3501.867483702482</v>
+        <v>9364.811817544489</v>
       </c>
       <c r="H91" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="I91" t="n">
-        <v>3865355</v>
+        <v>3864900</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3605,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10537149</v>
+        <v>10257849</v>
       </c>
       <c r="E92" t="n">
-        <v>10537149</v>
+        <v>10257849</v>
       </c>
       <c r="F92" t="n">
-        <v>1724.909867925639</v>
+        <v>1853.518939303812</v>
       </c>
       <c r="G92" t="n">
-        <v>6441.004609588408</v>
+        <v>6521.641974430533</v>
       </c>
       <c r="H92" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="I92" t="n">
-        <v>2892153</v>
+        <v>2845184</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>38136590</v>
+        <v>37657345</v>
       </c>
       <c r="E93" t="n">
-        <v>96162170</v>
+        <v>94953745</v>
       </c>
       <c r="F93" t="n">
-        <v>5221.876776813398</v>
+        <v>5416.206357236173</v>
       </c>
       <c r="G93" t="n">
-        <v>6171.768652054084</v>
+        <v>6258.427358648558</v>
       </c>
       <c r="H93" t="n">
         <v>0.73</v>
       </c>
       <c r="I93" t="n">
-        <v>3622672</v>
+        <v>3559368</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3675,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>324685419</v>
+        <v>319347230</v>
       </c>
       <c r="E94" t="n">
-        <v>329763137</v>
+        <v>324341433</v>
       </c>
       <c r="F94" t="n">
-        <v>3429.720203193104</v>
+        <v>46293.80426840822</v>
       </c>
       <c r="G94" t="n">
-        <v>5491.869081504911</v>
+        <v>17346.41076552491</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="I94" t="n">
-        <v>20167323</v>
+        <v>24650454</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3710,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>6038.801596626518</v>
+        <v>3517.431296999485</v>
       </c>
       <c r="G95" t="n">
-        <v>6395.826618757524</v>
+        <v>6434.147646743286</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>217982</v>
+        <v>217251</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>90539150</v>
+        <v>88733663</v>
       </c>
       <c r="E96" t="n">
-        <v>90539150</v>
+        <v>88733663</v>
       </c>
       <c r="F96" t="n">
-        <v>9121.047035136264</v>
+        <v>6247.252832920392</v>
       </c>
       <c r="G96" t="n">
-        <v>6930.392378099665</v>
+        <v>6543.176160354613</v>
       </c>
       <c r="H96" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="I96" t="n">
-        <v>5162856</v>
+        <v>4683730</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3774,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>311326145</v>
+        <v>305759623</v>
       </c>
       <c r="E97" t="n">
-        <v>311326145</v>
+        <v>305759623</v>
       </c>
       <c r="F97" t="n">
-        <v>301458.5427352689</v>
+        <v>295042.8069960835</v>
       </c>
       <c r="G97" t="n">
-        <v>388726.8916025956</v>
+        <v>493440.8448887795</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>74211251</v>
+        <v>77485178</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3809,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4435095</v>
+        <v>4457242</v>
       </c>
       <c r="E98" t="n">
-        <v>30304695</v>
+        <v>30456019</v>
       </c>
       <c r="F98" t="n">
-        <v>14180.26483637953</v>
+        <v>4853.539908267095</v>
       </c>
       <c r="G98" t="n">
-        <v>23729.79739696313</v>
+        <v>4861.223015770454</v>
       </c>
       <c r="H98" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I98" t="n">
-        <v>2628935</v>
+        <v>2654092</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3844,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>93107912</v>
+        <v>90741720</v>
       </c>
       <c r="E99" t="n">
-        <v>536527948</v>
+        <v>522892928</v>
       </c>
       <c r="F99" t="n">
-        <v>156373.7300116442</v>
+        <v>142014.2478150355</v>
       </c>
       <c r="G99" t="n">
-        <v>150718.2172233167</v>
+        <v>130507.0337855765</v>
       </c>
       <c r="H99" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="I99" t="n">
-        <v>18302176</v>
+        <v>18729906</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3879,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>111432991</v>
+        <v>110631247</v>
       </c>
       <c r="E100" t="n">
-        <v>274168694</v>
+        <v>272196090</v>
       </c>
       <c r="F100" t="n">
-        <v>28293.16871909907</v>
+        <v>23850.02847932715</v>
       </c>
       <c r="G100" t="n">
-        <v>44466.37393952442</v>
+        <v>38283.3442297755</v>
       </c>
       <c r="H100" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="I100" t="n">
-        <v>2320129</v>
+        <v>2862396</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>257987659</v>
+        <v>252606801</v>
       </c>
       <c r="E101" t="n">
-        <v>257990222</v>
+        <v>252609311</v>
       </c>
       <c r="F101" t="n">
-        <v>28278.12572494169</v>
+        <v>25429.91781344518</v>
       </c>
       <c r="G101" t="n">
-        <v>3190.008829711915</v>
+        <v>24322.97411011189</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="I101" t="n">
-        <v>1711525</v>
+        <v>1667360</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3949,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>33195095</v>
+        <v>32024450</v>
       </c>
       <c r="E102" t="n">
-        <v>148628058</v>
+        <v>143386599</v>
       </c>
       <c r="F102" t="n">
-        <v>97048.45625960754</v>
+        <v>81798.60901873035</v>
       </c>
       <c r="G102" t="n">
-        <v>154968.4070220881</v>
+        <v>140577.867841593</v>
       </c>
       <c r="H102" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I102" t="n">
-        <v>9391855</v>
+        <v>9680418</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3276319</v>
+        <v>3191207</v>
       </c>
       <c r="E103" t="n">
-        <v>3276319</v>
+        <v>3191207</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>429671</v>
+        <v>426505</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4017,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5913810</v>
+        <v>5846984</v>
       </c>
       <c r="E104" t="n">
-        <v>15520787</v>
+        <v>15345404</v>
       </c>
       <c r="F104" t="n">
-        <v>203.7441039611481</v>
+        <v>8875.963144636002</v>
       </c>
       <c r="G104" t="n">
-        <v>2024.279878052112</v>
+        <v>1980.734726295879</v>
       </c>
       <c r="H104" t="n">
-        <v>0.24</v>
+        <v>1.25</v>
       </c>
       <c r="I104" t="n">
-        <v>27566</v>
+        <v>26372</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16854174</v>
+        <v>16379396</v>
       </c>
       <c r="E105" t="n">
-        <v>77796590</v>
+        <v>75605077</v>
       </c>
       <c r="F105" t="n">
-        <v>49278.66240354957</v>
+        <v>16260.95331037547</v>
       </c>
       <c r="G105" t="n">
-        <v>27590.82856416873</v>
+        <v>50733.69202370582</v>
       </c>
       <c r="H105" t="n">
-        <v>1.14</v>
+        <v>0.66</v>
       </c>
       <c r="I105" t="n">
-        <v>857358</v>
+        <v>953658</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4087,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>52855298</v>
+        <v>51517894</v>
       </c>
       <c r="E106" t="n">
-        <v>342752543</v>
+        <v>334079834</v>
       </c>
       <c r="F106" t="n">
-        <v>110562.4621001668</v>
+        <v>88977.41617087055</v>
       </c>
       <c r="G106" t="n">
-        <v>152939.7532609842</v>
+        <v>135765.211830741</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17388730</v>
+        <v>17573375</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4122,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2484887</v>
+        <v>2469551</v>
       </c>
       <c r="E107" t="n">
-        <v>4501840</v>
+        <v>4474056</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>143231</v>
+        <v>141213</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4155,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125105824</v>
+        <v>125486570</v>
       </c>
       <c r="E108" t="n">
-        <v>2071854904</v>
+        <v>2078160371</v>
       </c>
       <c r="F108" t="n">
-        <v>347986.5650415081</v>
+        <v>563324.6453449622</v>
       </c>
       <c r="G108" t="n">
-        <v>340727.1551392984</v>
+        <v>323818.2099540666</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5250644</v>
+        <v>5318430</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4190,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>25073867</v>
+        <v>24564648</v>
       </c>
       <c r="E109" t="n">
-        <v>150021989</v>
+        <v>146975225</v>
       </c>
       <c r="F109" t="n">
-        <v>5198.29148274445</v>
+        <v>42400.68526996565</v>
       </c>
       <c r="G109" t="n">
-        <v>40326.85370510659</v>
+        <v>39228.45195976</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="I109" t="n">
-        <v>13694358</v>
+        <v>14400852</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1133108</v>
+        <v>1082738</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>83650</v>
+        <v>79015</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2188345</v>
+        <v>2169294</v>
       </c>
       <c r="F111" t="n">
-        <v>3787.627140767412</v>
+        <v>159.2972508213921</v>
       </c>
       <c r="G111" t="n">
-        <v>312.5728044583485</v>
+        <v>245.3208852189874</v>
       </c>
       <c r="H111" t="n">
         <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>174793</v>
+        <v>175468</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147652260</v>
+        <v>147620630</v>
       </c>
       <c r="F112" t="n">
-        <v>8563.986163884805</v>
+        <v>8562.884144696483</v>
       </c>
       <c r="G112" t="n">
-        <v>2932.765498543858</v>
+        <v>3419.445007892964</v>
       </c>
       <c r="H112" t="n">
         <v>0.54</v>
       </c>
       <c r="I112" t="n">
-        <v>44279</v>
+        <v>47041</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4324,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6871232</v>
+        <v>6930796</v>
       </c>
       <c r="E113" t="n">
-        <v>35350402</v>
+        <v>35656840</v>
       </c>
       <c r="F113" t="n">
-        <v>832.9235811928893</v>
+        <v>2301.88531886472</v>
       </c>
       <c r="G113" t="n">
-        <v>635.6969401729315</v>
+        <v>509.8770772391682</v>
       </c>
       <c r="H113" t="n">
-        <v>0.84</v>
+        <v>0.28</v>
       </c>
       <c r="I113" t="n">
-        <v>941159</v>
+        <v>952741</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4359,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29535103</v>
+        <v>29329116</v>
       </c>
       <c r="E114" t="n">
-        <v>40497790</v>
+        <v>40215345</v>
       </c>
       <c r="F114" t="n">
-        <v>4635.831699554932</v>
+        <v>4886.653749169336</v>
       </c>
       <c r="G114" t="n">
-        <v>4807.171566073212</v>
+        <v>4287.687827623011</v>
       </c>
       <c r="H114" t="n">
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
       <c r="I114" t="n">
-        <v>209047</v>
+        <v>202832</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4397,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>8007179</v>
+        <v>7944920</v>
       </c>
       <c r="F115" t="n">
-        <v>114.2406736925149</v>
+        <v>220.146553365647</v>
       </c>
       <c r="G115" t="n">
-        <v>7018.70060050064</v>
+        <v>6755.793513400252</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="I115" t="n">
-        <v>644743</v>
+        <v>651260</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3410549</v>
+        <v>3382157</v>
       </c>
       <c r="E116" t="n">
-        <v>4568646</v>
+        <v>4530613</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149560</v>
+        <v>149255</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>34757916</v>
+        <v>33857327</v>
       </c>
       <c r="E117" t="n">
-        <v>173458023</v>
+        <v>168963670</v>
       </c>
       <c r="F117" t="n">
-        <v>83832.90657103226</v>
+        <v>59960.43810050901</v>
       </c>
       <c r="G117" t="n">
-        <v>60386.05828049767</v>
+        <v>58284.29775861364</v>
       </c>
       <c r="H117" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I117" t="n">
-        <v>11404446</v>
+        <v>12254014</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4497,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3515459</v>
+        <v>3503225</v>
       </c>
       <c r="E118" t="n">
-        <v>5050022</v>
+        <v>5032448</v>
       </c>
       <c r="F118" t="n">
-        <v>627.0297335865117</v>
+        <v>541.8658669385651</v>
       </c>
       <c r="G118" t="n">
-        <v>675.1241082919555</v>
+        <v>650.783357546921</v>
       </c>
       <c r="H118" t="n">
-        <v>0.59</v>
+        <v>1.38</v>
       </c>
       <c r="I118" t="n">
-        <v>140952</v>
+        <v>144930</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4532,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>330917023</v>
+        <v>328182511</v>
       </c>
       <c r="E119" t="n">
-        <v>612271957</v>
+        <v>607212486</v>
       </c>
       <c r="F119" t="n">
-        <v>103912.5429021766</v>
+        <v>122646.6870946413</v>
       </c>
       <c r="G119" t="n">
-        <v>107590.8205770285</v>
+        <v>131116.8776984714</v>
       </c>
       <c r="H119" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I119" t="n">
-        <v>14113976</v>
+        <v>13975619</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4567,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>74961306</v>
+        <v>73533226</v>
       </c>
       <c r="E120" t="n">
-        <v>715047087</v>
+        <v>701417350</v>
       </c>
       <c r="F120" t="n">
-        <v>2539.412427571746</v>
+        <v>2210.673273217938</v>
       </c>
       <c r="G120" t="n">
-        <v>39138.16280524962</v>
+        <v>40394.26128121336</v>
       </c>
       <c r="H120" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I120" t="n">
-        <v>20794673</v>
+        <v>21052100</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>39232582</v>
+        <v>38636331</v>
       </c>
       <c r="E121" t="n">
-        <v>51291695</v>
+        <v>50511916</v>
       </c>
       <c r="F121" t="n">
-        <v>230.6142278084238</v>
+        <v>6283.143281323158</v>
       </c>
       <c r="G121" t="n">
-        <v>9360.450286140724</v>
+        <v>9138.116542251058</v>
       </c>
       <c r="H121" t="n">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="I121" t="n">
-        <v>186831</v>
+        <v>180796</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4637,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11051438</v>
+        <v>11038986</v>
       </c>
       <c r="E122" t="n">
-        <v>32779023</v>
+        <v>32742089</v>
       </c>
       <c r="F122" t="n">
-        <v>4502.607758797442</v>
+        <v>2918.826153855799</v>
       </c>
       <c r="G122" t="n">
-        <v>5296.676978461684</v>
+        <v>6068.774507305645</v>
       </c>
       <c r="H122" t="n">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
       <c r="I122" t="n">
-        <v>6019954</v>
+        <v>5976391</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4672,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2330926</v>
+        <v>2329660</v>
       </c>
       <c r="E123" t="n">
-        <v>7789101</v>
+        <v>7784869</v>
       </c>
       <c r="F123" t="n">
-        <v>906.6705229200645</v>
+        <v>637.3580430691906</v>
       </c>
       <c r="G123" t="n">
-        <v>1070.948843149511</v>
+        <v>1164.907800011017</v>
       </c>
       <c r="H123" t="n">
         <v>0.89</v>
       </c>
       <c r="I123" t="n">
-        <v>981324</v>
+        <v>994587</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4707,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7467515</v>
+        <v>7470371</v>
       </c>
       <c r="E124" t="n">
-        <v>7467526</v>
+        <v>7470382</v>
       </c>
       <c r="F124" t="n">
-        <v>2921.765387225656</v>
+        <v>2800.676675316062</v>
       </c>
       <c r="G124" t="n">
-        <v>5875.354975579422</v>
+        <v>3144.249443138284</v>
       </c>
       <c r="H124" t="n">
-        <v>0.24</v>
+        <v>1.19</v>
       </c>
       <c r="I124" t="n">
-        <v>288796</v>
+        <v>265553</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6631333</v>
+        <v>6557497</v>
       </c>
       <c r="E125" t="n">
-        <v>6631333</v>
+        <v>6557497</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>550251</v>
+        <v>519707</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4775,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6280374</v>
+        <v>6273746</v>
       </c>
       <c r="E126" t="n">
-        <v>22939778</v>
+        <v>22915566</v>
       </c>
       <c r="F126" t="n">
-        <v>7381.840866848411</v>
+        <v>7176.4108436667</v>
       </c>
       <c r="G126" t="n">
-        <v>8019.503032700081</v>
+        <v>8600.991710852817</v>
       </c>
       <c r="H126" t="n">
         <v>0.87</v>
       </c>
       <c r="I126" t="n">
-        <v>558822</v>
+        <v>554139</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>46375296</v>
+        <v>45415870</v>
       </c>
       <c r="E127" t="n">
-        <v>46375296</v>
+        <v>45415870</v>
       </c>
       <c r="F127" t="n">
-        <v>67332.85856214016</v>
+        <v>73390.49771039982</v>
       </c>
       <c r="G127" t="n">
-        <v>71069.9143613318</v>
+        <v>78940.41780277538</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>9314493</v>
+        <v>9421879</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>143965804</v>
+        <v>142759958</v>
       </c>
       <c r="F128" t="n">
-        <v>340.6490344248803</v>
+        <v>365.6918122677392</v>
       </c>
       <c r="G128" t="n">
-        <v>1581.507973745662</v>
+        <v>1833.953820952712</v>
       </c>
       <c r="H128" t="n">
-        <v>2.19</v>
+        <v>1.45</v>
       </c>
       <c r="I128" t="n">
-        <v>1747413</v>
+        <v>1756283</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2997582</v>
+        <v>3018107</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73773</v>
+        <v>75462</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4916,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20535359</v>
+        <v>20153611</v>
       </c>
       <c r="F130" t="n">
-        <v>481.3582201101741</v>
+        <v>168.3434512344357</v>
       </c>
       <c r="G130" t="n">
-        <v>648.9274977337298</v>
+        <v>284.9348621657018</v>
       </c>
       <c r="H130" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="I130" t="n">
-        <v>2996674</v>
+        <v>2964713</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4948,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1302895</v>
+        <v>1295229</v>
       </c>
       <c r="E131" t="n">
-        <v>3940765</v>
+        <v>3917006</v>
       </c>
       <c r="F131" t="n">
-        <v>835.4547699457673</v>
+        <v>801.1314356400947</v>
       </c>
       <c r="G131" t="n">
-        <v>697.2767149971062</v>
+        <v>689.7171714531689</v>
       </c>
       <c r="H131" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>21399</v>
+        <v>33869</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4983,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>625892120</v>
+        <v>614122825</v>
       </c>
       <c r="E132" t="n">
-        <v>2423987835</v>
+        <v>2378407095</v>
       </c>
       <c r="F132" t="n">
-        <v>674409.9949525704</v>
+        <v>823640.8202543278</v>
       </c>
       <c r="G132" t="n">
-        <v>804013.8775381304</v>
+        <v>1053832.807905819</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>41275426</v>
+        <v>43396129</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5018,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3726890</v>
+        <v>3693574</v>
       </c>
       <c r="E133" t="n">
-        <v>6352990</v>
+        <v>6296198</v>
       </c>
       <c r="F133" t="n">
-        <v>4816.555033807746</v>
+        <v>5283.612995571651</v>
       </c>
       <c r="G133" t="n">
-        <v>6102.808705508107</v>
+        <v>5256.666457350634</v>
       </c>
       <c r="H133" t="n">
-        <v>1.09</v>
+        <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1272134</v>
+        <v>1287093</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5053,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>118408750</v>
+        <v>116274047</v>
       </c>
       <c r="E134" t="n">
-        <v>1100169891</v>
+        <v>1080335743</v>
       </c>
       <c r="F134" t="n">
-        <v>87066.1754668424</v>
+        <v>100853.8112906883</v>
       </c>
       <c r="G134" t="n">
-        <v>118161.6360062902</v>
+        <v>94820.76788516877</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>12106768</v>
+        <v>10595233</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5088,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>992576419</v>
+        <v>982690173</v>
       </c>
       <c r="E135" t="n">
-        <v>1090347917</v>
+        <v>1079487848</v>
       </c>
       <c r="F135" t="n">
-        <v>17501.58269733519</v>
+        <v>11073.93016015312</v>
       </c>
       <c r="G135" t="n">
-        <v>18739.60481537438</v>
+        <v>16213.28988555097</v>
       </c>
       <c r="H135" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="I135" t="n">
-        <v>8695058</v>
+        <v>8285416</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1137060</v>
+        <v>1123448</v>
       </c>
       <c r="E136" t="n">
-        <v>4402945</v>
+        <v>4350237</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>357821</v>
+        <v>355140</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5156,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>126321887</v>
+        <v>125859327</v>
       </c>
       <c r="E137" t="n">
-        <v>484591089</v>
+        <v>482816636</v>
       </c>
       <c r="F137" t="n">
-        <v>104691.1066037504</v>
+        <v>122346.0603207557</v>
       </c>
       <c r="G137" t="n">
-        <v>247791.3859732019</v>
+        <v>213734.9139068448</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I137" t="n">
-        <v>38397316</v>
+        <v>38534781</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5191,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3358721</v>
+        <v>3321880</v>
       </c>
       <c r="E138" t="n">
-        <v>31824378</v>
+        <v>31475305</v>
       </c>
       <c r="F138" t="n">
-        <v>4202.447467313978</v>
+        <v>5155.677858764327</v>
       </c>
       <c r="G138" t="n">
-        <v>5880.222746425278</v>
+        <v>4649.667945157811</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="I138" t="n">
-        <v>203734</v>
+        <v>194518</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5226,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22125411</v>
+        <v>22605137</v>
       </c>
       <c r="E139" t="n">
-        <v>22125411</v>
+        <v>22605137</v>
       </c>
       <c r="F139" t="n">
-        <v>9476.912482181069</v>
+        <v>1046.928869283138</v>
       </c>
       <c r="G139" t="n">
-        <v>5325.597548683968</v>
+        <v>1336.050056835586</v>
       </c>
       <c r="H139" t="n">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="I139" t="n">
-        <v>563637</v>
+        <v>569873</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5261,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>493859553</v>
+        <v>489655425</v>
       </c>
       <c r="E140" t="n">
-        <v>493859553</v>
+        <v>489655425</v>
       </c>
       <c r="F140" t="n">
-        <v>903645.3847850162</v>
+        <v>803443.8224123202</v>
       </c>
       <c r="G140" t="n">
-        <v>845805.7032030489</v>
+        <v>877140.7076964839</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>35020445</v>
+        <v>34786861</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5299,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35624233</v>
+        <v>36229352</v>
       </c>
       <c r="F141" t="n">
-        <v>72898.84803298704</v>
+        <v>71198.84394122203</v>
       </c>
       <c r="G141" t="n">
-        <v>73556.41081523066</v>
+        <v>74878.6924581401</v>
       </c>
       <c r="H141" t="n">
         <v>0.39</v>
       </c>
       <c r="I141" t="n">
-        <v>5709849</v>
+        <v>6327902</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>810480</v>
+        <v>797961</v>
       </c>
       <c r="E142" t="n">
-        <v>12926872</v>
+        <v>12727192</v>
       </c>
       <c r="F142" t="n">
-        <v>111.6287257927804</v>
+        <v>110.3872030445585</v>
       </c>
       <c r="G142" t="n">
-        <v>11.15698624927689</v>
+        <v>148.4808690971581</v>
       </c>
       <c r="H142" t="n">
-        <v>0.77</v>
+        <v>3</v>
       </c>
       <c r="I142" t="n">
-        <v>327529</v>
+        <v>328805</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5366,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2748684097</v>
+        <v>2714893661</v>
       </c>
       <c r="E143" t="n">
-        <v>2918387295</v>
+        <v>2882510645</v>
       </c>
       <c r="F143" t="n">
-        <v>4699.554603331884</v>
+        <v>4934.714841859575</v>
       </c>
       <c r="G143" t="n">
-        <v>17098.91558543234</v>
+        <v>19663.70592150841</v>
       </c>
       <c r="H143" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="I143" t="n">
-        <v>44016409</v>
+        <v>48516571</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5401,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1772859</v>
+        <v>1780149</v>
       </c>
       <c r="E144" t="n">
-        <v>1779117</v>
+        <v>1786432</v>
       </c>
       <c r="F144" t="n">
-        <v>1347.928350551389</v>
+        <v>1873.89107040567</v>
       </c>
       <c r="G144" t="n">
-        <v>5626.608202531968</v>
+        <v>1940.689449813381</v>
       </c>
       <c r="H144" t="n">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="I144" t="n">
-        <v>455656</v>
+        <v>450761</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5436,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>62227814</v>
+        <v>60563057</v>
       </c>
       <c r="E145" t="n">
-        <v>152640609</v>
+        <v>148557073</v>
       </c>
       <c r="F145" t="n">
-        <v>3273.820904625591</v>
+        <v>3325.656744343972</v>
       </c>
       <c r="G145" t="n">
-        <v>4937.639970712925</v>
+        <v>4248.044026662528</v>
       </c>
       <c r="H145" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I145" t="n">
-        <v>22653875</v>
+        <v>22154407</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>828145902</v>
+        <v>822405872</v>
       </c>
       <c r="E146" t="n">
-        <v>1277074099</v>
+        <v>1268222467</v>
       </c>
       <c r="F146" t="n">
-        <v>198277.8480543614</v>
+        <v>210253.5471652985</v>
       </c>
       <c r="G146" t="n">
-        <v>243836.7479500957</v>
+        <v>283729.1278447294</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>302316560</v>
+        <v>311003836</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5506,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>24338072</v>
+        <v>24074212</v>
       </c>
       <c r="E147" t="n">
-        <v>24338072</v>
+        <v>24074212</v>
       </c>
       <c r="F147" t="n">
-        <v>4482.617378054993</v>
+        <v>4405.573609333089</v>
       </c>
       <c r="G147" t="n">
-        <v>8430.312268273086</v>
+        <v>7622.299492065047</v>
       </c>
       <c r="H147" t="n">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="I147" t="n">
-        <v>5306411</v>
+        <v>5297448</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5541,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3817944</v>
+        <v>3836861</v>
       </c>
       <c r="E148" t="n">
-        <v>8322583</v>
+        <v>8363819</v>
       </c>
       <c r="F148" t="n">
-        <v>6859.141170108181</v>
+        <v>6898.052255598718</v>
       </c>
       <c r="G148" t="n">
-        <v>7038.815438506414</v>
+        <v>7119.739129786918</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1783438</v>
+        <v>1785502</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5576,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9239925</v>
+        <v>9227440</v>
       </c>
       <c r="E149" t="n">
-        <v>9239925</v>
+        <v>9227440</v>
       </c>
       <c r="F149" t="n">
-        <v>114373.8302157164</v>
+        <v>92601.1039400505</v>
       </c>
       <c r="G149" t="n">
-        <v>77934.01038573599</v>
+        <v>82799.5235285391</v>
       </c>
       <c r="H149" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I149" t="n">
-        <v>3230183</v>
+        <v>3764541</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>510502135</v>
+        <v>500660669</v>
       </c>
       <c r="E150" t="n">
-        <v>1777015447</v>
+        <v>1742758122</v>
       </c>
       <c r="F150" t="n">
-        <v>844162.6529718911</v>
+        <v>585561.449148976</v>
       </c>
       <c r="G150" t="n">
-        <v>472961.1570699026</v>
+        <v>854910.8930822616</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>37925234</v>
+        <v>38737695</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5646,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49672529</v>
+        <v>49542676</v>
       </c>
       <c r="E151" t="n">
-        <v>122275705</v>
+        <v>121956061</v>
       </c>
       <c r="F151" t="n">
-        <v>8086.026029224622</v>
+        <v>8567.709145944746</v>
       </c>
       <c r="G151" t="n">
-        <v>7910.18071513633</v>
+        <v>8439.952890450528</v>
       </c>
       <c r="H151" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="I151" t="n">
-        <v>33662</v>
+        <v>38421</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5681,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7487957</v>
+        <v>7509910</v>
       </c>
       <c r="E152" t="n">
-        <v>19452907</v>
+        <v>19509938</v>
       </c>
       <c r="F152" t="n">
-        <v>6049.309405225437</v>
+        <v>6830.618394902978</v>
       </c>
       <c r="G152" t="n">
-        <v>6546.513501677405</v>
+        <v>7502.041541614935</v>
       </c>
       <c r="H152" t="n">
         <v>1.03</v>
       </c>
       <c r="I152" t="n">
-        <v>724948</v>
+        <v>728696</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5719,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19142762099</v>
+        <v>19096883856</v>
       </c>
       <c r="F153" t="n">
-        <v>52452.84992120515</v>
+        <v>52447.68858727735</v>
       </c>
       <c r="G153" t="n">
-        <v>49985.89707573206</v>
+        <v>49987.86578108702</v>
       </c>
       <c r="H153" t="n">
         <v>0.23</v>
       </c>
       <c r="I153" t="n">
-        <v>43870333</v>
+        <v>43931748</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5751,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2659058</v>
+        <v>2631167</v>
       </c>
       <c r="E154" t="n">
-        <v>10636232</v>
+        <v>10524667</v>
       </c>
       <c r="F154" t="n">
-        <v>3277.723594152529</v>
+        <v>3188.069477426113</v>
       </c>
       <c r="G154" t="n">
-        <v>22335.54490981723</v>
+        <v>24904.84687052981</v>
       </c>
       <c r="H154" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I154" t="n">
-        <v>7050205</v>
+        <v>7035977</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5786,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>230516167</v>
+        <v>227166332</v>
       </c>
       <c r="E155" t="n">
-        <v>708750466</v>
+        <v>698450983</v>
       </c>
       <c r="F155" t="n">
-        <v>132465.9221080191</v>
+        <v>81958.74798524268</v>
       </c>
       <c r="G155" t="n">
-        <v>179254.004804238</v>
+        <v>142311.9766973346</v>
       </c>
       <c r="H155" t="n">
         <v>0.09</v>
       </c>
       <c r="I155" t="n">
-        <v>17105820</v>
+        <v>21600718</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>412028387</v>
+        <v>405441271</v>
       </c>
       <c r="E156" t="n">
-        <v>2354447925</v>
+        <v>2316807263</v>
       </c>
       <c r="F156" t="n">
-        <v>196781.7593971161</v>
+        <v>175141.9544568116</v>
       </c>
       <c r="G156" t="n">
-        <v>229174.3515810052</v>
+        <v>221550.2463290167</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>44035385</v>
+        <v>44477741</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4018573</v>
+        <v>3901261</v>
       </c>
       <c r="F2" t="n">
-        <v>1233.216282127669</v>
+        <v>427.5898962678789</v>
       </c>
       <c r="G2" t="n">
-        <v>794.6011719754322</v>
+        <v>1731.1281803614</v>
       </c>
       <c r="H2" t="n">
-        <v>2.43</v>
+        <v>1.82</v>
       </c>
       <c r="I2" t="n">
-        <v>155823</v>
+        <v>156243</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>650703328</v>
+        <v>642959491</v>
       </c>
       <c r="E3" t="n">
-        <v>1262699731</v>
+        <v>1247681686</v>
       </c>
       <c r="F3" t="n">
-        <v>62649.66083417053</v>
+        <v>47785.60070136017</v>
       </c>
       <c r="G3" t="n">
-        <v>69323.72847856031</v>
+        <v>63767.23395879363</v>
       </c>
       <c r="H3" t="n">
         <v>0.24</v>
       </c>
       <c r="I3" t="n">
-        <v>32371275</v>
+        <v>36573192</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>254197149</v>
+        <v>252545642</v>
       </c>
       <c r="E4" t="n">
-        <v>1594034589</v>
+        <v>1583678221</v>
       </c>
       <c r="F4" t="n">
-        <v>204247.5403691398</v>
+        <v>304788.3734729842</v>
       </c>
       <c r="G4" t="n">
-        <v>322104.5136409786</v>
+        <v>228378.551072446</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>19486404</v>
+        <v>20821714</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149913192</v>
+        <v>148143545</v>
       </c>
       <c r="E5" t="n">
-        <v>166127245</v>
+        <v>164166200</v>
       </c>
       <c r="F5" t="n">
-        <v>8467.665537848798</v>
+        <v>8452.075632195845</v>
       </c>
       <c r="G5" t="n">
-        <v>2749.511262869124</v>
+        <v>3660.91797395266</v>
       </c>
       <c r="H5" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="n">
-        <v>45781688</v>
+        <v>48726752</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51268551</v>
+        <v>49279506</v>
       </c>
       <c r="E6" t="n">
-        <v>64135643</v>
+        <v>61647398</v>
       </c>
       <c r="F6" t="n">
-        <v>5328.338145393865</v>
+        <v>4141.882311695749</v>
       </c>
       <c r="G6" t="n">
-        <v>7364.744966999236</v>
+        <v>5932.553946485672</v>
       </c>
       <c r="H6" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I6" t="n">
-        <v>831713</v>
+        <v>859516</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69398964</v>
+        <v>68616825</v>
       </c>
       <c r="E7" t="n">
-        <v>138219249</v>
+        <v>136661493</v>
       </c>
       <c r="F7" t="n">
-        <v>12556.22127021514</v>
+        <v>12823.05921553304</v>
       </c>
       <c r="G7" t="n">
-        <v>12286.69103323803</v>
+        <v>11794.6113709751</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="I7" t="n">
-        <v>820968</v>
+        <v>887143</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41275614</v>
+        <v>41311091</v>
       </c>
       <c r="E8" t="n">
-        <v>46193358</v>
+        <v>46233061</v>
       </c>
       <c r="F8" t="n">
-        <v>685.5332385981621</v>
+        <v>415.4268775421803</v>
       </c>
       <c r="G8" t="n">
-        <v>631.7886496130337</v>
+        <v>576.9831122330485</v>
       </c>
       <c r="H8" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4871994</v>
+        <v>5168566</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14217619</v>
+        <v>13962858</v>
       </c>
       <c r="E9" t="n">
-        <v>41898404</v>
+        <v>41147641</v>
       </c>
       <c r="F9" t="n">
-        <v>5566.022320567213</v>
+        <v>5091.553208221467</v>
       </c>
       <c r="G9" t="n">
-        <v>4894.700237613835</v>
+        <v>4830.967419156002</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
       <c r="I9" t="n">
-        <v>952512</v>
+        <v>951641</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9764261</v>
+        <v>8863223</v>
       </c>
       <c r="E10" t="n">
-        <v>41974791</v>
+        <v>38099063</v>
       </c>
       <c r="F10" t="n">
-        <v>382.2211202419833</v>
+        <v>519.4283487877562</v>
       </c>
       <c r="G10" t="n">
-        <v>937.684332661797</v>
+        <v>996.0250950245659</v>
       </c>
       <c r="H10" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="I10" t="n">
-        <v>839326</v>
+        <v>943655</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>597757995</v>
+        <v>587743725</v>
       </c>
       <c r="E11" t="n">
-        <v>747706409</v>
+        <v>735180045</v>
       </c>
       <c r="F11" t="n">
-        <v>299952.3070485878</v>
+        <v>317790.000484481</v>
       </c>
       <c r="G11" t="n">
-        <v>281939.7823733192</v>
+        <v>277274.6045148739</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>69370405</v>
+        <v>87606313</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4584972</v>
+        <v>4318908</v>
       </c>
       <c r="E12" t="n">
-        <v>28154070</v>
+        <v>26520286</v>
       </c>
       <c r="F12" t="n">
-        <v>7978.912993850365</v>
+        <v>9750.698021174408</v>
       </c>
       <c r="G12" t="n">
-        <v>5582.086216576567</v>
+        <v>9198.199060722996</v>
       </c>
       <c r="H12" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>693809</v>
+        <v>711999</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23597835</v>
+        <v>24456296</v>
       </c>
       <c r="E13" t="n">
-        <v>23641600</v>
+        <v>24501405</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>833520</v>
+        <v>840835</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82895014</v>
+        <v>82150113</v>
       </c>
       <c r="E14" t="n">
-        <v>243887412</v>
+        <v>241695820</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>406800</v>
+        <v>421702</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>520376197</v>
+        <v>518351733</v>
       </c>
       <c r="E15" t="n">
-        <v>520376199</v>
+        <v>518351733</v>
       </c>
       <c r="F15" t="n">
-        <v>16351.16458248185</v>
+        <v>20973.09806995544</v>
       </c>
       <c r="G15" t="n">
-        <v>18679.13350642452</v>
+        <v>25818.46190354888</v>
       </c>
       <c r="H15" t="n">
         <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>81271296</v>
+        <v>72823627</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4720175</v>
+        <v>4719985</v>
       </c>
       <c r="E16" t="n">
-        <v>4720175</v>
+        <v>4719985</v>
       </c>
       <c r="F16" t="n">
-        <v>587.8669388540803</v>
+        <v>527.6046015108532</v>
       </c>
       <c r="G16" t="n">
-        <v>561.1365001039145</v>
+        <v>1350.26003593639</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>2111635</v>
+        <v>2237067</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3417865</v>
+        <v>3368584</v>
       </c>
       <c r="E17" t="n">
-        <v>3417865</v>
+        <v>3368584</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>520107</v>
+        <v>573779</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>170409281</v>
+        <v>169728128</v>
       </c>
       <c r="E18" t="n">
-        <v>210973786</v>
+        <v>210130490</v>
       </c>
       <c r="F18" t="n">
-        <v>5351.62869741788</v>
+        <v>4815.291298149081</v>
       </c>
       <c r="G18" t="n">
-        <v>11498.36435531801</v>
+        <v>11854.12023752761</v>
       </c>
       <c r="H18" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="I18" t="n">
-        <v>599074</v>
+        <v>557870</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6927182</v>
+        <v>6753471</v>
       </c>
       <c r="E19" t="n">
-        <v>9540500</v>
+        <v>9301255</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>299472</v>
+        <v>250346</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>907098</v>
+        <v>910810</v>
       </c>
       <c r="E20" t="n">
-        <v>6349689</v>
+        <v>6375668</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>234569</v>
+        <v>257579</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>114975927</v>
+        <v>114543464</v>
       </c>
       <c r="E21" t="n">
-        <v>447085666</v>
+        <v>445378391</v>
       </c>
       <c r="F21" t="n">
-        <v>45990.60657105992</v>
+        <v>39739.56084771507</v>
       </c>
       <c r="G21" t="n">
-        <v>67547.88151846989</v>
+        <v>36192.54180479111</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>12649864</v>
+        <v>12815422</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1725168</v>
+        <v>1720558</v>
       </c>
       <c r="E22" t="n">
-        <v>12426242</v>
+        <v>12393032</v>
       </c>
       <c r="F22" t="n">
-        <v>5981.087687403563</v>
+        <v>4879.80471659556</v>
       </c>
       <c r="G22" t="n">
-        <v>4586.425625147024</v>
+        <v>3604.587696915442</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I22" t="n">
-        <v>49531</v>
+        <v>53197</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>146079539</v>
+        <v>145448434</v>
       </c>
       <c r="E23" t="n">
-        <v>146079539</v>
+        <v>145448434</v>
       </c>
       <c r="F23" t="n">
-        <v>997015.0046036375</v>
+        <v>1003137.153828427</v>
       </c>
       <c r="G23" t="n">
-        <v>1165942.911928115</v>
+        <v>1121193.485149747</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>78286553</v>
+        <v>86027964</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68097228</v>
+        <v>67395035</v>
       </c>
       <c r="E24" t="n">
-        <v>349216553</v>
+        <v>345615563</v>
       </c>
       <c r="F24" t="n">
-        <v>82829.99200627329</v>
+        <v>73536.41665108436</v>
       </c>
       <c r="G24" t="n">
-        <v>135414.2806483036</v>
+        <v>111760.0929689229</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>24740045</v>
+        <v>26127816</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>270451176</v>
+        <v>266396789</v>
       </c>
       <c r="E25" t="n">
-        <v>270451176</v>
+        <v>266396789</v>
       </c>
       <c r="F25" t="n">
-        <v>345695.2663792032</v>
+        <v>440122.8003765098</v>
       </c>
       <c r="G25" t="n">
-        <v>459607.8944300369</v>
+        <v>463565.2724496466</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>21177207</v>
+        <v>20015332</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1134122</v>
+        <v>1132208</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>146777</v>
+        <v>145668</v>
       </c>
     </row>
     <row r="27">
@@ -1360,20 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2016174</v>
+        <v>2861899</v>
       </c>
       <c r="E27" t="n">
-        <v>2063698</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>3162426</v>
+      </c>
+      <c r="F27" t="n">
+        <v>666.4826317523356</v>
+      </c>
+      <c r="G27" t="n">
+        <v>86.45944663930474</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9</v>
       </c>
       <c r="I27" t="n">
-        <v>140.5</v>
+        <v>264359</v>
       </c>
     </row>
     <row r="28">
@@ -1393,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4029607</v>
+        <v>3986957</v>
       </c>
       <c r="E28" t="n">
-        <v>4030396</v>
+        <v>3987591</v>
       </c>
       <c r="F28" t="n">
-        <v>1110.145617540246</v>
+        <v>914.880379993057</v>
       </c>
       <c r="G28" t="n">
-        <v>2745.373702912907</v>
+        <v>3848.087900708595</v>
       </c>
       <c r="H28" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I28" t="n">
-        <v>249169</v>
+        <v>254516</v>
       </c>
     </row>
     <row r="29">
@@ -1428,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6892068</v>
+        <v>6972746</v>
       </c>
       <c r="E29" t="n">
-        <v>16740303</v>
+        <v>16936263</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1441,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>468087</v>
+        <v>459336</v>
       </c>
     </row>
     <row r="30">
@@ -1461,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100708735</v>
+        <v>100330181</v>
       </c>
       <c r="E30" t="n">
-        <v>125571987</v>
+        <v>125099975</v>
       </c>
       <c r="F30" t="n">
-        <v>112500.920468175</v>
+        <v>100189.2348923023</v>
       </c>
       <c r="G30" t="n">
-        <v>107352.6958184581</v>
+        <v>113090.078796278</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12368109</v>
+        <v>10989951</v>
       </c>
     </row>
     <row r="31">
@@ -1496,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1141608</v>
+        <v>1157774</v>
       </c>
       <c r="E31" t="n">
-        <v>12406572</v>
+        <v>12582251</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1509,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8422.059999999999</v>
+        <v>14800.08</v>
       </c>
     </row>
     <row r="32">
@@ -1529,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84940195</v>
+        <v>84262718</v>
       </c>
       <c r="E32" t="n">
-        <v>237608107</v>
+        <v>235724202</v>
       </c>
       <c r="F32" t="n">
-        <v>59617.25029615881</v>
+        <v>65184.80402930552</v>
       </c>
       <c r="G32" t="n">
-        <v>77177.68182147529</v>
+        <v>80080.64519027509</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>49090394</v>
+        <v>54162994</v>
       </c>
     </row>
     <row r="33">
@@ -1564,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4148654</v>
+        <v>4086260</v>
       </c>
       <c r="E33" t="n">
-        <v>8181494</v>
+        <v>8058450</v>
       </c>
       <c r="F33" t="n">
-        <v>8783.537703887263</v>
+        <v>9991.3079830508</v>
       </c>
       <c r="G33" t="n">
-        <v>7552.598794679636</v>
+        <v>7571.233668475559</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="I33" t="n">
-        <v>1624433</v>
+        <v>1638946</v>
       </c>
     </row>
     <row r="34">
@@ -1602,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36720006</v>
+        <v>36403940</v>
       </c>
       <c r="F34" t="n">
-        <v>219.5351232201093</v>
+        <v>270.6210761369298</v>
       </c>
       <c r="G34" t="n">
-        <v>181.3169286840945</v>
+        <v>411.2226922666071</v>
       </c>
       <c r="H34" t="n">
-        <v>0.84</v>
+        <v>0.03</v>
       </c>
       <c r="I34" t="n">
-        <v>50459</v>
+        <v>49391</v>
       </c>
     </row>
     <row r="35">
@@ -1634,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17230507</v>
+        <v>17380258</v>
       </c>
       <c r="E35" t="n">
-        <v>18160550</v>
+        <v>18318385</v>
       </c>
       <c r="F35" t="n">
-        <v>3488.868518325166</v>
+        <v>3487.490510731902</v>
       </c>
       <c r="G35" t="n">
-        <v>2655.869256019307</v>
+        <v>2655.927573740352</v>
       </c>
       <c r="H35" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="I35" t="n">
-        <v>36008</v>
+        <v>37926</v>
       </c>
     </row>
     <row r="36">
@@ -1672,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>22909892</v>
+        <v>23221382</v>
       </c>
       <c r="F36" t="n">
-        <v>5079.633317079881</v>
+        <v>5147.124301545533</v>
       </c>
       <c r="G36" t="n">
-        <v>5551.731204268695</v>
+        <v>5264.754557140046</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="I36" t="n">
-        <v>125061</v>
+        <v>125168</v>
       </c>
     </row>
     <row r="37">
@@ -1704,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>89712558</v>
+        <v>90158289</v>
       </c>
       <c r="E37" t="n">
-        <v>187043479</v>
+        <v>187972792</v>
       </c>
       <c r="F37" t="n">
-        <v>84319.66120435151</v>
+        <v>91269.75741639675</v>
       </c>
       <c r="G37" t="n">
-        <v>109679.97162935</v>
+        <v>95263.55299170053</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="I37" t="n">
-        <v>56181879</v>
+        <v>65280665</v>
       </c>
     </row>
     <row r="38">
@@ -1739,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>285340951</v>
+        <v>284947866</v>
       </c>
       <c r="E38" t="n">
-        <v>285340951</v>
+        <v>284947866</v>
       </c>
       <c r="F38" t="n">
-        <v>24041.37441430839</v>
+        <v>22916.68808605346</v>
       </c>
       <c r="G38" t="n">
-        <v>33014.94812751376</v>
+        <v>33274.78589514699</v>
       </c>
       <c r="H38" t="n">
         <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>11259710</v>
+        <v>11916944</v>
       </c>
     </row>
     <row r="39">
@@ -1774,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>207597231</v>
+        <v>206224451</v>
       </c>
       <c r="E39" t="n">
-        <v>721211542</v>
+        <v>716442381</v>
       </c>
       <c r="F39" t="n">
-        <v>193322.3690722237</v>
+        <v>249444.2092096955</v>
       </c>
       <c r="G39" t="n">
-        <v>232881.3464856828</v>
+        <v>249730.2333839419</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>38644363</v>
+        <v>37063735</v>
       </c>
     </row>
     <row r="40">
@@ -1809,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3719344</v>
+        <v>3584348</v>
       </c>
       <c r="E40" t="n">
-        <v>3719344</v>
+        <v>3584348</v>
       </c>
       <c r="F40" t="n">
-        <v>841.4204882670591</v>
+        <v>1247.15202946829</v>
       </c>
       <c r="G40" t="n">
-        <v>2779.4200480364</v>
+        <v>2860.373289820688</v>
       </c>
       <c r="H40" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="I40" t="n">
-        <v>2423399</v>
+        <v>2517027</v>
       </c>
     </row>
     <row r="41">
@@ -1844,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>117312975</v>
+        <v>116879108</v>
       </c>
       <c r="E41" t="n">
-        <v>497940788</v>
+        <v>496030255</v>
       </c>
       <c r="F41" t="n">
-        <v>5272.413651000512</v>
+        <v>5651.187846732308</v>
       </c>
       <c r="G41" t="n">
-        <v>5996.283255589067</v>
+        <v>6192.710494512618</v>
       </c>
       <c r="H41" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>15037322</v>
+        <v>15785388</v>
       </c>
     </row>
     <row r="42">
@@ -1879,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>556570</v>
+        <v>546975</v>
       </c>
       <c r="E42" t="n">
-        <v>6750658</v>
+        <v>6634279</v>
       </c>
       <c r="F42" t="n">
-        <v>373.0161652166213</v>
+        <v>276.7953604093075</v>
       </c>
       <c r="G42" t="n">
-        <v>1010.07348010205</v>
+        <v>902.7828616636546</v>
       </c>
       <c r="H42" t="n">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="I42" t="n">
-        <v>2766355</v>
+        <v>2763010</v>
       </c>
     </row>
     <row r="43">
@@ -1914,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1412304348</v>
+        <v>1360015224</v>
       </c>
       <c r="E43" t="n">
-        <v>6772288581</v>
+        <v>6521551525</v>
       </c>
       <c r="F43" t="n">
-        <v>51895.82372842757</v>
+        <v>32365.81464715038</v>
       </c>
       <c r="G43" t="n">
-        <v>61866.26243241793</v>
+        <v>65597.92091929879</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I43" t="n">
-        <v>271685577</v>
+        <v>380447895</v>
       </c>
     </row>
     <row r="44">
@@ -1949,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6035537071</v>
+        <v>6009734447</v>
       </c>
       <c r="E44" t="n">
-        <v>6035537071</v>
+        <v>6009734447</v>
       </c>
       <c r="F44" t="n">
-        <v>1314512.371089453</v>
+        <v>584721.5639134772</v>
       </c>
       <c r="G44" t="n">
-        <v>9067.494220426981</v>
+        <v>369806.6685613365</v>
       </c>
       <c r="H44" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I44" t="n">
-        <v>98718129</v>
+        <v>292938290</v>
       </c>
     </row>
     <row r="45">
@@ -1984,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>274425324</v>
+        <v>269926981</v>
       </c>
       <c r="E45" t="n">
-        <v>1184572044</v>
+        <v>1165154700</v>
       </c>
       <c r="F45" t="n">
-        <v>61753.60610906006</v>
+        <v>99022.38093296513</v>
       </c>
       <c r="G45" t="n">
-        <v>82724.04983943608</v>
+        <v>93705.05208463354</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I45" t="n">
-        <v>113258702</v>
+        <v>132433536</v>
       </c>
     </row>
     <row r="46">
@@ -2019,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>116570409</v>
+        <v>115949399</v>
       </c>
       <c r="E46" t="n">
-        <v>116570409</v>
+        <v>115949399</v>
       </c>
       <c r="F46" t="n">
-        <v>24586.60070279053</v>
+        <v>27920.49997721873</v>
       </c>
       <c r="G46" t="n">
-        <v>40157.88412572798</v>
+        <v>29918.62587282538</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I46" t="n">
-        <v>7567912</v>
+        <v>6721452</v>
       </c>
     </row>
     <row r="47">
@@ -2054,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2022170988</v>
+        <v>2040096587</v>
       </c>
       <c r="E47" t="n">
-        <v>2022170988</v>
+        <v>2040096587</v>
       </c>
       <c r="F47" t="n">
-        <v>226026.6100291137</v>
+        <v>226350.4374724735</v>
       </c>
       <c r="G47" t="n">
-        <v>198125.3597746617</v>
+        <v>198409.9119907818</v>
       </c>
       <c r="H47" t="n">
         <v>0.09</v>
       </c>
       <c r="I47" t="n">
-        <v>7039899071</v>
+        <v>8451175203</v>
       </c>
     </row>
     <row r="48">
@@ -2092,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10181481</v>
+        <v>10170012</v>
       </c>
       <c r="F48" t="n">
-        <v>6230.270874369482</v>
+        <v>6682.635636236843</v>
       </c>
       <c r="G48" t="n">
-        <v>5954.395357878567</v>
+        <v>6319.155350829369</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>183581</v>
+        <v>184405</v>
       </c>
     </row>
     <row r="49">
@@ -2124,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4436231</v>
+        <v>4347980</v>
       </c>
       <c r="E49" t="n">
-        <v>5824193</v>
+        <v>5708330</v>
       </c>
       <c r="F49" t="n">
-        <v>15443.94957373001</v>
+        <v>4673.432523027727</v>
       </c>
       <c r="G49" t="n">
-        <v>8270.654989202285</v>
+        <v>7629.814611581408</v>
       </c>
       <c r="H49" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>613280</v>
+        <v>641695</v>
       </c>
     </row>
     <row r="50">
@@ -2159,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12920332</v>
+        <v>13063611</v>
       </c>
       <c r="E50" t="n">
-        <v>18999105</v>
+        <v>19209794</v>
       </c>
       <c r="F50" t="n">
-        <v>6259.812483988389</v>
+        <v>6306.847894885072</v>
       </c>
       <c r="G50" t="n">
-        <v>17935.10690884519</v>
+        <v>10845.86047251669</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>5033590</v>
+        <v>6508798</v>
       </c>
     </row>
     <row r="51">
@@ -2194,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23341405</v>
+        <v>22962493</v>
       </c>
       <c r="E51" t="n">
-        <v>30279142</v>
+        <v>29787606</v>
       </c>
       <c r="F51" t="n">
-        <v>9049.639943915539</v>
+        <v>9239.873383443766</v>
       </c>
       <c r="G51" t="n">
-        <v>12826.29147826461</v>
+        <v>5659.055991685025</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>168789</v>
+        <v>178986</v>
       </c>
     </row>
     <row r="52">
@@ -2229,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14548934</v>
+        <v>14353330</v>
       </c>
       <c r="E52" t="n">
-        <v>14548934</v>
+        <v>14353330</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2242,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5361525</v>
+        <v>5327596</v>
       </c>
     </row>
     <row r="53">
@@ -2262,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>100044586</v>
+        <v>100173558</v>
       </c>
       <c r="E53" t="n">
-        <v>123751572</v>
+        <v>123911106</v>
       </c>
       <c r="F53" t="n">
-        <v>745.494132439375</v>
+        <v>1175.020148591663</v>
       </c>
       <c r="G53" t="n">
-        <v>1370.104260942898</v>
+        <v>1879.447901943586</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I53" t="n">
-        <v>700177</v>
+        <v>1041222</v>
       </c>
     </row>
     <row r="54">
@@ -2297,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5084517</v>
+        <v>5133606</v>
       </c>
       <c r="E54" t="n">
-        <v>7113976</v>
+        <v>7182659</v>
       </c>
       <c r="F54" t="n">
-        <v>9.876123018343769</v>
+        <v>37.90465478311813</v>
       </c>
       <c r="G54" t="n">
-        <v>59.20921277638202</v>
+        <v>196.6678972843453</v>
       </c>
       <c r="H54" t="n">
-        <v>2.51</v>
+        <v>3.12</v>
       </c>
       <c r="I54" t="n">
-        <v>62751</v>
+        <v>72663</v>
       </c>
     </row>
     <row r="55">
@@ -2332,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16089987</v>
+        <v>15370095</v>
       </c>
       <c r="E55" t="n">
-        <v>77926373</v>
+        <v>74439825</v>
       </c>
       <c r="F55" t="n">
-        <v>18106.48633110386</v>
+        <v>10841.33414079754</v>
       </c>
       <c r="G55" t="n">
-        <v>29439.8071672994</v>
+        <v>11504.73751870101</v>
       </c>
       <c r="H55" t="n">
-        <v>0.77</v>
+        <v>0.27</v>
       </c>
       <c r="I55" t="n">
-        <v>4730153</v>
+        <v>5031245</v>
       </c>
     </row>
     <row r="56">
@@ -2363,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>60545</v>
+        <v>58786</v>
       </c>
       <c r="E56" t="n">
-        <v>145019</v>
+        <v>140806</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2376,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>10500.82</v>
+        <v>10865.06</v>
       </c>
     </row>
     <row r="57">
@@ -2399,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1894235118</v>
+        <v>1887970487</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2409,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>28629038</v>
+        <v>29234011</v>
       </c>
     </row>
     <row r="58">
@@ -2429,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12350971</v>
+        <v>12376544</v>
       </c>
       <c r="E58" t="n">
-        <v>17907127</v>
+        <v>17944202</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2442,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1970048</v>
+        <v>2004470</v>
       </c>
     </row>
     <row r="59">
@@ -2462,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123974036</v>
+        <v>123195586</v>
       </c>
       <c r="E59" t="n">
-        <v>329700264</v>
+        <v>327630031</v>
       </c>
       <c r="F59" t="n">
-        <v>707.0069555262625</v>
+        <v>8064.250671807446</v>
       </c>
       <c r="G59" t="n">
-        <v>1989.569797486861</v>
+        <v>7068.548618787462</v>
       </c>
       <c r="H59" t="n">
-        <v>0.97</v>
+        <v>0.55</v>
       </c>
       <c r="I59" t="n">
-        <v>724854</v>
+        <v>699286</v>
       </c>
     </row>
     <row r="60">
@@ -2497,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31788020</v>
+        <v>31592893</v>
       </c>
       <c r="E60" t="n">
-        <v>98977696</v>
+        <v>98370133</v>
       </c>
       <c r="F60" t="n">
-        <v>1746.340353492098</v>
+        <v>2623.251801851912</v>
       </c>
       <c r="G60" t="n">
-        <v>6232.376120709388</v>
+        <v>5576.814672040956</v>
       </c>
       <c r="H60" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I60" t="n">
-        <v>9900144</v>
+        <v>9963641</v>
       </c>
     </row>
     <row r="61">
@@ -2532,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1993101</v>
+        <v>1914706</v>
       </c>
       <c r="E61" t="n">
-        <v>14292331</v>
+        <v>13730162</v>
       </c>
       <c r="F61" t="n">
-        <v>2563.204177919364</v>
+        <v>5408.961684505548</v>
       </c>
       <c r="G61" t="n">
-        <v>448.7499450562681</v>
+        <v>5010.666738585424</v>
       </c>
       <c r="H61" t="n">
-        <v>1.52</v>
+        <v>2.69</v>
       </c>
       <c r="I61" t="n">
-        <v>2061443</v>
+        <v>2029118</v>
       </c>
     </row>
     <row r="62">
@@ -2567,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>208158161</v>
+        <v>203152378</v>
       </c>
       <c r="E62" t="n">
-        <v>1178719409</v>
+        <v>1150373590</v>
       </c>
       <c r="F62" t="n">
-        <v>554449.0558462349</v>
+        <v>589230.402319041</v>
       </c>
       <c r="G62" t="n">
-        <v>1005676.714600103</v>
+        <v>719199.8508796743</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>69455570</v>
+        <v>81240684</v>
       </c>
     </row>
     <row r="63">
@@ -2602,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>501963</v>
+        <v>498865</v>
       </c>
       <c r="E63" t="n">
-        <v>1689538</v>
+        <v>1679111</v>
       </c>
       <c r="F63" t="n">
-        <v>4531.594247197217</v>
+        <v>2338.401045704967</v>
       </c>
       <c r="G63" t="n">
-        <v>379.4088277034619</v>
+        <v>609.8098452444746</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="I63" t="n">
-        <v>625334</v>
+        <v>629582</v>
       </c>
     </row>
     <row r="64">
@@ -2637,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>354740</v>
+        <v>352933</v>
       </c>
       <c r="E64" t="n">
-        <v>354740</v>
+        <v>352933</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2650,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2178.47</v>
+        <v>2031.81</v>
       </c>
     </row>
     <row r="65">
@@ -2670,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>144295428</v>
+        <v>125084929</v>
       </c>
       <c r="E65" t="n">
-        <v>1068855020</v>
+        <v>926555030</v>
       </c>
       <c r="F65" t="n">
-        <v>32003.09332990488</v>
+        <v>29218.49548739633</v>
       </c>
       <c r="G65" t="n">
-        <v>38159.14626471698</v>
+        <v>37217.37363913806</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>8437293</v>
+        <v>18502999</v>
       </c>
     </row>
     <row r="66">
@@ -2705,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8359747</v>
+        <v>8738331</v>
       </c>
       <c r="E66" t="n">
-        <v>11199273</v>
+        <v>11706449</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2718,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>57965</v>
+        <v>79715</v>
       </c>
     </row>
     <row r="67">
@@ -2738,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26469096</v>
+        <v>37346875</v>
       </c>
       <c r="E67" t="n">
-        <v>26469096</v>
+        <v>37346875</v>
       </c>
       <c r="F67" t="n">
-        <v>8695.66026109934</v>
+        <v>8678.877872616682</v>
       </c>
       <c r="G67" t="n">
-        <v>10560.21845061081</v>
+        <v>10444.48859000855</v>
       </c>
       <c r="H67" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>329994</v>
+        <v>942269</v>
       </c>
     </row>
     <row r="68">
@@ -2773,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1588284</v>
+        <v>1593559</v>
       </c>
       <c r="E68" t="n">
-        <v>12334795</v>
+        <v>12375760</v>
       </c>
       <c r="F68" t="n">
-        <v>15313.09540624105</v>
+        <v>16163.78871327697</v>
       </c>
       <c r="G68" t="n">
-        <v>22148.49382458505</v>
+        <v>19906.90862156089</v>
       </c>
       <c r="H68" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="I68" t="n">
-        <v>505211</v>
+        <v>507963</v>
       </c>
     </row>
     <row r="69">
@@ -2808,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>339716863</v>
+        <v>336982450</v>
       </c>
       <c r="E69" t="n">
-        <v>3056303553</v>
+        <v>3031703076</v>
       </c>
       <c r="F69" t="n">
-        <v>1061908.611128401</v>
+        <v>1440984.352157418</v>
       </c>
       <c r="G69" t="n">
-        <v>1818331.302295267</v>
+        <v>1600424.894124104</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>46920039</v>
+        <v>55283266</v>
       </c>
     </row>
     <row r="70">
@@ -2843,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>243993</v>
+        <v>246260</v>
       </c>
       <c r="E70" t="n">
-        <v>2153419</v>
+        <v>2173427</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2856,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>76405</v>
+        <v>73772</v>
       </c>
     </row>
     <row r="71">
@@ -2876,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1572360</v>
+        <v>1536211</v>
       </c>
       <c r="E71" t="n">
-        <v>13103002</v>
+        <v>12801759</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2889,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>17857.75</v>
+        <v>32220</v>
       </c>
     </row>
     <row r="72">
@@ -2909,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9591111</v>
+        <v>9573933</v>
       </c>
       <c r="E72" t="n">
-        <v>44455352</v>
+        <v>44375730</v>
       </c>
       <c r="F72" t="n">
-        <v>105.4879412572035</v>
+        <v>569.8250736504925</v>
       </c>
       <c r="G72" t="n">
-        <v>1187.51585366649</v>
+        <v>514.6954033947453</v>
       </c>
       <c r="H72" t="n">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="I72" t="n">
-        <v>112664</v>
+        <v>74841</v>
       </c>
     </row>
     <row r="73">
@@ -2944,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50558218</v>
+        <v>50772436</v>
       </c>
       <c r="E73" t="n">
-        <v>292711191</v>
+        <v>293951422</v>
       </c>
       <c r="F73" t="n">
-        <v>97268.55050911667</v>
+        <v>85096.92929000707</v>
       </c>
       <c r="G73" t="n">
-        <v>176702.9892713593</v>
+        <v>187157.0183658764</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>43746955</v>
+        <v>46184564</v>
       </c>
     </row>
     <row r="74">
@@ -2979,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39749184</v>
+        <v>39932801</v>
       </c>
       <c r="E74" t="n">
-        <v>54899283</v>
+        <v>55152885</v>
       </c>
       <c r="F74" t="n">
-        <v>852.0847302556992</v>
+        <v>854.1885345744553</v>
       </c>
       <c r="G74" t="n">
-        <v>220.5368375338879</v>
+        <v>579.7052476561543</v>
       </c>
       <c r="H74" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>346968</v>
+        <v>340152</v>
       </c>
     </row>
     <row r="75">
@@ -3017,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>100335</v>
+        <v>110697</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3027,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>316.3</v>
+        <v>3440.52</v>
       </c>
     </row>
     <row r="76">
@@ -3047,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14049555</v>
+        <v>13948337</v>
       </c>
       <c r="E76" t="n">
-        <v>14097367</v>
+        <v>13995805</v>
       </c>
       <c r="F76" t="n">
-        <v>424.3770712910376</v>
+        <v>1470.546513196706</v>
       </c>
       <c r="G76" t="n">
-        <v>6086.901376548415</v>
+        <v>6560.039793302497</v>
       </c>
       <c r="H76" t="n">
         <v>0.63</v>
       </c>
       <c r="I76" t="n">
-        <v>6578640</v>
+        <v>6760523</v>
       </c>
     </row>
     <row r="77">
@@ -3082,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>43292857</v>
+        <v>42778936</v>
       </c>
       <c r="E77" t="n">
-        <v>73501200</v>
+        <v>72628682</v>
       </c>
       <c r="F77" t="n">
-        <v>4520.201790945976</v>
+        <v>7341.822069995648</v>
       </c>
       <c r="G77" t="n">
-        <v>6671.61308027518</v>
+        <v>9207.310336253769</v>
       </c>
       <c r="H77" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1078348</v>
+        <v>1094353</v>
       </c>
     </row>
     <row r="78">
@@ -3117,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22705323</v>
+        <v>21533520</v>
       </c>
       <c r="E78" t="n">
-        <v>68065269</v>
+        <v>64550356</v>
       </c>
       <c r="F78" t="n">
-        <v>101031.1369277474</v>
+        <v>45888.93534731917</v>
       </c>
       <c r="G78" t="n">
-        <v>128974.8656455061</v>
+        <v>37939.0161242021</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="I78" t="n">
-        <v>3567020</v>
+        <v>3906415</v>
       </c>
     </row>
     <row r="79">
@@ -3152,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104017763</v>
+        <v>100264825</v>
       </c>
       <c r="E79" t="n">
-        <v>110580283</v>
+        <v>106590571</v>
       </c>
       <c r="F79" t="n">
-        <v>1502.301556499948</v>
+        <v>2300.306319264779</v>
       </c>
       <c r="G79" t="n">
-        <v>5055.357099913393</v>
+        <v>5695.173965175163</v>
       </c>
       <c r="H79" t="n">
-        <v>1.15</v>
+        <v>0.93</v>
       </c>
       <c r="I79" t="n">
-        <v>1580178</v>
+        <v>486921</v>
       </c>
     </row>
     <row r="80">
@@ -3187,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10434332</v>
+        <v>10408292</v>
       </c>
       <c r="E80" t="n">
-        <v>45365990</v>
+        <v>45342618</v>
       </c>
       <c r="F80" t="n">
-        <v>6294.551741956611</v>
+        <v>5718.805360819794</v>
       </c>
       <c r="G80" t="n">
-        <v>5821.378693252919</v>
+        <v>6072.966895263937</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>117807</v>
+        <v>118913</v>
       </c>
     </row>
     <row r="81">
@@ -3222,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15953395</v>
+        <v>15730404</v>
       </c>
       <c r="E81" t="n">
-        <v>97783602</v>
+        <v>96416817</v>
       </c>
       <c r="F81" t="n">
-        <v>5234.650314818988</v>
+        <v>5174.912167765568</v>
       </c>
       <c r="G81" t="n">
-        <v>5006.826362303921</v>
+        <v>5709.02571926208</v>
       </c>
       <c r="H81" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>10774153</v>
+        <v>11187473</v>
       </c>
     </row>
     <row r="82">
@@ -3257,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1519654</v>
+        <v>1510120</v>
       </c>
       <c r="E82" t="n">
-        <v>1562400</v>
+        <v>1552598</v>
       </c>
       <c r="F82" t="n">
-        <v>5885.819221617535</v>
+        <v>3583.260823497448</v>
       </c>
       <c r="G82" t="n">
-        <v>4944.947188792041</v>
+        <v>3203.453219725585</v>
       </c>
       <c r="H82" t="n">
-        <v>0.55</v>
+        <v>0.78</v>
       </c>
       <c r="I82" t="n">
-        <v>143994</v>
+        <v>147631</v>
       </c>
     </row>
     <row r="83">
@@ -3292,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51134989</v>
+        <v>50589408</v>
       </c>
       <c r="E83" t="n">
-        <v>220283943</v>
+        <v>217933637</v>
       </c>
       <c r="F83" t="n">
-        <v>3353.411689664777</v>
+        <v>3259.900004798955</v>
       </c>
       <c r="G83" t="n">
-        <v>4947.228811308196</v>
+        <v>4937.088146058454</v>
       </c>
       <c r="H83" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="I83" t="n">
-        <v>10738696</v>
+        <v>11909928</v>
       </c>
     </row>
     <row r="84">
@@ -3327,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2197985</v>
+        <v>2170737</v>
       </c>
       <c r="E84" t="n">
-        <v>7979973</v>
+        <v>7880978</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3340,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>201953</v>
+        <v>202424</v>
       </c>
     </row>
     <row r="85">
@@ -3360,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9300248</v>
+        <v>8961168</v>
       </c>
       <c r="E85" t="n">
-        <v>20639983</v>
+        <v>19887464</v>
       </c>
       <c r="F85" t="n">
-        <v>6240.659577552612</v>
+        <v>3446.695232788836</v>
       </c>
       <c r="G85" t="n">
-        <v>9670.598904726705</v>
+        <v>5167.180900736535</v>
       </c>
       <c r="H85" t="n">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="I85" t="n">
-        <v>245811</v>
+        <v>336498</v>
       </c>
     </row>
     <row r="86">
@@ -3395,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2435404</v>
+        <v>2444605</v>
       </c>
       <c r="E86" t="n">
-        <v>18325792</v>
+        <v>18395026</v>
       </c>
       <c r="F86" t="n">
-        <v>5048.183932237768</v>
+        <v>4869.063576343648</v>
       </c>
       <c r="G86" t="n">
-        <v>12248.55770951662</v>
+        <v>12182.90146034659</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>162376</v>
+        <v>161787</v>
       </c>
     </row>
     <row r="87">
@@ -3430,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20516370</v>
+        <v>19421497</v>
       </c>
       <c r="E87" t="n">
-        <v>82065481</v>
+        <v>77685989</v>
       </c>
       <c r="F87" t="n">
-        <v>10659.41496512501</v>
+        <v>6625.924625565274</v>
       </c>
       <c r="G87" t="n">
-        <v>876.403361701563</v>
+        <v>833.9643804701527</v>
       </c>
       <c r="H87" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="I87" t="n">
-        <v>2372264</v>
+        <v>2313534</v>
       </c>
     </row>
     <row r="88">
@@ -3465,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4878334</v>
+        <v>4681906</v>
       </c>
       <c r="E88" t="n">
-        <v>4878334</v>
+        <v>4681906</v>
       </c>
       <c r="F88" t="n">
-        <v>942.3563842172545</v>
+        <v>3042.660054232535</v>
       </c>
       <c r="G88" t="n">
-        <v>1267.78320318907</v>
+        <v>448.4385315298284</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="I88" t="n">
-        <v>2911934</v>
+        <v>2916826</v>
       </c>
     </row>
     <row r="89">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12747187</v>
+        <v>12638984</v>
       </c>
       <c r="E89" t="n">
-        <v>40317966</v>
+        <v>39975670</v>
       </c>
       <c r="F89" t="n">
-        <v>12852.76054755324</v>
+        <v>17295.34111278543</v>
       </c>
       <c r="G89" t="n">
-        <v>15577.74052191954</v>
+        <v>13490.39899007118</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>880505</v>
+        <v>942774</v>
       </c>
     </row>
     <row r="90">
@@ -3535,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>25050</v>
+        <v>24880</v>
       </c>
       <c r="E90" t="n">
-        <v>197010</v>
+        <v>195677</v>
       </c>
       <c r="F90" t="n">
-        <v>332.3274899259457</v>
+        <v>326.2636385292391</v>
       </c>
       <c r="G90" t="n">
-        <v>331.6318984604371</v>
+        <v>670.8058976792995</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>47700</v>
+        <v>47204</v>
       </c>
     </row>
     <row r="91">
@@ -3570,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8665594</v>
+        <v>8727282</v>
       </c>
       <c r="E91" t="n">
-        <v>8665594</v>
+        <v>8727282</v>
       </c>
       <c r="F91" t="n">
-        <v>4392.843892151752</v>
+        <v>4223.18431822683</v>
       </c>
       <c r="G91" t="n">
-        <v>9364.811817544489</v>
+        <v>5288.284232505823</v>
       </c>
       <c r="H91" t="n">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="I91" t="n">
-        <v>3864900</v>
+        <v>3915988</v>
       </c>
     </row>
     <row r="92">
@@ -3605,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10257849</v>
+        <v>9904777</v>
       </c>
       <c r="E92" t="n">
-        <v>10257849</v>
+        <v>9904777</v>
       </c>
       <c r="F92" t="n">
-        <v>1853.518939303812</v>
+        <v>4317.538870041295</v>
       </c>
       <c r="G92" t="n">
-        <v>6521.641974430533</v>
+        <v>8314.256485109005</v>
       </c>
       <c r="H92" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I92" t="n">
-        <v>2845184</v>
+        <v>2637541</v>
       </c>
     </row>
     <row r="93">
@@ -3640,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37657345</v>
+        <v>36847196</v>
       </c>
       <c r="E93" t="n">
-        <v>94953745</v>
+        <v>92910937</v>
       </c>
       <c r="F93" t="n">
-        <v>5416.206357236173</v>
+        <v>3951.190003349295</v>
       </c>
       <c r="G93" t="n">
-        <v>6258.427358648558</v>
+        <v>4983.756590462723</v>
       </c>
       <c r="H93" t="n">
-        <v>0.73</v>
+        <v>0.32</v>
       </c>
       <c r="I93" t="n">
-        <v>3559368</v>
+        <v>3790507</v>
       </c>
     </row>
     <row r="94">
@@ -3675,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>319347230</v>
+        <v>314366441</v>
       </c>
       <c r="E94" t="n">
-        <v>324341433</v>
+        <v>319281277</v>
       </c>
       <c r="F94" t="n">
-        <v>46293.80426840822</v>
+        <v>44834.78124005331</v>
       </c>
       <c r="G94" t="n">
-        <v>17346.41076552491</v>
+        <v>54237.83484651882</v>
       </c>
       <c r="H94" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I94" t="n">
-        <v>24650454</v>
+        <v>23267129</v>
       </c>
     </row>
     <row r="95">
@@ -3710,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3517.431296999485</v>
+        <v>3517.107321833777</v>
       </c>
       <c r="G95" t="n">
-        <v>6434.147646743286</v>
+        <v>6405.709711333901</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>217251</v>
+        <v>215502</v>
       </c>
     </row>
     <row r="96">
@@ -3739,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>88733663</v>
+        <v>83745683</v>
       </c>
       <c r="E96" t="n">
-        <v>88733663</v>
+        <v>83745683</v>
       </c>
       <c r="F96" t="n">
-        <v>6247.252832920392</v>
+        <v>7977.958281247464</v>
       </c>
       <c r="G96" t="n">
-        <v>6543.176160354613</v>
+        <v>6964.101484384746</v>
       </c>
       <c r="H96" t="n">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="I96" t="n">
-        <v>4683730</v>
+        <v>4999275</v>
       </c>
     </row>
     <row r="97">
@@ -3774,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>305759623</v>
+        <v>305046034</v>
       </c>
       <c r="E97" t="n">
-        <v>305759623</v>
+        <v>305046034</v>
       </c>
       <c r="F97" t="n">
-        <v>295042.8069960835</v>
+        <v>230775.433272089</v>
       </c>
       <c r="G97" t="n">
-        <v>493440.8448887795</v>
+        <v>452675.5640217983</v>
       </c>
       <c r="H97" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>77485178</v>
+        <v>81186459</v>
       </c>
     </row>
     <row r="98">
@@ -3809,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4457242</v>
+        <v>4299234</v>
       </c>
       <c r="E98" t="n">
-        <v>30456019</v>
+        <v>29376363</v>
       </c>
       <c r="F98" t="n">
-        <v>4853.539908267095</v>
+        <v>4828.28878333595</v>
       </c>
       <c r="G98" t="n">
-        <v>4861.223015770454</v>
+        <v>597.5032323876057</v>
       </c>
       <c r="H98" t="n">
-        <v>0.66</v>
+        <v>0.34</v>
       </c>
       <c r="I98" t="n">
-        <v>2654092</v>
+        <v>2683547</v>
       </c>
     </row>
     <row r="99">
@@ -3844,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>90741720</v>
+        <v>89164723</v>
       </c>
       <c r="E99" t="n">
-        <v>522892928</v>
+        <v>513805591</v>
       </c>
       <c r="F99" t="n">
-        <v>142014.2478150355</v>
+        <v>139479.7981150438</v>
       </c>
       <c r="G99" t="n">
-        <v>130507.0337855765</v>
+        <v>122096.0180978848</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>18729906</v>
+        <v>19924028</v>
       </c>
     </row>
     <row r="100">
@@ -3879,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>110631247</v>
+        <v>109367027</v>
       </c>
       <c r="E100" t="n">
-        <v>272196090</v>
+        <v>269085617</v>
       </c>
       <c r="F100" t="n">
-        <v>23850.02847932715</v>
+        <v>35970.08533047188</v>
       </c>
       <c r="G100" t="n">
-        <v>38283.3442297755</v>
+        <v>45432.61348544223</v>
       </c>
       <c r="H100" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="I100" t="n">
-        <v>2862396</v>
+        <v>2517996</v>
       </c>
     </row>
     <row r="101">
@@ -3914,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>252606801</v>
+        <v>243649808</v>
       </c>
       <c r="E101" t="n">
-        <v>252609311</v>
+        <v>243652229</v>
       </c>
       <c r="F101" t="n">
-        <v>25429.91781344518</v>
+        <v>23244.33688643547</v>
       </c>
       <c r="G101" t="n">
-        <v>24322.97411011189</v>
+        <v>26687.85087752836</v>
       </c>
       <c r="H101" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>1667360</v>
+        <v>1765356</v>
       </c>
     </row>
     <row r="102">
@@ -3949,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>32024450</v>
+        <v>30718450</v>
       </c>
       <c r="E102" t="n">
-        <v>143386599</v>
+        <v>137539101</v>
       </c>
       <c r="F102" t="n">
-        <v>81798.60901873035</v>
+        <v>76859.33300345411</v>
       </c>
       <c r="G102" t="n">
-        <v>140577.867841593</v>
+        <v>96470.17052860463</v>
       </c>
       <c r="H102" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>9680418</v>
+        <v>11292567</v>
       </c>
     </row>
     <row r="103">
@@ -3984,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3191207</v>
+        <v>3118023</v>
       </c>
       <c r="E103" t="n">
-        <v>3191207</v>
+        <v>3118023</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3997,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>426505</v>
+        <v>397827</v>
       </c>
     </row>
     <row r="104">
@@ -4017,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5846984</v>
+        <v>5829000</v>
       </c>
       <c r="E104" t="n">
-        <v>15345404</v>
+        <v>15298205</v>
       </c>
       <c r="F104" t="n">
-        <v>8875.963144636002</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1980.734726295879</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1.25</v>
+        <v>5.09</v>
       </c>
       <c r="I104" t="n">
-        <v>26372</v>
+        <v>26108</v>
       </c>
     </row>
     <row r="105">
@@ -4052,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16379396</v>
+        <v>16539715</v>
       </c>
       <c r="E105" t="n">
-        <v>75605077</v>
+        <v>76345088</v>
       </c>
       <c r="F105" t="n">
-        <v>16260.95331037547</v>
+        <v>6335.751032533808</v>
       </c>
       <c r="G105" t="n">
-        <v>50733.69202370582</v>
+        <v>10939.4715400314</v>
       </c>
       <c r="H105" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>953658</v>
+        <v>1066132</v>
       </c>
     </row>
     <row r="106">
@@ -4087,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>51517894</v>
+        <v>51141954</v>
       </c>
       <c r="E106" t="n">
-        <v>334079834</v>
+        <v>331641961</v>
       </c>
       <c r="F106" t="n">
-        <v>88977.41617087055</v>
+        <v>99514.34261881217</v>
       </c>
       <c r="G106" t="n">
-        <v>135765.211830741</v>
+        <v>140063.5640933039</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>17573375</v>
+        <v>19067600</v>
       </c>
     </row>
     <row r="107">
@@ -4122,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2469551</v>
+        <v>2472011</v>
       </c>
       <c r="E107" t="n">
-        <v>4474056</v>
+        <v>4478513</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4135,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>141213</v>
+        <v>142756</v>
       </c>
     </row>
     <row r="108">
@@ -4155,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>125486570</v>
+        <v>123579792</v>
       </c>
       <c r="E108" t="n">
-        <v>2078160371</v>
+        <v>2046582563</v>
       </c>
       <c r="F108" t="n">
-        <v>563324.6453449622</v>
+        <v>179831.1423587753</v>
       </c>
       <c r="G108" t="n">
-        <v>323818.2099540666</v>
+        <v>159223.8429758493</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>5318430</v>
+        <v>11101451</v>
       </c>
     </row>
     <row r="109">
@@ -4190,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24564648</v>
+        <v>24227644</v>
       </c>
       <c r="E109" t="n">
-        <v>146975225</v>
+        <v>144958867</v>
       </c>
       <c r="F109" t="n">
-        <v>42400.68526996565</v>
+        <v>41791.66142450333</v>
       </c>
       <c r="G109" t="n">
-        <v>39228.45195976</v>
+        <v>41053.757083834</v>
       </c>
       <c r="H109" t="n">
         <v>0.34</v>
       </c>
       <c r="I109" t="n">
-        <v>14400852</v>
+        <v>15855499</v>
       </c>
     </row>
     <row r="110">
@@ -4228,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1082738</v>
+        <v>1095474</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4238,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>79015</v>
+        <v>81581</v>
       </c>
     </row>
     <row r="111">
@@ -4261,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2169294</v>
+        <v>2181101</v>
       </c>
       <c r="F111" t="n">
-        <v>159.2972508213921</v>
+        <v>3617.959651369953</v>
       </c>
       <c r="G111" t="n">
-        <v>245.3208852189874</v>
+        <v>233.1414585459775</v>
       </c>
       <c r="H111" t="n">
         <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>175468</v>
+        <v>175523</v>
       </c>
     </row>
     <row r="112">
@@ -4292,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147620630</v>
+        <v>147515965</v>
       </c>
       <c r="F112" t="n">
-        <v>8562.884144696483</v>
+        <v>8708.123084324399</v>
       </c>
       <c r="G112" t="n">
-        <v>3419.445007892964</v>
+        <v>3047.814659327649</v>
       </c>
       <c r="H112" t="n">
-        <v>0.54</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>47041</v>
+        <v>50590</v>
       </c>
     </row>
     <row r="113">
@@ -4324,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6930796</v>
+        <v>6579500</v>
       </c>
       <c r="E113" t="n">
-        <v>35656840</v>
+        <v>33849526</v>
       </c>
       <c r="F113" t="n">
-        <v>2301.88531886472</v>
+        <v>839.74956003797</v>
       </c>
       <c r="G113" t="n">
-        <v>509.8770772391682</v>
+        <v>1711.88212490203</v>
       </c>
       <c r="H113" t="n">
-        <v>0.28</v>
+        <v>1.18</v>
       </c>
       <c r="I113" t="n">
-        <v>952741</v>
+        <v>951539</v>
       </c>
     </row>
     <row r="114">
@@ -4359,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29329116</v>
+        <v>29467589</v>
       </c>
       <c r="E114" t="n">
-        <v>40215345</v>
+        <v>40405216</v>
       </c>
       <c r="F114" t="n">
-        <v>4886.653749169336</v>
+        <v>4485.304964541831</v>
       </c>
       <c r="G114" t="n">
-        <v>4287.687827623011</v>
+        <v>4939.243845397757</v>
       </c>
       <c r="H114" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
       <c r="I114" t="n">
-        <v>202832</v>
+        <v>208470</v>
       </c>
     </row>
     <row r="115">
@@ -4397,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7944920</v>
+        <v>7668923</v>
       </c>
       <c r="F115" t="n">
-        <v>220.146553365647</v>
+        <v>901.1616508319893</v>
       </c>
       <c r="G115" t="n">
-        <v>6755.793513400252</v>
+        <v>5505.150193417268</v>
       </c>
       <c r="H115" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>651260</v>
+        <v>652336</v>
       </c>
     </row>
     <row r="116">
@@ -4429,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3382157</v>
+        <v>3448343</v>
       </c>
       <c r="E116" t="n">
-        <v>4530613</v>
+        <v>4619273</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4442,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149255</v>
+        <v>151733</v>
       </c>
     </row>
     <row r="117">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33857327</v>
+        <v>33831260</v>
       </c>
       <c r="E117" t="n">
-        <v>168963670</v>
+        <v>168833585</v>
       </c>
       <c r="F117" t="n">
-        <v>59960.43810050901</v>
+        <v>82982.0923201176</v>
       </c>
       <c r="G117" t="n">
-        <v>58284.29775861364</v>
+        <v>73164.64579224969</v>
       </c>
       <c r="H117" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>12254014</v>
+        <v>13298513</v>
       </c>
     </row>
     <row r="118">
@@ -4497,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3503225</v>
+        <v>3503489</v>
       </c>
       <c r="E118" t="n">
-        <v>5032448</v>
+        <v>5032827</v>
       </c>
       <c r="F118" t="n">
-        <v>541.8658669385651</v>
+        <v>541.7711086046628</v>
       </c>
       <c r="G118" t="n">
-        <v>650.783357546921</v>
+        <v>649.6724139943922</v>
       </c>
       <c r="H118" t="n">
         <v>1.38</v>
       </c>
       <c r="I118" t="n">
-        <v>144930</v>
+        <v>143856</v>
       </c>
     </row>
     <row r="119">
@@ -4532,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>328182511</v>
+        <v>323288570</v>
       </c>
       <c r="E119" t="n">
-        <v>607212486</v>
+        <v>598157580</v>
       </c>
       <c r="F119" t="n">
-        <v>122646.6870946413</v>
+        <v>50944.83979467526</v>
       </c>
       <c r="G119" t="n">
-        <v>131116.8776984714</v>
+        <v>80605.48662179831</v>
       </c>
       <c r="H119" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I119" t="n">
-        <v>13975619</v>
+        <v>14819294</v>
       </c>
     </row>
     <row r="120">
@@ -4567,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>73533226</v>
+        <v>72329913</v>
       </c>
       <c r="E120" t="n">
-        <v>701417350</v>
+        <v>689929501</v>
       </c>
       <c r="F120" t="n">
-        <v>2210.673273217938</v>
+        <v>1822.085294469672</v>
       </c>
       <c r="G120" t="n">
-        <v>40394.26128121336</v>
+        <v>41636.20247047606</v>
       </c>
       <c r="H120" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I120" t="n">
-        <v>21052100</v>
+        <v>22425783</v>
       </c>
     </row>
     <row r="121">
@@ -4602,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38636331</v>
+        <v>37925659</v>
       </c>
       <c r="E121" t="n">
-        <v>50511916</v>
+        <v>49582559</v>
       </c>
       <c r="F121" t="n">
-        <v>6283.143281323158</v>
+        <v>6184.215575739702</v>
       </c>
       <c r="G121" t="n">
-        <v>9138.116542251058</v>
+        <v>11138.08822097047</v>
       </c>
       <c r="H121" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="I121" t="n">
-        <v>180796</v>
+        <v>205928</v>
       </c>
     </row>
     <row r="122">
@@ -4637,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11038986</v>
+        <v>9937371</v>
       </c>
       <c r="E122" t="n">
-        <v>32742089</v>
+        <v>29459719</v>
       </c>
       <c r="F122" t="n">
-        <v>2918.826153855799</v>
+        <v>2681.038009892098</v>
       </c>
       <c r="G122" t="n">
-        <v>6068.774507305645</v>
+        <v>5975.945657785367</v>
       </c>
       <c r="H122" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="I122" t="n">
-        <v>5976391</v>
+        <v>6151686</v>
       </c>
     </row>
     <row r="123">
@@ -4672,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2329660</v>
+        <v>2325041</v>
       </c>
       <c r="E123" t="n">
-        <v>7784869</v>
+        <v>7769436</v>
       </c>
       <c r="F123" t="n">
-        <v>637.3580430691906</v>
+        <v>790.7635516131369</v>
       </c>
       <c r="G123" t="n">
-        <v>1164.907800011017</v>
+        <v>994.3862108117462</v>
       </c>
       <c r="H123" t="n">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="I123" t="n">
-        <v>994587</v>
+        <v>984312</v>
       </c>
     </row>
     <row r="124">
@@ -4707,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7470371</v>
+        <v>7345686</v>
       </c>
       <c r="E124" t="n">
-        <v>7470382</v>
+        <v>7345697</v>
       </c>
       <c r="F124" t="n">
-        <v>2800.676675316062</v>
+        <v>379.8523874536288</v>
       </c>
       <c r="G124" t="n">
-        <v>3144.249443138284</v>
+        <v>582.7697751153005</v>
       </c>
       <c r="H124" t="n">
-        <v>1.19</v>
+        <v>0.49</v>
       </c>
       <c r="I124" t="n">
-        <v>265553</v>
+        <v>279959</v>
       </c>
     </row>
     <row r="125">
@@ -4742,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6557497</v>
+        <v>6326186</v>
       </c>
       <c r="E125" t="n">
-        <v>6557497</v>
+        <v>6326186</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4755,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>519707</v>
+        <v>516221</v>
       </c>
     </row>
     <row r="126">
@@ -4775,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6273746</v>
+        <v>6285495</v>
       </c>
       <c r="E126" t="n">
-        <v>22915566</v>
+        <v>22958482</v>
       </c>
       <c r="F126" t="n">
-        <v>7176.4108436667</v>
+        <v>7075.968930766183</v>
       </c>
       <c r="G126" t="n">
-        <v>8600.991710852817</v>
+        <v>8708.964524344108</v>
       </c>
       <c r="H126" t="n">
         <v>0.87</v>
       </c>
       <c r="I126" t="n">
-        <v>554139</v>
+        <v>541092</v>
       </c>
     </row>
     <row r="127">
@@ -4810,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45415870</v>
+        <v>45364491</v>
       </c>
       <c r="E127" t="n">
-        <v>45415870</v>
+        <v>45364491</v>
       </c>
       <c r="F127" t="n">
-        <v>73390.49771039982</v>
+        <v>62137.00921753883</v>
       </c>
       <c r="G127" t="n">
-        <v>78940.41780277538</v>
+        <v>92235.7563728817</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>9421879</v>
+        <v>10185095</v>
       </c>
     </row>
     <row r="128">
@@ -4848,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>142759958</v>
+        <v>144551435</v>
       </c>
       <c r="F128" t="n">
-        <v>365.6918122677392</v>
+        <v>100.1886768573226</v>
       </c>
       <c r="G128" t="n">
-        <v>1833.953820952712</v>
+        <v>4043.81782073867</v>
       </c>
       <c r="H128" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="I128" t="n">
-        <v>1756283</v>
+        <v>1934898</v>
       </c>
     </row>
     <row r="129">
@@ -4883,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3018107</v>
+        <v>2997327</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4893,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>75462</v>
+        <v>74186</v>
       </c>
     </row>
     <row r="130">
@@ -4916,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20153611</v>
+        <v>20162328</v>
       </c>
       <c r="F130" t="n">
-        <v>168.3434512344357</v>
+        <v>565.2853614222836</v>
       </c>
       <c r="G130" t="n">
-        <v>284.9348621657018</v>
+        <v>633.4089060319092</v>
       </c>
       <c r="H130" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="I130" t="n">
-        <v>2964713</v>
+        <v>2963946</v>
       </c>
     </row>
     <row r="131">
@@ -4948,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1295229</v>
+        <v>1302293</v>
       </c>
       <c r="E131" t="n">
-        <v>3917006</v>
+        <v>3940496</v>
       </c>
       <c r="F131" t="n">
-        <v>801.1314356400947</v>
+        <v>810.306203481071</v>
       </c>
       <c r="G131" t="n">
-        <v>689.7171714531689</v>
+        <v>698.305456641138</v>
       </c>
       <c r="H131" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>33869</v>
+        <v>36943</v>
       </c>
     </row>
     <row r="132">
@@ -4983,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>614122825</v>
+        <v>606142679</v>
       </c>
       <c r="E132" t="n">
-        <v>2378407095</v>
+        <v>2347501167</v>
       </c>
       <c r="F132" t="n">
-        <v>823640.8202543278</v>
+        <v>844283.6199348491</v>
       </c>
       <c r="G132" t="n">
-        <v>1053832.807905819</v>
+        <v>988927.1031884046</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>43396129</v>
+        <v>52271433</v>
       </c>
     </row>
     <row r="133">
@@ -5018,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3693574</v>
+        <v>3698858</v>
       </c>
       <c r="E133" t="n">
-        <v>6296198</v>
+        <v>6305206</v>
       </c>
       <c r="F133" t="n">
-        <v>5283.612995571651</v>
+        <v>5295.748162165617</v>
       </c>
       <c r="G133" t="n">
-        <v>5256.666457350634</v>
+        <v>5251.994978378545</v>
       </c>
       <c r="H133" t="n">
         <v>0.79</v>
       </c>
       <c r="I133" t="n">
-        <v>1287093</v>
+        <v>1231319</v>
       </c>
     </row>
     <row r="134">
@@ -5053,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>116274047</v>
+        <v>114510802</v>
       </c>
       <c r="E134" t="n">
-        <v>1080335743</v>
+        <v>1063952930</v>
       </c>
       <c r="F134" t="n">
-        <v>100853.8112906883</v>
+        <v>78889.66296587823</v>
       </c>
       <c r="G134" t="n">
-        <v>94820.76788516877</v>
+        <v>79230.71913065956</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>10595233</v>
+        <v>12251242</v>
       </c>
     </row>
     <row r="135">
@@ -5088,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>982690173</v>
+        <v>996658043</v>
       </c>
       <c r="E135" t="n">
-        <v>1079487848</v>
+        <v>1094831591</v>
       </c>
       <c r="F135" t="n">
-        <v>11073.93016015312</v>
+        <v>14496.42740368076</v>
       </c>
       <c r="G135" t="n">
-        <v>16213.28988555097</v>
+        <v>13505.48629495798</v>
       </c>
       <c r="H135" t="n">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>8285416</v>
+        <v>8692729</v>
       </c>
     </row>
     <row r="136">
@@ -5123,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1123448</v>
+        <v>1086917</v>
       </c>
       <c r="E136" t="n">
-        <v>4350237</v>
+        <v>4208782</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5136,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>355140</v>
+        <v>308126</v>
       </c>
     </row>
     <row r="137">
@@ -5156,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>125859327</v>
+        <v>126073482</v>
       </c>
       <c r="E137" t="n">
-        <v>482816636</v>
+        <v>483638170</v>
       </c>
       <c r="F137" t="n">
-        <v>122346.0603207557</v>
+        <v>134633.6790551398</v>
       </c>
       <c r="G137" t="n">
-        <v>213734.9139068448</v>
+        <v>246418.1696973093</v>
       </c>
       <c r="H137" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I137" t="n">
-        <v>38534781</v>
+        <v>40768845</v>
       </c>
     </row>
     <row r="138">
@@ -5191,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3321880</v>
+        <v>3171640</v>
       </c>
       <c r="E138" t="n">
-        <v>31475305</v>
+        <v>30051756</v>
       </c>
       <c r="F138" t="n">
-        <v>5155.677858764327</v>
+        <v>3954.754438203513</v>
       </c>
       <c r="G138" t="n">
-        <v>4649.667945157811</v>
+        <v>4269.120419851236</v>
       </c>
       <c r="H138" t="n">
-        <v>0.92</v>
+        <v>0.13</v>
       </c>
       <c r="I138" t="n">
-        <v>194518</v>
+        <v>204977</v>
       </c>
     </row>
     <row r="139">
@@ -5226,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22605137</v>
+        <v>21848040</v>
       </c>
       <c r="E139" t="n">
-        <v>22605137</v>
+        <v>21848040</v>
       </c>
       <c r="F139" t="n">
-        <v>1046.928869283138</v>
+        <v>8350.332337548409</v>
       </c>
       <c r="G139" t="n">
-        <v>1336.050056835586</v>
+        <v>6293.572236238918</v>
       </c>
       <c r="H139" t="n">
-        <v>1.64</v>
+        <v>0.91</v>
       </c>
       <c r="I139" t="n">
-        <v>569873</v>
+        <v>547619</v>
       </c>
     </row>
     <row r="140">
@@ -5261,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>489655425</v>
+        <v>494412987</v>
       </c>
       <c r="E140" t="n">
-        <v>489655425</v>
+        <v>494412987</v>
       </c>
       <c r="F140" t="n">
-        <v>803443.8224123202</v>
+        <v>785546.7240327337</v>
       </c>
       <c r="G140" t="n">
-        <v>877140.7076964839</v>
+        <v>912725.7612149279</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>34786861</v>
+        <v>39443220</v>
       </c>
     </row>
     <row r="141">
@@ -5299,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>36229352</v>
+        <v>35493785</v>
       </c>
       <c r="F141" t="n">
-        <v>71198.84394122203</v>
+        <v>62398.88385448659</v>
       </c>
       <c r="G141" t="n">
-        <v>74878.6924581401</v>
+        <v>63490.78679166175</v>
       </c>
       <c r="H141" t="n">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
       <c r="I141" t="n">
-        <v>6327902</v>
+        <v>5566812</v>
       </c>
     </row>
     <row r="142">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>797961</v>
+        <v>810505</v>
       </c>
       <c r="E142" t="n">
-        <v>12727192</v>
+        <v>12927260</v>
       </c>
       <c r="F142" t="n">
-        <v>110.3872030445585</v>
+        <v>65.92109272585861</v>
       </c>
       <c r="G142" t="n">
-        <v>148.4808690971581</v>
+        <v>114.9248538090638</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="I142" t="n">
-        <v>328805</v>
+        <v>329352</v>
       </c>
     </row>
     <row r="143">
@@ -5366,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2714893661</v>
+        <v>2676210574</v>
       </c>
       <c r="E143" t="n">
-        <v>2882510645</v>
+        <v>2841439271</v>
       </c>
       <c r="F143" t="n">
-        <v>4934.714841859575</v>
+        <v>3674.87855615477</v>
       </c>
       <c r="G143" t="n">
-        <v>19663.70592150841</v>
+        <v>25276.55828966014</v>
       </c>
       <c r="H143" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I143" t="n">
-        <v>48516571</v>
+        <v>51392203</v>
       </c>
     </row>
     <row r="144">
@@ -5401,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1780149</v>
+        <v>1746340</v>
       </c>
       <c r="E144" t="n">
-        <v>1786432</v>
+        <v>1752504</v>
       </c>
       <c r="F144" t="n">
-        <v>1873.89107040567</v>
+        <v>2173.60217934891</v>
       </c>
       <c r="G144" t="n">
-        <v>1940.689449813381</v>
+        <v>4019.403447531009</v>
       </c>
       <c r="H144" t="n">
-        <v>1.84</v>
+        <v>1.53</v>
       </c>
       <c r="I144" t="n">
-        <v>450761</v>
+        <v>446207</v>
       </c>
     </row>
     <row r="145">
@@ -5436,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>60563057</v>
+        <v>62208546</v>
       </c>
       <c r="E145" t="n">
-        <v>148557073</v>
+        <v>152593346</v>
       </c>
       <c r="F145" t="n">
-        <v>3325.656744343972</v>
+        <v>4285.638008943409</v>
       </c>
       <c r="G145" t="n">
-        <v>4248.044026662528</v>
+        <v>4729.424398335148</v>
       </c>
       <c r="H145" t="n">
-        <v>0.34</v>
+        <v>0.55</v>
       </c>
       <c r="I145" t="n">
-        <v>22154407</v>
+        <v>16436757</v>
       </c>
     </row>
     <row r="146">
@@ -5471,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>822405872</v>
+        <v>817230162</v>
       </c>
       <c r="E146" t="n">
-        <v>1268222467</v>
+        <v>1260241063</v>
       </c>
       <c r="F146" t="n">
-        <v>210253.5471652985</v>
+        <v>293834.460333682</v>
       </c>
       <c r="G146" t="n">
-        <v>283729.1278447294</v>
+        <v>238059.2259401322</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>311003836</v>
+        <v>336376865</v>
       </c>
     </row>
     <row r="147">
@@ -5506,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>24074212</v>
+        <v>23302112</v>
       </c>
       <c r="E147" t="n">
-        <v>24074212</v>
+        <v>23302112</v>
       </c>
       <c r="F147" t="n">
-        <v>4405.573609333089</v>
+        <v>4716.780975327753</v>
       </c>
       <c r="G147" t="n">
-        <v>7622.299492065047</v>
+        <v>7599.925140817142</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I147" t="n">
-        <v>5297448</v>
+        <v>5561762</v>
       </c>
     </row>
     <row r="148">
@@ -5541,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3836861</v>
+        <v>3815966</v>
       </c>
       <c r="E148" t="n">
-        <v>8363819</v>
+        <v>8318270</v>
       </c>
       <c r="F148" t="n">
-        <v>6898.052255598718</v>
+        <v>6793.26120839586</v>
       </c>
       <c r="G148" t="n">
-        <v>7119.739129786918</v>
+        <v>7094.523123146748</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>1785502</v>
+        <v>1814243</v>
       </c>
     </row>
     <row r="149">
@@ -5576,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9227440</v>
+        <v>9246705</v>
       </c>
       <c r="E149" t="n">
-        <v>9227440</v>
+        <v>9246705</v>
       </c>
       <c r="F149" t="n">
-        <v>92601.1039400505</v>
+        <v>296367.803882736</v>
       </c>
       <c r="G149" t="n">
-        <v>82799.5235285391</v>
+        <v>487502.7878672964</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>3764541</v>
+        <v>4690960</v>
       </c>
     </row>
     <row r="150">
@@ -5611,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>500660669</v>
+        <v>495161308</v>
       </c>
       <c r="E150" t="n">
-        <v>1742758122</v>
+        <v>1723615303</v>
       </c>
       <c r="F150" t="n">
-        <v>585561.449148976</v>
+        <v>778567.3285508102</v>
       </c>
       <c r="G150" t="n">
-        <v>854910.8930822616</v>
+        <v>869201.7543173132</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>38737695</v>
+        <v>42611918</v>
       </c>
     </row>
     <row r="151">
@@ -5646,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49542676</v>
+        <v>49509767</v>
       </c>
       <c r="E151" t="n">
-        <v>121956061</v>
+        <v>121875058</v>
       </c>
       <c r="F151" t="n">
-        <v>8567.709145944746</v>
+        <v>8282.246683994805</v>
       </c>
       <c r="G151" t="n">
-        <v>8439.952890450528</v>
+        <v>8011.317050825164</v>
       </c>
       <c r="H151" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>38421</v>
+        <v>60309</v>
       </c>
     </row>
     <row r="152">
@@ -5681,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7509910</v>
+        <v>7288639</v>
       </c>
       <c r="E152" t="n">
-        <v>19509938</v>
+        <v>18935101</v>
       </c>
       <c r="F152" t="n">
-        <v>6830.618394902978</v>
+        <v>5352.742965571463</v>
       </c>
       <c r="G152" t="n">
-        <v>7502.041541614935</v>
+        <v>6297.173309660904</v>
       </c>
       <c r="H152" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="I152" t="n">
-        <v>728696</v>
+        <v>735444</v>
       </c>
     </row>
     <row r="153">
@@ -5719,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19096883856</v>
+        <v>19159108694</v>
       </c>
       <c r="F153" t="n">
-        <v>52447.68858727735</v>
+        <v>2166.713208617429</v>
       </c>
       <c r="G153" t="n">
-        <v>49987.86578108702</v>
+        <v>32162.88368971316</v>
       </c>
       <c r="H153" t="n">
-        <v>0.23</v>
+        <v>0.65</v>
       </c>
       <c r="I153" t="n">
-        <v>43931748</v>
+        <v>43039253</v>
       </c>
     </row>
     <row r="154">
@@ -5751,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2631167</v>
+        <v>2584565</v>
       </c>
       <c r="E154" t="n">
-        <v>10524667</v>
+        <v>10338259</v>
       </c>
       <c r="F154" t="n">
-        <v>3188.069477426113</v>
+        <v>4706.969021825941</v>
       </c>
       <c r="G154" t="n">
-        <v>24904.84687052981</v>
+        <v>2552.627427270103</v>
       </c>
       <c r="H154" t="n">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="I154" t="n">
-        <v>7035977</v>
+        <v>7122838</v>
       </c>
     </row>
     <row r="155">
@@ -5786,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>227166332</v>
+        <v>221168081</v>
       </c>
       <c r="E155" t="n">
-        <v>698450983</v>
+        <v>680008620</v>
       </c>
       <c r="F155" t="n">
-        <v>81958.74798524268</v>
+        <v>57141.2937242785</v>
       </c>
       <c r="G155" t="n">
-        <v>142311.9766973346</v>
+        <v>65285.18158182905</v>
       </c>
       <c r="H155" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>21600718</v>
+        <v>19911572</v>
       </c>
     </row>
     <row r="156">
@@ -5821,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>405441271</v>
+        <v>396546762</v>
       </c>
       <c r="E156" t="n">
-        <v>2316807263</v>
+        <v>2265981498</v>
       </c>
       <c r="F156" t="n">
-        <v>175141.9544568116</v>
+        <v>187326.5097645415</v>
       </c>
       <c r="G156" t="n">
-        <v>221550.2463290167</v>
+        <v>241691.8858152129</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>44477741</v>
+        <v>49091753</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3901261</v>
+        <v>3858268</v>
       </c>
       <c r="F2" t="n">
-        <v>427.5898962678789</v>
+        <v>146.4653357585431</v>
       </c>
       <c r="G2" t="n">
-        <v>1731.1281803614</v>
+        <v>1997.948533526965</v>
       </c>
       <c r="H2" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>156243</v>
+        <v>143940</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>642959491</v>
+        <v>625507874</v>
       </c>
       <c r="E3" t="n">
-        <v>1247681686</v>
+        <v>1213817515</v>
       </c>
       <c r="F3" t="n">
-        <v>47785.60070136017</v>
+        <v>34662.73164643414</v>
       </c>
       <c r="G3" t="n">
-        <v>63767.23395879363</v>
+        <v>49653.76358032312</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>36573192</v>
+        <v>36427893</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252545642</v>
+        <v>257317011</v>
       </c>
       <c r="E4" t="n">
-        <v>1583678221</v>
+        <v>1613598809</v>
       </c>
       <c r="F4" t="n">
-        <v>304788.3734729842</v>
+        <v>169347.3706226456</v>
       </c>
       <c r="G4" t="n">
-        <v>228378.551072446</v>
+        <v>123892.5578495827</v>
       </c>
       <c r="H4" t="n">
         <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>20821714</v>
+        <v>22167753</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148143545</v>
+        <v>146096221</v>
       </c>
       <c r="E5" t="n">
-        <v>164166200</v>
+        <v>161897444</v>
       </c>
       <c r="F5" t="n">
-        <v>8452.075632195845</v>
+        <v>613.8937832635954</v>
       </c>
       <c r="G5" t="n">
-        <v>3660.91797395266</v>
+        <v>3671.844419263474</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="I5" t="n">
-        <v>48726752</v>
+        <v>49544333</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49279506</v>
+        <v>49321959</v>
       </c>
       <c r="E6" t="n">
-        <v>61647398</v>
+        <v>61700506</v>
       </c>
       <c r="F6" t="n">
-        <v>4141.882311695749</v>
+        <v>5824.212047452233</v>
       </c>
       <c r="G6" t="n">
-        <v>5932.553946485672</v>
+        <v>5408.090981048218</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>859516</v>
+        <v>594016</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68616825</v>
+        <v>68119768</v>
       </c>
       <c r="E7" t="n">
-        <v>136661493</v>
+        <v>135671524</v>
       </c>
       <c r="F7" t="n">
-        <v>12823.05921553304</v>
+        <v>11373.63775315964</v>
       </c>
       <c r="G7" t="n">
-        <v>11794.6113709751</v>
+        <v>11799.1968311047</v>
       </c>
       <c r="H7" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I7" t="n">
-        <v>887143</v>
+        <v>925351</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41311091</v>
+        <v>41110317</v>
       </c>
       <c r="E8" t="n">
-        <v>46233061</v>
+        <v>46008366</v>
       </c>
       <c r="F8" t="n">
-        <v>415.4268775421803</v>
+        <v>869.5997345463383</v>
       </c>
       <c r="G8" t="n">
-        <v>576.9831122330485</v>
+        <v>412.2006260657723</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>1.12</v>
       </c>
       <c r="I8" t="n">
-        <v>5168566</v>
+        <v>5282983</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13962858</v>
+        <v>13976690</v>
       </c>
       <c r="E9" t="n">
-        <v>41147641</v>
+        <v>41188404</v>
       </c>
       <c r="F9" t="n">
-        <v>5091.553208221467</v>
+        <v>5083.877404392729</v>
       </c>
       <c r="G9" t="n">
-        <v>4830.967419156002</v>
+        <v>4609.405740296256</v>
       </c>
       <c r="H9" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="I9" t="n">
-        <v>951641</v>
+        <v>933562</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8863223</v>
+        <v>8583365</v>
       </c>
       <c r="E10" t="n">
-        <v>38099063</v>
+        <v>36896080</v>
       </c>
       <c r="F10" t="n">
-        <v>519.4283487877562</v>
+        <v>3716.472139453821</v>
       </c>
       <c r="G10" t="n">
-        <v>996.0250950245659</v>
+        <v>3705.638606977809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.95</v>
+        <v>0.54</v>
       </c>
       <c r="I10" t="n">
-        <v>943655</v>
+        <v>932372</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>587743725</v>
+        <v>577210011</v>
       </c>
       <c r="E11" t="n">
-        <v>735180045</v>
+        <v>722003936</v>
       </c>
       <c r="F11" t="n">
-        <v>317790.000484481</v>
+        <v>338872.087031954</v>
       </c>
       <c r="G11" t="n">
-        <v>277274.6045148739</v>
+        <v>268116.5964179831</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>87606313</v>
+        <v>87948835</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4318908</v>
+        <v>4261269</v>
       </c>
       <c r="E12" t="n">
-        <v>26520286</v>
+        <v>26166348</v>
       </c>
       <c r="F12" t="n">
-        <v>9750.698021174408</v>
+        <v>11236.47211845144</v>
       </c>
       <c r="G12" t="n">
-        <v>9198.199060722996</v>
+        <v>10707.63995257782</v>
       </c>
       <c r="H12" t="n">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="I12" t="n">
-        <v>711999</v>
+        <v>709813</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24456296</v>
+        <v>24380076</v>
       </c>
       <c r="E13" t="n">
-        <v>24501405</v>
+        <v>24425044</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>840835</v>
+        <v>869651</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>82150113</v>
+        <v>81201827</v>
       </c>
       <c r="E14" t="n">
-        <v>241695820</v>
+        <v>238905846</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>421702</v>
+        <v>441373</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>518351733</v>
+        <v>511919889</v>
       </c>
       <c r="E15" t="n">
-        <v>518351733</v>
+        <v>511919889</v>
       </c>
       <c r="F15" t="n">
-        <v>20973.09806995544</v>
+        <v>27437.56447443558</v>
       </c>
       <c r="G15" t="n">
-        <v>25818.46190354888</v>
+        <v>23111.92307138929</v>
       </c>
       <c r="H15" t="n">
         <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>72823627</v>
+        <v>72537480</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4719985</v>
+        <v>4727394</v>
       </c>
       <c r="E16" t="n">
-        <v>4719985</v>
+        <v>4727394</v>
       </c>
       <c r="F16" t="n">
-        <v>527.6046015108532</v>
+        <v>223.5253219502737</v>
       </c>
       <c r="G16" t="n">
-        <v>1350.26003593639</v>
+        <v>1266.15472304423</v>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2237067</v>
+        <v>2252002</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3368584</v>
+        <v>3396589</v>
       </c>
       <c r="E17" t="n">
-        <v>3368584</v>
+        <v>3396589</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>573779</v>
+        <v>567644</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>169728128</v>
+        <v>169981519</v>
       </c>
       <c r="E18" t="n">
-        <v>210130490</v>
+        <v>210444199</v>
       </c>
       <c r="F18" t="n">
-        <v>4815.291298149081</v>
+        <v>5122.69659865769</v>
       </c>
       <c r="G18" t="n">
-        <v>11854.12023752761</v>
+        <v>12588.18301777868</v>
       </c>
       <c r="H18" t="n">
         <v>0.8</v>
       </c>
       <c r="I18" t="n">
-        <v>557870</v>
+        <v>559313</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6753471</v>
+        <v>6782455</v>
       </c>
       <c r="E19" t="n">
-        <v>9301255</v>
+        <v>9341174</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>250346</v>
+        <v>270704</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>910810</v>
+        <v>910393</v>
       </c>
       <c r="E20" t="n">
-        <v>6375668</v>
+        <v>6372750</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>257579</v>
+        <v>156034</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>114543464</v>
+        <v>112600051</v>
       </c>
       <c r="E21" t="n">
-        <v>445378391</v>
+        <v>437805463</v>
       </c>
       <c r="F21" t="n">
-        <v>39739.56084771507</v>
+        <v>25292.70507228974</v>
       </c>
       <c r="G21" t="n">
-        <v>36192.54180479111</v>
+        <v>21851.17787378527</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>12815422</v>
+        <v>20360216</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1720558</v>
+        <v>1719660</v>
       </c>
       <c r="E22" t="n">
-        <v>12393032</v>
+        <v>12386567</v>
       </c>
       <c r="F22" t="n">
-        <v>4879.80471659556</v>
+        <v>5989.545874962758</v>
       </c>
       <c r="G22" t="n">
-        <v>3604.587696915442</v>
+        <v>5020.633437350376</v>
       </c>
       <c r="H22" t="n">
-        <v>0.84</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>53197</v>
+        <v>53251</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>145448434</v>
+        <v>143511789</v>
       </c>
       <c r="E23" t="n">
-        <v>145448434</v>
+        <v>143511789</v>
       </c>
       <c r="F23" t="n">
-        <v>1003137.153828427</v>
+        <v>959311.2048338781</v>
       </c>
       <c r="G23" t="n">
-        <v>1121193.485149747</v>
+        <v>972102.0087133794</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>86027964</v>
+        <v>87398144</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67395035</v>
+        <v>66421086</v>
       </c>
       <c r="E24" t="n">
-        <v>345615563</v>
+        <v>340620953</v>
       </c>
       <c r="F24" t="n">
-        <v>73536.41665108436</v>
+        <v>64306.69829269582</v>
       </c>
       <c r="G24" t="n">
-        <v>111760.0929689229</v>
+        <v>129518.0269526049</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>26127816</v>
+        <v>26557069</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>266396789</v>
+        <v>263256070</v>
       </c>
       <c r="E25" t="n">
-        <v>266396789</v>
+        <v>263256070</v>
       </c>
       <c r="F25" t="n">
-        <v>440122.8003765098</v>
+        <v>297455.81680859</v>
       </c>
       <c r="G25" t="n">
-        <v>463565.2724496466</v>
+        <v>420389.034220096</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>20015332</v>
+        <v>27144330</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1132208</v>
+        <v>1135357</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>145668</v>
+        <v>140106</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2861899</v>
+        <v>2678908</v>
       </c>
       <c r="E27" t="n">
-        <v>3162426</v>
+        <v>2963592</v>
       </c>
       <c r="F27" t="n">
-        <v>666.4826317523356</v>
+        <v>100.155451114817</v>
       </c>
       <c r="G27" t="n">
-        <v>86.45944663930474</v>
+        <v>810.9269084232652</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
-        <v>264359</v>
+        <v>278495</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3986957</v>
+        <v>3948122</v>
       </c>
       <c r="E28" t="n">
-        <v>3987591</v>
+        <v>3948843</v>
       </c>
       <c r="F28" t="n">
-        <v>914.880379993057</v>
+        <v>898.9756540263467</v>
       </c>
       <c r="G28" t="n">
-        <v>3848.087900708595</v>
+        <v>1393.428996620185</v>
       </c>
       <c r="H28" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="I28" t="n">
-        <v>254516</v>
+        <v>257563</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6972746</v>
+        <v>7041865</v>
       </c>
       <c r="E29" t="n">
-        <v>16936263</v>
+        <v>17104149</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>459336</v>
+        <v>456509</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>100330181</v>
+        <v>99359432</v>
       </c>
       <c r="E30" t="n">
-        <v>125099975</v>
+        <v>123889564</v>
       </c>
       <c r="F30" t="n">
-        <v>100189.2348923023</v>
+        <v>111654.2861798598</v>
       </c>
       <c r="G30" t="n">
-        <v>113090.078796278</v>
+        <v>100794.5277792823</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>10989951</v>
+        <v>11075960</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1157774</v>
+        <v>1157423</v>
       </c>
       <c r="E31" t="n">
-        <v>12582251</v>
+        <v>12578445</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14800.08</v>
+        <v>14788.81</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84262718</v>
+        <v>83726845</v>
       </c>
       <c r="E32" t="n">
-        <v>235724202</v>
+        <v>234215934</v>
       </c>
       <c r="F32" t="n">
-        <v>65184.80402930552</v>
+        <v>65608.61480914494</v>
       </c>
       <c r="G32" t="n">
-        <v>80080.64519027509</v>
+        <v>74900.84952809323</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>54162994</v>
+        <v>55175336</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4086260</v>
+        <v>4074696</v>
       </c>
       <c r="E33" t="n">
-        <v>8058450</v>
+        <v>8035643</v>
       </c>
       <c r="F33" t="n">
-        <v>9991.3079830508</v>
+        <v>8404.859402058397</v>
       </c>
       <c r="G33" t="n">
-        <v>7571.233668475559</v>
+        <v>6831.378883979718</v>
       </c>
       <c r="H33" t="n">
-        <v>0.59</v>
+        <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>1638946</v>
+        <v>1645228</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36403940</v>
+        <v>36515439</v>
       </c>
       <c r="F34" t="n">
-        <v>270.6210761369298</v>
+        <v>232.1118910883328</v>
       </c>
       <c r="G34" t="n">
-        <v>411.2226922666071</v>
+        <v>421.6382749475876</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
       <c r="I34" t="n">
-        <v>49391</v>
+        <v>47837</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17380258</v>
+        <v>17567696</v>
       </c>
       <c r="E35" t="n">
-        <v>18318385</v>
+        <v>18515939</v>
       </c>
       <c r="F35" t="n">
-        <v>3487.490510731902</v>
+        <v>3508.879128713775</v>
       </c>
       <c r="G35" t="n">
-        <v>2655.927573740352</v>
+        <v>2647.444941472774</v>
       </c>
       <c r="H35" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I35" t="n">
-        <v>37926</v>
+        <v>43181</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23221382</v>
+        <v>23275548</v>
       </c>
       <c r="F36" t="n">
-        <v>5147.124301545533</v>
+        <v>4957.771821958759</v>
       </c>
       <c r="G36" t="n">
-        <v>5264.754557140046</v>
+        <v>270.8905464319399</v>
       </c>
       <c r="H36" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>125168</v>
+        <v>127040</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>90158289</v>
+        <v>90055427</v>
       </c>
       <c r="E37" t="n">
-        <v>187972792</v>
+        <v>187758332</v>
       </c>
       <c r="F37" t="n">
-        <v>91269.75741639675</v>
+        <v>97946.15028654395</v>
       </c>
       <c r="G37" t="n">
-        <v>95263.55299170053</v>
+        <v>85646.94301791205</v>
       </c>
       <c r="H37" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>65280665</v>
+        <v>67091218</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>284947866</v>
+        <v>280875724</v>
       </c>
       <c r="E38" t="n">
-        <v>284947866</v>
+        <v>280875724</v>
       </c>
       <c r="F38" t="n">
-        <v>22916.68808605346</v>
+        <v>25598.65957803193</v>
       </c>
       <c r="G38" t="n">
-        <v>33274.78589514699</v>
+        <v>29806.50711692417</v>
       </c>
       <c r="H38" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="I38" t="n">
-        <v>11916944</v>
+        <v>12143262</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>206224451</v>
+        <v>204554082</v>
       </c>
       <c r="E39" t="n">
-        <v>716442381</v>
+        <v>710639367</v>
       </c>
       <c r="F39" t="n">
-        <v>249444.2092096955</v>
+        <v>112036.6156335701</v>
       </c>
       <c r="G39" t="n">
-        <v>249730.2333839419</v>
+        <v>158372.9301525735</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>37063735</v>
+        <v>42115577</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3584348</v>
+        <v>3448063</v>
       </c>
       <c r="E40" t="n">
-        <v>3584348</v>
+        <v>3448061</v>
       </c>
       <c r="F40" t="n">
-        <v>1247.15202946829</v>
+        <v>895.8380704108738</v>
       </c>
       <c r="G40" t="n">
-        <v>2860.373289820688</v>
+        <v>2650.735776629559</v>
       </c>
       <c r="H40" t="n">
-        <v>0.22</v>
+        <v>0.84</v>
       </c>
       <c r="I40" t="n">
-        <v>2517027</v>
+        <v>2386600</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>116879108</v>
+        <v>115198311</v>
       </c>
       <c r="E41" t="n">
-        <v>496030255</v>
+        <v>488862818</v>
       </c>
       <c r="F41" t="n">
-        <v>5651.187846732308</v>
+        <v>5395.629219628289</v>
       </c>
       <c r="G41" t="n">
-        <v>6192.710494512618</v>
+        <v>6495.57013654736</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I41" t="n">
-        <v>15785388</v>
+        <v>15371520</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>546975</v>
+        <v>555067</v>
       </c>
       <c r="E42" t="n">
-        <v>6634279</v>
+        <v>6732419</v>
       </c>
       <c r="F42" t="n">
-        <v>276.7953604093075</v>
+        <v>391.7403662251427</v>
       </c>
       <c r="G42" t="n">
-        <v>902.7828616636546</v>
+        <v>962.9310766572887</v>
       </c>
       <c r="H42" t="n">
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="I42" t="n">
-        <v>2763010</v>
+        <v>2784556</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1360015224</v>
+        <v>1401378381</v>
       </c>
       <c r="E43" t="n">
-        <v>6521551525</v>
+        <v>6719896331</v>
       </c>
       <c r="F43" t="n">
-        <v>32365.81464715038</v>
+        <v>3566.880920234589</v>
       </c>
       <c r="G43" t="n">
-        <v>65597.92091929879</v>
+        <v>41054.04077769321</v>
       </c>
       <c r="H43" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I43" t="n">
-        <v>380447895</v>
+        <v>420478694</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6009734447</v>
+        <v>5952638571</v>
       </c>
       <c r="E44" t="n">
-        <v>6009734447</v>
+        <v>5937655034</v>
       </c>
       <c r="F44" t="n">
-        <v>584721.5639134772</v>
+        <v>57752.92981307121</v>
       </c>
       <c r="G44" t="n">
-        <v>369806.6685613365</v>
+        <v>1199625.311901924</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="I44" t="n">
-        <v>292938290</v>
+        <v>351908988</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>269926981</v>
+        <v>266860883</v>
       </c>
       <c r="E45" t="n">
-        <v>1165154700</v>
+        <v>1151919715</v>
       </c>
       <c r="F45" t="n">
-        <v>99022.38093296513</v>
+        <v>58378.74347760073</v>
       </c>
       <c r="G45" t="n">
-        <v>93705.05208463354</v>
+        <v>70678.49980971296</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>132433536</v>
+        <v>135580680</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115949399</v>
+        <v>115774163</v>
       </c>
       <c r="E46" t="n">
-        <v>115949399</v>
+        <v>115774163</v>
       </c>
       <c r="F46" t="n">
-        <v>27920.49997721873</v>
+        <v>27215.38828117701</v>
       </c>
       <c r="G46" t="n">
-        <v>29918.62587282538</v>
+        <v>38997.40048076006</v>
       </c>
       <c r="H46" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I46" t="n">
-        <v>6721452</v>
+        <v>6788236</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2040096587</v>
+        <v>2038662914</v>
       </c>
       <c r="E47" t="n">
-        <v>2040096587</v>
+        <v>2038662914</v>
       </c>
       <c r="F47" t="n">
-        <v>226350.4374724735</v>
+        <v>227435.2991824021</v>
       </c>
       <c r="G47" t="n">
-        <v>198409.9119907818</v>
+        <v>199312.8344119788</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>8451175203</v>
+        <v>8588640451</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10170012</v>
+        <v>10148907</v>
       </c>
       <c r="F48" t="n">
-        <v>6682.635636236843</v>
+        <v>6733.630428407293</v>
       </c>
       <c r="G48" t="n">
-        <v>6319.155350829369</v>
+        <v>6059.892604622377</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>184405</v>
+        <v>184059</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4347980</v>
+        <v>4327235</v>
       </c>
       <c r="E49" t="n">
-        <v>5708330</v>
+        <v>5681096</v>
       </c>
       <c r="F49" t="n">
-        <v>4673.432523027727</v>
+        <v>6499.538997585252</v>
       </c>
       <c r="G49" t="n">
-        <v>7629.814611581408</v>
+        <v>2456.137296807622</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I49" t="n">
-        <v>641695</v>
+        <v>628704</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13063611</v>
+        <v>12898064</v>
       </c>
       <c r="E50" t="n">
-        <v>19209794</v>
+        <v>18966359</v>
       </c>
       <c r="F50" t="n">
-        <v>6306.847894885072</v>
+        <v>7304.39580216782</v>
       </c>
       <c r="G50" t="n">
-        <v>10845.86047251669</v>
+        <v>6940.232374073465</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>6508798</v>
+        <v>7042838</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22962493</v>
+        <v>23100683</v>
       </c>
       <c r="E51" t="n">
-        <v>29787606</v>
+        <v>29966870</v>
       </c>
       <c r="F51" t="n">
-        <v>9239.873383443766</v>
+        <v>11542.36896357573</v>
       </c>
       <c r="G51" t="n">
-        <v>5659.055991685025</v>
+        <v>12103.917602137</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>178986</v>
+        <v>432662</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14353330</v>
+        <v>14269680</v>
       </c>
       <c r="E52" t="n">
-        <v>14353330</v>
+        <v>14269680</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5327596</v>
+        <v>5369058</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>100173558</v>
+        <v>99535151</v>
       </c>
       <c r="E53" t="n">
-        <v>123911106</v>
+        <v>123121419</v>
       </c>
       <c r="F53" t="n">
-        <v>1175.020148591663</v>
+        <v>1301.228493872157</v>
       </c>
       <c r="G53" t="n">
-        <v>1879.447901943586</v>
+        <v>1714.046870837188</v>
       </c>
       <c r="H53" t="n">
         <v>0.46</v>
       </c>
       <c r="I53" t="n">
-        <v>1041222</v>
+        <v>985110</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5133606</v>
+        <v>5107517</v>
       </c>
       <c r="E54" t="n">
-        <v>7182659</v>
+        <v>7146157</v>
       </c>
       <c r="F54" t="n">
-        <v>37.90465478311813</v>
+        <v>415.4310409369153</v>
       </c>
       <c r="G54" t="n">
-        <v>196.6678972843453</v>
+        <v>289.053345183795</v>
       </c>
       <c r="H54" t="n">
-        <v>3.12</v>
+        <v>3.44</v>
       </c>
       <c r="I54" t="n">
-        <v>72663</v>
+        <v>76878</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15370095</v>
+        <v>14768069</v>
       </c>
       <c r="E55" t="n">
-        <v>74439825</v>
+        <v>71524117</v>
       </c>
       <c r="F55" t="n">
-        <v>10841.33414079754</v>
+        <v>14867.33964882669</v>
       </c>
       <c r="G55" t="n">
-        <v>11504.73751870101</v>
+        <v>12715.98357585853</v>
       </c>
       <c r="H55" t="n">
-        <v>0.27</v>
+        <v>0.98</v>
       </c>
       <c r="I55" t="n">
-        <v>5031245</v>
+        <v>5190964</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>58786</v>
+        <v>59649</v>
       </c>
       <c r="E56" t="n">
-        <v>140806</v>
+        <v>142871</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>10865.06</v>
+        <v>13967.81</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1887970487</v>
+        <v>1873832787</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>29234011</v>
+        <v>29475906</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12376544</v>
+        <v>12327505</v>
       </c>
       <c r="E58" t="n">
-        <v>17944202</v>
+        <v>17873103</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2004470</v>
+        <v>2006198</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>123195586</v>
+        <v>122081355</v>
       </c>
       <c r="E59" t="n">
-        <v>327630031</v>
+        <v>324666811</v>
       </c>
       <c r="F59" t="n">
-        <v>8064.250671807446</v>
+        <v>1820.074264635457</v>
       </c>
       <c r="G59" t="n">
-        <v>7068.548618787462</v>
+        <v>7024.110228715633</v>
       </c>
       <c r="H59" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="I59" t="n">
-        <v>699286</v>
+        <v>707747</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31592893</v>
+        <v>31298900</v>
       </c>
       <c r="E60" t="n">
-        <v>98370133</v>
+        <v>97454732</v>
       </c>
       <c r="F60" t="n">
-        <v>2623.251801851912</v>
+        <v>2338.170117982312</v>
       </c>
       <c r="G60" t="n">
-        <v>5576.814672040956</v>
+        <v>9278.720406711811</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04</v>
+        <v>0.33</v>
       </c>
       <c r="I60" t="n">
-        <v>9963641</v>
+        <v>9996214</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1914706</v>
+        <v>1924785</v>
       </c>
       <c r="E61" t="n">
-        <v>13730162</v>
+        <v>13802445</v>
       </c>
       <c r="F61" t="n">
-        <v>5408.961684505548</v>
+        <v>5411.054231695562</v>
       </c>
       <c r="G61" t="n">
-        <v>5010.666738585424</v>
+        <v>5112.425973743196</v>
       </c>
       <c r="H61" t="n">
-        <v>2.69</v>
+        <v>2.48</v>
       </c>
       <c r="I61" t="n">
-        <v>2029118</v>
+        <v>2016171</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>203152378</v>
+        <v>199816414</v>
       </c>
       <c r="E62" t="n">
-        <v>1150373590</v>
+        <v>1131483313</v>
       </c>
       <c r="F62" t="n">
-        <v>589230.402319041</v>
+        <v>415499.2047133259</v>
       </c>
       <c r="G62" t="n">
-        <v>719199.8508796743</v>
+        <v>565028.5390947064</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I62" t="n">
-        <v>81240684</v>
+        <v>82194904</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498865</v>
+        <v>495392</v>
       </c>
       <c r="E63" t="n">
-        <v>1679111</v>
+        <v>1667421</v>
       </c>
       <c r="F63" t="n">
-        <v>2338.401045704967</v>
+        <v>4379.403570625568</v>
       </c>
       <c r="G63" t="n">
-        <v>609.8098452444746</v>
+        <v>459.7124734899795</v>
       </c>
       <c r="H63" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I63" t="n">
-        <v>629582</v>
+        <v>564536</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>352933</v>
+        <v>352775</v>
       </c>
       <c r="E64" t="n">
-        <v>352933</v>
+        <v>352775</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2031.81</v>
+        <v>2173.3</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>125084929</v>
+        <v>126240097</v>
       </c>
       <c r="E65" t="n">
-        <v>926555030</v>
+        <v>935111826</v>
       </c>
       <c r="F65" t="n">
-        <v>29218.49548739633</v>
+        <v>1108.445472395713</v>
       </c>
       <c r="G65" t="n">
-        <v>37217.37363913806</v>
+        <v>8073.604520123668</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01</v>
+        <v>2.63</v>
       </c>
       <c r="I65" t="n">
-        <v>18502999</v>
+        <v>20704243</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8738331</v>
+        <v>8630446</v>
       </c>
       <c r="E66" t="n">
-        <v>11706449</v>
+        <v>11561920</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>79715</v>
+        <v>37772</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>37346875</v>
+        <v>35847935</v>
       </c>
       <c r="E67" t="n">
-        <v>37346875</v>
+        <v>35847935</v>
       </c>
       <c r="F67" t="n">
-        <v>8678.877872616682</v>
+        <v>8804.918459303339</v>
       </c>
       <c r="G67" t="n">
-        <v>10444.48859000855</v>
+        <v>8066.494472923587</v>
       </c>
       <c r="H67" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>942269</v>
+        <v>955109</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1593559</v>
+        <v>1579515</v>
       </c>
       <c r="E68" t="n">
-        <v>12375760</v>
+        <v>12266692</v>
       </c>
       <c r="F68" t="n">
-        <v>16163.78871327697</v>
+        <v>17424.18409252618</v>
       </c>
       <c r="G68" t="n">
-        <v>19906.90862156089</v>
+        <v>17096.16191259916</v>
       </c>
       <c r="H68" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="I68" t="n">
-        <v>507963</v>
+        <v>512857</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>336982450</v>
+        <v>332795808</v>
       </c>
       <c r="E69" t="n">
-        <v>3031703076</v>
+        <v>2994037451</v>
       </c>
       <c r="F69" t="n">
-        <v>1440984.352157418</v>
+        <v>1073433.243104695</v>
       </c>
       <c r="G69" t="n">
-        <v>1600424.894124104</v>
+        <v>1204463.283256321</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>55283266</v>
+        <v>57261931</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246260</v>
+        <v>247421</v>
       </c>
       <c r="E70" t="n">
-        <v>2173427</v>
+        <v>2183676</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>73772</v>
+        <v>71346</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1536211</v>
+        <v>1553947</v>
       </c>
       <c r="E71" t="n">
-        <v>12801759</v>
+        <v>12949559</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>32220</v>
+        <v>28081</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9573933</v>
+        <v>9628563</v>
       </c>
       <c r="E72" t="n">
-        <v>44375730</v>
+        <v>44628944</v>
       </c>
       <c r="F72" t="n">
-        <v>569.8250736504925</v>
+        <v>10669.99590305307</v>
       </c>
       <c r="G72" t="n">
-        <v>514.6954033947453</v>
+        <v>2440.406285477287</v>
       </c>
       <c r="H72" t="n">
-        <v>2.36</v>
+        <v>0.8</v>
       </c>
       <c r="I72" t="n">
-        <v>74841</v>
+        <v>134744</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50772436</v>
+        <v>47106671</v>
       </c>
       <c r="E73" t="n">
-        <v>293951422</v>
+        <v>272728163</v>
       </c>
       <c r="F73" t="n">
-        <v>85096.92929000707</v>
+        <v>109773.0354410724</v>
       </c>
       <c r="G73" t="n">
-        <v>187157.0183658764</v>
+        <v>129873.8985042601</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>46184564</v>
+        <v>48251995</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39932801</v>
+        <v>39539274</v>
       </c>
       <c r="E74" t="n">
-        <v>55152885</v>
+        <v>54609368</v>
       </c>
       <c r="F74" t="n">
-        <v>854.1885345744553</v>
+        <v>843.5177544919048</v>
       </c>
       <c r="G74" t="n">
-        <v>579.7052476561543</v>
+        <v>559.8117658722086</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>340152</v>
+        <v>326241</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>110697</v>
+        <v>109018</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3440.52</v>
+        <v>3861.34</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13948337</v>
+        <v>13913212</v>
       </c>
       <c r="E76" t="n">
-        <v>13995805</v>
+        <v>13960560</v>
       </c>
       <c r="F76" t="n">
-        <v>1470.546513196706</v>
+        <v>2135.987086901798</v>
       </c>
       <c r="G76" t="n">
-        <v>6560.039793302497</v>
+        <v>7000.339206517443</v>
       </c>
       <c r="H76" t="n">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="I76" t="n">
-        <v>6760523</v>
+        <v>6802313</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42778936</v>
+        <v>42756707</v>
       </c>
       <c r="E77" t="n">
-        <v>72628682</v>
+        <v>72590942</v>
       </c>
       <c r="F77" t="n">
-        <v>7341.822069995648</v>
+        <v>5823.417487324148</v>
       </c>
       <c r="G77" t="n">
-        <v>9207.310336253769</v>
+        <v>8971.552581244168</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I77" t="n">
-        <v>1094353</v>
+        <v>1079524</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>21533520</v>
+        <v>20018453</v>
       </c>
       <c r="E78" t="n">
-        <v>64550356</v>
+        <v>60005247</v>
       </c>
       <c r="F78" t="n">
-        <v>45888.93534731917</v>
+        <v>51171.35175882461</v>
       </c>
       <c r="G78" t="n">
-        <v>37939.0161242021</v>
+        <v>25847.34837057938</v>
       </c>
       <c r="H78" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I78" t="n">
-        <v>3906415</v>
+        <v>4072169</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100264825</v>
+        <v>100906036</v>
       </c>
       <c r="E79" t="n">
-        <v>106590571</v>
+        <v>107272236</v>
       </c>
       <c r="F79" t="n">
-        <v>2300.306319264779</v>
+        <v>2297.076569729735</v>
       </c>
       <c r="G79" t="n">
-        <v>5695.173965175163</v>
+        <v>3918.071124220156</v>
       </c>
       <c r="H79" t="n">
         <v>0.93</v>
       </c>
       <c r="I79" t="n">
-        <v>486921</v>
+        <v>677498</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10408292</v>
+        <v>10421482</v>
       </c>
       <c r="E80" t="n">
-        <v>45342618</v>
+        <v>45367490</v>
       </c>
       <c r="F80" t="n">
-        <v>5718.805360819794</v>
+        <v>5672.591174823123</v>
       </c>
       <c r="G80" t="n">
-        <v>6072.966895263937</v>
+        <v>6091.168853473587</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I80" t="n">
-        <v>118913</v>
+        <v>119700</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15730404</v>
+        <v>15775554</v>
       </c>
       <c r="E81" t="n">
-        <v>96416817</v>
+        <v>96693560</v>
       </c>
       <c r="F81" t="n">
-        <v>5174.912167765568</v>
+        <v>5276.494053295001</v>
       </c>
       <c r="G81" t="n">
-        <v>5709.02571926208</v>
+        <v>6203.316255372635</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="I81" t="n">
-        <v>11187473</v>
+        <v>11343513</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1510120</v>
+        <v>1498980</v>
       </c>
       <c r="E82" t="n">
-        <v>1552598</v>
+        <v>1541144</v>
       </c>
       <c r="F82" t="n">
-        <v>3583.260823497448</v>
+        <v>2292.666712893508</v>
       </c>
       <c r="G82" t="n">
-        <v>3203.453219725585</v>
+        <v>1724.03134983454</v>
       </c>
       <c r="H82" t="n">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="I82" t="n">
-        <v>147631</v>
+        <v>150812</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50589408</v>
+        <v>49893389</v>
       </c>
       <c r="E83" t="n">
-        <v>217933637</v>
+        <v>214935266</v>
       </c>
       <c r="F83" t="n">
-        <v>3259.900004798955</v>
+        <v>764.0063702395147</v>
       </c>
       <c r="G83" t="n">
-        <v>4937.088146058454</v>
+        <v>1900.993427724933</v>
       </c>
       <c r="H83" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="I83" t="n">
-        <v>11909928</v>
+        <v>11981197</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2170737</v>
+        <v>2261014</v>
       </c>
       <c r="E84" t="n">
-        <v>7880978</v>
+        <v>8208663</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>202424</v>
+        <v>206958</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8961168</v>
+        <v>8806448</v>
       </c>
       <c r="E85" t="n">
-        <v>19887464</v>
+        <v>19542285</v>
       </c>
       <c r="F85" t="n">
-        <v>3446.695232788836</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>5167.180900736535</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.01</v>
+        <v>3.93</v>
       </c>
       <c r="I85" t="n">
-        <v>336498</v>
+        <v>320163</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2444605</v>
+        <v>2446426</v>
       </c>
       <c r="E86" t="n">
-        <v>18395026</v>
+        <v>18408729</v>
       </c>
       <c r="F86" t="n">
-        <v>4869.063576343648</v>
+        <v>4928.747885485038</v>
       </c>
       <c r="G86" t="n">
-        <v>12182.90146034659</v>
+        <v>12093.23489049504</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161787</v>
+        <v>161680</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19421497</v>
+        <v>19023412</v>
       </c>
       <c r="E87" t="n">
-        <v>77685989</v>
+        <v>76093650</v>
       </c>
       <c r="F87" t="n">
-        <v>6625.924625565274</v>
+        <v>5988.023263369666</v>
       </c>
       <c r="G87" t="n">
-        <v>833.9643804701527</v>
+        <v>1247.817967157521</v>
       </c>
       <c r="H87" t="n">
-        <v>1.53</v>
+        <v>1.06</v>
       </c>
       <c r="I87" t="n">
-        <v>2313534</v>
+        <v>2354613</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4681906</v>
+        <v>4646473</v>
       </c>
       <c r="E88" t="n">
-        <v>4681906</v>
+        <v>4646473</v>
       </c>
       <c r="F88" t="n">
-        <v>3042.660054232535</v>
+        <v>450.6283109741586</v>
       </c>
       <c r="G88" t="n">
-        <v>448.4385315298284</v>
+        <v>2298.162123132947</v>
       </c>
       <c r="H88" t="n">
-        <v>1.15</v>
+        <v>1.02</v>
       </c>
       <c r="I88" t="n">
-        <v>2916826</v>
+        <v>2905387</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12638984</v>
+        <v>12611975</v>
       </c>
       <c r="E89" t="n">
-        <v>39975670</v>
+        <v>39890244</v>
       </c>
       <c r="F89" t="n">
-        <v>17295.34111278543</v>
+        <v>17838.06595620944</v>
       </c>
       <c r="G89" t="n">
-        <v>13490.39899007118</v>
+        <v>14294.42365829974</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="I89" t="n">
-        <v>942774</v>
+        <v>916823</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24880</v>
+        <v>24942</v>
       </c>
       <c r="E90" t="n">
-        <v>195677</v>
+        <v>196163</v>
       </c>
       <c r="F90" t="n">
-        <v>326.2636385292391</v>
+        <v>320.4246677913602</v>
       </c>
       <c r="G90" t="n">
-        <v>670.8058976792995</v>
+        <v>670.8603496127865</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>47204</v>
+        <v>46394</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8727282</v>
+        <v>8670113</v>
       </c>
       <c r="E91" t="n">
-        <v>8727282</v>
+        <v>8670113</v>
       </c>
       <c r="F91" t="n">
-        <v>4223.18431822683</v>
+        <v>3456.7552889298</v>
       </c>
       <c r="G91" t="n">
-        <v>5288.284232505823</v>
+        <v>6201.052205095958</v>
       </c>
       <c r="H91" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>3915988</v>
+        <v>3928349</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9904777</v>
+        <v>9948150</v>
       </c>
       <c r="E92" t="n">
-        <v>9904777</v>
+        <v>9948150</v>
       </c>
       <c r="F92" t="n">
-        <v>4317.538870041295</v>
+        <v>4616.047228986837</v>
       </c>
       <c r="G92" t="n">
-        <v>8314.256485109005</v>
+        <v>8665.543040547713</v>
       </c>
       <c r="H92" t="n">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="I92" t="n">
-        <v>2637541</v>
+        <v>2282122</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>36847196</v>
+        <v>32531917</v>
       </c>
       <c r="E93" t="n">
-        <v>92910937</v>
+        <v>82029876</v>
       </c>
       <c r="F93" t="n">
-        <v>3951.190003349295</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>4983.756590462723</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.32</v>
+        <v>3.98</v>
       </c>
       <c r="I93" t="n">
-        <v>3790507</v>
+        <v>4555256</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>314366441</v>
+        <v>310808724</v>
       </c>
       <c r="E94" t="n">
-        <v>319281277</v>
+        <v>315669335</v>
       </c>
       <c r="F94" t="n">
-        <v>44834.78124005331</v>
+        <v>2916.482975875078</v>
       </c>
       <c r="G94" t="n">
-        <v>54237.83484651882</v>
+        <v>40910.75405656824</v>
       </c>
       <c r="H94" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>23267129</v>
+        <v>26773289</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3517.107321833777</v>
+        <v>1001.446528138984</v>
       </c>
       <c r="G95" t="n">
-        <v>6405.709711333901</v>
+        <v>6329.51594164944</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>215502</v>
+        <v>219439</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>83745683</v>
+        <v>83276278</v>
       </c>
       <c r="E96" t="n">
-        <v>83745683</v>
+        <v>83276278</v>
       </c>
       <c r="F96" t="n">
-        <v>7977.958281247464</v>
+        <v>10145.98589631957</v>
       </c>
       <c r="G96" t="n">
-        <v>6964.101484384746</v>
+        <v>6985.542226810448</v>
       </c>
       <c r="H96" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="I96" t="n">
-        <v>4999275</v>
+        <v>5065973</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>305046034</v>
+        <v>300414473</v>
       </c>
       <c r="E97" t="n">
-        <v>305046034</v>
+        <v>300414473</v>
       </c>
       <c r="F97" t="n">
-        <v>230775.433272089</v>
+        <v>292882.8924736762</v>
       </c>
       <c r="G97" t="n">
-        <v>452675.5640217983</v>
+        <v>393224.3509985598</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>81186459</v>
+        <v>84518330</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4299234</v>
+        <v>4283672</v>
       </c>
       <c r="E98" t="n">
-        <v>29376363</v>
+        <v>29270028</v>
       </c>
       <c r="F98" t="n">
-        <v>4828.28878333595</v>
+        <v>22559.92665099122</v>
       </c>
       <c r="G98" t="n">
-        <v>597.5032323876057</v>
+        <v>24249.83316409801</v>
       </c>
       <c r="H98" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I98" t="n">
-        <v>2683547</v>
+        <v>2675435</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>89164723</v>
+        <v>87719715</v>
       </c>
       <c r="E99" t="n">
-        <v>513805591</v>
+        <v>505478834</v>
       </c>
       <c r="F99" t="n">
-        <v>139479.7981150438</v>
+        <v>37888.44348024749</v>
       </c>
       <c r="G99" t="n">
-        <v>122096.0180978848</v>
+        <v>40238.77951118866</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="I99" t="n">
-        <v>19924028</v>
+        <v>20049118</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>109367027</v>
+        <v>108416478</v>
       </c>
       <c r="E100" t="n">
-        <v>269085617</v>
+        <v>266746894</v>
       </c>
       <c r="F100" t="n">
-        <v>35970.08533047188</v>
+        <v>35769.00913759481</v>
       </c>
       <c r="G100" t="n">
-        <v>45432.61348544223</v>
+        <v>50109.64465046893</v>
       </c>
       <c r="H100" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I100" t="n">
-        <v>2517996</v>
+        <v>2558460</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>243649808</v>
+        <v>246737245</v>
       </c>
       <c r="E101" t="n">
-        <v>243652229</v>
+        <v>246739696</v>
       </c>
       <c r="F101" t="n">
-        <v>23244.33688643547</v>
+        <v>46650.98887269972</v>
       </c>
       <c r="G101" t="n">
-        <v>26687.85087752836</v>
+        <v>5043.867628789943</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I101" t="n">
-        <v>1765356</v>
+        <v>1798374</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30718450</v>
+        <v>30261216</v>
       </c>
       <c r="E102" t="n">
-        <v>137539101</v>
+        <v>135491878</v>
       </c>
       <c r="F102" t="n">
-        <v>76859.33300345411</v>
+        <v>83178.07516014797</v>
       </c>
       <c r="G102" t="n">
-        <v>96470.17052860463</v>
+        <v>86726.20879741495</v>
       </c>
       <c r="H102" t="n">
         <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>11292567</v>
+        <v>12122954</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3118023</v>
+        <v>3093540</v>
       </c>
       <c r="E103" t="n">
-        <v>3118023</v>
+        <v>3093540</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>397827</v>
+        <v>387703</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5829000</v>
+        <v>5804766</v>
       </c>
       <c r="E104" t="n">
-        <v>15298205</v>
+        <v>15234602</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>573.8480868542661</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>4.537906717352024</v>
       </c>
       <c r="H104" t="n">
-        <v>5.09</v>
+        <v>1.46</v>
       </c>
       <c r="I104" t="n">
-        <v>26108</v>
+        <v>23865</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16539715</v>
+        <v>16383787</v>
       </c>
       <c r="E105" t="n">
-        <v>76345088</v>
+        <v>75625349</v>
       </c>
       <c r="F105" t="n">
-        <v>6335.751032533808</v>
+        <v>35225.45831022182</v>
       </c>
       <c r="G105" t="n">
-        <v>10939.4715400314</v>
+        <v>23064.71522791368</v>
       </c>
       <c r="H105" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="I105" t="n">
-        <v>1066132</v>
+        <v>1085195</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>51141954</v>
+        <v>50182879</v>
       </c>
       <c r="E106" t="n">
-        <v>331641961</v>
+        <v>325422612</v>
       </c>
       <c r="F106" t="n">
-        <v>99514.34261881217</v>
+        <v>105235.5861496834</v>
       </c>
       <c r="G106" t="n">
-        <v>140063.5640933039</v>
+        <v>139992.4658186916</v>
       </c>
       <c r="H106" t="n">
         <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>19067600</v>
+        <v>19266838</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2472011</v>
+        <v>2475712</v>
       </c>
       <c r="E107" t="n">
-        <v>4478513</v>
+        <v>4485219</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>142756</v>
+        <v>142621</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123579792</v>
+        <v>123412279</v>
       </c>
       <c r="E108" t="n">
-        <v>2046582563</v>
+        <v>2043808420</v>
       </c>
       <c r="F108" t="n">
-        <v>179831.1423587753</v>
+        <v>69482.88570576256</v>
       </c>
       <c r="G108" t="n">
-        <v>159223.8429758493</v>
+        <v>24641.32820553967</v>
       </c>
       <c r="H108" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="I108" t="n">
-        <v>11101451</v>
+        <v>20480547</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24227644</v>
+        <v>23992052</v>
       </c>
       <c r="E109" t="n">
-        <v>144958867</v>
+        <v>143549268</v>
       </c>
       <c r="F109" t="n">
-        <v>41791.66142450333</v>
+        <v>41369.26257117295</v>
       </c>
       <c r="G109" t="n">
-        <v>41053.757083834</v>
+        <v>39323.71368263156</v>
       </c>
       <c r="H109" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>15855499</v>
+        <v>16291656</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1095474</v>
+        <v>1094953</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>81581</v>
+        <v>82120</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2181101</v>
+        <v>2207227</v>
       </c>
       <c r="F111" t="n">
-        <v>3617.959651369953</v>
+        <v>176.6273102843998</v>
       </c>
       <c r="G111" t="n">
-        <v>233.1414585459775</v>
+        <v>273.0520900965921</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>175523</v>
+        <v>176401</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147515965</v>
+        <v>147521973</v>
       </c>
       <c r="F112" t="n">
-        <v>8708.123084324399</v>
+        <v>9038.36424992631</v>
       </c>
       <c r="G112" t="n">
-        <v>3047.814659327649</v>
+        <v>3048.147883880419</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>50590</v>
+        <v>52808</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6579500</v>
+        <v>6384452</v>
       </c>
       <c r="E113" t="n">
-        <v>33849526</v>
+        <v>32846066</v>
       </c>
       <c r="F113" t="n">
-        <v>839.74956003797</v>
+        <v>1690.344386014319</v>
       </c>
       <c r="G113" t="n">
-        <v>1711.88212490203</v>
+        <v>2413.801459388399</v>
       </c>
       <c r="H113" t="n">
-        <v>1.18</v>
+        <v>0.91</v>
       </c>
       <c r="I113" t="n">
-        <v>951539</v>
+        <v>948189</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29467589</v>
+        <v>29424006</v>
       </c>
       <c r="E114" t="n">
-        <v>40405216</v>
+        <v>40345456</v>
       </c>
       <c r="F114" t="n">
-        <v>4485.304964541831</v>
+        <v>4426.936921694342</v>
       </c>
       <c r="G114" t="n">
-        <v>4939.243845397757</v>
+        <v>4924.026622914358</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>208470</v>
+        <v>203311</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7668923</v>
+        <v>7648939</v>
       </c>
       <c r="F115" t="n">
-        <v>901.1616508319893</v>
+        <v>1631.151126242563</v>
       </c>
       <c r="G115" t="n">
-        <v>5505.150193417268</v>
+        <v>5417.409402725324</v>
       </c>
       <c r="H115" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I115" t="n">
-        <v>652336</v>
+        <v>652515</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3448343</v>
+        <v>3419044</v>
       </c>
       <c r="E116" t="n">
-        <v>4619273</v>
+        <v>4580025</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>151733</v>
+        <v>150227</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33831260</v>
+        <v>33329459</v>
       </c>
       <c r="E117" t="n">
-        <v>168833585</v>
+        <v>166329365</v>
       </c>
       <c r="F117" t="n">
-        <v>82982.0923201176</v>
+        <v>73856.80772802589</v>
       </c>
       <c r="G117" t="n">
-        <v>73164.64579224969</v>
+        <v>69823.27505808852</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="I117" t="n">
-        <v>13298513</v>
+        <v>13390401</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3503489</v>
+        <v>3494437</v>
       </c>
       <c r="E118" t="n">
-        <v>5032827</v>
+        <v>5019824</v>
       </c>
       <c r="F118" t="n">
-        <v>541.7711086046628</v>
+        <v>541.8221683196945</v>
       </c>
       <c r="G118" t="n">
-        <v>649.6724139943922</v>
+        <v>650.0400435102464</v>
       </c>
       <c r="H118" t="n">
         <v>1.38</v>
       </c>
       <c r="I118" t="n">
-        <v>143856</v>
+        <v>8739.41</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>323288570</v>
+        <v>316569031</v>
       </c>
       <c r="E119" t="n">
-        <v>598157580</v>
+        <v>585724899</v>
       </c>
       <c r="F119" t="n">
-        <v>50944.83979467526</v>
+        <v>59660.96726685178</v>
       </c>
       <c r="G119" t="n">
-        <v>80605.48662179831</v>
+        <v>48401.6116287506</v>
       </c>
       <c r="H119" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="I119" t="n">
-        <v>14819294</v>
+        <v>14807159</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>72329913</v>
+        <v>71511170</v>
       </c>
       <c r="E120" t="n">
-        <v>689929501</v>
+        <v>682114509</v>
       </c>
       <c r="F120" t="n">
-        <v>1822.085294469672</v>
+        <v>1612.964589605645</v>
       </c>
       <c r="G120" t="n">
-        <v>41636.20247047606</v>
+        <v>6347.804449541125</v>
       </c>
       <c r="H120" t="n">
         <v>0.02</v>
       </c>
       <c r="I120" t="n">
-        <v>22425783</v>
+        <v>22568586</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37925659</v>
+        <v>37823064</v>
       </c>
       <c r="E121" t="n">
-        <v>49582559</v>
+        <v>49448207</v>
       </c>
       <c r="F121" t="n">
-        <v>6184.215575739702</v>
+        <v>6343.944368867068</v>
       </c>
       <c r="G121" t="n">
-        <v>11138.08822097047</v>
+        <v>181.2923643437921</v>
       </c>
       <c r="H121" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="I121" t="n">
-        <v>205928</v>
+        <v>309067</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9937371</v>
+        <v>9542371</v>
       </c>
       <c r="E122" t="n">
-        <v>29459719</v>
+        <v>28288727</v>
       </c>
       <c r="F122" t="n">
-        <v>2681.038009892098</v>
+        <v>363.1625424941527</v>
       </c>
       <c r="G122" t="n">
-        <v>5975.945657785367</v>
+        <v>7788.693649154789</v>
       </c>
       <c r="H122" t="n">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="I122" t="n">
-        <v>6151686</v>
+        <v>6140166</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2325041</v>
+        <v>2325337</v>
       </c>
       <c r="E123" t="n">
-        <v>7769436</v>
+        <v>7770425</v>
       </c>
       <c r="F123" t="n">
-        <v>790.7635516131369</v>
+        <v>511.3300301003676</v>
       </c>
       <c r="G123" t="n">
-        <v>994.3862108117462</v>
+        <v>1529.055967259061</v>
       </c>
       <c r="H123" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="I123" t="n">
-        <v>984312</v>
+        <v>951028</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7345686</v>
+        <v>7283261</v>
       </c>
       <c r="E124" t="n">
-        <v>7345697</v>
+        <v>7283272</v>
       </c>
       <c r="F124" t="n">
-        <v>379.8523874536288</v>
+        <v>561.6957059368335</v>
       </c>
       <c r="G124" t="n">
-        <v>582.7697751153005</v>
+        <v>522.0222772588821</v>
       </c>
       <c r="H124" t="n">
-        <v>0.49</v>
+        <v>2.43</v>
       </c>
       <c r="I124" t="n">
-        <v>279959</v>
+        <v>273651</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6326186</v>
+        <v>6279904</v>
       </c>
       <c r="E125" t="n">
-        <v>6326186</v>
+        <v>6279904</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>516221</v>
+        <v>499350</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6285495</v>
+        <v>6259801</v>
       </c>
       <c r="E126" t="n">
-        <v>22958482</v>
+        <v>22864629</v>
       </c>
       <c r="F126" t="n">
-        <v>7075.968930766183</v>
+        <v>7239.462828359636</v>
       </c>
       <c r="G126" t="n">
-        <v>8708.964524344108</v>
+        <v>8387.484162437109</v>
       </c>
       <c r="H126" t="n">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="I126" t="n">
-        <v>541092</v>
+        <v>545450</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>45364491</v>
+        <v>44941913</v>
       </c>
       <c r="E127" t="n">
-        <v>45364491</v>
+        <v>44941913</v>
       </c>
       <c r="F127" t="n">
-        <v>62137.00921753883</v>
+        <v>64099.27635678805</v>
       </c>
       <c r="G127" t="n">
-        <v>92235.7563728817</v>
+        <v>72566.65069498742</v>
       </c>
       <c r="H127" t="n">
         <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>10185095</v>
+        <v>10162649</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>144551435</v>
+        <v>147498910</v>
       </c>
       <c r="F128" t="n">
-        <v>100.1886768573226</v>
+        <v>5682.068729078551</v>
       </c>
       <c r="G128" t="n">
-        <v>4043.81782073867</v>
+        <v>3320.5620376097</v>
       </c>
       <c r="H128" t="n">
-        <v>0.14</v>
+        <v>1.15</v>
       </c>
       <c r="I128" t="n">
-        <v>1934898</v>
+        <v>1641224</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2997327</v>
+        <v>2907386</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>74186</v>
+        <v>72537</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>20162328</v>
+        <v>19943152</v>
       </c>
       <c r="F130" t="n">
-        <v>565.2853614222836</v>
+        <v>502.3186633284116</v>
       </c>
       <c r="G130" t="n">
-        <v>633.4089060319092</v>
+        <v>461.8494196519652</v>
       </c>
       <c r="H130" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="I130" t="n">
-        <v>2963946</v>
+        <v>2968691</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1302293</v>
+        <v>1293746</v>
       </c>
       <c r="E131" t="n">
-        <v>3940496</v>
+        <v>3914367</v>
       </c>
       <c r="F131" t="n">
-        <v>810.306203481071</v>
+        <v>802.9825521287023</v>
       </c>
       <c r="G131" t="n">
-        <v>698.305456641138</v>
+        <v>691.9382403735259</v>
       </c>
       <c r="H131" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>36943</v>
+        <v>37102</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>606142679</v>
+        <v>596527036</v>
       </c>
       <c r="E132" t="n">
-        <v>2347501167</v>
+        <v>2310261201</v>
       </c>
       <c r="F132" t="n">
-        <v>844283.6199348491</v>
+        <v>799590.8781942612</v>
       </c>
       <c r="G132" t="n">
-        <v>988927.1031884046</v>
+        <v>907280.9931573127</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>52271433</v>
+        <v>53126674</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3698858</v>
+        <v>3702157</v>
       </c>
       <c r="E133" t="n">
-        <v>6305206</v>
+        <v>6310830</v>
       </c>
       <c r="F133" t="n">
-        <v>5295.748162165617</v>
+        <v>5438.623769092522</v>
       </c>
       <c r="G133" t="n">
-        <v>5251.994978378545</v>
+        <v>5311.321382061114</v>
       </c>
       <c r="H133" t="n">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="I133" t="n">
-        <v>1231319</v>
+        <v>1165196</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>114510802</v>
+        <v>112014554</v>
       </c>
       <c r="E134" t="n">
-        <v>1063952930</v>
+        <v>1040759566</v>
       </c>
       <c r="F134" t="n">
-        <v>78889.66296587823</v>
+        <v>89854.39323402153</v>
       </c>
       <c r="G134" t="n">
-        <v>79230.71913065956</v>
+        <v>95196.28188574937</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>12251242</v>
+        <v>9955089</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>996658043</v>
+        <v>986232101</v>
       </c>
       <c r="E135" t="n">
-        <v>1094831591</v>
+        <v>1083378666</v>
       </c>
       <c r="F135" t="n">
-        <v>14496.42740368076</v>
+        <v>12081.34847410001</v>
       </c>
       <c r="G135" t="n">
-        <v>13505.48629495798</v>
+        <v>19638.53870357678</v>
       </c>
       <c r="H135" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="I135" t="n">
-        <v>8692729</v>
+        <v>8486029</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1086917</v>
+        <v>1075220</v>
       </c>
       <c r="E136" t="n">
-        <v>4208782</v>
+        <v>4163488</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>308126</v>
+        <v>314297</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>126073482</v>
+        <v>125357547</v>
       </c>
       <c r="E137" t="n">
-        <v>483638170</v>
+        <v>480891729</v>
       </c>
       <c r="F137" t="n">
-        <v>134633.6790551398</v>
+        <v>176292.8063155507</v>
       </c>
       <c r="G137" t="n">
-        <v>246418.1696973093</v>
+        <v>208876.929949268</v>
       </c>
       <c r="H137" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="I137" t="n">
-        <v>40768845</v>
+        <v>40599511</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3171640</v>
+        <v>3144522</v>
       </c>
       <c r="E138" t="n">
-        <v>30051756</v>
+        <v>29794812</v>
       </c>
       <c r="F138" t="n">
-        <v>3954.754438203513</v>
+        <v>3894.720650657086</v>
       </c>
       <c r="G138" t="n">
-        <v>4269.120419851236</v>
+        <v>4567.625843754893</v>
       </c>
       <c r="H138" t="n">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="I138" t="n">
-        <v>204977</v>
+        <v>246261</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21848040</v>
+        <v>21958670</v>
       </c>
       <c r="E139" t="n">
-        <v>21848040</v>
+        <v>21958670</v>
       </c>
       <c r="F139" t="n">
-        <v>8350.332337548409</v>
+        <v>6776.230333368987</v>
       </c>
       <c r="G139" t="n">
-        <v>6293.572236238918</v>
+        <v>5003.170111653892</v>
       </c>
       <c r="H139" t="n">
-        <v>0.91</v>
+        <v>1.31</v>
       </c>
       <c r="I139" t="n">
-        <v>547619</v>
+        <v>526916</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494412987</v>
+        <v>494743980</v>
       </c>
       <c r="E140" t="n">
-        <v>494412987</v>
+        <v>494743980</v>
       </c>
       <c r="F140" t="n">
-        <v>785546.7240327337</v>
+        <v>803880.7989567384</v>
       </c>
       <c r="G140" t="n">
-        <v>912725.7612149279</v>
+        <v>907709.8895395249</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>39443220</v>
+        <v>39818173</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35493785</v>
+        <v>35455289</v>
       </c>
       <c r="F141" t="n">
-        <v>62398.88385448659</v>
+        <v>81416.03462645056</v>
       </c>
       <c r="G141" t="n">
-        <v>63490.78679166175</v>
+        <v>93300.20183988581</v>
       </c>
       <c r="H141" t="n">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
       <c r="I141" t="n">
-        <v>5566812</v>
+        <v>7361299</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>810505</v>
+        <v>821780</v>
       </c>
       <c r="E142" t="n">
-        <v>12927260</v>
+        <v>13107094</v>
       </c>
       <c r="F142" t="n">
-        <v>65.92109272585861</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>114.9248538090638</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>3.13</v>
+        <v>4.38</v>
       </c>
       <c r="I142" t="n">
-        <v>329352</v>
+        <v>329732</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2676210574</v>
+        <v>2644298590</v>
       </c>
       <c r="E143" t="n">
-        <v>2841439271</v>
+        <v>2807557048</v>
       </c>
       <c r="F143" t="n">
-        <v>3674.87855615477</v>
+        <v>3687.815283518912</v>
       </c>
       <c r="G143" t="n">
-        <v>25276.55828966014</v>
+        <v>16971.62127456908</v>
       </c>
       <c r="H143" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="I143" t="n">
-        <v>51392203</v>
+        <v>52265971</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1746340</v>
+        <v>1734763</v>
       </c>
       <c r="E144" t="n">
-        <v>1752504</v>
+        <v>1740886</v>
       </c>
       <c r="F144" t="n">
-        <v>2173.60217934891</v>
+        <v>2474.662063029096</v>
       </c>
       <c r="G144" t="n">
-        <v>4019.403447531009</v>
+        <v>1885.889435724508</v>
       </c>
       <c r="H144" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="I144" t="n">
-        <v>446207</v>
+        <v>448265</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>62208546</v>
+        <v>58410513</v>
       </c>
       <c r="E145" t="n">
-        <v>152593346</v>
+        <v>143277030</v>
       </c>
       <c r="F145" t="n">
-        <v>4285.638008943409</v>
+        <v>5127.329843963484</v>
       </c>
       <c r="G145" t="n">
-        <v>4729.424398335148</v>
+        <v>4803.913104397054</v>
       </c>
       <c r="H145" t="n">
-        <v>0.55</v>
+        <v>0.24</v>
       </c>
       <c r="I145" t="n">
-        <v>16436757</v>
+        <v>21947492</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>817230162</v>
+        <v>812001355</v>
       </c>
       <c r="E146" t="n">
-        <v>1260241063</v>
+        <v>1252177782</v>
       </c>
       <c r="F146" t="n">
-        <v>293834.460333682</v>
+        <v>149269.8452261072</v>
       </c>
       <c r="G146" t="n">
-        <v>238059.2259401322</v>
+        <v>222979.7150687494</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="n">
-        <v>336376865</v>
+        <v>336338741</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23302112</v>
+        <v>22933129</v>
       </c>
       <c r="E147" t="n">
-        <v>23302112</v>
+        <v>22933129</v>
       </c>
       <c r="F147" t="n">
-        <v>4716.780975327753</v>
+        <v>3711.556855601386</v>
       </c>
       <c r="G147" t="n">
-        <v>7599.925140817142</v>
+        <v>9519.852277525195</v>
       </c>
       <c r="H147" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I147" t="n">
-        <v>5561762</v>
+        <v>5545386</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3815966</v>
+        <v>3815337</v>
       </c>
       <c r="E148" t="n">
-        <v>8318270</v>
+        <v>8316899</v>
       </c>
       <c r="F148" t="n">
-        <v>6793.26120839586</v>
+        <v>6799.002140812694</v>
       </c>
       <c r="G148" t="n">
-        <v>7094.523123146748</v>
+        <v>7082.490811360977</v>
       </c>
       <c r="H148" t="n">
         <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>1814243</v>
+        <v>1871929</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9246705</v>
+        <v>9255803</v>
       </c>
       <c r="E149" t="n">
-        <v>9246705</v>
+        <v>9255803</v>
       </c>
       <c r="F149" t="n">
-        <v>296367.803882736</v>
+        <v>79537.95561687011</v>
       </c>
       <c r="G149" t="n">
-        <v>487502.7878672964</v>
+        <v>81203.59433770912</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>4690960</v>
+        <v>4962491</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>495161308</v>
+        <v>491252674</v>
       </c>
       <c r="E150" t="n">
-        <v>1723615303</v>
+        <v>1710009675</v>
       </c>
       <c r="F150" t="n">
-        <v>778567.3285508102</v>
+        <v>396783.2698277846</v>
       </c>
       <c r="G150" t="n">
-        <v>869201.7543173132</v>
+        <v>434053.8885477892</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>42611918</v>
+        <v>43232103</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49509767</v>
+        <v>49681456</v>
       </c>
       <c r="E151" t="n">
-        <v>121875058</v>
+        <v>122297700</v>
       </c>
       <c r="F151" t="n">
-        <v>8282.246683994805</v>
+        <v>5581.305257391019</v>
       </c>
       <c r="G151" t="n">
-        <v>8011.317050825164</v>
+        <v>8063.103420867461</v>
       </c>
       <c r="H151" t="n">
         <v>0.33</v>
       </c>
       <c r="I151" t="n">
-        <v>60309</v>
+        <v>166356</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7288639</v>
+        <v>7326062</v>
       </c>
       <c r="E152" t="n">
-        <v>18935101</v>
+        <v>19032322</v>
       </c>
       <c r="F152" t="n">
-        <v>5352.742965571463</v>
+        <v>5896.215588264124</v>
       </c>
       <c r="G152" t="n">
-        <v>6297.173309660904</v>
+        <v>6132.014320574978</v>
       </c>
       <c r="H152" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="I152" t="n">
-        <v>735444</v>
+        <v>739272</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19159108694</v>
+        <v>19001558231</v>
       </c>
       <c r="F153" t="n">
-        <v>2166.713208617429</v>
+        <v>820.7118404325427</v>
       </c>
       <c r="G153" t="n">
-        <v>32162.88368971316</v>
+        <v>20908.81103108505</v>
       </c>
       <c r="H153" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="I153" t="n">
-        <v>43039253</v>
+        <v>41343789</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2584565</v>
+        <v>2545244</v>
       </c>
       <c r="E154" t="n">
-        <v>10338259</v>
+        <v>10180975</v>
       </c>
       <c r="F154" t="n">
-        <v>4706.969021825941</v>
+        <v>1650.341097886544</v>
       </c>
       <c r="G154" t="n">
-        <v>2552.627427270103</v>
+        <v>2187.179737875377</v>
       </c>
       <c r="H154" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="I154" t="n">
-        <v>7122838</v>
+        <v>7117108</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>221168081</v>
+        <v>218657920</v>
       </c>
       <c r="E155" t="n">
-        <v>680008620</v>
+        <v>672290819</v>
       </c>
       <c r="F155" t="n">
-        <v>57141.2937242785</v>
+        <v>34477.57308831136</v>
       </c>
       <c r="G155" t="n">
-        <v>65285.18158182905</v>
+        <v>50973.61998961798</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>19911572</v>
+        <v>20195588</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>396546762</v>
+        <v>392429960</v>
       </c>
       <c r="E156" t="n">
-        <v>2265981498</v>
+        <v>2242456916</v>
       </c>
       <c r="F156" t="n">
-        <v>187326.5097645415</v>
+        <v>225151.5967130851</v>
       </c>
       <c r="G156" t="n">
-        <v>241691.8858152129</v>
+        <v>231262.1102920706</v>
       </c>
       <c r="H156" t="n">
         <v>0.09</v>
       </c>
       <c r="I156" t="n">
-        <v>49091753</v>
+        <v>53618683</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3858268</v>
+        <v>3847274</v>
       </c>
       <c r="F2" t="n">
-        <v>146.4653357585431</v>
+        <v>469.0004044050747</v>
       </c>
       <c r="G2" t="n">
-        <v>1997.948533526965</v>
+        <v>840.2498193531937</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>2.59</v>
       </c>
       <c r="I2" t="n">
-        <v>143940</v>
+        <v>143363</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>625507874</v>
+        <v>624423348</v>
       </c>
       <c r="E3" t="n">
-        <v>1213817515</v>
+        <v>1211713669</v>
       </c>
       <c r="F3" t="n">
-        <v>34662.73164643414</v>
+        <v>35825.1528886692</v>
       </c>
       <c r="G3" t="n">
-        <v>49653.76358032312</v>
+        <v>45693.83316703781</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>36427893</v>
+        <v>37128182</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>257317011</v>
+        <v>255562576</v>
       </c>
       <c r="E4" t="n">
-        <v>1613598809</v>
+        <v>1602596992</v>
       </c>
       <c r="F4" t="n">
-        <v>169347.3706226456</v>
+        <v>141293.8818663625</v>
       </c>
       <c r="G4" t="n">
-        <v>123892.5578495827</v>
+        <v>174411.7268256139</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>22167753</v>
+        <v>23921875</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146096221</v>
+        <v>145002732</v>
       </c>
       <c r="E5" t="n">
-        <v>161897444</v>
+        <v>160685688</v>
       </c>
       <c r="F5" t="n">
-        <v>613.8937832635954</v>
+        <v>638.2986636593622</v>
       </c>
       <c r="G5" t="n">
-        <v>3671.844419263474</v>
+        <v>4504.718546414692</v>
       </c>
       <c r="H5" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>49544333</v>
+        <v>49367500</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49321959</v>
+        <v>48979399</v>
       </c>
       <c r="E6" t="n">
-        <v>61700506</v>
+        <v>61271972</v>
       </c>
       <c r="F6" t="n">
-        <v>5824.212047452233</v>
+        <v>4798.869117447177</v>
       </c>
       <c r="G6" t="n">
-        <v>5408.090981048218</v>
+        <v>4327.741238140333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
       <c r="I6" t="n">
-        <v>594016</v>
+        <v>909448</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68119768</v>
+        <v>67624605</v>
       </c>
       <c r="E7" t="n">
-        <v>135671524</v>
+        <v>134685327</v>
       </c>
       <c r="F7" t="n">
-        <v>11373.63775315964</v>
+        <v>11653.44156774835</v>
       </c>
       <c r="G7" t="n">
-        <v>11799.1968311047</v>
+        <v>12315.44708067111</v>
       </c>
       <c r="H7" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="I7" t="n">
-        <v>925351</v>
+        <v>855685</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41110317</v>
+        <v>40779027</v>
       </c>
       <c r="E8" t="n">
-        <v>46008366</v>
+        <v>45637605</v>
       </c>
       <c r="F8" t="n">
-        <v>869.5997345463383</v>
+        <v>543.1889060092036</v>
       </c>
       <c r="G8" t="n">
-        <v>412.2006260657723</v>
+        <v>545.6603951137483</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5282983</v>
+        <v>5242651</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13976690</v>
+        <v>13961137</v>
       </c>
       <c r="E9" t="n">
-        <v>41188404</v>
+        <v>41142570</v>
       </c>
       <c r="F9" t="n">
-        <v>5083.877404392729</v>
+        <v>5059.916816737271</v>
       </c>
       <c r="G9" t="n">
-        <v>4609.405740296256</v>
+        <v>4799.478262725534</v>
       </c>
       <c r="H9" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>933562</v>
+        <v>929186</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8583365</v>
+        <v>8635488</v>
       </c>
       <c r="E10" t="n">
-        <v>36896080</v>
+        <v>37120133</v>
       </c>
       <c r="F10" t="n">
-        <v>3716.472139453821</v>
+        <v>1629.769948846021</v>
       </c>
       <c r="G10" t="n">
-        <v>3705.638606977809</v>
+        <v>1517.035314070201</v>
       </c>
       <c r="H10" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I10" t="n">
-        <v>932372</v>
+        <v>929652</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>577210011</v>
+        <v>570402444</v>
       </c>
       <c r="E11" t="n">
-        <v>722003936</v>
+        <v>713488681</v>
       </c>
       <c r="F11" t="n">
-        <v>338872.087031954</v>
+        <v>327827.5528335994</v>
       </c>
       <c r="G11" t="n">
-        <v>268116.5964179831</v>
+        <v>248336.5877951881</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>87948835</v>
+        <v>88463954</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4261269</v>
+        <v>4249122</v>
       </c>
       <c r="E12" t="n">
-        <v>26166348</v>
+        <v>26091762</v>
       </c>
       <c r="F12" t="n">
-        <v>11236.47211845144</v>
+        <v>11144.71667910698</v>
       </c>
       <c r="G12" t="n">
-        <v>10707.63995257782</v>
+        <v>1837.189938738021</v>
       </c>
       <c r="H12" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>709813</v>
+        <v>706677</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24380076</v>
+        <v>24644638</v>
       </c>
       <c r="E13" t="n">
-        <v>24425044</v>
+        <v>24690094</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>869651</v>
+        <v>888519</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81201827</v>
+        <v>80181600</v>
       </c>
       <c r="E14" t="n">
-        <v>238905846</v>
+        <v>235904211</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>441373</v>
+        <v>454811</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>511919889</v>
+        <v>510080581</v>
       </c>
       <c r="E15" t="n">
-        <v>511919889</v>
+        <v>510080585</v>
       </c>
       <c r="F15" t="n">
-        <v>27437.56447443558</v>
+        <v>22235.41307283283</v>
       </c>
       <c r="G15" t="n">
-        <v>23111.92307138929</v>
+        <v>21154.40764136487</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>72537480</v>
+        <v>81805405</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4727394</v>
+        <v>4730896</v>
       </c>
       <c r="E16" t="n">
-        <v>4727394</v>
+        <v>4730896</v>
       </c>
       <c r="F16" t="n">
-        <v>223.5253219502737</v>
+        <v>435.8584684536993</v>
       </c>
       <c r="G16" t="n">
-        <v>1266.15472304423</v>
+        <v>387.2616142893824</v>
       </c>
       <c r="H16" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>2252002</v>
+        <v>2241173</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3396589</v>
+        <v>3386068</v>
       </c>
       <c r="E17" t="n">
-        <v>3396589</v>
+        <v>3386068</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>567644</v>
+        <v>576555</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>169981519</v>
+        <v>169328101</v>
       </c>
       <c r="E18" t="n">
-        <v>210444199</v>
+        <v>209635240</v>
       </c>
       <c r="F18" t="n">
-        <v>5122.69659865769</v>
+        <v>9124.097549593549</v>
       </c>
       <c r="G18" t="n">
-        <v>12588.18301777868</v>
+        <v>7816.89732041318</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>559313</v>
+        <v>561315</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6782455</v>
+        <v>7022190</v>
       </c>
       <c r="E19" t="n">
-        <v>9341174</v>
+        <v>9671351</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>270704</v>
+        <v>280905</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>910393</v>
+        <v>903602</v>
       </c>
       <c r="E20" t="n">
-        <v>6372750</v>
+        <v>6325217</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>156034</v>
+        <v>256413</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112600051</v>
+        <v>111373832</v>
       </c>
       <c r="E21" t="n">
-        <v>437805463</v>
+        <v>433028905</v>
       </c>
       <c r="F21" t="n">
-        <v>25292.70507228974</v>
+        <v>39664.99890218376</v>
       </c>
       <c r="G21" t="n">
-        <v>21851.17787378527</v>
+        <v>32276.15848460225</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>20360216</v>
+        <v>19530863</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1719660</v>
+        <v>1716083</v>
       </c>
       <c r="E22" t="n">
-        <v>12386567</v>
+        <v>12360799</v>
       </c>
       <c r="F22" t="n">
-        <v>5989.545874962758</v>
+        <v>5989.534793125712</v>
       </c>
       <c r="G22" t="n">
-        <v>5020.633437350376</v>
+        <v>5020.624148191769</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>53251</v>
+        <v>53150</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>143511789</v>
+        <v>142993558</v>
       </c>
       <c r="E23" t="n">
-        <v>143511789</v>
+        <v>142993558</v>
       </c>
       <c r="F23" t="n">
-        <v>959311.2048338781</v>
+        <v>986192.1972472749</v>
       </c>
       <c r="G23" t="n">
-        <v>972102.0087133794</v>
+        <v>970590.2078973018</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>87398144</v>
+        <v>87643120</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66421086</v>
+        <v>65828546</v>
       </c>
       <c r="E24" t="n">
-        <v>340620953</v>
+        <v>337582286</v>
       </c>
       <c r="F24" t="n">
-        <v>64306.69829269582</v>
+        <v>73314.92090428299</v>
       </c>
       <c r="G24" t="n">
-        <v>129518.0269526049</v>
+        <v>103454.4001838783</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>26557069</v>
+        <v>26993775</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>263256070</v>
+        <v>262646578</v>
       </c>
       <c r="E25" t="n">
-        <v>263256070</v>
+        <v>262646578</v>
       </c>
       <c r="F25" t="n">
-        <v>297455.81680859</v>
+        <v>396593.6845811991</v>
       </c>
       <c r="G25" t="n">
-        <v>420389.034220096</v>
+        <v>420836.7487741429</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>27144330</v>
+        <v>27192493</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1135357</v>
+        <v>1128484</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>140106</v>
+        <v>136456</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2678908</v>
+        <v>2588025</v>
       </c>
       <c r="E27" t="n">
-        <v>2963592</v>
+        <v>2864827</v>
       </c>
       <c r="F27" t="n">
-        <v>100.155451114817</v>
+        <v>233.280443311454</v>
       </c>
       <c r="G27" t="n">
-        <v>810.9269084232652</v>
+        <v>62.55980296762552</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06</v>
+        <v>2.09</v>
       </c>
       <c r="I27" t="n">
-        <v>278495</v>
+        <v>282448</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3948122</v>
+        <v>3907618</v>
       </c>
       <c r="E28" t="n">
-        <v>3948843</v>
+        <v>3908332</v>
       </c>
       <c r="F28" t="n">
-        <v>898.9756540263467</v>
+        <v>1093.568532676312</v>
       </c>
       <c r="G28" t="n">
-        <v>1393.428996620185</v>
+        <v>2310.871817113771</v>
       </c>
       <c r="H28" t="n">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="I28" t="n">
-        <v>257563</v>
+        <v>258285</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7041865</v>
+        <v>7015908</v>
       </c>
       <c r="E29" t="n">
-        <v>17104149</v>
+        <v>17041101</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>456509</v>
+        <v>455194</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99359432</v>
+        <v>99207825</v>
       </c>
       <c r="E30" t="n">
-        <v>123889564</v>
+        <v>123700528</v>
       </c>
       <c r="F30" t="n">
-        <v>111654.2861798598</v>
+        <v>105032.1840087229</v>
       </c>
       <c r="G30" t="n">
-        <v>100794.5277792823</v>
+        <v>107056.6506244085</v>
       </c>
       <c r="H30" t="n">
         <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>11075960</v>
+        <v>13630776</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1157423</v>
+        <v>1156165</v>
       </c>
       <c r="E31" t="n">
-        <v>12578445</v>
+        <v>12564769</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14788.81</v>
+        <v>14774.81</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>83726845</v>
+        <v>83109114</v>
       </c>
       <c r="E32" t="n">
-        <v>234215934</v>
+        <v>232487288</v>
       </c>
       <c r="F32" t="n">
-        <v>65608.61480914494</v>
+        <v>54892.63866181764</v>
       </c>
       <c r="G32" t="n">
-        <v>74900.84952809323</v>
+        <v>92645.07170461994</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I32" t="n">
-        <v>55175336</v>
+        <v>55828815</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4074696</v>
+        <v>4066552</v>
       </c>
       <c r="E33" t="n">
-        <v>8035643</v>
+        <v>8019584</v>
       </c>
       <c r="F33" t="n">
-        <v>8404.859402058397</v>
+        <v>8383.531650318706</v>
       </c>
       <c r="G33" t="n">
-        <v>6831.378883979718</v>
+        <v>6783.247839400676</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1645228</v>
+        <v>1631749</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36515439</v>
+        <v>36373206</v>
       </c>
       <c r="F34" t="n">
-        <v>232.1118910883328</v>
+        <v>243.7905420175811</v>
       </c>
       <c r="G34" t="n">
-        <v>421.6382749475876</v>
+        <v>430.7959570816632</v>
       </c>
       <c r="H34" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="I34" t="n">
-        <v>47837</v>
+        <v>47400</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17567696</v>
+        <v>17506747</v>
       </c>
       <c r="E35" t="n">
-        <v>18515939</v>
+        <v>18451700</v>
       </c>
       <c r="F35" t="n">
-        <v>3508.879128713775</v>
+        <v>3598.859900914359</v>
       </c>
       <c r="G35" t="n">
-        <v>2647.444941472774</v>
+        <v>2566.965181680651</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="I35" t="n">
-        <v>43181</v>
+        <v>43368</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23275548</v>
+        <v>23263418</v>
       </c>
       <c r="F36" t="n">
-        <v>4957.771821958759</v>
+        <v>4674.071765846606</v>
       </c>
       <c r="G36" t="n">
-        <v>270.8905464319399</v>
+        <v>269.1741081413067</v>
       </c>
       <c r="H36" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>127040</v>
+        <v>126753</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>90055427</v>
+        <v>88309895</v>
       </c>
       <c r="E37" t="n">
-        <v>187758332</v>
+        <v>184119039</v>
       </c>
       <c r="F37" t="n">
-        <v>97946.15028654395</v>
+        <v>91062.79737893419</v>
       </c>
       <c r="G37" t="n">
-        <v>85646.94301791205</v>
+        <v>93215.26537951441</v>
       </c>
       <c r="H37" t="n">
         <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>67091218</v>
+        <v>67217020</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>280875724</v>
+        <v>278910034</v>
       </c>
       <c r="E38" t="n">
-        <v>280875724</v>
+        <v>278910034</v>
       </c>
       <c r="F38" t="n">
-        <v>25598.65957803193</v>
+        <v>20969.95322485374</v>
       </c>
       <c r="G38" t="n">
-        <v>29806.50711692417</v>
+        <v>39842.43706758936</v>
       </c>
       <c r="H38" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="I38" t="n">
-        <v>12143262</v>
+        <v>12128730</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>204554082</v>
+        <v>202657186</v>
       </c>
       <c r="E39" t="n">
-        <v>710639367</v>
+        <v>704049379</v>
       </c>
       <c r="F39" t="n">
-        <v>112036.6156335701</v>
+        <v>14021.7999450673</v>
       </c>
       <c r="G39" t="n">
-        <v>158372.9301525735</v>
+        <v>210338.1536052643</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>42115577</v>
+        <v>42185302</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3448063</v>
+        <v>3385892</v>
       </c>
       <c r="E40" t="n">
-        <v>3448061</v>
+        <v>3385892</v>
       </c>
       <c r="F40" t="n">
-        <v>895.8380704108738</v>
+        <v>947.7132989935245</v>
       </c>
       <c r="G40" t="n">
-        <v>2650.735776629559</v>
+        <v>2686.353470019439</v>
       </c>
       <c r="H40" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="I40" t="n">
-        <v>2386600</v>
+        <v>2447023</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>115198311</v>
+        <v>114734016</v>
       </c>
       <c r="E41" t="n">
-        <v>488862818</v>
+        <v>486875578</v>
       </c>
       <c r="F41" t="n">
-        <v>5395.629219628289</v>
+        <v>5350.884317816364</v>
       </c>
       <c r="G41" t="n">
-        <v>6495.57013654736</v>
+        <v>7300.126005927365</v>
       </c>
       <c r="H41" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="I41" t="n">
-        <v>15371520</v>
+        <v>15230362</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>555067</v>
+        <v>555299</v>
       </c>
       <c r="E42" t="n">
-        <v>6732419</v>
+        <v>6735240</v>
       </c>
       <c r="F42" t="n">
-        <v>391.7403662251427</v>
+        <v>282.4518152701606</v>
       </c>
       <c r="G42" t="n">
-        <v>962.9310766572887</v>
+        <v>400.062603456239</v>
       </c>
       <c r="H42" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="I42" t="n">
-        <v>2784556</v>
+        <v>2780429</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1401378381</v>
+        <v>1393658030</v>
       </c>
       <c r="E43" t="n">
-        <v>6719896331</v>
+        <v>6682875666</v>
       </c>
       <c r="F43" t="n">
-        <v>3566.880920234589</v>
+        <v>5295.646321798778</v>
       </c>
       <c r="G43" t="n">
-        <v>41054.04077769321</v>
+        <v>31868.89366925404</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I43" t="n">
-        <v>420478694</v>
+        <v>425057035</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5952638571</v>
+        <v>5926870875</v>
       </c>
       <c r="E44" t="n">
-        <v>5937655034</v>
+        <v>5926870875</v>
       </c>
       <c r="F44" t="n">
-        <v>57752.92981307121</v>
+        <v>1495.419564017176</v>
       </c>
       <c r="G44" t="n">
-        <v>1199625.311901924</v>
+        <v>15477.6794463408</v>
       </c>
       <c r="H44" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="I44" t="n">
-        <v>351908988</v>
+        <v>353490728</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>266860883</v>
+        <v>264243658</v>
       </c>
       <c r="E45" t="n">
-        <v>1151919715</v>
+        <v>1140622320</v>
       </c>
       <c r="F45" t="n">
-        <v>58378.74347760073</v>
+        <v>57786.32573844999</v>
       </c>
       <c r="G45" t="n">
-        <v>70678.49980971296</v>
+        <v>79388.93880114453</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>135580680</v>
+        <v>135605410</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>115774163</v>
+        <v>114042911</v>
       </c>
       <c r="E46" t="n">
-        <v>115774163</v>
+        <v>114042911</v>
       </c>
       <c r="F46" t="n">
-        <v>27215.38828117701</v>
+        <v>29594.45825586533</v>
       </c>
       <c r="G46" t="n">
-        <v>38997.40048076006</v>
+        <v>43116.93136155336</v>
       </c>
       <c r="H46" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I46" t="n">
-        <v>6788236</v>
+        <v>6776637</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2038662914</v>
+        <v>2030350158</v>
       </c>
       <c r="E47" t="n">
-        <v>2038662914</v>
+        <v>2030350158</v>
       </c>
       <c r="F47" t="n">
-        <v>227435.2991824021</v>
+        <v>227418.2653312155</v>
       </c>
       <c r="G47" t="n">
-        <v>199312.8344119788</v>
+        <v>199346.5310410433</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I47" t="n">
-        <v>8588640451</v>
+        <v>4346428233</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10148907</v>
+        <v>10131690</v>
       </c>
       <c r="F48" t="n">
-        <v>6733.630428407293</v>
+        <v>6842.195838422039</v>
       </c>
       <c r="G48" t="n">
-        <v>6059.892604622377</v>
+        <v>6232.266487676816</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>184059</v>
+        <v>183288</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4327235</v>
+        <v>4307161</v>
       </c>
       <c r="E49" t="n">
-        <v>5681096</v>
+        <v>5654740</v>
       </c>
       <c r="F49" t="n">
-        <v>6499.538997585252</v>
+        <v>4814.449222522108</v>
       </c>
       <c r="G49" t="n">
-        <v>2456.137296807622</v>
+        <v>2499.926515892827</v>
       </c>
       <c r="H49" t="n">
-        <v>0.27</v>
+        <v>0.93</v>
       </c>
       <c r="I49" t="n">
-        <v>628704</v>
+        <v>630987</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12898064</v>
+        <v>12682342</v>
       </c>
       <c r="E50" t="n">
-        <v>18966359</v>
+        <v>18649145</v>
       </c>
       <c r="F50" t="n">
-        <v>7304.39580216782</v>
+        <v>7102.462091192868</v>
       </c>
       <c r="G50" t="n">
-        <v>6940.232374073465</v>
+        <v>6945.472242843562</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>7042838</v>
+        <v>7136010</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23100683</v>
+        <v>22706717</v>
       </c>
       <c r="E51" t="n">
-        <v>29966870</v>
+        <v>29455806</v>
       </c>
       <c r="F51" t="n">
-        <v>11542.36896357573</v>
+        <v>11609.55325374942</v>
       </c>
       <c r="G51" t="n">
-        <v>12103.917602137</v>
+        <v>8836.590503387775</v>
       </c>
       <c r="H51" t="n">
         <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>432662</v>
+        <v>433443</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14269680</v>
+        <v>14179415</v>
       </c>
       <c r="E52" t="n">
-        <v>14269680</v>
+        <v>14179415</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5369058</v>
+        <v>5355094</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99535151</v>
+        <v>98617529</v>
       </c>
       <c r="E53" t="n">
-        <v>123121419</v>
+        <v>121986353</v>
       </c>
       <c r="F53" t="n">
-        <v>1301.228493872157</v>
+        <v>1085.612648385779</v>
       </c>
       <c r="G53" t="n">
-        <v>1714.046870837188</v>
+        <v>4342.421328817349</v>
       </c>
       <c r="H53" t="n">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="I53" t="n">
-        <v>985110</v>
+        <v>1003085</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5107517</v>
+        <v>5090844</v>
       </c>
       <c r="E54" t="n">
-        <v>7146157</v>
+        <v>7122829</v>
       </c>
       <c r="F54" t="n">
-        <v>415.4310409369153</v>
+        <v>484.0024517355693</v>
       </c>
       <c r="G54" t="n">
-        <v>289.053345183795</v>
+        <v>62.30094201588744</v>
       </c>
       <c r="H54" t="n">
-        <v>3.44</v>
+        <v>2.93</v>
       </c>
       <c r="I54" t="n">
-        <v>76878</v>
+        <v>76207</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14768069</v>
+        <v>14201645</v>
       </c>
       <c r="E55" t="n">
-        <v>71524117</v>
+        <v>68780835</v>
       </c>
       <c r="F55" t="n">
-        <v>14867.33964882669</v>
+        <v>15558.21024517574</v>
       </c>
       <c r="G55" t="n">
-        <v>12715.98357585853</v>
+        <v>7617.519149640892</v>
       </c>
       <c r="H55" t="n">
-        <v>0.98</v>
+        <v>0.58</v>
       </c>
       <c r="I55" t="n">
-        <v>5190964</v>
+        <v>5205582</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>59649</v>
+        <v>61299</v>
       </c>
       <c r="E56" t="n">
-        <v>142871</v>
+        <v>146823</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13967.81</v>
+        <v>13852.07</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1873832787</v>
+        <v>1860530458</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>29475906</v>
+        <v>29594956</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12327505</v>
+        <v>12329582</v>
       </c>
       <c r="E58" t="n">
-        <v>17873103</v>
+        <v>17876115</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2006198</v>
+        <v>2008855</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>122081355</v>
+        <v>121240415</v>
       </c>
       <c r="E59" t="n">
-        <v>324666811</v>
+        <v>322430390</v>
       </c>
       <c r="F59" t="n">
-        <v>1820.074264635457</v>
+        <v>1423.173161794069</v>
       </c>
       <c r="G59" t="n">
-        <v>7024.110228715633</v>
+        <v>7253.84011252545</v>
       </c>
       <c r="H59" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="I59" t="n">
-        <v>707747</v>
+        <v>708238</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31298900</v>
+        <v>30563955</v>
       </c>
       <c r="E60" t="n">
-        <v>97454732</v>
+        <v>95166349</v>
       </c>
       <c r="F60" t="n">
-        <v>2338.170117982312</v>
+        <v>1905.396980559997</v>
       </c>
       <c r="G60" t="n">
-        <v>9278.720406711811</v>
+        <v>4875.696035832603</v>
       </c>
       <c r="H60" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I60" t="n">
-        <v>9996214</v>
+        <v>10176545</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1924785</v>
+        <v>1935948</v>
       </c>
       <c r="E61" t="n">
-        <v>13802445</v>
+        <v>13882492</v>
       </c>
       <c r="F61" t="n">
-        <v>5411.054231695562</v>
+        <v>5425.42071915542</v>
       </c>
       <c r="G61" t="n">
-        <v>5112.425973743196</v>
+        <v>5011.12074368041</v>
       </c>
       <c r="H61" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="I61" t="n">
-        <v>2016171</v>
+        <v>2012367</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>199816414</v>
+        <v>198258622</v>
       </c>
       <c r="E62" t="n">
-        <v>1131483313</v>
+        <v>1122662138</v>
       </c>
       <c r="F62" t="n">
-        <v>415499.2047133259</v>
+        <v>451323.8181697903</v>
       </c>
       <c r="G62" t="n">
-        <v>565028.5390947064</v>
+        <v>618392.463237125</v>
       </c>
       <c r="H62" t="n">
         <v>0.14</v>
       </c>
       <c r="I62" t="n">
-        <v>82194904</v>
+        <v>82297105</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>495392</v>
+        <v>494060</v>
       </c>
       <c r="E63" t="n">
-        <v>1667421</v>
+        <v>1662938</v>
       </c>
       <c r="F63" t="n">
-        <v>4379.403570625568</v>
+        <v>4541.879282599311</v>
       </c>
       <c r="G63" t="n">
-        <v>459.7124734899795</v>
+        <v>457.1136553921995</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I63" t="n">
-        <v>564536</v>
+        <v>630784</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>352775</v>
+        <v>354321</v>
       </c>
       <c r="E64" t="n">
-        <v>352775</v>
+        <v>354321</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2173.3</v>
+        <v>2302.45</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>126240097</v>
+        <v>126229997</v>
       </c>
       <c r="E65" t="n">
-        <v>935111826</v>
+        <v>935037017</v>
       </c>
       <c r="F65" t="n">
-        <v>1108.445472395713</v>
+        <v>664.9644098918811</v>
       </c>
       <c r="G65" t="n">
-        <v>8073.604520123668</v>
+        <v>3548.281051571466</v>
       </c>
       <c r="H65" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="I65" t="n">
-        <v>20704243</v>
+        <v>20958336</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8630446</v>
+        <v>8621894</v>
       </c>
       <c r="E66" t="n">
-        <v>11561920</v>
+        <v>11550463</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>37772</v>
+        <v>37508</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35847935</v>
+        <v>35686337</v>
       </c>
       <c r="E67" t="n">
-        <v>35847935</v>
+        <v>35686337</v>
       </c>
       <c r="F67" t="n">
-        <v>8804.918459303339</v>
+        <v>8152.40313555592</v>
       </c>
       <c r="G67" t="n">
-        <v>8066.494472923587</v>
+        <v>7331.447482777908</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>955109</v>
+        <v>955535</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1579515</v>
+        <v>1543692</v>
       </c>
       <c r="E68" t="n">
-        <v>12266692</v>
+        <v>11988491</v>
       </c>
       <c r="F68" t="n">
-        <v>17424.18409252618</v>
+        <v>16199.75032022716</v>
       </c>
       <c r="G68" t="n">
-        <v>17096.16191259916</v>
+        <v>19829.45925984816</v>
       </c>
       <c r="H68" t="n">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="I68" t="n">
-        <v>512857</v>
+        <v>462342</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>332795808</v>
+        <v>329671300</v>
       </c>
       <c r="E69" t="n">
-        <v>2994037451</v>
+        <v>2965927440</v>
       </c>
       <c r="F69" t="n">
-        <v>1073433.243104695</v>
+        <v>891768.3298025293</v>
       </c>
       <c r="G69" t="n">
-        <v>1204463.283256321</v>
+        <v>1097407.657193515</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
       <c r="I69" t="n">
-        <v>57261931</v>
+        <v>59976324</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>247421</v>
+        <v>246240</v>
       </c>
       <c r="E70" t="n">
-        <v>2183676</v>
+        <v>2173257</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>71346</v>
+        <v>70572</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1553947</v>
+        <v>1554581</v>
       </c>
       <c r="E71" t="n">
-        <v>12949559</v>
+        <v>12954844</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>28081</v>
+        <v>28074</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9628563</v>
+        <v>9547988</v>
       </c>
       <c r="E72" t="n">
-        <v>44628944</v>
+        <v>44255471</v>
       </c>
       <c r="F72" t="n">
-        <v>10669.99590305307</v>
+        <v>10669.97616167699</v>
       </c>
       <c r="G72" t="n">
-        <v>2440.406285477287</v>
+        <v>2414.655955774018</v>
       </c>
       <c r="H72" t="n">
         <v>0.8</v>
       </c>
       <c r="I72" t="n">
-        <v>134744</v>
+        <v>133750</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47106671</v>
+        <v>46882250</v>
       </c>
       <c r="E73" t="n">
-        <v>272728163</v>
+        <v>271428855</v>
       </c>
       <c r="F73" t="n">
-        <v>109773.0354410724</v>
+        <v>121439.0074598164</v>
       </c>
       <c r="G73" t="n">
-        <v>129873.8985042601</v>
+        <v>124501.3229648352</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I73" t="n">
-        <v>48251995</v>
+        <v>48815978</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39539274</v>
+        <v>39506272</v>
       </c>
       <c r="E74" t="n">
-        <v>54609368</v>
+        <v>54563787</v>
       </c>
       <c r="F74" t="n">
-        <v>843.5177544919048</v>
+        <v>838.2936104748003</v>
       </c>
       <c r="G74" t="n">
-        <v>559.8117658722086</v>
+        <v>664.9843639141237</v>
       </c>
       <c r="H74" t="n">
         <v>0.46</v>
       </c>
       <c r="I74" t="n">
-        <v>326241</v>
+        <v>320914</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>109018</v>
+        <v>109295</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3861.34</v>
+        <v>3943.22</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13913212</v>
+        <v>13845549</v>
       </c>
       <c r="E76" t="n">
-        <v>13960560</v>
+        <v>13892667</v>
       </c>
       <c r="F76" t="n">
-        <v>2135.987086901798</v>
+        <v>749.1734454504796</v>
       </c>
       <c r="G76" t="n">
-        <v>7000.339206517443</v>
+        <v>6490.312211069083</v>
       </c>
       <c r="H76" t="n">
-        <v>1.27</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>6802313</v>
+        <v>6790426</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42756707</v>
+        <v>42725139</v>
       </c>
       <c r="E77" t="n">
-        <v>72590942</v>
+        <v>72537347</v>
       </c>
       <c r="F77" t="n">
-        <v>5823.417487324148</v>
+        <v>6234.725634298092</v>
       </c>
       <c r="G77" t="n">
-        <v>8971.552581244168</v>
+        <v>9109.993142676531</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="I77" t="n">
-        <v>1079524</v>
+        <v>1079051</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20018453</v>
+        <v>19664451</v>
       </c>
       <c r="E78" t="n">
-        <v>60005247</v>
+        <v>58954259</v>
       </c>
       <c r="F78" t="n">
-        <v>51171.35175882461</v>
+        <v>47797.84000444187</v>
       </c>
       <c r="G78" t="n">
-        <v>25847.34837057938</v>
+        <v>33333.58089797942</v>
       </c>
       <c r="H78" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="I78" t="n">
-        <v>4072169</v>
+        <v>4139811</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100906036</v>
+        <v>101418280</v>
       </c>
       <c r="E79" t="n">
-        <v>107272236</v>
+        <v>107816797</v>
       </c>
       <c r="F79" t="n">
-        <v>2297.076569729735</v>
+        <v>2425.986560828273</v>
       </c>
       <c r="G79" t="n">
-        <v>3918.071124220156</v>
+        <v>1163.461210673737</v>
       </c>
       <c r="H79" t="n">
-        <v>0.93</v>
+        <v>1.34</v>
       </c>
       <c r="I79" t="n">
-        <v>677498</v>
+        <v>494950</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10421482</v>
+        <v>10412366</v>
       </c>
       <c r="E80" t="n">
-        <v>45367490</v>
+        <v>45326254</v>
       </c>
       <c r="F80" t="n">
-        <v>5672.591174823123</v>
+        <v>5713.330316816657</v>
       </c>
       <c r="G80" t="n">
-        <v>6091.168853473587</v>
+        <v>6082.754266639946</v>
       </c>
       <c r="H80" t="n">
         <v>0.59</v>
       </c>
       <c r="I80" t="n">
-        <v>119700</v>
+        <v>119197</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15775554</v>
+        <v>15745219</v>
       </c>
       <c r="E81" t="n">
-        <v>96693560</v>
+        <v>96507624</v>
       </c>
       <c r="F81" t="n">
-        <v>5276.494053295001</v>
+        <v>4912.272431792178</v>
       </c>
       <c r="G81" t="n">
-        <v>6203.316255372635</v>
+        <v>6082.06649787673</v>
       </c>
       <c r="H81" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>11343513</v>
+        <v>11325025</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1498980</v>
+        <v>1484565</v>
       </c>
       <c r="E82" t="n">
-        <v>1541144</v>
+        <v>1526325</v>
       </c>
       <c r="F82" t="n">
-        <v>2292.666712893508</v>
+        <v>1145.397659370652</v>
       </c>
       <c r="G82" t="n">
-        <v>1724.03134983454</v>
+        <v>3076.584013445519</v>
       </c>
       <c r="H82" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I82" t="n">
-        <v>150812</v>
+        <v>149368</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49893389</v>
+        <v>49176497</v>
       </c>
       <c r="E83" t="n">
-        <v>214935266</v>
+        <v>211846970</v>
       </c>
       <c r="F83" t="n">
-        <v>764.0063702395147</v>
+        <v>336.8588630034201</v>
       </c>
       <c r="G83" t="n">
-        <v>1900.993427724933</v>
+        <v>2059.921490958229</v>
       </c>
       <c r="H83" t="n">
-        <v>0.47</v>
+        <v>1.07</v>
       </c>
       <c r="I83" t="n">
-        <v>11981197</v>
+        <v>12014089</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2261014</v>
+        <v>2256180</v>
       </c>
       <c r="E84" t="n">
-        <v>8208663</v>
+        <v>8191042</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>206958</v>
+        <v>207815</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8806448</v>
+        <v>8883818</v>
       </c>
       <c r="E85" t="n">
-        <v>19542285</v>
+        <v>19703046</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>5275.600712766336</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3797.390602420503</v>
       </c>
       <c r="H85" t="n">
-        <v>3.93</v>
+        <v>1.6</v>
       </c>
       <c r="I85" t="n">
-        <v>320163</v>
+        <v>320884</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2446426</v>
+        <v>2442373</v>
       </c>
       <c r="E86" t="n">
-        <v>18408729</v>
+        <v>18378230</v>
       </c>
       <c r="F86" t="n">
-        <v>4928.747885485038</v>
+        <v>4903.255862666236</v>
       </c>
       <c r="G86" t="n">
-        <v>12093.23489049504</v>
+        <v>12098.66741275069</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="I86" t="n">
-        <v>161680</v>
+        <v>161511</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19023412</v>
+        <v>18659276</v>
       </c>
       <c r="E87" t="n">
-        <v>76093650</v>
+        <v>74637103</v>
       </c>
       <c r="F87" t="n">
-        <v>5988.023263369666</v>
+        <v>832.1030988101329</v>
       </c>
       <c r="G87" t="n">
-        <v>1247.817967157521</v>
+        <v>108.0236210180435</v>
       </c>
       <c r="H87" t="n">
-        <v>1.06</v>
+        <v>3.49</v>
       </c>
       <c r="I87" t="n">
-        <v>2354613</v>
+        <v>2397570</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4646473</v>
+        <v>4619844</v>
       </c>
       <c r="E88" t="n">
-        <v>4646473</v>
+        <v>4619844</v>
       </c>
       <c r="F88" t="n">
-        <v>450.6283109741586</v>
+        <v>586.3787063378687</v>
       </c>
       <c r="G88" t="n">
-        <v>2298.162123132947</v>
+        <v>415.594464203409</v>
       </c>
       <c r="H88" t="n">
-        <v>1.02</v>
+        <v>0.15</v>
       </c>
       <c r="I88" t="n">
-        <v>2905387</v>
+        <v>2892861</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12611975</v>
+        <v>12513869</v>
       </c>
       <c r="E89" t="n">
-        <v>39890244</v>
+        <v>39579944</v>
       </c>
       <c r="F89" t="n">
-        <v>17838.06595620944</v>
+        <v>17921.73275294841</v>
       </c>
       <c r="G89" t="n">
-        <v>14294.42365829974</v>
+        <v>8174.843013975044</v>
       </c>
       <c r="H89" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I89" t="n">
-        <v>916823</v>
+        <v>921437</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24942</v>
+        <v>24910</v>
       </c>
       <c r="E90" t="n">
-        <v>196163</v>
+        <v>195908</v>
       </c>
       <c r="F90" t="n">
-        <v>320.4246677913602</v>
+        <v>319.1257057734821</v>
       </c>
       <c r="G90" t="n">
-        <v>670.8603496127865</v>
+        <v>670.871423296295</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>46394</v>
+        <v>46927</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8670113</v>
+        <v>8656398</v>
       </c>
       <c r="E91" t="n">
-        <v>8670113</v>
+        <v>8656398</v>
       </c>
       <c r="F91" t="n">
-        <v>3456.7552889298</v>
+        <v>2308.223916769997</v>
       </c>
       <c r="G91" t="n">
-        <v>6201.052205095958</v>
+        <v>3129.075878108568</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="I91" t="n">
-        <v>3928349</v>
+        <v>3925063</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9948150</v>
+        <v>9705276</v>
       </c>
       <c r="E92" t="n">
-        <v>9948150</v>
+        <v>9705276</v>
       </c>
       <c r="F92" t="n">
-        <v>4616.047228986837</v>
+        <v>1911.436938532748</v>
       </c>
       <c r="G92" t="n">
-        <v>8665.543040547713</v>
+        <v>6843.303503113462</v>
       </c>
       <c r="H92" t="n">
-        <v>0.93</v>
+        <v>0.24</v>
       </c>
       <c r="I92" t="n">
-        <v>2282122</v>
+        <v>2206239</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>32531917</v>
+        <v>32033370</v>
       </c>
       <c r="E93" t="n">
-        <v>82029876</v>
+        <v>80772780</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1.178110245209159</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>821.7083592325863</v>
       </c>
       <c r="H93" t="n">
-        <v>3.98</v>
+        <v>3.06</v>
       </c>
       <c r="I93" t="n">
-        <v>4555256</v>
+        <v>4635287</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>310808724</v>
+        <v>307783712</v>
       </c>
       <c r="E94" t="n">
-        <v>315669335</v>
+        <v>312597016</v>
       </c>
       <c r="F94" t="n">
-        <v>2916.482975875078</v>
+        <v>3018.296029525617</v>
       </c>
       <c r="G94" t="n">
-        <v>40910.75405656824</v>
+        <v>18294.66356101098</v>
       </c>
       <c r="H94" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I94" t="n">
-        <v>26773289</v>
+        <v>27004790</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1001.446528138984</v>
+        <v>1025.735532627517</v>
       </c>
       <c r="G95" t="n">
-        <v>6329.51594164944</v>
+        <v>6327.47245305667</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I95" t="n">
-        <v>219439</v>
+        <v>218996</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>83276278</v>
+        <v>82061696</v>
       </c>
       <c r="E96" t="n">
-        <v>83276278</v>
+        <v>82061696</v>
       </c>
       <c r="F96" t="n">
-        <v>10145.98589631957</v>
+        <v>6964.613458631537</v>
       </c>
       <c r="G96" t="n">
-        <v>6985.542226810448</v>
+        <v>7065.183949893093</v>
       </c>
       <c r="H96" t="n">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="I96" t="n">
-        <v>5065973</v>
+        <v>4895344</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>300414473</v>
+        <v>295882646</v>
       </c>
       <c r="E97" t="n">
-        <v>300414473</v>
+        <v>295882646</v>
       </c>
       <c r="F97" t="n">
-        <v>292882.8924736762</v>
+        <v>306882.2083427425</v>
       </c>
       <c r="G97" t="n">
-        <v>393224.3509985598</v>
+        <v>409456.5343656921</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>84518330</v>
+        <v>85516683</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4283672</v>
+        <v>4282683</v>
       </c>
       <c r="E98" t="n">
-        <v>29270028</v>
+        <v>29263273</v>
       </c>
       <c r="F98" t="n">
-        <v>22559.92665099122</v>
+        <v>4667.547322047454</v>
       </c>
       <c r="G98" t="n">
-        <v>24249.83316409801</v>
+        <v>5072.77804499903</v>
       </c>
       <c r="H98" t="n">
         <v>0.68</v>
       </c>
       <c r="I98" t="n">
-        <v>2675435</v>
+        <v>2668845</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>87719715</v>
+        <v>87160648</v>
       </c>
       <c r="E99" t="n">
-        <v>505478834</v>
+        <v>502257247</v>
       </c>
       <c r="F99" t="n">
-        <v>37888.44348024749</v>
+        <v>30047.47012664753</v>
       </c>
       <c r="G99" t="n">
-        <v>40238.77951118866</v>
+        <v>31839.20618221867</v>
       </c>
       <c r="H99" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I99" t="n">
-        <v>20049118</v>
+        <v>20223233</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108416478</v>
+        <v>107100728</v>
       </c>
       <c r="E100" t="n">
-        <v>266746894</v>
+        <v>263509635</v>
       </c>
       <c r="F100" t="n">
-        <v>35769.00913759481</v>
+        <v>32466.12559527636</v>
       </c>
       <c r="G100" t="n">
-        <v>50109.64465046893</v>
+        <v>42803.96888901953</v>
       </c>
       <c r="H100" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2558460</v>
+        <v>2562351</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>246737245</v>
+        <v>242489699</v>
       </c>
       <c r="E101" t="n">
-        <v>246739696</v>
+        <v>242492108</v>
       </c>
       <c r="F101" t="n">
-        <v>46650.98887269972</v>
+        <v>42207.55423697335</v>
       </c>
       <c r="G101" t="n">
-        <v>5043.867628789943</v>
+        <v>29705.94450894086</v>
       </c>
       <c r="H101" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="I101" t="n">
-        <v>1798374</v>
+        <v>1794869</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30261216</v>
+        <v>30113151</v>
       </c>
       <c r="E102" t="n">
-        <v>135491878</v>
+        <v>134828931</v>
       </c>
       <c r="F102" t="n">
-        <v>83178.07516014797</v>
+        <v>60779.36348726339</v>
       </c>
       <c r="G102" t="n">
-        <v>86726.20879741495</v>
+        <v>92935.71293584454</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="I102" t="n">
-        <v>12122954</v>
+        <v>12283267</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3093540</v>
+        <v>3062720</v>
       </c>
       <c r="E103" t="n">
-        <v>3093540</v>
+        <v>3062720</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>387703</v>
+        <v>382475</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5804766</v>
+        <v>5788658</v>
       </c>
       <c r="E104" t="n">
-        <v>15234602</v>
+        <v>15192327</v>
       </c>
       <c r="F104" t="n">
-        <v>573.8480868542661</v>
+        <v>633.9939268940074</v>
       </c>
       <c r="G104" t="n">
-        <v>4.537906717352024</v>
+        <v>4.541508938154845</v>
       </c>
       <c r="H104" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="I104" t="n">
-        <v>23865</v>
+        <v>23837</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16383787</v>
+        <v>16315246</v>
       </c>
       <c r="E105" t="n">
-        <v>75625349</v>
+        <v>75308971</v>
       </c>
       <c r="F105" t="n">
-        <v>35225.45831022182</v>
+        <v>28883.39831580203</v>
       </c>
       <c r="G105" t="n">
-        <v>23064.71522791368</v>
+        <v>12170.01237670569</v>
       </c>
       <c r="H105" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I105" t="n">
-        <v>1085195</v>
+        <v>1088482</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50182879</v>
+        <v>50055500</v>
       </c>
       <c r="E106" t="n">
-        <v>325422612</v>
+        <v>324596596</v>
       </c>
       <c r="F106" t="n">
-        <v>105235.5861496834</v>
+        <v>112733.9239706241</v>
       </c>
       <c r="G106" t="n">
-        <v>139992.4658186916</v>
+        <v>131968.3058043658</v>
       </c>
       <c r="H106" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>19266838</v>
+        <v>19566124</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2475712</v>
+        <v>2465525</v>
       </c>
       <c r="E107" t="n">
-        <v>4485219</v>
+        <v>4466763</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>142621</v>
+        <v>143078</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123412279</v>
+        <v>123198170</v>
       </c>
       <c r="E108" t="n">
-        <v>2043808420</v>
+        <v>2040262602</v>
       </c>
       <c r="F108" t="n">
-        <v>69482.88570576256</v>
+        <v>55616.28880557945</v>
       </c>
       <c r="G108" t="n">
-        <v>24641.32820553967</v>
+        <v>29182.06330784057</v>
       </c>
       <c r="H108" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>20480547</v>
+        <v>22597949</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23992052</v>
+        <v>23917265</v>
       </c>
       <c r="E109" t="n">
-        <v>143549268</v>
+        <v>143101806</v>
       </c>
       <c r="F109" t="n">
-        <v>41369.26257117295</v>
+        <v>41090.65724968719</v>
       </c>
       <c r="G109" t="n">
-        <v>39323.71368263156</v>
+        <v>40054.01330793304</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I109" t="n">
-        <v>16291656</v>
+        <v>16504268</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1094953</v>
+        <v>1096950</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>82120</v>
+        <v>82446</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2207227</v>
+        <v>2194585</v>
       </c>
       <c r="F111" t="n">
-        <v>176.6273102843998</v>
+        <v>3662.31441426283</v>
       </c>
       <c r="G111" t="n">
-        <v>273.0520900965921</v>
+        <v>273.051854132786</v>
       </c>
       <c r="H111" t="n">
         <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>176401</v>
+        <v>176444</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147521973</v>
+        <v>147270051</v>
       </c>
       <c r="F112" t="n">
-        <v>9038.36424992631</v>
+        <v>8849.851308787282</v>
       </c>
       <c r="G112" t="n">
-        <v>3048.147883880419</v>
+        <v>3048.09926933313</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>52808</v>
+        <v>53453</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6384452</v>
+        <v>6310656</v>
       </c>
       <c r="E113" t="n">
-        <v>32846066</v>
+        <v>32466408</v>
       </c>
       <c r="F113" t="n">
-        <v>1690.344386014319</v>
+        <v>934.3826102500209</v>
       </c>
       <c r="G113" t="n">
-        <v>2413.801459388399</v>
+        <v>2446.408609299422</v>
       </c>
       <c r="H113" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I113" t="n">
-        <v>948189</v>
+        <v>945360</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29424006</v>
+        <v>29427110</v>
       </c>
       <c r="E114" t="n">
-        <v>40345456</v>
+        <v>40349712</v>
       </c>
       <c r="F114" t="n">
-        <v>4426.936921694342</v>
+        <v>4421.754739843682</v>
       </c>
       <c r="G114" t="n">
-        <v>4924.026622914358</v>
+        <v>4954.226295143293</v>
       </c>
       <c r="H114" t="n">
         <v>0.19</v>
       </c>
       <c r="I114" t="n">
-        <v>203311</v>
+        <v>204146</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7648939</v>
+        <v>7636783</v>
       </c>
       <c r="F115" t="n">
-        <v>1631.151126242563</v>
+        <v>1711.957537267373</v>
       </c>
       <c r="G115" t="n">
-        <v>5417.409402725324</v>
+        <v>5419.267578275512</v>
       </c>
       <c r="H115" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="I115" t="n">
-        <v>652515</v>
+        <v>653710</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3419044</v>
+        <v>3403366</v>
       </c>
       <c r="E116" t="n">
-        <v>4580025</v>
+        <v>4559024</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>150227</v>
+        <v>149381</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33329459</v>
+        <v>33186359</v>
       </c>
       <c r="E117" t="n">
-        <v>166329365</v>
+        <v>165615228</v>
       </c>
       <c r="F117" t="n">
-        <v>73856.80772802589</v>
+        <v>71742.50125666389</v>
       </c>
       <c r="G117" t="n">
-        <v>69823.27505808852</v>
+        <v>59196.26636010893</v>
       </c>
       <c r="H117" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I117" t="n">
-        <v>13390401</v>
+        <v>13319786</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3494437</v>
+        <v>3492831</v>
       </c>
       <c r="E118" t="n">
-        <v>5019824</v>
+        <v>5017517</v>
       </c>
       <c r="F118" t="n">
-        <v>541.8221683196945</v>
+        <v>541.8217000924744</v>
       </c>
       <c r="G118" t="n">
-        <v>650.0400435102464</v>
+        <v>650.0394817642341</v>
       </c>
       <c r="H118" t="n">
         <v>1.38</v>
       </c>
       <c r="I118" t="n">
-        <v>8739.41</v>
+        <v>145423</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>316569031</v>
+        <v>311770540</v>
       </c>
       <c r="E119" t="n">
-        <v>585724899</v>
+        <v>576846598</v>
       </c>
       <c r="F119" t="n">
-        <v>59660.96726685178</v>
+        <v>61456.10418863051</v>
       </c>
       <c r="G119" t="n">
-        <v>48401.6116287506</v>
+        <v>40652.55108182807</v>
       </c>
       <c r="H119" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="I119" t="n">
-        <v>14807159</v>
+        <v>16032821</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>71511170</v>
+        <v>70650229</v>
       </c>
       <c r="E120" t="n">
-        <v>682114509</v>
+        <v>673898677</v>
       </c>
       <c r="F120" t="n">
-        <v>1612.964589605645</v>
+        <v>1251.835969687386</v>
       </c>
       <c r="G120" t="n">
-        <v>6347.804449541125</v>
+        <v>2132.771980200524</v>
       </c>
       <c r="H120" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="I120" t="n">
-        <v>22568586</v>
+        <v>22552300</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37823064</v>
+        <v>37465829</v>
       </c>
       <c r="E121" t="n">
-        <v>49448207</v>
+        <v>48981173</v>
       </c>
       <c r="F121" t="n">
-        <v>6343.944368867068</v>
+        <v>396.5487860331702</v>
       </c>
       <c r="G121" t="n">
-        <v>181.2923643437921</v>
+        <v>5807.461719472503</v>
       </c>
       <c r="H121" t="n">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="I121" t="n">
-        <v>309067</v>
+        <v>422585</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9542371</v>
+        <v>9519033</v>
       </c>
       <c r="E122" t="n">
-        <v>28288727</v>
+        <v>28219538</v>
       </c>
       <c r="F122" t="n">
-        <v>363.1625424941527</v>
+        <v>2464.11467153397</v>
       </c>
       <c r="G122" t="n">
-        <v>7788.693649154789</v>
+        <v>7241.596612403826</v>
       </c>
       <c r="H122" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="I122" t="n">
-        <v>6140166</v>
+        <v>6119321</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2325337</v>
+        <v>2306041</v>
       </c>
       <c r="E123" t="n">
-        <v>7770425</v>
+        <v>7705944</v>
       </c>
       <c r="F123" t="n">
-        <v>511.3300301003676</v>
+        <v>637.3103050139126</v>
       </c>
       <c r="G123" t="n">
-        <v>1529.055967259061</v>
+        <v>1631.371279327103</v>
       </c>
       <c r="H123" t="n">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="I123" t="n">
-        <v>951028</v>
+        <v>947212</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7283261</v>
+        <v>7239278</v>
       </c>
       <c r="E124" t="n">
-        <v>7283272</v>
+        <v>7239289</v>
       </c>
       <c r="F124" t="n">
-        <v>561.6957059368335</v>
+        <v>152.3850562519724</v>
       </c>
       <c r="G124" t="n">
-        <v>522.0222772588821</v>
+        <v>487.3403099541531</v>
       </c>
       <c r="H124" t="n">
-        <v>2.43</v>
+        <v>0.74</v>
       </c>
       <c r="I124" t="n">
-        <v>273651</v>
+        <v>271443</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6279904</v>
+        <v>6178866</v>
       </c>
       <c r="E125" t="n">
-        <v>6279904</v>
+        <v>6178866</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>499350</v>
+        <v>482117</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6259801</v>
+        <v>6234865</v>
       </c>
       <c r="E126" t="n">
-        <v>22864629</v>
+        <v>22773550</v>
       </c>
       <c r="F126" t="n">
-        <v>7239.462828359636</v>
+        <v>7123.226616418317</v>
       </c>
       <c r="G126" t="n">
-        <v>8387.484162437109</v>
+        <v>8800.445522074489</v>
       </c>
       <c r="H126" t="n">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="I126" t="n">
-        <v>545450</v>
+        <v>508547</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44941913</v>
+        <v>44383621</v>
       </c>
       <c r="E127" t="n">
-        <v>44941913</v>
+        <v>44383621</v>
       </c>
       <c r="F127" t="n">
-        <v>64099.27635678805</v>
+        <v>71610.05680308756</v>
       </c>
       <c r="G127" t="n">
-        <v>72566.65069498742</v>
+        <v>68050.25364508758</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>10162649</v>
+        <v>10228798</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>147498910</v>
+        <v>146211724</v>
       </c>
       <c r="F128" t="n">
-        <v>5682.068729078551</v>
+        <v>5705.207352092963</v>
       </c>
       <c r="G128" t="n">
-        <v>3320.5620376097</v>
+        <v>2831.166397282527</v>
       </c>
       <c r="H128" t="n">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="I128" t="n">
-        <v>1641224</v>
+        <v>1880517</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2907386</v>
+        <v>2902789</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72537</v>
+        <v>72647</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19943152</v>
+        <v>19749163</v>
       </c>
       <c r="F130" t="n">
-        <v>502.3186633284116</v>
+        <v>407.1936540022918</v>
       </c>
       <c r="G130" t="n">
-        <v>461.8494196519652</v>
+        <v>461.056687786347</v>
       </c>
       <c r="H130" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="I130" t="n">
-        <v>2968691</v>
+        <v>2961269</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1293746</v>
+        <v>1274788</v>
       </c>
       <c r="E131" t="n">
-        <v>3914367</v>
+        <v>3856644</v>
       </c>
       <c r="F131" t="n">
-        <v>802.9825521287023</v>
+        <v>802.9818582141487</v>
       </c>
       <c r="G131" t="n">
-        <v>691.9382403735259</v>
+        <v>691.9376424202902</v>
       </c>
       <c r="H131" t="n">
         <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>37102</v>
+        <v>37098</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>596527036</v>
+        <v>590717947</v>
       </c>
       <c r="E132" t="n">
-        <v>2310261201</v>
+        <v>2287763456</v>
       </c>
       <c r="F132" t="n">
-        <v>799590.8781942612</v>
+        <v>822722.2862679376</v>
       </c>
       <c r="G132" t="n">
-        <v>907280.9931573127</v>
+        <v>805091.7462429715</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I132" t="n">
-        <v>53126674</v>
+        <v>53097475</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3702157</v>
+        <v>3689020</v>
       </c>
       <c r="E133" t="n">
-        <v>6310830</v>
+        <v>6288436</v>
       </c>
       <c r="F133" t="n">
-        <v>5438.623769092522</v>
+        <v>5391.982107235777</v>
       </c>
       <c r="G133" t="n">
-        <v>5311.321382061114</v>
+        <v>5046.786247976131</v>
       </c>
       <c r="H133" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="I133" t="n">
-        <v>1165196</v>
+        <v>1151122</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>112014554</v>
+        <v>112303794</v>
       </c>
       <c r="E134" t="n">
-        <v>1040759566</v>
+        <v>1043446975</v>
       </c>
       <c r="F134" t="n">
-        <v>89854.39323402153</v>
+        <v>83121.67782841096</v>
       </c>
       <c r="G134" t="n">
-        <v>95196.28188574937</v>
+        <v>87140.34756073046</v>
       </c>
       <c r="H134" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I134" t="n">
-        <v>9955089</v>
+        <v>15783983</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>986232101</v>
+        <v>978970398</v>
       </c>
       <c r="E135" t="n">
-        <v>1083378666</v>
+        <v>1075401665</v>
       </c>
       <c r="F135" t="n">
-        <v>12081.34847410001</v>
+        <v>10451.16556650533</v>
       </c>
       <c r="G135" t="n">
-        <v>19638.53870357678</v>
+        <v>12838.69935800093</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I135" t="n">
-        <v>8486029</v>
+        <v>8660418</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1075220</v>
+        <v>1069048</v>
       </c>
       <c r="E136" t="n">
-        <v>4163488</v>
+        <v>4139588</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>314297</v>
+        <v>222477</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>125357547</v>
+        <v>123945413</v>
       </c>
       <c r="E137" t="n">
-        <v>480891729</v>
+        <v>475474553</v>
       </c>
       <c r="F137" t="n">
-        <v>176292.8063155507</v>
+        <v>173836.269741154</v>
       </c>
       <c r="G137" t="n">
-        <v>208876.929949268</v>
+        <v>208785.9441082484</v>
       </c>
       <c r="H137" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I137" t="n">
-        <v>40599511</v>
+        <v>40389910</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3144522</v>
+        <v>3096449</v>
       </c>
       <c r="E138" t="n">
-        <v>29794812</v>
+        <v>29339317</v>
       </c>
       <c r="F138" t="n">
-        <v>3894.720650657086</v>
+        <v>4256.573297988276</v>
       </c>
       <c r="G138" t="n">
-        <v>4567.625843754893</v>
+        <v>4633.354032169873</v>
       </c>
       <c r="H138" t="n">
         <v>0.44</v>
       </c>
       <c r="I138" t="n">
-        <v>246261</v>
+        <v>189535</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21958670</v>
+        <v>21829889</v>
       </c>
       <c r="E139" t="n">
-        <v>21958670</v>
+        <v>21829889</v>
       </c>
       <c r="F139" t="n">
-        <v>6776.230333368987</v>
+        <v>9096.620592922169</v>
       </c>
       <c r="G139" t="n">
-        <v>5003.170111653892</v>
+        <v>6220.279321648884</v>
       </c>
       <c r="H139" t="n">
-        <v>1.31</v>
+        <v>0.87</v>
       </c>
       <c r="I139" t="n">
-        <v>526916</v>
+        <v>519922</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494743980</v>
+        <v>492136436</v>
       </c>
       <c r="E140" t="n">
-        <v>494743980</v>
+        <v>492136436</v>
       </c>
       <c r="F140" t="n">
-        <v>803880.7989567384</v>
+        <v>726418.4807021553</v>
       </c>
       <c r="G140" t="n">
-        <v>907709.8895395249</v>
+        <v>904368.1766182184</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>39818173</v>
+        <v>40382560</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35455289</v>
+        <v>35122568</v>
       </c>
       <c r="F141" t="n">
-        <v>81416.03462645056</v>
+        <v>78566.93734448159</v>
       </c>
       <c r="G141" t="n">
-        <v>93300.20183988581</v>
+        <v>104985.5611619086</v>
       </c>
       <c r="H141" t="n">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
       <c r="I141" t="n">
-        <v>7361299</v>
+        <v>7346881</v>
       </c>
     </row>
     <row r="142">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>821780</v>
+        <v>807392</v>
       </c>
       <c r="E142" t="n">
-        <v>13107094</v>
+        <v>12877608</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>4.38</v>
+        <v>4.08</v>
       </c>
       <c r="I142" t="n">
-        <v>329732</v>
+        <v>329650</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2644298590</v>
+        <v>2621053844</v>
       </c>
       <c r="E143" t="n">
-        <v>2807557048</v>
+        <v>2782877176</v>
       </c>
       <c r="F143" t="n">
-        <v>3687.815283518912</v>
+        <v>3399.357606212076</v>
       </c>
       <c r="G143" t="n">
-        <v>16971.62127456908</v>
+        <v>22935.29282891041</v>
       </c>
       <c r="H143" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I143" t="n">
-        <v>52265971</v>
+        <v>55384170</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1734763</v>
+        <v>1734735</v>
       </c>
       <c r="E144" t="n">
-        <v>1740886</v>
+        <v>1740859</v>
       </c>
       <c r="F144" t="n">
-        <v>2474.662063029096</v>
+        <v>7595.522236145235</v>
       </c>
       <c r="G144" t="n">
-        <v>1885.889435724508</v>
+        <v>1960.722499101016</v>
       </c>
       <c r="H144" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="I144" t="n">
-        <v>448265</v>
+        <v>449090</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>58410513</v>
+        <v>58292504</v>
       </c>
       <c r="E145" t="n">
-        <v>143277030</v>
+        <v>142987562</v>
       </c>
       <c r="F145" t="n">
-        <v>5127.329843963484</v>
+        <v>5396.804909828178</v>
       </c>
       <c r="G145" t="n">
-        <v>4803.913104397054</v>
+        <v>5153.445341005601</v>
       </c>
       <c r="H145" t="n">
-        <v>0.24</v>
+        <v>0.59</v>
       </c>
       <c r="I145" t="n">
-        <v>21947492</v>
+        <v>21929974</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>812001355</v>
+        <v>801294414</v>
       </c>
       <c r="E146" t="n">
-        <v>1252177782</v>
+        <v>1235666735</v>
       </c>
       <c r="F146" t="n">
-        <v>149269.8452261072</v>
+        <v>225182.9657525131</v>
       </c>
       <c r="G146" t="n">
-        <v>222979.7150687494</v>
+        <v>195325.6550794544</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>336338741</v>
+        <v>338290718</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22933129</v>
+        <v>22453937</v>
       </c>
       <c r="E147" t="n">
-        <v>22933129</v>
+        <v>22453937</v>
       </c>
       <c r="F147" t="n">
-        <v>3711.556855601386</v>
+        <v>5255.928406556091</v>
       </c>
       <c r="G147" t="n">
-        <v>9519.852277525195</v>
+        <v>2660.836877998244</v>
       </c>
       <c r="H147" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>5545386</v>
+        <v>5642802</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3815337</v>
+        <v>3812086</v>
       </c>
       <c r="E148" t="n">
-        <v>8316899</v>
+        <v>8309812</v>
       </c>
       <c r="F148" t="n">
-        <v>6799.002140812694</v>
+        <v>6798.996265309517</v>
       </c>
       <c r="G148" t="n">
-        <v>7082.490811360977</v>
+        <v>7082.484690875</v>
       </c>
       <c r="H148" t="n">
         <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>1871929</v>
+        <v>1887895</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9255803</v>
+        <v>9234516</v>
       </c>
       <c r="E149" t="n">
-        <v>9255803</v>
+        <v>9234516</v>
       </c>
       <c r="F149" t="n">
-        <v>79537.95561687011</v>
+        <v>86238.08716580024</v>
       </c>
       <c r="G149" t="n">
-        <v>81203.59433770912</v>
+        <v>76668.62918783314</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>4962491</v>
+        <v>4963078</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>491252674</v>
+        <v>484523135</v>
       </c>
       <c r="E150" t="n">
-        <v>1710009675</v>
+        <v>1686584708</v>
       </c>
       <c r="F150" t="n">
-        <v>396783.2698277846</v>
+        <v>404405.6231936894</v>
       </c>
       <c r="G150" t="n">
-        <v>434053.8885477892</v>
+        <v>435522.4922784814</v>
       </c>
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>43232103</v>
+        <v>44288252</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49681456</v>
+        <v>49214202</v>
       </c>
       <c r="E151" t="n">
-        <v>122297700</v>
+        <v>121147491</v>
       </c>
       <c r="F151" t="n">
-        <v>5581.305257391019</v>
+        <v>2836.165128494473</v>
       </c>
       <c r="G151" t="n">
-        <v>8063.103420867461</v>
+        <v>7153.543963365581</v>
       </c>
       <c r="H151" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="I151" t="n">
-        <v>166356</v>
+        <v>193055</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7326062</v>
+        <v>7331343</v>
       </c>
       <c r="E152" t="n">
-        <v>19032322</v>
+        <v>19046041</v>
       </c>
       <c r="F152" t="n">
-        <v>5896.215588264124</v>
+        <v>6266.398682158505</v>
       </c>
       <c r="G152" t="n">
-        <v>6132.014320574978</v>
+        <v>6261.040280865822</v>
       </c>
       <c r="H152" t="n">
         <v>1.05</v>
       </c>
       <c r="I152" t="n">
-        <v>739272</v>
+        <v>741417</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>19001558231</v>
+        <v>18954340218</v>
       </c>
       <c r="F153" t="n">
-        <v>820.7118404325427</v>
+        <v>822.4288885860922</v>
       </c>
       <c r="G153" t="n">
-        <v>20908.81103108505</v>
+        <v>20897.9349789049</v>
       </c>
       <c r="H153" t="n">
         <v>0.76</v>
       </c>
       <c r="I153" t="n">
-        <v>41343789</v>
+        <v>40972671</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2545244</v>
+        <v>2531373</v>
       </c>
       <c r="E154" t="n">
-        <v>10180975</v>
+        <v>10125493</v>
       </c>
       <c r="F154" t="n">
-        <v>1650.341097886544</v>
+        <v>1309.802880173269</v>
       </c>
       <c r="G154" t="n">
-        <v>2187.179737875377</v>
+        <v>3316.857572188799</v>
       </c>
       <c r="H154" t="n">
         <v>0.59</v>
       </c>
       <c r="I154" t="n">
-        <v>7117108</v>
+        <v>7120289</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>218657920</v>
+        <v>216244401</v>
       </c>
       <c r="E155" t="n">
-        <v>672290819</v>
+        <v>664870155</v>
       </c>
       <c r="F155" t="n">
-        <v>34477.57308831136</v>
+        <v>37973.98018518078</v>
       </c>
       <c r="G155" t="n">
-        <v>50973.61998961798</v>
+        <v>50374.11902835314</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I155" t="n">
-        <v>20195588</v>
+        <v>25069379</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>392429960</v>
+        <v>389910653</v>
       </c>
       <c r="E156" t="n">
-        <v>2242456916</v>
+        <v>2228060874</v>
       </c>
       <c r="F156" t="n">
-        <v>225151.5967130851</v>
+        <v>243673.968220852</v>
       </c>
       <c r="G156" t="n">
-        <v>231262.1102920706</v>
+        <v>231312.5765116973</v>
       </c>
       <c r="H156" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>53618683</v>
+        <v>54755766</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3847274</v>
+        <v>3776201</v>
       </c>
       <c r="F2" t="n">
-        <v>469.0004044050747</v>
+        <v>171.8471950810151</v>
       </c>
       <c r="G2" t="n">
-        <v>840.2498193531937</v>
+        <v>1418.41392047067</v>
       </c>
       <c r="H2" t="n">
-        <v>2.59</v>
+        <v>0.64</v>
       </c>
       <c r="I2" t="n">
-        <v>143363</v>
+        <v>141081</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>624423348</v>
+        <v>608288346</v>
       </c>
       <c r="E3" t="n">
-        <v>1211713669</v>
+        <v>1180413077</v>
       </c>
       <c r="F3" t="n">
-        <v>35825.1528886692</v>
+        <v>29151.50773291361</v>
       </c>
       <c r="G3" t="n">
-        <v>45693.83316703781</v>
+        <v>39108.92569657743</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>37128182</v>
+        <v>40097244</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>255562576</v>
+        <v>249364390</v>
       </c>
       <c r="E4" t="n">
-        <v>1602596992</v>
+        <v>1563729037</v>
       </c>
       <c r="F4" t="n">
-        <v>141293.8818663625</v>
+        <v>141375.4657776705</v>
       </c>
       <c r="G4" t="n">
-        <v>174411.7268256139</v>
+        <v>140815.3024668393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>23921875</v>
+        <v>23875202</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>145002732</v>
+        <v>142249646</v>
       </c>
       <c r="E5" t="n">
-        <v>160685688</v>
+        <v>157634838</v>
       </c>
       <c r="F5" t="n">
-        <v>638.2986636593622</v>
+        <v>623.3083074814859</v>
       </c>
       <c r="G5" t="n">
-        <v>4504.718546414692</v>
+        <v>412.3273755099333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="I5" t="n">
-        <v>49367500</v>
+        <v>51039472</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48979399</v>
+        <v>48482641</v>
       </c>
       <c r="E6" t="n">
-        <v>61271972</v>
+        <v>60650541</v>
       </c>
       <c r="F6" t="n">
-        <v>4798.869117447177</v>
+        <v>5535.566177156598</v>
       </c>
       <c r="G6" t="n">
-        <v>4327.741238140333</v>
+        <v>4701.205658599275</v>
       </c>
       <c r="H6" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="I6" t="n">
-        <v>909448</v>
+        <v>858589</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67624605</v>
+        <v>66639943</v>
       </c>
       <c r="E7" t="n">
-        <v>134685327</v>
+        <v>132724213</v>
       </c>
       <c r="F7" t="n">
-        <v>11653.44156774835</v>
+        <v>11377.80738318484</v>
       </c>
       <c r="G7" t="n">
-        <v>12315.44708067111</v>
+        <v>11478.12683028936</v>
       </c>
       <c r="H7" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>855685</v>
+        <v>1006094</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40779027</v>
+        <v>41094377</v>
       </c>
       <c r="E8" t="n">
-        <v>45637605</v>
+        <v>45990527</v>
       </c>
       <c r="F8" t="n">
-        <v>543.1889060092036</v>
+        <v>635.7471236459116</v>
       </c>
       <c r="G8" t="n">
-        <v>545.6603951137483</v>
+        <v>435.9972908457879</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5242651</v>
+        <v>5286339</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13961137</v>
+        <v>13925573</v>
       </c>
       <c r="E9" t="n">
-        <v>41142570</v>
+        <v>41037765</v>
       </c>
       <c r="F9" t="n">
-        <v>5059.916816737271</v>
+        <v>4966.603413954008</v>
       </c>
       <c r="G9" t="n">
-        <v>4799.478262725534</v>
+        <v>4950.927802894545</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="I9" t="n">
-        <v>929186</v>
+        <v>919217</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8635488</v>
+        <v>8802298</v>
       </c>
       <c r="E10" t="n">
-        <v>37120133</v>
+        <v>37837176</v>
       </c>
       <c r="F10" t="n">
-        <v>1629.769948846021</v>
+        <v>3212.23275546486</v>
       </c>
       <c r="G10" t="n">
-        <v>1517.035314070201</v>
+        <v>3808.242570928038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="I10" t="n">
-        <v>929652</v>
+        <v>944593</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>570402444</v>
+        <v>563956591</v>
       </c>
       <c r="E11" t="n">
-        <v>713488681</v>
+        <v>705425877</v>
       </c>
       <c r="F11" t="n">
-        <v>327827.5528335994</v>
+        <v>247294.0938474207</v>
       </c>
       <c r="G11" t="n">
-        <v>248336.5877951881</v>
+        <v>321379.9568731678</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>88463954</v>
+        <v>91588172</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4249122</v>
+        <v>4257083</v>
       </c>
       <c r="E12" t="n">
-        <v>26091762</v>
+        <v>26140511</v>
       </c>
       <c r="F12" t="n">
-        <v>11144.71667910698</v>
+        <v>11645.26525444525</v>
       </c>
       <c r="G12" t="n">
-        <v>1837.189938738021</v>
+        <v>10170.38823690919</v>
       </c>
       <c r="H12" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I12" t="n">
-        <v>706677</v>
+        <v>687100</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24644638</v>
+        <v>24454217</v>
       </c>
       <c r="E13" t="n">
-        <v>24690094</v>
+        <v>24499322</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>888519</v>
+        <v>891620</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80181600</v>
+        <v>79971721</v>
       </c>
       <c r="E14" t="n">
-        <v>235904211</v>
+        <v>235286721</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>454811</v>
+        <v>431296</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>510080581</v>
+        <v>508695749</v>
       </c>
       <c r="E15" t="n">
-        <v>510080585</v>
+        <v>508695749</v>
       </c>
       <c r="F15" t="n">
-        <v>22235.41307283283</v>
+        <v>28880.97129291042</v>
       </c>
       <c r="G15" t="n">
-        <v>21154.40764136487</v>
+        <v>22862.95221790964</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>81805405</v>
+        <v>72063920</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4730896</v>
+        <v>4594638</v>
       </c>
       <c r="E16" t="n">
-        <v>4730896</v>
+        <v>4594638</v>
       </c>
       <c r="F16" t="n">
-        <v>435.8584684536993</v>
+        <v>185.1954762275715</v>
       </c>
       <c r="G16" t="n">
-        <v>387.2616142893824</v>
+        <v>1291.270557334805</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="I16" t="n">
-        <v>2241173</v>
+        <v>2110438</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3386068</v>
+        <v>3373901</v>
       </c>
       <c r="E17" t="n">
-        <v>3386068</v>
+        <v>3373901</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>576555</v>
+        <v>605454</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>169328101</v>
+        <v>168495119</v>
       </c>
       <c r="E18" t="n">
-        <v>209635240</v>
+        <v>208603974</v>
       </c>
       <c r="F18" t="n">
-        <v>9124.097549593549</v>
+        <v>8393.970856869561</v>
       </c>
       <c r="G18" t="n">
-        <v>7816.89732041318</v>
+        <v>8131.575490921147</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I18" t="n">
-        <v>561315</v>
+        <v>567766</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7022190</v>
+        <v>6960020</v>
       </c>
       <c r="E19" t="n">
-        <v>9671351</v>
+        <v>9585726</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>280905</v>
+        <v>294440</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>903602</v>
+        <v>892227</v>
       </c>
       <c r="E20" t="n">
-        <v>6325217</v>
+        <v>6245592</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>256413</v>
+        <v>256906</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>111373832</v>
+        <v>109857920</v>
       </c>
       <c r="E21" t="n">
-        <v>433028905</v>
+        <v>427110348</v>
       </c>
       <c r="F21" t="n">
-        <v>39664.99890218376</v>
+        <v>12610.87564152461</v>
       </c>
       <c r="G21" t="n">
-        <v>32276.15848460225</v>
+        <v>31675.35266247661</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>19530863</v>
+        <v>13195356</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1716083</v>
+        <v>1717819</v>
       </c>
       <c r="E22" t="n">
-        <v>12360799</v>
+        <v>12373302</v>
       </c>
       <c r="F22" t="n">
-        <v>5989.534793125712</v>
+        <v>5804.885141700142</v>
       </c>
       <c r="G22" t="n">
-        <v>5020.624148191769</v>
+        <v>4787.390041246739</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>53150</v>
+        <v>53389</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>142993558</v>
+        <v>141351176</v>
       </c>
       <c r="E23" t="n">
-        <v>142993558</v>
+        <v>141351176</v>
       </c>
       <c r="F23" t="n">
-        <v>986192.1972472749</v>
+        <v>1057084.454436078</v>
       </c>
       <c r="G23" t="n">
-        <v>970590.2078973018</v>
+        <v>1187801.706907608</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>87643120</v>
+        <v>87048824</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65828546</v>
+        <v>65080056</v>
       </c>
       <c r="E24" t="n">
-        <v>337582286</v>
+        <v>333743876</v>
       </c>
       <c r="F24" t="n">
-        <v>73314.92090428299</v>
+        <v>71444.75718130473</v>
       </c>
       <c r="G24" t="n">
-        <v>103454.4001838783</v>
+        <v>129182.1352936812</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>26993775</v>
+        <v>27082484</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>262646578</v>
+        <v>257452844</v>
       </c>
       <c r="E25" t="n">
-        <v>262646578</v>
+        <v>257452844</v>
       </c>
       <c r="F25" t="n">
-        <v>396593.6845811991</v>
+        <v>322899.0558052933</v>
       </c>
       <c r="G25" t="n">
-        <v>420836.7487741429</v>
+        <v>493759.4204972846</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>27192493</v>
+        <v>24047837</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1128484</v>
+        <v>1120383</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>136456</v>
+        <v>137538</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2588025</v>
+        <v>2660567</v>
       </c>
       <c r="E27" t="n">
-        <v>2864827</v>
+        <v>2950095</v>
       </c>
       <c r="F27" t="n">
-        <v>233.280443311454</v>
+        <v>10.28066241694412</v>
       </c>
       <c r="G27" t="n">
-        <v>62.55980296762552</v>
+        <v>352.2286427678901</v>
       </c>
       <c r="H27" t="n">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="I27" t="n">
-        <v>282448</v>
+        <v>297060</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3907618</v>
+        <v>3847112</v>
       </c>
       <c r="E28" t="n">
-        <v>3908332</v>
+        <v>3847820</v>
       </c>
       <c r="F28" t="n">
-        <v>1093.568532676312</v>
+        <v>715.0619331627389</v>
       </c>
       <c r="G28" t="n">
-        <v>2310.871817113771</v>
+        <v>3802.895262432268</v>
       </c>
       <c r="H28" t="n">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
-        <v>258285</v>
+        <v>260961</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7015908</v>
+        <v>7000336</v>
       </c>
       <c r="E29" t="n">
-        <v>17041101</v>
+        <v>17003278</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>455194</v>
+        <v>450671</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>99207825</v>
+        <v>97043731</v>
       </c>
       <c r="E30" t="n">
-        <v>123700528</v>
+        <v>121002157</v>
       </c>
       <c r="F30" t="n">
-        <v>105032.1840087229</v>
+        <v>119448.8302972659</v>
       </c>
       <c r="G30" t="n">
-        <v>107056.6506244085</v>
+        <v>107210.3867876004</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13630776</v>
+        <v>11531928</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1156165</v>
+        <v>1123871</v>
       </c>
       <c r="E31" t="n">
-        <v>12564769</v>
+        <v>12213809</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14774.81</v>
+        <v>14504.55</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>83109114</v>
+        <v>84663135</v>
       </c>
       <c r="E32" t="n">
-        <v>232487288</v>
+        <v>236833071</v>
       </c>
       <c r="F32" t="n">
-        <v>54892.63866181764</v>
+        <v>61236.6349788214</v>
       </c>
       <c r="G32" t="n">
-        <v>92645.07170461994</v>
+        <v>76692.06783148354</v>
       </c>
       <c r="H32" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I32" t="n">
-        <v>55828815</v>
+        <v>52262146</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4066552</v>
+        <v>4104713</v>
       </c>
       <c r="E33" t="n">
-        <v>8019584</v>
+        <v>8094840</v>
       </c>
       <c r="F33" t="n">
-        <v>8383.531650318706</v>
+        <v>423.5602287854927</v>
       </c>
       <c r="G33" t="n">
-        <v>6783.247839400676</v>
+        <v>159.1180732030632</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="I33" t="n">
-        <v>1631749</v>
+        <v>1646759</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36373206</v>
+        <v>36435657</v>
       </c>
       <c r="F34" t="n">
-        <v>243.7905420175811</v>
+        <v>250.0889158496044</v>
       </c>
       <c r="G34" t="n">
-        <v>430.7959570816632</v>
+        <v>430.7028509100301</v>
       </c>
       <c r="H34" t="n">
         <v>0.68</v>
       </c>
       <c r="I34" t="n">
-        <v>47400</v>
+        <v>45071</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17506747</v>
+        <v>17417834</v>
       </c>
       <c r="E35" t="n">
-        <v>18451700</v>
+        <v>18357988</v>
       </c>
       <c r="F35" t="n">
-        <v>3598.859900914359</v>
+        <v>3566.666388720399</v>
       </c>
       <c r="G35" t="n">
-        <v>2566.965181680651</v>
+        <v>2563.301349797483</v>
       </c>
       <c r="H35" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="I35" t="n">
-        <v>43368</v>
+        <v>42624</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23263418</v>
+        <v>23191422</v>
       </c>
       <c r="F36" t="n">
-        <v>4674.071765846606</v>
+        <v>4672.924015314474</v>
       </c>
       <c r="G36" t="n">
-        <v>269.1741081413067</v>
+        <v>235.536750888911</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="I36" t="n">
-        <v>126753</v>
+        <v>129964</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>88309895</v>
+        <v>86265425</v>
       </c>
       <c r="E37" t="n">
-        <v>184119039</v>
+        <v>179856483</v>
       </c>
       <c r="F37" t="n">
-        <v>91062.79737893419</v>
+        <v>58574.73814379735</v>
       </c>
       <c r="G37" t="n">
-        <v>93215.26537951441</v>
+        <v>58462.70999932421</v>
       </c>
       <c r="H37" t="n">
         <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>67217020</v>
+        <v>68540807</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>278910034</v>
+        <v>271589517</v>
       </c>
       <c r="E38" t="n">
-        <v>278910034</v>
+        <v>271589517</v>
       </c>
       <c r="F38" t="n">
-        <v>20969.95322485374</v>
+        <v>32687.68094891893</v>
       </c>
       <c r="G38" t="n">
-        <v>39842.43706758936</v>
+        <v>40823.85000698161</v>
       </c>
       <c r="H38" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>12128730</v>
+        <v>12343406</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>202657186</v>
+        <v>200180687</v>
       </c>
       <c r="E39" t="n">
-        <v>704049379</v>
+        <v>695445798</v>
       </c>
       <c r="F39" t="n">
-        <v>14021.7999450673</v>
+        <v>117417.4952640882</v>
       </c>
       <c r="G39" t="n">
-        <v>210338.1536052643</v>
+        <v>20456.75845719695</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>42185302</v>
+        <v>38936065</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3385892</v>
+        <v>3448223</v>
       </c>
       <c r="E40" t="n">
-        <v>3385892</v>
+        <v>3448223</v>
       </c>
       <c r="F40" t="n">
-        <v>947.7132989935245</v>
+        <v>838.4592771292852</v>
       </c>
       <c r="G40" t="n">
-        <v>2686.353470019439</v>
+        <v>1274.626907046299</v>
       </c>
       <c r="H40" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="I40" t="n">
-        <v>2447023</v>
+        <v>2520437</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>114734016</v>
+        <v>111317355</v>
       </c>
       <c r="E41" t="n">
-        <v>486875578</v>
+        <v>472315406</v>
       </c>
       <c r="F41" t="n">
-        <v>5350.884317816364</v>
+        <v>5711.193922334059</v>
       </c>
       <c r="G41" t="n">
-        <v>7300.126005927365</v>
+        <v>6641.319201929367</v>
       </c>
       <c r="H41" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="I41" t="n">
-        <v>15230362</v>
+        <v>15248129</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>555299</v>
+        <v>564750</v>
       </c>
       <c r="E42" t="n">
-        <v>6735240</v>
+        <v>6849866</v>
       </c>
       <c r="F42" t="n">
-        <v>282.4518152701606</v>
+        <v>386.9130635129673</v>
       </c>
       <c r="G42" t="n">
-        <v>400.062603456239</v>
+        <v>320.1109405404472</v>
       </c>
       <c r="H42" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="I42" t="n">
-        <v>2780429</v>
+        <v>2818391</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1393658030</v>
+        <v>1405326736</v>
       </c>
       <c r="E43" t="n">
-        <v>6682875666</v>
+        <v>6738829504</v>
       </c>
       <c r="F43" t="n">
-        <v>5295.646321798778</v>
+        <v>7356.770331403608</v>
       </c>
       <c r="G43" t="n">
-        <v>31868.89366925404</v>
+        <v>17542.3141029967</v>
       </c>
       <c r="H43" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="I43" t="n">
-        <v>425057035</v>
+        <v>450666310</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5926870875</v>
+        <v>5921045685</v>
       </c>
       <c r="E44" t="n">
-        <v>5926870875</v>
+        <v>5921045685</v>
       </c>
       <c r="F44" t="n">
-        <v>1495.419564017176</v>
+        <v>777688.8070516185</v>
       </c>
       <c r="G44" t="n">
-        <v>15477.6794463408</v>
+        <v>607813.1613988251</v>
       </c>
       <c r="H44" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>353490728</v>
+        <v>257954652</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>264243658</v>
+        <v>261764055</v>
       </c>
       <c r="E45" t="n">
-        <v>1140622320</v>
+        <v>1129918978</v>
       </c>
       <c r="F45" t="n">
-        <v>57786.32573844999</v>
+        <v>70078.32612572369</v>
       </c>
       <c r="G45" t="n">
-        <v>79388.93880114453</v>
+        <v>66315.35478152556</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I45" t="n">
-        <v>135605410</v>
+        <v>135857843</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114042911</v>
+        <v>113559378</v>
       </c>
       <c r="E46" t="n">
-        <v>114042911</v>
+        <v>113559378</v>
       </c>
       <c r="F46" t="n">
-        <v>29594.45825586533</v>
+        <v>23894.28935903511</v>
       </c>
       <c r="G46" t="n">
-        <v>43116.93136155336</v>
+        <v>45612.54229075511</v>
       </c>
       <c r="H46" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I46" t="n">
-        <v>6776637</v>
+        <v>6868978</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2030350158</v>
+        <v>2042864067</v>
       </c>
       <c r="E47" t="n">
-        <v>2030350158</v>
+        <v>2042864067</v>
       </c>
       <c r="F47" t="n">
-        <v>227418.2653312155</v>
+        <v>227538.7700084615</v>
       </c>
       <c r="G47" t="n">
-        <v>199346.5310410433</v>
+        <v>199350.2364788062</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I47" t="n">
-        <v>4346428233</v>
+        <v>8787723622</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10131690</v>
+        <v>10199394</v>
       </c>
       <c r="F48" t="n">
-        <v>6842.195838422039</v>
+        <v>6665.617093443582</v>
       </c>
       <c r="G48" t="n">
-        <v>6232.266487676816</v>
+        <v>6271.432406056588</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>183288</v>
+        <v>185940</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4307161</v>
+        <v>4302615</v>
       </c>
       <c r="E49" t="n">
-        <v>5654740</v>
+        <v>5648773</v>
       </c>
       <c r="F49" t="n">
-        <v>4814.449222522108</v>
+        <v>6639.828460542559</v>
       </c>
       <c r="G49" t="n">
-        <v>2499.926515892827</v>
+        <v>2415.300824669232</v>
       </c>
       <c r="H49" t="n">
-        <v>0.93</v>
+        <v>0.27</v>
       </c>
       <c r="I49" t="n">
-        <v>630987</v>
+        <v>624537</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12682342</v>
+        <v>12664776</v>
       </c>
       <c r="E50" t="n">
-        <v>18649145</v>
+        <v>18623315</v>
       </c>
       <c r="F50" t="n">
-        <v>7102.462091192868</v>
+        <v>6856.164516995522</v>
       </c>
       <c r="G50" t="n">
-        <v>6945.472242843562</v>
+        <v>6900.170127996885</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>7136010</v>
+        <v>7154773</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22706717</v>
+        <v>22841635</v>
       </c>
       <c r="E51" t="n">
-        <v>29455806</v>
+        <v>29630825</v>
       </c>
       <c r="F51" t="n">
-        <v>11609.55325374942</v>
+        <v>10068.98880983028</v>
       </c>
       <c r="G51" t="n">
-        <v>8836.590503387775</v>
+        <v>15573.01508078037</v>
       </c>
       <c r="H51" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>433443</v>
+        <v>423017</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14179415</v>
+        <v>13442480</v>
       </c>
       <c r="E52" t="n">
-        <v>14179415</v>
+        <v>13442480</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5355094</v>
+        <v>5395229</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98617529</v>
+        <v>98211930</v>
       </c>
       <c r="E53" t="n">
-        <v>121986353</v>
+        <v>121484642</v>
       </c>
       <c r="F53" t="n">
-        <v>1085.612648385779</v>
+        <v>607.9004155900027</v>
       </c>
       <c r="G53" t="n">
-        <v>4342.421328817349</v>
+        <v>3627.893609785631</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="I53" t="n">
-        <v>1003085</v>
+        <v>995876</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5090844</v>
+        <v>5051940</v>
       </c>
       <c r="E54" t="n">
-        <v>7122829</v>
+        <v>7068396</v>
       </c>
       <c r="F54" t="n">
-        <v>484.0024517355693</v>
+        <v>672.3613657518316</v>
       </c>
       <c r="G54" t="n">
-        <v>62.30094201588744</v>
+        <v>234.116984400344</v>
       </c>
       <c r="H54" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="I54" t="n">
-        <v>76207</v>
+        <v>69654</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14201645</v>
+        <v>14153175</v>
       </c>
       <c r="E55" t="n">
-        <v>68780835</v>
+        <v>68546086</v>
       </c>
       <c r="F55" t="n">
-        <v>15558.21024517574</v>
+        <v>20420.41193339305</v>
       </c>
       <c r="G55" t="n">
-        <v>7617.519149640892</v>
+        <v>15116.02540226015</v>
       </c>
       <c r="H55" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="I55" t="n">
-        <v>5205582</v>
+        <v>5332195</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>61299</v>
+        <v>57881</v>
       </c>
       <c r="E56" t="n">
-        <v>146823</v>
+        <v>138636</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13852.07</v>
+        <v>15759.72</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1860530458</v>
+        <v>1856419476</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>29594956</v>
+        <v>29927066</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12329582</v>
+        <v>12267301</v>
       </c>
       <c r="E58" t="n">
-        <v>17876115</v>
+        <v>17785817</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2008855</v>
+        <v>2024985</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>121240415</v>
+        <v>120739309</v>
       </c>
       <c r="E59" t="n">
-        <v>322430390</v>
+        <v>321097732</v>
       </c>
       <c r="F59" t="n">
-        <v>1423.173161794069</v>
+        <v>8124.185184833619</v>
       </c>
       <c r="G59" t="n">
-        <v>7253.84011252545</v>
+        <v>7023.488094731963</v>
       </c>
       <c r="H59" t="n">
-        <v>0.62</v>
+        <v>0.74</v>
       </c>
       <c r="I59" t="n">
-        <v>708238</v>
+        <v>679660</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30563955</v>
+        <v>29980370</v>
       </c>
       <c r="E60" t="n">
-        <v>95166349</v>
+        <v>93349254</v>
       </c>
       <c r="F60" t="n">
-        <v>1905.396980559997</v>
+        <v>3561.58047908755</v>
       </c>
       <c r="G60" t="n">
-        <v>4875.696035832603</v>
+        <v>6213.777645730788</v>
       </c>
       <c r="H60" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I60" t="n">
-        <v>10176545</v>
+        <v>10316926</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1935948</v>
+        <v>1928933</v>
       </c>
       <c r="E61" t="n">
-        <v>13882492</v>
+        <v>13832189</v>
       </c>
       <c r="F61" t="n">
-        <v>5425.42071915542</v>
+        <v>5420.695672210878</v>
       </c>
       <c r="G61" t="n">
-        <v>5011.12074368041</v>
+        <v>5051.020300152864</v>
       </c>
       <c r="H61" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I61" t="n">
-        <v>2012367</v>
+        <v>2030034</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>198258622</v>
+        <v>193156850</v>
       </c>
       <c r="E62" t="n">
-        <v>1122662138</v>
+        <v>1093772772</v>
       </c>
       <c r="F62" t="n">
-        <v>451323.8181697903</v>
+        <v>323955.5564754121</v>
       </c>
       <c r="G62" t="n">
-        <v>618392.463237125</v>
+        <v>588133.7527443698</v>
       </c>
       <c r="H62" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>82297105</v>
+        <v>83355054</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>494060</v>
+        <v>493483</v>
       </c>
       <c r="E63" t="n">
-        <v>1662938</v>
+        <v>1660995</v>
       </c>
       <c r="F63" t="n">
-        <v>4541.879282599311</v>
+        <v>4369.311830575039</v>
       </c>
       <c r="G63" t="n">
-        <v>457.1136553921995</v>
+        <v>408.7769572857799</v>
       </c>
       <c r="H63" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>630784</v>
+        <v>224255</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>354321</v>
+        <v>350661</v>
       </c>
       <c r="E64" t="n">
-        <v>354321</v>
+        <v>350661</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2302.45</v>
+        <v>2374.26</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>126229997</v>
+        <v>123290409</v>
       </c>
       <c r="E65" t="n">
-        <v>935037017</v>
+        <v>913262288</v>
       </c>
       <c r="F65" t="n">
-        <v>664.9644098918811</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>3548.281051571466</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2.75</v>
+        <v>5.44</v>
       </c>
       <c r="I65" t="n">
-        <v>20958336</v>
+        <v>24625151</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8621894</v>
+        <v>8670378</v>
       </c>
       <c r="E66" t="n">
-        <v>11550463</v>
+        <v>11615415</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>37508</v>
+        <v>37957</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35686337</v>
+        <v>35550203</v>
       </c>
       <c r="E67" t="n">
-        <v>35686337</v>
+        <v>35550203</v>
       </c>
       <c r="F67" t="n">
-        <v>8152.40313555592</v>
+        <v>8996.584816112467</v>
       </c>
       <c r="G67" t="n">
-        <v>7331.447482777908</v>
+        <v>6037.30931057124</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>955535</v>
+        <v>970118</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1543692</v>
+        <v>1534821</v>
       </c>
       <c r="E68" t="n">
-        <v>11988491</v>
+        <v>11919593</v>
       </c>
       <c r="F68" t="n">
-        <v>16199.75032022716</v>
+        <v>16251.71434590434</v>
       </c>
       <c r="G68" t="n">
-        <v>19829.45925984816</v>
+        <v>22217.96799711138</v>
       </c>
       <c r="H68" t="n">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="I68" t="n">
-        <v>462342</v>
+        <v>517833</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>329671300</v>
+        <v>326000137</v>
       </c>
       <c r="E69" t="n">
-        <v>2965927440</v>
+        <v>2932899378</v>
       </c>
       <c r="F69" t="n">
-        <v>891768.3298025293</v>
+        <v>1023919.060715947</v>
       </c>
       <c r="G69" t="n">
-        <v>1097407.657193515</v>
+        <v>1251296.982300477</v>
       </c>
       <c r="H69" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>59976324</v>
+        <v>63119774</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246240</v>
+        <v>246587</v>
       </c>
       <c r="E70" t="n">
-        <v>2173257</v>
+        <v>2176318</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>70572</v>
+        <v>68357</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1554581</v>
+        <v>1549443</v>
       </c>
       <c r="E71" t="n">
-        <v>12954844</v>
+        <v>12912021</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>28074</v>
+        <v>29095</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9547988</v>
+        <v>9519128</v>
       </c>
       <c r="E72" t="n">
-        <v>44255471</v>
+        <v>44121704</v>
       </c>
       <c r="F72" t="n">
-        <v>10669.97616167699</v>
+        <v>10858.51251691498</v>
       </c>
       <c r="G72" t="n">
-        <v>2414.655955774018</v>
+        <v>4059.949360053809</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="I72" t="n">
-        <v>133750</v>
+        <v>130023</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46882250</v>
+        <v>47101886</v>
       </c>
       <c r="E73" t="n">
-        <v>271428855</v>
+        <v>272700457</v>
       </c>
       <c r="F73" t="n">
-        <v>121439.0074598164</v>
+        <v>134373.9877982896</v>
       </c>
       <c r="G73" t="n">
-        <v>124501.3229648352</v>
+        <v>161339.3068759516</v>
       </c>
       <c r="H73" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>48815978</v>
+        <v>51409222</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39506272</v>
+        <v>39254042</v>
       </c>
       <c r="E74" t="n">
-        <v>54563787</v>
+        <v>54215422</v>
       </c>
       <c r="F74" t="n">
-        <v>838.2936104748003</v>
+        <v>4745.953612928335</v>
       </c>
       <c r="G74" t="n">
-        <v>664.9843639141237</v>
+        <v>4440.397142922571</v>
       </c>
       <c r="H74" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="I74" t="n">
-        <v>320914</v>
+        <v>316753</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>109295</v>
+        <v>109524</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3943.22</v>
+        <v>3928.33</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13845549</v>
+        <v>13672429</v>
       </c>
       <c r="E76" t="n">
-        <v>13892667</v>
+        <v>13718958</v>
       </c>
       <c r="F76" t="n">
-        <v>749.1734454504796</v>
+        <v>1898.070768651161</v>
       </c>
       <c r="G76" t="n">
-        <v>6490.312211069083</v>
+        <v>5820.32271986914</v>
       </c>
       <c r="H76" t="n">
         <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>6790426</v>
+        <v>6069535</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42725139</v>
+        <v>42617679</v>
       </c>
       <c r="E77" t="n">
-        <v>72537347</v>
+        <v>72354904</v>
       </c>
       <c r="F77" t="n">
-        <v>6234.725634298092</v>
+        <v>6063.177757791735</v>
       </c>
       <c r="G77" t="n">
-        <v>9109.993142676531</v>
+        <v>6262.716137058718</v>
       </c>
       <c r="H77" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1079051</v>
+        <v>1330079</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19664451</v>
+        <v>19827537</v>
       </c>
       <c r="E78" t="n">
-        <v>58954259</v>
+        <v>59443415</v>
       </c>
       <c r="F78" t="n">
-        <v>47797.84000444187</v>
+        <v>32584.4167419584</v>
       </c>
       <c r="G78" t="n">
-        <v>33333.58089797942</v>
+        <v>31933.29898108488</v>
       </c>
       <c r="H78" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>4139811</v>
+        <v>4340571</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101418280</v>
+        <v>100911154</v>
       </c>
       <c r="E79" t="n">
-        <v>107816797</v>
+        <v>107277676</v>
       </c>
       <c r="F79" t="n">
-        <v>2425.986560828273</v>
+        <v>2249.106226661804</v>
       </c>
       <c r="G79" t="n">
-        <v>1163.461210673737</v>
+        <v>2420.97201769647</v>
       </c>
       <c r="H79" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="I79" t="n">
-        <v>494950</v>
+        <v>1800992</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10412366</v>
+        <v>10465722</v>
       </c>
       <c r="E80" t="n">
-        <v>45326254</v>
+        <v>45446766</v>
       </c>
       <c r="F80" t="n">
-        <v>5713.330316816657</v>
+        <v>5869.271348813005</v>
       </c>
       <c r="G80" t="n">
-        <v>6082.754266639946</v>
+        <v>5889.396097707673</v>
       </c>
       <c r="H80" t="n">
-        <v>0.59</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>119197</v>
+        <v>122545</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15745219</v>
+        <v>15836729</v>
       </c>
       <c r="E81" t="n">
-        <v>96507624</v>
+        <v>97068518</v>
       </c>
       <c r="F81" t="n">
-        <v>4912.272431792178</v>
+        <v>1392.89365048477</v>
       </c>
       <c r="G81" t="n">
-        <v>6082.06649787673</v>
+        <v>2251.551005213989</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>1.03</v>
       </c>
       <c r="I81" t="n">
-        <v>11325025</v>
+        <v>11869709</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1484565</v>
+        <v>1482016</v>
       </c>
       <c r="E82" t="n">
-        <v>1526325</v>
+        <v>1523704</v>
       </c>
       <c r="F82" t="n">
-        <v>1145.397659370652</v>
+        <v>2658.006808630956</v>
       </c>
       <c r="G82" t="n">
-        <v>3076.584013445519</v>
+        <v>1829.790061589713</v>
       </c>
       <c r="H82" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I82" t="n">
-        <v>149368</v>
+        <v>150177</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49176497</v>
+        <v>47420313</v>
       </c>
       <c r="E83" t="n">
-        <v>211846970</v>
+        <v>204281523</v>
       </c>
       <c r="F83" t="n">
-        <v>336.8588630034201</v>
+        <v>691.8515305952868</v>
       </c>
       <c r="G83" t="n">
-        <v>2059.921490958229</v>
+        <v>577.0121501684742</v>
       </c>
       <c r="H83" t="n">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="I83" t="n">
-        <v>12014089</v>
+        <v>11924503</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2256180</v>
+        <v>2390414</v>
       </c>
       <c r="E84" t="n">
-        <v>8191042</v>
+        <v>8677214</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>207815</v>
+        <v>220826</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8883818</v>
+        <v>8886717</v>
       </c>
       <c r="E85" t="n">
-        <v>19703046</v>
+        <v>19709474</v>
       </c>
       <c r="F85" t="n">
-        <v>5275.600712766336</v>
+        <v>6165.828575566677</v>
       </c>
       <c r="G85" t="n">
-        <v>3797.390602420503</v>
+        <v>7470.529865948712</v>
       </c>
       <c r="H85" t="n">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>320884</v>
+        <v>334729</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2442373</v>
+        <v>2443183</v>
       </c>
       <c r="E86" t="n">
-        <v>18378230</v>
+        <v>18384326</v>
       </c>
       <c r="F86" t="n">
-        <v>4903.255862666236</v>
+        <v>5259.300230795923</v>
       </c>
       <c r="G86" t="n">
-        <v>12098.66741275069</v>
+        <v>11973.97533350526</v>
       </c>
       <c r="H86" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161511</v>
+        <v>161344</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18659276</v>
+        <v>18462240</v>
       </c>
       <c r="E87" t="n">
-        <v>74637103</v>
+        <v>73848961</v>
       </c>
       <c r="F87" t="n">
-        <v>832.1030988101329</v>
+        <v>94.40513954723168</v>
       </c>
       <c r="G87" t="n">
-        <v>108.0236210180435</v>
+        <v>1146.925908095055</v>
       </c>
       <c r="H87" t="n">
-        <v>3.49</v>
+        <v>2.83</v>
       </c>
       <c r="I87" t="n">
-        <v>2397570</v>
+        <v>2675301</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4619844</v>
+        <v>4612758</v>
       </c>
       <c r="E88" t="n">
-        <v>4619844</v>
+        <v>4612758</v>
       </c>
       <c r="F88" t="n">
-        <v>586.3787063378687</v>
+        <v>432.9126599843228</v>
       </c>
       <c r="G88" t="n">
-        <v>415.594464203409</v>
+        <v>2419.631329070952</v>
       </c>
       <c r="H88" t="n">
-        <v>0.15</v>
+        <v>0.58</v>
       </c>
       <c r="I88" t="n">
-        <v>2892861</v>
+        <v>2878888</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12513869</v>
+        <v>12403730</v>
       </c>
       <c r="E89" t="n">
-        <v>39579944</v>
+        <v>39231588</v>
       </c>
       <c r="F89" t="n">
-        <v>17921.73275294841</v>
+        <v>18918.41537215838</v>
       </c>
       <c r="G89" t="n">
-        <v>8174.843013975044</v>
+        <v>14093.63694085028</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I89" t="n">
-        <v>921437</v>
+        <v>976721</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24910</v>
+        <v>24849</v>
       </c>
       <c r="E90" t="n">
-        <v>195908</v>
+        <v>195428</v>
       </c>
       <c r="F90" t="n">
-        <v>319.1257057734821</v>
+        <v>327.8014546002998</v>
       </c>
       <c r="G90" t="n">
-        <v>670.871423296295</v>
+        <v>671.198537151488</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>46927</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8656398</v>
+        <v>8577797</v>
       </c>
       <c r="E91" t="n">
-        <v>8656398</v>
+        <v>8577797</v>
       </c>
       <c r="F91" t="n">
-        <v>2308.223916769997</v>
+        <v>4098.570328949354</v>
       </c>
       <c r="G91" t="n">
-        <v>3129.075878108568</v>
+        <v>4435.034233228986</v>
       </c>
       <c r="H91" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I91" t="n">
-        <v>3925063</v>
+        <v>3931064</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9705276</v>
+        <v>9376442</v>
       </c>
       <c r="E92" t="n">
-        <v>9705276</v>
+        <v>9376442</v>
       </c>
       <c r="F92" t="n">
-        <v>1911.436938532748</v>
+        <v>7524.79984600652</v>
       </c>
       <c r="G92" t="n">
-        <v>6843.303503113462</v>
+        <v>3913.543368852001</v>
       </c>
       <c r="H92" t="n">
-        <v>0.24</v>
+        <v>0.74</v>
       </c>
       <c r="I92" t="n">
-        <v>2206239</v>
+        <v>2208171</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>32033370</v>
+        <v>32003985</v>
       </c>
       <c r="E93" t="n">
-        <v>80772780</v>
+        <v>80698684</v>
       </c>
       <c r="F93" t="n">
-        <v>1.178110245209159</v>
+        <v>314.963530868844</v>
       </c>
       <c r="G93" t="n">
-        <v>821.7083592325863</v>
+        <v>10080.36857587642</v>
       </c>
       <c r="H93" t="n">
-        <v>3.06</v>
+        <v>0.99</v>
       </c>
       <c r="I93" t="n">
-        <v>4635287</v>
+        <v>5885918</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>307783712</v>
+        <v>305821548</v>
       </c>
       <c r="E94" t="n">
-        <v>312597016</v>
+        <v>310604810</v>
       </c>
       <c r="F94" t="n">
-        <v>3018.296029525617</v>
+        <v>15316.29238807561</v>
       </c>
       <c r="G94" t="n">
-        <v>18294.66356101098</v>
+        <v>51468.72229113742</v>
       </c>
       <c r="H94" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>27004790</v>
+        <v>24303160</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1025.735532627517</v>
+        <v>1099.996729579414</v>
       </c>
       <c r="G95" t="n">
-        <v>6327.47245305667</v>
+        <v>6430.298221346646</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>218996</v>
+        <v>216596</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>82061696</v>
+        <v>81556433</v>
       </c>
       <c r="E96" t="n">
-        <v>82061696</v>
+        <v>81556433</v>
       </c>
       <c r="F96" t="n">
-        <v>6964.613458631537</v>
+        <v>8422.696923764674</v>
       </c>
       <c r="G96" t="n">
-        <v>7065.183949893093</v>
+        <v>7137.232975777942</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1</v>
+        <v>0.59</v>
       </c>
       <c r="I96" t="n">
-        <v>4895344</v>
+        <v>4735495</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="E97" t="n">
-        <v>295882646</v>
+        <v>294635724</v>
       </c>
       <c r="F97" t="n">
-        <v>306882.2083427425</v>
+        <v>275242.3102534954</v>
       </c>
       <c r="G97" t="n">
-        <v>409456.5343656921</v>
+        <v>463093.9739969598</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>85516683</v>
+        <v>88311754</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4282683</v>
+        <v>4158481</v>
       </c>
       <c r="E98" t="n">
-        <v>29263273</v>
+        <v>28414608</v>
       </c>
       <c r="F98" t="n">
-        <v>4667.547322047454</v>
+        <v>216.7266826612084</v>
       </c>
       <c r="G98" t="n">
-        <v>5072.77804499903</v>
+        <v>2095.895848997404</v>
       </c>
       <c r="H98" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="I98" t="n">
-        <v>2668845</v>
+        <v>2686076</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>87160648</v>
+        <v>86098018</v>
       </c>
       <c r="E99" t="n">
-        <v>502257247</v>
+        <v>496133915</v>
       </c>
       <c r="F99" t="n">
-        <v>30047.47012664753</v>
+        <v>38045.89362591812</v>
       </c>
       <c r="G99" t="n">
-        <v>31839.20618221867</v>
+        <v>42072.15929293272</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="I99" t="n">
-        <v>20223233</v>
+        <v>20384559</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107100728</v>
+        <v>106168357</v>
       </c>
       <c r="E100" t="n">
-        <v>263509635</v>
+        <v>261215637</v>
       </c>
       <c r="F100" t="n">
-        <v>32466.12559527636</v>
+        <v>30419.44280872968</v>
       </c>
       <c r="G100" t="n">
-        <v>42803.96888901953</v>
+        <v>46295.68930259033</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I100" t="n">
-        <v>2562351</v>
+        <v>2607631</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>242489699</v>
+        <v>237828912</v>
       </c>
       <c r="E101" t="n">
-        <v>242492108</v>
+        <v>237831275</v>
       </c>
       <c r="F101" t="n">
-        <v>42207.55423697335</v>
+        <v>44641.83636486918</v>
       </c>
       <c r="G101" t="n">
-        <v>29705.94450894086</v>
+        <v>3694.907854164791</v>
       </c>
       <c r="H101" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="I101" t="n">
-        <v>1794869</v>
+        <v>1826611</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30113151</v>
+        <v>29347489</v>
       </c>
       <c r="E102" t="n">
-        <v>134828931</v>
+        <v>131400748</v>
       </c>
       <c r="F102" t="n">
-        <v>60779.36348726339</v>
+        <v>63499.95053865114</v>
       </c>
       <c r="G102" t="n">
-        <v>92935.71293584454</v>
+        <v>120938.6573687163</v>
       </c>
       <c r="H102" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>12283267</v>
+        <v>13186994</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3062720</v>
+        <v>3012787</v>
       </c>
       <c r="E103" t="n">
-        <v>3062720</v>
+        <v>3012787</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>382475</v>
+        <v>376776</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5788658</v>
+        <v>5791191</v>
       </c>
       <c r="E104" t="n">
-        <v>15192327</v>
+        <v>15198974</v>
       </c>
       <c r="F104" t="n">
-        <v>633.9939268940074</v>
+        <v>519.7710408748417</v>
       </c>
       <c r="G104" t="n">
-        <v>4.541508938154845</v>
+        <v>34.83440061802283</v>
       </c>
       <c r="H104" t="n">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
       <c r="I104" t="n">
-        <v>23837</v>
+        <v>23763</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16315246</v>
+        <v>16069445</v>
       </c>
       <c r="E105" t="n">
-        <v>75308971</v>
+        <v>74174387</v>
       </c>
       <c r="F105" t="n">
-        <v>28883.39831580203</v>
+        <v>4292.08769244112</v>
       </c>
       <c r="G105" t="n">
-        <v>12170.01237670569</v>
+        <v>3720.855148351955</v>
       </c>
       <c r="H105" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1088482</v>
+        <v>1214337</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50055500</v>
+        <v>49246928</v>
       </c>
       <c r="E106" t="n">
-        <v>324596596</v>
+        <v>319353218</v>
       </c>
       <c r="F106" t="n">
-        <v>112733.9239706241</v>
+        <v>124025.6953226233</v>
       </c>
       <c r="G106" t="n">
-        <v>131968.3058043658</v>
+        <v>125948.5974796308</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>19566124</v>
+        <v>20201021</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2465525</v>
+        <v>2480140</v>
       </c>
       <c r="E107" t="n">
-        <v>4466763</v>
+        <v>4493241</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>143078</v>
+        <v>140597</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123198170</v>
+        <v>124080695</v>
       </c>
       <c r="E108" t="n">
-        <v>2040262602</v>
+        <v>2054877940</v>
       </c>
       <c r="F108" t="n">
-        <v>55616.28880557945</v>
+        <v>28174.45632303606</v>
       </c>
       <c r="G108" t="n">
-        <v>29182.06330784057</v>
+        <v>76180.29506449815</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I108" t="n">
-        <v>22597949</v>
+        <v>30930272</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23917265</v>
+        <v>23589878</v>
       </c>
       <c r="E109" t="n">
-        <v>143101806</v>
+        <v>141142980</v>
       </c>
       <c r="F109" t="n">
-        <v>41090.65724968719</v>
+        <v>40906.27001286868</v>
       </c>
       <c r="G109" t="n">
-        <v>40054.01330793304</v>
+        <v>39811.90430372943</v>
       </c>
       <c r="H109" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>16504268</v>
+        <v>16743510</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1096950</v>
+        <v>1082817</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>82446</v>
+        <v>86131</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2194585</v>
+        <v>2213205</v>
       </c>
       <c r="F111" t="n">
-        <v>3662.31441426283</v>
+        <v>3746.398302287147</v>
       </c>
       <c r="G111" t="n">
-        <v>273.051854132786</v>
+        <v>194.77221104887</v>
       </c>
       <c r="H111" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="I111" t="n">
-        <v>176444</v>
+        <v>178059</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147270051</v>
+        <v>147441959</v>
       </c>
       <c r="F112" t="n">
-        <v>8849.851308787282</v>
+        <v>8557.894918704375</v>
       </c>
       <c r="G112" t="n">
-        <v>3048.09926933313</v>
+        <v>3047.48646656834</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>53453</v>
+        <v>56211</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6310656</v>
+        <v>6371281</v>
       </c>
       <c r="E113" t="n">
-        <v>32466408</v>
+        <v>32778302</v>
       </c>
       <c r="F113" t="n">
-        <v>934.3826102500209</v>
+        <v>2289.540979596139</v>
       </c>
       <c r="G113" t="n">
-        <v>2446.408609299422</v>
+        <v>2506.691821355201</v>
       </c>
       <c r="H113" t="n">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="I113" t="n">
-        <v>945360</v>
+        <v>954414</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29427110</v>
+        <v>29605541</v>
       </c>
       <c r="E114" t="n">
-        <v>40349712</v>
+        <v>40594372</v>
       </c>
       <c r="F114" t="n">
-        <v>4421.754739843682</v>
+        <v>5502.267227089505</v>
       </c>
       <c r="G114" t="n">
-        <v>4954.226295143293</v>
+        <v>6013.939741954127</v>
       </c>
       <c r="H114" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I114" t="n">
-        <v>204146</v>
+        <v>213363</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7636783</v>
+        <v>7619694</v>
       </c>
       <c r="F115" t="n">
-        <v>1711.957537267373</v>
+        <v>2117.544272366615</v>
       </c>
       <c r="G115" t="n">
-        <v>5419.267578275512</v>
+        <v>5738.841492773706</v>
       </c>
       <c r="H115" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>653710</v>
+        <v>655463</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3403366</v>
+        <v>3406494</v>
       </c>
       <c r="E116" t="n">
-        <v>4559024</v>
+        <v>4563214</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149381</v>
+        <v>148343</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>33186359</v>
+        <v>32954211</v>
       </c>
       <c r="E117" t="n">
-        <v>165615228</v>
+        <v>164456705</v>
       </c>
       <c r="F117" t="n">
-        <v>71742.50125666389</v>
+        <v>85173.71687545763</v>
       </c>
       <c r="G117" t="n">
-        <v>59196.26636010893</v>
+        <v>60525.26242513516</v>
       </c>
       <c r="H117" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>13319786</v>
+        <v>13550134</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3492831</v>
+        <v>3496433</v>
       </c>
       <c r="E118" t="n">
-        <v>5017517</v>
+        <v>5022691</v>
       </c>
       <c r="F118" t="n">
-        <v>541.8217000924744</v>
+        <v>541.7045983802274</v>
       </c>
       <c r="G118" t="n">
-        <v>650.0394817642341</v>
+        <v>649.9233868512759</v>
       </c>
       <c r="H118" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="I118" t="n">
-        <v>145423</v>
+        <v>146095</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>311770540</v>
+        <v>301568210</v>
       </c>
       <c r="E119" t="n">
-        <v>576846598</v>
+        <v>557969961</v>
       </c>
       <c r="F119" t="n">
-        <v>61456.10418863051</v>
+        <v>29728.51589689996</v>
       </c>
       <c r="G119" t="n">
-        <v>40652.55108182807</v>
+        <v>35468.35702753909</v>
       </c>
       <c r="H119" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>16032821</v>
+        <v>16000790</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70650229</v>
+        <v>70512654</v>
       </c>
       <c r="E120" t="n">
-        <v>673898677</v>
+        <v>672579048</v>
       </c>
       <c r="F120" t="n">
-        <v>1251.835969687386</v>
+        <v>2601.46454461238</v>
       </c>
       <c r="G120" t="n">
-        <v>2132.771980200524</v>
+        <v>2753.117013143311</v>
       </c>
       <c r="H120" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>22552300</v>
+        <v>23101514</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37465829</v>
+        <v>36609833</v>
       </c>
       <c r="E121" t="n">
-        <v>48981173</v>
+        <v>47861881</v>
       </c>
       <c r="F121" t="n">
-        <v>396.5487860331702</v>
+        <v>5894.518381852496</v>
       </c>
       <c r="G121" t="n">
-        <v>5807.461719472503</v>
+        <v>6571.235400314901</v>
       </c>
       <c r="H121" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I121" t="n">
-        <v>422585</v>
+        <v>430844</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9519033</v>
+        <v>9157599</v>
       </c>
       <c r="E122" t="n">
-        <v>28219538</v>
+        <v>27148054</v>
       </c>
       <c r="F122" t="n">
-        <v>2464.11467153397</v>
+        <v>594.2160564999322</v>
       </c>
       <c r="G122" t="n">
-        <v>7241.596612403826</v>
+        <v>4997.200567186088</v>
       </c>
       <c r="H122" t="n">
-        <v>0.62</v>
+        <v>1.01</v>
       </c>
       <c r="I122" t="n">
-        <v>6119321</v>
+        <v>6215706</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2306041</v>
+        <v>2297326</v>
       </c>
       <c r="E123" t="n">
-        <v>7705944</v>
+        <v>7676821</v>
       </c>
       <c r="F123" t="n">
-        <v>637.3103050139126</v>
+        <v>546.8882011737185</v>
       </c>
       <c r="G123" t="n">
-        <v>1631.371279327103</v>
+        <v>1491.286360693867</v>
       </c>
       <c r="H123" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I123" t="n">
-        <v>947212</v>
+        <v>921047</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7239278</v>
+        <v>7327808</v>
       </c>
       <c r="E124" t="n">
-        <v>7239289</v>
+        <v>7327819</v>
       </c>
       <c r="F124" t="n">
-        <v>152.3850562519724</v>
+        <v>263.4811988029102</v>
       </c>
       <c r="G124" t="n">
-        <v>487.3403099541531</v>
+        <v>457.9466555172428</v>
       </c>
       <c r="H124" t="n">
-        <v>0.74</v>
+        <v>1.93</v>
       </c>
       <c r="I124" t="n">
-        <v>271443</v>
+        <v>265393</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6178866</v>
+        <v>6076277</v>
       </c>
       <c r="E125" t="n">
-        <v>6178866</v>
+        <v>6076277</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>482117</v>
+        <v>211268</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6234865</v>
+        <v>6234781</v>
       </c>
       <c r="E126" t="n">
-        <v>22773550</v>
+        <v>22773243</v>
       </c>
       <c r="F126" t="n">
-        <v>7123.226616418317</v>
+        <v>7323.855018069094</v>
       </c>
       <c r="G126" t="n">
-        <v>8800.445522074489</v>
+        <v>8457.514052256691</v>
       </c>
       <c r="H126" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="I126" t="n">
-        <v>508547</v>
+        <v>555419</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44383621</v>
+        <v>44448933</v>
       </c>
       <c r="E127" t="n">
-        <v>44383621</v>
+        <v>44448933</v>
       </c>
       <c r="F127" t="n">
-        <v>71610.05680308756</v>
+        <v>58789.76470185778</v>
       </c>
       <c r="G127" t="n">
-        <v>68050.25364508758</v>
+        <v>89010.4432849196</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>10228798</v>
+        <v>10616234</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>146211724</v>
+        <v>145297883</v>
       </c>
       <c r="F128" t="n">
-        <v>5705.207352092963</v>
+        <v>577.6756325062697</v>
       </c>
       <c r="G128" t="n">
-        <v>2831.166397282527</v>
+        <v>3395.480939152104</v>
       </c>
       <c r="H128" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I128" t="n">
-        <v>1880517</v>
+        <v>1777110</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2902789</v>
+        <v>2903702</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72647</v>
+        <v>73119</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19749163</v>
+        <v>19481304</v>
       </c>
       <c r="F130" t="n">
-        <v>407.1936540022918</v>
+        <v>401.6385577004623</v>
       </c>
       <c r="G130" t="n">
-        <v>461.056687786347</v>
+        <v>1064.618674444483</v>
       </c>
       <c r="H130" t="n">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="I130" t="n">
-        <v>2961269</v>
+        <v>2951342</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1274788</v>
+        <v>1293107</v>
       </c>
       <c r="E131" t="n">
-        <v>3856644</v>
+        <v>3914487</v>
       </c>
       <c r="F131" t="n">
-        <v>802.9818582141487</v>
+        <v>807.0908379643471</v>
       </c>
       <c r="G131" t="n">
-        <v>691.9376424202902</v>
+        <v>694.9311679796673</v>
       </c>
       <c r="H131" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>37098</v>
+        <v>41140</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>590717947</v>
+        <v>588392091</v>
       </c>
       <c r="E132" t="n">
-        <v>2287763456</v>
+        <v>2278755759</v>
       </c>
       <c r="F132" t="n">
-        <v>822722.2862679376</v>
+        <v>919481.453625838</v>
       </c>
       <c r="G132" t="n">
-        <v>805091.7462429715</v>
+        <v>1036531.282872978</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>53097475</v>
+        <v>54924357</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3689020</v>
+        <v>3658074</v>
       </c>
       <c r="E133" t="n">
-        <v>6288436</v>
+        <v>6235684</v>
       </c>
       <c r="F133" t="n">
-        <v>5391.982107235777</v>
+        <v>5566.172833009319</v>
       </c>
       <c r="G133" t="n">
-        <v>5046.786247976131</v>
+        <v>5198.439548237762</v>
       </c>
       <c r="H133" t="n">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="I133" t="n">
-        <v>1151122</v>
+        <v>1130847</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>112303794</v>
+        <v>110946114</v>
       </c>
       <c r="E134" t="n">
-        <v>1043446975</v>
+        <v>1030832387</v>
       </c>
       <c r="F134" t="n">
-        <v>83121.67782841096</v>
+        <v>87138.23030052771</v>
       </c>
       <c r="G134" t="n">
-        <v>87140.34756073046</v>
+        <v>87947.60553264001</v>
       </c>
       <c r="H134" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I134" t="n">
-        <v>15783983</v>
+        <v>14484267</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>978970398</v>
+        <v>952809623</v>
       </c>
       <c r="E135" t="n">
-        <v>1075401665</v>
+        <v>1046663983</v>
       </c>
       <c r="F135" t="n">
-        <v>10451.16556650533</v>
+        <v>11980.11034175707</v>
       </c>
       <c r="G135" t="n">
-        <v>12838.69935800093</v>
+        <v>19155.31221658316</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I135" t="n">
-        <v>8660418</v>
+        <v>9430325</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1069048</v>
+        <v>1076493</v>
       </c>
       <c r="E136" t="n">
-        <v>4139588</v>
+        <v>4168416</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>222477</v>
+        <v>311442</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>123945413</v>
+        <v>122644295</v>
       </c>
       <c r="E137" t="n">
-        <v>475474553</v>
+        <v>470483257</v>
       </c>
       <c r="F137" t="n">
-        <v>173836.269741154</v>
+        <v>183990.0798807072</v>
       </c>
       <c r="G137" t="n">
-        <v>208785.9441082484</v>
+        <v>225525.3491378354</v>
       </c>
       <c r="H137" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>40389910</v>
+        <v>40270557</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3096449</v>
+        <v>3024448</v>
       </c>
       <c r="E138" t="n">
-        <v>29339317</v>
+        <v>28657093</v>
       </c>
       <c r="F138" t="n">
-        <v>4256.573297988276</v>
+        <v>4144.778357047774</v>
       </c>
       <c r="G138" t="n">
-        <v>4633.354032169873</v>
+        <v>4437.498125958507</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I138" t="n">
-        <v>189535</v>
+        <v>217550</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21829889</v>
+        <v>21349408</v>
       </c>
       <c r="E139" t="n">
-        <v>21829889</v>
+        <v>21349408</v>
       </c>
       <c r="F139" t="n">
-        <v>9096.620592922169</v>
+        <v>586.7139036921747</v>
       </c>
       <c r="G139" t="n">
-        <v>6220.279321648884</v>
+        <v>868.4186473789633</v>
       </c>
       <c r="H139" t="n">
-        <v>0.87</v>
+        <v>0.51</v>
       </c>
       <c r="I139" t="n">
-        <v>519922</v>
+        <v>525802</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>492136436</v>
+        <v>494970872</v>
       </c>
       <c r="E140" t="n">
-        <v>492136436</v>
+        <v>494970872</v>
       </c>
       <c r="F140" t="n">
-        <v>726418.4807021553</v>
+        <v>805036.317699817</v>
       </c>
       <c r="G140" t="n">
-        <v>904368.1766182184</v>
+        <v>896510.8745578696</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>40382560</v>
+        <v>42167702</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35122568</v>
+        <v>36432065</v>
       </c>
       <c r="F141" t="n">
-        <v>78566.93734448159</v>
+        <v>57404.13923956036</v>
       </c>
       <c r="G141" t="n">
-        <v>104985.5611619086</v>
+        <v>87657.78370229709</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="I141" t="n">
-        <v>7346881</v>
+        <v>7233781</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>807392</v>
+        <v>797802</v>
       </c>
       <c r="E142" t="n">
-        <v>12877608</v>
+        <v>12724659</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>111.8590762452515</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>117.8522375945399</v>
       </c>
       <c r="H142" t="n">
-        <v>4.08</v>
+        <v>2.81</v>
       </c>
       <c r="I142" t="n">
-        <v>329650</v>
+        <v>332011</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2621053844</v>
+        <v>2571703836</v>
       </c>
       <c r="E143" t="n">
-        <v>2782877176</v>
+        <v>2730480309</v>
       </c>
       <c r="F143" t="n">
-        <v>3399.357606212076</v>
+        <v>2947.558737692987</v>
       </c>
       <c r="G143" t="n">
-        <v>22935.29282891041</v>
+        <v>18438.40205602424</v>
       </c>
       <c r="H143" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="I143" t="n">
-        <v>55384170</v>
+        <v>56082690</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1734735</v>
+        <v>1718446</v>
       </c>
       <c r="E144" t="n">
-        <v>1740859</v>
+        <v>1724512</v>
       </c>
       <c r="F144" t="n">
-        <v>7595.522236145235</v>
+        <v>607.2945476760403</v>
       </c>
       <c r="G144" t="n">
-        <v>1960.722499101016</v>
+        <v>248.386154913559</v>
       </c>
       <c r="H144" t="n">
-        <v>1.16</v>
+        <v>0.38</v>
       </c>
       <c r="I144" t="n">
-        <v>449090</v>
+        <v>469801</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>58292504</v>
+        <v>58206094</v>
       </c>
       <c r="E145" t="n">
-        <v>142987562</v>
+        <v>142775604</v>
       </c>
       <c r="F145" t="n">
-        <v>5396.804909828178</v>
+        <v>2562.857675075111</v>
       </c>
       <c r="G145" t="n">
-        <v>5153.445341005601</v>
+        <v>4293.922780906704</v>
       </c>
       <c r="H145" t="n">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="I145" t="n">
-        <v>21929974</v>
+        <v>21942298</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>801294414</v>
+        <v>769600166</v>
       </c>
       <c r="E146" t="n">
-        <v>1235666735</v>
+        <v>1186791405</v>
       </c>
       <c r="F146" t="n">
-        <v>225182.9657525131</v>
+        <v>216029.987353085</v>
       </c>
       <c r="G146" t="n">
-        <v>195325.6550794544</v>
+        <v>178069.8345382617</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>338290718</v>
+        <v>277170466</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22453937</v>
+        <v>21681096</v>
       </c>
       <c r="E147" t="n">
-        <v>22453937</v>
+        <v>21681096</v>
       </c>
       <c r="F147" t="n">
-        <v>5255.928406556091</v>
+        <v>3821.718133446637</v>
       </c>
       <c r="G147" t="n">
-        <v>2660.836877998244</v>
+        <v>2795.695587253551</v>
       </c>
       <c r="H147" t="n">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
       <c r="I147" t="n">
-        <v>5642802</v>
+        <v>5623922</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3812086</v>
+        <v>3814577</v>
       </c>
       <c r="E148" t="n">
-        <v>8309812</v>
+        <v>8315242</v>
       </c>
       <c r="F148" t="n">
-        <v>6798.996265309517</v>
+        <v>6939.164385064078</v>
       </c>
       <c r="G148" t="n">
-        <v>7082.484690875</v>
+        <v>7235.430954887676</v>
       </c>
       <c r="H148" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1887895</v>
+        <v>1964271</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9234516</v>
+        <v>9252233</v>
       </c>
       <c r="E149" t="n">
-        <v>9234516</v>
+        <v>9252233</v>
       </c>
       <c r="F149" t="n">
-        <v>86238.08716580024</v>
+        <v>85311.41225452709</v>
       </c>
       <c r="G149" t="n">
-        <v>76668.62918783314</v>
+        <v>83004.41239725494</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>4963078</v>
+        <v>5322908</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>484523135</v>
+        <v>481921251</v>
       </c>
       <c r="E150" t="n">
-        <v>1686584708</v>
+        <v>1677527767</v>
       </c>
       <c r="F150" t="n">
-        <v>404405.6231936894</v>
+        <v>367916.7968644553</v>
       </c>
       <c r="G150" t="n">
-        <v>435522.4922784814</v>
+        <v>477510.4631655999</v>
       </c>
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>44288252</v>
+        <v>44182279</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>49214202</v>
+        <v>47643570</v>
       </c>
       <c r="E151" t="n">
-        <v>121147491</v>
+        <v>117281173</v>
       </c>
       <c r="F151" t="n">
-        <v>2836.165128494473</v>
+        <v>2893.857920861652</v>
       </c>
       <c r="G151" t="n">
-        <v>7153.543963365581</v>
+        <v>7385.776948165937</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="I151" t="n">
-        <v>193055</v>
+        <v>104697</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7331343</v>
+        <v>7320438</v>
       </c>
       <c r="E152" t="n">
-        <v>19046041</v>
+        <v>19017710</v>
       </c>
       <c r="F152" t="n">
-        <v>6266.398682158505</v>
+        <v>6170.35954368433</v>
       </c>
       <c r="G152" t="n">
-        <v>6261.040280865822</v>
+        <v>6216.307091463441</v>
       </c>
       <c r="H152" t="n">
-        <v>1.05</v>
+        <v>1.57</v>
       </c>
       <c r="I152" t="n">
-        <v>741417</v>
+        <v>749752</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18954340218</v>
+        <v>18951467879</v>
       </c>
       <c r="F153" t="n">
-        <v>822.4288885860922</v>
+        <v>438.4085191863207</v>
       </c>
       <c r="G153" t="n">
-        <v>20897.9349789049</v>
+        <v>20884.68984651899</v>
       </c>
       <c r="H153" t="n">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
       <c r="I153" t="n">
-        <v>40972671</v>
+        <v>39040508</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2531373</v>
+        <v>2438734</v>
       </c>
       <c r="E154" t="n">
-        <v>10125493</v>
+        <v>9754938</v>
       </c>
       <c r="F154" t="n">
-        <v>1309.802880173269</v>
+        <v>210.9736224450502</v>
       </c>
       <c r="G154" t="n">
-        <v>3316.857572188799</v>
+        <v>144.8438826060511</v>
       </c>
       <c r="H154" t="n">
-        <v>0.59</v>
+        <v>1.04</v>
       </c>
       <c r="I154" t="n">
-        <v>7120289</v>
+        <v>7209130</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>216244401</v>
+        <v>214567398</v>
       </c>
       <c r="E155" t="n">
-        <v>664870155</v>
+        <v>659714002</v>
       </c>
       <c r="F155" t="n">
-        <v>37973.98018518078</v>
+        <v>20990.68391051108</v>
       </c>
       <c r="G155" t="n">
-        <v>50374.11902835314</v>
+        <v>23709.0427321143</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I155" t="n">
-        <v>25069379</v>
+        <v>21532235</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>389910653</v>
+        <v>385375984</v>
       </c>
       <c r="E156" t="n">
-        <v>2228060874</v>
+        <v>2202148480</v>
       </c>
       <c r="F156" t="n">
-        <v>243673.968220852</v>
+        <v>235264.7257321812</v>
       </c>
       <c r="G156" t="n">
-        <v>231312.5765116973</v>
+        <v>269465.5637458913</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>54755766</v>
+        <v>56142758</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3776201</v>
+        <v>3742069</v>
       </c>
       <c r="F2" t="n">
-        <v>171.8471950810151</v>
+        <v>98.92437418898102</v>
       </c>
       <c r="G2" t="n">
-        <v>1418.41392047067</v>
+        <v>164.5336090086957</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>3.82</v>
       </c>
       <c r="I2" t="n">
-        <v>141081</v>
+        <v>141060</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>608288346</v>
+        <v>600741831</v>
       </c>
       <c r="E3" t="n">
-        <v>1180413077</v>
+        <v>1165768853</v>
       </c>
       <c r="F3" t="n">
-        <v>29151.50773291361</v>
+        <v>39064.23057924405</v>
       </c>
       <c r="G3" t="n">
-        <v>39108.92569657743</v>
+        <v>45789.88287629306</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>40097244</v>
+        <v>39629861</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249364390</v>
+        <v>243832134</v>
       </c>
       <c r="E4" t="n">
-        <v>1563729037</v>
+        <v>1529037042</v>
       </c>
       <c r="F4" t="n">
-        <v>141375.4657776705</v>
+        <v>138801.187554414</v>
       </c>
       <c r="G4" t="n">
-        <v>140815.3024668393</v>
+        <v>223787.6131497873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>23875202</v>
+        <v>24377723</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142249646</v>
+        <v>141184537</v>
       </c>
       <c r="E5" t="n">
-        <v>157634838</v>
+        <v>156454531</v>
       </c>
       <c r="F5" t="n">
-        <v>623.3083074814859</v>
+        <v>8405.945778253465</v>
       </c>
       <c r="G5" t="n">
-        <v>412.3273755099333</v>
+        <v>384.2652606014063</v>
       </c>
       <c r="H5" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>51039472</v>
+        <v>51073677</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48482641</v>
+        <v>48246786</v>
       </c>
       <c r="E6" t="n">
-        <v>60650541</v>
+        <v>60355492</v>
       </c>
       <c r="F6" t="n">
-        <v>5535.566177156598</v>
+        <v>4252.905274045637</v>
       </c>
       <c r="G6" t="n">
-        <v>4701.205658599275</v>
+        <v>4723.450216430549</v>
       </c>
       <c r="H6" t="n">
         <v>0.33</v>
       </c>
       <c r="I6" t="n">
-        <v>858589</v>
+        <v>885796</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66639943</v>
+        <v>67002298</v>
       </c>
       <c r="E7" t="n">
-        <v>132724213</v>
+        <v>133445902</v>
       </c>
       <c r="F7" t="n">
-        <v>11377.80738318484</v>
+        <v>12303.03342792754</v>
       </c>
       <c r="G7" t="n">
-        <v>11478.12683028936</v>
+        <v>12169.41240103336</v>
       </c>
       <c r="H7" t="n">
         <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>1006094</v>
+        <v>1040824</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41094377</v>
+        <v>40867199</v>
       </c>
       <c r="E8" t="n">
-        <v>45990527</v>
+        <v>45736282</v>
       </c>
       <c r="F8" t="n">
-        <v>635.7471236459116</v>
+        <v>674.9151756233648</v>
       </c>
       <c r="G8" t="n">
-        <v>435.9972908457879</v>
+        <v>150.2395565728402</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5286339</v>
+        <v>5272068</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13925573</v>
+        <v>13904943</v>
       </c>
       <c r="E9" t="n">
-        <v>41037765</v>
+        <v>40976969</v>
       </c>
       <c r="F9" t="n">
-        <v>4966.603413954008</v>
+        <v>860.2101110149251</v>
       </c>
       <c r="G9" t="n">
-        <v>4950.927802894545</v>
+        <v>1056.894404605585</v>
       </c>
       <c r="H9" t="n">
-        <v>0.76</v>
+        <v>1.33</v>
       </c>
       <c r="I9" t="n">
-        <v>919217</v>
+        <v>690274</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8802298</v>
+        <v>8727849</v>
       </c>
       <c r="E10" t="n">
-        <v>37837176</v>
+        <v>37517152</v>
       </c>
       <c r="F10" t="n">
-        <v>3212.23275546486</v>
+        <v>3802.667527314453</v>
       </c>
       <c r="G10" t="n">
-        <v>3808.242570928038</v>
+        <v>3372.206851333228</v>
       </c>
       <c r="H10" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I10" t="n">
-        <v>944593</v>
+        <v>887300</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>563956591</v>
+        <v>556176055</v>
       </c>
       <c r="E11" t="n">
-        <v>705425877</v>
+        <v>695693583</v>
       </c>
       <c r="F11" t="n">
-        <v>247294.0938474207</v>
+        <v>335717.5564644387</v>
       </c>
       <c r="G11" t="n">
-        <v>321379.9568731678</v>
+        <v>251685.9624619579</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>91588172</v>
+        <v>92473928</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4257083</v>
+        <v>4268099</v>
       </c>
       <c r="E12" t="n">
-        <v>26140511</v>
+        <v>26208160</v>
       </c>
       <c r="F12" t="n">
-        <v>11645.26525444525</v>
+        <v>10180.2479404148</v>
       </c>
       <c r="G12" t="n">
-        <v>10170.38823690919</v>
+        <v>9831.453129238587</v>
       </c>
       <c r="H12" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>687100</v>
+        <v>667605</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24454217</v>
+        <v>24328731</v>
       </c>
       <c r="E13" t="n">
-        <v>24499322</v>
+        <v>24373604</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>891620</v>
+        <v>878834</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79971721</v>
+        <v>79598355</v>
       </c>
       <c r="E14" t="n">
-        <v>235286721</v>
+        <v>234188231</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>431296</v>
+        <v>432102</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>508695749</v>
+        <v>499891447</v>
       </c>
       <c r="E15" t="n">
-        <v>508695749</v>
+        <v>499891447</v>
       </c>
       <c r="F15" t="n">
-        <v>28880.97129291042</v>
+        <v>18613.50740719867</v>
       </c>
       <c r="G15" t="n">
-        <v>22862.95221790964</v>
+        <v>21016.24403747528</v>
       </c>
       <c r="H15" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>72063920</v>
+        <v>79979885</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4594638</v>
+        <v>4617250</v>
       </c>
       <c r="E16" t="n">
-        <v>4594638</v>
+        <v>4617250</v>
       </c>
       <c r="F16" t="n">
-        <v>185.1954762275715</v>
+        <v>237.4432429219461</v>
       </c>
       <c r="G16" t="n">
-        <v>1291.270557334805</v>
+        <v>7518.415692705261</v>
       </c>
       <c r="H16" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="I16" t="n">
-        <v>2110438</v>
+        <v>2070670</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3373901</v>
+        <v>3344639</v>
       </c>
       <c r="E17" t="n">
-        <v>3373901</v>
+        <v>3344639</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>605454</v>
+        <v>603935</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168495119</v>
+        <v>168682227</v>
       </c>
       <c r="E18" t="n">
-        <v>208603974</v>
+        <v>208835621</v>
       </c>
       <c r="F18" t="n">
-        <v>8393.970856869561</v>
+        <v>9144.090711619867</v>
       </c>
       <c r="G18" t="n">
-        <v>8131.575490921147</v>
+        <v>8952.018148950425</v>
       </c>
       <c r="H18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>567766</v>
+        <v>171064</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6960020</v>
+        <v>6926223</v>
       </c>
       <c r="E19" t="n">
-        <v>9585726</v>
+        <v>9539179</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>294440</v>
+        <v>307377</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>892227</v>
+        <v>904782</v>
       </c>
       <c r="E20" t="n">
-        <v>6245592</v>
+        <v>6333473</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>256906</v>
+        <v>195433</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>109857920</v>
+        <v>108841221</v>
       </c>
       <c r="E21" t="n">
-        <v>427110348</v>
+        <v>423142035</v>
       </c>
       <c r="F21" t="n">
-        <v>12610.87564152461</v>
+        <v>12719.45569383245</v>
       </c>
       <c r="G21" t="n">
-        <v>31675.35266247661</v>
+        <v>25661.34117413078</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>13195356</v>
+        <v>11821378</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1717819</v>
+        <v>1728000</v>
       </c>
       <c r="E22" t="n">
-        <v>12373302</v>
+        <v>12446637</v>
       </c>
       <c r="F22" t="n">
-        <v>5804.885141700142</v>
+        <v>3638.760273259525</v>
       </c>
       <c r="G22" t="n">
-        <v>4787.390041246739</v>
+        <v>6244.352839564223</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>53389</v>
+        <v>53910</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>141351176</v>
+        <v>139959609</v>
       </c>
       <c r="E23" t="n">
-        <v>141351176</v>
+        <v>139959609</v>
       </c>
       <c r="F23" t="n">
-        <v>1057084.454436078</v>
+        <v>1175420.140999449</v>
       </c>
       <c r="G23" t="n">
-        <v>1187801.706907608</v>
+        <v>1175193.404529246</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>87048824</v>
+        <v>91024415</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65080056</v>
+        <v>64137406</v>
       </c>
       <c r="E24" t="n">
-        <v>333743876</v>
+        <v>328909776</v>
       </c>
       <c r="F24" t="n">
-        <v>71444.75718130473</v>
+        <v>79673.19867069735</v>
       </c>
       <c r="G24" t="n">
-        <v>129182.1352936812</v>
+        <v>110888.4526841014</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>27082484</v>
+        <v>27134279</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="E25" t="n">
-        <v>257452844</v>
+        <v>253478088</v>
       </c>
       <c r="F25" t="n">
-        <v>322899.0558052933</v>
+        <v>315381.2163393982</v>
       </c>
       <c r="G25" t="n">
-        <v>493759.4204972846</v>
+        <v>405924.5828658482</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>24047837</v>
+        <v>29427101</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1120383</v>
+        <v>1118139</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>137538</v>
+        <v>135994</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2660567</v>
+        <v>2266105</v>
       </c>
       <c r="E27" t="n">
-        <v>2950095</v>
+        <v>2506291</v>
       </c>
       <c r="F27" t="n">
-        <v>10.28066241694412</v>
+        <v>406.1676432758006</v>
       </c>
       <c r="G27" t="n">
-        <v>352.2286427678901</v>
+        <v>17.44943816555397</v>
       </c>
       <c r="H27" t="n">
-        <v>1.28</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>297060</v>
+        <v>317393</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3847112</v>
+        <v>3804439</v>
       </c>
       <c r="E28" t="n">
-        <v>3847820</v>
+        <v>3805335</v>
       </c>
       <c r="F28" t="n">
-        <v>715.0619331627389</v>
+        <v>825.0747950704889</v>
       </c>
       <c r="G28" t="n">
-        <v>3802.895262432268</v>
+        <v>3314.038500175147</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I28" t="n">
-        <v>260961</v>
+        <v>261103</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7000336</v>
+        <v>6891422</v>
       </c>
       <c r="E29" t="n">
-        <v>17003278</v>
+        <v>16738733</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>450671</v>
+        <v>442258</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97043731</v>
+        <v>96657786</v>
       </c>
       <c r="E30" t="n">
-        <v>121002157</v>
+        <v>120520929</v>
       </c>
       <c r="F30" t="n">
-        <v>119448.8302972659</v>
+        <v>120954.9969943173</v>
       </c>
       <c r="G30" t="n">
-        <v>107210.3867876004</v>
+        <v>120618.6019809312</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11531928</v>
+        <v>14130456</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1123871</v>
+        <v>1124570</v>
       </c>
       <c r="E31" t="n">
-        <v>12213809</v>
+        <v>12221404</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14504.55</v>
+        <v>14433.25</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84663135</v>
+        <v>83740169</v>
       </c>
       <c r="E32" t="n">
-        <v>236833071</v>
+        <v>234262378</v>
       </c>
       <c r="F32" t="n">
-        <v>61236.6349788214</v>
+        <v>59237.32031334101</v>
       </c>
       <c r="G32" t="n">
-        <v>76692.06783148354</v>
+        <v>66886.41437693615</v>
       </c>
       <c r="H32" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>52262146</v>
+        <v>58658854</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4104713</v>
+        <v>4189624</v>
       </c>
       <c r="E33" t="n">
-        <v>8094840</v>
+        <v>8262292</v>
       </c>
       <c r="F33" t="n">
-        <v>423.5602287854927</v>
+        <v>7819.102035240058</v>
       </c>
       <c r="G33" t="n">
-        <v>159.1180732030632</v>
+        <v>6998.370652215025</v>
       </c>
       <c r="H33" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="I33" t="n">
-        <v>1646759</v>
+        <v>1669402</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36435657</v>
+        <v>36480717</v>
       </c>
       <c r="F34" t="n">
-        <v>250.0889158496044</v>
+        <v>245.7315765263301</v>
       </c>
       <c r="G34" t="n">
-        <v>430.7028509100301</v>
+        <v>430.6556366503962</v>
       </c>
       <c r="H34" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>45071</v>
+        <v>43892</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17417834</v>
+        <v>17358065</v>
       </c>
       <c r="E35" t="n">
-        <v>18357988</v>
+        <v>18294993</v>
       </c>
       <c r="F35" t="n">
-        <v>3566.666388720399</v>
+        <v>3565.849807296794</v>
       </c>
       <c r="G35" t="n">
-        <v>2563.301349797483</v>
+        <v>2563.916791276008</v>
       </c>
       <c r="H35" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="I35" t="n">
-        <v>42624</v>
+        <v>42358</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23191422</v>
+        <v>23137138</v>
       </c>
       <c r="F36" t="n">
-        <v>4672.924015314474</v>
+        <v>4672.202223157934</v>
       </c>
       <c r="G36" t="n">
-        <v>235.536750888911</v>
+        <v>270.5638590363565</v>
       </c>
       <c r="H36" t="n">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>129964</v>
+        <v>129376</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>86265425</v>
+        <v>83475223</v>
       </c>
       <c r="E37" t="n">
-        <v>179856483</v>
+        <v>174039136</v>
       </c>
       <c r="F37" t="n">
-        <v>58574.73814379735</v>
+        <v>55743.5953192848</v>
       </c>
       <c r="G37" t="n">
-        <v>58462.70999932421</v>
+        <v>38125.80345839862</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>68540807</v>
+        <v>68898641</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>271589517</v>
+        <v>268943681</v>
       </c>
       <c r="E38" t="n">
-        <v>271589517</v>
+        <v>268943681</v>
       </c>
       <c r="F38" t="n">
-        <v>32687.68094891893</v>
+        <v>21003.90532844864</v>
       </c>
       <c r="G38" t="n">
-        <v>40823.85000698161</v>
+        <v>37863.20565718839</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="I38" t="n">
-        <v>12343406</v>
+        <v>12397089</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>200180687</v>
+        <v>197870879</v>
       </c>
       <c r="E39" t="n">
-        <v>695445798</v>
+        <v>687421316</v>
       </c>
       <c r="F39" t="n">
-        <v>117417.4952640882</v>
+        <v>99336.53408966609</v>
       </c>
       <c r="G39" t="n">
-        <v>20456.75845719695</v>
+        <v>266897.4687395385</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>38936065</v>
+        <v>44063776</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3448223</v>
+        <v>3355593</v>
       </c>
       <c r="E40" t="n">
-        <v>3448223</v>
+        <v>3355593</v>
       </c>
       <c r="F40" t="n">
-        <v>838.4592771292852</v>
+        <v>825.2217294679689</v>
       </c>
       <c r="G40" t="n">
-        <v>1274.626907046299</v>
+        <v>2297.241708458842</v>
       </c>
       <c r="H40" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="I40" t="n">
-        <v>2520437</v>
+        <v>2483490</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111317355</v>
+        <v>109839762</v>
       </c>
       <c r="E41" t="n">
-        <v>472315406</v>
+        <v>466013625</v>
       </c>
       <c r="F41" t="n">
-        <v>5711.193922334059</v>
+        <v>5738.30836953149</v>
       </c>
       <c r="G41" t="n">
-        <v>6641.319201929367</v>
+        <v>7166.937250668572</v>
       </c>
       <c r="H41" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>15248129</v>
+        <v>14908948</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>564750</v>
+        <v>552441</v>
       </c>
       <c r="E42" t="n">
-        <v>6849866</v>
+        <v>6700576</v>
       </c>
       <c r="F42" t="n">
-        <v>386.9130635129673</v>
+        <v>191.2704664488757</v>
       </c>
       <c r="G42" t="n">
-        <v>320.1109405404472</v>
+        <v>995.7596098731204</v>
       </c>
       <c r="H42" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="I42" t="n">
-        <v>2818391</v>
+        <v>2832297</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1405326736</v>
+        <v>1397125018</v>
       </c>
       <c r="E43" t="n">
-        <v>6738829504</v>
+        <v>6699500585</v>
       </c>
       <c r="F43" t="n">
-        <v>7356.770331403608</v>
+        <v>10240.22757413305</v>
       </c>
       <c r="G43" t="n">
-        <v>17542.3141029967</v>
+        <v>16797.27367613399</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>450666310</v>
+        <v>458780635</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5921045685</v>
+        <v>5913272422</v>
       </c>
       <c r="E44" t="n">
-        <v>5921045685</v>
+        <v>5907377789</v>
       </c>
       <c r="F44" t="n">
-        <v>777688.8070516185</v>
+        <v>8324.583832859897</v>
       </c>
       <c r="G44" t="n">
-        <v>607813.1613988251</v>
+        <v>8578.251671780965</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="I44" t="n">
-        <v>257954652</v>
+        <v>382903933</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>261764055</v>
+        <v>259129831</v>
       </c>
       <c r="E45" t="n">
-        <v>1129918978</v>
+        <v>1118548204</v>
       </c>
       <c r="F45" t="n">
-        <v>70078.32612572369</v>
+        <v>95949.62145940114</v>
       </c>
       <c r="G45" t="n">
-        <v>66315.35478152556</v>
+        <v>124028.5262885203</v>
       </c>
       <c r="H45" t="n">
         <v>0.08</v>
       </c>
       <c r="I45" t="n">
-        <v>135857843</v>
+        <v>137741278</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113559378</v>
+        <v>112592611</v>
       </c>
       <c r="E46" t="n">
-        <v>113559378</v>
+        <v>112592611</v>
       </c>
       <c r="F46" t="n">
-        <v>23894.28935903511</v>
+        <v>22709.4108867652</v>
       </c>
       <c r="G46" t="n">
-        <v>45612.54229075511</v>
+        <v>38005.03216897228</v>
       </c>
       <c r="H46" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>6868978</v>
+        <v>6871216</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042864067</v>
+        <v>2032562844</v>
       </c>
       <c r="E47" t="n">
-        <v>2042864067</v>
+        <v>2032562844</v>
       </c>
       <c r="F47" t="n">
-        <v>227538.7700084615</v>
+        <v>227229.7976148327</v>
       </c>
       <c r="G47" t="n">
-        <v>199350.2364788062</v>
+        <v>200570.9830406939</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I47" t="n">
-        <v>8787723622</v>
+        <v>8785596818</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10199394</v>
+        <v>10201882</v>
       </c>
       <c r="F48" t="n">
-        <v>6665.617093443582</v>
+        <v>6724.956428075971</v>
       </c>
       <c r="G48" t="n">
-        <v>6271.432406056588</v>
+        <v>5725.809228862766</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="I48" t="n">
-        <v>185940</v>
+        <v>185170</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4302615</v>
+        <v>4233015</v>
       </c>
       <c r="E49" t="n">
-        <v>5648773</v>
+        <v>5557396</v>
       </c>
       <c r="F49" t="n">
-        <v>6639.828460542559</v>
+        <v>6563.591319181143</v>
       </c>
       <c r="G49" t="n">
-        <v>2415.300824669232</v>
+        <v>2394.708213373791</v>
       </c>
       <c r="H49" t="n">
         <v>0.27</v>
       </c>
       <c r="I49" t="n">
-        <v>624537</v>
+        <v>616447</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12664776</v>
+        <v>12561605</v>
       </c>
       <c r="E50" t="n">
-        <v>18623315</v>
+        <v>18471603</v>
       </c>
       <c r="F50" t="n">
-        <v>6856.164516995522</v>
+        <v>9575.113077918859</v>
       </c>
       <c r="G50" t="n">
-        <v>6900.170127996885</v>
+        <v>6931.645315873866</v>
       </c>
       <c r="H50" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>7154773</v>
+        <v>7072693</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22841635</v>
+        <v>22141466</v>
       </c>
       <c r="E51" t="n">
-        <v>29630825</v>
+        <v>28722547</v>
       </c>
       <c r="F51" t="n">
-        <v>10068.98880983028</v>
+        <v>9574.847645927686</v>
       </c>
       <c r="G51" t="n">
-        <v>15573.01508078037</v>
+        <v>13909.42896610561</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>423017</v>
+        <v>210622</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13442480</v>
+        <v>13581896</v>
       </c>
       <c r="E52" t="n">
-        <v>13442480</v>
+        <v>13581896</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5395229</v>
+        <v>5416141</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98211930</v>
+        <v>100057048</v>
       </c>
       <c r="E53" t="n">
-        <v>121484642</v>
+        <v>123766987</v>
       </c>
       <c r="F53" t="n">
-        <v>607.9004155900027</v>
+        <v>824.0931566064891</v>
       </c>
       <c r="G53" t="n">
-        <v>3627.893609785631</v>
+        <v>4374.380636397154</v>
       </c>
       <c r="H53" t="n">
-        <v>0.66</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>995876</v>
+        <v>1031094</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5051940</v>
+        <v>4998828</v>
       </c>
       <c r="E54" t="n">
-        <v>7068396</v>
+        <v>6994085</v>
       </c>
       <c r="F54" t="n">
-        <v>672.3613657518316</v>
+        <v>485.2725450321556</v>
       </c>
       <c r="G54" t="n">
-        <v>234.116984400344</v>
+        <v>222.4816915082119</v>
       </c>
       <c r="H54" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="I54" t="n">
-        <v>69654</v>
+        <v>68548</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14153175</v>
+        <v>13920821</v>
       </c>
       <c r="E55" t="n">
-        <v>68546086</v>
+        <v>67420756</v>
       </c>
       <c r="F55" t="n">
-        <v>20420.41193339305</v>
+        <v>10331.25591574121</v>
       </c>
       <c r="G55" t="n">
-        <v>15116.02540226015</v>
+        <v>8119.536567510099</v>
       </c>
       <c r="H55" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="I55" t="n">
-        <v>5332195</v>
+        <v>5306299</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>57881</v>
+        <v>56991</v>
       </c>
       <c r="E56" t="n">
-        <v>138636</v>
+        <v>136505</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>15759.72</v>
+        <v>16521.98</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1856419476</v>
+        <v>1850051461</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>29927066</v>
+        <v>30081836</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12267301</v>
+        <v>12292363</v>
       </c>
       <c r="E58" t="n">
-        <v>17785817</v>
+        <v>17822153</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2024985</v>
+        <v>2041229</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>120739309</v>
+        <v>119472914</v>
       </c>
       <c r="E59" t="n">
-        <v>321097732</v>
+        <v>317729844</v>
       </c>
       <c r="F59" t="n">
-        <v>8124.185184833619</v>
+        <v>7347.441463946057</v>
       </c>
       <c r="G59" t="n">
-        <v>7023.488094731963</v>
+        <v>7216.097067015701</v>
       </c>
       <c r="H59" t="n">
-        <v>0.74</v>
+        <v>0.47</v>
       </c>
       <c r="I59" t="n">
-        <v>679660</v>
+        <v>698619</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29980370</v>
+        <v>28985772</v>
       </c>
       <c r="E60" t="n">
-        <v>93349254</v>
+        <v>90252393</v>
       </c>
       <c r="F60" t="n">
-        <v>3561.58047908755</v>
+        <v>2802.777212920462</v>
       </c>
       <c r="G60" t="n">
-        <v>6213.777645730788</v>
+        <v>6031.952663245607</v>
       </c>
       <c r="H60" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="I60" t="n">
-        <v>10316926</v>
+        <v>10377796</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1928933</v>
+        <v>1937770</v>
       </c>
       <c r="E61" t="n">
-        <v>13832189</v>
+        <v>13895552</v>
       </c>
       <c r="F61" t="n">
-        <v>5420.695672210878</v>
+        <v>5431.612890046238</v>
       </c>
       <c r="G61" t="n">
-        <v>5051.020300152864</v>
+        <v>5118.133095941791</v>
       </c>
       <c r="H61" t="n">
-        <v>2.63</v>
+        <v>2.43</v>
       </c>
       <c r="I61" t="n">
-        <v>2030034</v>
+        <v>2046745</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>193156850</v>
+        <v>193198794</v>
       </c>
       <c r="E62" t="n">
-        <v>1093772772</v>
+        <v>1094010279</v>
       </c>
       <c r="F62" t="n">
-        <v>323955.5564754121</v>
+        <v>533209.9227573666</v>
       </c>
       <c r="G62" t="n">
-        <v>588133.7527443698</v>
+        <v>821934.5345347048</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>83355054</v>
+        <v>83834624</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>493483</v>
+        <v>495720</v>
       </c>
       <c r="E63" t="n">
-        <v>1660995</v>
+        <v>1668524</v>
       </c>
       <c r="F63" t="n">
-        <v>4369.311830575039</v>
+        <v>509.6973920203108</v>
       </c>
       <c r="G63" t="n">
-        <v>408.7769572857799</v>
+        <v>433.6904539787351</v>
       </c>
       <c r="H63" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I63" t="n">
-        <v>224255</v>
+        <v>637470</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>350661</v>
+        <v>347040</v>
       </c>
       <c r="E64" t="n">
-        <v>350661</v>
+        <v>347040</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2374.26</v>
+        <v>2349.74</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>123290409</v>
+        <v>120973154</v>
       </c>
       <c r="E65" t="n">
-        <v>913262288</v>
+        <v>896097439</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>11821.24623377485</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>38638.51290671677</v>
       </c>
       <c r="H65" t="n">
-        <v>5.44</v>
+        <v>0.79</v>
       </c>
       <c r="I65" t="n">
-        <v>24625151</v>
+        <v>24989030</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8670378</v>
+        <v>8613445</v>
       </c>
       <c r="E66" t="n">
-        <v>11615415</v>
+        <v>11539144</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>37957</v>
+        <v>38414</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35550203</v>
+        <v>35554567</v>
       </c>
       <c r="E67" t="n">
-        <v>35550203</v>
+        <v>35554567</v>
       </c>
       <c r="F67" t="n">
-        <v>8996.584816112467</v>
+        <v>6200.556051199866</v>
       </c>
       <c r="G67" t="n">
-        <v>6037.30931057124</v>
+        <v>5591.768111233892</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I67" t="n">
-        <v>970118</v>
+        <v>979195</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1534821</v>
+        <v>1546469</v>
       </c>
       <c r="E68" t="n">
-        <v>11919593</v>
+        <v>12010052</v>
       </c>
       <c r="F68" t="n">
-        <v>16251.71434590434</v>
+        <v>15657.4149048592</v>
       </c>
       <c r="G68" t="n">
-        <v>22217.96799711138</v>
+        <v>18518.82260232475</v>
       </c>
       <c r="H68" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="I68" t="n">
-        <v>517833</v>
+        <v>509830</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>326000137</v>
+        <v>322724537</v>
       </c>
       <c r="E69" t="n">
-        <v>2932899378</v>
+        <v>2903430046</v>
       </c>
       <c r="F69" t="n">
-        <v>1023919.060715947</v>
+        <v>1306965.279492113</v>
       </c>
       <c r="G69" t="n">
-        <v>1251296.982300477</v>
+        <v>2047702.56926044</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>63119774</v>
+        <v>62628908</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246587</v>
+        <v>249152</v>
       </c>
       <c r="E70" t="n">
-        <v>2176318</v>
+        <v>2198951</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>68357</v>
+        <v>66690</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1549443</v>
+        <v>1523100</v>
       </c>
       <c r="E71" t="n">
-        <v>12912021</v>
+        <v>12692501</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>29095</v>
+        <v>29969</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9519128</v>
+        <v>9498682</v>
       </c>
       <c r="E72" t="n">
-        <v>44121704</v>
+        <v>44026936</v>
       </c>
       <c r="F72" t="n">
-        <v>10858.51251691498</v>
+        <v>10819.21175962301</v>
       </c>
       <c r="G72" t="n">
-        <v>4059.949360053809</v>
+        <v>4019.740723534891</v>
       </c>
       <c r="H72" t="n">
         <v>1.01</v>
       </c>
       <c r="I72" t="n">
-        <v>130023</v>
+        <v>70684</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47101886</v>
+        <v>47115524</v>
       </c>
       <c r="E73" t="n">
-        <v>272700457</v>
+        <v>272779414</v>
       </c>
       <c r="F73" t="n">
-        <v>134373.9877982896</v>
+        <v>111629.2631895308</v>
       </c>
       <c r="G73" t="n">
-        <v>161339.3068759516</v>
+        <v>196857.1540507588</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>51409222</v>
+        <v>51628036</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39254042</v>
+        <v>39270614</v>
       </c>
       <c r="E74" t="n">
-        <v>54215422</v>
+        <v>54238310</v>
       </c>
       <c r="F74" t="n">
-        <v>4745.953612928335</v>
+        <v>802.7806481194251</v>
       </c>
       <c r="G74" t="n">
-        <v>4440.397142922571</v>
+        <v>559.7841509365253</v>
       </c>
       <c r="H74" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="I74" t="n">
-        <v>316753</v>
+        <v>318930</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>109524</v>
+        <v>108774</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3928.33</v>
+        <v>3901.42</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13672429</v>
+        <v>13583435</v>
       </c>
       <c r="E76" t="n">
-        <v>13718958</v>
+        <v>13629661</v>
       </c>
       <c r="F76" t="n">
-        <v>1898.070768651161</v>
+        <v>1491.519073968528</v>
       </c>
       <c r="G76" t="n">
-        <v>5820.32271986914</v>
+        <v>8973.336421990409</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="I76" t="n">
-        <v>6069535</v>
+        <v>6838999</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42617679</v>
+        <v>42465573</v>
       </c>
       <c r="E77" t="n">
-        <v>72354904</v>
+        <v>72096663</v>
       </c>
       <c r="F77" t="n">
-        <v>6063.177757791735</v>
+        <v>10120.0870201508</v>
       </c>
       <c r="G77" t="n">
-        <v>6262.716137058718</v>
+        <v>10325.27568502601</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1330079</v>
+        <v>1126542</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19827537</v>
+        <v>19400083</v>
       </c>
       <c r="E78" t="n">
-        <v>59443415</v>
+        <v>58164952</v>
       </c>
       <c r="F78" t="n">
-        <v>32584.4167419584</v>
+        <v>40975.92163856183</v>
       </c>
       <c r="G78" t="n">
-        <v>31933.29898108488</v>
+        <v>44509.59291559154</v>
       </c>
       <c r="H78" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="I78" t="n">
-        <v>4340571</v>
+        <v>4404162</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100911154</v>
+        <v>97824297</v>
       </c>
       <c r="E79" t="n">
-        <v>107277676</v>
+        <v>103996068</v>
       </c>
       <c r="F79" t="n">
-        <v>2249.106226661804</v>
+        <v>1283.705039035329</v>
       </c>
       <c r="G79" t="n">
-        <v>2420.97201769647</v>
+        <v>5004.059961510145</v>
       </c>
       <c r="H79" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="I79" t="n">
-        <v>1800992</v>
+        <v>1811371</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10465722</v>
+        <v>10421315</v>
       </c>
       <c r="E80" t="n">
-        <v>45446766</v>
+        <v>45234617</v>
       </c>
       <c r="F80" t="n">
-        <v>5869.271348813005</v>
+        <v>5789.393951887209</v>
       </c>
       <c r="G80" t="n">
-        <v>5889.396097707673</v>
+        <v>5877.404667272631</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>122545</v>
+        <v>122344</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15836729</v>
+        <v>15315522</v>
       </c>
       <c r="E81" t="n">
-        <v>97068518</v>
+        <v>93873872</v>
       </c>
       <c r="F81" t="n">
-        <v>1392.89365048477</v>
+        <v>2846.167539642887</v>
       </c>
       <c r="G81" t="n">
-        <v>2251.551005213989</v>
+        <v>3479.413024213939</v>
       </c>
       <c r="H81" t="n">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I81" t="n">
-        <v>11869709</v>
+        <v>11609723</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1482016</v>
+        <v>1470773</v>
       </c>
       <c r="E82" t="n">
-        <v>1523704</v>
+        <v>1512145</v>
       </c>
       <c r="F82" t="n">
-        <v>2658.006808630956</v>
+        <v>1545.140783254325</v>
       </c>
       <c r="G82" t="n">
-        <v>1829.790061589713</v>
+        <v>2208.412673297284</v>
       </c>
       <c r="H82" t="n">
-        <v>0.87</v>
+        <v>0.23</v>
       </c>
       <c r="I82" t="n">
-        <v>150177</v>
+        <v>149948</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47420313</v>
+        <v>47442246</v>
       </c>
       <c r="E83" t="n">
-        <v>204281523</v>
+        <v>204376006</v>
       </c>
       <c r="F83" t="n">
-        <v>691.8515305952868</v>
+        <v>2849.548367979822</v>
       </c>
       <c r="G83" t="n">
-        <v>577.0121501684742</v>
+        <v>444.0276018194696</v>
       </c>
       <c r="H83" t="n">
-        <v>1.27</v>
+        <v>0.39</v>
       </c>
       <c r="I83" t="n">
-        <v>11924503</v>
+        <v>12066322</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2390414</v>
+        <v>2278451</v>
       </c>
       <c r="E84" t="n">
-        <v>8677214</v>
+        <v>8270681</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>220826</v>
+        <v>129538</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8886717</v>
+        <v>8880869</v>
       </c>
       <c r="E85" t="n">
-        <v>19709474</v>
+        <v>19696505</v>
       </c>
       <c r="F85" t="n">
-        <v>6165.828575566677</v>
+        <v>5623.008333925973</v>
       </c>
       <c r="G85" t="n">
-        <v>7470.529865948712</v>
+        <v>9415.011804225172</v>
       </c>
       <c r="H85" t="n">
-        <v>1.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>334729</v>
+        <v>334220</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2443183</v>
+        <v>2439864</v>
       </c>
       <c r="E86" t="n">
-        <v>18384326</v>
+        <v>18359348</v>
       </c>
       <c r="F86" t="n">
-        <v>5259.300230795923</v>
+        <v>5139.648792204556</v>
       </c>
       <c r="G86" t="n">
-        <v>11973.97533350526</v>
+        <v>12161.03662513254</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161344</v>
+        <v>161449</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18462240</v>
+        <v>19723083</v>
       </c>
       <c r="E87" t="n">
-        <v>73848961</v>
+        <v>78892332</v>
       </c>
       <c r="F87" t="n">
-        <v>94.40513954723168</v>
+        <v>386.4894352618641</v>
       </c>
       <c r="G87" t="n">
-        <v>1146.925908095055</v>
+        <v>4224.508823090818</v>
       </c>
       <c r="H87" t="n">
-        <v>2.83</v>
+        <v>1.62</v>
       </c>
       <c r="I87" t="n">
-        <v>2675301</v>
+        <v>2839935</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4612758</v>
+        <v>4592502</v>
       </c>
       <c r="E88" t="n">
-        <v>4612758</v>
+        <v>4592502</v>
       </c>
       <c r="F88" t="n">
-        <v>432.9126599843228</v>
+        <v>2817.551216228158</v>
       </c>
       <c r="G88" t="n">
-        <v>2419.631329070952</v>
+        <v>678.640229122702</v>
       </c>
       <c r="H88" t="n">
-        <v>0.58</v>
+        <v>1.03</v>
       </c>
       <c r="I88" t="n">
-        <v>2878888</v>
+        <v>2800212</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12403730</v>
+        <v>12471647</v>
       </c>
       <c r="E89" t="n">
-        <v>39231588</v>
+        <v>39446401</v>
       </c>
       <c r="F89" t="n">
-        <v>18918.41537215838</v>
+        <v>18700.54199145365</v>
       </c>
       <c r="G89" t="n">
-        <v>14093.63694085028</v>
+        <v>12770.64369842902</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="I89" t="n">
-        <v>976721</v>
+        <v>986929</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24849</v>
+        <v>24777</v>
       </c>
       <c r="E90" t="n">
-        <v>195428</v>
+        <v>194865</v>
       </c>
       <c r="F90" t="n">
-        <v>327.8014546002998</v>
+        <v>310.8699887776133</v>
       </c>
       <c r="G90" t="n">
-        <v>671.198537151488</v>
+        <v>667.514878652213</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>43915</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8577797</v>
+        <v>8228699</v>
       </c>
       <c r="E91" t="n">
-        <v>8577797</v>
+        <v>8228699</v>
       </c>
       <c r="F91" t="n">
-        <v>4098.570328949354</v>
+        <v>3287.798225023091</v>
       </c>
       <c r="G91" t="n">
-        <v>4435.034233228986</v>
+        <v>3772.698756231865</v>
       </c>
       <c r="H91" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="I91" t="n">
-        <v>3931064</v>
+        <v>3901498</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9376442</v>
+        <v>9243788</v>
       </c>
       <c r="E92" t="n">
-        <v>9376442</v>
+        <v>9243788</v>
       </c>
       <c r="F92" t="n">
-        <v>7524.79984600652</v>
+        <v>2336.153256169381</v>
       </c>
       <c r="G92" t="n">
-        <v>3913.543368852001</v>
+        <v>6140.810544224928</v>
       </c>
       <c r="H92" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2208171</v>
+        <v>2168077</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>32003985</v>
+        <v>31217138</v>
       </c>
       <c r="E93" t="n">
-        <v>80698684</v>
+        <v>78714635</v>
       </c>
       <c r="F93" t="n">
-        <v>314.963530868844</v>
+        <v>442.0830325751944</v>
       </c>
       <c r="G93" t="n">
-        <v>10080.36857587642</v>
+        <v>4717.89258234766</v>
       </c>
       <c r="H93" t="n">
-        <v>0.99</v>
+        <v>1.76</v>
       </c>
       <c r="I93" t="n">
-        <v>5885918</v>
+        <v>5922136</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>305821548</v>
+        <v>303896461</v>
       </c>
       <c r="E94" t="n">
-        <v>310604810</v>
+        <v>308649698</v>
       </c>
       <c r="F94" t="n">
-        <v>15316.29238807561</v>
+        <v>47905.16600023729</v>
       </c>
       <c r="G94" t="n">
-        <v>51468.72229113742</v>
+        <v>13445.610785806</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I94" t="n">
-        <v>24303160</v>
+        <v>24133074</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1099.996729579414</v>
+        <v>1034.64999570692</v>
       </c>
       <c r="G95" t="n">
-        <v>6430.298221346646</v>
+        <v>6471.354300717945</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I95" t="n">
-        <v>216596</v>
+        <v>212118</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>81556433</v>
+        <v>77851318</v>
       </c>
       <c r="E96" t="n">
-        <v>81556433</v>
+        <v>77851318</v>
       </c>
       <c r="F96" t="n">
-        <v>8422.696923764674</v>
+        <v>6507.225511157814</v>
       </c>
       <c r="G96" t="n">
-        <v>7137.232975777942</v>
+        <v>6899.704798345685</v>
       </c>
       <c r="H96" t="n">
-        <v>0.59</v>
+        <v>0.42</v>
       </c>
       <c r="I96" t="n">
-        <v>4735495</v>
+        <v>5291925</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="E97" t="n">
-        <v>294635724</v>
+        <v>291687283</v>
       </c>
       <c r="F97" t="n">
-        <v>275242.3102534954</v>
+        <v>378765.6593497342</v>
       </c>
       <c r="G97" t="n">
-        <v>463093.9739969598</v>
+        <v>437064.7358149808</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I97" t="n">
-        <v>88311754</v>
+        <v>88228726</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4158481</v>
+        <v>4409223</v>
       </c>
       <c r="E98" t="n">
-        <v>28414608</v>
+        <v>30127913</v>
       </c>
       <c r="F98" t="n">
-        <v>216.7266826612084</v>
+        <v>4801.202615344046</v>
       </c>
       <c r="G98" t="n">
-        <v>2095.895848997404</v>
+        <v>4847.111343228746</v>
       </c>
       <c r="H98" t="n">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="I98" t="n">
-        <v>2686076</v>
+        <v>2806888</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>86098018</v>
+        <v>85172482</v>
       </c>
       <c r="E99" t="n">
-        <v>496133915</v>
+        <v>490800579</v>
       </c>
       <c r="F99" t="n">
-        <v>38045.89362591812</v>
+        <v>170679.1737669691</v>
       </c>
       <c r="G99" t="n">
-        <v>42072.15929293272</v>
+        <v>99809.31070034536</v>
       </c>
       <c r="H99" t="n">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="I99" t="n">
-        <v>20384559</v>
+        <v>20950322</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106168357</v>
+        <v>106199632</v>
       </c>
       <c r="E100" t="n">
-        <v>261215637</v>
+        <v>261292586</v>
       </c>
       <c r="F100" t="n">
-        <v>30419.44280872968</v>
+        <v>36271.03295807267</v>
       </c>
       <c r="G100" t="n">
-        <v>46295.68930259033</v>
+        <v>36115.94911955581</v>
       </c>
       <c r="H100" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I100" t="n">
-        <v>2607631</v>
+        <v>2648826</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>237828912</v>
+        <v>237148343</v>
       </c>
       <c r="E101" t="n">
-        <v>237831275</v>
+        <v>237150699</v>
       </c>
       <c r="F101" t="n">
-        <v>44641.83636486918</v>
+        <v>46268.29236770596</v>
       </c>
       <c r="G101" t="n">
-        <v>3694.907854164791</v>
+        <v>33087.04819048662</v>
       </c>
       <c r="H101" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I101" t="n">
-        <v>1826611</v>
+        <v>1869440</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29347489</v>
+        <v>29144485</v>
       </c>
       <c r="E102" t="n">
-        <v>131400748</v>
+        <v>130491814</v>
       </c>
       <c r="F102" t="n">
-        <v>63499.95053865114</v>
+        <v>72196.58822293882</v>
       </c>
       <c r="G102" t="n">
-        <v>120938.6573687163</v>
+        <v>105653.0081081089</v>
       </c>
       <c r="H102" t="n">
         <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>13186994</v>
+        <v>13427383</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3012787</v>
+        <v>2970285</v>
       </c>
       <c r="E103" t="n">
-        <v>3012787</v>
+        <v>2970285</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>376776</v>
+        <v>358401</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5791191</v>
+        <v>5853001</v>
       </c>
       <c r="E104" t="n">
-        <v>15198974</v>
+        <v>15361195</v>
       </c>
       <c r="F104" t="n">
-        <v>519.7710408748417</v>
+        <v>532.2031241633357</v>
       </c>
       <c r="G104" t="n">
-        <v>34.83440061802283</v>
+        <v>21.36595230578101</v>
       </c>
       <c r="H104" t="n">
-        <v>1.2</v>
+        <v>1.84</v>
       </c>
       <c r="I104" t="n">
-        <v>23763</v>
+        <v>25629</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16069445</v>
+        <v>16327274</v>
       </c>
       <c r="E105" t="n">
-        <v>74174387</v>
+        <v>75364494</v>
       </c>
       <c r="F105" t="n">
-        <v>4292.08769244112</v>
+        <v>10449.11093427384</v>
       </c>
       <c r="G105" t="n">
-        <v>3720.855148351955</v>
+        <v>4702.427244046047</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>0.66</v>
       </c>
       <c r="I105" t="n">
-        <v>1214337</v>
+        <v>1252410</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>49246928</v>
+        <v>48668382</v>
       </c>
       <c r="E106" t="n">
-        <v>319353218</v>
+        <v>315601503</v>
       </c>
       <c r="F106" t="n">
-        <v>124025.6953226233</v>
+        <v>132226.1078332592</v>
       </c>
       <c r="G106" t="n">
-        <v>125948.5974796308</v>
+        <v>134721.3095996239</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>20201021</v>
+        <v>20412047</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2480140</v>
+        <v>2467326</v>
       </c>
       <c r="E107" t="n">
-        <v>4493241</v>
+        <v>4470025</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>140597</v>
+        <v>139263</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124080695</v>
+        <v>123146356</v>
       </c>
       <c r="E108" t="n">
-        <v>2054877940</v>
+        <v>2039404517</v>
       </c>
       <c r="F108" t="n">
-        <v>28174.45632303606</v>
+        <v>27324.40387366495</v>
       </c>
       <c r="G108" t="n">
-        <v>76180.29506449815</v>
+        <v>14750.40344679927</v>
       </c>
       <c r="H108" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>30930272</v>
+        <v>33340290</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23589878</v>
+        <v>23244250</v>
       </c>
       <c r="E109" t="n">
-        <v>141142980</v>
+        <v>139075022</v>
       </c>
       <c r="F109" t="n">
-        <v>40906.27001286868</v>
+        <v>39562.79700559474</v>
       </c>
       <c r="G109" t="n">
-        <v>39811.90430372943</v>
+        <v>38089.56479810092</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>16743510</v>
+        <v>17147629</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1082817</v>
+        <v>1080620</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>86131</v>
+        <v>89006</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2213205</v>
+        <v>2191178</v>
       </c>
       <c r="F111" t="n">
-        <v>3746.398302287147</v>
+        <v>3547.416922556667</v>
       </c>
       <c r="G111" t="n">
-        <v>194.77221104887</v>
+        <v>191.2100377581223</v>
       </c>
       <c r="H111" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>178059</v>
+        <v>178119</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147441959</v>
+        <v>147513130</v>
       </c>
       <c r="F112" t="n">
-        <v>8557.894918704375</v>
+        <v>8560.169468234426</v>
       </c>
       <c r="G112" t="n">
-        <v>3047.48646656834</v>
+        <v>3616.333833419314</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.47</v>
       </c>
       <c r="I112" t="n">
-        <v>56211</v>
+        <v>58011</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6371281</v>
+        <v>6320726</v>
       </c>
       <c r="E113" t="n">
-        <v>32778302</v>
+        <v>32518213</v>
       </c>
       <c r="F113" t="n">
-        <v>2289.540979596139</v>
+        <v>1925.94932755424</v>
       </c>
       <c r="G113" t="n">
-        <v>2506.691821355201</v>
+        <v>2887.304072144323</v>
       </c>
       <c r="H113" t="n">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="I113" t="n">
-        <v>954414</v>
+        <v>947535</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29605541</v>
+        <v>29498763</v>
       </c>
       <c r="E114" t="n">
-        <v>40594372</v>
+        <v>40447961</v>
       </c>
       <c r="F114" t="n">
-        <v>5502.267227089505</v>
+        <v>5395.706816208039</v>
       </c>
       <c r="G114" t="n">
-        <v>6013.939741954127</v>
+        <v>3105.285435962217</v>
       </c>
       <c r="H114" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I114" t="n">
-        <v>213363</v>
+        <v>206795</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7619694</v>
+        <v>7595531</v>
       </c>
       <c r="F115" t="n">
-        <v>2117.544272366615</v>
+        <v>1987.358959122664</v>
       </c>
       <c r="G115" t="n">
-        <v>5738.841492773706</v>
+        <v>5537.985936658955</v>
       </c>
       <c r="H115" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I115" t="n">
-        <v>655463</v>
+        <v>652459</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3406494</v>
+        <v>3407914</v>
       </c>
       <c r="E116" t="n">
-        <v>4563214</v>
+        <v>4565116</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148343</v>
+        <v>148173</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32954211</v>
+        <v>32622183</v>
       </c>
       <c r="E117" t="n">
-        <v>164456705</v>
+        <v>162799732</v>
       </c>
       <c r="F117" t="n">
-        <v>85173.71687545763</v>
+        <v>95545.28309859679</v>
       </c>
       <c r="G117" t="n">
-        <v>60525.26242513516</v>
+        <v>69922.7355201063</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>13550134</v>
+        <v>13681483</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3496433</v>
+        <v>3487835</v>
       </c>
       <c r="E118" t="n">
-        <v>5022691</v>
+        <v>5010340</v>
       </c>
       <c r="F118" t="n">
-        <v>541.7045983802274</v>
+        <v>541.6449918661909</v>
       </c>
       <c r="G118" t="n">
-        <v>649.9233868512759</v>
+        <v>649.7750986183859</v>
       </c>
       <c r="H118" t="n">
         <v>1.18</v>
       </c>
       <c r="I118" t="n">
-        <v>146095</v>
+        <v>148050</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>301568210</v>
+        <v>294496387</v>
       </c>
       <c r="E119" t="n">
-        <v>557969961</v>
+        <v>544885475</v>
       </c>
       <c r="F119" t="n">
-        <v>29728.51589689996</v>
+        <v>56320.53821265678</v>
       </c>
       <c r="G119" t="n">
-        <v>35468.35702753909</v>
+        <v>26328.81172523466</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>16000790</v>
+        <v>16437697</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70512654</v>
+        <v>69655288</v>
       </c>
       <c r="E120" t="n">
-        <v>672579048</v>
+        <v>664397899</v>
       </c>
       <c r="F120" t="n">
-        <v>2601.46454461238</v>
+        <v>2677.144960942159</v>
       </c>
       <c r="G120" t="n">
-        <v>2753.117013143311</v>
+        <v>1025.705399549673</v>
       </c>
       <c r="H120" t="n">
         <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>23101514</v>
+        <v>23299533</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36609833</v>
+        <v>36427080</v>
       </c>
       <c r="E121" t="n">
-        <v>47861881</v>
+        <v>47622926</v>
       </c>
       <c r="F121" t="n">
-        <v>5894.518381852496</v>
+        <v>357.1504476154095</v>
       </c>
       <c r="G121" t="n">
-        <v>6571.235400314901</v>
+        <v>5509.092562716547</v>
       </c>
       <c r="H121" t="n">
-        <v>2.68</v>
+        <v>2.07</v>
       </c>
       <c r="I121" t="n">
-        <v>430844</v>
+        <v>425119</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9157599</v>
+        <v>8767198</v>
       </c>
       <c r="E122" t="n">
-        <v>27148054</v>
+        <v>25990695</v>
       </c>
       <c r="F122" t="n">
-        <v>594.2160564999322</v>
+        <v>755.1322559963515</v>
       </c>
       <c r="G122" t="n">
-        <v>4997.200567186088</v>
+        <v>3243.070021797036</v>
       </c>
       <c r="H122" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="I122" t="n">
-        <v>6215706</v>
+        <v>6230646</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2297326</v>
+        <v>2296430</v>
       </c>
       <c r="E123" t="n">
-        <v>7676821</v>
+        <v>7673828</v>
       </c>
       <c r="F123" t="n">
-        <v>546.8882011737185</v>
+        <v>541.7088774437524</v>
       </c>
       <c r="G123" t="n">
-        <v>1491.286360693867</v>
+        <v>1240.457783205063</v>
       </c>
       <c r="H123" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="I123" t="n">
-        <v>921047</v>
+        <v>925823</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7327808</v>
+        <v>7260584</v>
       </c>
       <c r="E124" t="n">
-        <v>7327819</v>
+        <v>7260595</v>
       </c>
       <c r="F124" t="n">
-        <v>263.4811988029102</v>
+        <v>254.6203235036466</v>
       </c>
       <c r="G124" t="n">
-        <v>457.9466555172428</v>
+        <v>921.3593588331329</v>
       </c>
       <c r="H124" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="I124" t="n">
-        <v>265393</v>
+        <v>263997</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6076277</v>
+        <v>6097932</v>
       </c>
       <c r="E125" t="n">
-        <v>6076277</v>
+        <v>6097932</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>211268</v>
+        <v>495819</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6234781</v>
+        <v>6189566</v>
       </c>
       <c r="E126" t="n">
-        <v>22773243</v>
+        <v>22608088</v>
       </c>
       <c r="F126" t="n">
-        <v>7323.855018069094</v>
+        <v>7344.396385472183</v>
       </c>
       <c r="G126" t="n">
-        <v>8457.514052256691</v>
+        <v>8414.13399708293</v>
       </c>
       <c r="H126" t="n">
         <v>0.83</v>
       </c>
       <c r="I126" t="n">
-        <v>555419</v>
+        <v>558602</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44448933</v>
+        <v>43895512</v>
       </c>
       <c r="E127" t="n">
-        <v>44448933</v>
+        <v>43895512</v>
       </c>
       <c r="F127" t="n">
-        <v>58789.76470185778</v>
+        <v>65601.47441814885</v>
       </c>
       <c r="G127" t="n">
-        <v>89010.4432849196</v>
+        <v>81224.56384795503</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>10616234</v>
+        <v>10609479</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>145297883</v>
+        <v>144130347</v>
       </c>
       <c r="F128" t="n">
-        <v>577.6756325062697</v>
+        <v>1626.834842976022</v>
       </c>
       <c r="G128" t="n">
-        <v>3395.480939152104</v>
+        <v>4061.761620088169</v>
       </c>
       <c r="H128" t="n">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="I128" t="n">
-        <v>1777110</v>
+        <v>1730838</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2903702</v>
+        <v>2903167</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73119</v>
+        <v>73070</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19481304</v>
+        <v>19321261</v>
       </c>
       <c r="F130" t="n">
-        <v>401.6385577004623</v>
+        <v>637.0738165157766</v>
       </c>
       <c r="G130" t="n">
-        <v>1064.618674444483</v>
+        <v>984.9908283480146</v>
       </c>
       <c r="H130" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="I130" t="n">
-        <v>2951342</v>
+        <v>2950670</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1293107</v>
+        <v>1306069</v>
       </c>
       <c r="E131" t="n">
-        <v>3914487</v>
+        <v>3953324</v>
       </c>
       <c r="F131" t="n">
-        <v>807.0908379643471</v>
+        <v>854.418290834196</v>
       </c>
       <c r="G131" t="n">
-        <v>694.9311679796673</v>
+        <v>712.8501711760618</v>
       </c>
       <c r="H131" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="I131" t="n">
-        <v>41140</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>588392091</v>
+        <v>580074981</v>
       </c>
       <c r="E132" t="n">
-        <v>2278755759</v>
+        <v>2246544817</v>
       </c>
       <c r="F132" t="n">
-        <v>919481.453625838</v>
+        <v>856195.4016735768</v>
       </c>
       <c r="G132" t="n">
-        <v>1036531.282872978</v>
+        <v>1160804.736354352</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>54924357</v>
+        <v>56926750</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3658074</v>
+        <v>3644718</v>
       </c>
       <c r="E133" t="n">
-        <v>6235684</v>
+        <v>6212916</v>
       </c>
       <c r="F133" t="n">
-        <v>5566.172833009319</v>
+        <v>5452.567421695523</v>
       </c>
       <c r="G133" t="n">
-        <v>5198.439548237762</v>
+        <v>5451.73393467715</v>
       </c>
       <c r="H133" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I133" t="n">
-        <v>1130847</v>
+        <v>1130474</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>110946114</v>
+        <v>109348500</v>
       </c>
       <c r="E134" t="n">
-        <v>1030832387</v>
+        <v>1015988494</v>
       </c>
       <c r="F134" t="n">
-        <v>87138.23030052771</v>
+        <v>86605.33726480708</v>
       </c>
       <c r="G134" t="n">
-        <v>87947.60553264001</v>
+        <v>47676.31987090858</v>
       </c>
       <c r="H134" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I134" t="n">
-        <v>14484267</v>
+        <v>14881576</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>952809623</v>
+        <v>920389760</v>
       </c>
       <c r="E135" t="n">
-        <v>1046663983</v>
+        <v>1011050674</v>
       </c>
       <c r="F135" t="n">
-        <v>11980.11034175707</v>
+        <v>9679.607803759398</v>
       </c>
       <c r="G135" t="n">
-        <v>19155.31221658316</v>
+        <v>11576.32070187507</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="I135" t="n">
-        <v>9430325</v>
+        <v>9941704</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1076493</v>
+        <v>1089378</v>
       </c>
       <c r="E136" t="n">
-        <v>4168416</v>
+        <v>4218308</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>311442</v>
+        <v>307678</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122644295</v>
+        <v>121374137</v>
       </c>
       <c r="E137" t="n">
-        <v>470483257</v>
+        <v>465610725</v>
       </c>
       <c r="F137" t="n">
-        <v>183990.0798807072</v>
+        <v>172092.0274812581</v>
       </c>
       <c r="G137" t="n">
-        <v>225525.3491378354</v>
+        <v>224397.7438344925</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>40270557</v>
+        <v>39807310</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3024448</v>
+        <v>2967763</v>
       </c>
       <c r="E138" t="n">
-        <v>28657093</v>
+        <v>28119996</v>
       </c>
       <c r="F138" t="n">
-        <v>4144.778357047774</v>
+        <v>4157.371799377271</v>
       </c>
       <c r="G138" t="n">
-        <v>4437.498125958507</v>
+        <v>4411.712103242274</v>
       </c>
       <c r="H138" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="I138" t="n">
-        <v>217550</v>
+        <v>206046</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21349408</v>
+        <v>21277779</v>
       </c>
       <c r="E139" t="n">
-        <v>21349408</v>
+        <v>21277779</v>
       </c>
       <c r="F139" t="n">
-        <v>586.7139036921747</v>
+        <v>5761.361880048722</v>
       </c>
       <c r="G139" t="n">
-        <v>868.4186473789633</v>
+        <v>6956.973213803777</v>
       </c>
       <c r="H139" t="n">
-        <v>0.51</v>
+        <v>1.18</v>
       </c>
       <c r="I139" t="n">
-        <v>525802</v>
+        <v>502404</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494970872</v>
+        <v>492782719</v>
       </c>
       <c r="E140" t="n">
-        <v>494970872</v>
+        <v>492782719</v>
       </c>
       <c r="F140" t="n">
-        <v>805036.317699817</v>
+        <v>798467.9300825071</v>
       </c>
       <c r="G140" t="n">
-        <v>896510.8745578696</v>
+        <v>740407.8427187742</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>42167702</v>
+        <v>42350831</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>36432065</v>
+        <v>35185142</v>
       </c>
       <c r="F141" t="n">
-        <v>57404.13923956036</v>
+        <v>52417.21583032577</v>
       </c>
       <c r="G141" t="n">
-        <v>87657.78370229709</v>
+        <v>74919.46027218312</v>
       </c>
       <c r="H141" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I141" t="n">
-        <v>7233781</v>
+        <v>7178730</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>797802</v>
+        <v>790356</v>
       </c>
       <c r="E142" t="n">
-        <v>12724659</v>
+        <v>12605889</v>
       </c>
       <c r="F142" t="n">
-        <v>111.8590762452515</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>117.8522375945399</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2.81</v>
+        <v>4.94</v>
       </c>
       <c r="I142" t="n">
-        <v>332011</v>
+        <v>333507</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2571703836</v>
+        <v>2545041434</v>
       </c>
       <c r="E143" t="n">
-        <v>2730480309</v>
+        <v>2702171775</v>
       </c>
       <c r="F143" t="n">
-        <v>2947.558737692987</v>
+        <v>3530.859594074111</v>
       </c>
       <c r="G143" t="n">
-        <v>18438.40205602424</v>
+        <v>21492.18856371293</v>
       </c>
       <c r="H143" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I143" t="n">
-        <v>56082690</v>
+        <v>59243441</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1718446</v>
+        <v>1690169</v>
       </c>
       <c r="E144" t="n">
-        <v>1724512</v>
+        <v>1696135</v>
       </c>
       <c r="F144" t="n">
-        <v>607.2945476760403</v>
+        <v>136.6034166023412</v>
       </c>
       <c r="G144" t="n">
-        <v>248.386154913559</v>
+        <v>261.5213956347823</v>
       </c>
       <c r="H144" t="n">
-        <v>0.38</v>
+        <v>1.57</v>
       </c>
       <c r="I144" t="n">
-        <v>469801</v>
+        <v>458392</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>58206094</v>
+        <v>58108286</v>
       </c>
       <c r="E145" t="n">
-        <v>142775604</v>
+        <v>142535686</v>
       </c>
       <c r="F145" t="n">
-        <v>2562.857675075111</v>
+        <v>5693.452006219445</v>
       </c>
       <c r="G145" t="n">
-        <v>4293.922780906704</v>
+        <v>4582.442148360346</v>
       </c>
       <c r="H145" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="I145" t="n">
-        <v>21942298</v>
+        <v>21870505</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>769600166</v>
+        <v>758594859</v>
       </c>
       <c r="E146" t="n">
-        <v>1186791405</v>
+        <v>1169820250</v>
       </c>
       <c r="F146" t="n">
-        <v>216029.987353085</v>
+        <v>206700.8180552451</v>
       </c>
       <c r="G146" t="n">
-        <v>178069.8345382617</v>
+        <v>162926.5952443874</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>277170466</v>
+        <v>334294817</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21681096</v>
+        <v>21489233</v>
       </c>
       <c r="E147" t="n">
-        <v>21681096</v>
+        <v>21489233</v>
       </c>
       <c r="F147" t="n">
-        <v>3821.718133446637</v>
+        <v>3592.843516312511</v>
       </c>
       <c r="G147" t="n">
-        <v>2795.695587253551</v>
+        <v>6924.904396610932</v>
       </c>
       <c r="H147" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="I147" t="n">
-        <v>5623922</v>
+        <v>5651750</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3814577</v>
+        <v>3806074</v>
       </c>
       <c r="E148" t="n">
-        <v>8315242</v>
+        <v>8296708</v>
       </c>
       <c r="F148" t="n">
-        <v>6939.164385064078</v>
+        <v>6937.809889748438</v>
       </c>
       <c r="G148" t="n">
-        <v>7235.430954887676</v>
+        <v>7218.797525256031</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1964271</v>
+        <v>1999951</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9252233</v>
+        <v>9234622</v>
       </c>
       <c r="E149" t="n">
-        <v>9252233</v>
+        <v>9234622</v>
       </c>
       <c r="F149" t="n">
-        <v>85311.41225452709</v>
+        <v>77177.45904410169</v>
       </c>
       <c r="G149" t="n">
-        <v>83004.41239725494</v>
+        <v>67139.0008856177</v>
       </c>
       <c r="H149" t="n">
         <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>5322908</v>
+        <v>1338555</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>481921251</v>
+        <v>474537280</v>
       </c>
       <c r="E150" t="n">
-        <v>1677527767</v>
+        <v>1651824777</v>
       </c>
       <c r="F150" t="n">
-        <v>367916.7968644553</v>
+        <v>354966.3541461512</v>
       </c>
       <c r="G150" t="n">
-        <v>477510.4631655999</v>
+        <v>441371.4662275629</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>44182279</v>
+        <v>45980891</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>47643570</v>
+        <v>47936173</v>
       </c>
       <c r="E151" t="n">
-        <v>117281173</v>
+        <v>118001461</v>
       </c>
       <c r="F151" t="n">
-        <v>2893.857920861652</v>
+        <v>2748.878761841677</v>
       </c>
       <c r="G151" t="n">
-        <v>7385.776948165937</v>
+        <v>6764.909226197667</v>
       </c>
       <c r="H151" t="n">
         <v>0.17</v>
       </c>
       <c r="I151" t="n">
-        <v>104697</v>
+        <v>109216</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7320438</v>
+        <v>7187192</v>
       </c>
       <c r="E152" t="n">
-        <v>19017710</v>
+        <v>18671553</v>
       </c>
       <c r="F152" t="n">
-        <v>6170.35954368433</v>
+        <v>5790.776436248465</v>
       </c>
       <c r="G152" t="n">
-        <v>6216.307091463441</v>
+        <v>6277.844724411242</v>
       </c>
       <c r="H152" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I152" t="n">
-        <v>749752</v>
+        <v>754601</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18951467879</v>
+        <v>18830495341</v>
       </c>
       <c r="F153" t="n">
-        <v>438.4085191863207</v>
+        <v>366.8299703246846</v>
       </c>
       <c r="G153" t="n">
-        <v>20884.68984651899</v>
+        <v>20880.62327314967</v>
       </c>
       <c r="H153" t="n">
         <v>0.24</v>
       </c>
       <c r="I153" t="n">
-        <v>39040508</v>
+        <v>37900980</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2438734</v>
+        <v>2390501</v>
       </c>
       <c r="E154" t="n">
-        <v>9754938</v>
+        <v>9562005</v>
       </c>
       <c r="F154" t="n">
-        <v>210.9736224450502</v>
+        <v>1845.039729498032</v>
       </c>
       <c r="G154" t="n">
-        <v>144.8438826060511</v>
+        <v>2058.074660383906</v>
       </c>
       <c r="H154" t="n">
-        <v>1.04</v>
+        <v>0.53</v>
       </c>
       <c r="I154" t="n">
-        <v>7209130</v>
+        <v>7464673</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>214567398</v>
+        <v>212595140</v>
       </c>
       <c r="E155" t="n">
-        <v>659714002</v>
+        <v>653650050</v>
       </c>
       <c r="F155" t="n">
-        <v>20990.68391051108</v>
+        <v>42664.60283467459</v>
       </c>
       <c r="G155" t="n">
-        <v>23709.0427321143</v>
+        <v>52368.54959912277</v>
       </c>
       <c r="H155" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>21532235</v>
+        <v>21691190</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>385375984</v>
+        <v>382399844</v>
       </c>
       <c r="E156" t="n">
-        <v>2202148480</v>
+        <v>2185141967</v>
       </c>
       <c r="F156" t="n">
-        <v>235264.7257321812</v>
+        <v>240315.7116006027</v>
       </c>
       <c r="G156" t="n">
-        <v>269465.5637458913</v>
+        <v>268881.9690215798</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>56142758</v>
+        <v>54410993</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3742069</v>
+        <v>3760784</v>
       </c>
       <c r="F2" t="n">
-        <v>98.92437418898102</v>
+        <v>136.124582725493</v>
       </c>
       <c r="G2" t="n">
-        <v>164.5336090086957</v>
+        <v>200.2762605493722</v>
       </c>
       <c r="H2" t="n">
-        <v>3.82</v>
+        <v>2.39</v>
       </c>
       <c r="I2" t="n">
-        <v>141060</v>
+        <v>140545</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600741831</v>
+        <v>595849863</v>
       </c>
       <c r="E3" t="n">
-        <v>1165768853</v>
+        <v>1156276155</v>
       </c>
       <c r="F3" t="n">
-        <v>39064.23057924405</v>
+        <v>25301.42014889276</v>
       </c>
       <c r="G3" t="n">
-        <v>45789.88287629306</v>
+        <v>39357.41965425157</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>39629861</v>
+        <v>40863003</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243832134</v>
+        <v>241974007</v>
       </c>
       <c r="E4" t="n">
-        <v>1529037042</v>
+        <v>1517384985</v>
       </c>
       <c r="F4" t="n">
-        <v>138801.187554414</v>
+        <v>123086.8110137821</v>
       </c>
       <c r="G4" t="n">
-        <v>223787.6131497873</v>
+        <v>178947.2275896368</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>24377723</v>
+        <v>24615251</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141184537</v>
+        <v>140336257</v>
       </c>
       <c r="E5" t="n">
-        <v>156454531</v>
+        <v>155514504</v>
       </c>
       <c r="F5" t="n">
-        <v>8405.945778253465</v>
+        <v>8456.250083479365</v>
       </c>
       <c r="G5" t="n">
-        <v>384.2652606014063</v>
+        <v>339.5585521043318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>51073677</v>
+        <v>51356902</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48246786</v>
+        <v>47831326</v>
       </c>
       <c r="E6" t="n">
-        <v>60355492</v>
+        <v>59835763</v>
       </c>
       <c r="F6" t="n">
-        <v>4252.905274045637</v>
+        <v>2647.925218619878</v>
       </c>
       <c r="G6" t="n">
-        <v>4723.450216430549</v>
+        <v>3491.560612741821</v>
       </c>
       <c r="H6" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="I6" t="n">
-        <v>885796</v>
+        <v>867319</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67002298</v>
+        <v>66764281</v>
       </c>
       <c r="E7" t="n">
-        <v>133445902</v>
+        <v>132971853</v>
       </c>
       <c r="F7" t="n">
-        <v>12303.03342792754</v>
+        <v>11404.72486073037</v>
       </c>
       <c r="G7" t="n">
-        <v>12169.41240103336</v>
+        <v>11896.17979752633</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="I7" t="n">
-        <v>1040824</v>
+        <v>1072944</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40867199</v>
+        <v>40613566</v>
       </c>
       <c r="E8" t="n">
-        <v>45736282</v>
+        <v>45452430</v>
       </c>
       <c r="F8" t="n">
-        <v>674.9151756233648</v>
+        <v>690.2181992431798</v>
       </c>
       <c r="G8" t="n">
-        <v>150.2395565728402</v>
+        <v>107.7876893481022</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I8" t="n">
-        <v>5272068</v>
+        <v>5293452</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13904943</v>
+        <v>13860501</v>
       </c>
       <c r="E9" t="n">
-        <v>40976969</v>
+        <v>40846000</v>
       </c>
       <c r="F9" t="n">
-        <v>860.2101110149251</v>
+        <v>5021.287488263138</v>
       </c>
       <c r="G9" t="n">
-        <v>1056.894404605585</v>
+        <v>4951.652192175231</v>
       </c>
       <c r="H9" t="n">
-        <v>1.33</v>
+        <v>0.98</v>
       </c>
       <c r="I9" t="n">
-        <v>690274</v>
+        <v>909348</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8727849</v>
+        <v>8628783</v>
       </c>
       <c r="E10" t="n">
-        <v>37517152</v>
+        <v>37091310</v>
       </c>
       <c r="F10" t="n">
-        <v>3802.667527314453</v>
+        <v>257.0206733671559</v>
       </c>
       <c r="G10" t="n">
-        <v>3372.206851333228</v>
+        <v>352.6977964648912</v>
       </c>
       <c r="H10" t="n">
-        <v>0.53</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>887300</v>
+        <v>935524</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>556176055</v>
+        <v>550252165</v>
       </c>
       <c r="E11" t="n">
-        <v>695693583</v>
+        <v>688283676</v>
       </c>
       <c r="F11" t="n">
-        <v>335717.5564644387</v>
+        <v>327860.5624501348</v>
       </c>
       <c r="G11" t="n">
-        <v>251685.9624619579</v>
+        <v>230980.0187473633</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>92473928</v>
+        <v>89046206</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4268099</v>
+        <v>4246098</v>
       </c>
       <c r="E12" t="n">
-        <v>26208160</v>
+        <v>26073058</v>
       </c>
       <c r="F12" t="n">
-        <v>10180.2479404148</v>
+        <v>11530.15412702228</v>
       </c>
       <c r="G12" t="n">
-        <v>9831.453129238587</v>
+        <v>8022.310301267749</v>
       </c>
       <c r="H12" t="n">
-        <v>0.38</v>
+        <v>1.14</v>
       </c>
       <c r="I12" t="n">
-        <v>667605</v>
+        <v>665158</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24328731</v>
+        <v>24328691</v>
       </c>
       <c r="E13" t="n">
-        <v>24373604</v>
+        <v>24373565</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>878834</v>
+        <v>894947</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79598355</v>
+        <v>79298168</v>
       </c>
       <c r="E14" t="n">
-        <v>234188231</v>
+        <v>233305045</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>432102</v>
+        <v>464577</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>499891447</v>
+        <v>488257610</v>
       </c>
       <c r="E15" t="n">
-        <v>499891447</v>
+        <v>488257615</v>
       </c>
       <c r="F15" t="n">
-        <v>18613.50740719867</v>
+        <v>19295.67632350526</v>
       </c>
       <c r="G15" t="n">
-        <v>21016.24403747528</v>
+        <v>20586.46578096232</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>79979885</v>
+        <v>75332109</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4617250</v>
+        <v>4623217</v>
       </c>
       <c r="E16" t="n">
-        <v>4617250</v>
+        <v>4623217</v>
       </c>
       <c r="F16" t="n">
-        <v>237.4432429219461</v>
+        <v>232.8794330056168</v>
       </c>
       <c r="G16" t="n">
-        <v>7518.415692705261</v>
+        <v>6692.283932199826</v>
       </c>
       <c r="H16" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>2070670</v>
+        <v>2123200</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3344639</v>
+        <v>3321363</v>
       </c>
       <c r="E17" t="n">
-        <v>3344639</v>
+        <v>3321363</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>603935</v>
+        <v>112142</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168682227</v>
+        <v>166979656</v>
       </c>
       <c r="E18" t="n">
-        <v>208835621</v>
+        <v>206727767</v>
       </c>
       <c r="F18" t="n">
-        <v>9144.090711619867</v>
+        <v>8454.08808834002</v>
       </c>
       <c r="G18" t="n">
-        <v>8952.018148950425</v>
+        <v>9516.962180810284</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="I18" t="n">
-        <v>171064</v>
+        <v>574818</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6926223</v>
+        <v>6945783</v>
       </c>
       <c r="E19" t="n">
-        <v>9539179</v>
+        <v>9566118</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>307377</v>
+        <v>335854</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>904782</v>
+        <v>894416</v>
       </c>
       <c r="E20" t="n">
-        <v>6333473</v>
+        <v>6260910</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>195433</v>
+        <v>230847</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108841221</v>
+        <v>107859319</v>
       </c>
       <c r="E21" t="n">
-        <v>423142035</v>
+        <v>419315932</v>
       </c>
       <c r="F21" t="n">
-        <v>12719.45569383245</v>
+        <v>7601.091200821247</v>
       </c>
       <c r="G21" t="n">
-        <v>25661.34117413078</v>
+        <v>6344.681936837422</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>11821378</v>
+        <v>11838023</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1728000</v>
+        <v>1726150</v>
       </c>
       <c r="E22" t="n">
-        <v>12446637</v>
+        <v>12433313</v>
       </c>
       <c r="F22" t="n">
-        <v>3638.760273259525</v>
+        <v>3638.47106773526</v>
       </c>
       <c r="G22" t="n">
-        <v>6244.352839564223</v>
+        <v>6072.256082665583</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>53910</v>
+        <v>53950</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="E23" t="n">
-        <v>139959609</v>
+        <v>138550013</v>
       </c>
       <c r="F23" t="n">
-        <v>1175420.140999449</v>
+        <v>1133705.83448469</v>
       </c>
       <c r="G23" t="n">
-        <v>1175193.404529246</v>
+        <v>1156689.439791871</v>
       </c>
       <c r="H23" t="n">
         <v>0.1</v>
       </c>
       <c r="I23" t="n">
-        <v>91024415</v>
+        <v>92178502</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>64137406</v>
+        <v>63995135</v>
       </c>
       <c r="E24" t="n">
-        <v>328909776</v>
+        <v>328180181</v>
       </c>
       <c r="F24" t="n">
-        <v>79673.19867069735</v>
+        <v>72958.98339793687</v>
       </c>
       <c r="G24" t="n">
-        <v>110888.4526841014</v>
+        <v>92761.75673808929</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>27134279</v>
+        <v>27038736</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="E25" t="n">
-        <v>253478088</v>
+        <v>251120335</v>
       </c>
       <c r="F25" t="n">
-        <v>315381.2163393982</v>
+        <v>293551.4426746162</v>
       </c>
       <c r="G25" t="n">
-        <v>405924.5828658482</v>
+        <v>420100.5940467747</v>
       </c>
       <c r="H25" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>29427101</v>
+        <v>27828445</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1118139</v>
+        <v>1118002</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>135994</v>
+        <v>136550</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2266105</v>
+        <v>2302800</v>
       </c>
       <c r="E27" t="n">
-        <v>2506291</v>
+        <v>2554046</v>
       </c>
       <c r="F27" t="n">
-        <v>406.1676432758006</v>
+        <v>227.2976246871281</v>
       </c>
       <c r="G27" t="n">
-        <v>17.44943816555397</v>
+        <v>374.1915140865764</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="I27" t="n">
-        <v>317393</v>
+        <v>320714</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3804439</v>
+        <v>3797335</v>
       </c>
       <c r="E28" t="n">
-        <v>3805335</v>
+        <v>3798229</v>
       </c>
       <c r="F28" t="n">
-        <v>825.0747950704889</v>
+        <v>1107.292614209933</v>
       </c>
       <c r="G28" t="n">
-        <v>3314.038500175147</v>
+        <v>3409.368596381579</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="I28" t="n">
-        <v>261103</v>
+        <v>259308</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6891422</v>
+        <v>6906373</v>
       </c>
       <c r="E29" t="n">
-        <v>16738733</v>
+        <v>16775047</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>442258</v>
+        <v>439006</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96657786</v>
+        <v>95921887</v>
       </c>
       <c r="E30" t="n">
-        <v>120520929</v>
+        <v>119603349</v>
       </c>
       <c r="F30" t="n">
-        <v>120954.9969943173</v>
+        <v>121179.7404642047</v>
       </c>
       <c r="G30" t="n">
-        <v>120618.6019809312</v>
+        <v>105286.1906724149</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>14130456</v>
+        <v>11707575</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1124570</v>
+        <v>1119234</v>
       </c>
       <c r="E31" t="n">
-        <v>12221404</v>
+        <v>12163415</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14433.25</v>
+        <v>14437.03</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>83740169</v>
+        <v>82098818</v>
       </c>
       <c r="E32" t="n">
-        <v>234262378</v>
+        <v>229685424</v>
       </c>
       <c r="F32" t="n">
-        <v>59237.32031334101</v>
+        <v>59461.90797402631</v>
       </c>
       <c r="G32" t="n">
-        <v>66886.41437693615</v>
+        <v>67019.61439032435</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="I32" t="n">
-        <v>58658854</v>
+        <v>52881346</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4189624</v>
+        <v>4160633</v>
       </c>
       <c r="E33" t="n">
-        <v>8262292</v>
+        <v>8205118</v>
       </c>
       <c r="F33" t="n">
-        <v>7819.102035240058</v>
+        <v>8387.697173134569</v>
       </c>
       <c r="G33" t="n">
-        <v>6998.370652215025</v>
+        <v>6672.347727337603</v>
       </c>
       <c r="H33" t="n">
-        <v>0.66</v>
+        <v>0.19</v>
       </c>
       <c r="I33" t="n">
-        <v>1669402</v>
+        <v>1664504</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36480717</v>
+        <v>36366600</v>
       </c>
       <c r="F34" t="n">
-        <v>245.7315765263301</v>
+        <v>245.7086071311975</v>
       </c>
       <c r="G34" t="n">
-        <v>430.6556366503962</v>
+        <v>430.6214085122882</v>
       </c>
       <c r="H34" t="n">
         <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>43892</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17358065</v>
+        <v>17400978</v>
       </c>
       <c r="E35" t="n">
-        <v>18294993</v>
+        <v>18340223</v>
       </c>
       <c r="F35" t="n">
-        <v>3565.849807296794</v>
+        <v>3554.223402768074</v>
       </c>
       <c r="G35" t="n">
-        <v>2563.916791276008</v>
+        <v>2560.410405333954</v>
       </c>
       <c r="H35" t="n">
         <v>1.3</v>
       </c>
       <c r="I35" t="n">
-        <v>42358</v>
+        <v>41192</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23137138</v>
+        <v>23206517</v>
       </c>
       <c r="F36" t="n">
-        <v>4672.202223157934</v>
+        <v>5133.496989912893</v>
       </c>
       <c r="G36" t="n">
-        <v>270.5638590363565</v>
+        <v>5576.258776994252</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I36" t="n">
-        <v>129376</v>
+        <v>129616</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>83475223</v>
+        <v>83483591</v>
       </c>
       <c r="E37" t="n">
-        <v>174039136</v>
+        <v>174056583</v>
       </c>
       <c r="F37" t="n">
-        <v>55743.5953192848</v>
+        <v>53718.68096820216</v>
       </c>
       <c r="G37" t="n">
-        <v>38125.80345839862</v>
+        <v>51723.76842533828</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>68898641</v>
+        <v>69256271</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>268943681</v>
+        <v>268257799</v>
       </c>
       <c r="E38" t="n">
-        <v>268943681</v>
+        <v>268257799</v>
       </c>
       <c r="F38" t="n">
-        <v>21003.90532844864</v>
+        <v>26879.64655398741</v>
       </c>
       <c r="G38" t="n">
-        <v>37863.20565718839</v>
+        <v>32208.50225584872</v>
       </c>
       <c r="H38" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>12397089</v>
+        <v>12518726</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>197870879</v>
+        <v>196452022</v>
       </c>
       <c r="E39" t="n">
-        <v>687421316</v>
+        <v>682492079</v>
       </c>
       <c r="F39" t="n">
-        <v>99336.53408966609</v>
+        <v>50273.38863217775</v>
       </c>
       <c r="G39" t="n">
-        <v>266897.4687395385</v>
+        <v>299486.6121857435</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>44063776</v>
+        <v>39890564</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3355593</v>
+        <v>3363992</v>
       </c>
       <c r="E40" t="n">
-        <v>3355593</v>
+        <v>3363992</v>
       </c>
       <c r="F40" t="n">
-        <v>825.2217294679689</v>
+        <v>882.140688858138</v>
       </c>
       <c r="G40" t="n">
-        <v>2297.241708458842</v>
+        <v>1108.679242965836</v>
       </c>
       <c r="H40" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="I40" t="n">
-        <v>2483490</v>
+        <v>2422563</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109839762</v>
+        <v>109492732</v>
       </c>
       <c r="E41" t="n">
-        <v>466013625</v>
+        <v>464525152</v>
       </c>
       <c r="F41" t="n">
-        <v>5738.30836953149</v>
+        <v>5120.541165443262</v>
       </c>
       <c r="G41" t="n">
-        <v>7166.937250668572</v>
+        <v>7668.041737395311</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I41" t="n">
-        <v>14908948</v>
+        <v>15010860</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>552441</v>
+        <v>552887</v>
       </c>
       <c r="E42" t="n">
-        <v>6700576</v>
+        <v>6705978</v>
       </c>
       <c r="F42" t="n">
-        <v>191.2704664488757</v>
+        <v>178.4049792380809</v>
       </c>
       <c r="G42" t="n">
-        <v>995.7596098731204</v>
+        <v>814.5832918579779</v>
       </c>
       <c r="H42" t="n">
-        <v>1.08</v>
+        <v>0.9</v>
       </c>
       <c r="I42" t="n">
-        <v>2832297</v>
+        <v>2860188</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1397125018</v>
+        <v>1356644231</v>
       </c>
       <c r="E43" t="n">
-        <v>6699500585</v>
+        <v>6505386922</v>
       </c>
       <c r="F43" t="n">
-        <v>10240.22757413305</v>
+        <v>40391.57819986533</v>
       </c>
       <c r="G43" t="n">
-        <v>16797.27367613399</v>
+        <v>45237.57402835036</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>458780635</v>
+        <v>460788854</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5913272422</v>
+        <v>5924907075</v>
       </c>
       <c r="E44" t="n">
-        <v>5907377789</v>
+        <v>5924907075</v>
       </c>
       <c r="F44" t="n">
-        <v>8324.583832859897</v>
+        <v>1092130.661086493</v>
       </c>
       <c r="G44" t="n">
-        <v>8578.251671780965</v>
+        <v>46375.05891165614</v>
       </c>
       <c r="H44" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I44" t="n">
-        <v>382903933</v>
+        <v>384431542</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>259129831</v>
+        <v>258233724</v>
       </c>
       <c r="E45" t="n">
-        <v>1118548204</v>
+        <v>1114680107</v>
       </c>
       <c r="F45" t="n">
-        <v>95949.62145940114</v>
+        <v>72061.67979265514</v>
       </c>
       <c r="G45" t="n">
-        <v>124028.5262885203</v>
+        <v>94178.53743485115</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
-        <v>137741278</v>
+        <v>138268535</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112592611</v>
+        <v>112716252</v>
       </c>
       <c r="E46" t="n">
-        <v>112592611</v>
+        <v>112716252</v>
       </c>
       <c r="F46" t="n">
-        <v>22709.4108867652</v>
+        <v>24517.49046607553</v>
       </c>
       <c r="G46" t="n">
-        <v>38005.03216897228</v>
+        <v>43260.13444131421</v>
       </c>
       <c r="H46" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I46" t="n">
-        <v>6871216</v>
+        <v>6910566</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2032562844</v>
+        <v>2037018863</v>
       </c>
       <c r="E47" t="n">
-        <v>2032562844</v>
+        <v>2037018863</v>
       </c>
       <c r="F47" t="n">
-        <v>227229.7976148327</v>
+        <v>227232.8436552455</v>
       </c>
       <c r="G47" t="n">
-        <v>200570.9830406939</v>
+        <v>200558.465631469</v>
       </c>
       <c r="H47" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I47" t="n">
-        <v>8785596818</v>
+        <v>8796913549</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10201882</v>
+        <v>10196165</v>
       </c>
       <c r="F48" t="n">
-        <v>6724.956428075971</v>
+        <v>6399.313011401581</v>
       </c>
       <c r="G48" t="n">
-        <v>5725.809228862766</v>
+        <v>6399.663686109783</v>
       </c>
       <c r="H48" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>185170</v>
+        <v>187094</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4233015</v>
+        <v>4211943</v>
       </c>
       <c r="E49" t="n">
-        <v>5557396</v>
+        <v>5529731</v>
       </c>
       <c r="F49" t="n">
-        <v>6563.591319181143</v>
+        <v>6462.919734970773</v>
       </c>
       <c r="G49" t="n">
-        <v>2394.708213373791</v>
+        <v>2408.802872211065</v>
       </c>
       <c r="H49" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I49" t="n">
-        <v>616447</v>
+        <v>607401</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12561605</v>
+        <v>12524852</v>
       </c>
       <c r="E50" t="n">
-        <v>18471603</v>
+        <v>18417558</v>
       </c>
       <c r="F50" t="n">
-        <v>9575.113077918859</v>
+        <v>2283.822944729853</v>
       </c>
       <c r="G50" t="n">
-        <v>6931.645315873866</v>
+        <v>19999.26278281412</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I50" t="n">
-        <v>7072693</v>
+        <v>7016393</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22141466</v>
+        <v>22137467</v>
       </c>
       <c r="E51" t="n">
-        <v>28722547</v>
+        <v>28717359</v>
       </c>
       <c r="F51" t="n">
-        <v>9574.847645927686</v>
+        <v>10095.26080305357</v>
       </c>
       <c r="G51" t="n">
-        <v>13909.42896610561</v>
+        <v>12937.60204111869</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>210622</v>
+        <v>215720</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13581896</v>
+        <v>13532084</v>
       </c>
       <c r="E52" t="n">
-        <v>13581896</v>
+        <v>13532084</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5416141</v>
+        <v>5246359</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>100057048</v>
+        <v>98179437</v>
       </c>
       <c r="E53" t="n">
-        <v>123766987</v>
+        <v>121444449</v>
       </c>
       <c r="F53" t="n">
-        <v>824.0931566064891</v>
+        <v>371.2773954262948</v>
       </c>
       <c r="G53" t="n">
-        <v>4374.380636397154</v>
+        <v>3883.348029615173</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>1031094</v>
+        <v>1106774</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4998828</v>
+        <v>5027453</v>
       </c>
       <c r="E54" t="n">
-        <v>6994085</v>
+        <v>7034135</v>
       </c>
       <c r="F54" t="n">
-        <v>485.2725450321556</v>
+        <v>436.8057383892246</v>
       </c>
       <c r="G54" t="n">
-        <v>222.4816915082119</v>
+        <v>333.0663065618985</v>
       </c>
       <c r="H54" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
-        <v>68548</v>
+        <v>68690</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13920821</v>
+        <v>13921950</v>
       </c>
       <c r="E55" t="n">
-        <v>67420756</v>
+        <v>67426228</v>
       </c>
       <c r="F55" t="n">
-        <v>10331.25591574121</v>
+        <v>9976.388781138334</v>
       </c>
       <c r="G55" t="n">
-        <v>8119.536567510099</v>
+        <v>8336.37037401347</v>
       </c>
       <c r="H55" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="I55" t="n">
-        <v>5306299</v>
+        <v>5243315</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56991</v>
+        <v>56936</v>
       </c>
       <c r="E56" t="n">
-        <v>136505</v>
+        <v>136375</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16521.98</v>
+        <v>16449.14</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1850051461</v>
+        <v>1845519959</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30081836</v>
+        <v>30189856</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12292363</v>
+        <v>12173298</v>
       </c>
       <c r="E58" t="n">
-        <v>17822153</v>
+        <v>17649526</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2041229</v>
+        <v>2048327</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>119472914</v>
+        <v>119080209</v>
       </c>
       <c r="E59" t="n">
-        <v>317729844</v>
+        <v>316685474</v>
       </c>
       <c r="F59" t="n">
-        <v>7347.441463946057</v>
+        <v>7524.760631227095</v>
       </c>
       <c r="G59" t="n">
-        <v>7216.097067015701</v>
+        <v>6991.941471440618</v>
       </c>
       <c r="H59" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I59" t="n">
-        <v>698619</v>
+        <v>702916</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>28985772</v>
+        <v>29080141</v>
       </c>
       <c r="E60" t="n">
-        <v>90252393</v>
+        <v>90546228</v>
       </c>
       <c r="F60" t="n">
-        <v>2802.777212920462</v>
+        <v>2925.747365912579</v>
       </c>
       <c r="G60" t="n">
-        <v>6031.952663245607</v>
+        <v>5480.47422015258</v>
       </c>
       <c r="H60" t="n">
-        <v>0.33</v>
+        <v>0.62</v>
       </c>
       <c r="I60" t="n">
-        <v>10377796</v>
+        <v>10377703</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1937770</v>
+        <v>1827661</v>
       </c>
       <c r="E61" t="n">
-        <v>13895552</v>
+        <v>13105976</v>
       </c>
       <c r="F61" t="n">
-        <v>5431.612890046238</v>
+        <v>5265.169045138449</v>
       </c>
       <c r="G61" t="n">
-        <v>5118.133095941791</v>
+        <v>37.31627666872809</v>
       </c>
       <c r="H61" t="n">
-        <v>2.43</v>
+        <v>0.75</v>
       </c>
       <c r="I61" t="n">
-        <v>2046745</v>
+        <v>2073249</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>193198794</v>
+        <v>190422773</v>
       </c>
       <c r="E62" t="n">
-        <v>1094010279</v>
+        <v>1078290743</v>
       </c>
       <c r="F62" t="n">
-        <v>533209.9227573666</v>
+        <v>478358.615378376</v>
       </c>
       <c r="G62" t="n">
-        <v>821934.5345347048</v>
+        <v>699738.6595061354</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>83834624</v>
+        <v>83755347</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>495720</v>
+        <v>487990</v>
       </c>
       <c r="E63" t="n">
-        <v>1668524</v>
+        <v>1642506</v>
       </c>
       <c r="F63" t="n">
-        <v>509.6973920203108</v>
+        <v>4442.349213455539</v>
       </c>
       <c r="G63" t="n">
-        <v>433.6904539787351</v>
+        <v>476.9602890595788</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>637470</v>
+        <v>637387</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>347040</v>
+        <v>346951</v>
       </c>
       <c r="E64" t="n">
-        <v>347040</v>
+        <v>346951</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2349.74</v>
+        <v>2349.14</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>120973154</v>
+        <v>122487304</v>
       </c>
       <c r="E65" t="n">
-        <v>896097439</v>
+        <v>907313360</v>
       </c>
       <c r="F65" t="n">
-        <v>11821.24623377485</v>
+        <v>11195.68445273057</v>
       </c>
       <c r="G65" t="n">
-        <v>38638.51290671677</v>
+        <v>37217.20402967556</v>
       </c>
       <c r="H65" t="n">
-        <v>0.79</v>
+        <v>0.05</v>
       </c>
       <c r="I65" t="n">
-        <v>24989030</v>
+        <v>25297282</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8613445</v>
+        <v>8600517</v>
       </c>
       <c r="E66" t="n">
-        <v>11539144</v>
+        <v>11521825</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>38414</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35554567</v>
+        <v>35281142</v>
       </c>
       <c r="E67" t="n">
-        <v>35554567</v>
+        <v>35281142</v>
       </c>
       <c r="F67" t="n">
-        <v>6200.556051199866</v>
+        <v>7245.301772899585</v>
       </c>
       <c r="G67" t="n">
-        <v>5591.768111233892</v>
+        <v>4920.180101112874</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="I67" t="n">
-        <v>979195</v>
+        <v>974344</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1546469</v>
+        <v>1536400</v>
       </c>
       <c r="E68" t="n">
-        <v>12010052</v>
+        <v>11931858</v>
       </c>
       <c r="F68" t="n">
-        <v>15657.4149048592</v>
+        <v>15258.30444471999</v>
       </c>
       <c r="G68" t="n">
-        <v>18518.82260232475</v>
+        <v>19740.96041566803</v>
       </c>
       <c r="H68" t="n">
         <v>0.84</v>
       </c>
       <c r="I68" t="n">
-        <v>509830</v>
+        <v>504816</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>322724537</v>
+        <v>320533673</v>
       </c>
       <c r="E69" t="n">
-        <v>2903430046</v>
+        <v>2883719677</v>
       </c>
       <c r="F69" t="n">
-        <v>1306965.279492113</v>
+        <v>1154999.899696953</v>
       </c>
       <c r="G69" t="n">
-        <v>2047702.56926044</v>
+        <v>1545513.823505566</v>
       </c>
       <c r="H69" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>62628908</v>
+        <v>62869376</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249152</v>
+        <v>251771</v>
       </c>
       <c r="E70" t="n">
-        <v>2198951</v>
+        <v>2222069</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>66690</v>
+        <v>68076</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1523100</v>
+        <v>1534048</v>
       </c>
       <c r="E71" t="n">
-        <v>12692501</v>
+        <v>12783733</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>29969</v>
+        <v>29517</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9498682</v>
+        <v>9441166</v>
       </c>
       <c r="E72" t="n">
-        <v>44026936</v>
+        <v>43760345</v>
       </c>
       <c r="F72" t="n">
-        <v>10819.21175962301</v>
+        <v>10041.89256981841</v>
       </c>
       <c r="G72" t="n">
-        <v>4019.740723534891</v>
+        <v>3289.668820040792</v>
       </c>
       <c r="H72" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I72" t="n">
-        <v>70684</v>
+        <v>117962</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47115524</v>
+        <v>46552584</v>
       </c>
       <c r="E73" t="n">
-        <v>272779414</v>
+        <v>269520224</v>
       </c>
       <c r="F73" t="n">
-        <v>111629.2631895308</v>
+        <v>99346.5733334437</v>
       </c>
       <c r="G73" t="n">
-        <v>196857.1540507588</v>
+        <v>189383.0678595018</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>51628036</v>
+        <v>51670172</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39270614</v>
+        <v>39215701</v>
       </c>
       <c r="E74" t="n">
-        <v>54238310</v>
+        <v>54162467</v>
       </c>
       <c r="F74" t="n">
-        <v>802.7806481194251</v>
+        <v>798.0177894000807</v>
       </c>
       <c r="G74" t="n">
-        <v>559.7841509365253</v>
+        <v>574.9805441652064</v>
       </c>
       <c r="H74" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>318930</v>
+        <v>310145</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>108774</v>
+        <v>108901</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3901.42</v>
+        <v>4101.06</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13583435</v>
+        <v>13578115</v>
       </c>
       <c r="E76" t="n">
-        <v>13629661</v>
+        <v>13624323</v>
       </c>
       <c r="F76" t="n">
-        <v>1491.519073968528</v>
+        <v>704.9127809851103</v>
       </c>
       <c r="G76" t="n">
-        <v>8973.336421990409</v>
+        <v>6218.115282814314</v>
       </c>
       <c r="H76" t="n">
-        <v>1.3</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>6838999</v>
+        <v>6707458</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42465573</v>
+        <v>42379105</v>
       </c>
       <c r="E77" t="n">
-        <v>72096663</v>
+        <v>71949862</v>
       </c>
       <c r="F77" t="n">
-        <v>10120.0870201508</v>
+        <v>4803.741971670367</v>
       </c>
       <c r="G77" t="n">
-        <v>10325.27568502601</v>
+        <v>7674.884764487931</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>1126542</v>
+        <v>1132425</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19400083</v>
+        <v>19244560</v>
       </c>
       <c r="E78" t="n">
-        <v>58164952</v>
+        <v>57699105</v>
       </c>
       <c r="F78" t="n">
-        <v>40975.92163856183</v>
+        <v>27750.13195654071</v>
       </c>
       <c r="G78" t="n">
-        <v>44509.59291559154</v>
+        <v>45688.13409377144</v>
       </c>
       <c r="H78" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="I78" t="n">
-        <v>4404162</v>
+        <v>4388546</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>97824297</v>
+        <v>97689515</v>
       </c>
       <c r="E79" t="n">
-        <v>103996068</v>
+        <v>103852783</v>
       </c>
       <c r="F79" t="n">
-        <v>1283.705039035329</v>
+        <v>1275.508748996264</v>
       </c>
       <c r="G79" t="n">
-        <v>5004.059961510145</v>
+        <v>5865.155116608405</v>
       </c>
       <c r="H79" t="n">
-        <v>0.11</v>
+        <v>0.77</v>
       </c>
       <c r="I79" t="n">
-        <v>1811371</v>
+        <v>539943</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10421315</v>
+        <v>10434202</v>
       </c>
       <c r="E80" t="n">
-        <v>45234617</v>
+        <v>45289934</v>
       </c>
       <c r="F80" t="n">
-        <v>5789.393951887209</v>
+        <v>5659.139935005323</v>
       </c>
       <c r="G80" t="n">
-        <v>5877.404667272631</v>
+        <v>6279.073868279978</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>122344</v>
+        <v>123146</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15315522</v>
+        <v>15079335</v>
       </c>
       <c r="E81" t="n">
-        <v>93873872</v>
+        <v>92426205</v>
       </c>
       <c r="F81" t="n">
-        <v>2846.167539642887</v>
+        <v>2847.976155515576</v>
       </c>
       <c r="G81" t="n">
-        <v>3479.413024213939</v>
+        <v>3614.097284176245</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="I81" t="n">
-        <v>11609723</v>
+        <v>12155768</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1470773</v>
+        <v>1442771</v>
       </c>
       <c r="E82" t="n">
-        <v>1512145</v>
+        <v>1483355</v>
       </c>
       <c r="F82" t="n">
-        <v>1545.140783254325</v>
+        <v>2301.768332482234</v>
       </c>
       <c r="G82" t="n">
-        <v>2208.412673297284</v>
+        <v>1964.927268843081</v>
       </c>
       <c r="H82" t="n">
-        <v>0.23</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>149948</v>
+        <v>149475</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47442246</v>
+        <v>47587797</v>
       </c>
       <c r="E83" t="n">
-        <v>204376006</v>
+        <v>205003028</v>
       </c>
       <c r="F83" t="n">
-        <v>2849.548367979822</v>
+        <v>4304.028272007309</v>
       </c>
       <c r="G83" t="n">
-        <v>444.0276018194696</v>
+        <v>3004.143390544677</v>
       </c>
       <c r="H83" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="I83" t="n">
-        <v>12066322</v>
+        <v>12139931</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2278451</v>
+        <v>2287868</v>
       </c>
       <c r="E84" t="n">
-        <v>8270681</v>
+        <v>8304827</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>129538</v>
+        <v>219539</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8880869</v>
+        <v>8845624</v>
       </c>
       <c r="E85" t="n">
-        <v>19696505</v>
+        <v>19618337</v>
       </c>
       <c r="F85" t="n">
-        <v>5623.008333925973</v>
+        <v>3136.845153275463</v>
       </c>
       <c r="G85" t="n">
-        <v>9415.011804225172</v>
+        <v>5560.273689035761</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I85" t="n">
-        <v>334220</v>
+        <v>331368</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2439864</v>
+        <v>2443797</v>
       </c>
       <c r="E86" t="n">
-        <v>18359348</v>
+        <v>18388943</v>
       </c>
       <c r="F86" t="n">
-        <v>5139.648792204556</v>
+        <v>5078.238643272841</v>
       </c>
       <c r="G86" t="n">
-        <v>12161.03662513254</v>
+        <v>12221.31591896669</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161449</v>
+        <v>161335</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19723083</v>
+        <v>20060308</v>
       </c>
       <c r="E87" t="n">
-        <v>78892332</v>
+        <v>80241233</v>
       </c>
       <c r="F87" t="n">
-        <v>386.4894352618641</v>
+        <v>656.7497413637733</v>
       </c>
       <c r="G87" t="n">
-        <v>4224.508823090818</v>
+        <v>1366.889982534292</v>
       </c>
       <c r="H87" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="I87" t="n">
-        <v>2839935</v>
+        <v>2949066</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4592502</v>
+        <v>4609532</v>
       </c>
       <c r="E88" t="n">
-        <v>4592502</v>
+        <v>4609532</v>
       </c>
       <c r="F88" t="n">
-        <v>2817.551216228158</v>
+        <v>2968.178801144987</v>
       </c>
       <c r="G88" t="n">
-        <v>678.640229122702</v>
+        <v>2041.879817303568</v>
       </c>
       <c r="H88" t="n">
-        <v>1.03</v>
+        <v>0.44</v>
       </c>
       <c r="I88" t="n">
-        <v>2800212</v>
+        <v>2887751</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12471647</v>
+        <v>12555276</v>
       </c>
       <c r="E89" t="n">
-        <v>39446401</v>
+        <v>39710909</v>
       </c>
       <c r="F89" t="n">
-        <v>18700.54199145365</v>
+        <v>14998.08009911421</v>
       </c>
       <c r="G89" t="n">
-        <v>12770.64369842902</v>
+        <v>12853.3980932936</v>
       </c>
       <c r="H89" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I89" t="n">
-        <v>986929</v>
+        <v>1012000</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24777</v>
+        <v>24849</v>
       </c>
       <c r="E90" t="n">
-        <v>194865</v>
+        <v>195427</v>
       </c>
       <c r="F90" t="n">
-        <v>310.8699887776133</v>
+        <v>310.8454096996643</v>
       </c>
       <c r="G90" t="n">
-        <v>667.514878652213</v>
+        <v>667.4621012828082</v>
       </c>
       <c r="H90" t="n">
         <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>43649</v>
+        <v>43806</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8228699</v>
+        <v>7746487</v>
       </c>
       <c r="E91" t="n">
-        <v>8228699</v>
+        <v>7746487</v>
       </c>
       <c r="F91" t="n">
-        <v>3287.798225023091</v>
+        <v>2808.466760002357</v>
       </c>
       <c r="G91" t="n">
-        <v>3772.698756231865</v>
+        <v>5198.509473269428</v>
       </c>
       <c r="H91" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I91" t="n">
-        <v>3901498</v>
+        <v>3871640</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9243788</v>
+        <v>9185510</v>
       </c>
       <c r="E92" t="n">
-        <v>9243788</v>
+        <v>9185510</v>
       </c>
       <c r="F92" t="n">
-        <v>2336.153256169381</v>
+        <v>5702.615690563468</v>
       </c>
       <c r="G92" t="n">
-        <v>6140.810544224928</v>
+        <v>4738.58632573177</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="I92" t="n">
-        <v>2168077</v>
+        <v>2156426</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31217138</v>
+        <v>31031064</v>
       </c>
       <c r="E93" t="n">
-        <v>78714635</v>
+        <v>78245446</v>
       </c>
       <c r="F93" t="n">
-        <v>442.0830325751944</v>
+        <v>1314.278434025211</v>
       </c>
       <c r="G93" t="n">
-        <v>4717.89258234766</v>
+        <v>1883.054826714834</v>
       </c>
       <c r="H93" t="n">
-        <v>1.76</v>
+        <v>0.26</v>
       </c>
       <c r="I93" t="n">
-        <v>5922136</v>
+        <v>5799686</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>303896461</v>
+        <v>301105409</v>
       </c>
       <c r="E94" t="n">
-        <v>308649698</v>
+        <v>305814992</v>
       </c>
       <c r="F94" t="n">
-        <v>47905.16600023729</v>
+        <v>4917.455028791549</v>
       </c>
       <c r="G94" t="n">
-        <v>13445.610785806</v>
+        <v>17654.53956231652</v>
       </c>
       <c r="H94" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>24133074</v>
+        <v>24177455</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1034.64999570692</v>
+        <v>1032.513131938951</v>
       </c>
       <c r="G95" t="n">
-        <v>6471.354300717945</v>
+        <v>6444.733385763617</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>212118</v>
+        <v>210626</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77851318</v>
+        <v>75791756</v>
       </c>
       <c r="E96" t="n">
-        <v>77851318</v>
+        <v>75791756</v>
       </c>
       <c r="F96" t="n">
-        <v>6507.225511157814</v>
+        <v>9352.760679673474</v>
       </c>
       <c r="G96" t="n">
-        <v>6899.704798345685</v>
+        <v>5271.822392143617</v>
       </c>
       <c r="H96" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I96" t="n">
-        <v>5291925</v>
+        <v>5355504</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>291687283</v>
+        <v>288734142</v>
       </c>
       <c r="E97" t="n">
-        <v>291687283</v>
+        <v>288734142</v>
       </c>
       <c r="F97" t="n">
-        <v>378765.6593497342</v>
+        <v>331276.9593446592</v>
       </c>
       <c r="G97" t="n">
-        <v>437064.7358149808</v>
+        <v>391056.5915743255</v>
       </c>
       <c r="H97" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>88228726</v>
+        <v>88577937</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4409223</v>
+        <v>4542300</v>
       </c>
       <c r="E98" t="n">
-        <v>30127913</v>
+        <v>31037214</v>
       </c>
       <c r="F98" t="n">
-        <v>4801.202615344046</v>
+        <v>24046.68298033983</v>
       </c>
       <c r="G98" t="n">
-        <v>4847.111343228746</v>
+        <v>4690.334763095663</v>
       </c>
       <c r="H98" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>2806888</v>
+        <v>2861256</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>85172482</v>
+        <v>84605856</v>
       </c>
       <c r="E99" t="n">
-        <v>490800579</v>
+        <v>487535435</v>
       </c>
       <c r="F99" t="n">
-        <v>170679.1737669691</v>
+        <v>143485.1555225527</v>
       </c>
       <c r="G99" t="n">
-        <v>99809.31070034536</v>
+        <v>149596.0314579952</v>
       </c>
       <c r="H99" t="n">
         <v>0.02</v>
       </c>
       <c r="I99" t="n">
-        <v>20950322</v>
+        <v>21075965</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106199632</v>
+        <v>105294216</v>
       </c>
       <c r="E100" t="n">
-        <v>261292586</v>
+        <v>259064908</v>
       </c>
       <c r="F100" t="n">
-        <v>36271.03295807267</v>
+        <v>32155.49317905399</v>
       </c>
       <c r="G100" t="n">
-        <v>36115.94911955581</v>
+        <v>29341.7919857662</v>
       </c>
       <c r="H100" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I100" t="n">
-        <v>2648826</v>
+        <v>2656027</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>237148343</v>
+        <v>233116187</v>
       </c>
       <c r="E101" t="n">
-        <v>237150699</v>
+        <v>233118503</v>
       </c>
       <c r="F101" t="n">
-        <v>46268.29236770596</v>
+        <v>38982.98132095162</v>
       </c>
       <c r="G101" t="n">
-        <v>33087.04819048662</v>
+        <v>3571.816854519838</v>
       </c>
       <c r="H101" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I101" t="n">
-        <v>1869440</v>
+        <v>1915116</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29144485</v>
+        <v>28900450</v>
       </c>
       <c r="E102" t="n">
-        <v>130491814</v>
+        <v>129399171</v>
       </c>
       <c r="F102" t="n">
-        <v>72196.58822293882</v>
+        <v>68242.43387243868</v>
       </c>
       <c r="G102" t="n">
-        <v>105653.0081081089</v>
+        <v>93007.46046840941</v>
       </c>
       <c r="H102" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="I102" t="n">
-        <v>13427383</v>
+        <v>13609790</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2970285</v>
+        <v>2943914</v>
       </c>
       <c r="E103" t="n">
-        <v>2970285</v>
+        <v>2943914</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>358401</v>
+        <v>345362</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5853001</v>
+        <v>5858736</v>
       </c>
       <c r="E104" t="n">
-        <v>15361195</v>
+        <v>15376245</v>
       </c>
       <c r="F104" t="n">
-        <v>532.2031241633357</v>
+        <v>532.1467425266336</v>
       </c>
       <c r="G104" t="n">
-        <v>21.36595230578101</v>
+        <v>21.36426299698268</v>
       </c>
       <c r="H104" t="n">
         <v>1.84</v>
       </c>
       <c r="I104" t="n">
-        <v>25629</v>
+        <v>25551</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16327274</v>
+        <v>16172797</v>
       </c>
       <c r="E105" t="n">
-        <v>75364494</v>
+        <v>74651450</v>
       </c>
       <c r="F105" t="n">
-        <v>10449.11093427384</v>
+        <v>6709.295785425188</v>
       </c>
       <c r="G105" t="n">
-        <v>4702.427244046047</v>
+        <v>4951.342660417571</v>
       </c>
       <c r="H105" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="I105" t="n">
-        <v>1252410</v>
+        <v>1254415</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48668382</v>
+        <v>48329912</v>
       </c>
       <c r="E106" t="n">
-        <v>315601503</v>
+        <v>313406615</v>
       </c>
       <c r="F106" t="n">
-        <v>132226.1078332592</v>
+        <v>87480.42796642789</v>
       </c>
       <c r="G106" t="n">
-        <v>134721.3095996239</v>
+        <v>81788.16219004792</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>20412047</v>
+        <v>20548471</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2467326</v>
+        <v>2473582</v>
       </c>
       <c r="E107" t="n">
-        <v>4470025</v>
+        <v>4481359</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>139263</v>
+        <v>136007</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123146356</v>
+        <v>123026500</v>
       </c>
       <c r="E108" t="n">
-        <v>2039404517</v>
+        <v>2037419602</v>
       </c>
       <c r="F108" t="n">
-        <v>27324.40387366495</v>
+        <v>27368.5718426621</v>
       </c>
       <c r="G108" t="n">
-        <v>14750.40344679927</v>
+        <v>29576.28045028188</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>33340290</v>
+        <v>33836605</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23244250</v>
+        <v>23116096</v>
       </c>
       <c r="E109" t="n">
-        <v>139075022</v>
+        <v>138308247</v>
       </c>
       <c r="F109" t="n">
-        <v>39562.79700559474</v>
+        <v>39887.40950631551</v>
       </c>
       <c r="G109" t="n">
-        <v>38089.56479810092</v>
+        <v>37953.70912159824</v>
       </c>
       <c r="H109" t="n">
         <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>17147629</v>
+        <v>13343031</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1080620</v>
+        <v>1060543</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>89006</v>
+        <v>89598</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2191178</v>
+        <v>2189239</v>
       </c>
       <c r="F111" t="n">
-        <v>3547.416922556667</v>
+        <v>3732.438748037458</v>
       </c>
       <c r="G111" t="n">
-        <v>191.2100377581223</v>
+        <v>194.0721257082593</v>
       </c>
       <c r="H111" t="n">
         <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>178119</v>
+        <v>179192</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147513130</v>
+        <v>147364658</v>
       </c>
       <c r="F112" t="n">
-        <v>8560.169468234426</v>
+        <v>8559.492654517398</v>
       </c>
       <c r="G112" t="n">
-        <v>3616.333833419314</v>
+        <v>3479.649559197629</v>
       </c>
       <c r="H112" t="n">
         <v>0.47</v>
       </c>
       <c r="I112" t="n">
-        <v>58011</v>
+        <v>58967</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6320726</v>
+        <v>6290773</v>
       </c>
       <c r="E113" t="n">
-        <v>32518213</v>
+        <v>32364113</v>
       </c>
       <c r="F113" t="n">
-        <v>1925.94932755424</v>
+        <v>343.5239065134543</v>
       </c>
       <c r="G113" t="n">
-        <v>2887.304072144323</v>
+        <v>2986.413487358722</v>
       </c>
       <c r="H113" t="n">
         <v>0.92</v>
       </c>
       <c r="I113" t="n">
-        <v>947535</v>
+        <v>947288</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29498763</v>
+        <v>30040825</v>
       </c>
       <c r="E114" t="n">
-        <v>40447961</v>
+        <v>41191224</v>
       </c>
       <c r="F114" t="n">
-        <v>5395.706816208039</v>
+        <v>4636.904968228751</v>
       </c>
       <c r="G114" t="n">
-        <v>3105.285435962217</v>
+        <v>3964.553602321057</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I114" t="n">
-        <v>206795</v>
+        <v>303602</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7595531</v>
+        <v>7605349</v>
       </c>
       <c r="F115" t="n">
-        <v>1987.358959122664</v>
+        <v>1954.803740681392</v>
       </c>
       <c r="G115" t="n">
-        <v>5537.985936658955</v>
+        <v>5572.567508997002</v>
       </c>
       <c r="H115" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="I115" t="n">
-        <v>652459</v>
+        <v>650509</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3407914</v>
+        <v>3421750</v>
       </c>
       <c r="E116" t="n">
-        <v>4565116</v>
+        <v>4583651</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148173</v>
+        <v>148766</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32622183</v>
+        <v>32416621</v>
       </c>
       <c r="E117" t="n">
-        <v>162799732</v>
+        <v>161773882</v>
       </c>
       <c r="F117" t="n">
-        <v>95545.28309859679</v>
+        <v>80153.74540789</v>
       </c>
       <c r="G117" t="n">
-        <v>69922.7355201063</v>
+        <v>73119.51405789654</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="I117" t="n">
-        <v>13681483</v>
+        <v>13644708</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3487835</v>
+        <v>3408430</v>
       </c>
       <c r="E118" t="n">
-        <v>5010340</v>
+        <v>4896273</v>
       </c>
       <c r="F118" t="n">
-        <v>541.6449918661909</v>
+        <v>541.6021664569961</v>
       </c>
       <c r="G118" t="n">
-        <v>649.7750986183859</v>
+        <v>630.337407487649</v>
       </c>
       <c r="H118" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="I118" t="n">
-        <v>148050</v>
+        <v>13835.92</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>294496387</v>
+        <v>291648261</v>
       </c>
       <c r="E119" t="n">
-        <v>544885475</v>
+        <v>539615793</v>
       </c>
       <c r="F119" t="n">
-        <v>56320.53821265678</v>
+        <v>38225.06611285064</v>
       </c>
       <c r="G119" t="n">
-        <v>26328.81172523466</v>
+        <v>30076.10681445821</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I119" t="n">
-        <v>16437697</v>
+        <v>16530084</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69655288</v>
+        <v>69312201</v>
       </c>
       <c r="E120" t="n">
-        <v>664397899</v>
+        <v>661122558</v>
       </c>
       <c r="F120" t="n">
-        <v>2677.144960942159</v>
+        <v>1269.33673446594</v>
       </c>
       <c r="G120" t="n">
-        <v>1025.705399549673</v>
+        <v>2897.166444101516</v>
       </c>
       <c r="H120" t="n">
         <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>23299533</v>
+        <v>23451387</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36427080</v>
+        <v>36086659</v>
       </c>
       <c r="E121" t="n">
-        <v>47622926</v>
+        <v>47177728</v>
       </c>
       <c r="F121" t="n">
-        <v>357.1504476154095</v>
+        <v>7020.938799115136</v>
       </c>
       <c r="G121" t="n">
-        <v>5509.092562716547</v>
+        <v>9.997354721803239</v>
       </c>
       <c r="H121" t="n">
-        <v>2.07</v>
+        <v>1.46</v>
       </c>
       <c r="I121" t="n">
-        <v>425119</v>
+        <v>435393</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8767198</v>
+        <v>8731388</v>
       </c>
       <c r="E122" t="n">
-        <v>25990695</v>
+        <v>25884534</v>
       </c>
       <c r="F122" t="n">
-        <v>755.1322559963515</v>
+        <v>696.3121114621969</v>
       </c>
       <c r="G122" t="n">
-        <v>3243.070021797036</v>
+        <v>5596.90069265396</v>
       </c>
       <c r="H122" t="n">
-        <v>1.53</v>
+        <v>0.77</v>
       </c>
       <c r="I122" t="n">
-        <v>6230646</v>
+        <v>6260883</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2296430</v>
+        <v>2294512</v>
       </c>
       <c r="E123" t="n">
-        <v>7673828</v>
+        <v>7667420</v>
       </c>
       <c r="F123" t="n">
-        <v>541.7088774437524</v>
+        <v>394.7482524118637</v>
       </c>
       <c r="G123" t="n">
-        <v>1240.457783205063</v>
+        <v>1297.793871834699</v>
       </c>
       <c r="H123" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="I123" t="n">
-        <v>925823</v>
+        <v>927408</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7260584</v>
+        <v>7304764</v>
       </c>
       <c r="E124" t="n">
-        <v>7260595</v>
+        <v>7304775</v>
       </c>
       <c r="F124" t="n">
-        <v>254.6203235036466</v>
+        <v>263.0463213298111</v>
       </c>
       <c r="G124" t="n">
-        <v>921.3593588331329</v>
+        <v>1128.502237833135</v>
       </c>
       <c r="H124" t="n">
-        <v>2.2</v>
+        <v>0.49</v>
       </c>
       <c r="I124" t="n">
-        <v>263997</v>
+        <v>264778</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6097932</v>
+        <v>6103519</v>
       </c>
       <c r="E125" t="n">
-        <v>6097932</v>
+        <v>6103519</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>495819</v>
+        <v>495924</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6189566</v>
+        <v>6202202</v>
       </c>
       <c r="E126" t="n">
-        <v>22608088</v>
+        <v>22654244</v>
       </c>
       <c r="F126" t="n">
-        <v>7344.396385472183</v>
+        <v>7579.673081693974</v>
       </c>
       <c r="G126" t="n">
-        <v>8414.13399708293</v>
+        <v>8072.859881644988</v>
       </c>
       <c r="H126" t="n">
         <v>0.83</v>
       </c>
       <c r="I126" t="n">
-        <v>558602</v>
+        <v>519178</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43895512</v>
+        <v>43759023</v>
       </c>
       <c r="E127" t="n">
-        <v>43895512</v>
+        <v>43759023</v>
       </c>
       <c r="F127" t="n">
-        <v>65601.47441814885</v>
+        <v>68458.49775372606</v>
       </c>
       <c r="G127" t="n">
-        <v>81224.56384795503</v>
+        <v>74494.42792436961</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>10609479</v>
+        <v>10712774</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>144130347</v>
+        <v>144293647</v>
       </c>
       <c r="F128" t="n">
-        <v>1626.834842976022</v>
+        <v>1810.386146780146</v>
       </c>
       <c r="G128" t="n">
-        <v>4061.761620088169</v>
+        <v>3085.841437589104</v>
       </c>
       <c r="H128" t="n">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>1730838</v>
+        <v>1454594</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2903167</v>
+        <v>2898512</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73070</v>
+        <v>73068</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19321261</v>
+        <v>19470961</v>
       </c>
       <c r="F130" t="n">
-        <v>637.0738165157766</v>
+        <v>628.569396315176</v>
       </c>
       <c r="G130" t="n">
-        <v>984.9908283480146</v>
+        <v>1053.258656139693</v>
       </c>
       <c r="H130" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="I130" t="n">
-        <v>2950670</v>
+        <v>2935371</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1306069</v>
+        <v>1309631</v>
       </c>
       <c r="E131" t="n">
-        <v>3953324</v>
+        <v>3963867</v>
       </c>
       <c r="F131" t="n">
-        <v>854.418290834196</v>
+        <v>819.6931171218757</v>
       </c>
       <c r="G131" t="n">
-        <v>712.8501711760618</v>
+        <v>706.466762836286</v>
       </c>
       <c r="H131" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I131" t="n">
-        <v>43520</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>580074981</v>
+        <v>575430895</v>
       </c>
       <c r="E132" t="n">
-        <v>2246544817</v>
+        <v>2228558958</v>
       </c>
       <c r="F132" t="n">
-        <v>856195.4016735768</v>
+        <v>859809.237592217</v>
       </c>
       <c r="G132" t="n">
-        <v>1160804.736354352</v>
+        <v>1034476.722605647</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>56926750</v>
+        <v>57310160</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3644718</v>
+        <v>3642069</v>
       </c>
       <c r="E133" t="n">
-        <v>6212916</v>
+        <v>6208401</v>
       </c>
       <c r="F133" t="n">
-        <v>5452.567421695523</v>
+        <v>5361.065595896865</v>
       </c>
       <c r="G133" t="n">
-        <v>5451.73393467715</v>
+        <v>5489.322647923938</v>
       </c>
       <c r="H133" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I133" t="n">
-        <v>1130474</v>
+        <v>1125347</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109348500</v>
+        <v>106115473</v>
       </c>
       <c r="E134" t="n">
-        <v>1015988494</v>
+        <v>1004617801</v>
       </c>
       <c r="F134" t="n">
-        <v>86605.33726480708</v>
+        <v>90642.90662345229</v>
       </c>
       <c r="G134" t="n">
-        <v>47676.31987090858</v>
+        <v>82029.28090316005</v>
       </c>
       <c r="H134" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="I134" t="n">
-        <v>14881576</v>
+        <v>17353855</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>920389760</v>
+        <v>909184723</v>
       </c>
       <c r="E135" t="n">
-        <v>1011050674</v>
+        <v>998741910</v>
       </c>
       <c r="F135" t="n">
-        <v>9679.607803759398</v>
+        <v>8087.341152210699</v>
       </c>
       <c r="G135" t="n">
-        <v>11576.32070187507</v>
+        <v>12079.51951458286</v>
       </c>
       <c r="H135" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I135" t="n">
-        <v>9941704</v>
+        <v>10183387</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1089378</v>
+        <v>1088915</v>
       </c>
       <c r="E136" t="n">
-        <v>4218308</v>
+        <v>4216515</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>307678</v>
+        <v>315033</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121374137</v>
+        <v>121421183</v>
       </c>
       <c r="E137" t="n">
-        <v>465610725</v>
+        <v>465791202</v>
       </c>
       <c r="F137" t="n">
-        <v>172092.0274812581</v>
+        <v>186894.8097074398</v>
       </c>
       <c r="G137" t="n">
-        <v>224397.7438344925</v>
+        <v>217103.6293812098</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>39807310</v>
+        <v>39706889</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2967763</v>
+        <v>2970633</v>
       </c>
       <c r="E138" t="n">
-        <v>28119996</v>
+        <v>28147190</v>
       </c>
       <c r="F138" t="n">
-        <v>4157.371799377271</v>
+        <v>4181.363385935311</v>
       </c>
       <c r="G138" t="n">
-        <v>4411.712103242274</v>
+        <v>2910.118082759941</v>
       </c>
       <c r="H138" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="I138" t="n">
-        <v>206046</v>
+        <v>245414</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21277779</v>
+        <v>21129617</v>
       </c>
       <c r="E139" t="n">
-        <v>21277779</v>
+        <v>21129617</v>
       </c>
       <c r="F139" t="n">
-        <v>5761.361880048722</v>
+        <v>6894.608130674868</v>
       </c>
       <c r="G139" t="n">
-        <v>6956.973213803777</v>
+        <v>5800.124599322506</v>
       </c>
       <c r="H139" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="I139" t="n">
-        <v>502404</v>
+        <v>492852</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>492782719</v>
+        <v>495215805</v>
       </c>
       <c r="E140" t="n">
-        <v>492782719</v>
+        <v>495215805</v>
       </c>
       <c r="F140" t="n">
-        <v>798467.9300825071</v>
+        <v>798691.6667683339</v>
       </c>
       <c r="G140" t="n">
-        <v>740407.8427187742</v>
+        <v>741704.147315237</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>42350831</v>
+        <v>42322831</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35185142</v>
+        <v>35334118</v>
       </c>
       <c r="F141" t="n">
-        <v>52417.21583032577</v>
+        <v>57720.09245432431</v>
       </c>
       <c r="G141" t="n">
-        <v>74919.46027218312</v>
+        <v>68335.75948228581</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I141" t="n">
-        <v>7178730</v>
+        <v>7598815</v>
       </c>
     </row>
     <row r="142">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>790356</v>
+        <v>800042</v>
       </c>
       <c r="E142" t="n">
-        <v>12605889</v>
+        <v>12760386</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>4.94</v>
+        <v>4.47</v>
       </c>
       <c r="I142" t="n">
-        <v>333507</v>
+        <v>333565</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2545041434</v>
+        <v>2528476723</v>
       </c>
       <c r="E143" t="n">
-        <v>2702171775</v>
+        <v>2684584362</v>
       </c>
       <c r="F143" t="n">
-        <v>3530.859594074111</v>
+        <v>2415.540939446964</v>
       </c>
       <c r="G143" t="n">
-        <v>21492.18856371293</v>
+        <v>21795.60516882332</v>
       </c>
       <c r="H143" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="I143" t="n">
-        <v>59243441</v>
+        <v>57159596</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1690169</v>
+        <v>1696530</v>
       </c>
       <c r="E144" t="n">
-        <v>1696135</v>
+        <v>1702518</v>
       </c>
       <c r="F144" t="n">
-        <v>136.6034166023412</v>
+        <v>1783.14492010152</v>
       </c>
       <c r="G144" t="n">
-        <v>261.5213956347823</v>
+        <v>461.0363437379151</v>
       </c>
       <c r="H144" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="I144" t="n">
-        <v>458392</v>
+        <v>457024</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>58108286</v>
+        <v>57656217</v>
       </c>
       <c r="E145" t="n">
-        <v>142535686</v>
+        <v>141426791</v>
       </c>
       <c r="F145" t="n">
-        <v>5693.452006219445</v>
+        <v>5086.366713821225</v>
       </c>
       <c r="G145" t="n">
-        <v>4582.442148360346</v>
+        <v>4948.979727993137</v>
       </c>
       <c r="H145" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="I145" t="n">
-        <v>21870505</v>
+        <v>21865400</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>758594859</v>
+        <v>756543988</v>
       </c>
       <c r="E146" t="n">
-        <v>1169820250</v>
+        <v>1166657625</v>
       </c>
       <c r="F146" t="n">
-        <v>206700.8180552451</v>
+        <v>183693.0880622337</v>
       </c>
       <c r="G146" t="n">
-        <v>162926.5952443874</v>
+        <v>156841.8876713075</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I146" t="n">
-        <v>334294817</v>
+        <v>329553720</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21489233</v>
+        <v>21343954</v>
       </c>
       <c r="E147" t="n">
-        <v>21489233</v>
+        <v>21343954</v>
       </c>
       <c r="F147" t="n">
-        <v>3592.843516312511</v>
+        <v>3752.239318174126</v>
       </c>
       <c r="G147" t="n">
-        <v>6924.904396610932</v>
+        <v>6810.316786128946</v>
       </c>
       <c r="H147" t="n">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="I147" t="n">
-        <v>5651750</v>
+        <v>5432801</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3806074</v>
+        <v>3811035</v>
       </c>
       <c r="E148" t="n">
-        <v>8296708</v>
+        <v>8307521</v>
       </c>
       <c r="F148" t="n">
-        <v>6937.809889748438</v>
+        <v>6937.749305196226</v>
       </c>
       <c r="G148" t="n">
-        <v>7218.797525256031</v>
+        <v>7246.209099331323</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>1999951</v>
+        <v>2004452</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9234622</v>
+        <v>9241394</v>
       </c>
       <c r="E149" t="n">
-        <v>9234622</v>
+        <v>9241394</v>
       </c>
       <c r="F149" t="n">
-        <v>77177.45904410169</v>
+        <v>83749.93265895298</v>
       </c>
       <c r="G149" t="n">
-        <v>67139.0008856177</v>
+        <v>86082.57848382693</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>1338555</v>
+        <v>5579443</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>474537280</v>
+        <v>471559919</v>
       </c>
       <c r="E150" t="n">
-        <v>1651824777</v>
+        <v>1641460834</v>
       </c>
       <c r="F150" t="n">
-        <v>354966.3541461512</v>
+        <v>354421.6468217836</v>
       </c>
       <c r="G150" t="n">
-        <v>441371.4662275629</v>
+        <v>344932.3670050584</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>45980891</v>
+        <v>46564791</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>47936173</v>
+        <v>47014782</v>
       </c>
       <c r="E151" t="n">
-        <v>118001461</v>
+        <v>115733332</v>
       </c>
       <c r="F151" t="n">
-        <v>2748.878761841677</v>
+        <v>2805.214096811095</v>
       </c>
       <c r="G151" t="n">
-        <v>6764.909226197667</v>
+        <v>7134.278696773502</v>
       </c>
       <c r="H151" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I151" t="n">
-        <v>109216</v>
+        <v>106522</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7187192</v>
+        <v>7132871</v>
       </c>
       <c r="E152" t="n">
-        <v>18671553</v>
+        <v>18530431</v>
       </c>
       <c r="F152" t="n">
-        <v>5790.776436248465</v>
+        <v>6309.372626070452</v>
       </c>
       <c r="G152" t="n">
-        <v>6277.844724411242</v>
+        <v>6411.767842247383</v>
       </c>
       <c r="H152" t="n">
         <v>1.6</v>
       </c>
       <c r="I152" t="n">
-        <v>754601</v>
+        <v>754550</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18830495341</v>
+        <v>18853407354</v>
       </c>
       <c r="F153" t="n">
-        <v>366.8299703246846</v>
+        <v>365.5651988554907</v>
       </c>
       <c r="G153" t="n">
-        <v>20880.62327314967</v>
+        <v>20873.17807812967</v>
       </c>
       <c r="H153" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="I153" t="n">
-        <v>37900980</v>
+        <v>37257468</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2390501</v>
+        <v>2381853</v>
       </c>
       <c r="E154" t="n">
-        <v>9562005</v>
+        <v>9527410</v>
       </c>
       <c r="F154" t="n">
-        <v>1845.039729498032</v>
+        <v>1035.584054250876</v>
       </c>
       <c r="G154" t="n">
-        <v>2058.074660383906</v>
+        <v>2488.850339972471</v>
       </c>
       <c r="H154" t="n">
-        <v>0.53</v>
+        <v>0.95</v>
       </c>
       <c r="I154" t="n">
-        <v>7464673</v>
+        <v>7473843</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212595140</v>
+        <v>212048156</v>
       </c>
       <c r="E155" t="n">
-        <v>653650050</v>
+        <v>651968282</v>
       </c>
       <c r="F155" t="n">
-        <v>42664.60283467459</v>
+        <v>51217.86203833704</v>
       </c>
       <c r="G155" t="n">
-        <v>52368.54959912277</v>
+        <v>44269.82705659012</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>21691190</v>
+        <v>21881614</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>382399844</v>
+        <v>380854485</v>
       </c>
       <c r="E156" t="n">
-        <v>2185141967</v>
+        <v>2176311343</v>
       </c>
       <c r="F156" t="n">
-        <v>240315.7116006027</v>
+        <v>269874.055582118</v>
       </c>
       <c r="G156" t="n">
-        <v>268881.9690215798</v>
+        <v>259363.6103992931</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>54410993</v>
+        <v>57675989</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3760784</v>
+        <v>3857050</v>
       </c>
       <c r="F2" t="n">
-        <v>136.124582725493</v>
+        <v>25.96917460541077</v>
       </c>
       <c r="G2" t="n">
-        <v>200.2762605493722</v>
+        <v>1195.126556010677</v>
       </c>
       <c r="H2" t="n">
-        <v>2.39</v>
+        <v>2.81</v>
       </c>
       <c r="I2" t="n">
-        <v>140545</v>
+        <v>142819</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>595849863</v>
+        <v>584182746</v>
       </c>
       <c r="E3" t="n">
-        <v>1156276155</v>
+        <v>1133638008</v>
       </c>
       <c r="F3" t="n">
-        <v>25301.42014889276</v>
+        <v>14757.92372272975</v>
       </c>
       <c r="G3" t="n">
-        <v>39357.41965425157</v>
+        <v>27843.62124649459</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>40863003</v>
+        <v>45624461</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>241974007</v>
+        <v>242443299</v>
       </c>
       <c r="E4" t="n">
-        <v>1517384985</v>
+        <v>1520327852</v>
       </c>
       <c r="F4" t="n">
-        <v>123086.8110137821</v>
+        <v>148507.4242166353</v>
       </c>
       <c r="G4" t="n">
-        <v>178947.2275896368</v>
+        <v>165640.79975395</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>24615251</v>
+        <v>25373831</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140336257</v>
+        <v>139469578</v>
       </c>
       <c r="E5" t="n">
-        <v>155514504</v>
+        <v>154554089</v>
       </c>
       <c r="F5" t="n">
-        <v>8456.250083479365</v>
+        <v>8352.684598680347</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5585521043318</v>
+        <v>435.0729761440188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="n">
-        <v>51356902</v>
+        <v>52410031</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47831326</v>
+        <v>48095939</v>
       </c>
       <c r="E6" t="n">
-        <v>59835763</v>
+        <v>60166787</v>
       </c>
       <c r="F6" t="n">
-        <v>2647.925218619878</v>
+        <v>4976.452229477016</v>
       </c>
       <c r="G6" t="n">
-        <v>3491.560612741821</v>
+        <v>2374.410343096213</v>
       </c>
       <c r="H6" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I6" t="n">
-        <v>867319</v>
+        <v>889804</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66764281</v>
+        <v>66495282</v>
       </c>
       <c r="E7" t="n">
-        <v>132971853</v>
+        <v>132436098</v>
       </c>
       <c r="F7" t="n">
-        <v>11404.72486073037</v>
+        <v>11261.57206645503</v>
       </c>
       <c r="G7" t="n">
-        <v>11896.17979752633</v>
+        <v>11287.73589473518</v>
       </c>
       <c r="H7" t="n">
-        <v>0.62</v>
+        <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>1072944</v>
+        <v>1059178</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40613566</v>
+        <v>40450901</v>
       </c>
       <c r="E8" t="n">
-        <v>45452430</v>
+        <v>45270385</v>
       </c>
       <c r="F8" t="n">
-        <v>690.2181992431798</v>
+        <v>437.1082496020957</v>
       </c>
       <c r="G8" t="n">
-        <v>107.7876893481022</v>
+        <v>393.622393287329</v>
       </c>
       <c r="H8" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>5293452</v>
+        <v>5249169</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13860501</v>
+        <v>13780214</v>
       </c>
       <c r="E9" t="n">
-        <v>40846000</v>
+        <v>40609400</v>
       </c>
       <c r="F9" t="n">
-        <v>5021.287488263138</v>
+        <v>5307.744385453316</v>
       </c>
       <c r="G9" t="n">
-        <v>4951.652192175231</v>
+        <v>4240.495494151225</v>
       </c>
       <c r="H9" t="n">
-        <v>0.98</v>
+        <v>1.34</v>
       </c>
       <c r="I9" t="n">
-        <v>909348</v>
+        <v>901094</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8628783</v>
+        <v>8592645</v>
       </c>
       <c r="E10" t="n">
-        <v>37091310</v>
+        <v>36935969</v>
       </c>
       <c r="F10" t="n">
-        <v>257.0206733671559</v>
+        <v>533.1656427442423</v>
       </c>
       <c r="G10" t="n">
-        <v>352.6977964648912</v>
+        <v>544.6802038973711</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>935524</v>
+        <v>953221</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>550252165</v>
+        <v>548715809</v>
       </c>
       <c r="E11" t="n">
-        <v>688283676</v>
+        <v>686361923</v>
       </c>
       <c r="F11" t="n">
-        <v>327860.5624501348</v>
+        <v>269644.6384934143</v>
       </c>
       <c r="G11" t="n">
-        <v>230980.0187473633</v>
+        <v>297948.3374820374</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>89046206</v>
+        <v>96764752</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4246098</v>
+        <v>4266583</v>
       </c>
       <c r="E12" t="n">
-        <v>26073058</v>
+        <v>26198848</v>
       </c>
       <c r="F12" t="n">
-        <v>11530.15412702228</v>
+        <v>10693.69332418222</v>
       </c>
       <c r="G12" t="n">
-        <v>8022.310301267749</v>
+        <v>8905.800876932148</v>
       </c>
       <c r="H12" t="n">
-        <v>1.14</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>665158</v>
+        <v>651779</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24328691</v>
+        <v>24356994</v>
       </c>
       <c r="E13" t="n">
-        <v>24373565</v>
+        <v>24401919</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>894947</v>
+        <v>897943</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79298168</v>
+        <v>78786025</v>
       </c>
       <c r="E14" t="n">
-        <v>233305045</v>
+        <v>231798257</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>464577</v>
+        <v>471039</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>488257610</v>
+        <v>492400755</v>
       </c>
       <c r="E15" t="n">
-        <v>488257615</v>
+        <v>492400755</v>
       </c>
       <c r="F15" t="n">
-        <v>19295.67632350526</v>
+        <v>17926.480033836</v>
       </c>
       <c r="G15" t="n">
-        <v>20586.46578096232</v>
+        <v>20203.56551886599</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>75332109</v>
+        <v>76345660</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4623217</v>
+        <v>4588896</v>
       </c>
       <c r="E16" t="n">
-        <v>4623217</v>
+        <v>4588896</v>
       </c>
       <c r="F16" t="n">
-        <v>232.8794330056168</v>
+        <v>278.7864173074415</v>
       </c>
       <c r="G16" t="n">
-        <v>6692.283932199826</v>
+        <v>1053.388010602456</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="I16" t="n">
-        <v>2123200</v>
+        <v>2242827</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3321363</v>
+        <v>3287587</v>
       </c>
       <c r="E17" t="n">
-        <v>3321363</v>
+        <v>3287587</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>112142</v>
+        <v>626988</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166979656</v>
+        <v>166832088</v>
       </c>
       <c r="E18" t="n">
-        <v>206727767</v>
+        <v>206545072</v>
       </c>
       <c r="F18" t="n">
-        <v>8454.08808834002</v>
+        <v>5931.739390888092</v>
       </c>
       <c r="G18" t="n">
-        <v>9516.962180810284</v>
+        <v>10278.50842232791</v>
       </c>
       <c r="H18" t="n">
-        <v>1.39</v>
+        <v>0.52</v>
       </c>
       <c r="I18" t="n">
-        <v>574818</v>
+        <v>561779</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6945783</v>
+        <v>6880015</v>
       </c>
       <c r="E19" t="n">
-        <v>9566118</v>
+        <v>9475539</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>335854</v>
+        <v>366576</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>894416</v>
+        <v>868931</v>
       </c>
       <c r="E20" t="n">
-        <v>6260910</v>
+        <v>6082518</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>230847</v>
+        <v>245500</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>107859319</v>
+        <v>107526484</v>
       </c>
       <c r="E21" t="n">
-        <v>419315932</v>
+        <v>417997839</v>
       </c>
       <c r="F21" t="n">
-        <v>7601.091200821247</v>
+        <v>8373.872268194917</v>
       </c>
       <c r="G21" t="n">
-        <v>6344.681936837422</v>
+        <v>9730.772453925963</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>11838023</v>
+        <v>11819366</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1726150</v>
+        <v>1719150</v>
       </c>
       <c r="E22" t="n">
-        <v>12433313</v>
+        <v>12382892</v>
       </c>
       <c r="F22" t="n">
-        <v>3638.47106773526</v>
+        <v>4804.10778397388</v>
       </c>
       <c r="G22" t="n">
-        <v>6072.256082665583</v>
+        <v>4674.095671967249</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>53950</v>
+        <v>53888</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="E23" t="n">
-        <v>138550013</v>
+        <v>137091387</v>
       </c>
       <c r="F23" t="n">
-        <v>1133705.83448469</v>
+        <v>1018932.186171726</v>
       </c>
       <c r="G23" t="n">
-        <v>1156689.439791871</v>
+        <v>1117417.029316398</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>92178502</v>
+        <v>94546252</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63995135</v>
+        <v>63363251</v>
       </c>
       <c r="E24" t="n">
-        <v>328180181</v>
+        <v>324939751</v>
       </c>
       <c r="F24" t="n">
-        <v>72958.98339793687</v>
+        <v>77301.51071437768</v>
       </c>
       <c r="G24" t="n">
-        <v>92761.75673808929</v>
+        <v>117170.6997135704</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27038736</v>
+        <v>27431956</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="E25" t="n">
-        <v>251120335</v>
+        <v>249090612</v>
       </c>
       <c r="F25" t="n">
-        <v>293551.4426746162</v>
+        <v>374133.2542747033</v>
       </c>
       <c r="G25" t="n">
-        <v>420100.5940467747</v>
+        <v>384276.7277038375</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>27828445</v>
+        <v>25672811</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1118002</v>
+        <v>1117164</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>136550</v>
+        <v>136507</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2302800</v>
+        <v>2383664</v>
       </c>
       <c r="E27" t="n">
-        <v>2554046</v>
+        <v>2646236</v>
       </c>
       <c r="F27" t="n">
-        <v>227.2976246871281</v>
+        <v>195.4231774164507</v>
       </c>
       <c r="G27" t="n">
-        <v>374.1915140865764</v>
+        <v>451.4910676094172</v>
       </c>
       <c r="H27" t="n">
-        <v>2.29</v>
+        <v>1.69</v>
       </c>
       <c r="I27" t="n">
-        <v>320714</v>
+        <v>330014</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3797335</v>
+        <v>3781087</v>
       </c>
       <c r="E28" t="n">
-        <v>3798229</v>
+        <v>3781989</v>
       </c>
       <c r="F28" t="n">
-        <v>1107.292614209933</v>
+        <v>771.6380496569336</v>
       </c>
       <c r="G28" t="n">
-        <v>3409.368596381579</v>
+        <v>3016.719773278306</v>
       </c>
       <c r="H28" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="I28" t="n">
-        <v>259308</v>
+        <v>254782</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6906373</v>
+        <v>6834788</v>
       </c>
       <c r="E29" t="n">
-        <v>16775047</v>
+        <v>16601174</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>439006</v>
+        <v>430580</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>95921887</v>
+        <v>97297275</v>
       </c>
       <c r="E30" t="n">
-        <v>119603349</v>
+        <v>121318297</v>
       </c>
       <c r="F30" t="n">
-        <v>121179.7404642047</v>
+        <v>92662.51616933265</v>
       </c>
       <c r="G30" t="n">
-        <v>105286.1906724149</v>
+        <v>115689.4211594892</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>11707575</v>
+        <v>12103136</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1119234</v>
+        <v>1114776</v>
       </c>
       <c r="E31" t="n">
-        <v>12163415</v>
+        <v>12114964</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14437.03</v>
+        <v>14396.66</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>82098818</v>
+        <v>81610420</v>
       </c>
       <c r="E32" t="n">
-        <v>229685424</v>
+        <v>228305111</v>
       </c>
       <c r="F32" t="n">
-        <v>59461.90797402631</v>
+        <v>51158.89330354823</v>
       </c>
       <c r="G32" t="n">
-        <v>67019.61439032435</v>
+        <v>60534.91552692671</v>
       </c>
       <c r="H32" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>52881346</v>
+        <v>53641131</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4160633</v>
+        <v>4079054</v>
       </c>
       <c r="E33" t="n">
-        <v>8205118</v>
+        <v>8044238</v>
       </c>
       <c r="F33" t="n">
-        <v>8387.697173134569</v>
+        <v>6053.607571689958</v>
       </c>
       <c r="G33" t="n">
-        <v>6672.347727337603</v>
+        <v>7150.124071781538</v>
       </c>
       <c r="H33" t="n">
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>1664504</v>
+        <v>1666716</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36366600</v>
+        <v>36458901</v>
       </c>
       <c r="F34" t="n">
-        <v>245.7086071311975</v>
+        <v>241.8713179468168</v>
       </c>
       <c r="G34" t="n">
-        <v>430.6214085122882</v>
+        <v>430.4653609793756</v>
       </c>
       <c r="H34" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="I34" t="n">
-        <v>43216</v>
+        <v>41896</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17400978</v>
+        <v>17280159</v>
       </c>
       <c r="E35" t="n">
-        <v>18340223</v>
+        <v>18212882</v>
       </c>
       <c r="F35" t="n">
-        <v>3554.223402768074</v>
+        <v>3539.807772859437</v>
       </c>
       <c r="G35" t="n">
-        <v>2560.410405333954</v>
+        <v>2561.739180587707</v>
       </c>
       <c r="H35" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="I35" t="n">
-        <v>41192</v>
+        <v>41165</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23206517</v>
+        <v>23187606</v>
       </c>
       <c r="F36" t="n">
-        <v>5133.496989912893</v>
+        <v>5179.194339385342</v>
       </c>
       <c r="G36" t="n">
-        <v>5576.258776994252</v>
+        <v>5547.31621810436</v>
       </c>
       <c r="H36" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="I36" t="n">
-        <v>129616</v>
+        <v>131639</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>83483591</v>
+        <v>83367188</v>
       </c>
       <c r="E37" t="n">
-        <v>174056583</v>
+        <v>173813891</v>
       </c>
       <c r="F37" t="n">
-        <v>53718.68096820216</v>
+        <v>48107.56517261121</v>
       </c>
       <c r="G37" t="n">
-        <v>51723.76842533828</v>
+        <v>41662.68119296809</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>69256271</v>
+        <v>70149324</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>268257799</v>
+        <v>266653169</v>
       </c>
       <c r="E38" t="n">
-        <v>268257799</v>
+        <v>266653169</v>
       </c>
       <c r="F38" t="n">
-        <v>26879.64655398741</v>
+        <v>30174.56835068776</v>
       </c>
       <c r="G38" t="n">
-        <v>32208.50225584872</v>
+        <v>33359.80504756225</v>
       </c>
       <c r="H38" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I38" t="n">
-        <v>12518726</v>
+        <v>12433141</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>196452022</v>
+        <v>194781492</v>
       </c>
       <c r="E39" t="n">
-        <v>682492079</v>
+        <v>676688507</v>
       </c>
       <c r="F39" t="n">
-        <v>50273.38863217775</v>
+        <v>165860.9408731195</v>
       </c>
       <c r="G39" t="n">
-        <v>299486.6121857435</v>
+        <v>256922.7192450145</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>39890564</v>
+        <v>40672404</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3363992</v>
+        <v>3431489</v>
       </c>
       <c r="E40" t="n">
-        <v>3363992</v>
+        <v>3431489</v>
       </c>
       <c r="F40" t="n">
-        <v>882.140688858138</v>
+        <v>884.0509932285662</v>
       </c>
       <c r="G40" t="n">
-        <v>1108.679242965836</v>
+        <v>2406.592539522248</v>
       </c>
       <c r="H40" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="I40" t="n">
-        <v>2422563</v>
+        <v>2369413</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109492732</v>
+        <v>108921114</v>
       </c>
       <c r="E41" t="n">
-        <v>464525152</v>
+        <v>462051573</v>
       </c>
       <c r="F41" t="n">
-        <v>5120.541165443262</v>
+        <v>4609.220782425955</v>
       </c>
       <c r="G41" t="n">
-        <v>7668.041737395311</v>
+        <v>7309.033417106242</v>
       </c>
       <c r="H41" t="n">
         <v>0.26</v>
       </c>
       <c r="I41" t="n">
-        <v>15010860</v>
+        <v>15245040</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>552887</v>
+        <v>534985</v>
       </c>
       <c r="E42" t="n">
-        <v>6705978</v>
+        <v>6488851</v>
       </c>
       <c r="F42" t="n">
-        <v>178.4049792380809</v>
+        <v>373.2298732842061</v>
       </c>
       <c r="G42" t="n">
-        <v>814.5832918579779</v>
+        <v>640.7425783603853</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9</v>
+        <v>1.82</v>
       </c>
       <c r="I42" t="n">
-        <v>2860188</v>
+        <v>2849086</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1356644231</v>
+        <v>1376156004</v>
       </c>
       <c r="E43" t="n">
-        <v>6505386922</v>
+        <v>6598949869</v>
       </c>
       <c r="F43" t="n">
-        <v>40391.57819986533</v>
+        <v>20496.42395755276</v>
       </c>
       <c r="G43" t="n">
-        <v>45237.57402835036</v>
+        <v>21989.11767859544</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>460788854</v>
+        <v>478282951</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5924907075</v>
+        <v>5918713558</v>
       </c>
       <c r="E44" t="n">
-        <v>5924907075</v>
+        <v>5917750453</v>
       </c>
       <c r="F44" t="n">
-        <v>1092130.661086493</v>
+        <v>683475.2334445074</v>
       </c>
       <c r="G44" t="n">
-        <v>46375.05891165614</v>
+        <v>508463.6966703304</v>
       </c>
       <c r="H44" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>384431542</v>
+        <v>388094199</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>258233724</v>
+        <v>258223292</v>
       </c>
       <c r="E45" t="n">
-        <v>1114680107</v>
+        <v>1114635077</v>
       </c>
       <c r="F45" t="n">
-        <v>72061.67979265514</v>
+        <v>97702.76790706749</v>
       </c>
       <c r="G45" t="n">
-        <v>94178.53743485115</v>
+        <v>85658.98957906209</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>138268535</v>
+        <v>142464381</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112716252</v>
+        <v>111832343</v>
       </c>
       <c r="E46" t="n">
-        <v>112716252</v>
+        <v>111832343</v>
       </c>
       <c r="F46" t="n">
-        <v>24517.49046607553</v>
+        <v>35209.63723275238</v>
       </c>
       <c r="G46" t="n">
-        <v>43260.13444131421</v>
+        <v>30820.42534252099</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="I46" t="n">
-        <v>6910566</v>
+        <v>7004834</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2037018863</v>
+        <v>2039310654</v>
       </c>
       <c r="E47" t="n">
-        <v>2037018863</v>
+        <v>2039310654</v>
       </c>
       <c r="F47" t="n">
-        <v>227232.8436552455</v>
+        <v>227125.1360522453</v>
       </c>
       <c r="G47" t="n">
-        <v>200558.465631469</v>
+        <v>200485.8927165148</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" t="n">
-        <v>8796913549</v>
+        <v>8982278477</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10196165</v>
+        <v>10132347</v>
       </c>
       <c r="F48" t="n">
-        <v>6399.313011401581</v>
+        <v>6735.977087907899</v>
       </c>
       <c r="G48" t="n">
-        <v>6399.663686109783</v>
+        <v>6372.678911645847</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>187094</v>
+        <v>187989</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4211943</v>
+        <v>4146977</v>
       </c>
       <c r="E49" t="n">
-        <v>5529731</v>
+        <v>5444440</v>
       </c>
       <c r="F49" t="n">
-        <v>6462.919734970773</v>
+        <v>6318.075720145916</v>
       </c>
       <c r="G49" t="n">
-        <v>2408.802872211065</v>
+        <v>2619.382824436997</v>
       </c>
       <c r="H49" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>607401</v>
+        <v>588932</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12524852</v>
+        <v>12409923</v>
       </c>
       <c r="E50" t="n">
-        <v>18417558</v>
+        <v>18248557</v>
       </c>
       <c r="F50" t="n">
-        <v>2283.822944729853</v>
+        <v>6700.415731344892</v>
       </c>
       <c r="G50" t="n">
-        <v>19999.26278281412</v>
+        <v>10257.48535649652</v>
       </c>
       <c r="H50" t="n">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="I50" t="n">
-        <v>7016393</v>
+        <v>7054516</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22137467</v>
+        <v>21863437</v>
       </c>
       <c r="E51" t="n">
-        <v>28717359</v>
+        <v>28361880</v>
       </c>
       <c r="F51" t="n">
-        <v>10095.26080305357</v>
+        <v>10070.25377977855</v>
       </c>
       <c r="G51" t="n">
-        <v>12937.60204111869</v>
+        <v>16752.63358012453</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>215720</v>
+        <v>222865</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13532084</v>
+        <v>13405102</v>
       </c>
       <c r="E52" t="n">
-        <v>13532084</v>
+        <v>13405102</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5246359</v>
+        <v>5445555</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98179437</v>
+        <v>97566666</v>
       </c>
       <c r="E53" t="n">
-        <v>121444449</v>
+        <v>120686473</v>
       </c>
       <c r="F53" t="n">
-        <v>371.2773954262948</v>
+        <v>527.8088422041528</v>
       </c>
       <c r="G53" t="n">
-        <v>3883.348029615173</v>
+        <v>3815.071920041692</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>1106774</v>
+        <v>1092307</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5027453</v>
+        <v>4983729</v>
       </c>
       <c r="E54" t="n">
-        <v>7034135</v>
+        <v>6972960</v>
       </c>
       <c r="F54" t="n">
-        <v>436.8057383892246</v>
+        <v>383.2235125222464</v>
       </c>
       <c r="G54" t="n">
-        <v>333.0663065618985</v>
+        <v>263.2435280157746</v>
       </c>
       <c r="H54" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="I54" t="n">
-        <v>68690</v>
+        <v>70406</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13921950</v>
+        <v>14132735</v>
       </c>
       <c r="E55" t="n">
-        <v>67426228</v>
+        <v>68447090</v>
       </c>
       <c r="F55" t="n">
-        <v>9976.388781138334</v>
+        <v>16748.73890281637</v>
       </c>
       <c r="G55" t="n">
-        <v>8336.37037401347</v>
+        <v>9538.095072287491</v>
       </c>
       <c r="H55" t="n">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>5243315</v>
+        <v>5426916</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56936</v>
+        <v>56956</v>
       </c>
       <c r="E56" t="n">
-        <v>136375</v>
+        <v>136421</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16449.14</v>
+        <v>16678.02</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1845519959</v>
+        <v>1835743288</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30189856</v>
+        <v>30550810</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12173298</v>
+        <v>11809711</v>
       </c>
       <c r="E58" t="n">
-        <v>17649526</v>
+        <v>17122376</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2048327</v>
+        <v>2042547</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>119080209</v>
+        <v>117411310</v>
       </c>
       <c r="E59" t="n">
-        <v>316685474</v>
+        <v>312247152</v>
       </c>
       <c r="F59" t="n">
-        <v>7524.760631227095</v>
+        <v>7355.18691610417</v>
       </c>
       <c r="G59" t="n">
-        <v>6991.941471440618</v>
+        <v>7172.385221151941</v>
       </c>
       <c r="H59" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="I59" t="n">
-        <v>702916</v>
+        <v>705864</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29080141</v>
+        <v>29327244</v>
       </c>
       <c r="E60" t="n">
-        <v>90546228</v>
+        <v>91315629</v>
       </c>
       <c r="F60" t="n">
-        <v>2925.747365912579</v>
+        <v>2018.448101161283</v>
       </c>
       <c r="G60" t="n">
-        <v>5480.47422015258</v>
+        <v>5699.697273226388</v>
       </c>
       <c r="H60" t="n">
-        <v>0.62</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
-        <v>10377703</v>
+        <v>10291560</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1827661</v>
+        <v>1834704</v>
       </c>
       <c r="E61" t="n">
-        <v>13105976</v>
+        <v>13156480</v>
       </c>
       <c r="F61" t="n">
-        <v>5265.169045138449</v>
+        <v>4993.840412160234</v>
       </c>
       <c r="G61" t="n">
-        <v>37.31627666872809</v>
+        <v>196.9669160793712</v>
       </c>
       <c r="H61" t="n">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="I61" t="n">
-        <v>2073249</v>
+        <v>2041374</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>190422773</v>
+        <v>190925384</v>
       </c>
       <c r="E62" t="n">
-        <v>1078290743</v>
+        <v>1081136838</v>
       </c>
       <c r="F62" t="n">
-        <v>478358.615378376</v>
+        <v>558986.4913617653</v>
       </c>
       <c r="G62" t="n">
-        <v>699738.6595061354</v>
+        <v>804180.977144148</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>83755347</v>
+        <v>85519769</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>487990</v>
+        <v>487105</v>
       </c>
       <c r="E63" t="n">
-        <v>1642506</v>
+        <v>1639528</v>
       </c>
       <c r="F63" t="n">
-        <v>4442.349213455539</v>
+        <v>4496.499838464747</v>
       </c>
       <c r="G63" t="n">
-        <v>476.9602890595788</v>
+        <v>660.8694424092255</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>637387</v>
+        <v>640287</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>346951</v>
+        <v>347041</v>
       </c>
       <c r="E64" t="n">
-        <v>346951</v>
+        <v>347041</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2349.14</v>
+        <v>2420.95</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>122487304</v>
+        <v>123906829</v>
       </c>
       <c r="E65" t="n">
-        <v>907313360</v>
+        <v>917828366</v>
       </c>
       <c r="F65" t="n">
-        <v>11195.68445273057</v>
+        <v>1747.42585922178</v>
       </c>
       <c r="G65" t="n">
-        <v>37217.20402967556</v>
+        <v>35118.79212278282</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="I65" t="n">
-        <v>25297282</v>
+        <v>26242744</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8600517</v>
+        <v>8596083</v>
       </c>
       <c r="E66" t="n">
-        <v>11521825</v>
+        <v>11515885</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>44783</v>
+        <v>82982</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35281142</v>
+        <v>34294803</v>
       </c>
       <c r="E67" t="n">
-        <v>35281142</v>
+        <v>34294803</v>
       </c>
       <c r="F67" t="n">
-        <v>7245.301772899585</v>
+        <v>8178.856567096062</v>
       </c>
       <c r="G67" t="n">
-        <v>4920.180101112874</v>
+        <v>5155.0646245706</v>
       </c>
       <c r="H67" t="n">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="I67" t="n">
-        <v>974344</v>
+        <v>967788</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1536400</v>
+        <v>1528179</v>
       </c>
       <c r="E68" t="n">
-        <v>11931858</v>
+        <v>11868009</v>
       </c>
       <c r="F68" t="n">
-        <v>15258.30444471999</v>
+        <v>17695.55518926151</v>
       </c>
       <c r="G68" t="n">
-        <v>19740.96041566803</v>
+        <v>17007.52903117241</v>
       </c>
       <c r="H68" t="n">
         <v>0.84</v>
       </c>
       <c r="I68" t="n">
-        <v>504816</v>
+        <v>516252</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>320533673</v>
+        <v>320406039</v>
       </c>
       <c r="E69" t="n">
-        <v>2883719677</v>
+        <v>2882571408</v>
       </c>
       <c r="F69" t="n">
-        <v>1154999.899696953</v>
+        <v>1225089.47324705</v>
       </c>
       <c r="G69" t="n">
-        <v>1545513.823505566</v>
+        <v>1681807.276918046</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>62869376</v>
+        <v>65853035</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251771</v>
+        <v>249629</v>
       </c>
       <c r="E70" t="n">
-        <v>2222069</v>
+        <v>2203166</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>68076</v>
+        <v>70482</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1534048</v>
+        <v>1532570</v>
       </c>
       <c r="E71" t="n">
-        <v>12783733</v>
+        <v>12771420</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>29517</v>
+        <v>30196</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9441166</v>
+        <v>9403831</v>
       </c>
       <c r="E72" t="n">
-        <v>43760345</v>
+        <v>43587299</v>
       </c>
       <c r="F72" t="n">
-        <v>10041.89256981841</v>
+        <v>10571.83782542675</v>
       </c>
       <c r="G72" t="n">
-        <v>3289.668820040792</v>
+        <v>3338.648814061197</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="I72" t="n">
-        <v>117962</v>
+        <v>118753</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46552584</v>
+        <v>46650773</v>
       </c>
       <c r="E73" t="n">
-        <v>269520224</v>
+        <v>270088697</v>
       </c>
       <c r="F73" t="n">
-        <v>99346.5733334437</v>
+        <v>96129.10946718878</v>
       </c>
       <c r="G73" t="n">
-        <v>189383.0678595018</v>
+        <v>167456.9075148366</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>51670172</v>
+        <v>52118066</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39215701</v>
+        <v>38943014</v>
       </c>
       <c r="E74" t="n">
-        <v>54162467</v>
+        <v>53785848</v>
       </c>
       <c r="F74" t="n">
-        <v>798.0177894000807</v>
+        <v>4631.83234500943</v>
       </c>
       <c r="G74" t="n">
-        <v>574.9805441652064</v>
+        <v>4379.283947732541</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>310145</v>
+        <v>307139</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>108901</v>
+        <v>105587</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4101.06</v>
+        <v>3976.22</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13578115</v>
+        <v>13426390</v>
       </c>
       <c r="E76" t="n">
-        <v>13624323</v>
+        <v>13472081</v>
       </c>
       <c r="F76" t="n">
-        <v>704.9127809851103</v>
+        <v>955.8743413348092</v>
       </c>
       <c r="G76" t="n">
-        <v>6218.115282814314</v>
+        <v>2703.636370106868</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>6707458</v>
+        <v>6134204</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42379105</v>
+        <v>42182738</v>
       </c>
       <c r="E77" t="n">
-        <v>71949862</v>
+        <v>71616476</v>
       </c>
       <c r="F77" t="n">
-        <v>4803.741971670367</v>
+        <v>7149.496843846034</v>
       </c>
       <c r="G77" t="n">
-        <v>7674.884764487931</v>
+        <v>5966.102329079542</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1132425</v>
+        <v>1139161</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19244560</v>
+        <v>19426458</v>
       </c>
       <c r="E78" t="n">
-        <v>57699105</v>
+        <v>58242350</v>
       </c>
       <c r="F78" t="n">
-        <v>27750.13195654071</v>
+        <v>34448.68665007637</v>
       </c>
       <c r="G78" t="n">
-        <v>45688.13409377144</v>
+        <v>60679.49468972515</v>
       </c>
       <c r="H78" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="I78" t="n">
-        <v>4388546</v>
+        <v>4376626</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>97689515</v>
+        <v>99705708</v>
       </c>
       <c r="E79" t="n">
-        <v>103852783</v>
+        <v>105996178</v>
       </c>
       <c r="F79" t="n">
-        <v>1275.508748996264</v>
+        <v>1359.761757073926</v>
       </c>
       <c r="G79" t="n">
-        <v>5865.155116608405</v>
+        <v>5550.986457819145</v>
       </c>
       <c r="H79" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="I79" t="n">
-        <v>539943</v>
+        <v>1825456</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10434202</v>
+        <v>10408980</v>
       </c>
       <c r="E80" t="n">
-        <v>45289934</v>
+        <v>45179632</v>
       </c>
       <c r="F80" t="n">
-        <v>5659.139935005323</v>
+        <v>6034.756603720997</v>
       </c>
       <c r="G80" t="n">
-        <v>6279.073868279978</v>
+        <v>5829.581271409908</v>
       </c>
       <c r="H80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>123146</v>
+        <v>120897</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15079335</v>
+        <v>15014626</v>
       </c>
       <c r="E81" t="n">
-        <v>92426205</v>
+        <v>92029581</v>
       </c>
       <c r="F81" t="n">
-        <v>2847.976155515576</v>
+        <v>5255.716025630173</v>
       </c>
       <c r="G81" t="n">
-        <v>3614.097284176245</v>
+        <v>15965.24279221415</v>
       </c>
       <c r="H81" t="n">
-        <v>1.03</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>12155768</v>
+        <v>12155115</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1442771</v>
+        <v>1456129</v>
       </c>
       <c r="E82" t="n">
-        <v>1483355</v>
+        <v>1497088</v>
       </c>
       <c r="F82" t="n">
-        <v>2301.768332482234</v>
+        <v>1558.060381379271</v>
       </c>
       <c r="G82" t="n">
-        <v>1964.927268843081</v>
+        <v>2698.541743835285</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="I82" t="n">
-        <v>149475</v>
+        <v>93028</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>47587797</v>
+        <v>50485655</v>
       </c>
       <c r="E83" t="n">
-        <v>205003028</v>
+        <v>217486680</v>
       </c>
       <c r="F83" t="n">
-        <v>4304.028272007309</v>
+        <v>2977.339455900523</v>
       </c>
       <c r="G83" t="n">
-        <v>3004.143390544677</v>
+        <v>312.5389797112453</v>
       </c>
       <c r="H83" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="I83" t="n">
-        <v>12139931</v>
+        <v>12827172</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2287868</v>
+        <v>2215977</v>
       </c>
       <c r="E84" t="n">
-        <v>8304827</v>
+        <v>8043764</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>219539</v>
+        <v>217416</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8845624</v>
+        <v>8860370</v>
       </c>
       <c r="E85" t="n">
-        <v>19618337</v>
+        <v>19651042</v>
       </c>
       <c r="F85" t="n">
-        <v>3136.845153275463</v>
+        <v>5941.602304120025</v>
       </c>
       <c r="G85" t="n">
-        <v>5560.273689035761</v>
+        <v>7063.264642736489</v>
       </c>
       <c r="H85" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>331368</v>
+        <v>330965</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2443797</v>
+        <v>2440951</v>
       </c>
       <c r="E86" t="n">
-        <v>18388943</v>
+        <v>18367528</v>
       </c>
       <c r="F86" t="n">
-        <v>5078.238643272841</v>
+        <v>5081.792205926669</v>
       </c>
       <c r="G86" t="n">
-        <v>12221.31591896669</v>
+        <v>12048.16630048449</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161335</v>
+        <v>161474</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20060308</v>
+        <v>19751105</v>
       </c>
       <c r="E87" t="n">
-        <v>80241233</v>
+        <v>79004420</v>
       </c>
       <c r="F87" t="n">
-        <v>656.7497413637733</v>
+        <v>16011.18799422121</v>
       </c>
       <c r="G87" t="n">
-        <v>1366.889982534292</v>
+        <v>26146.61580514469</v>
       </c>
       <c r="H87" t="n">
-        <v>2.34</v>
+        <v>0.38</v>
       </c>
       <c r="I87" t="n">
-        <v>2949066</v>
+        <v>3154839</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4609532</v>
+        <v>4529584</v>
       </c>
       <c r="E88" t="n">
-        <v>4609532</v>
+        <v>4529584</v>
       </c>
       <c r="F88" t="n">
-        <v>2968.178801144987</v>
+        <v>2970.289038010649</v>
       </c>
       <c r="G88" t="n">
-        <v>2041.879817303568</v>
+        <v>1538.834575538099</v>
       </c>
       <c r="H88" t="n">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="I88" t="n">
-        <v>2887751</v>
+        <v>2883405</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12555276</v>
+        <v>12600975</v>
       </c>
       <c r="E89" t="n">
-        <v>39710909</v>
+        <v>39855453</v>
       </c>
       <c r="F89" t="n">
-        <v>14998.08009911421</v>
+        <v>14212.8745273158</v>
       </c>
       <c r="G89" t="n">
-        <v>12853.3980932936</v>
+        <v>15206.99121209104</v>
       </c>
       <c r="H89" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I89" t="n">
-        <v>1012000</v>
+        <v>1024430</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24849</v>
+        <v>24801</v>
       </c>
       <c r="E90" t="n">
-        <v>195427</v>
+        <v>195054</v>
       </c>
       <c r="F90" t="n">
-        <v>310.8454096996643</v>
+        <v>395.3759578087377</v>
       </c>
       <c r="G90" t="n">
-        <v>667.4621012828082</v>
+        <v>442.7855473364252</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>43806</v>
+        <v>41559</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7746487</v>
+        <v>7296002</v>
       </c>
       <c r="E91" t="n">
-        <v>7746487</v>
+        <v>7296002</v>
       </c>
       <c r="F91" t="n">
-        <v>2808.466760002357</v>
+        <v>1031.574650154373</v>
       </c>
       <c r="G91" t="n">
-        <v>5198.509473269428</v>
+        <v>4912.829115088746</v>
       </c>
       <c r="H91" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="I91" t="n">
-        <v>3871640</v>
+        <v>3944074</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9185510</v>
+        <v>9016543</v>
       </c>
       <c r="E92" t="n">
-        <v>9185510</v>
+        <v>9016543</v>
       </c>
       <c r="F92" t="n">
-        <v>5702.615690563468</v>
+        <v>5512.483167685078</v>
       </c>
       <c r="G92" t="n">
-        <v>4738.58632573177</v>
+        <v>4760.14635866525</v>
       </c>
       <c r="H92" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="I92" t="n">
-        <v>2156426</v>
+        <v>2155445</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31031064</v>
+        <v>31003991</v>
       </c>
       <c r="E93" t="n">
-        <v>78245446</v>
+        <v>78177181</v>
       </c>
       <c r="F93" t="n">
-        <v>1314.278434025211</v>
+        <v>572.6386428789863</v>
       </c>
       <c r="G93" t="n">
-        <v>1883.054826714834</v>
+        <v>2427.502815524223</v>
       </c>
       <c r="H93" t="n">
-        <v>0.26</v>
+        <v>0.77</v>
       </c>
       <c r="I93" t="n">
-        <v>5799686</v>
+        <v>6001360</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301105409</v>
+        <v>297359016</v>
       </c>
       <c r="E94" t="n">
-        <v>305814992</v>
+        <v>302009988</v>
       </c>
       <c r="F94" t="n">
-        <v>4917.455028791549</v>
+        <v>18983.5941192523</v>
       </c>
       <c r="G94" t="n">
-        <v>17654.53956231652</v>
+        <v>53980.67798048988</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I94" t="n">
-        <v>24177455</v>
+        <v>24811114</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1032.513131938951</v>
+        <v>1031.749518516016</v>
       </c>
       <c r="G95" t="n">
-        <v>6444.733385763617</v>
+        <v>6347.537604972896</v>
       </c>
       <c r="H95" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>210626</v>
+        <v>208878</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>75791756</v>
+        <v>76191108</v>
       </c>
       <c r="E96" t="n">
-        <v>75791756</v>
+        <v>76191108</v>
       </c>
       <c r="F96" t="n">
-        <v>9352.760679673474</v>
+        <v>10920.95664590277</v>
       </c>
       <c r="G96" t="n">
-        <v>5271.822392143617</v>
+        <v>7493.579429722369</v>
       </c>
       <c r="H96" t="n">
         <v>0.53</v>
       </c>
       <c r="I96" t="n">
-        <v>5355504</v>
+        <v>4761805</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>288734142</v>
+        <v>286784523</v>
       </c>
       <c r="E97" t="n">
-        <v>288734142</v>
+        <v>286784523</v>
       </c>
       <c r="F97" t="n">
-        <v>331276.9593446592</v>
+        <v>306307.1396710416</v>
       </c>
       <c r="G97" t="n">
-        <v>391056.5915743255</v>
+        <v>463239.9131693676</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I97" t="n">
-        <v>88577937</v>
+        <v>92375360</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4542300</v>
+        <v>4643052</v>
       </c>
       <c r="E98" t="n">
-        <v>31037214</v>
+        <v>31725648</v>
       </c>
       <c r="F98" t="n">
-        <v>24046.68298033983</v>
+        <v>5119.332779852839</v>
       </c>
       <c r="G98" t="n">
-        <v>4690.334763095663</v>
+        <v>272.8560656278797</v>
       </c>
       <c r="H98" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>2861256</v>
+        <v>2940133</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84605856</v>
+        <v>83996684</v>
       </c>
       <c r="E99" t="n">
-        <v>487535435</v>
+        <v>484025125</v>
       </c>
       <c r="F99" t="n">
-        <v>143485.1555225527</v>
+        <v>109917.2344615065</v>
       </c>
       <c r="G99" t="n">
-        <v>149596.0314579952</v>
+        <v>124287.7153312744</v>
       </c>
       <c r="H99" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I99" t="n">
-        <v>21075965</v>
+        <v>21468696</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>105294216</v>
+        <v>104633146</v>
       </c>
       <c r="E100" t="n">
-        <v>259064908</v>
+        <v>257438419</v>
       </c>
       <c r="F100" t="n">
-        <v>32155.49317905399</v>
+        <v>31854.67540793134</v>
       </c>
       <c r="G100" t="n">
-        <v>29341.7919857662</v>
+        <v>36572.9217533891</v>
       </c>
       <c r="H100" t="n">
         <v>0.23</v>
       </c>
       <c r="I100" t="n">
-        <v>2656027</v>
+        <v>2735890</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>233116187</v>
+        <v>230623899</v>
       </c>
       <c r="E101" t="n">
-        <v>233118503</v>
+        <v>230626191</v>
       </c>
       <c r="F101" t="n">
-        <v>38982.98132095162</v>
+        <v>22918.99654871379</v>
       </c>
       <c r="G101" t="n">
-        <v>3571.816854519838</v>
+        <v>22314.57404423812</v>
       </c>
       <c r="H101" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="I101" t="n">
-        <v>1915116</v>
+        <v>1951765</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>28900450</v>
+        <v>28719746</v>
       </c>
       <c r="E102" t="n">
-        <v>129399171</v>
+        <v>128590084</v>
       </c>
       <c r="F102" t="n">
-        <v>68242.43387243868</v>
+        <v>67827.84299401364</v>
       </c>
       <c r="G102" t="n">
-        <v>93007.46046840941</v>
+        <v>109687.2831196101</v>
       </c>
       <c r="H102" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>13609790</v>
+        <v>14150188</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2943914</v>
+        <v>2920014</v>
       </c>
       <c r="E103" t="n">
-        <v>2943914</v>
+        <v>2920014</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>345362</v>
+        <v>327287</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5858736</v>
+        <v>5843246</v>
       </c>
       <c r="E104" t="n">
-        <v>15376245</v>
+        <v>15335593</v>
       </c>
       <c r="F104" t="n">
-        <v>532.1467425266336</v>
+        <v>603.112718606214</v>
       </c>
       <c r="G104" t="n">
-        <v>21.36426299698268</v>
+        <v>20.60096224062448</v>
       </c>
       <c r="H104" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="I104" t="n">
-        <v>25551</v>
+        <v>25813</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16172797</v>
+        <v>16058974</v>
       </c>
       <c r="E105" t="n">
-        <v>74651450</v>
+        <v>74126059</v>
       </c>
       <c r="F105" t="n">
-        <v>6709.295785425188</v>
+        <v>5166.067903499626</v>
       </c>
       <c r="G105" t="n">
-        <v>4951.342660417571</v>
+        <v>4353.370422964615</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="I105" t="n">
-        <v>1254415</v>
+        <v>1273593</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48329912</v>
+        <v>47586036</v>
       </c>
       <c r="E106" t="n">
-        <v>313406615</v>
+        <v>308582781</v>
       </c>
       <c r="F106" t="n">
-        <v>87480.42796642789</v>
+        <v>121687.5513906618</v>
       </c>
       <c r="G106" t="n">
-        <v>81788.16219004792</v>
+        <v>143144.2852172914</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>20548471</v>
+        <v>20849191</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2473582</v>
+        <v>2478051</v>
       </c>
       <c r="E107" t="n">
-        <v>4481359</v>
+        <v>4489456</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>136007</v>
+        <v>130978</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123026500</v>
+        <v>123621473</v>
       </c>
       <c r="E108" t="n">
-        <v>2037419602</v>
+        <v>2047272841</v>
       </c>
       <c r="F108" t="n">
-        <v>27368.5718426621</v>
+        <v>157976.893213973</v>
       </c>
       <c r="G108" t="n">
-        <v>29576.28045028188</v>
+        <v>172395.1525713626</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>33836605</v>
+        <v>35073536</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23116096</v>
+        <v>22781121</v>
       </c>
       <c r="E109" t="n">
-        <v>138308247</v>
+        <v>136304027</v>
       </c>
       <c r="F109" t="n">
-        <v>39887.40950631551</v>
+        <v>39141.77043924671</v>
       </c>
       <c r="G109" t="n">
-        <v>37953.70912159824</v>
+        <v>37309.90524825804</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I109" t="n">
-        <v>13343031</v>
+        <v>17884647</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1060543</v>
+        <v>1060728</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>89598</v>
+        <v>91077</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2189239</v>
+        <v>2184959</v>
       </c>
       <c r="F111" t="n">
-        <v>3732.438748037458</v>
+        <v>3674.74077728805</v>
       </c>
       <c r="G111" t="n">
-        <v>194.0721257082593</v>
+        <v>252.1222867658739</v>
       </c>
       <c r="H111" t="n">
         <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>179192</v>
+        <v>179596</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147364658</v>
+        <v>147414690</v>
       </c>
       <c r="F112" t="n">
-        <v>8559.492654517398</v>
+        <v>8555.897679577432</v>
       </c>
       <c r="G112" t="n">
-        <v>3479.649559197629</v>
+        <v>3527.561129596619</v>
       </c>
       <c r="H112" t="n">
         <v>0.47</v>
       </c>
       <c r="I112" t="n">
-        <v>58967</v>
+        <v>63209</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6290773</v>
+        <v>6300346</v>
       </c>
       <c r="E113" t="n">
-        <v>32364113</v>
+        <v>32413368</v>
       </c>
       <c r="F113" t="n">
-        <v>343.5239065134543</v>
+        <v>367.1991472537874</v>
       </c>
       <c r="G113" t="n">
-        <v>2986.413487358722</v>
+        <v>978.8838080333644</v>
       </c>
       <c r="H113" t="n">
         <v>0.92</v>
       </c>
       <c r="I113" t="n">
-        <v>947288</v>
+        <v>950097</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30040825</v>
+        <v>29889648</v>
       </c>
       <c r="E114" t="n">
-        <v>41191224</v>
+        <v>40983933</v>
       </c>
       <c r="F114" t="n">
-        <v>4636.904968228751</v>
+        <v>5316.530910915847</v>
       </c>
       <c r="G114" t="n">
-        <v>3964.553602321057</v>
+        <v>4256.214415817506</v>
       </c>
       <c r="H114" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I114" t="n">
-        <v>303602</v>
+        <v>348896</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7605349</v>
+        <v>7587064</v>
       </c>
       <c r="F115" t="n">
-        <v>1954.803740681392</v>
+        <v>2025.859585304334</v>
       </c>
       <c r="G115" t="n">
-        <v>5572.567508997002</v>
+        <v>5625.660257992882</v>
       </c>
       <c r="H115" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="I115" t="n">
-        <v>650509</v>
+        <v>538869</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3421750</v>
+        <v>3420098</v>
       </c>
       <c r="E116" t="n">
-        <v>4583651</v>
+        <v>4581438</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>148766</v>
+        <v>149618</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32416621</v>
+        <v>32194902</v>
       </c>
       <c r="E117" t="n">
-        <v>161773882</v>
+        <v>160667405</v>
       </c>
       <c r="F117" t="n">
-        <v>80153.74540789</v>
+        <v>88374.25685430897</v>
       </c>
       <c r="G117" t="n">
-        <v>73119.51405789654</v>
+        <v>80405.61754705856</v>
       </c>
       <c r="H117" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I117" t="n">
-        <v>13644708</v>
+        <v>13906912</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3408430</v>
+        <v>3488632</v>
       </c>
       <c r="E118" t="n">
-        <v>4896273</v>
+        <v>5011485</v>
       </c>
       <c r="F118" t="n">
-        <v>541.6021664569961</v>
+        <v>541.3817988043483</v>
       </c>
       <c r="G118" t="n">
-        <v>630.337407487649</v>
+        <v>788.9463006636157</v>
       </c>
       <c r="H118" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="I118" t="n">
-        <v>13835.92</v>
+        <v>150077</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>291648261</v>
+        <v>290134678</v>
       </c>
       <c r="E119" t="n">
-        <v>539615793</v>
+        <v>536815318</v>
       </c>
       <c r="F119" t="n">
-        <v>38225.06611285064</v>
+        <v>34774.35855341922</v>
       </c>
       <c r="G119" t="n">
-        <v>30076.10681445821</v>
+        <v>31197.3876244114</v>
       </c>
       <c r="H119" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="I119" t="n">
-        <v>16530084</v>
+        <v>17097857</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69312201</v>
+        <v>69198362</v>
       </c>
       <c r="E120" t="n">
-        <v>661122558</v>
+        <v>660032117</v>
       </c>
       <c r="F120" t="n">
-        <v>1269.33673446594</v>
+        <v>5400.330908468351</v>
       </c>
       <c r="G120" t="n">
-        <v>2897.166444101516</v>
+        <v>1807.318687733099</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I120" t="n">
-        <v>23451387</v>
+        <v>23954276</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36086659</v>
+        <v>35550650</v>
       </c>
       <c r="E121" t="n">
-        <v>47177728</v>
+        <v>46476939</v>
       </c>
       <c r="F121" t="n">
-        <v>7020.938799115136</v>
+        <v>871.6735821999628</v>
       </c>
       <c r="G121" t="n">
-        <v>9.997354721803239</v>
+        <v>5515.78245385124</v>
       </c>
       <c r="H121" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="I121" t="n">
-        <v>435393</v>
+        <v>329474</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8731388</v>
+        <v>8987146</v>
       </c>
       <c r="E122" t="n">
-        <v>25884534</v>
+        <v>26642738</v>
       </c>
       <c r="F122" t="n">
-        <v>696.3121114621969</v>
+        <v>903.4348305091156</v>
       </c>
       <c r="G122" t="n">
-        <v>5596.90069265396</v>
+        <v>7083.411805706273</v>
       </c>
       <c r="H122" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I122" t="n">
-        <v>6260883</v>
+        <v>6037524</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2294512</v>
+        <v>2280675</v>
       </c>
       <c r="E123" t="n">
-        <v>7667420</v>
+        <v>7621181</v>
       </c>
       <c r="F123" t="n">
-        <v>394.7482524118637</v>
+        <v>840.0702041599194</v>
       </c>
       <c r="G123" t="n">
-        <v>1297.793871834699</v>
+        <v>976.397690589142</v>
       </c>
       <c r="H123" t="n">
-        <v>0.65</v>
+        <v>1.03</v>
       </c>
       <c r="I123" t="n">
-        <v>927408</v>
+        <v>936348</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7304764</v>
+        <v>7226221</v>
       </c>
       <c r="E124" t="n">
-        <v>7304775</v>
+        <v>7226232</v>
       </c>
       <c r="F124" t="n">
-        <v>263.0463213298111</v>
+        <v>249.1764289034624</v>
       </c>
       <c r="G124" t="n">
-        <v>1128.502237833135</v>
+        <v>1194.933877516862</v>
       </c>
       <c r="H124" t="n">
-        <v>0.49</v>
+        <v>2.47</v>
       </c>
       <c r="I124" t="n">
-        <v>264778</v>
+        <v>267878</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6103519</v>
+        <v>6009721</v>
       </c>
       <c r="E125" t="n">
-        <v>6103519</v>
+        <v>6009721</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>495924</v>
+        <v>495887</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6202202</v>
+        <v>6164569</v>
       </c>
       <c r="E126" t="n">
-        <v>22654244</v>
+        <v>22516787</v>
       </c>
       <c r="F126" t="n">
-        <v>7579.673081693974</v>
+        <v>6449.504512999716</v>
       </c>
       <c r="G126" t="n">
-        <v>8072.859881644988</v>
+        <v>8508.96677239175</v>
       </c>
       <c r="H126" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="I126" t="n">
-        <v>519178</v>
+        <v>525221</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43759023</v>
+        <v>43630509</v>
       </c>
       <c r="E127" t="n">
-        <v>43759023</v>
+        <v>43630509</v>
       </c>
       <c r="F127" t="n">
-        <v>68458.49775372606</v>
+        <v>56268.95030339766</v>
       </c>
       <c r="G127" t="n">
-        <v>74494.42792436961</v>
+        <v>95400.38423959239</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>10712774</v>
+        <v>11141925</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>144293647</v>
+        <v>142527028</v>
       </c>
       <c r="F128" t="n">
-        <v>1810.386146780146</v>
+        <v>467.8278110779826</v>
       </c>
       <c r="G128" t="n">
-        <v>3085.841437589104</v>
+        <v>3731.552656255149</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="I128" t="n">
-        <v>1454594</v>
+        <v>1690237</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2898512</v>
+        <v>2889161</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73068</v>
+        <v>72947</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19470961</v>
+        <v>19372446</v>
       </c>
       <c r="F130" t="n">
-        <v>628.569396315176</v>
+        <v>513.2544878133768</v>
       </c>
       <c r="G130" t="n">
-        <v>1053.258656139693</v>
+        <v>1374.238632677034</v>
       </c>
       <c r="H130" t="n">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="I130" t="n">
-        <v>2935371</v>
+        <v>2937922</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1309631</v>
+        <v>1295675</v>
       </c>
       <c r="E131" t="n">
-        <v>3963867</v>
+        <v>3922877</v>
       </c>
       <c r="F131" t="n">
-        <v>819.6931171218757</v>
+        <v>809.535562049517</v>
       </c>
       <c r="G131" t="n">
-        <v>706.466762836286</v>
+        <v>697.1609888226961</v>
       </c>
       <c r="H131" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>43478</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>575430895</v>
+        <v>576484279</v>
       </c>
       <c r="E132" t="n">
-        <v>2228558958</v>
+        <v>2232638558</v>
       </c>
       <c r="F132" t="n">
-        <v>859809.237592217</v>
+        <v>725771.3861641255</v>
       </c>
       <c r="G132" t="n">
-        <v>1034476.722605647</v>
+        <v>1115212.956900502</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I132" t="n">
-        <v>57310160</v>
+        <v>60109044</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3642069</v>
+        <v>3633101</v>
       </c>
       <c r="E133" t="n">
-        <v>6208401</v>
+        <v>6193113</v>
       </c>
       <c r="F133" t="n">
-        <v>5361.065595896865</v>
+        <v>5239.06356841714</v>
       </c>
       <c r="G133" t="n">
-        <v>5489.322647923938</v>
+        <v>5471.757072434929</v>
       </c>
       <c r="H133" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I133" t="n">
-        <v>1125347</v>
+        <v>1125091</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>106115473</v>
+        <v>107909075</v>
       </c>
       <c r="E134" t="n">
-        <v>1004617801</v>
+        <v>1021598205</v>
       </c>
       <c r="F134" t="n">
-        <v>90642.90662345229</v>
+        <v>83844.17170375837</v>
       </c>
       <c r="G134" t="n">
-        <v>82029.28090316005</v>
+        <v>93665.88901147027</v>
       </c>
       <c r="H134" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="I134" t="n">
-        <v>17353855</v>
+        <v>16076892</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>909184723</v>
+        <v>903083823</v>
       </c>
       <c r="E135" t="n">
-        <v>998741910</v>
+        <v>992040054</v>
       </c>
       <c r="F135" t="n">
-        <v>8087.341152210699</v>
+        <v>7742.040721277686</v>
       </c>
       <c r="G135" t="n">
-        <v>12079.51951458286</v>
+        <v>13035.51917486405</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="I135" t="n">
-        <v>10183387</v>
+        <v>9316519</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1088915</v>
+        <v>1085600</v>
       </c>
       <c r="E136" t="n">
-        <v>4216515</v>
+        <v>4203680</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>315033</v>
+        <v>316218</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121421183</v>
+        <v>119777990</v>
       </c>
       <c r="E137" t="n">
-        <v>465791202</v>
+        <v>459487650</v>
       </c>
       <c r="F137" t="n">
-        <v>186894.8097074398</v>
+        <v>173780.1072582357</v>
       </c>
       <c r="G137" t="n">
-        <v>217103.6293812098</v>
+        <v>226372.4441597854</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>39706889</v>
+        <v>39585479</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2970633</v>
+        <v>2995785</v>
       </c>
       <c r="E138" t="n">
-        <v>28147190</v>
+        <v>28385504</v>
       </c>
       <c r="F138" t="n">
-        <v>4181.363385935311</v>
+        <v>3719.284995017413</v>
       </c>
       <c r="G138" t="n">
-        <v>2910.118082759941</v>
+        <v>4076.790362848285</v>
       </c>
       <c r="H138" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="I138" t="n">
-        <v>245414</v>
+        <v>253649</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21129617</v>
+        <v>20490133</v>
       </c>
       <c r="E139" t="n">
-        <v>21129617</v>
+        <v>20490133</v>
       </c>
       <c r="F139" t="n">
-        <v>6894.608130674868</v>
+        <v>502.6239440646119</v>
       </c>
       <c r="G139" t="n">
-        <v>5800.124599322506</v>
+        <v>1380.965926615913</v>
       </c>
       <c r="H139" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="I139" t="n">
-        <v>492852</v>
+        <v>487923</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495215805</v>
+        <v>493986528</v>
       </c>
       <c r="E140" t="n">
-        <v>495215805</v>
+        <v>493986528</v>
       </c>
       <c r="F140" t="n">
-        <v>798691.6667683339</v>
+        <v>689457.2108136074</v>
       </c>
       <c r="G140" t="n">
-        <v>741704.147315237</v>
+        <v>766023.2972346328</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>42322831</v>
+        <v>43489112</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35334118</v>
+        <v>35710177</v>
       </c>
       <c r="F141" t="n">
-        <v>57720.09245432431</v>
+        <v>70136.46837637771</v>
       </c>
       <c r="G141" t="n">
-        <v>68335.75948228581</v>
+        <v>93575.43696045388</v>
       </c>
       <c r="H141" t="n">
         <v>0.2</v>
       </c>
       <c r="I141" t="n">
-        <v>7598815</v>
+        <v>7899471</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>800042</v>
+        <v>792739</v>
       </c>
       <c r="E142" t="n">
-        <v>12760386</v>
+        <v>12643904</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>88.28524634425709</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>100.2824775479549</v>
       </c>
       <c r="H142" t="n">
-        <v>4.47</v>
+        <v>3.38</v>
       </c>
       <c r="I142" t="n">
-        <v>333565</v>
+        <v>334194</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2528476723</v>
+        <v>2519254858</v>
       </c>
       <c r="E143" t="n">
-        <v>2684584362</v>
+        <v>2674793141</v>
       </c>
       <c r="F143" t="n">
-        <v>2415.540939446964</v>
+        <v>2741.373016596673</v>
       </c>
       <c r="G143" t="n">
-        <v>21795.60516882332</v>
+        <v>20415.4367406593</v>
       </c>
       <c r="H143" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="I143" t="n">
-        <v>57159596</v>
+        <v>58937044</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1696530</v>
+        <v>1692463</v>
       </c>
       <c r="E144" t="n">
-        <v>1702518</v>
+        <v>1698437</v>
       </c>
       <c r="F144" t="n">
-        <v>1783.14492010152</v>
+        <v>450.922493526831</v>
       </c>
       <c r="G144" t="n">
-        <v>461.0363437379151</v>
+        <v>196.5855665657525</v>
       </c>
       <c r="H144" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="I144" t="n">
-        <v>457024</v>
+        <v>454485</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>57656217</v>
+        <v>57420346</v>
       </c>
       <c r="E145" t="n">
-        <v>141426791</v>
+        <v>140848216</v>
       </c>
       <c r="F145" t="n">
-        <v>5086.366713821225</v>
+        <v>5261.711643649724</v>
       </c>
       <c r="G145" t="n">
-        <v>4948.979727993137</v>
+        <v>5079.673258434404</v>
       </c>
       <c r="H145" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="I145" t="n">
-        <v>21865400</v>
+        <v>21854097</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>756543988</v>
+        <v>746992698</v>
       </c>
       <c r="E146" t="n">
-        <v>1166657625</v>
+        <v>1151928694</v>
       </c>
       <c r="F146" t="n">
-        <v>183693.0880622337</v>
+        <v>154407.1771057172</v>
       </c>
       <c r="G146" t="n">
-        <v>156841.8876713075</v>
+        <v>149517.2161961864</v>
       </c>
       <c r="H146" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>329553720</v>
+        <v>270020108</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21343954</v>
+        <v>21485682</v>
       </c>
       <c r="E147" t="n">
-        <v>21343954</v>
+        <v>21485682</v>
       </c>
       <c r="F147" t="n">
-        <v>3752.239318174126</v>
+        <v>3170.580487807329</v>
       </c>
       <c r="G147" t="n">
-        <v>6810.316786128946</v>
+        <v>4395.444654707806</v>
       </c>
       <c r="H147" t="n">
-        <v>0.34</v>
+        <v>0.67</v>
       </c>
       <c r="I147" t="n">
-        <v>5432801</v>
+        <v>5880466</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3811035</v>
+        <v>3813944</v>
       </c>
       <c r="E148" t="n">
-        <v>8307521</v>
+        <v>8313863</v>
       </c>
       <c r="F148" t="n">
-        <v>6937.749305196226</v>
+        <v>6936.328426038915</v>
       </c>
       <c r="G148" t="n">
-        <v>7246.209099331323</v>
+        <v>7231.202683753971</v>
       </c>
       <c r="H148" t="n">
         <v>0.6</v>
       </c>
       <c r="I148" t="n">
-        <v>2004452</v>
+        <v>2026933</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9241394</v>
+        <v>9245951</v>
       </c>
       <c r="E149" t="n">
-        <v>9241394</v>
+        <v>9245951</v>
       </c>
       <c r="F149" t="n">
-        <v>83749.93265895298</v>
+        <v>73390.52502847808</v>
       </c>
       <c r="G149" t="n">
-        <v>86082.57848382693</v>
+        <v>87420.57787629084</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I149" t="n">
-        <v>5579443</v>
+        <v>6176304</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>471559919</v>
+        <v>466136834</v>
       </c>
       <c r="E150" t="n">
-        <v>1641460834</v>
+        <v>1622583526</v>
       </c>
       <c r="F150" t="n">
-        <v>354421.6468217836</v>
+        <v>559090.7561366896</v>
       </c>
       <c r="G150" t="n">
-        <v>344932.3670050584</v>
+        <v>909910.5517820447</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>46564791</v>
+        <v>46775837</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>47014782</v>
+        <v>46145215</v>
       </c>
       <c r="E151" t="n">
-        <v>115733332</v>
+        <v>113592778</v>
       </c>
       <c r="F151" t="n">
-        <v>2805.214096811095</v>
+        <v>2674.649672239165</v>
       </c>
       <c r="G151" t="n">
-        <v>7134.278696773502</v>
+        <v>6971.916111536329</v>
       </c>
       <c r="H151" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="I151" t="n">
-        <v>106522</v>
+        <v>116222</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7132871</v>
+        <v>7224066</v>
       </c>
       <c r="E152" t="n">
-        <v>18530431</v>
+        <v>18767348</v>
       </c>
       <c r="F152" t="n">
-        <v>6309.372626070452</v>
+        <v>6450.08867127221</v>
       </c>
       <c r="G152" t="n">
-        <v>6411.767842247383</v>
+        <v>6431.100531482815</v>
       </c>
       <c r="H152" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I152" t="n">
-        <v>754550</v>
+        <v>764877</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18853407354</v>
+        <v>18795639091</v>
       </c>
       <c r="F153" t="n">
-        <v>365.5651988554907</v>
+        <v>486.6308820911601</v>
       </c>
       <c r="G153" t="n">
-        <v>20873.17807812967</v>
+        <v>5306.351733463251</v>
       </c>
       <c r="H153" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I153" t="n">
-        <v>37257468</v>
+        <v>35633890</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2381853</v>
+        <v>2355947</v>
       </c>
       <c r="E154" t="n">
-        <v>9527410</v>
+        <v>9423787</v>
       </c>
       <c r="F154" t="n">
-        <v>1035.584054250876</v>
+        <v>989.7006702403199</v>
       </c>
       <c r="G154" t="n">
-        <v>2488.850339972471</v>
+        <v>2323.50745256228</v>
       </c>
       <c r="H154" t="n">
-        <v>0.95</v>
+        <v>0.32</v>
       </c>
       <c r="I154" t="n">
-        <v>7473843</v>
+        <v>7497350</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212048156</v>
+        <v>209509853</v>
       </c>
       <c r="E155" t="n">
-        <v>651968282</v>
+        <v>644163954</v>
       </c>
       <c r="F155" t="n">
-        <v>51217.86203833704</v>
+        <v>45914.94375596315</v>
       </c>
       <c r="G155" t="n">
-        <v>44269.82705659012</v>
+        <v>45820.01964542072</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I155" t="n">
-        <v>21881614</v>
+        <v>22341048</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>380854485</v>
+        <v>380177802</v>
       </c>
       <c r="E156" t="n">
-        <v>2176311343</v>
+        <v>2172444583</v>
       </c>
       <c r="F156" t="n">
-        <v>269874.055582118</v>
+        <v>250492.2961245927</v>
       </c>
       <c r="G156" t="n">
-        <v>259363.6103992931</v>
+        <v>276435.1166857272</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>57675989</v>
+        <v>60112962</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3857050</v>
+        <v>3853386</v>
       </c>
       <c r="F2" t="n">
-        <v>25.96917460541077</v>
+        <v>490.6234595064964</v>
       </c>
       <c r="G2" t="n">
-        <v>1195.126556010677</v>
+        <v>24.92719735571109</v>
       </c>
       <c r="H2" t="n">
-        <v>2.81</v>
+        <v>1.41</v>
       </c>
       <c r="I2" t="n">
-        <v>142819</v>
+        <v>143289</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>584182746</v>
+        <v>581018232</v>
       </c>
       <c r="E3" t="n">
-        <v>1133638008</v>
+        <v>1127497495</v>
       </c>
       <c r="F3" t="n">
-        <v>14757.92372272975</v>
+        <v>14436.93704095606</v>
       </c>
       <c r="G3" t="n">
-        <v>27843.62124649459</v>
+        <v>21458.07154225022</v>
       </c>
       <c r="H3" t="n">
         <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>45624461</v>
+        <v>45237636</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>242443299</v>
+        <v>243311812</v>
       </c>
       <c r="E4" t="n">
-        <v>1520327852</v>
+        <v>1525774175</v>
       </c>
       <c r="F4" t="n">
-        <v>148507.4242166353</v>
+        <v>214636.0302197914</v>
       </c>
       <c r="G4" t="n">
-        <v>165640.79975395</v>
+        <v>244270.8111776979</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>25373831</v>
+        <v>26116437</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139469578</v>
+        <v>138663937</v>
       </c>
       <c r="E5" t="n">
-        <v>154554089</v>
+        <v>153661313</v>
       </c>
       <c r="F5" t="n">
-        <v>8352.684598680347</v>
+        <v>8446.114076593691</v>
       </c>
       <c r="G5" t="n">
-        <v>435.0729761440188</v>
+        <v>434.189475503255</v>
       </c>
       <c r="H5" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>52410031</v>
+        <v>52333781</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48095939</v>
+        <v>48022549</v>
       </c>
       <c r="E6" t="n">
-        <v>60166787</v>
+        <v>60074978</v>
       </c>
       <c r="F6" t="n">
-        <v>4976.452229477016</v>
+        <v>5539.995782170323</v>
       </c>
       <c r="G6" t="n">
-        <v>2374.410343096213</v>
+        <v>1288.833794473751</v>
       </c>
       <c r="H6" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>889804</v>
+        <v>885410</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66495282</v>
+        <v>66510186</v>
       </c>
       <c r="E7" t="n">
-        <v>132436098</v>
+        <v>132465781</v>
       </c>
       <c r="F7" t="n">
-        <v>11261.57206645503</v>
+        <v>11750.12763834586</v>
       </c>
       <c r="G7" t="n">
-        <v>11287.73589473518</v>
+        <v>12028.94093549283</v>
       </c>
       <c r="H7" t="n">
         <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>1059178</v>
+        <v>1030614</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40450901</v>
+        <v>39300045</v>
       </c>
       <c r="E8" t="n">
-        <v>45270385</v>
+        <v>43982411</v>
       </c>
       <c r="F8" t="n">
-        <v>437.1082496020957</v>
+        <v>814.0970997043745</v>
       </c>
       <c r="G8" t="n">
-        <v>393.622393287329</v>
+        <v>122.1580514465963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>5249169</v>
+        <v>5259490</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13780214</v>
+        <v>13871732</v>
       </c>
       <c r="E9" t="n">
-        <v>40609400</v>
+        <v>40879099</v>
       </c>
       <c r="F9" t="n">
-        <v>5307.744385453316</v>
+        <v>5035.21200922108</v>
       </c>
       <c r="G9" t="n">
-        <v>4240.495494151225</v>
+        <v>4871.044238846839</v>
       </c>
       <c r="H9" t="n">
-        <v>1.34</v>
+        <v>0.64</v>
       </c>
       <c r="I9" t="n">
-        <v>901094</v>
+        <v>173182</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8592645</v>
+        <v>8791343</v>
       </c>
       <c r="E10" t="n">
-        <v>36935969</v>
+        <v>37790083</v>
       </c>
       <c r="F10" t="n">
-        <v>533.1656427442423</v>
+        <v>1323.659391104352</v>
       </c>
       <c r="G10" t="n">
-        <v>544.6802038973711</v>
+        <v>306.9628657559715</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="I10" t="n">
-        <v>953221</v>
+        <v>965904</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>548715809</v>
+        <v>545969918</v>
       </c>
       <c r="E11" t="n">
-        <v>686361923</v>
+        <v>682927222</v>
       </c>
       <c r="F11" t="n">
-        <v>269644.6384934143</v>
+        <v>316781.3465105546</v>
       </c>
       <c r="G11" t="n">
-        <v>297948.3374820374</v>
+        <v>267101.3818773163</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>96764752</v>
+        <v>98205080</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4266583</v>
+        <v>4258990</v>
       </c>
       <c r="E12" t="n">
-        <v>26198848</v>
+        <v>26149584</v>
       </c>
       <c r="F12" t="n">
-        <v>10693.69332418222</v>
+        <v>11406.72806674991</v>
       </c>
       <c r="G12" t="n">
-        <v>8905.800876932148</v>
+        <v>9039.36672613954</v>
       </c>
       <c r="H12" t="n">
         <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>651779</v>
+        <v>623948</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24356994</v>
+        <v>24397650</v>
       </c>
       <c r="E13" t="n">
-        <v>24401919</v>
+        <v>24442650</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>897943</v>
+        <v>886322</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78786025</v>
+        <v>78550843</v>
       </c>
       <c r="E14" t="n">
-        <v>231798257</v>
+        <v>231106322</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>471039</v>
+        <v>474912</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>492400755</v>
+        <v>492986745</v>
       </c>
       <c r="E15" t="n">
-        <v>492400755</v>
+        <v>492986745</v>
       </c>
       <c r="F15" t="n">
-        <v>17926.480033836</v>
+        <v>20323.11357948861</v>
       </c>
       <c r="G15" t="n">
-        <v>20203.56551886599</v>
+        <v>20235.47521577353</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>76345660</v>
+        <v>75781368</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4588896</v>
+        <v>4564164</v>
       </c>
       <c r="E16" t="n">
-        <v>4588896</v>
+        <v>4564164</v>
       </c>
       <c r="F16" t="n">
-        <v>278.7864173074415</v>
+        <v>393.0698516142286</v>
       </c>
       <c r="G16" t="n">
-        <v>1053.388010602456</v>
+        <v>1195.570778711266</v>
       </c>
       <c r="H16" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="I16" t="n">
-        <v>2242827</v>
+        <v>2231628</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3287587</v>
+        <v>3227873</v>
       </c>
       <c r="E17" t="n">
-        <v>3287587</v>
+        <v>3227873</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>626988</v>
+        <v>639542</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166832088</v>
+        <v>166923537</v>
       </c>
       <c r="E18" t="n">
-        <v>206545072</v>
+        <v>206658290</v>
       </c>
       <c r="F18" t="n">
-        <v>5931.739390888092</v>
+        <v>10538.16514669634</v>
       </c>
       <c r="G18" t="n">
-        <v>10278.50842232791</v>
+        <v>8070.856499498523</v>
       </c>
       <c r="H18" t="n">
-        <v>0.52</v>
+        <v>1.24</v>
       </c>
       <c r="I18" t="n">
-        <v>561779</v>
+        <v>174212</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6880015</v>
+        <v>6883641</v>
       </c>
       <c r="E19" t="n">
-        <v>9475539</v>
+        <v>9480532</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>366576</v>
+        <v>403028</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>868931</v>
+        <v>879401</v>
       </c>
       <c r="E20" t="n">
-        <v>6082518</v>
+        <v>6155804</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>245500</v>
+        <v>271826</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>107526484</v>
+        <v>106762491</v>
       </c>
       <c r="E21" t="n">
-        <v>417997839</v>
+        <v>415012616</v>
       </c>
       <c r="F21" t="n">
-        <v>8373.872268194917</v>
+        <v>4918.642511737732</v>
       </c>
       <c r="G21" t="n">
-        <v>9730.772453925963</v>
+        <v>12936.02048967414</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>11819366</v>
+        <v>12466710</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1719150</v>
+        <v>1718130</v>
       </c>
       <c r="E22" t="n">
-        <v>12382892</v>
+        <v>12375546</v>
       </c>
       <c r="F22" t="n">
-        <v>4804.10778397388</v>
+        <v>4803.706014357349</v>
       </c>
       <c r="G22" t="n">
-        <v>4674.095671967249</v>
+        <v>4673.704775320005</v>
       </c>
       <c r="H22" t="n">
         <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>53888</v>
+        <v>54096</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137091387</v>
+        <v>136017377</v>
       </c>
       <c r="E23" t="n">
-        <v>137091387</v>
+        <v>136017377</v>
       </c>
       <c r="F23" t="n">
-        <v>1018932.186171726</v>
+        <v>999737.5574733906</v>
       </c>
       <c r="G23" t="n">
-        <v>1117417.029316398</v>
+        <v>1299694.669161473</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>94546252</v>
+        <v>90964832</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63363251</v>
+        <v>62754207</v>
       </c>
       <c r="E24" t="n">
-        <v>324939751</v>
+        <v>321816445</v>
       </c>
       <c r="F24" t="n">
-        <v>77301.51071437768</v>
+        <v>75289.89142305694</v>
       </c>
       <c r="G24" t="n">
-        <v>117170.6997135704</v>
+        <v>125150.2566423645</v>
       </c>
       <c r="H24" t="n">
         <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27431956</v>
+        <v>27293157</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>249090612</v>
+        <v>248024356</v>
       </c>
       <c r="E25" t="n">
-        <v>249090612</v>
+        <v>248024356</v>
       </c>
       <c r="F25" t="n">
-        <v>374133.2542747033</v>
+        <v>294513.9354493394</v>
       </c>
       <c r="G25" t="n">
-        <v>384276.7277038375</v>
+        <v>414750.8949380034</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>25672811</v>
+        <v>25881580</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1117164</v>
+        <v>1115118</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>136507</v>
+        <v>137421</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2383664</v>
+        <v>2218014</v>
       </c>
       <c r="E27" t="n">
-        <v>2646236</v>
+        <v>2459403</v>
       </c>
       <c r="F27" t="n">
-        <v>195.4231774164507</v>
+        <v>56.11749006866401</v>
       </c>
       <c r="G27" t="n">
-        <v>451.4910676094172</v>
+        <v>242.5797517105117</v>
       </c>
       <c r="H27" t="n">
-        <v>1.69</v>
+        <v>0.72</v>
       </c>
       <c r="I27" t="n">
-        <v>330014</v>
+        <v>334206</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3781087</v>
+        <v>3764833</v>
       </c>
       <c r="E28" t="n">
-        <v>3781989</v>
+        <v>3765754</v>
       </c>
       <c r="F28" t="n">
-        <v>771.6380496569336</v>
+        <v>1021.765696538437</v>
       </c>
       <c r="G28" t="n">
-        <v>3016.719773278306</v>
+        <v>3379.120054992324</v>
       </c>
       <c r="H28" t="n">
-        <v>0.65</v>
+        <v>0.41</v>
       </c>
       <c r="I28" t="n">
-        <v>254782</v>
+        <v>250760</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6834788</v>
+        <v>6830040</v>
       </c>
       <c r="E29" t="n">
-        <v>16601174</v>
+        <v>16589641</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>430580</v>
+        <v>434135</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97297275</v>
+        <v>96395947</v>
       </c>
       <c r="E30" t="n">
-        <v>121318297</v>
+        <v>120194446</v>
       </c>
       <c r="F30" t="n">
-        <v>92662.51616933265</v>
+        <v>97739.85734506435</v>
       </c>
       <c r="G30" t="n">
-        <v>115689.4211594892</v>
+        <v>122702.1601692727</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12103136</v>
+        <v>12190951</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1114776</v>
+        <v>1115506</v>
       </c>
       <c r="E31" t="n">
-        <v>12114964</v>
+        <v>12122897</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14396.66</v>
+        <v>14407.67</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>81610420</v>
+        <v>80685874</v>
       </c>
       <c r="E32" t="n">
-        <v>228305111</v>
+        <v>225730974</v>
       </c>
       <c r="F32" t="n">
-        <v>51158.89330354823</v>
+        <v>57588.09817892675</v>
       </c>
       <c r="G32" t="n">
-        <v>60534.91552692671</v>
+        <v>75129.1357223893</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>53641131</v>
+        <v>54107869</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4079054</v>
+        <v>4078241</v>
       </c>
       <c r="E33" t="n">
-        <v>8044238</v>
+        <v>8042635</v>
       </c>
       <c r="F33" t="n">
-        <v>6053.607571689958</v>
+        <v>7214.912785311755</v>
       </c>
       <c r="G33" t="n">
-        <v>7150.124071781538</v>
+        <v>6298.272410240221</v>
       </c>
       <c r="H33" t="n">
         <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>1666716</v>
+        <v>1671963</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36458901</v>
+        <v>36447159</v>
       </c>
       <c r="F34" t="n">
-        <v>241.8713179468168</v>
+        <v>243.8517081616645</v>
       </c>
       <c r="G34" t="n">
-        <v>430.4653609793756</v>
+        <v>430.4293609746323</v>
       </c>
       <c r="H34" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="I34" t="n">
-        <v>41896</v>
+        <v>40027</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17280159</v>
+        <v>17404335</v>
       </c>
       <c r="E35" t="n">
-        <v>18212882</v>
+        <v>18343761</v>
       </c>
       <c r="F35" t="n">
-        <v>3539.807772859437</v>
+        <v>3567.071679397975</v>
       </c>
       <c r="G35" t="n">
-        <v>2561.739180587707</v>
+        <v>2563.107474758355</v>
       </c>
       <c r="H35" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="I35" t="n">
-        <v>41165</v>
+        <v>47652</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23187606</v>
+        <v>23030724</v>
       </c>
       <c r="F36" t="n">
-        <v>5179.194339385342</v>
+        <v>5206.458027154165</v>
       </c>
       <c r="G36" t="n">
-        <v>5547.31621810436</v>
+        <v>5536.402312943485</v>
       </c>
       <c r="H36" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I36" t="n">
-        <v>131639</v>
+        <v>130056</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>83367188</v>
+        <v>81959845</v>
       </c>
       <c r="E37" t="n">
-        <v>173813891</v>
+        <v>170879693</v>
       </c>
       <c r="F37" t="n">
-        <v>48107.56517261121</v>
+        <v>51945.668066009</v>
       </c>
       <c r="G37" t="n">
-        <v>41662.68119296809</v>
+        <v>46843.12596718472</v>
       </c>
       <c r="H37" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="I37" t="n">
-        <v>70149324</v>
+        <v>70743706</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>266653169</v>
+        <v>267018565</v>
       </c>
       <c r="E38" t="n">
-        <v>266653169</v>
+        <v>267018565</v>
       </c>
       <c r="F38" t="n">
-        <v>30174.56835068776</v>
+        <v>29911.18580257288</v>
       </c>
       <c r="G38" t="n">
-        <v>33359.80504756225</v>
+        <v>40285.2327574819</v>
       </c>
       <c r="H38" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I38" t="n">
-        <v>12433141</v>
+        <v>12364457</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194781492</v>
+        <v>193202141</v>
       </c>
       <c r="E39" t="n">
-        <v>676688507</v>
+        <v>671201698</v>
       </c>
       <c r="F39" t="n">
-        <v>165860.9408731195</v>
+        <v>114283.2856077957</v>
       </c>
       <c r="G39" t="n">
-        <v>256922.7192450145</v>
+        <v>241608.6394284912</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>40672404</v>
+        <v>40955945</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3431489</v>
+        <v>3349360</v>
       </c>
       <c r="E40" t="n">
-        <v>3431489</v>
+        <v>3349360</v>
       </c>
       <c r="F40" t="n">
-        <v>884.0509932285662</v>
+        <v>989.5017804098059</v>
       </c>
       <c r="G40" t="n">
-        <v>2406.592539522248</v>
+        <v>2183.960354579331</v>
       </c>
       <c r="H40" t="n">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
       <c r="I40" t="n">
-        <v>2369413</v>
+        <v>2294244</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>108921114</v>
+        <v>108322265</v>
       </c>
       <c r="E41" t="n">
-        <v>462051573</v>
+        <v>459479264</v>
       </c>
       <c r="F41" t="n">
-        <v>4609.220782425955</v>
+        <v>5428.478325885749</v>
       </c>
       <c r="G41" t="n">
-        <v>7309.033417106242</v>
+        <v>6320.997571212248</v>
       </c>
       <c r="H41" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>15245040</v>
+        <v>15197337</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>534985</v>
+        <v>536051</v>
       </c>
       <c r="E42" t="n">
-        <v>6488851</v>
+        <v>6501772</v>
       </c>
       <c r="F42" t="n">
-        <v>373.2298732842061</v>
+        <v>384.9463231071107</v>
       </c>
       <c r="G42" t="n">
-        <v>640.7425783603853</v>
+        <v>719.8533452225093</v>
       </c>
       <c r="H42" t="n">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="I42" t="n">
-        <v>2849086</v>
+        <v>2866538</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1376156004</v>
+        <v>1371913868</v>
       </c>
       <c r="E43" t="n">
-        <v>6598949869</v>
+        <v>6578607958</v>
       </c>
       <c r="F43" t="n">
-        <v>20496.42395755276</v>
+        <v>38994.53079189146</v>
       </c>
       <c r="G43" t="n">
-        <v>21989.11767859544</v>
+        <v>49625.91450053225</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>478282951</v>
+        <v>485907013</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5918713558</v>
+        <v>5919393084</v>
       </c>
       <c r="E44" t="n">
-        <v>5917750453</v>
+        <v>5919393084</v>
       </c>
       <c r="F44" t="n">
-        <v>683475.2334445074</v>
+        <v>592854.0325056026</v>
       </c>
       <c r="G44" t="n">
-        <v>508463.6966703304</v>
+        <v>424424.9160634725</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>388094199</v>
+        <v>393231549</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>258223292</v>
+        <v>256143234</v>
       </c>
       <c r="E45" t="n">
-        <v>1114635077</v>
+        <v>1105656394</v>
       </c>
       <c r="F45" t="n">
-        <v>97702.76790706749</v>
+        <v>96533.36942453512</v>
       </c>
       <c r="G45" t="n">
-        <v>85658.98957906209</v>
+        <v>100487.8912340187</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>142464381</v>
+        <v>141964171</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>111832343</v>
+        <v>112118486</v>
       </c>
       <c r="E46" t="n">
-        <v>111832343</v>
+        <v>112118486</v>
       </c>
       <c r="F46" t="n">
-        <v>35209.63723275238</v>
+        <v>25505.69951344314</v>
       </c>
       <c r="G46" t="n">
-        <v>30820.42534252099</v>
+        <v>40177.70847959376</v>
       </c>
       <c r="H46" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I46" t="n">
-        <v>7004834</v>
+        <v>7034840</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2039310654</v>
+        <v>2044795536</v>
       </c>
       <c r="E47" t="n">
-        <v>2039310654</v>
+        <v>2044795536</v>
       </c>
       <c r="F47" t="n">
-        <v>227125.1360522453</v>
+        <v>227060.7645762504</v>
       </c>
       <c r="G47" t="n">
-        <v>200485.8927165148</v>
+        <v>200479.1099137167</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I47" t="n">
-        <v>8982278477</v>
+        <v>9054245893</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10132347</v>
+        <v>10121428</v>
       </c>
       <c r="F48" t="n">
-        <v>6735.977087907899</v>
+        <v>6571.592203032318</v>
       </c>
       <c r="G48" t="n">
-        <v>6372.678911645847</v>
+        <v>6662.115765535897</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>187989</v>
+        <v>186486</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4146977</v>
+        <v>4136561</v>
       </c>
       <c r="E49" t="n">
-        <v>5444440</v>
+        <v>5430766</v>
       </c>
       <c r="F49" t="n">
-        <v>6318.075720145916</v>
+        <v>6155.744540097928</v>
       </c>
       <c r="G49" t="n">
-        <v>2619.382824436997</v>
+        <v>2635.035338957117</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>588932</v>
+        <v>578072</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12409923</v>
+        <v>12480784</v>
       </c>
       <c r="E50" t="n">
-        <v>18248557</v>
+        <v>18352757</v>
       </c>
       <c r="F50" t="n">
-        <v>6700.415731344892</v>
+        <v>6670.336149831591</v>
       </c>
       <c r="G50" t="n">
-        <v>10257.48535649652</v>
+        <v>29616.7524984452</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>7054516</v>
+        <v>7021537</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21863437</v>
+        <v>21845267</v>
       </c>
       <c r="E51" t="n">
-        <v>28361880</v>
+        <v>28338309</v>
       </c>
       <c r="F51" t="n">
-        <v>10070.25377977855</v>
+        <v>9964.674098109348</v>
       </c>
       <c r="G51" t="n">
-        <v>16752.63358012453</v>
+        <v>13449.56980911478</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>222865</v>
+        <v>203222</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13405102</v>
+        <v>13474769</v>
       </c>
       <c r="E52" t="n">
-        <v>13405102</v>
+        <v>13474769</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5445555</v>
+        <v>5440925</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97566666</v>
+        <v>98223240</v>
       </c>
       <c r="E53" t="n">
-        <v>120686473</v>
+        <v>121498632</v>
       </c>
       <c r="F53" t="n">
-        <v>527.8088422041528</v>
+        <v>658.9960315006917</v>
       </c>
       <c r="G53" t="n">
-        <v>3815.071920041692</v>
+        <v>3823.888629534617</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>1092307</v>
+        <v>1099930</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4983729</v>
+        <v>4972937</v>
       </c>
       <c r="E54" t="n">
-        <v>6972960</v>
+        <v>6957860</v>
       </c>
       <c r="F54" t="n">
-        <v>383.2235125222464</v>
+        <v>597.019790633602</v>
       </c>
       <c r="G54" t="n">
-        <v>263.2435280157746</v>
+        <v>100.9407137922462</v>
       </c>
       <c r="H54" t="n">
-        <v>2.99</v>
+        <v>2.43</v>
       </c>
       <c r="I54" t="n">
-        <v>70406</v>
+        <v>66799</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14132735</v>
+        <v>13758602</v>
       </c>
       <c r="E55" t="n">
-        <v>68447090</v>
+        <v>66635104</v>
       </c>
       <c r="F55" t="n">
-        <v>16748.73890281637</v>
+        <v>13403.38053030841</v>
       </c>
       <c r="G55" t="n">
-        <v>9538.095072287491</v>
+        <v>11123.97362729756</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="I55" t="n">
-        <v>5426916</v>
+        <v>5539225</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56956</v>
+        <v>54248</v>
       </c>
       <c r="E56" t="n">
-        <v>136421</v>
+        <v>129935</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16678.02</v>
+        <v>16381.56</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1835743288</v>
+        <v>1832354926</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30550810</v>
+        <v>30749055</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11809711</v>
+        <v>11614775</v>
       </c>
       <c r="E58" t="n">
-        <v>17122376</v>
+        <v>16839748</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2042547</v>
+        <v>2024741</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>117411310</v>
+        <v>117135927</v>
       </c>
       <c r="E59" t="n">
-        <v>312247152</v>
+        <v>311514791</v>
       </c>
       <c r="F59" t="n">
-        <v>7355.18691610417</v>
+        <v>7289.339969667764</v>
       </c>
       <c r="G59" t="n">
-        <v>7172.385221151941</v>
+        <v>7238.726205100585</v>
       </c>
       <c r="H59" t="n">
-        <v>0.63</v>
+        <v>0.48</v>
       </c>
       <c r="I59" t="n">
-        <v>705864</v>
+        <v>708312</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29327244</v>
+        <v>29641420</v>
       </c>
       <c r="E60" t="n">
-        <v>91315629</v>
+        <v>92293872</v>
       </c>
       <c r="F60" t="n">
-        <v>2018.448101161283</v>
+        <v>2492.254528560116</v>
       </c>
       <c r="G60" t="n">
-        <v>5699.697273226388</v>
+        <v>5665.102635854103</v>
       </c>
       <c r="H60" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I60" t="n">
-        <v>10291560</v>
+        <v>10495165</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1834704</v>
+        <v>1827321</v>
       </c>
       <c r="E61" t="n">
-        <v>13156480</v>
+        <v>13103539</v>
       </c>
       <c r="F61" t="n">
-        <v>4993.840412160234</v>
+        <v>4994.55335033696</v>
       </c>
       <c r="G61" t="n">
-        <v>196.9669160793712</v>
+        <v>1081.937934913199</v>
       </c>
       <c r="H61" t="n">
-        <v>0.15</v>
+        <v>1.89</v>
       </c>
       <c r="I61" t="n">
-        <v>2041374</v>
+        <v>2057647</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>190925384</v>
+        <v>190853391</v>
       </c>
       <c r="E62" t="n">
-        <v>1081136838</v>
+        <v>1080729168</v>
       </c>
       <c r="F62" t="n">
-        <v>558986.4913617653</v>
+        <v>565008.589053594</v>
       </c>
       <c r="G62" t="n">
-        <v>804180.977144148</v>
+        <v>739400.1040391467</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>85519769</v>
+        <v>85796590</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>487105</v>
+        <v>485927</v>
       </c>
       <c r="E63" t="n">
-        <v>1639528</v>
+        <v>1635564</v>
       </c>
       <c r="F63" t="n">
-        <v>4496.499838464747</v>
+        <v>4547.095485933675</v>
       </c>
       <c r="G63" t="n">
-        <v>660.8694424092255</v>
+        <v>688.8137922074445</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>640287</v>
+        <v>228816</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>347041</v>
+        <v>344936</v>
       </c>
       <c r="E64" t="n">
-        <v>347041</v>
+        <v>344936</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2420.95</v>
+        <v>2399.04</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>123906829</v>
+        <v>123073149</v>
       </c>
       <c r="E65" t="n">
-        <v>917828366</v>
+        <v>911652956</v>
       </c>
       <c r="F65" t="n">
-        <v>1747.42585922178</v>
+        <v>2624.928068242241</v>
       </c>
       <c r="G65" t="n">
-        <v>35118.79212278282</v>
+        <v>27147.60702929733</v>
       </c>
       <c r="H65" t="n">
-        <v>0.28</v>
+        <v>2.25</v>
       </c>
       <c r="I65" t="n">
-        <v>26242744</v>
+        <v>26655165</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8596083</v>
+        <v>8435771</v>
       </c>
       <c r="E66" t="n">
-        <v>11515885</v>
+        <v>11301121</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>82982</v>
+        <v>43011</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>34294803</v>
+        <v>34975916</v>
       </c>
       <c r="E67" t="n">
-        <v>34294803</v>
+        <v>34975916</v>
       </c>
       <c r="F67" t="n">
-        <v>8178.856567096062</v>
+        <v>8065.913077184275</v>
       </c>
       <c r="G67" t="n">
-        <v>5155.0646245706</v>
+        <v>5111.362105974577</v>
       </c>
       <c r="H67" t="n">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
       <c r="I67" t="n">
-        <v>967788</v>
+        <v>978940</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1528179</v>
+        <v>1525419</v>
       </c>
       <c r="E68" t="n">
-        <v>11868009</v>
+        <v>11846578</v>
       </c>
       <c r="F68" t="n">
-        <v>17695.55518926151</v>
+        <v>16319.56550893698</v>
       </c>
       <c r="G68" t="n">
-        <v>17007.52903117241</v>
+        <v>17003.29163474981</v>
       </c>
       <c r="H68" t="n">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="I68" t="n">
-        <v>516252</v>
+        <v>520840</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>320406039</v>
+        <v>319239626</v>
       </c>
       <c r="E69" t="n">
-        <v>2882571408</v>
+        <v>2872077629</v>
       </c>
       <c r="F69" t="n">
-        <v>1225089.47324705</v>
+        <v>1439936.485008903</v>
       </c>
       <c r="G69" t="n">
-        <v>1681807.276918046</v>
+        <v>1947631.881311651</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>65853035</v>
+        <v>67057811</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249629</v>
+        <v>245832</v>
       </c>
       <c r="E70" t="n">
-        <v>2203166</v>
+        <v>2169652</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>70482</v>
+        <v>70830</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1532570</v>
+        <v>1541228</v>
       </c>
       <c r="E71" t="n">
-        <v>12771420</v>
+        <v>12843563</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30196</v>
+        <v>30414</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9403831</v>
+        <v>9385712</v>
       </c>
       <c r="E72" t="n">
-        <v>43587299</v>
+        <v>43503317</v>
       </c>
       <c r="F72" t="n">
-        <v>10571.83782542675</v>
+        <v>10950.21519712426</v>
       </c>
       <c r="G72" t="n">
-        <v>3338.648814061197</v>
+        <v>3353.252873798456</v>
       </c>
       <c r="H72" t="n">
         <v>1.02</v>
       </c>
       <c r="I72" t="n">
-        <v>118753</v>
+        <v>117739</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46650773</v>
+        <v>46508829</v>
       </c>
       <c r="E73" t="n">
-        <v>270088697</v>
+        <v>269266902</v>
       </c>
       <c r="F73" t="n">
-        <v>96129.10946718878</v>
+        <v>88985.5416895231</v>
       </c>
       <c r="G73" t="n">
-        <v>167456.9075148366</v>
+        <v>155066.53480941</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>52118066</v>
+        <v>51738054</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38943014</v>
+        <v>38737773</v>
       </c>
       <c r="E74" t="n">
-        <v>53785848</v>
+        <v>53502381</v>
       </c>
       <c r="F74" t="n">
-        <v>4631.83234500943</v>
+        <v>4626.422129022222</v>
       </c>
       <c r="G74" t="n">
-        <v>4379.283947732541</v>
+        <v>10533.41973140185</v>
       </c>
       <c r="H74" t="n">
         <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>307139</v>
+        <v>315720</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>105587</v>
+        <v>100075</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3976.22</v>
+        <v>3773.68</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13426390</v>
+        <v>13315723</v>
       </c>
       <c r="E76" t="n">
-        <v>13472081</v>
+        <v>13361038</v>
       </c>
       <c r="F76" t="n">
-        <v>955.8743413348092</v>
+        <v>1086.095345266813</v>
       </c>
       <c r="G76" t="n">
-        <v>2703.636370106868</v>
+        <v>7709.992749743355</v>
       </c>
       <c r="H76" t="n">
         <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>6134204</v>
+        <v>6878340</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42182738</v>
+        <v>42192456</v>
       </c>
       <c r="E77" t="n">
-        <v>71616476</v>
+        <v>71632974</v>
       </c>
       <c r="F77" t="n">
-        <v>7149.496843846034</v>
+        <v>4128.017957511967</v>
       </c>
       <c r="G77" t="n">
-        <v>5966.102329079542</v>
+        <v>10141.97074129057</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1139161</v>
+        <v>1127203</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19426458</v>
+        <v>19392855</v>
       </c>
       <c r="E78" t="n">
-        <v>58242350</v>
+        <v>58145065</v>
       </c>
       <c r="F78" t="n">
-        <v>34448.68665007637</v>
+        <v>37525.55209460709</v>
       </c>
       <c r="G78" t="n">
-        <v>60679.49468972515</v>
+        <v>40340.73173667116</v>
       </c>
       <c r="H78" t="n">
         <v>0.32</v>
       </c>
       <c r="I78" t="n">
-        <v>4376626</v>
+        <v>4337577</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>99705708</v>
+        <v>97179587</v>
       </c>
       <c r="E79" t="n">
-        <v>105996178</v>
+        <v>103310683</v>
       </c>
       <c r="F79" t="n">
-        <v>1359.761757073926</v>
+        <v>1259.131762105447</v>
       </c>
       <c r="G79" t="n">
-        <v>5550.986457819145</v>
+        <v>5044.635163611891</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I79" t="n">
-        <v>1825456</v>
+        <v>1816232</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10408980</v>
+        <v>10371666</v>
       </c>
       <c r="E80" t="n">
-        <v>45179632</v>
+        <v>45016206</v>
       </c>
       <c r="F80" t="n">
-        <v>6034.756603720997</v>
+        <v>6281.080465818563</v>
       </c>
       <c r="G80" t="n">
-        <v>5829.581271409908</v>
+        <v>5693.257775378743</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="I80" t="n">
-        <v>120897</v>
+        <v>119748</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15014626</v>
+        <v>15071789</v>
       </c>
       <c r="E81" t="n">
-        <v>92029581</v>
+        <v>92379951</v>
       </c>
       <c r="F81" t="n">
-        <v>5255.716025630173</v>
+        <v>2976.488799703349</v>
       </c>
       <c r="G81" t="n">
-        <v>15965.24279221415</v>
+        <v>3485.939277663294</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="I81" t="n">
-        <v>12155115</v>
+        <v>12365512</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1456129</v>
+        <v>1452777</v>
       </c>
       <c r="E82" t="n">
-        <v>1497088</v>
+        <v>1493642</v>
       </c>
       <c r="F82" t="n">
-        <v>1558.060381379271</v>
+        <v>2282.701674362448</v>
       </c>
       <c r="G82" t="n">
-        <v>2698.541743835285</v>
+        <v>1722.489920729455</v>
       </c>
       <c r="H82" t="n">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="I82" t="n">
-        <v>93028</v>
+        <v>85370</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50485655</v>
+        <v>50182792</v>
       </c>
       <c r="E83" t="n">
-        <v>217486680</v>
+        <v>216181981</v>
       </c>
       <c r="F83" t="n">
-        <v>2977.339455900523</v>
+        <v>3057.083434439071</v>
       </c>
       <c r="G83" t="n">
-        <v>312.5389797112453</v>
+        <v>480.4808941252038</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="I83" t="n">
-        <v>12827172</v>
+        <v>13078260</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2215977</v>
+        <v>2251027</v>
       </c>
       <c r="E84" t="n">
-        <v>8043764</v>
+        <v>8170886</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>217416</v>
+        <v>211726</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8860370</v>
+        <v>8753036</v>
       </c>
       <c r="E85" t="n">
-        <v>19651042</v>
+        <v>19412989</v>
       </c>
       <c r="F85" t="n">
-        <v>5941.602304120025</v>
+        <v>1972.845603143196</v>
       </c>
       <c r="G85" t="n">
-        <v>7063.264642736489</v>
+        <v>2262.944888081091</v>
       </c>
       <c r="H85" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="I85" t="n">
-        <v>330965</v>
+        <v>326892</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2440951</v>
+        <v>2441149</v>
       </c>
       <c r="E86" t="n">
-        <v>18367528</v>
+        <v>18369016</v>
       </c>
       <c r="F86" t="n">
-        <v>5081.792205926669</v>
+        <v>5326.278913326516</v>
       </c>
       <c r="G86" t="n">
-        <v>12048.16630048449</v>
+        <v>12041.40178463808</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161474</v>
+        <v>161534</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19751105</v>
+        <v>19492351</v>
       </c>
       <c r="E87" t="n">
-        <v>79004420</v>
+        <v>77969403</v>
       </c>
       <c r="F87" t="n">
-        <v>16011.18799422121</v>
+        <v>482.5066928665645</v>
       </c>
       <c r="G87" t="n">
-        <v>26146.61580514469</v>
+        <v>1281.612983794545</v>
       </c>
       <c r="H87" t="n">
-        <v>0.38</v>
+        <v>2.65</v>
       </c>
       <c r="I87" t="n">
-        <v>3154839</v>
+        <v>3562453</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4529584</v>
+        <v>4481465</v>
       </c>
       <c r="E88" t="n">
-        <v>4529584</v>
+        <v>4481465</v>
       </c>
       <c r="F88" t="n">
-        <v>2970.289038010649</v>
+        <v>2645.805005991991</v>
       </c>
       <c r="G88" t="n">
-        <v>1538.834575538099</v>
+        <v>620.1673917310967</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3</v>
+        <v>1.05</v>
       </c>
       <c r="I88" t="n">
-        <v>2883405</v>
+        <v>2869130</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12600975</v>
+        <v>12605190</v>
       </c>
       <c r="E89" t="n">
-        <v>39855453</v>
+        <v>39868782</v>
       </c>
       <c r="F89" t="n">
-        <v>14212.8745273158</v>
+        <v>14452.06823265732</v>
       </c>
       <c r="G89" t="n">
-        <v>15206.99121209104</v>
+        <v>14248.21347479015</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I89" t="n">
-        <v>1024430</v>
+        <v>1024691</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24801</v>
+        <v>24767</v>
       </c>
       <c r="E90" t="n">
-        <v>195054</v>
+        <v>194787</v>
       </c>
       <c r="F90" t="n">
-        <v>395.3759578087377</v>
+        <v>273.4729149658924</v>
       </c>
       <c r="G90" t="n">
-        <v>442.7855473364252</v>
+        <v>637.5249624577276</v>
       </c>
       <c r="H90" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="I90" t="n">
-        <v>41559</v>
+        <v>41177</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7296002</v>
+        <v>7592657</v>
       </c>
       <c r="E91" t="n">
-        <v>7296002</v>
+        <v>7592657</v>
       </c>
       <c r="F91" t="n">
-        <v>1031.574650154373</v>
+        <v>2163.476220095785</v>
       </c>
       <c r="G91" t="n">
-        <v>4912.829115088746</v>
+        <v>4367.131686187859</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I91" t="n">
-        <v>3944074</v>
+        <v>3989697</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9016543</v>
+        <v>9098004</v>
       </c>
       <c r="E92" t="n">
-        <v>9016543</v>
+        <v>9098004</v>
       </c>
       <c r="F92" t="n">
-        <v>5512.483167685078</v>
+        <v>7113.652093425272</v>
       </c>
       <c r="G92" t="n">
-        <v>4760.14635866525</v>
+        <v>3377.320315020746</v>
       </c>
       <c r="H92" t="n">
-        <v>0.78</v>
+        <v>1.27</v>
       </c>
       <c r="I92" t="n">
-        <v>2155445</v>
+        <v>2075628</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31003991</v>
+        <v>30843297</v>
       </c>
       <c r="E93" t="n">
-        <v>78177181</v>
+        <v>77771988</v>
       </c>
       <c r="F93" t="n">
-        <v>572.6386428789863</v>
+        <v>2.996408245337106</v>
       </c>
       <c r="G93" t="n">
-        <v>2427.502815524223</v>
+        <v>10173.19856001765</v>
       </c>
       <c r="H93" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="I93" t="n">
-        <v>6001360</v>
+        <v>6062268</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>297359016</v>
+        <v>297520353</v>
       </c>
       <c r="E94" t="n">
-        <v>302009988</v>
+        <v>302172973</v>
       </c>
       <c r="F94" t="n">
-        <v>18983.5941192523</v>
+        <v>48384.48175411985</v>
       </c>
       <c r="G94" t="n">
-        <v>53980.67798048988</v>
+        <v>50345.39826972095</v>
       </c>
       <c r="H94" t="n">
         <v>0.25</v>
       </c>
       <c r="I94" t="n">
-        <v>24811114</v>
+        <v>25000725</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1031.749518516016</v>
+        <v>3498.371883698483</v>
       </c>
       <c r="G95" t="n">
-        <v>6347.537604972896</v>
+        <v>6500.017805031917</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>208878</v>
+        <v>206452</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>76191108</v>
+        <v>76018408</v>
       </c>
       <c r="E96" t="n">
-        <v>76191108</v>
+        <v>76018408</v>
       </c>
       <c r="F96" t="n">
-        <v>10920.95664590277</v>
+        <v>7385.261268013932</v>
       </c>
       <c r="G96" t="n">
-        <v>7493.579429722369</v>
+        <v>4732.69884652403</v>
       </c>
       <c r="H96" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="I96" t="n">
-        <v>4761805</v>
+        <v>4510882</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>286784523</v>
+        <v>285987823</v>
       </c>
       <c r="E97" t="n">
-        <v>286784523</v>
+        <v>285987823</v>
       </c>
       <c r="F97" t="n">
-        <v>306307.1396710416</v>
+        <v>254220.1033480132</v>
       </c>
       <c r="G97" t="n">
-        <v>463239.9131693676</v>
+        <v>401854.1666903371</v>
       </c>
       <c r="H97" t="n">
         <v>0.04</v>
       </c>
       <c r="I97" t="n">
-        <v>92375360</v>
+        <v>93330439</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4643052</v>
+        <v>4644822</v>
       </c>
       <c r="E98" t="n">
-        <v>31725648</v>
+        <v>31737745</v>
       </c>
       <c r="F98" t="n">
-        <v>5119.332779852839</v>
+        <v>5058.774320084592</v>
       </c>
       <c r="G98" t="n">
-        <v>272.8560656278797</v>
+        <v>4902.455102528675</v>
       </c>
       <c r="H98" t="n">
         <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>2940133</v>
+        <v>2984238</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83996684</v>
+        <v>83491054</v>
       </c>
       <c r="E99" t="n">
-        <v>484025125</v>
+        <v>481111463</v>
       </c>
       <c r="F99" t="n">
-        <v>109917.2344615065</v>
+        <v>143141.4514491151</v>
       </c>
       <c r="G99" t="n">
-        <v>124287.7153312744</v>
+        <v>137056.4828705465</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>21468696</v>
+        <v>21319564</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>104633146</v>
+        <v>104591701</v>
       </c>
       <c r="E100" t="n">
-        <v>257438419</v>
+        <v>257336447</v>
       </c>
       <c r="F100" t="n">
-        <v>31854.67540793134</v>
+        <v>34906.38695199809</v>
       </c>
       <c r="G100" t="n">
-        <v>36572.9217533891</v>
+        <v>34016.26857688448</v>
       </c>
       <c r="H100" t="n">
         <v>0.23</v>
       </c>
       <c r="I100" t="n">
-        <v>2735890</v>
+        <v>2768455</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>230623899</v>
+        <v>230215032</v>
       </c>
       <c r="E101" t="n">
-        <v>230626191</v>
+        <v>230217320</v>
       </c>
       <c r="F101" t="n">
-        <v>22918.99654871379</v>
+        <v>36911.17394909599</v>
       </c>
       <c r="G101" t="n">
-        <v>22314.57404423812</v>
+        <v>22597.15522894156</v>
       </c>
       <c r="H101" t="n">
         <v>0.35</v>
       </c>
       <c r="I101" t="n">
-        <v>1951765</v>
+        <v>1938571</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>28719746</v>
+        <v>28762666</v>
       </c>
       <c r="E102" t="n">
-        <v>128590084</v>
+        <v>128782256</v>
       </c>
       <c r="F102" t="n">
-        <v>67827.84299401364</v>
+        <v>67465.64751769409</v>
       </c>
       <c r="G102" t="n">
-        <v>109687.2831196101</v>
+        <v>113832.2451252974</v>
       </c>
       <c r="H102" t="n">
         <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>14150188</v>
+        <v>14497020</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2920014</v>
+        <v>2892233</v>
       </c>
       <c r="E103" t="n">
-        <v>2920014</v>
+        <v>2892233</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>327287</v>
+        <v>314936</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5843246</v>
+        <v>5921234</v>
       </c>
       <c r="E104" t="n">
-        <v>15335593</v>
+        <v>15540273</v>
       </c>
       <c r="F104" t="n">
-        <v>603.112718606214</v>
+        <v>651.3749084081753</v>
       </c>
       <c r="G104" t="n">
-        <v>20.60096224062448</v>
+        <v>505.7423227953212</v>
       </c>
       <c r="H104" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="I104" t="n">
-        <v>25813</v>
+        <v>28505</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16058974</v>
+        <v>16012600</v>
       </c>
       <c r="E105" t="n">
-        <v>74126059</v>
+        <v>73912027</v>
       </c>
       <c r="F105" t="n">
-        <v>5166.067903499626</v>
+        <v>5633.310048861033</v>
       </c>
       <c r="G105" t="n">
-        <v>4353.370422964615</v>
+        <v>3218.472959598522</v>
       </c>
       <c r="H105" t="n">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="I105" t="n">
-        <v>1273593</v>
+        <v>1232913</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47586036</v>
+        <v>47324355</v>
       </c>
       <c r="E106" t="n">
-        <v>308582781</v>
+        <v>306885846</v>
       </c>
       <c r="F106" t="n">
-        <v>121687.5513906618</v>
+        <v>134532.9267814569</v>
       </c>
       <c r="G106" t="n">
-        <v>143144.2852172914</v>
+        <v>141834.1259093834</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>20849191</v>
+        <v>21310299</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2478051</v>
+        <v>2467910</v>
       </c>
       <c r="E107" t="n">
-        <v>4489456</v>
+        <v>4471083</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>130978</v>
+        <v>119048</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123621473</v>
+        <v>123452218</v>
       </c>
       <c r="E108" t="n">
-        <v>2047272841</v>
+        <v>2044469842</v>
       </c>
       <c r="F108" t="n">
-        <v>157976.893213973</v>
+        <v>24196.29695381659</v>
       </c>
       <c r="G108" t="n">
-        <v>172395.1525713626</v>
+        <v>24769.00327192864</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>35073536</v>
+        <v>35948459</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22781121</v>
+        <v>22618405</v>
       </c>
       <c r="E109" t="n">
-        <v>136304027</v>
+        <v>135330462</v>
       </c>
       <c r="F109" t="n">
-        <v>39141.77043924671</v>
+        <v>39263.50597210405</v>
       </c>
       <c r="G109" t="n">
-        <v>37309.90524825804</v>
+        <v>36395.88281004631</v>
       </c>
       <c r="H109" t="n">
         <v>0.15</v>
       </c>
       <c r="I109" t="n">
-        <v>17884647</v>
+        <v>18014262</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1060728</v>
+        <v>1054282</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>91077</v>
+        <v>92503</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2184959</v>
+        <v>2217532</v>
       </c>
       <c r="F111" t="n">
-        <v>3674.74077728805</v>
+        <v>3799.814264418352</v>
       </c>
       <c r="G111" t="n">
-        <v>252.1222867658739</v>
+        <v>180.6448194292861</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I111" t="n">
-        <v>179596</v>
+        <v>184054</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147414690</v>
+        <v>147407622</v>
       </c>
       <c r="F112" t="n">
-        <v>8555.897679577432</v>
+        <v>8605.984303387047</v>
       </c>
       <c r="G112" t="n">
-        <v>3527.561129596619</v>
+        <v>3045.601306387207</v>
       </c>
       <c r="H112" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="I112" t="n">
-        <v>63209</v>
+        <v>65621</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6300346</v>
+        <v>6292566</v>
       </c>
       <c r="E113" t="n">
-        <v>32413368</v>
+        <v>32373340</v>
       </c>
       <c r="F113" t="n">
-        <v>367.1991472537874</v>
+        <v>1553.929050135934</v>
       </c>
       <c r="G113" t="n">
-        <v>978.8838080333644</v>
+        <v>973.0495601479624</v>
       </c>
       <c r="H113" t="n">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="I113" t="n">
-        <v>950097</v>
+        <v>951404</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29889648</v>
+        <v>29937592</v>
       </c>
       <c r="E114" t="n">
-        <v>40983933</v>
+        <v>41049673</v>
       </c>
       <c r="F114" t="n">
-        <v>5316.530910915847</v>
+        <v>8552.857659010881</v>
       </c>
       <c r="G114" t="n">
-        <v>4256.214415817506</v>
+        <v>8991.959680827063</v>
       </c>
       <c r="H114" t="n">
         <v>0.12</v>
       </c>
       <c r="I114" t="n">
-        <v>348896</v>
+        <v>382692</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7587064</v>
+        <v>7583122</v>
       </c>
       <c r="F115" t="n">
-        <v>2025.859585304334</v>
+        <v>2116.306332686784</v>
       </c>
       <c r="G115" t="n">
-        <v>5625.660257992882</v>
+        <v>5650.255617254627</v>
       </c>
       <c r="H115" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I115" t="n">
-        <v>538869</v>
+        <v>657187</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3420098</v>
+        <v>3555819</v>
       </c>
       <c r="E116" t="n">
-        <v>4581438</v>
+        <v>4763245</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>149618</v>
+        <v>123734</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32194902</v>
+        <v>32008536</v>
       </c>
       <c r="E117" t="n">
-        <v>160667405</v>
+        <v>159737350</v>
       </c>
       <c r="F117" t="n">
-        <v>88374.25685430897</v>
+        <v>83140.85404124889</v>
       </c>
       <c r="G117" t="n">
-        <v>80405.61754705856</v>
+        <v>67379.68126088537</v>
       </c>
       <c r="H117" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>13906912</v>
+        <v>14020450</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3488632</v>
+        <v>3484228</v>
       </c>
       <c r="E118" t="n">
-        <v>5011485</v>
+        <v>5005158</v>
       </c>
       <c r="F118" t="n">
-        <v>541.3817988043483</v>
+        <v>616.4054755749195</v>
       </c>
       <c r="G118" t="n">
-        <v>788.9463006636157</v>
+        <v>755.7159335301924</v>
       </c>
       <c r="H118" t="n">
         <v>1.19</v>
       </c>
       <c r="I118" t="n">
-        <v>150077</v>
+        <v>150083</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>290134678</v>
+        <v>286836510</v>
       </c>
       <c r="E119" t="n">
-        <v>536815318</v>
+        <v>530712955</v>
       </c>
       <c r="F119" t="n">
-        <v>34774.35855341922</v>
+        <v>36507.62758880258</v>
       </c>
       <c r="G119" t="n">
-        <v>31197.3876244114</v>
+        <v>32893.80721638577</v>
       </c>
       <c r="H119" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="I119" t="n">
-        <v>17097857</v>
+        <v>17470570</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69198362</v>
+        <v>68609219</v>
       </c>
       <c r="E120" t="n">
-        <v>660032117</v>
+        <v>654405242</v>
       </c>
       <c r="F120" t="n">
-        <v>5400.330908468351</v>
+        <v>4814.764576916288</v>
       </c>
       <c r="G120" t="n">
-        <v>1807.318687733099</v>
+        <v>1727.065231554389</v>
       </c>
       <c r="H120" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I120" t="n">
-        <v>23954276</v>
+        <v>23830617</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35550650</v>
+        <v>35327107</v>
       </c>
       <c r="E121" t="n">
-        <v>46476939</v>
+        <v>46184286</v>
       </c>
       <c r="F121" t="n">
-        <v>871.6735821999628</v>
+        <v>6308.33263761895</v>
       </c>
       <c r="G121" t="n">
-        <v>5515.78245385124</v>
+        <v>124.4883224267664</v>
       </c>
       <c r="H121" t="n">
-        <v>1.92</v>
+        <v>2.35</v>
       </c>
       <c r="I121" t="n">
-        <v>329474</v>
+        <v>492235</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8987146</v>
+        <v>8779942</v>
       </c>
       <c r="E122" t="n">
-        <v>26642738</v>
+        <v>26028476</v>
       </c>
       <c r="F122" t="n">
-        <v>903.4348305091156</v>
+        <v>927.3521921866333</v>
       </c>
       <c r="G122" t="n">
-        <v>7083.411805706273</v>
+        <v>5903.619472193081</v>
       </c>
       <c r="H122" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I122" t="n">
-        <v>6037524</v>
+        <v>6442858</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2280675</v>
+        <v>2274417</v>
       </c>
       <c r="E123" t="n">
-        <v>7621181</v>
+        <v>7600268</v>
       </c>
       <c r="F123" t="n">
-        <v>840.0702041599194</v>
+        <v>874.0128311105142</v>
       </c>
       <c r="G123" t="n">
-        <v>976.397690589142</v>
+        <v>1049.847606168428</v>
       </c>
       <c r="H123" t="n">
-        <v>1.03</v>
+        <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>936348</v>
+        <v>924811</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7226221</v>
+        <v>7244071</v>
       </c>
       <c r="E124" t="n">
-        <v>7226232</v>
+        <v>7244082</v>
       </c>
       <c r="F124" t="n">
-        <v>249.1764289034624</v>
+        <v>213.9526577293188</v>
       </c>
       <c r="G124" t="n">
-        <v>1194.933877516862</v>
+        <v>214.9614510393782</v>
       </c>
       <c r="H124" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="I124" t="n">
-        <v>267878</v>
+        <v>261900</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6009721</v>
+        <v>6033206</v>
       </c>
       <c r="E125" t="n">
-        <v>6009721</v>
+        <v>6033206</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>495887</v>
+        <v>493734</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6164569</v>
+        <v>6191483</v>
       </c>
       <c r="E126" t="n">
-        <v>22516787</v>
+        <v>22615093</v>
       </c>
       <c r="F126" t="n">
-        <v>6449.504512999716</v>
+        <v>6766.735724760091</v>
       </c>
       <c r="G126" t="n">
-        <v>8508.96677239175</v>
+        <v>7864.265783172829</v>
       </c>
       <c r="H126" t="n">
-        <v>0.89</v>
+        <v>1.59</v>
       </c>
       <c r="I126" t="n">
-        <v>525221</v>
+        <v>573901</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43630509</v>
+        <v>43206472</v>
       </c>
       <c r="E127" t="n">
-        <v>43630509</v>
+        <v>43206472</v>
       </c>
       <c r="F127" t="n">
-        <v>56268.95030339766</v>
+        <v>54216.66029330231</v>
       </c>
       <c r="G127" t="n">
-        <v>95400.38423959239</v>
+        <v>81152.14995274511</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>11141925</v>
+        <v>11775360</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>142527028</v>
+        <v>141076293</v>
       </c>
       <c r="F128" t="n">
-        <v>467.8278110779826</v>
+        <v>238.2353868758157</v>
       </c>
       <c r="G128" t="n">
-        <v>3731.552656255149</v>
+        <v>1660.817364502244</v>
       </c>
       <c r="H128" t="n">
-        <v>0.84</v>
+        <v>2.29</v>
       </c>
       <c r="I128" t="n">
-        <v>1690237</v>
+        <v>1655750</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2889161</v>
+        <v>2974016</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72947</v>
+        <v>75337</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19372446</v>
+        <v>19466496</v>
       </c>
       <c r="F130" t="n">
-        <v>513.2544878133768</v>
+        <v>427.8497739750568</v>
       </c>
       <c r="G130" t="n">
-        <v>1374.238632677034</v>
+        <v>1427.28433830505</v>
       </c>
       <c r="H130" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="I130" t="n">
-        <v>2937922</v>
+        <v>2938530</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1295675</v>
+        <v>1313571</v>
       </c>
       <c r="E131" t="n">
-        <v>3922877</v>
+        <v>3976627</v>
       </c>
       <c r="F131" t="n">
-        <v>809.535562049517</v>
+        <v>840.2580655546484</v>
       </c>
       <c r="G131" t="n">
-        <v>697.1609888226961</v>
+        <v>705.3588465968294</v>
       </c>
       <c r="H131" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="I131" t="n">
-        <v>46081</v>
+        <v>29265</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>576484279</v>
+        <v>572957303</v>
       </c>
       <c r="E132" t="n">
-        <v>2232638558</v>
+        <v>2218979099</v>
       </c>
       <c r="F132" t="n">
-        <v>725771.3861641255</v>
+        <v>787561.6852021588</v>
       </c>
       <c r="G132" t="n">
-        <v>1115212.956900502</v>
+        <v>1128513.310655405</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>60109044</v>
+        <v>60988525</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3633101</v>
+        <v>3635847</v>
       </c>
       <c r="E133" t="n">
-        <v>6193113</v>
+        <v>6197795</v>
       </c>
       <c r="F133" t="n">
-        <v>5239.06356841714</v>
+        <v>5238.686483922501</v>
       </c>
       <c r="G133" t="n">
-        <v>5471.757072434929</v>
+        <v>5471.912909556127</v>
       </c>
       <c r="H133" t="n">
         <v>0.16</v>
       </c>
       <c r="I133" t="n">
-        <v>1125091</v>
+        <v>1106786</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>107909075</v>
+        <v>106552086</v>
       </c>
       <c r="E134" t="n">
-        <v>1021598205</v>
+        <v>1008751301</v>
       </c>
       <c r="F134" t="n">
-        <v>83844.17170375837</v>
+        <v>88308.72747047184</v>
       </c>
       <c r="G134" t="n">
-        <v>93665.88901147027</v>
+        <v>87549.92634113372</v>
       </c>
       <c r="H134" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="I134" t="n">
-        <v>16076892</v>
+        <v>16230245</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>903083823</v>
+        <v>896191038</v>
       </c>
       <c r="E135" t="n">
-        <v>992040054</v>
+        <v>984468312</v>
       </c>
       <c r="F135" t="n">
-        <v>7742.040721277686</v>
+        <v>9531.37893261765</v>
       </c>
       <c r="G135" t="n">
-        <v>13035.51917486405</v>
+        <v>24928.52930846565</v>
       </c>
       <c r="H135" t="n">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="I135" t="n">
-        <v>9316519</v>
+        <v>11216225</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1085600</v>
+        <v>1078851</v>
       </c>
       <c r="E136" t="n">
-        <v>4203680</v>
+        <v>4177546</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>316218</v>
+        <v>315919</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>119777990</v>
+        <v>120520311</v>
       </c>
       <c r="E137" t="n">
-        <v>459487650</v>
+        <v>462335311</v>
       </c>
       <c r="F137" t="n">
-        <v>173780.1072582357</v>
+        <v>166016.9416592839</v>
       </c>
       <c r="G137" t="n">
-        <v>226372.4441597854</v>
+        <v>174172.3818769864</v>
       </c>
       <c r="H137" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I137" t="n">
-        <v>39585479</v>
+        <v>39729391</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2995785</v>
+        <v>3094788</v>
       </c>
       <c r="E138" t="n">
-        <v>28385504</v>
+        <v>29323571</v>
       </c>
       <c r="F138" t="n">
-        <v>3719.284995017413</v>
+        <v>4674.846704965285</v>
       </c>
       <c r="G138" t="n">
-        <v>4076.790362848285</v>
+        <v>2905.528095832567</v>
       </c>
       <c r="H138" t="n">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="I138" t="n">
-        <v>253649</v>
+        <v>266162</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>20490133</v>
+        <v>26057262</v>
       </c>
       <c r="E139" t="n">
-        <v>20490133</v>
+        <v>26057262</v>
       </c>
       <c r="F139" t="n">
-        <v>502.6239440646119</v>
+        <v>1222.032248197535</v>
       </c>
       <c r="G139" t="n">
-        <v>1380.965926615913</v>
+        <v>1195.308151317925</v>
       </c>
       <c r="H139" t="n">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="I139" t="n">
-        <v>487923</v>
+        <v>677057</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>493986528</v>
+        <v>494195577</v>
       </c>
       <c r="E140" t="n">
-        <v>493986528</v>
+        <v>494195577</v>
       </c>
       <c r="F140" t="n">
-        <v>689457.2108136074</v>
+        <v>547944.6635089989</v>
       </c>
       <c r="G140" t="n">
-        <v>766023.2972346328</v>
+        <v>770723.6410451266</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>43489112</v>
+        <v>44584218</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35710177</v>
+        <v>35738658</v>
       </c>
       <c r="F141" t="n">
-        <v>70136.46837637771</v>
+        <v>63367.82494602336</v>
       </c>
       <c r="G141" t="n">
-        <v>93575.43696045388</v>
+        <v>65279.79439885641</v>
       </c>
       <c r="H141" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="I141" t="n">
-        <v>7899471</v>
+        <v>8011082</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>792739</v>
+        <v>802544</v>
       </c>
       <c r="E142" t="n">
-        <v>12643904</v>
+        <v>12800292</v>
       </c>
       <c r="F142" t="n">
-        <v>88.28524634425709</v>
+        <v>543.6775383269407</v>
       </c>
       <c r="G142" t="n">
-        <v>100.2824775479549</v>
+        <v>28.9892400292664</v>
       </c>
       <c r="H142" t="n">
-        <v>3.38</v>
+        <v>3.02</v>
       </c>
       <c r="I142" t="n">
-        <v>334194</v>
+        <v>334614</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2519254858</v>
+        <v>2508262420</v>
       </c>
       <c r="E143" t="n">
-        <v>2674793141</v>
+        <v>2663122032</v>
       </c>
       <c r="F143" t="n">
-        <v>2741.373016596673</v>
+        <v>4220.099085249351</v>
       </c>
       <c r="G143" t="n">
-        <v>20415.4367406593</v>
+        <v>22832.41906875398</v>
       </c>
       <c r="H143" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="I143" t="n">
-        <v>58937044</v>
+        <v>59518552</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1692463</v>
+        <v>1696028</v>
       </c>
       <c r="E144" t="n">
-        <v>1698437</v>
+        <v>1702014</v>
       </c>
       <c r="F144" t="n">
-        <v>450.922493526831</v>
+        <v>677.0110523572249</v>
       </c>
       <c r="G144" t="n">
-        <v>196.5855665657525</v>
+        <v>1996.853062795386</v>
       </c>
       <c r="H144" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="I144" t="n">
-        <v>454485</v>
+        <v>451147</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>57420346</v>
+        <v>55974964</v>
       </c>
       <c r="E145" t="n">
-        <v>140848216</v>
+        <v>137302792</v>
       </c>
       <c r="F145" t="n">
-        <v>5261.711643649724</v>
+        <v>2975.870241347761</v>
       </c>
       <c r="G145" t="n">
-        <v>5079.673258434404</v>
+        <v>2066.50595441762</v>
       </c>
       <c r="H145" t="n">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I145" t="n">
-        <v>21854097</v>
+        <v>21733094</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>746992698</v>
+        <v>749156913</v>
       </c>
       <c r="E146" t="n">
-        <v>1151928694</v>
+        <v>1155266103</v>
       </c>
       <c r="F146" t="n">
-        <v>154407.1771057172</v>
+        <v>189054.5425465851</v>
       </c>
       <c r="G146" t="n">
-        <v>149517.2161961864</v>
+        <v>205365.8540605867</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>270020108</v>
+        <v>380089548</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21485682</v>
+        <v>21847878</v>
       </c>
       <c r="E147" t="n">
-        <v>21485682</v>
+        <v>21847878</v>
       </c>
       <c r="F147" t="n">
-        <v>3170.580487807329</v>
+        <v>5005.277063556238</v>
       </c>
       <c r="G147" t="n">
-        <v>4395.444654707806</v>
+        <v>5880.9379397645</v>
       </c>
       <c r="H147" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="I147" t="n">
-        <v>5880466</v>
+        <v>5985496</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3813944</v>
+        <v>3793751</v>
       </c>
       <c r="E148" t="n">
-        <v>8313863</v>
+        <v>8269844</v>
       </c>
       <c r="F148" t="n">
-        <v>6936.328426038915</v>
+        <v>6803.631675605648</v>
       </c>
       <c r="G148" t="n">
-        <v>7231.202683753971</v>
+        <v>7106.858084527587</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="I148" t="n">
-        <v>2026933</v>
+        <v>2042855</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9245951</v>
+        <v>9234984</v>
       </c>
       <c r="E149" t="n">
-        <v>9245951</v>
+        <v>9234984</v>
       </c>
       <c r="F149" t="n">
-        <v>73390.52502847808</v>
+        <v>79936.26113352105</v>
       </c>
       <c r="G149" t="n">
-        <v>87420.57787629084</v>
+        <v>77771.35812757899</v>
       </c>
       <c r="H149" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>6176304</v>
+        <v>6324263</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>466136834</v>
+        <v>463832283</v>
       </c>
       <c r="E150" t="n">
-        <v>1622583526</v>
+        <v>1614561575</v>
       </c>
       <c r="F150" t="n">
-        <v>559090.7561366896</v>
+        <v>693404.303328385</v>
       </c>
       <c r="G150" t="n">
-        <v>909910.5517820447</v>
+        <v>753334.2559858173</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I150" t="n">
-        <v>46775837</v>
+        <v>47195121</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46145215</v>
+        <v>46002581</v>
       </c>
       <c r="E151" t="n">
-        <v>113592778</v>
+        <v>113241672</v>
       </c>
       <c r="F151" t="n">
-        <v>2674.649672239165</v>
+        <v>437.7731820106244</v>
       </c>
       <c r="G151" t="n">
-        <v>6971.916111536329</v>
+        <v>8312.008418000209</v>
       </c>
       <c r="H151" t="n">
         <v>0.53</v>
       </c>
       <c r="I151" t="n">
-        <v>116222</v>
+        <v>117016</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7224066</v>
+        <v>7214712</v>
       </c>
       <c r="E152" t="n">
-        <v>18767348</v>
+        <v>18743045</v>
       </c>
       <c r="F152" t="n">
-        <v>6450.08867127221</v>
+        <v>6531.055499758123</v>
       </c>
       <c r="G152" t="n">
-        <v>6431.100531482815</v>
+        <v>6131.85971845714</v>
       </c>
       <c r="H152" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I152" t="n">
-        <v>764877</v>
+        <v>769791</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18795639091</v>
+        <v>18798806869</v>
       </c>
       <c r="F153" t="n">
-        <v>486.6308820911601</v>
+        <v>362.6938454208695</v>
       </c>
       <c r="G153" t="n">
-        <v>5306.351733463251</v>
+        <v>19985.08688276484</v>
       </c>
       <c r="H153" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I153" t="n">
-        <v>35633890</v>
+        <v>34102403</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2355947</v>
+        <v>2355618</v>
       </c>
       <c r="E154" t="n">
-        <v>9423787</v>
+        <v>9422473</v>
       </c>
       <c r="F154" t="n">
-        <v>989.7006702403199</v>
+        <v>1526.276083128978</v>
       </c>
       <c r="G154" t="n">
-        <v>2323.50745256228</v>
+        <v>5870.830250982639</v>
       </c>
       <c r="H154" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I154" t="n">
-        <v>7497350</v>
+        <v>7496759</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>209509853</v>
+        <v>207944683</v>
       </c>
       <c r="E155" t="n">
-        <v>644163954</v>
+        <v>639351646</v>
       </c>
       <c r="F155" t="n">
-        <v>45914.94375596315</v>
+        <v>30576.08832622819</v>
       </c>
       <c r="G155" t="n">
-        <v>45820.01964542072</v>
+        <v>45086.34945896902</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>22341048</v>
+        <v>22562420</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>380177802</v>
+        <v>379993831</v>
       </c>
       <c r="E156" t="n">
-        <v>2172444583</v>
+        <v>2171393320</v>
       </c>
       <c r="F156" t="n">
-        <v>250492.2961245927</v>
+        <v>261632.3537663924</v>
       </c>
       <c r="G156" t="n">
-        <v>276435.1166857272</v>
+        <v>357416.6699875108</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>60112962</v>
+        <v>61255386</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3853386</v>
+        <v>3882866</v>
       </c>
       <c r="F2" t="n">
-        <v>490.6234595064964</v>
+        <v>117.3755063279076</v>
       </c>
       <c r="G2" t="n">
-        <v>24.92719735571109</v>
+        <v>830.3641886917624</v>
       </c>
       <c r="H2" t="n">
-        <v>1.41</v>
+        <v>3.66</v>
       </c>
       <c r="I2" t="n">
-        <v>143289</v>
+        <v>143073</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>581018232</v>
+        <v>580230194</v>
       </c>
       <c r="E3" t="n">
-        <v>1127497495</v>
+        <v>1125968267</v>
       </c>
       <c r="F3" t="n">
-        <v>14436.93704095606</v>
+        <v>14186.1822375503</v>
       </c>
       <c r="G3" t="n">
-        <v>21458.07154225022</v>
+        <v>14210.89095804206</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I3" t="n">
-        <v>45237636</v>
+        <v>45759781</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>243311812</v>
+        <v>244075810</v>
       </c>
       <c r="E4" t="n">
-        <v>1525774175</v>
+        <v>1530565099</v>
       </c>
       <c r="F4" t="n">
-        <v>214636.0302197914</v>
+        <v>276528.5512830479</v>
       </c>
       <c r="G4" t="n">
-        <v>244270.8111776979</v>
+        <v>168291.667558575</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>26116437</v>
+        <v>26213009</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138663937</v>
+        <v>138266723</v>
       </c>
       <c r="E5" t="n">
-        <v>153661313</v>
+        <v>153221138</v>
       </c>
       <c r="F5" t="n">
-        <v>8446.114076593691</v>
+        <v>8291.17161581367</v>
       </c>
       <c r="G5" t="n">
-        <v>434.189475503255</v>
+        <v>354.7258955245181</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I5" t="n">
-        <v>52333781</v>
+        <v>52859999</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48022549</v>
+        <v>47936234</v>
       </c>
       <c r="E6" t="n">
-        <v>60074978</v>
+        <v>59967000</v>
       </c>
       <c r="F6" t="n">
-        <v>5539.995782170323</v>
+        <v>5539.49649924308</v>
       </c>
       <c r="G6" t="n">
-        <v>1288.833794473751</v>
+        <v>1406.881630483237</v>
       </c>
       <c r="H6" t="n">
         <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>885410</v>
+        <v>860480</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66510186</v>
+        <v>66411007</v>
       </c>
       <c r="E7" t="n">
-        <v>132465781</v>
+        <v>132268250</v>
       </c>
       <c r="F7" t="n">
-        <v>11750.12763834586</v>
+        <v>11791.45343597439</v>
       </c>
       <c r="G7" t="n">
-        <v>12028.94093549283</v>
+        <v>11369.25573477098</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="I7" t="n">
-        <v>1030614</v>
+        <v>1032509</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39300045</v>
+        <v>40481360</v>
       </c>
       <c r="E8" t="n">
-        <v>43982411</v>
+        <v>45304473</v>
       </c>
       <c r="F8" t="n">
-        <v>814.0970997043745</v>
+        <v>819.1538476703836</v>
       </c>
       <c r="G8" t="n">
-        <v>122.1580514465963</v>
+        <v>222.905872919726</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>5259490</v>
+        <v>5275708</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13871732</v>
+        <v>13852899</v>
       </c>
       <c r="E9" t="n">
-        <v>40879099</v>
+        <v>40823600</v>
       </c>
       <c r="F9" t="n">
-        <v>5035.21200922108</v>
+        <v>5005.469125536171</v>
       </c>
       <c r="G9" t="n">
-        <v>4871.044238846839</v>
+        <v>4917.362838553149</v>
       </c>
       <c r="H9" t="n">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
       <c r="I9" t="n">
-        <v>173182</v>
+        <v>894249</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8791343</v>
+        <v>8636338</v>
       </c>
       <c r="E10" t="n">
-        <v>37790083</v>
+        <v>37123785</v>
       </c>
       <c r="F10" t="n">
-        <v>1323.659391104352</v>
+        <v>513.9923934292652</v>
       </c>
       <c r="G10" t="n">
-        <v>306.9628657559715</v>
+        <v>161.1190594039697</v>
       </c>
       <c r="H10" t="n">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="I10" t="n">
-        <v>965904</v>
+        <v>970100</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>545969918</v>
+        <v>543665795</v>
       </c>
       <c r="E11" t="n">
-        <v>682927222</v>
+        <v>680045106</v>
       </c>
       <c r="F11" t="n">
-        <v>316781.3465105546</v>
+        <v>305502.3385688225</v>
       </c>
       <c r="G11" t="n">
-        <v>267101.3818773163</v>
+        <v>280886.5514317171</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>98205080</v>
+        <v>98139081</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4258990</v>
+        <v>4261188</v>
       </c>
       <c r="E12" t="n">
-        <v>26149584</v>
+        <v>26163081</v>
       </c>
       <c r="F12" t="n">
-        <v>11406.72806674991</v>
+        <v>11231.48905117576</v>
       </c>
       <c r="G12" t="n">
-        <v>9039.36672613954</v>
+        <v>9414.747543637637</v>
       </c>
       <c r="H12" t="n">
         <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>623948</v>
+        <v>617220</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24397650</v>
+        <v>24274595</v>
       </c>
       <c r="E13" t="n">
-        <v>24442650</v>
+        <v>24319369</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>886322</v>
+        <v>883785</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78550843</v>
+        <v>77880022</v>
       </c>
       <c r="E14" t="n">
-        <v>231106322</v>
+        <v>229132685</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>474912</v>
+        <v>478521</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>492986745</v>
+        <v>494364281</v>
       </c>
       <c r="E15" t="n">
-        <v>492986745</v>
+        <v>494364281</v>
       </c>
       <c r="F15" t="n">
-        <v>20323.11357948861</v>
+        <v>22282.41721285177</v>
       </c>
       <c r="G15" t="n">
-        <v>20235.47521577353</v>
+        <v>19716.45363287823</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>75781368</v>
+        <v>75848896</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4564164</v>
+        <v>4561850</v>
       </c>
       <c r="E16" t="n">
-        <v>4564164</v>
+        <v>4561850</v>
       </c>
       <c r="F16" t="n">
-        <v>393.0698516142286</v>
+        <v>259.8458885487706</v>
       </c>
       <c r="G16" t="n">
-        <v>1195.570778711266</v>
+        <v>1294.894294562727</v>
       </c>
       <c r="H16" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2231628</v>
+        <v>2260194</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3227873</v>
+        <v>3222160</v>
       </c>
       <c r="E17" t="n">
-        <v>3227873</v>
+        <v>3222160</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>639542</v>
+        <v>643504</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166923537</v>
+        <v>166612469</v>
       </c>
       <c r="E18" t="n">
-        <v>206658290</v>
+        <v>206273175</v>
       </c>
       <c r="F18" t="n">
-        <v>10538.16514669634</v>
+        <v>7914.725170213437</v>
       </c>
       <c r="G18" t="n">
-        <v>8070.856499498523</v>
+        <v>7985.922235179004</v>
       </c>
       <c r="H18" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>174212</v>
+        <v>173951</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6883641</v>
+        <v>6877530</v>
       </c>
       <c r="E19" t="n">
-        <v>9480532</v>
+        <v>9472116</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>403028</v>
+        <v>410858</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>879401</v>
+        <v>884231</v>
       </c>
       <c r="E20" t="n">
-        <v>6155804</v>
+        <v>6189615</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>271826</v>
+        <v>230779</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>106762491</v>
+        <v>106277955</v>
       </c>
       <c r="E21" t="n">
-        <v>415012616</v>
+        <v>413120497</v>
       </c>
       <c r="F21" t="n">
-        <v>4918.642511737732</v>
+        <v>4948.341398568374</v>
       </c>
       <c r="G21" t="n">
-        <v>12936.02048967414</v>
+        <v>10159.23429570816</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>12466710</v>
+        <v>12338018</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1718130</v>
+        <v>1718829</v>
       </c>
       <c r="E22" t="n">
-        <v>12375546</v>
+        <v>12380581</v>
       </c>
       <c r="F22" t="n">
-        <v>4803.706014357349</v>
+        <v>4803.27308832369</v>
       </c>
       <c r="G22" t="n">
-        <v>4673.704775320005</v>
+        <v>4673.283565432301</v>
       </c>
       <c r="H22" t="n">
         <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>54096</v>
+        <v>54111</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>136017377</v>
+        <v>135470129</v>
       </c>
       <c r="E23" t="n">
-        <v>136017377</v>
+        <v>135470129</v>
       </c>
       <c r="F23" t="n">
-        <v>999737.5574733906</v>
+        <v>845880.3425991392</v>
       </c>
       <c r="G23" t="n">
-        <v>1299694.669161473</v>
+        <v>1357825.892808155</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>90964832</v>
+        <v>90257117</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62754207</v>
+        <v>62667939</v>
       </c>
       <c r="E24" t="n">
-        <v>321816445</v>
+        <v>321374046</v>
       </c>
       <c r="F24" t="n">
-        <v>75289.89142305694</v>
+        <v>75334.18722833655</v>
       </c>
       <c r="G24" t="n">
-        <v>125150.2566423645</v>
+        <v>134780.1052139542</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>27293157</v>
+        <v>27293889</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>248024356</v>
+        <v>247411839</v>
       </c>
       <c r="E25" t="n">
-        <v>248024356</v>
+        <v>247411839</v>
       </c>
       <c r="F25" t="n">
-        <v>294513.9354493394</v>
+        <v>289474.4914994715</v>
       </c>
       <c r="G25" t="n">
-        <v>414750.8949380034</v>
+        <v>361873.2960516845</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>25881580</v>
+        <v>25958076</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1115118</v>
+        <v>1109710</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>137421</v>
+        <v>137399</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2218014</v>
+        <v>2294146</v>
       </c>
       <c r="E27" t="n">
-        <v>2459403</v>
+        <v>2551244</v>
       </c>
       <c r="F27" t="n">
-        <v>56.11749006866401</v>
+        <v>67.17777260449444</v>
       </c>
       <c r="G27" t="n">
-        <v>242.5797517105117</v>
+        <v>256.8512417188718</v>
       </c>
       <c r="H27" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="I27" t="n">
-        <v>334206</v>
+        <v>335410</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3764833</v>
+        <v>3748639</v>
       </c>
       <c r="E28" t="n">
-        <v>3765754</v>
+        <v>3749529</v>
       </c>
       <c r="F28" t="n">
-        <v>1021.765696538437</v>
+        <v>895.190685456457</v>
       </c>
       <c r="G28" t="n">
-        <v>3379.120054992324</v>
+        <v>2940.050307944494</v>
       </c>
       <c r="H28" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="I28" t="n">
-        <v>250760</v>
+        <v>250163</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6830040</v>
+        <v>6845939</v>
       </c>
       <c r="E29" t="n">
-        <v>16589641</v>
+        <v>16628258</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>434135</v>
+        <v>435628</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96395947</v>
+        <v>96154559</v>
       </c>
       <c r="E30" t="n">
-        <v>120194446</v>
+        <v>119893464</v>
       </c>
       <c r="F30" t="n">
-        <v>97739.85734506435</v>
+        <v>98789.63771385996</v>
       </c>
       <c r="G30" t="n">
-        <v>122702.1601692727</v>
+        <v>125998.4267076447</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>12190951</v>
+        <v>12225949</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115506</v>
+        <v>1117485</v>
       </c>
       <c r="E31" t="n">
-        <v>12122897</v>
+        <v>12144410</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14407.67</v>
+        <v>12933.52</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80685874</v>
+        <v>79712721</v>
       </c>
       <c r="E32" t="n">
-        <v>225730974</v>
+        <v>223034195</v>
       </c>
       <c r="F32" t="n">
-        <v>57588.09817892675</v>
+        <v>53963.47214577596</v>
       </c>
       <c r="G32" t="n">
-        <v>75129.1357223893</v>
+        <v>75799.93576386895</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>54107869</v>
+        <v>54626492</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4078241</v>
+        <v>4072198</v>
       </c>
       <c r="E33" t="n">
-        <v>8042635</v>
+        <v>8030718</v>
       </c>
       <c r="F33" t="n">
-        <v>7214.912785311755</v>
+        <v>8285.124524186394</v>
       </c>
       <c r="G33" t="n">
-        <v>6298.272410240221</v>
+        <v>9030.253080775197</v>
       </c>
       <c r="H33" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="I33" t="n">
-        <v>1671963</v>
+        <v>1685101</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36447159</v>
+        <v>36351144</v>
       </c>
       <c r="F34" t="n">
-        <v>243.8517081616645</v>
+        <v>243.9994123339367</v>
       </c>
       <c r="G34" t="n">
-        <v>430.4293609746323</v>
+        <v>424.905549147071</v>
       </c>
       <c r="H34" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="I34" t="n">
-        <v>40027</v>
+        <v>39570</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17404335</v>
+        <v>17400144</v>
       </c>
       <c r="E35" t="n">
-        <v>18343761</v>
+        <v>18339344</v>
       </c>
       <c r="F35" t="n">
-        <v>3567.071679397975</v>
+        <v>3559.709710077124</v>
       </c>
       <c r="G35" t="n">
-        <v>2563.107474758355</v>
+        <v>2562.408332931164</v>
       </c>
       <c r="H35" t="n">
         <v>1.24</v>
       </c>
       <c r="I35" t="n">
-        <v>47652</v>
+        <v>47938</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23030724</v>
+        <v>23013224</v>
       </c>
       <c r="F36" t="n">
-        <v>5206.458027154165</v>
+        <v>5210.418167657625</v>
       </c>
       <c r="G36" t="n">
-        <v>5536.402312943485</v>
+        <v>5550.112643768998</v>
       </c>
       <c r="H36" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="I36" t="n">
-        <v>130056</v>
+        <v>129960</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>81959845</v>
+        <v>81734984</v>
       </c>
       <c r="E37" t="n">
-        <v>170879693</v>
+        <v>170410876</v>
       </c>
       <c r="F37" t="n">
-        <v>51945.668066009</v>
+        <v>55430.88340721856</v>
       </c>
       <c r="G37" t="n">
-        <v>46843.12596718472</v>
+        <v>41500.61218152162</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>70743706</v>
+        <v>70760347</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>267018565</v>
+        <v>267459121</v>
       </c>
       <c r="E38" t="n">
-        <v>267018565</v>
+        <v>267459121</v>
       </c>
       <c r="F38" t="n">
-        <v>29911.18580257288</v>
+        <v>28155.10391640357</v>
       </c>
       <c r="G38" t="n">
-        <v>40285.2327574819</v>
+        <v>42214.81412965887</v>
       </c>
       <c r="H38" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>12364457</v>
+        <v>12324906</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>193202141</v>
+        <v>193745876</v>
       </c>
       <c r="E39" t="n">
-        <v>671201698</v>
+        <v>673090684</v>
       </c>
       <c r="F39" t="n">
-        <v>114283.2856077957</v>
+        <v>183075.5279593408</v>
       </c>
       <c r="G39" t="n">
-        <v>241608.6394284912</v>
+        <v>199171.6604139378</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>40955945</v>
+        <v>41204438</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3349360</v>
+        <v>3367074</v>
       </c>
       <c r="E40" t="n">
-        <v>3349360</v>
+        <v>3367074</v>
       </c>
       <c r="F40" t="n">
-        <v>989.5017804098059</v>
+        <v>1175.534852758225</v>
       </c>
       <c r="G40" t="n">
-        <v>2183.960354579331</v>
+        <v>1060.032641618635</v>
       </c>
       <c r="H40" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="I40" t="n">
-        <v>2294244</v>
+        <v>2266698</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>108322265</v>
+        <v>107741040</v>
       </c>
       <c r="E41" t="n">
-        <v>459479264</v>
+        <v>456997901</v>
       </c>
       <c r="F41" t="n">
-        <v>5428.478325885749</v>
+        <v>5422.482670788268</v>
       </c>
       <c r="G41" t="n">
-        <v>6320.997571212248</v>
+        <v>7736.048988130375</v>
       </c>
       <c r="H41" t="n">
         <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>15197337</v>
+        <v>15112001</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>536051</v>
+        <v>534249</v>
       </c>
       <c r="E42" t="n">
-        <v>6501772</v>
+        <v>6479919</v>
       </c>
       <c r="F42" t="n">
-        <v>384.9463231071107</v>
+        <v>402.3410467831985</v>
       </c>
       <c r="G42" t="n">
-        <v>719.8533452225093</v>
+        <v>797.3746583491942</v>
       </c>
       <c r="H42" t="n">
         <v>1.66</v>
       </c>
       <c r="I42" t="n">
-        <v>2866538</v>
+        <v>2874584</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1371913868</v>
+        <v>1381268416</v>
       </c>
       <c r="E43" t="n">
-        <v>6578607958</v>
+        <v>6623464933</v>
       </c>
       <c r="F43" t="n">
-        <v>38994.53079189146</v>
+        <v>44198.11028506669</v>
       </c>
       <c r="G43" t="n">
-        <v>49625.91450053225</v>
+        <v>50979.5829667998</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>485907013</v>
+        <v>488167963</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5919393084</v>
+        <v>5917289643</v>
       </c>
       <c r="E44" t="n">
-        <v>5919393084</v>
+        <v>5917157884</v>
       </c>
       <c r="F44" t="n">
-        <v>592854.0325056026</v>
+        <v>581385.9334416197</v>
       </c>
       <c r="G44" t="n">
-        <v>424424.9160634725</v>
+        <v>464018.3575328328</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>393231549</v>
+        <v>395232288</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>256143234</v>
+        <v>255260033</v>
       </c>
       <c r="E45" t="n">
-        <v>1105656394</v>
+        <v>1101844008</v>
       </c>
       <c r="F45" t="n">
-        <v>96533.36942453512</v>
+        <v>120592.7831148053</v>
       </c>
       <c r="G45" t="n">
-        <v>100487.8912340187</v>
+        <v>87592.45260629768</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I45" t="n">
-        <v>141964171</v>
+        <v>142071810</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112118486</v>
+        <v>111878923</v>
       </c>
       <c r="E46" t="n">
-        <v>112118486</v>
+        <v>111878923</v>
       </c>
       <c r="F46" t="n">
-        <v>25505.69951344314</v>
+        <v>20530.56202807096</v>
       </c>
       <c r="G46" t="n">
-        <v>40177.70847959376</v>
+        <v>41097.99947360782</v>
       </c>
       <c r="H46" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I46" t="n">
-        <v>7034840</v>
+        <v>7049434</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2044795536</v>
+        <v>2038601576</v>
       </c>
       <c r="E47" t="n">
-        <v>2044795536</v>
+        <v>2038601576</v>
       </c>
       <c r="F47" t="n">
-        <v>227060.7645762504</v>
+        <v>227045.5530866357</v>
       </c>
       <c r="G47" t="n">
-        <v>200479.1099137167</v>
+        <v>200461.0599976036</v>
       </c>
       <c r="H47" t="n">
         <v>0.01</v>
       </c>
       <c r="I47" t="n">
-        <v>9054245893</v>
+        <v>9047911952</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10121428</v>
+        <v>10126339</v>
       </c>
       <c r="F48" t="n">
-        <v>6571.592203032318</v>
+        <v>6666.764880151462</v>
       </c>
       <c r="G48" t="n">
-        <v>6662.115765535897</v>
+        <v>5658.169432046199</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>186486</v>
+        <v>186089</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4136561</v>
+        <v>4144151</v>
       </c>
       <c r="E49" t="n">
-        <v>5430766</v>
+        <v>5440729</v>
       </c>
       <c r="F49" t="n">
-        <v>6155.744540097928</v>
+        <v>6144.719569479208</v>
       </c>
       <c r="G49" t="n">
-        <v>2635.035338957117</v>
+        <v>2639.391280844662</v>
       </c>
       <c r="H49" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="I49" t="n">
-        <v>578072</v>
+        <v>573961</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12480784</v>
+        <v>12586628</v>
       </c>
       <c r="E50" t="n">
-        <v>18352757</v>
+        <v>18508399</v>
       </c>
       <c r="F50" t="n">
-        <v>6670.336149831591</v>
+        <v>2280.219979536203</v>
       </c>
       <c r="G50" t="n">
-        <v>29616.7524984452</v>
+        <v>22855.82818406344</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I50" t="n">
-        <v>7021537</v>
+        <v>7046075</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21845267</v>
+        <v>21813605</v>
       </c>
       <c r="E51" t="n">
-        <v>28338309</v>
+        <v>28297236</v>
       </c>
       <c r="F51" t="n">
-        <v>9964.674098109348</v>
+        <v>11738.04744514228</v>
       </c>
       <c r="G51" t="n">
-        <v>13449.56980911478</v>
+        <v>16654.27977459936</v>
       </c>
       <c r="H51" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="I51" t="n">
-        <v>203222</v>
+        <v>206108</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13474769</v>
+        <v>13554685</v>
       </c>
       <c r="E52" t="n">
-        <v>13474769</v>
+        <v>13554685</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5440925</v>
+        <v>5471045</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98223240</v>
+        <v>97865917</v>
       </c>
       <c r="E53" t="n">
-        <v>121498632</v>
+        <v>121056637</v>
       </c>
       <c r="F53" t="n">
-        <v>658.9960315006917</v>
+        <v>625.2014132103395</v>
       </c>
       <c r="G53" t="n">
-        <v>3823.888629534617</v>
+        <v>3778.739927260226</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>1099930</v>
+        <v>1100676</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4972937</v>
+        <v>4965998</v>
       </c>
       <c r="E54" t="n">
-        <v>6957860</v>
+        <v>6948151</v>
       </c>
       <c r="F54" t="n">
-        <v>597.019790633602</v>
+        <v>457.6093329444997</v>
       </c>
       <c r="G54" t="n">
-        <v>100.9407137922462</v>
+        <v>90.95069940632416</v>
       </c>
       <c r="H54" t="n">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="I54" t="n">
-        <v>66799</v>
+        <v>66845</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13758602</v>
+        <v>13603613</v>
       </c>
       <c r="E55" t="n">
-        <v>66635104</v>
+        <v>65884467</v>
       </c>
       <c r="F55" t="n">
-        <v>13403.38053030841</v>
+        <v>13270.70815480577</v>
       </c>
       <c r="G55" t="n">
-        <v>11123.97362729756</v>
+        <v>4766.462628473185</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="I55" t="n">
-        <v>5539225</v>
+        <v>5481703</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>54248</v>
+        <v>56088</v>
       </c>
       <c r="E56" t="n">
-        <v>129935</v>
+        <v>134344</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16381.56</v>
+        <v>16392.29</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1832354926</v>
+        <v>1834713770</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30749055</v>
+        <v>30798847</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11614775</v>
+        <v>11648805</v>
       </c>
       <c r="E58" t="n">
-        <v>16839748</v>
+        <v>16889086</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2024741</v>
+        <v>2021579</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>117135927</v>
+        <v>117585953</v>
       </c>
       <c r="E59" t="n">
-        <v>311514791</v>
+        <v>312711603</v>
       </c>
       <c r="F59" t="n">
-        <v>7289.339969667764</v>
+        <v>7333.387833118476</v>
       </c>
       <c r="G59" t="n">
-        <v>7238.726205100585</v>
+        <v>7120.361819227192</v>
       </c>
       <c r="H59" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="I59" t="n">
-        <v>708312</v>
+        <v>711673</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29641420</v>
+        <v>29656655</v>
       </c>
       <c r="E60" t="n">
-        <v>92293872</v>
+        <v>92341308</v>
       </c>
       <c r="F60" t="n">
-        <v>2492.254528560116</v>
+        <v>2358.329482084335</v>
       </c>
       <c r="G60" t="n">
-        <v>5665.102635854103</v>
+        <v>5704.185426071555</v>
       </c>
       <c r="H60" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="I60" t="n">
-        <v>10495165</v>
+        <v>10577895</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1827321</v>
+        <v>1788621</v>
       </c>
       <c r="E61" t="n">
-        <v>13103539</v>
+        <v>12826025</v>
       </c>
       <c r="F61" t="n">
-        <v>4994.55335033696</v>
+        <v>5123.442242435635</v>
       </c>
       <c r="G61" t="n">
-        <v>1081.937934913199</v>
+        <v>50.19113023592566</v>
       </c>
       <c r="H61" t="n">
-        <v>1.89</v>
+        <v>0.61</v>
       </c>
       <c r="I61" t="n">
-        <v>2057647</v>
+        <v>2083888</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>190853391</v>
+        <v>191474990</v>
       </c>
       <c r="E62" t="n">
-        <v>1080729168</v>
+        <v>1084249045</v>
       </c>
       <c r="F62" t="n">
-        <v>565008.589053594</v>
+        <v>599847.3571754498</v>
       </c>
       <c r="G62" t="n">
-        <v>739400.1040391467</v>
+        <v>648938.2529928389</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>85796590</v>
+        <v>86105818</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>485927</v>
+        <v>495047</v>
       </c>
       <c r="E63" t="n">
-        <v>1635564</v>
+        <v>1666259</v>
       </c>
       <c r="F63" t="n">
-        <v>4547.095485933675</v>
+        <v>4562.693692178891</v>
       </c>
       <c r="G63" t="n">
-        <v>688.8137922074445</v>
+        <v>515.4148093288023</v>
       </c>
       <c r="H63" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="I63" t="n">
-        <v>228816</v>
+        <v>229308</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>344936</v>
+        <v>342723</v>
       </c>
       <c r="E64" t="n">
-        <v>344936</v>
+        <v>342723</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2399.04</v>
+        <v>2391.03</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>123073149</v>
+        <v>122762329</v>
       </c>
       <c r="E65" t="n">
-        <v>911652956</v>
+        <v>909350587</v>
       </c>
       <c r="F65" t="n">
-        <v>2624.928068242241</v>
+        <v>329.078470776848</v>
       </c>
       <c r="G65" t="n">
-        <v>27147.60702929733</v>
+        <v>30013.60508727021</v>
       </c>
       <c r="H65" t="n">
-        <v>2.25</v>
+        <v>0.79</v>
       </c>
       <c r="I65" t="n">
-        <v>26655165</v>
+        <v>26793459</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8435771</v>
+        <v>8519843</v>
       </c>
       <c r="E66" t="n">
-        <v>11301121</v>
+        <v>11413748</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>43011</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>34975916</v>
+        <v>34972946</v>
       </c>
       <c r="E67" t="n">
-        <v>34975916</v>
+        <v>34972946</v>
       </c>
       <c r="F67" t="n">
-        <v>8065.913077184275</v>
+        <v>8065.667498350883</v>
       </c>
       <c r="G67" t="n">
-        <v>5111.362105974577</v>
+        <v>5123.789590668738</v>
       </c>
       <c r="H67" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="I67" t="n">
-        <v>978940</v>
+        <v>978251</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1525419</v>
+        <v>1519893</v>
       </c>
       <c r="E68" t="n">
-        <v>11846578</v>
+        <v>11803665</v>
       </c>
       <c r="F68" t="n">
-        <v>16319.56550893698</v>
+        <v>17602.89169283818</v>
       </c>
       <c r="G68" t="n">
-        <v>17003.29163474981</v>
+        <v>16973.46818400836</v>
       </c>
       <c r="H68" t="n">
-        <v>0.68</v>
+        <v>0.51</v>
       </c>
       <c r="I68" t="n">
-        <v>520840</v>
+        <v>516843</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>319239626</v>
+        <v>318069923</v>
       </c>
       <c r="E69" t="n">
-        <v>2872077629</v>
+        <v>2861554256</v>
       </c>
       <c r="F69" t="n">
-        <v>1439936.485008903</v>
+        <v>1381865.863930736</v>
       </c>
       <c r="G69" t="n">
-        <v>1947631.881311651</v>
+        <v>2090853.755207502</v>
       </c>
       <c r="H69" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>67057811</v>
+        <v>67782612</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>245832</v>
+        <v>246879</v>
       </c>
       <c r="E70" t="n">
-        <v>2169652</v>
+        <v>2178893</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>70830</v>
+        <v>72072</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1541228</v>
+        <v>1524726</v>
       </c>
       <c r="E71" t="n">
-        <v>12843563</v>
+        <v>12706047</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30414</v>
+        <v>30581</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9385712</v>
+        <v>9380175</v>
       </c>
       <c r="E72" t="n">
-        <v>43503317</v>
+        <v>43477649</v>
       </c>
       <c r="F72" t="n">
-        <v>10950.21519712426</v>
+        <v>10948.48805176525</v>
       </c>
       <c r="G72" t="n">
-        <v>3353.252873798456</v>
+        <v>3353.886944896796</v>
       </c>
       <c r="H72" t="n">
         <v>1.02</v>
       </c>
       <c r="I72" t="n">
-        <v>117739</v>
+        <v>117852</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46508829</v>
+        <v>46683863</v>
       </c>
       <c r="E73" t="n">
-        <v>269266902</v>
+        <v>270280279</v>
       </c>
       <c r="F73" t="n">
-        <v>88985.5416895231</v>
+        <v>89165.68091822085</v>
       </c>
       <c r="G73" t="n">
-        <v>155066.53480941</v>
+        <v>163948.3666903775</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>51738054</v>
+        <v>51654102</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38737773</v>
+        <v>38684074</v>
       </c>
       <c r="E74" t="n">
-        <v>53502381</v>
+        <v>53428214</v>
       </c>
       <c r="F74" t="n">
-        <v>4626.422129022222</v>
+        <v>540.8850828325238</v>
       </c>
       <c r="G74" t="n">
-        <v>10533.41973140185</v>
+        <v>614.0729564270307</v>
       </c>
       <c r="H74" t="n">
         <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>315720</v>
+        <v>315681</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>100075</v>
+        <v>100073</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3773.68</v>
+        <v>3780.42</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13315723</v>
+        <v>13282906</v>
       </c>
       <c r="E76" t="n">
-        <v>13361038</v>
+        <v>13328109</v>
       </c>
       <c r="F76" t="n">
-        <v>1086.095345266813</v>
+        <v>1892.467097624997</v>
       </c>
       <c r="G76" t="n">
-        <v>7709.992749743355</v>
+        <v>7759.109690523551</v>
       </c>
       <c r="H76" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I76" t="n">
-        <v>6878340</v>
+        <v>6887315</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42192456</v>
+        <v>42207545</v>
       </c>
       <c r="E77" t="n">
-        <v>71632974</v>
+        <v>71658592</v>
       </c>
       <c r="F77" t="n">
-        <v>4128.017957511967</v>
+        <v>7274.292062109183</v>
       </c>
       <c r="G77" t="n">
-        <v>10141.97074129057</v>
+        <v>8215.995771655762</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1127203</v>
+        <v>1131051</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19392855</v>
+        <v>19244971</v>
       </c>
       <c r="E78" t="n">
-        <v>58145065</v>
+        <v>57699435</v>
       </c>
       <c r="F78" t="n">
-        <v>37525.55209460709</v>
+        <v>37411.84759514001</v>
       </c>
       <c r="G78" t="n">
-        <v>40340.73173667116</v>
+        <v>28570.47063512733</v>
       </c>
       <c r="H78" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="I78" t="n">
-        <v>4337577</v>
+        <v>3629423</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>97179587</v>
+        <v>100320899</v>
       </c>
       <c r="E79" t="n">
-        <v>103310683</v>
+        <v>106650182</v>
       </c>
       <c r="F79" t="n">
-        <v>1259.131762105447</v>
+        <v>2170.72325101321</v>
       </c>
       <c r="G79" t="n">
-        <v>5044.635163611891</v>
+        <v>4076.307587881417</v>
       </c>
       <c r="H79" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="I79" t="n">
-        <v>1816232</v>
+        <v>1819445</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10371666</v>
+        <v>10385941</v>
       </c>
       <c r="E80" t="n">
-        <v>45016206</v>
+        <v>45101253</v>
       </c>
       <c r="F80" t="n">
-        <v>6281.080465818563</v>
+        <v>6004.05565021825</v>
       </c>
       <c r="G80" t="n">
-        <v>5693.257775378743</v>
+        <v>5876.724532049653</v>
       </c>
       <c r="H80" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>119748</v>
+        <v>119138</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15071789</v>
+        <v>14997200</v>
       </c>
       <c r="E81" t="n">
-        <v>92379951</v>
+        <v>91922773</v>
       </c>
       <c r="F81" t="n">
-        <v>2976.488799703349</v>
+        <v>2917.005417762983</v>
       </c>
       <c r="G81" t="n">
-        <v>3485.939277663294</v>
+        <v>13460.17420516308</v>
       </c>
       <c r="H81" t="n">
-        <v>0.63</v>
+        <v>0.95</v>
       </c>
       <c r="I81" t="n">
-        <v>12365512</v>
+        <v>12224860</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1452777</v>
+        <v>1424789</v>
       </c>
       <c r="E82" t="n">
-        <v>1493642</v>
+        <v>1464867</v>
       </c>
       <c r="F82" t="n">
-        <v>2282.701674362448</v>
+        <v>2387.283559785235</v>
       </c>
       <c r="G82" t="n">
-        <v>1722.489920729455</v>
+        <v>2069.000585990711</v>
       </c>
       <c r="H82" t="n">
-        <v>0.54</v>
+        <v>0.39</v>
       </c>
       <c r="I82" t="n">
-        <v>85370</v>
+        <v>85691</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50182792</v>
+        <v>49544852</v>
       </c>
       <c r="E83" t="n">
-        <v>216181981</v>
+        <v>213433804</v>
       </c>
       <c r="F83" t="n">
-        <v>3057.083434439071</v>
+        <v>3085.075325618614</v>
       </c>
       <c r="G83" t="n">
-        <v>480.4808941252038</v>
+        <v>469.1034989503571</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I83" t="n">
-        <v>13078260</v>
+        <v>13268232</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2251027</v>
+        <v>2258644</v>
       </c>
       <c r="E84" t="n">
-        <v>8170886</v>
+        <v>8198536</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>211726</v>
+        <v>221417</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8753036</v>
+        <v>8756653</v>
       </c>
       <c r="E85" t="n">
-        <v>19412989</v>
+        <v>19421011</v>
       </c>
       <c r="F85" t="n">
-        <v>1972.845603143196</v>
+        <v>6041.455140265331</v>
       </c>
       <c r="G85" t="n">
-        <v>2262.944888081091</v>
+        <v>5505.704825919749</v>
       </c>
       <c r="H85" t="n">
         <v>1.43</v>
       </c>
       <c r="I85" t="n">
-        <v>326892</v>
+        <v>242093</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441149</v>
+        <v>2441573</v>
       </c>
       <c r="E86" t="n">
-        <v>18369016</v>
+        <v>18372211</v>
       </c>
       <c r="F86" t="n">
-        <v>5326.278913326516</v>
+        <v>5294.040837179176</v>
       </c>
       <c r="G86" t="n">
-        <v>12041.40178463808</v>
+        <v>12038.38310681139</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161534</v>
+        <v>161646</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19492351</v>
+        <v>19611310</v>
       </c>
       <c r="E87" t="n">
-        <v>77969403</v>
+        <v>78445240</v>
       </c>
       <c r="F87" t="n">
-        <v>482.5066928665645</v>
+        <v>780.0533734526232</v>
       </c>
       <c r="G87" t="n">
-        <v>1281.612983794545</v>
+        <v>764.8893787841595</v>
       </c>
       <c r="H87" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="I87" t="n">
-        <v>3562453</v>
+        <v>3706009</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4481465</v>
+        <v>4473635</v>
       </c>
       <c r="E88" t="n">
-        <v>4481465</v>
+        <v>4473635</v>
       </c>
       <c r="F88" t="n">
-        <v>2645.805005991991</v>
+        <v>725.9473627460115</v>
       </c>
       <c r="G88" t="n">
-        <v>620.1673917310967</v>
+        <v>547.609732100942</v>
       </c>
       <c r="H88" t="n">
-        <v>1.05</v>
+        <v>0.76</v>
       </c>
       <c r="I88" t="n">
-        <v>2869130</v>
+        <v>2866379</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12605190</v>
+        <v>12580996</v>
       </c>
       <c r="E89" t="n">
-        <v>39868782</v>
+        <v>39792050</v>
       </c>
       <c r="F89" t="n">
-        <v>14452.06823265732</v>
+        <v>15555.45496088863</v>
       </c>
       <c r="G89" t="n">
-        <v>14248.21347479015</v>
+        <v>14405.79016216481</v>
       </c>
       <c r="H89" t="n">
         <v>0.5</v>
       </c>
       <c r="I89" t="n">
-        <v>1024691</v>
+        <v>1026214</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24767</v>
+        <v>24671</v>
       </c>
       <c r="E90" t="n">
-        <v>194787</v>
+        <v>194032</v>
       </c>
       <c r="F90" t="n">
-        <v>273.4729149658924</v>
+        <v>273.4514756409049</v>
       </c>
       <c r="G90" t="n">
-        <v>637.5249624577276</v>
+        <v>633.8959181466937</v>
       </c>
       <c r="H90" t="n">
         <v>0.36</v>
       </c>
       <c r="I90" t="n">
-        <v>41177</v>
+        <v>40937</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7592657</v>
+        <v>7534632</v>
       </c>
       <c r="E91" t="n">
-        <v>7592657</v>
+        <v>7534632</v>
       </c>
       <c r="F91" t="n">
-        <v>2163.476220095785</v>
+        <v>1270.654249414259</v>
       </c>
       <c r="G91" t="n">
-        <v>4367.131686187859</v>
+        <v>5214.018846550821</v>
       </c>
       <c r="H91" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I91" t="n">
-        <v>3989697</v>
+        <v>4029585</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9098004</v>
+        <v>8987407</v>
       </c>
       <c r="E92" t="n">
-        <v>9098004</v>
+        <v>8987407</v>
       </c>
       <c r="F92" t="n">
-        <v>7113.652093425272</v>
+        <v>3181.599002160198</v>
       </c>
       <c r="G92" t="n">
-        <v>3377.320315020746</v>
+        <v>4767.769578817194</v>
       </c>
       <c r="H92" t="n">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
       <c r="I92" t="n">
-        <v>2075628</v>
+        <v>2042857</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30843297</v>
+        <v>30501359</v>
       </c>
       <c r="E93" t="n">
-        <v>77771988</v>
+        <v>76909783</v>
       </c>
       <c r="F93" t="n">
-        <v>2.996408245337106</v>
+        <v>694.0588667078515</v>
       </c>
       <c r="G93" t="n">
-        <v>10173.19856001765</v>
+        <v>8714.292971316036</v>
       </c>
       <c r="H93" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="I93" t="n">
-        <v>6062268</v>
+        <v>6104971</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>297520353</v>
+        <v>297306379</v>
       </c>
       <c r="E94" t="n">
-        <v>302172973</v>
+        <v>301955653</v>
       </c>
       <c r="F94" t="n">
-        <v>48384.48175411985</v>
+        <v>48187.97040728422</v>
       </c>
       <c r="G94" t="n">
-        <v>50345.39826972095</v>
+        <v>53535.63595399556</v>
       </c>
       <c r="H94" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I94" t="n">
-        <v>25000725</v>
+        <v>25094523</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3498.371883698483</v>
+        <v>998.8381944113833</v>
       </c>
       <c r="G95" t="n">
-        <v>6500.017805031917</v>
+        <v>6470.870167595492</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>206452</v>
+        <v>206077</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>76018408</v>
+        <v>75317453</v>
       </c>
       <c r="E96" t="n">
-        <v>76018408</v>
+        <v>75317453</v>
       </c>
       <c r="F96" t="n">
-        <v>7385.261268013932</v>
+        <v>11910.40292408931</v>
       </c>
       <c r="G96" t="n">
-        <v>4732.69884652403</v>
+        <v>7828.500097172954</v>
       </c>
       <c r="H96" t="n">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="I96" t="n">
-        <v>4510882</v>
+        <v>4818976</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>285987823</v>
+        <v>286048999</v>
       </c>
       <c r="E97" t="n">
-        <v>285987823</v>
+        <v>286048999</v>
       </c>
       <c r="F97" t="n">
-        <v>254220.1033480132</v>
+        <v>218288.4316858488</v>
       </c>
       <c r="G97" t="n">
-        <v>401854.1666903371</v>
+        <v>391887.5657503374</v>
       </c>
       <c r="H97" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>93330439</v>
+        <v>93258777</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4644822</v>
+        <v>4579436</v>
       </c>
       <c r="E98" t="n">
-        <v>31737745</v>
+        <v>31290965</v>
       </c>
       <c r="F98" t="n">
-        <v>5058.774320084592</v>
+        <v>218.5294283842845</v>
       </c>
       <c r="G98" t="n">
-        <v>4902.455102528675</v>
+        <v>4862.784200993759</v>
       </c>
       <c r="H98" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>2984238</v>
+        <v>2985277</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83491054</v>
+        <v>83414356</v>
       </c>
       <c r="E99" t="n">
-        <v>481111463</v>
+        <v>480669498</v>
       </c>
       <c r="F99" t="n">
-        <v>143141.4514491151</v>
+        <v>124077.4636022399</v>
       </c>
       <c r="G99" t="n">
-        <v>137056.4828705465</v>
+        <v>117992.3607740177</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="I99" t="n">
-        <v>21319564</v>
+        <v>21205713</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>104591701</v>
+        <v>104321754</v>
       </c>
       <c r="E100" t="n">
-        <v>257336447</v>
+        <v>256672273</v>
       </c>
       <c r="F100" t="n">
-        <v>34906.38695199809</v>
+        <v>33097.63538929086</v>
       </c>
       <c r="G100" t="n">
-        <v>34016.26857688448</v>
+        <v>33317.59731928509</v>
       </c>
       <c r="H100" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I100" t="n">
-        <v>2768455</v>
+        <v>2771487</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>230215032</v>
+        <v>230544140</v>
       </c>
       <c r="E101" t="n">
-        <v>230217320</v>
+        <v>230546431</v>
       </c>
       <c r="F101" t="n">
-        <v>36911.17394909599</v>
+        <v>12925.42667407438</v>
       </c>
       <c r="G101" t="n">
-        <v>22597.15522894156</v>
+        <v>23543.27593483606</v>
       </c>
       <c r="H101" t="n">
         <v>0.35</v>
       </c>
       <c r="I101" t="n">
-        <v>1938571</v>
+        <v>1949842</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>28762666</v>
+        <v>28749906</v>
       </c>
       <c r="E102" t="n">
-        <v>128782256</v>
+        <v>128725121</v>
       </c>
       <c r="F102" t="n">
-        <v>67465.64751769409</v>
+        <v>72634.98043423388</v>
       </c>
       <c r="G102" t="n">
-        <v>113832.2451252974</v>
+        <v>107216.6877656146</v>
       </c>
       <c r="H102" t="n">
         <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>14497020</v>
+        <v>14580628</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2892233</v>
+        <v>2889191</v>
       </c>
       <c r="E103" t="n">
-        <v>2892233</v>
+        <v>2889191</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>314936</v>
+        <v>314160</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5921234</v>
+        <v>5927992</v>
       </c>
       <c r="E104" t="n">
-        <v>15540273</v>
+        <v>15558007</v>
       </c>
       <c r="F104" t="n">
-        <v>651.3749084081753</v>
+        <v>140.8029736448974</v>
       </c>
       <c r="G104" t="n">
-        <v>505.7423227953212</v>
+        <v>498.0943163643097</v>
       </c>
       <c r="H104" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="I104" t="n">
-        <v>28505</v>
+        <v>28193</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16012600</v>
+        <v>16065602</v>
       </c>
       <c r="E105" t="n">
-        <v>73912027</v>
+        <v>74156677</v>
       </c>
       <c r="F105" t="n">
-        <v>5633.310048861033</v>
+        <v>4797.438930989871</v>
       </c>
       <c r="G105" t="n">
-        <v>3218.472959598522</v>
+        <v>3765.142720332079</v>
       </c>
       <c r="H105" t="n">
-        <v>0.54</v>
+        <v>0.14</v>
       </c>
       <c r="I105" t="n">
-        <v>1232913</v>
+        <v>1229293</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47324355</v>
+        <v>47269183</v>
       </c>
       <c r="E106" t="n">
-        <v>306885846</v>
+        <v>306528070</v>
       </c>
       <c r="F106" t="n">
-        <v>134532.9267814569</v>
+        <v>116133.1109325174</v>
       </c>
       <c r="G106" t="n">
-        <v>141834.1259093834</v>
+        <v>130284.9078959141</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21310299</v>
+        <v>21271594</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2467910</v>
+        <v>2460912</v>
       </c>
       <c r="E107" t="n">
-        <v>4471083</v>
+        <v>4458405</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>119048</v>
+        <v>119627</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123452218</v>
+        <v>123694670</v>
       </c>
       <c r="E108" t="n">
-        <v>2044469842</v>
+        <v>2048485038</v>
       </c>
       <c r="F108" t="n">
-        <v>24196.29695381659</v>
+        <v>30744.77258287578</v>
       </c>
       <c r="G108" t="n">
-        <v>24769.00327192864</v>
+        <v>13921.03724260997</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>35948459</v>
+        <v>36071388</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22618405</v>
+        <v>22561329</v>
       </c>
       <c r="E109" t="n">
-        <v>135330462</v>
+        <v>134988967</v>
       </c>
       <c r="F109" t="n">
-        <v>39263.50597210405</v>
+        <v>39007.72328765956</v>
       </c>
       <c r="G109" t="n">
-        <v>36395.88281004631</v>
+        <v>36771.15824842144</v>
       </c>
       <c r="H109" t="n">
         <v>0.15</v>
       </c>
       <c r="I109" t="n">
-        <v>18014262</v>
+        <v>18064381</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1054282</v>
+        <v>1030970</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>92503</v>
+        <v>93158</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2217532</v>
+        <v>2251951</v>
       </c>
       <c r="F111" t="n">
-        <v>3799.814264418352</v>
+        <v>3866.271086598907</v>
       </c>
       <c r="G111" t="n">
-        <v>180.6448194292861</v>
+        <v>141.0919760645713</v>
       </c>
       <c r="H111" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="I111" t="n">
-        <v>184054</v>
+        <v>186966</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147407622</v>
+        <v>147553347</v>
       </c>
       <c r="F112" t="n">
-        <v>8605.984303387047</v>
+        <v>8542.560031619432</v>
       </c>
       <c r="G112" t="n">
-        <v>3045.601306387207</v>
+        <v>2915.286861003692</v>
       </c>
       <c r="H112" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>65621</v>
+        <v>66620</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6292566</v>
+        <v>6240469</v>
       </c>
       <c r="E113" t="n">
-        <v>32373340</v>
+        <v>32105318</v>
       </c>
       <c r="F113" t="n">
-        <v>1553.929050135934</v>
+        <v>528.4827799948748</v>
       </c>
       <c r="G113" t="n">
-        <v>973.0495601479624</v>
+        <v>938.8211536925071</v>
       </c>
       <c r="H113" t="n">
-        <v>0.62</v>
+        <v>1.23</v>
       </c>
       <c r="I113" t="n">
-        <v>951404</v>
+        <v>957077</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29937592</v>
+        <v>30218567</v>
       </c>
       <c r="E114" t="n">
-        <v>41049673</v>
+        <v>41434939</v>
       </c>
       <c r="F114" t="n">
-        <v>8552.857659010881</v>
+        <v>3677.237136985746</v>
       </c>
       <c r="G114" t="n">
-        <v>8991.959680827063</v>
+        <v>4882.833404683282</v>
       </c>
       <c r="H114" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>382692</v>
+        <v>375178</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7583122</v>
+        <v>7597449</v>
       </c>
       <c r="F115" t="n">
-        <v>2116.306332686784</v>
+        <v>1848.54274694014</v>
       </c>
       <c r="G115" t="n">
-        <v>5650.255617254627</v>
+        <v>5441.844596631045</v>
       </c>
       <c r="H115" t="n">
         <v>0.27</v>
       </c>
       <c r="I115" t="n">
-        <v>657187</v>
+        <v>657811</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3555819</v>
+        <v>3560531</v>
       </c>
       <c r="E116" t="n">
-        <v>4763245</v>
+        <v>4769557</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>123734</v>
+        <v>124603</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32008536</v>
+        <v>31874220</v>
       </c>
       <c r="E117" t="n">
-        <v>159737350</v>
+        <v>159067050</v>
       </c>
       <c r="F117" t="n">
-        <v>83140.85404124889</v>
+        <v>91189.21121178086</v>
       </c>
       <c r="G117" t="n">
-        <v>67379.68126088537</v>
+        <v>79417.00763289331</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I117" t="n">
-        <v>14020450</v>
+        <v>13985006</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3484228</v>
+        <v>3489405</v>
       </c>
       <c r="E118" t="n">
-        <v>5005158</v>
+        <v>5012595</v>
       </c>
       <c r="F118" t="n">
-        <v>616.4054755749195</v>
+        <v>616.339814762276</v>
       </c>
       <c r="G118" t="n">
-        <v>755.7159335301924</v>
+        <v>698.3171157178824</v>
       </c>
       <c r="H118" t="n">
         <v>1.19</v>
       </c>
       <c r="I118" t="n">
-        <v>150083</v>
+        <v>149002</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>286836510</v>
+        <v>286039644</v>
       </c>
       <c r="E119" t="n">
-        <v>530712955</v>
+        <v>529238572</v>
       </c>
       <c r="F119" t="n">
-        <v>36507.62758880258</v>
+        <v>35780.01686570793</v>
       </c>
       <c r="G119" t="n">
-        <v>32893.80721638577</v>
+        <v>29728.91245249442</v>
       </c>
       <c r="H119" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I119" t="n">
-        <v>17470570</v>
+        <v>17638391</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>68609219</v>
+        <v>68436259</v>
       </c>
       <c r="E120" t="n">
-        <v>654405242</v>
+        <v>652753038</v>
       </c>
       <c r="F120" t="n">
-        <v>4814.764576916288</v>
+        <v>4455.04250743598</v>
       </c>
       <c r="G120" t="n">
-        <v>1727.065231554389</v>
+        <v>3042.119670172615</v>
       </c>
       <c r="H120" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I120" t="n">
-        <v>23830617</v>
+        <v>23913156</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35327107</v>
+        <v>35399274</v>
       </c>
       <c r="E121" t="n">
-        <v>46184286</v>
+        <v>46278632</v>
       </c>
       <c r="F121" t="n">
-        <v>6308.33263761895</v>
+        <v>6304.517168298188</v>
       </c>
       <c r="G121" t="n">
-        <v>124.4883224267664</v>
+        <v>77.84321771698164</v>
       </c>
       <c r="H121" t="n">
         <v>2.35</v>
       </c>
       <c r="I121" t="n">
-        <v>492235</v>
+        <v>573698</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8779942</v>
+        <v>8803070</v>
       </c>
       <c r="E122" t="n">
-        <v>26028476</v>
+        <v>26097039</v>
       </c>
       <c r="F122" t="n">
-        <v>927.3521921866333</v>
+        <v>781.2179810446436</v>
       </c>
       <c r="G122" t="n">
-        <v>5903.619472193081</v>
+        <v>6201.218519706966</v>
       </c>
       <c r="H122" t="n">
         <v>0.86</v>
       </c>
       <c r="I122" t="n">
-        <v>6442858</v>
+        <v>6445564</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2274417</v>
+        <v>2274531</v>
       </c>
       <c r="E123" t="n">
-        <v>7600268</v>
+        <v>7600648</v>
       </c>
       <c r="F123" t="n">
-        <v>874.0128311105142</v>
+        <v>884.8441427823838</v>
       </c>
       <c r="G123" t="n">
-        <v>1049.847606168428</v>
+        <v>978.2397282148864</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>924811</v>
+        <v>921856</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7244071</v>
+        <v>7217362</v>
       </c>
       <c r="E124" t="n">
-        <v>7244082</v>
+        <v>7217373</v>
       </c>
       <c r="F124" t="n">
-        <v>213.9526577293188</v>
+        <v>213.5751906997935</v>
       </c>
       <c r="G124" t="n">
-        <v>214.9614510393782</v>
+        <v>551.1996279424475</v>
       </c>
       <c r="H124" t="n">
-        <v>2.23</v>
+        <v>2.48</v>
       </c>
       <c r="I124" t="n">
-        <v>261900</v>
+        <v>261471</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6033206</v>
+        <v>5982503</v>
       </c>
       <c r="E125" t="n">
-        <v>6033206</v>
+        <v>5982503</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>493734</v>
+        <v>504591</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6191483</v>
+        <v>6177722</v>
       </c>
       <c r="E126" t="n">
-        <v>22615093</v>
+        <v>22564828</v>
       </c>
       <c r="F126" t="n">
-        <v>6766.735724760091</v>
+        <v>6439.505549055487</v>
       </c>
       <c r="G126" t="n">
-        <v>7864.265783172829</v>
+        <v>8405.510803906649</v>
       </c>
       <c r="H126" t="n">
-        <v>1.59</v>
+        <v>0.8</v>
       </c>
       <c r="I126" t="n">
-        <v>573901</v>
+        <v>575409</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43206472</v>
+        <v>43184138</v>
       </c>
       <c r="E127" t="n">
-        <v>43206472</v>
+        <v>43184138</v>
       </c>
       <c r="F127" t="n">
-        <v>54216.66029330231</v>
+        <v>62911.66294875719</v>
       </c>
       <c r="G127" t="n">
-        <v>81152.14995274511</v>
+        <v>66951.7169762361</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>11775360</v>
+        <v>11815028</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141076293</v>
+        <v>141566089</v>
       </c>
       <c r="F128" t="n">
-        <v>238.2353868758157</v>
+        <v>81.52289477536388</v>
       </c>
       <c r="G128" t="n">
-        <v>1660.817364502244</v>
+        <v>1241.963349511669</v>
       </c>
       <c r="H128" t="n">
         <v>2.29</v>
       </c>
       <c r="I128" t="n">
-        <v>1655750</v>
+        <v>1644342</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2974016</v>
+        <v>2973069</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>75337</v>
+        <v>75246</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19466496</v>
+        <v>19404379</v>
       </c>
       <c r="F130" t="n">
-        <v>427.8497739750568</v>
+        <v>422.4895579212469</v>
       </c>
       <c r="G130" t="n">
-        <v>1427.28433830505</v>
+        <v>1137.755610682762</v>
       </c>
       <c r="H130" t="n">
-        <v>1.73</v>
+        <v>0.97</v>
       </c>
       <c r="I130" t="n">
-        <v>2938530</v>
+        <v>2935541</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1313571</v>
+        <v>1314146</v>
       </c>
       <c r="E131" t="n">
-        <v>3976627</v>
+        <v>3977501</v>
       </c>
       <c r="F131" t="n">
-        <v>840.2580655546484</v>
+        <v>817.9989185820344</v>
       </c>
       <c r="G131" t="n">
-        <v>705.3588465968294</v>
+        <v>705.2667046626485</v>
       </c>
       <c r="H131" t="n">
         <v>1.51</v>
       </c>
       <c r="I131" t="n">
-        <v>29265</v>
+        <v>29255</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>572957303</v>
+        <v>570378695</v>
       </c>
       <c r="E132" t="n">
-        <v>2218979099</v>
+        <v>2208992533</v>
       </c>
       <c r="F132" t="n">
-        <v>787561.6852021588</v>
+        <v>851716.1684293147</v>
       </c>
       <c r="G132" t="n">
-        <v>1128513.310655405</v>
+        <v>938934.7432388761</v>
       </c>
       <c r="H132" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I132" t="n">
-        <v>60988525</v>
+        <v>60819249</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3635847</v>
+        <v>3631420</v>
       </c>
       <c r="E133" t="n">
-        <v>6197795</v>
+        <v>6190248</v>
       </c>
       <c r="F133" t="n">
-        <v>5238.686483922501</v>
+        <v>5237.995640668477</v>
       </c>
       <c r="G133" t="n">
-        <v>5471.912909556127</v>
+        <v>5471.259455333488</v>
       </c>
       <c r="H133" t="n">
         <v>0.16</v>
       </c>
       <c r="I133" t="n">
-        <v>1106786</v>
+        <v>1102256</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>106552086</v>
+        <v>106708127</v>
       </c>
       <c r="E134" t="n">
-        <v>1008751301</v>
+        <v>1010228578</v>
       </c>
       <c r="F134" t="n">
-        <v>88308.72747047184</v>
+        <v>98166.0411059756</v>
       </c>
       <c r="G134" t="n">
-        <v>87549.92634113372</v>
+        <v>94619.91961715237</v>
       </c>
       <c r="H134" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="I134" t="n">
-        <v>16230245</v>
+        <v>16322024</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>896191038</v>
+        <v>899048053</v>
       </c>
       <c r="E135" t="n">
-        <v>984468312</v>
+        <v>987606751</v>
       </c>
       <c r="F135" t="n">
-        <v>9531.37893261765</v>
+        <v>9038.060837984271</v>
       </c>
       <c r="G135" t="n">
-        <v>24928.52930846565</v>
+        <v>20783.73564296843</v>
       </c>
       <c r="H135" t="n">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="I135" t="n">
-        <v>11216225</v>
+        <v>10926729</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1078851</v>
+        <v>1078381</v>
       </c>
       <c r="E136" t="n">
-        <v>4177546</v>
+        <v>4175725</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>315919</v>
+        <v>315974</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>120520311</v>
+        <v>120296882</v>
       </c>
       <c r="E137" t="n">
-        <v>462335311</v>
+        <v>461478201</v>
       </c>
       <c r="F137" t="n">
-        <v>166016.9416592839</v>
+        <v>205923.5352585297</v>
       </c>
       <c r="G137" t="n">
-        <v>174172.3818769864</v>
+        <v>202019.0341491047</v>
       </c>
       <c r="H137" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I137" t="n">
-        <v>39729391</v>
+        <v>39537255</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3094788</v>
+        <v>3100349</v>
       </c>
       <c r="E138" t="n">
-        <v>29323571</v>
+        <v>29376265</v>
       </c>
       <c r="F138" t="n">
-        <v>4674.846704965285</v>
+        <v>4444.851981561004</v>
       </c>
       <c r="G138" t="n">
-        <v>2905.528095832567</v>
+        <v>4316.70955283774</v>
       </c>
       <c r="H138" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="I138" t="n">
-        <v>266162</v>
+        <v>261994</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>26057262</v>
+        <v>23511821</v>
       </c>
       <c r="E139" t="n">
-        <v>26057262</v>
+        <v>23511821</v>
       </c>
       <c r="F139" t="n">
-        <v>1222.032248197535</v>
+        <v>495.0440106892391</v>
       </c>
       <c r="G139" t="n">
-        <v>1195.308151317925</v>
+        <v>1590.291551575805</v>
       </c>
       <c r="H139" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="I139" t="n">
-        <v>677057</v>
+        <v>691002</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494195577</v>
+        <v>494332204</v>
       </c>
       <c r="E140" t="n">
-        <v>494195577</v>
+        <v>494332204</v>
       </c>
       <c r="F140" t="n">
-        <v>547944.6635089989</v>
+        <v>527404.4689012293</v>
       </c>
       <c r="G140" t="n">
-        <v>770723.6410451266</v>
+        <v>795282.3213825835</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>44584218</v>
+        <v>45246476</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>35738658</v>
+        <v>36063732</v>
       </c>
       <c r="F141" t="n">
-        <v>63367.82494602336</v>
+        <v>54553.82638201528</v>
       </c>
       <c r="G141" t="n">
-        <v>65279.79439885641</v>
+        <v>68449.2319272281</v>
       </c>
       <c r="H141" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I141" t="n">
-        <v>8011082</v>
+        <v>8075603</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>802544</v>
+        <v>788270</v>
       </c>
       <c r="E142" t="n">
-        <v>12800292</v>
+        <v>12572627</v>
       </c>
       <c r="F142" t="n">
-        <v>543.6775383269407</v>
+        <v>2.661329285212072</v>
       </c>
       <c r="G142" t="n">
-        <v>28.9892400292664</v>
+        <v>546.364849295128</v>
       </c>
       <c r="H142" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="I142" t="n">
-        <v>334614</v>
+        <v>334791</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2508262420</v>
+        <v>2495635775</v>
       </c>
       <c r="E143" t="n">
-        <v>2663122032</v>
+        <v>2649715821</v>
       </c>
       <c r="F143" t="n">
-        <v>4220.099085249351</v>
+        <v>4208.448110698124</v>
       </c>
       <c r="G143" t="n">
-        <v>22832.41906875398</v>
+        <v>20119.78112990543</v>
       </c>
       <c r="H143" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I143" t="n">
-        <v>59518552</v>
+        <v>59724611</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1696028</v>
+        <v>1697365</v>
       </c>
       <c r="E144" t="n">
-        <v>1702014</v>
+        <v>1703357</v>
       </c>
       <c r="F144" t="n">
-        <v>677.0110523572249</v>
+        <v>5374.359296850379</v>
       </c>
       <c r="G144" t="n">
-        <v>1996.853062795386</v>
+        <v>355.9494789149078</v>
       </c>
       <c r="H144" t="n">
         <v>1.6</v>
       </c>
       <c r="I144" t="n">
-        <v>451147</v>
+        <v>452520</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55974964</v>
+        <v>56094696</v>
       </c>
       <c r="E145" t="n">
-        <v>137302792</v>
+        <v>137596487</v>
       </c>
       <c r="F145" t="n">
-        <v>2975.870241347761</v>
+        <v>4099.526707102556</v>
       </c>
       <c r="G145" t="n">
-        <v>2066.50595441762</v>
+        <v>3447.803664183797</v>
       </c>
       <c r="H145" t="n">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="I145" t="n">
-        <v>21733094</v>
+        <v>21771449</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>749156913</v>
+        <v>747803876</v>
       </c>
       <c r="E146" t="n">
-        <v>1155266103</v>
+        <v>1153179601</v>
       </c>
       <c r="F146" t="n">
-        <v>189054.5425465851</v>
+        <v>121346.0837495085</v>
       </c>
       <c r="G146" t="n">
-        <v>205365.8540605867</v>
+        <v>98690.40694875334</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>380089548</v>
+        <v>329663914</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21847878</v>
+        <v>21670240</v>
       </c>
       <c r="E147" t="n">
-        <v>21847878</v>
+        <v>21670240</v>
       </c>
       <c r="F147" t="n">
-        <v>5005.277063556238</v>
+        <v>3823.805325716248</v>
       </c>
       <c r="G147" t="n">
-        <v>5880.9379397645</v>
+        <v>6057.926666146891</v>
       </c>
       <c r="H147" t="n">
         <v>0.33</v>
       </c>
       <c r="I147" t="n">
-        <v>5985496</v>
+        <v>5963197</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3793751</v>
+        <v>3797693</v>
       </c>
       <c r="E148" t="n">
-        <v>8269844</v>
+        <v>8278438</v>
       </c>
       <c r="F148" t="n">
-        <v>6803.631675605648</v>
+        <v>6697.323571624755</v>
       </c>
       <c r="G148" t="n">
-        <v>7106.858084527587</v>
+        <v>7155.146817137516</v>
       </c>
       <c r="H148" t="n">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2042855</v>
+        <v>2051974</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9234984</v>
+        <v>9233059</v>
       </c>
       <c r="E149" t="n">
-        <v>9234984</v>
+        <v>9233059</v>
       </c>
       <c r="F149" t="n">
-        <v>79936.26113352105</v>
+        <v>78939.20170134923</v>
       </c>
       <c r="G149" t="n">
-        <v>77771.35812757899</v>
+        <v>85018.38814677231</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6324263</v>
+        <v>6394257</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>463832283</v>
+        <v>461827293</v>
       </c>
       <c r="E150" t="n">
-        <v>1614561575</v>
+        <v>1607582373</v>
       </c>
       <c r="F150" t="n">
-        <v>693404.303328385</v>
+        <v>778496.6690075872</v>
       </c>
       <c r="G150" t="n">
-        <v>753334.2559858173</v>
+        <v>793846.4004062611</v>
       </c>
       <c r="H150" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>47195121</v>
+        <v>47381830</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46002581</v>
+        <v>46031320</v>
       </c>
       <c r="E151" t="n">
-        <v>113241672</v>
+        <v>113312417</v>
       </c>
       <c r="F151" t="n">
-        <v>437.7731820106244</v>
+        <v>469.4680040817812</v>
       </c>
       <c r="G151" t="n">
-        <v>8312.008418000209</v>
+        <v>10971.02717996053</v>
       </c>
       <c r="H151" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="I151" t="n">
-        <v>117016</v>
+        <v>117317</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7214712</v>
+        <v>7158856</v>
       </c>
       <c r="E152" t="n">
-        <v>18743045</v>
+        <v>18597938</v>
       </c>
       <c r="F152" t="n">
-        <v>6531.055499758123</v>
+        <v>6195.901427077656</v>
       </c>
       <c r="G152" t="n">
-        <v>6131.85971845714</v>
+        <v>6499.517534505892</v>
       </c>
       <c r="H152" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I152" t="n">
-        <v>769791</v>
+        <v>770187</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18798806869</v>
+        <v>18797376771</v>
       </c>
       <c r="F153" t="n">
-        <v>362.6938454208695</v>
+        <v>164.0526765977763</v>
       </c>
       <c r="G153" t="n">
-        <v>19985.08688276484</v>
+        <v>19798.30989446552</v>
       </c>
       <c r="H153" t="n">
-        <v>0.19</v>
+        <v>0.53</v>
       </c>
       <c r="I153" t="n">
-        <v>34102403</v>
+        <v>33502495</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2355618</v>
+        <v>2350364</v>
       </c>
       <c r="E154" t="n">
-        <v>9422473</v>
+        <v>9401455</v>
       </c>
       <c r="F154" t="n">
-        <v>1526.276083128978</v>
+        <v>1200.146104727108</v>
       </c>
       <c r="G154" t="n">
-        <v>5870.830250982639</v>
+        <v>2129.618920425776</v>
       </c>
       <c r="H154" t="n">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="I154" t="n">
-        <v>7496759</v>
+        <v>7534218</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>207944683</v>
+        <v>207948546</v>
       </c>
       <c r="E155" t="n">
-        <v>639351646</v>
+        <v>639363522</v>
       </c>
       <c r="F155" t="n">
-        <v>30576.08832622819</v>
+        <v>35670.85245646157</v>
       </c>
       <c r="G155" t="n">
-        <v>45086.34945896902</v>
+        <v>43986.93718529707</v>
       </c>
       <c r="H155" t="n">
         <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>22562420</v>
+        <v>22640841</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>379993831</v>
+        <v>378731146</v>
       </c>
       <c r="E156" t="n">
-        <v>2171393320</v>
+        <v>2164177974</v>
       </c>
       <c r="F156" t="n">
-        <v>261632.3537663924</v>
+        <v>288925.4402608243</v>
       </c>
       <c r="G156" t="n">
-        <v>357416.6699875108</v>
+        <v>315717.2388736368</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>61255386</v>
+        <v>61637851</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3882866</v>
+        <v>3874760</v>
       </c>
       <c r="F2" t="n">
-        <v>117.3755063279076</v>
+        <v>170.8843874082455</v>
       </c>
       <c r="G2" t="n">
-        <v>830.3641886917624</v>
+        <v>395.8159307625029</v>
       </c>
       <c r="H2" t="n">
-        <v>3.66</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>143073</v>
+        <v>142189</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>580230194</v>
+        <v>590922192</v>
       </c>
       <c r="E3" t="n">
-        <v>1125968267</v>
+        <v>1146806473</v>
       </c>
       <c r="F3" t="n">
-        <v>14186.1822375503</v>
+        <v>12810.81674964507</v>
       </c>
       <c r="G3" t="n">
-        <v>14210.89095804206</v>
+        <v>24383.32944521767</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>45759781</v>
+        <v>47258017</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244075810</v>
+        <v>250898348</v>
       </c>
       <c r="E4" t="n">
-        <v>1530565099</v>
+        <v>1573348277</v>
       </c>
       <c r="F4" t="n">
-        <v>276528.5512830479</v>
+        <v>169335.326137292</v>
       </c>
       <c r="G4" t="n">
-        <v>168291.667558575</v>
+        <v>148121.6798670096</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>26213009</v>
+        <v>26550752</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>138266723</v>
+        <v>140271378</v>
       </c>
       <c r="E5" t="n">
-        <v>153221138</v>
+        <v>155442609</v>
       </c>
       <c r="F5" t="n">
-        <v>8291.17161581367</v>
+        <v>8452.498450677444</v>
       </c>
       <c r="G5" t="n">
-        <v>354.7258955245181</v>
+        <v>298.5552178033558</v>
       </c>
       <c r="H5" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>52859999</v>
+        <v>53570372</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47936234</v>
+        <v>48529266</v>
       </c>
       <c r="E6" t="n">
-        <v>59967000</v>
+        <v>60708867</v>
       </c>
       <c r="F6" t="n">
-        <v>5539.49649924308</v>
+        <v>5425.524040049469</v>
       </c>
       <c r="G6" t="n">
-        <v>1406.881630483237</v>
+        <v>1582.749214495333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="I6" t="n">
-        <v>860480</v>
+        <v>792808</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66411007</v>
+        <v>66318756</v>
       </c>
       <c r="E7" t="n">
-        <v>132268250</v>
+        <v>132084517</v>
       </c>
       <c r="F7" t="n">
-        <v>11791.45343597439</v>
+        <v>12066.03838916523</v>
       </c>
       <c r="G7" t="n">
-        <v>11369.25573477098</v>
+        <v>12357.57442892249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.63</v>
+        <v>0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>1032509</v>
+        <v>984433</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40481360</v>
+        <v>40802271</v>
       </c>
       <c r="E8" t="n">
-        <v>45304473</v>
+        <v>45663619</v>
       </c>
       <c r="F8" t="n">
-        <v>819.1538476703836</v>
+        <v>649.9653746713703</v>
       </c>
       <c r="G8" t="n">
-        <v>222.905872919726</v>
+        <v>348.0444081656502</v>
       </c>
       <c r="H8" t="n">
         <v>0.34</v>
       </c>
       <c r="I8" t="n">
-        <v>5275708</v>
+        <v>4952984</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13852899</v>
+        <v>13989027</v>
       </c>
       <c r="E9" t="n">
-        <v>40823600</v>
+        <v>41224759</v>
       </c>
       <c r="F9" t="n">
-        <v>5005.469125536171</v>
+        <v>4704.19283432882</v>
       </c>
       <c r="G9" t="n">
-        <v>4917.362838553149</v>
+        <v>4147.54253521859</v>
       </c>
       <c r="H9" t="n">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="I9" t="n">
-        <v>894249</v>
+        <v>900671</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8636338</v>
+        <v>8599636</v>
       </c>
       <c r="E10" t="n">
-        <v>37123785</v>
+        <v>36966019</v>
       </c>
       <c r="F10" t="n">
-        <v>513.9923934292652</v>
+        <v>262.4530812834408</v>
       </c>
       <c r="G10" t="n">
-        <v>161.1190594039697</v>
+        <v>360.3225886045297</v>
       </c>
       <c r="H10" t="n">
-        <v>0.71</v>
+        <v>1.24</v>
       </c>
       <c r="I10" t="n">
-        <v>970100</v>
+        <v>926637</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>543665795</v>
+        <v>548563221</v>
       </c>
       <c r="E11" t="n">
-        <v>680045106</v>
+        <v>686171058</v>
       </c>
       <c r="F11" t="n">
-        <v>305502.3385688225</v>
+        <v>245390.2755061329</v>
       </c>
       <c r="G11" t="n">
-        <v>280886.5514317171</v>
+        <v>236730.5441168674</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>98139081</v>
+        <v>98950500</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4261188</v>
+        <v>4372134</v>
       </c>
       <c r="E12" t="n">
-        <v>26163081</v>
+        <v>26844241</v>
       </c>
       <c r="F12" t="n">
-        <v>11231.48905117576</v>
+        <v>9970.255088313927</v>
       </c>
       <c r="G12" t="n">
-        <v>9414.747543637637</v>
+        <v>7593.593098160655</v>
       </c>
       <c r="H12" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>617220</v>
+        <v>599156</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24274595</v>
+        <v>23617241</v>
       </c>
       <c r="E13" t="n">
-        <v>24319369</v>
+        <v>23660802</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>883785</v>
+        <v>870830</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77880022</v>
+        <v>78971258</v>
       </c>
       <c r="E14" t="n">
-        <v>229132685</v>
+        <v>232343237</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>478521</v>
+        <v>444022</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>494364281</v>
+        <v>496694658</v>
       </c>
       <c r="E15" t="n">
-        <v>494364281</v>
+        <v>496694658</v>
       </c>
       <c r="F15" t="n">
-        <v>22282.41721285177</v>
+        <v>8424.602598611395</v>
       </c>
       <c r="G15" t="n">
-        <v>19716.45363287823</v>
+        <v>17467.67095495364</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>75848896</v>
+        <v>74517029</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4561850</v>
+        <v>4562076</v>
       </c>
       <c r="E16" t="n">
-        <v>4561850</v>
+        <v>4562076</v>
       </c>
       <c r="F16" t="n">
-        <v>259.8458885487706</v>
+        <v>356.2069479495788</v>
       </c>
       <c r="G16" t="n">
-        <v>1294.894294562727</v>
+        <v>1266.872366786341</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="I16" t="n">
-        <v>2260194</v>
+        <v>2251453</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3222160</v>
+        <v>3214527</v>
       </c>
       <c r="E17" t="n">
-        <v>3222160</v>
+        <v>3214527</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>643504</v>
+        <v>654247</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166612469</v>
+        <v>167350033</v>
       </c>
       <c r="E18" t="n">
-        <v>206273175</v>
+        <v>207186310</v>
       </c>
       <c r="F18" t="n">
-        <v>7914.725170213437</v>
+        <v>4457.790036200687</v>
       </c>
       <c r="G18" t="n">
-        <v>7985.922235179004</v>
+        <v>13123.22795471426</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>173951</v>
+        <v>550570</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6877530</v>
+        <v>6963407</v>
       </c>
       <c r="E19" t="n">
-        <v>9472116</v>
+        <v>9590390</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>410858</v>
+        <v>414591</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>884231</v>
+        <v>887884</v>
       </c>
       <c r="E20" t="n">
-        <v>6189615</v>
+        <v>6215185</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>230779</v>
+        <v>222943</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>106277955</v>
+        <v>108427374</v>
       </c>
       <c r="E21" t="n">
-        <v>413120497</v>
+        <v>421451347</v>
       </c>
       <c r="F21" t="n">
-        <v>4948.341398568374</v>
+        <v>772.5273182405092</v>
       </c>
       <c r="G21" t="n">
-        <v>10159.23429570816</v>
+        <v>2848.439876630801</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.71</v>
       </c>
       <c r="I21" t="n">
-        <v>12338018</v>
+        <v>12371552</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1718829</v>
+        <v>1720266</v>
       </c>
       <c r="E22" t="n">
-        <v>12380581</v>
+        <v>12390933</v>
       </c>
       <c r="F22" t="n">
-        <v>4803.27308832369</v>
+        <v>3644.370448425796</v>
       </c>
       <c r="G22" t="n">
-        <v>4673.283565432301</v>
+        <v>5912.207286250663</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.85</v>
       </c>
       <c r="I22" t="n">
-        <v>54111</v>
+        <v>54134</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>135470129</v>
+        <v>137384780</v>
       </c>
       <c r="E23" t="n">
-        <v>135470129</v>
+        <v>137384780</v>
       </c>
       <c r="F23" t="n">
-        <v>845880.3425991392</v>
+        <v>899165.6677855777</v>
       </c>
       <c r="G23" t="n">
-        <v>1357825.892808155</v>
+        <v>793670.1239715026</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>90257117</v>
+        <v>95097931</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62667939</v>
+        <v>63501328</v>
       </c>
       <c r="E24" t="n">
-        <v>321374046</v>
+        <v>325647834</v>
       </c>
       <c r="F24" t="n">
-        <v>75334.18722833655</v>
+        <v>57298.23172685255</v>
       </c>
       <c r="G24" t="n">
-        <v>134780.1052139542</v>
+        <v>90212.55572770482</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I24" t="n">
-        <v>27293889</v>
+        <v>27325872</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>247411839</v>
+        <v>249649031</v>
       </c>
       <c r="E25" t="n">
-        <v>247411839</v>
+        <v>249649031</v>
       </c>
       <c r="F25" t="n">
-        <v>289474.4914994715</v>
+        <v>372899.0953286417</v>
       </c>
       <c r="G25" t="n">
-        <v>361873.2960516845</v>
+        <v>351202.9006589243</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I25" t="n">
-        <v>25958076</v>
+        <v>26088198</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1109710</v>
+        <v>1109232</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>137399</v>
+        <v>133528</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2294146</v>
+        <v>2187543</v>
       </c>
       <c r="E27" t="n">
-        <v>2551244</v>
+        <v>2452832</v>
       </c>
       <c r="F27" t="n">
-        <v>67.17777260449444</v>
+        <v>200.1400010068564</v>
       </c>
       <c r="G27" t="n">
-        <v>256.8512417188718</v>
+        <v>483.801893780499</v>
       </c>
       <c r="H27" t="n">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="I27" t="n">
-        <v>335410</v>
+        <v>445876</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3748639</v>
+        <v>3756196</v>
       </c>
       <c r="E28" t="n">
-        <v>3749529</v>
+        <v>3757108</v>
       </c>
       <c r="F28" t="n">
-        <v>895.190685456457</v>
+        <v>899.6768822655345</v>
       </c>
       <c r="G28" t="n">
-        <v>2940.050307944494</v>
+        <v>2894.229625028227</v>
       </c>
       <c r="H28" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I28" t="n">
-        <v>250163</v>
+        <v>246764</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6845939</v>
+        <v>6818180</v>
       </c>
       <c r="E29" t="n">
-        <v>16628258</v>
+        <v>16560835</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>435628</v>
+        <v>434551</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96154559</v>
+        <v>97124835</v>
       </c>
       <c r="E30" t="n">
-        <v>119893464</v>
+        <v>121103284</v>
       </c>
       <c r="F30" t="n">
-        <v>98789.63771385996</v>
+        <v>99198.87222515456</v>
       </c>
       <c r="G30" t="n">
-        <v>125998.4267076447</v>
+        <v>85399.88352992729</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.41</v>
       </c>
       <c r="I30" t="n">
-        <v>12225949</v>
+        <v>12706723</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1117485</v>
+        <v>1115977</v>
       </c>
       <c r="E31" t="n">
-        <v>12144410</v>
+        <v>12128021</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12933.52</v>
+        <v>12918.59</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>79712721</v>
+        <v>80837850</v>
       </c>
       <c r="E32" t="n">
-        <v>223034195</v>
+        <v>226165333</v>
       </c>
       <c r="F32" t="n">
-        <v>53963.47214577596</v>
+        <v>51002.90433391433</v>
       </c>
       <c r="G32" t="n">
-        <v>75799.93576386895</v>
+        <v>53212.26868472637</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>54626492</v>
+        <v>54709160</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4072198</v>
+        <v>4067269</v>
       </c>
       <c r="E33" t="n">
-        <v>8030718</v>
+        <v>8020997</v>
       </c>
       <c r="F33" t="n">
-        <v>8285.124524186394</v>
+        <v>8060.510371879859</v>
       </c>
       <c r="G33" t="n">
-        <v>9030.253080775197</v>
+        <v>6170.101488082988</v>
       </c>
       <c r="H33" t="n">
-        <v>0.59</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1685101</v>
+        <v>1674867</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36351144</v>
+        <v>36386133</v>
       </c>
       <c r="F34" t="n">
-        <v>243.9994123339367</v>
+        <v>243.7535774187757</v>
       </c>
       <c r="G34" t="n">
-        <v>424.905549147071</v>
+        <v>433.8856922940951</v>
       </c>
       <c r="H34" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="I34" t="n">
-        <v>39570</v>
+        <v>37491</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17400144</v>
+        <v>17217944</v>
       </c>
       <c r="E35" t="n">
-        <v>18339344</v>
+        <v>18147309</v>
       </c>
       <c r="F35" t="n">
-        <v>3559.709710077124</v>
+        <v>3504.854263662902</v>
       </c>
       <c r="G35" t="n">
-        <v>2562.408332931164</v>
+        <v>2559.303014687815</v>
       </c>
       <c r="H35" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>47938</v>
+        <v>50681</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23013224</v>
+        <v>23037746</v>
       </c>
       <c r="F36" t="n">
-        <v>5210.418167657625</v>
+        <v>5181.821333006278</v>
       </c>
       <c r="G36" t="n">
-        <v>5550.112643768998</v>
+        <v>5574.085295767209</v>
       </c>
       <c r="H36" t="n">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>129960</v>
+        <v>128477</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>81734984</v>
+        <v>83891595</v>
       </c>
       <c r="E37" t="n">
-        <v>170410876</v>
+        <v>174907237</v>
       </c>
       <c r="F37" t="n">
-        <v>55430.88340721856</v>
+        <v>58626.41947529436</v>
       </c>
       <c r="G37" t="n">
-        <v>41500.61218152162</v>
+        <v>33575.89270210372</v>
       </c>
       <c r="H37" t="n">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="I37" t="n">
-        <v>70760347</v>
+        <v>71703615</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>267459121</v>
+        <v>271650745</v>
       </c>
       <c r="E38" t="n">
-        <v>267459121</v>
+        <v>271650745</v>
       </c>
       <c r="F38" t="n">
-        <v>28155.10391640357</v>
+        <v>27755.51495600631</v>
       </c>
       <c r="G38" t="n">
-        <v>42214.81412965887</v>
+        <v>23174.3497809721</v>
       </c>
       <c r="H38" t="n">
         <v>0.15</v>
       </c>
       <c r="I38" t="n">
-        <v>12324906</v>
+        <v>12172358</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>193745876</v>
+        <v>195830886</v>
       </c>
       <c r="E39" t="n">
-        <v>673090684</v>
+        <v>680334196</v>
       </c>
       <c r="F39" t="n">
-        <v>183075.5279593408</v>
+        <v>164188.2469488934</v>
       </c>
       <c r="G39" t="n">
-        <v>199171.6604139378</v>
+        <v>211690.5610709513</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>41204438</v>
+        <v>41181059</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3367074</v>
+        <v>3337991</v>
       </c>
       <c r="E40" t="n">
-        <v>3367074</v>
+        <v>3337991</v>
       </c>
       <c r="F40" t="n">
-        <v>1175.534852758225</v>
+        <v>703.1254410647533</v>
       </c>
       <c r="G40" t="n">
-        <v>1060.032641618635</v>
+        <v>2010.269315544598</v>
       </c>
       <c r="H40" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="I40" t="n">
-        <v>2266698</v>
+        <v>2212098</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>107741040</v>
+        <v>108823183</v>
       </c>
       <c r="E41" t="n">
-        <v>456997901</v>
+        <v>461555908</v>
       </c>
       <c r="F41" t="n">
-        <v>5422.482670788268</v>
+        <v>5484.426700304213</v>
       </c>
       <c r="G41" t="n">
-        <v>7736.048988130375</v>
+        <v>6425.796753386097</v>
       </c>
       <c r="H41" t="n">
         <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>15112001</v>
+        <v>15038941</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>534249</v>
+        <v>546683</v>
       </c>
       <c r="E42" t="n">
-        <v>6479919</v>
+        <v>6630733</v>
       </c>
       <c r="F42" t="n">
-        <v>402.3410467831985</v>
+        <v>349.1971441733929</v>
       </c>
       <c r="G42" t="n">
-        <v>797.3746583491942</v>
+        <v>465.4771166202131</v>
       </c>
       <c r="H42" t="n">
-        <v>1.66</v>
+        <v>0.9</v>
       </c>
       <c r="I42" t="n">
-        <v>2874584</v>
+        <v>2905091</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1381268416</v>
+        <v>1403117660</v>
       </c>
       <c r="E43" t="n">
-        <v>6623464933</v>
+        <v>6728236532</v>
       </c>
       <c r="F43" t="n">
-        <v>44198.11028506669</v>
+        <v>6742.711990875629</v>
       </c>
       <c r="G43" t="n">
-        <v>50979.5829667998</v>
+        <v>17268.3199586466</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>488167963</v>
+        <v>500299564</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5917289643</v>
+        <v>5915499294</v>
       </c>
       <c r="E44" t="n">
-        <v>5917157884</v>
+        <v>5915499294</v>
       </c>
       <c r="F44" t="n">
-        <v>581385.9334416197</v>
+        <v>543430.6647153118</v>
       </c>
       <c r="G44" t="n">
-        <v>464018.3575328328</v>
+        <v>560542.0380424545</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>395232288</v>
+        <v>396503481</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>255260033</v>
+        <v>258555613</v>
       </c>
       <c r="E45" t="n">
-        <v>1101844008</v>
+        <v>1116069560</v>
       </c>
       <c r="F45" t="n">
-        <v>120592.7831148053</v>
+        <v>93360.72319045673</v>
       </c>
       <c r="G45" t="n">
-        <v>87592.45260629768</v>
+        <v>105895.8016641814</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I45" t="n">
-        <v>142071810</v>
+        <v>142673730</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>111878923</v>
+        <v>112325056</v>
       </c>
       <c r="E46" t="n">
-        <v>111878923</v>
+        <v>112325056</v>
       </c>
       <c r="F46" t="n">
-        <v>20530.56202807096</v>
+        <v>28053.69818602006</v>
       </c>
       <c r="G46" t="n">
-        <v>41097.99947360782</v>
+        <v>38513.76458378064</v>
       </c>
       <c r="H46" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I46" t="n">
-        <v>7049434</v>
+        <v>7093131</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2038601576</v>
+        <v>2035621909</v>
       </c>
       <c r="E47" t="n">
-        <v>2038601576</v>
+        <v>2035621909</v>
       </c>
       <c r="F47" t="n">
-        <v>227045.5530866357</v>
+        <v>227043.5041600656</v>
       </c>
       <c r="G47" t="n">
-        <v>200461.0599976036</v>
+        <v>200452.3754275865</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>9047911952</v>
+        <v>9133321269</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10126339</v>
+        <v>10156740</v>
       </c>
       <c r="F48" t="n">
-        <v>6666.764880151462</v>
+        <v>6258.584849768752</v>
       </c>
       <c r="G48" t="n">
-        <v>5658.169432046199</v>
+        <v>6032.447335169691</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>186089</v>
+        <v>183611</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4144151</v>
+        <v>4143783</v>
       </c>
       <c r="E49" t="n">
-        <v>5440729</v>
+        <v>5440247</v>
       </c>
       <c r="F49" t="n">
-        <v>6144.719569479208</v>
+        <v>6074.717909714956</v>
       </c>
       <c r="G49" t="n">
-        <v>2639.391280844662</v>
+        <v>3254.250611667265</v>
       </c>
       <c r="H49" t="n">
-        <v>0.42</v>
+        <v>0.14</v>
       </c>
       <c r="I49" t="n">
-        <v>573961</v>
+        <v>571869</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12586628</v>
+        <v>12613314</v>
       </c>
       <c r="E50" t="n">
-        <v>18508399</v>
+        <v>18547640</v>
       </c>
       <c r="F50" t="n">
-        <v>2280.219979536203</v>
+        <v>6787.272782514958</v>
       </c>
       <c r="G50" t="n">
-        <v>22855.82818406344</v>
+        <v>11824.77977695064</v>
       </c>
       <c r="H50" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>7046075</v>
+        <v>6855214</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21813605</v>
+        <v>21756876</v>
       </c>
       <c r="E51" t="n">
-        <v>28297236</v>
+        <v>28223645</v>
       </c>
       <c r="F51" t="n">
-        <v>11738.04744514228</v>
+        <v>10441.45092791908</v>
       </c>
       <c r="G51" t="n">
-        <v>16654.27977459936</v>
+        <v>15614.8136683578</v>
       </c>
       <c r="H51" t="n">
         <v>0.29</v>
       </c>
       <c r="I51" t="n">
-        <v>206108</v>
+        <v>225308</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13554685</v>
+        <v>13747352</v>
       </c>
       <c r="E52" t="n">
-        <v>13554685</v>
+        <v>13747352</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5471045</v>
+        <v>5570614</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97865917</v>
+        <v>97909719</v>
       </c>
       <c r="E53" t="n">
-        <v>121056637</v>
+        <v>121110818</v>
       </c>
       <c r="F53" t="n">
-        <v>625.2014132103395</v>
+        <v>753.8210578340813</v>
       </c>
       <c r="G53" t="n">
-        <v>3778.739927260226</v>
+        <v>3685.160665399345</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="I53" t="n">
-        <v>1100676</v>
+        <v>1074781</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4965998</v>
+        <v>5030286</v>
       </c>
       <c r="E54" t="n">
-        <v>6948151</v>
+        <v>7038099</v>
       </c>
       <c r="F54" t="n">
-        <v>457.6093329444997</v>
+        <v>1.082697878269091</v>
       </c>
       <c r="G54" t="n">
-        <v>90.95069940632416</v>
+        <v>102.0493766088408</v>
       </c>
       <c r="H54" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="I54" t="n">
-        <v>66845</v>
+        <v>69053</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13603613</v>
+        <v>13937032</v>
       </c>
       <c r="E55" t="n">
-        <v>65884467</v>
+        <v>67499271</v>
       </c>
       <c r="F55" t="n">
-        <v>13270.70815480577</v>
+        <v>5734.347193235061</v>
       </c>
       <c r="G55" t="n">
-        <v>4766.462628473185</v>
+        <v>6935.561280467975</v>
       </c>
       <c r="H55" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="I55" t="n">
-        <v>5481703</v>
+        <v>5619514</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56088</v>
+        <v>56138</v>
       </c>
       <c r="E56" t="n">
-        <v>134344</v>
+        <v>134463</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16392.29</v>
+        <v>16356.43</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1834713770</v>
+        <v>1844541893</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30798847</v>
+        <v>30864091</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11648805</v>
+        <v>11660659</v>
       </c>
       <c r="E58" t="n">
-        <v>16889086</v>
+        <v>16906272</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2021579</v>
+        <v>2025143</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>117585953</v>
+        <v>118970507</v>
       </c>
       <c r="E59" t="n">
-        <v>312711603</v>
+        <v>316393728</v>
       </c>
       <c r="F59" t="n">
-        <v>7333.387833118476</v>
+        <v>7563.598385137817</v>
       </c>
       <c r="G59" t="n">
-        <v>7120.361819227192</v>
+        <v>7199.133900225088</v>
       </c>
       <c r="H59" t="n">
-        <v>0.45</v>
+        <v>0.72</v>
       </c>
       <c r="I59" t="n">
-        <v>711673</v>
+        <v>713763</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29656655</v>
+        <v>29967479</v>
       </c>
       <c r="E60" t="n">
-        <v>92341308</v>
+        <v>93309114</v>
       </c>
       <c r="F60" t="n">
-        <v>2358.329482084335</v>
+        <v>1737.750303430459</v>
       </c>
       <c r="G60" t="n">
-        <v>5704.185426071555</v>
+        <v>3628.254498037979</v>
       </c>
       <c r="H60" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I60" t="n">
-        <v>10577895</v>
+        <v>10603051</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1788621</v>
+        <v>1813402</v>
       </c>
       <c r="E61" t="n">
-        <v>12826025</v>
+        <v>13003728</v>
       </c>
       <c r="F61" t="n">
-        <v>5123.442242435635</v>
+        <v>5064.731920482449</v>
       </c>
       <c r="G61" t="n">
-        <v>50.19113023592566</v>
+        <v>159.0895993150946</v>
       </c>
       <c r="H61" t="n">
         <v>0.61</v>
       </c>
       <c r="I61" t="n">
-        <v>2083888</v>
+        <v>2098923</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>191474990</v>
+        <v>192912913</v>
       </c>
       <c r="E62" t="n">
-        <v>1084249045</v>
+        <v>1092391446</v>
       </c>
       <c r="F62" t="n">
-        <v>599847.3571754498</v>
+        <v>562233.6632637884</v>
       </c>
       <c r="G62" t="n">
-        <v>648938.2529928389</v>
+        <v>886829.140094646</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>86105818</v>
+        <v>86519247</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>495047</v>
+        <v>487319</v>
       </c>
       <c r="E63" t="n">
-        <v>1666259</v>
+        <v>1640249</v>
       </c>
       <c r="F63" t="n">
-        <v>4562.693692178891</v>
+        <v>4655.190958983621</v>
       </c>
       <c r="G63" t="n">
-        <v>515.4148093288023</v>
+        <v>717.5381978019385</v>
       </c>
       <c r="H63" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>229308</v>
+        <v>640002</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>342723</v>
+        <v>343686</v>
       </c>
       <c r="E64" t="n">
-        <v>342723</v>
+        <v>343686</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2391.03</v>
+        <v>2400.89</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>122762329</v>
+        <v>123707878</v>
       </c>
       <c r="E65" t="n">
-        <v>909350587</v>
+        <v>916354651</v>
       </c>
       <c r="F65" t="n">
-        <v>329.078470776848</v>
+        <v>28939.8076453732</v>
       </c>
       <c r="G65" t="n">
-        <v>30013.60508727021</v>
+        <v>36363.95442720356</v>
       </c>
       <c r="H65" t="n">
-        <v>0.79</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>26793459</v>
+        <v>35779404</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8519843</v>
+        <v>8565041</v>
       </c>
       <c r="E66" t="n">
-        <v>11413748</v>
+        <v>11474298</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>43499</v>
+        <v>81224</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>34972946</v>
+        <v>35116024</v>
       </c>
       <c r="E67" t="n">
-        <v>34972946</v>
+        <v>35116024</v>
       </c>
       <c r="F67" t="n">
-        <v>8065.667498350883</v>
+        <v>7085.582163423697</v>
       </c>
       <c r="G67" t="n">
-        <v>5123.789590668738</v>
+        <v>5203.983903983655</v>
       </c>
       <c r="H67" t="n">
         <v>0.42</v>
       </c>
       <c r="I67" t="n">
-        <v>978251</v>
+        <v>982301</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1519893</v>
+        <v>1531662</v>
       </c>
       <c r="E68" t="n">
-        <v>11803665</v>
+        <v>11895062</v>
       </c>
       <c r="F68" t="n">
-        <v>17602.89169283818</v>
+        <v>19031.8944196405</v>
       </c>
       <c r="G68" t="n">
-        <v>16973.46818400836</v>
+        <v>14501.64679152186</v>
       </c>
       <c r="H68" t="n">
-        <v>0.51</v>
+        <v>0.79</v>
       </c>
       <c r="I68" t="n">
-        <v>516843</v>
+        <v>511280</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>318069923</v>
+        <v>320052307</v>
       </c>
       <c r="E69" t="n">
-        <v>2861554256</v>
+        <v>2879389010</v>
       </c>
       <c r="F69" t="n">
-        <v>1381865.863930736</v>
+        <v>1678210.824962756</v>
       </c>
       <c r="G69" t="n">
-        <v>2090853.755207502</v>
+        <v>1349239.906155325</v>
       </c>
       <c r="H69" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>67782612</v>
+        <v>69205699</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>246879</v>
+        <v>250050</v>
       </c>
       <c r="E70" t="n">
-        <v>2178893</v>
+        <v>2206879</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72072</v>
+        <v>75059</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1524726</v>
+        <v>1525191</v>
       </c>
       <c r="E71" t="n">
-        <v>12706047</v>
+        <v>12709925</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30581</v>
+        <v>30846</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9380175</v>
+        <v>9423217</v>
       </c>
       <c r="E72" t="n">
-        <v>43477649</v>
+        <v>43677152</v>
       </c>
       <c r="F72" t="n">
-        <v>10948.48805176525</v>
+        <v>10946.24801655817</v>
       </c>
       <c r="G72" t="n">
-        <v>3353.886944896796</v>
+        <v>3302.94889991366</v>
       </c>
       <c r="H72" t="n">
         <v>1.02</v>
       </c>
       <c r="I72" t="n">
-        <v>117852</v>
+        <v>109972</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46683863</v>
+        <v>47065518</v>
       </c>
       <c r="E73" t="n">
-        <v>270280279</v>
+        <v>272489904</v>
       </c>
       <c r="F73" t="n">
-        <v>89165.68091822085</v>
+        <v>69997.6547207492</v>
       </c>
       <c r="G73" t="n">
-        <v>163948.3666903775</v>
+        <v>146236.9612794649</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>51654102</v>
+        <v>49006799</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38684074</v>
+        <v>38776561</v>
       </c>
       <c r="E74" t="n">
-        <v>53428214</v>
+        <v>53555953</v>
       </c>
       <c r="F74" t="n">
-        <v>540.8850828325238</v>
+        <v>4647.104439553454</v>
       </c>
       <c r="G74" t="n">
-        <v>614.0729564270307</v>
+        <v>4236.641844895722</v>
       </c>
       <c r="H74" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="I74" t="n">
-        <v>315681</v>
+        <v>302961</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>100073</v>
+        <v>100180</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3780.42</v>
+        <v>3775.01</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13282906</v>
+        <v>13350071</v>
       </c>
       <c r="E76" t="n">
-        <v>13328109</v>
+        <v>13395503</v>
       </c>
       <c r="F76" t="n">
-        <v>1892.467097624997</v>
+        <v>1230.356065067059</v>
       </c>
       <c r="G76" t="n">
-        <v>7759.109690523551</v>
+        <v>7402.628552036669</v>
       </c>
       <c r="H76" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>6887315</v>
+        <v>7081527</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42207545</v>
+        <v>42123994</v>
       </c>
       <c r="E77" t="n">
-        <v>71658592</v>
+        <v>71516742</v>
       </c>
       <c r="F77" t="n">
-        <v>7274.292062109183</v>
+        <v>6181.90344541415</v>
       </c>
       <c r="G77" t="n">
-        <v>8215.995771655762</v>
+        <v>9536.755192763876</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>1131051</v>
+        <v>1153640</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19244971</v>
+        <v>19784699</v>
       </c>
       <c r="E78" t="n">
-        <v>57699435</v>
+        <v>59317623</v>
       </c>
       <c r="F78" t="n">
-        <v>37411.84759514001</v>
+        <v>44926.5801941027</v>
       </c>
       <c r="G78" t="n">
-        <v>28570.47063512733</v>
+        <v>26240.87263412712</v>
       </c>
       <c r="H78" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="I78" t="n">
-        <v>3629423</v>
+        <v>4428902</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100320899</v>
+        <v>99976824</v>
       </c>
       <c r="E79" t="n">
-        <v>106650182</v>
+        <v>106284400</v>
       </c>
       <c r="F79" t="n">
-        <v>2170.72325101321</v>
+        <v>1882.331274875769</v>
       </c>
       <c r="G79" t="n">
-        <v>4076.307587881417</v>
+        <v>2018.559563719408</v>
       </c>
       <c r="H79" t="n">
         <v>0.9</v>
       </c>
       <c r="I79" t="n">
-        <v>1819445</v>
+        <v>1820101</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10385941</v>
+        <v>10374280</v>
       </c>
       <c r="E80" t="n">
-        <v>45101253</v>
+        <v>45055972</v>
       </c>
       <c r="F80" t="n">
-        <v>6004.05565021825</v>
+        <v>5895.799317182158</v>
       </c>
       <c r="G80" t="n">
-        <v>5876.724532049653</v>
+        <v>5789.078806365656</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>119138</v>
+        <v>116385</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14997200</v>
+        <v>15187935</v>
       </c>
       <c r="E81" t="n">
-        <v>91922773</v>
+        <v>93091848</v>
       </c>
       <c r="F81" t="n">
-        <v>2917.005417762983</v>
+        <v>378.2372763747861</v>
       </c>
       <c r="G81" t="n">
-        <v>13460.17420516308</v>
+        <v>862.430015763174</v>
       </c>
       <c r="H81" t="n">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="I81" t="n">
-        <v>12224860</v>
+        <v>12203475</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1424789</v>
+        <v>1415614</v>
       </c>
       <c r="E82" t="n">
-        <v>1464867</v>
+        <v>1455434</v>
       </c>
       <c r="F82" t="n">
-        <v>2387.283559785235</v>
+        <v>14.51765948248454</v>
       </c>
       <c r="G82" t="n">
-        <v>2069.000585990711</v>
+        <v>2883.101500799939</v>
       </c>
       <c r="H82" t="n">
-        <v>0.39</v>
+        <v>0.05</v>
       </c>
       <c r="I82" t="n">
-        <v>85691</v>
+        <v>138529</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49544852</v>
+        <v>49497602</v>
       </c>
       <c r="E83" t="n">
-        <v>213433804</v>
+        <v>213230256</v>
       </c>
       <c r="F83" t="n">
-        <v>3085.075325618614</v>
+        <v>2997.765859862641</v>
       </c>
       <c r="G83" t="n">
-        <v>469.1034989503571</v>
+        <v>484.073313332659</v>
       </c>
       <c r="H83" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I83" t="n">
-        <v>13268232</v>
+        <v>13068201</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2258644</v>
+        <v>2277969</v>
       </c>
       <c r="E84" t="n">
-        <v>8198536</v>
+        <v>8268573</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>221417</v>
+        <v>223848</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8756653</v>
+        <v>8782190</v>
       </c>
       <c r="E85" t="n">
-        <v>19421011</v>
+        <v>19477648</v>
       </c>
       <c r="F85" t="n">
-        <v>6041.455140265331</v>
+        <v>6405.910990797834</v>
       </c>
       <c r="G85" t="n">
-        <v>5505.704825919749</v>
+        <v>6834.323907828842</v>
       </c>
       <c r="H85" t="n">
-        <v>1.43</v>
+        <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>242093</v>
+        <v>324446</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441573</v>
+        <v>2439943</v>
       </c>
       <c r="E86" t="n">
-        <v>18372211</v>
+        <v>18359944</v>
       </c>
       <c r="F86" t="n">
-        <v>5294.040837179176</v>
+        <v>5258.891698451471</v>
       </c>
       <c r="G86" t="n">
-        <v>12038.38310681139</v>
+        <v>11948.82316662395</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161646</v>
+        <v>161211</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19611310</v>
+        <v>19455012</v>
       </c>
       <c r="E87" t="n">
-        <v>78445240</v>
+        <v>77820046</v>
       </c>
       <c r="F87" t="n">
-        <v>780.0533734526232</v>
+        <v>2451.467381745575</v>
       </c>
       <c r="G87" t="n">
-        <v>764.8893787841595</v>
+        <v>621.561248470118</v>
       </c>
       <c r="H87" t="n">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="I87" t="n">
-        <v>3706009</v>
+        <v>3620096</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4473635</v>
+        <v>4460963</v>
       </c>
       <c r="E88" t="n">
-        <v>4473635</v>
+        <v>4460963</v>
       </c>
       <c r="F88" t="n">
-        <v>725.9473627460115</v>
+        <v>403.0591816770516</v>
       </c>
       <c r="G88" t="n">
-        <v>547.609732100942</v>
+        <v>1135.646858921477</v>
       </c>
       <c r="H88" t="n">
-        <v>0.76</v>
+        <v>1.5</v>
       </c>
       <c r="I88" t="n">
-        <v>2866379</v>
+        <v>2852858</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12580996</v>
+        <v>12601631</v>
       </c>
       <c r="E89" t="n">
-        <v>39792050</v>
+        <v>39857315</v>
       </c>
       <c r="F89" t="n">
-        <v>15555.45496088863</v>
+        <v>13290.9214891289</v>
       </c>
       <c r="G89" t="n">
-        <v>14405.79016216481</v>
+        <v>13648.18884129451</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>1026214</v>
+        <v>1005242</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24671</v>
+        <v>24827</v>
       </c>
       <c r="E90" t="n">
-        <v>194032</v>
+        <v>195258</v>
       </c>
       <c r="F90" t="n">
-        <v>273.4514756409049</v>
+        <v>197.9419497382839</v>
       </c>
       <c r="G90" t="n">
-        <v>633.8959181466937</v>
+        <v>669.0407760258247</v>
       </c>
       <c r="H90" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>40937</v>
+        <v>40834</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7534632</v>
+        <v>7589451</v>
       </c>
       <c r="E91" t="n">
-        <v>7534632</v>
+        <v>7589451</v>
       </c>
       <c r="F91" t="n">
-        <v>1270.654249414259</v>
+        <v>1026.344578555499</v>
       </c>
       <c r="G91" t="n">
-        <v>5214.018846550821</v>
+        <v>3531.873198667969</v>
       </c>
       <c r="H91" t="n">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="I91" t="n">
-        <v>4029585</v>
+        <v>4066314</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8987407</v>
+        <v>9159771</v>
       </c>
       <c r="E92" t="n">
-        <v>8987407</v>
+        <v>9159771</v>
       </c>
       <c r="F92" t="n">
-        <v>3181.599002160198</v>
+        <v>4744.937012281348</v>
       </c>
       <c r="G92" t="n">
-        <v>4767.769578817194</v>
+        <v>2818.005428455736</v>
       </c>
       <c r="H92" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2042857</v>
+        <v>1905916</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30501359</v>
+        <v>30802806</v>
       </c>
       <c r="E93" t="n">
-        <v>76909783</v>
+        <v>77669888</v>
       </c>
       <c r="F93" t="n">
-        <v>694.0588667078515</v>
+        <v>127.4856928255917</v>
       </c>
       <c r="G93" t="n">
-        <v>8714.292971316036</v>
+        <v>8446.656151880985</v>
       </c>
       <c r="H93" t="n">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="I93" t="n">
-        <v>6104971</v>
+        <v>6168714</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>297306379</v>
+        <v>299750472</v>
       </c>
       <c r="E94" t="n">
-        <v>301955653</v>
+        <v>304439938</v>
       </c>
       <c r="F94" t="n">
-        <v>48187.97040728422</v>
+        <v>47611.64435398652</v>
       </c>
       <c r="G94" t="n">
-        <v>53535.63595399556</v>
+        <v>43303.71703579638</v>
       </c>
       <c r="H94" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>25094523</v>
+        <v>25250004</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>998.8381944113833</v>
+        <v>3638.291751139365</v>
       </c>
       <c r="G95" t="n">
-        <v>6470.870167595492</v>
+        <v>6414.300142548103</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>206077</v>
+        <v>203947</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>75317453</v>
+        <v>76177260</v>
       </c>
       <c r="E96" t="n">
-        <v>75317453</v>
+        <v>76177260</v>
       </c>
       <c r="F96" t="n">
-        <v>11910.40292408931</v>
+        <v>6027.492504344865</v>
       </c>
       <c r="G96" t="n">
-        <v>7828.500097172954</v>
+        <v>6138.491747735634</v>
       </c>
       <c r="H96" t="n">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
       <c r="I96" t="n">
-        <v>4818976</v>
+        <v>4412685</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>286048999</v>
+        <v>289572255</v>
       </c>
       <c r="E97" t="n">
-        <v>286048999</v>
+        <v>289572255</v>
       </c>
       <c r="F97" t="n">
-        <v>218288.4316858488</v>
+        <v>283969.6558123353</v>
       </c>
       <c r="G97" t="n">
-        <v>391887.5657503374</v>
+        <v>351897.6348261986</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I97" t="n">
-        <v>93258777</v>
+        <v>93889776</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4579436</v>
+        <v>4585942</v>
       </c>
       <c r="E98" t="n">
-        <v>31290965</v>
+        <v>31335421</v>
       </c>
       <c r="F98" t="n">
-        <v>218.5294283842845</v>
+        <v>24365.40375394661</v>
       </c>
       <c r="G98" t="n">
-        <v>4862.784200993759</v>
+        <v>25884.34355582206</v>
       </c>
       <c r="H98" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>2985277</v>
+        <v>3008224</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83414356</v>
+        <v>84350209</v>
       </c>
       <c r="E99" t="n">
-        <v>480669498</v>
+        <v>486062286</v>
       </c>
       <c r="F99" t="n">
-        <v>124077.4636022399</v>
+        <v>146421.9415439961</v>
       </c>
       <c r="G99" t="n">
-        <v>117992.3607740177</v>
+        <v>150232.2241347225</v>
       </c>
       <c r="H99" t="n">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21205713</v>
+        <v>21230623</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>104321754</v>
+        <v>105191398</v>
       </c>
       <c r="E100" t="n">
-        <v>256672273</v>
+        <v>258811936</v>
       </c>
       <c r="F100" t="n">
-        <v>33097.63538929086</v>
+        <v>32361.46872657254</v>
       </c>
       <c r="G100" t="n">
-        <v>33317.59731928509</v>
+        <v>30438.00261821941</v>
       </c>
       <c r="H100" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I100" t="n">
-        <v>2771487</v>
+        <v>2810320</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>230544140</v>
+        <v>233308032</v>
       </c>
       <c r="E101" t="n">
-        <v>230546431</v>
+        <v>233310350</v>
       </c>
       <c r="F101" t="n">
-        <v>12925.42667407438</v>
+        <v>30577.38162920477</v>
       </c>
       <c r="G101" t="n">
-        <v>23543.27593483606</v>
+        <v>19723.47569632636</v>
       </c>
       <c r="H101" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I101" t="n">
-        <v>1949842</v>
+        <v>1992108</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>28749906</v>
+        <v>29180678</v>
       </c>
       <c r="E102" t="n">
-        <v>128725121</v>
+        <v>130653865</v>
       </c>
       <c r="F102" t="n">
-        <v>72634.98043423388</v>
+        <v>59224.59661577328</v>
       </c>
       <c r="G102" t="n">
-        <v>107216.6877656146</v>
+        <v>97276.77927844085</v>
       </c>
       <c r="H102" t="n">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="I102" t="n">
-        <v>14580628</v>
+        <v>14853759</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2889191</v>
+        <v>2883092</v>
       </c>
       <c r="E103" t="n">
-        <v>2889191</v>
+        <v>2883092</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>314160</v>
+        <v>298226</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5927992</v>
+        <v>6010114</v>
       </c>
       <c r="E104" t="n">
-        <v>15558007</v>
+        <v>15773537</v>
       </c>
       <c r="F104" t="n">
-        <v>140.8029736448974</v>
+        <v>114.1581303589611</v>
       </c>
       <c r="G104" t="n">
-        <v>498.0943163643097</v>
+        <v>507.7605973762178</v>
       </c>
       <c r="H104" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="I104" t="n">
-        <v>28193</v>
+        <v>31358</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16065602</v>
+        <v>16066353</v>
       </c>
       <c r="E105" t="n">
-        <v>74156677</v>
+        <v>74160143</v>
       </c>
       <c r="F105" t="n">
-        <v>4797.438930989871</v>
+        <v>4974.341258347445</v>
       </c>
       <c r="G105" t="n">
-        <v>3765.142720332079</v>
+        <v>1788.260929594771</v>
       </c>
       <c r="H105" t="n">
-        <v>0.14</v>
+        <v>0.54</v>
       </c>
       <c r="I105" t="n">
-        <v>1229293</v>
+        <v>1229759</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47269183</v>
+        <v>48103556</v>
       </c>
       <c r="E106" t="n">
-        <v>306528070</v>
+        <v>311938759</v>
       </c>
       <c r="F106" t="n">
-        <v>116133.1109325174</v>
+        <v>109350.0468814865</v>
       </c>
       <c r="G106" t="n">
-        <v>130284.9078959141</v>
+        <v>120915.9070204697</v>
       </c>
       <c r="H106" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I106" t="n">
-        <v>21271594</v>
+        <v>21833477</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2460912</v>
+        <v>2464457</v>
       </c>
       <c r="E107" t="n">
-        <v>4458405</v>
+        <v>4464828</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>119627</v>
+        <v>108684</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123694670</v>
+        <v>123904669</v>
       </c>
       <c r="E108" t="n">
-        <v>2048485038</v>
+        <v>2051962792</v>
       </c>
       <c r="F108" t="n">
-        <v>30744.77258287578</v>
+        <v>24101.11328586903</v>
       </c>
       <c r="G108" t="n">
-        <v>13921.03724260997</v>
+        <v>10810.3837882401</v>
       </c>
       <c r="H108" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>36071388</v>
+        <v>36326117</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22561329</v>
+        <v>23053341</v>
       </c>
       <c r="E109" t="n">
-        <v>134988967</v>
+        <v>137932776</v>
       </c>
       <c r="F109" t="n">
-        <v>39007.72328765956</v>
+        <v>39486.43213328282</v>
       </c>
       <c r="G109" t="n">
-        <v>36771.15824842144</v>
+        <v>37466.38070644415</v>
       </c>
       <c r="H109" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="I109" t="n">
-        <v>18064381</v>
+        <v>18294288</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1030970</v>
+        <v>1043968</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>93158</v>
+        <v>94721</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2251951</v>
+        <v>2253760</v>
       </c>
       <c r="F111" t="n">
-        <v>3866.271086598907</v>
+        <v>1431.293600597834</v>
       </c>
       <c r="G111" t="n">
-        <v>141.0919760645713</v>
+        <v>138.0382311828827</v>
       </c>
       <c r="H111" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I111" t="n">
-        <v>186966</v>
+        <v>189992</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147553347</v>
+        <v>147339680</v>
       </c>
       <c r="F112" t="n">
-        <v>8542.560031619432</v>
+        <v>8554.084797167045</v>
       </c>
       <c r="G112" t="n">
-        <v>2915.286861003692</v>
+        <v>3621.096201829969</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="I112" t="n">
-        <v>66620</v>
+        <v>69437</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6240469</v>
+        <v>6260427</v>
       </c>
       <c r="E113" t="n">
-        <v>32105318</v>
+        <v>32207993</v>
       </c>
       <c r="F113" t="n">
-        <v>528.4827799948748</v>
+        <v>1054.78515667419</v>
       </c>
       <c r="G113" t="n">
-        <v>938.8211536925071</v>
+        <v>187.8823827118381</v>
       </c>
       <c r="H113" t="n">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
       <c r="I113" t="n">
-        <v>957077</v>
+        <v>962992</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30218567</v>
+        <v>33243310</v>
       </c>
       <c r="E114" t="n">
-        <v>41434939</v>
+        <v>45582390</v>
       </c>
       <c r="F114" t="n">
-        <v>3677.237136985746</v>
+        <v>4273.484455957353</v>
       </c>
       <c r="G114" t="n">
-        <v>4882.833404683282</v>
+        <v>3932.100147115912</v>
       </c>
       <c r="H114" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I114" t="n">
-        <v>375178</v>
+        <v>921785</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7597449</v>
+        <v>7587503</v>
       </c>
       <c r="F115" t="n">
-        <v>1848.54274694014</v>
+        <v>1715.070236969243</v>
       </c>
       <c r="G115" t="n">
-        <v>5441.844596631045</v>
+        <v>5454.016581451435</v>
       </c>
       <c r="H115" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>657811</v>
+        <v>657363</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3560531</v>
+        <v>3601986</v>
       </c>
       <c r="E116" t="n">
-        <v>4769557</v>
+        <v>4825088</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>124603</v>
+        <v>124796</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>31874220</v>
+        <v>32263561</v>
       </c>
       <c r="E117" t="n">
-        <v>159067050</v>
+        <v>161010040</v>
       </c>
       <c r="F117" t="n">
-        <v>91189.21121178086</v>
+        <v>74204.23226212217</v>
       </c>
       <c r="G117" t="n">
-        <v>79417.00763289331</v>
+        <v>76701.60337173381</v>
       </c>
       <c r="H117" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I117" t="n">
-        <v>13985006</v>
+        <v>14172599</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3489405</v>
+        <v>3490327</v>
       </c>
       <c r="E118" t="n">
-        <v>5012595</v>
+        <v>5013919</v>
       </c>
       <c r="F118" t="n">
-        <v>616.339814762276</v>
+        <v>616.3625540606545</v>
       </c>
       <c r="G118" t="n">
-        <v>698.3171157178824</v>
+        <v>412.0023650965556</v>
       </c>
       <c r="H118" t="n">
-        <v>1.19</v>
+        <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>149002</v>
+        <v>146954</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>286039644</v>
+        <v>290821836</v>
       </c>
       <c r="E119" t="n">
-        <v>529238572</v>
+        <v>538086717</v>
       </c>
       <c r="F119" t="n">
-        <v>35780.01686570793</v>
+        <v>28515.86215423239</v>
       </c>
       <c r="G119" t="n">
-        <v>29728.91245249442</v>
+        <v>17643.29629931771</v>
       </c>
       <c r="H119" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="I119" t="n">
-        <v>17638391</v>
+        <v>18292333</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>68436259</v>
+        <v>69507184</v>
       </c>
       <c r="E120" t="n">
-        <v>652753038</v>
+        <v>662961120</v>
       </c>
       <c r="F120" t="n">
-        <v>4455.04250743598</v>
+        <v>2829.894581923015</v>
       </c>
       <c r="G120" t="n">
-        <v>3042.119670172615</v>
+        <v>1975.40149290572</v>
       </c>
       <c r="H120" t="n">
         <v>0.06</v>
       </c>
       <c r="I120" t="n">
-        <v>23913156</v>
+        <v>24050881</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35399274</v>
+        <v>35618220</v>
       </c>
       <c r="E121" t="n">
-        <v>46278632</v>
+        <v>46564687</v>
       </c>
       <c r="F121" t="n">
-        <v>6304.517168298188</v>
+        <v>6351.516247463664</v>
       </c>
       <c r="G121" t="n">
-        <v>77.84321771698164</v>
+        <v>29.46796089551672</v>
       </c>
       <c r="H121" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="I121" t="n">
-        <v>573698</v>
+        <v>468636</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>8803070</v>
+        <v>9180025</v>
       </c>
       <c r="E122" t="n">
-        <v>26097039</v>
+        <v>27214537</v>
       </c>
       <c r="F122" t="n">
-        <v>781.2179810446436</v>
+        <v>222.519970553124</v>
       </c>
       <c r="G122" t="n">
-        <v>6201.218519706966</v>
+        <v>3512.372152275856</v>
       </c>
       <c r="H122" t="n">
-        <v>0.86</v>
+        <v>1.55</v>
       </c>
       <c r="I122" t="n">
-        <v>6445564</v>
+        <v>6514621</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2274531</v>
+        <v>2277173</v>
       </c>
       <c r="E123" t="n">
-        <v>7600648</v>
+        <v>7609477</v>
       </c>
       <c r="F123" t="n">
-        <v>884.8441427823838</v>
+        <v>524.0368362040448</v>
       </c>
       <c r="G123" t="n">
-        <v>978.2397282148864</v>
+        <v>988.8788488160009</v>
       </c>
       <c r="H123" t="n">
-        <v>0.78</v>
+        <v>1.42</v>
       </c>
       <c r="I123" t="n">
-        <v>921856</v>
+        <v>892976</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7217362</v>
+        <v>7361103</v>
       </c>
       <c r="E124" t="n">
-        <v>7217373</v>
+        <v>7361114</v>
       </c>
       <c r="F124" t="n">
-        <v>213.5751906997935</v>
+        <v>74.27957279084322</v>
       </c>
       <c r="G124" t="n">
-        <v>551.1996279424475</v>
+        <v>598.1616832075765</v>
       </c>
       <c r="H124" t="n">
-        <v>2.48</v>
+        <v>0.97</v>
       </c>
       <c r="I124" t="n">
-        <v>261471</v>
+        <v>259244</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5982503</v>
+        <v>5996640</v>
       </c>
       <c r="E125" t="n">
-        <v>5982503</v>
+        <v>5996640</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>504591</v>
+        <v>513416</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6177722</v>
+        <v>6169132</v>
       </c>
       <c r="E126" t="n">
-        <v>22564828</v>
+        <v>22533451</v>
       </c>
       <c r="F126" t="n">
-        <v>6439.505549055487</v>
+        <v>6462.563539087952</v>
       </c>
       <c r="G126" t="n">
-        <v>8405.510803906649</v>
+        <v>8459.156987765595</v>
       </c>
       <c r="H126" t="n">
         <v>0.8</v>
       </c>
       <c r="I126" t="n">
-        <v>575409</v>
+        <v>534374</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43184138</v>
+        <v>43372119</v>
       </c>
       <c r="E127" t="n">
-        <v>43184138</v>
+        <v>43372119</v>
       </c>
       <c r="F127" t="n">
-        <v>62911.66294875719</v>
+        <v>58134.79632315889</v>
       </c>
       <c r="G127" t="n">
-        <v>66951.7169762361</v>
+        <v>67578.63673456473</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="I127" t="n">
-        <v>11815028</v>
+        <v>11974369</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141566089</v>
+        <v>141343118</v>
       </c>
       <c r="F128" t="n">
-        <v>81.52289477536388</v>
+        <v>81.4894235649995</v>
       </c>
       <c r="G128" t="n">
-        <v>1241.963349511669</v>
+        <v>1856.995313335535</v>
       </c>
       <c r="H128" t="n">
-        <v>2.29</v>
+        <v>1.81</v>
       </c>
       <c r="I128" t="n">
-        <v>1644342</v>
+        <v>1616438</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2973069</v>
+        <v>2959206</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>75246</v>
+        <v>74649</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19404379</v>
+        <v>19557397</v>
       </c>
       <c r="F130" t="n">
-        <v>422.4895579212469</v>
+        <v>309.3770855628947</v>
       </c>
       <c r="G130" t="n">
-        <v>1137.755610682762</v>
+        <v>1313.724654587443</v>
       </c>
       <c r="H130" t="n">
-        <v>0.97</v>
+        <v>1.87</v>
       </c>
       <c r="I130" t="n">
-        <v>2935541</v>
+        <v>2932153</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1314146</v>
+        <v>1312929</v>
       </c>
       <c r="E131" t="n">
-        <v>3977501</v>
+        <v>3973410</v>
       </c>
       <c r="F131" t="n">
-        <v>817.9989185820344</v>
+        <v>817.9833308598974</v>
       </c>
       <c r="G131" t="n">
-        <v>705.2667046626485</v>
+        <v>694.9319355049</v>
       </c>
       <c r="H131" t="n">
         <v>1.51</v>
       </c>
       <c r="I131" t="n">
-        <v>29255</v>
+        <v>37878</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>570378695</v>
+        <v>580365108</v>
       </c>
       <c r="E132" t="n">
-        <v>2208992533</v>
+        <v>2247668436</v>
       </c>
       <c r="F132" t="n">
-        <v>851716.1684293147</v>
+        <v>728133.5901555833</v>
       </c>
       <c r="G132" t="n">
-        <v>938934.7432388761</v>
+        <v>699266.2916604962</v>
       </c>
       <c r="H132" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I132" t="n">
-        <v>60819249</v>
+        <v>61737895</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3631420</v>
+        <v>3612627</v>
       </c>
       <c r="E133" t="n">
-        <v>6190248</v>
+        <v>6158213</v>
       </c>
       <c r="F133" t="n">
-        <v>5237.995640668477</v>
+        <v>4647.06236841887</v>
       </c>
       <c r="G133" t="n">
-        <v>5471.259455333488</v>
+        <v>7020.239073364576</v>
       </c>
       <c r="H133" t="n">
-        <v>0.16</v>
+        <v>0.97</v>
       </c>
       <c r="I133" t="n">
-        <v>1102256</v>
+        <v>1123949</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>106708127</v>
+        <v>108668687</v>
       </c>
       <c r="E134" t="n">
-        <v>1010228578</v>
+        <v>1028789614</v>
       </c>
       <c r="F134" t="n">
-        <v>98166.0411059756</v>
+        <v>58011.31141249467</v>
       </c>
       <c r="G134" t="n">
-        <v>94619.91961715237</v>
+        <v>79746.51935532581</v>
       </c>
       <c r="H134" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="I134" t="n">
-        <v>16322024</v>
+        <v>17103272</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>899048053</v>
+        <v>949234573</v>
       </c>
       <c r="E135" t="n">
-        <v>987606751</v>
+        <v>1042736780</v>
       </c>
       <c r="F135" t="n">
-        <v>9038.060837984271</v>
+        <v>18809.14349543733</v>
       </c>
       <c r="G135" t="n">
-        <v>20783.73564296843</v>
+        <v>14605.26412661117</v>
       </c>
       <c r="H135" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="I135" t="n">
-        <v>10926729</v>
+        <v>10381527</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1078381</v>
+        <v>1064356</v>
       </c>
       <c r="E136" t="n">
-        <v>4175725</v>
+        <v>4121419</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>315974</v>
+        <v>295808</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>120296882</v>
+        <v>121117275</v>
       </c>
       <c r="E137" t="n">
-        <v>461478201</v>
+        <v>464625362</v>
       </c>
       <c r="F137" t="n">
-        <v>205923.5352585297</v>
+        <v>144243.5395325915</v>
       </c>
       <c r="G137" t="n">
-        <v>202019.0341491047</v>
+        <v>185409.4245616584</v>
       </c>
       <c r="H137" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="I137" t="n">
-        <v>39537255</v>
+        <v>37400155</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3100349</v>
+        <v>3071929</v>
       </c>
       <c r="E138" t="n">
-        <v>29376265</v>
+        <v>29106982</v>
       </c>
       <c r="F138" t="n">
-        <v>4444.851981561004</v>
+        <v>3771.832998993117</v>
       </c>
       <c r="G138" t="n">
-        <v>4316.70955283774</v>
+        <v>5096.98073879489</v>
       </c>
       <c r="H138" t="n">
-        <v>0.55</v>
+        <v>0.92</v>
       </c>
       <c r="I138" t="n">
-        <v>261994</v>
+        <v>221104</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23511821</v>
+        <v>21786669</v>
       </c>
       <c r="E139" t="n">
-        <v>23511821</v>
+        <v>21786669</v>
       </c>
       <c r="F139" t="n">
-        <v>495.0440106892391</v>
+        <v>1096.008155998334</v>
       </c>
       <c r="G139" t="n">
-        <v>1590.291551575805</v>
+        <v>1586.73684848448</v>
       </c>
       <c r="H139" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="I139" t="n">
-        <v>691002</v>
+        <v>790232</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494332204</v>
+        <v>495913581</v>
       </c>
       <c r="E140" t="n">
-        <v>494332204</v>
+        <v>495913581</v>
       </c>
       <c r="F140" t="n">
-        <v>527404.4689012293</v>
+        <v>680105.188226354</v>
       </c>
       <c r="G140" t="n">
-        <v>795282.3213825835</v>
+        <v>764585.6706314381</v>
       </c>
       <c r="H140" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>45246476</v>
+        <v>39050728</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>36063732</v>
+        <v>37175137</v>
       </c>
       <c r="F141" t="n">
-        <v>54553.82638201528</v>
+        <v>28045.25645474933</v>
       </c>
       <c r="G141" t="n">
-        <v>68449.2319272281</v>
+        <v>73010.96737580287</v>
       </c>
       <c r="H141" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I141" t="n">
-        <v>8075603</v>
+        <v>8163068</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>788270</v>
+        <v>791134</v>
       </c>
       <c r="E142" t="n">
-        <v>12572627</v>
+        <v>12618308</v>
       </c>
       <c r="F142" t="n">
-        <v>2.661329285212072</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>546.364849295128</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2.86</v>
+        <v>4.21</v>
       </c>
       <c r="I142" t="n">
-        <v>334791</v>
+        <v>335053</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2495635775</v>
+        <v>2530519097</v>
       </c>
       <c r="E143" t="n">
-        <v>2649715821</v>
+        <v>2686752832</v>
       </c>
       <c r="F143" t="n">
-        <v>4208.448110698124</v>
+        <v>3217.830055292198</v>
       </c>
       <c r="G143" t="n">
-        <v>20119.78112990543</v>
+        <v>20417.60049958454</v>
       </c>
       <c r="H143" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I143" t="n">
-        <v>59724611</v>
+        <v>60135880</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1697365</v>
+        <v>1707546</v>
       </c>
       <c r="E144" t="n">
-        <v>1703357</v>
+        <v>1713573</v>
       </c>
       <c r="F144" t="n">
-        <v>5374.359296850379</v>
+        <v>5580.713679752471</v>
       </c>
       <c r="G144" t="n">
-        <v>355.9494789149078</v>
+        <v>1613.968439977027</v>
       </c>
       <c r="H144" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="I144" t="n">
-        <v>452520</v>
+        <v>466973</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>56094696</v>
+        <v>56646043</v>
       </c>
       <c r="E145" t="n">
-        <v>137596487</v>
+        <v>138948904</v>
       </c>
       <c r="F145" t="n">
-        <v>4099.526707102556</v>
+        <v>2933.452268052584</v>
       </c>
       <c r="G145" t="n">
-        <v>3447.803664183797</v>
+        <v>988.9304773863779</v>
       </c>
       <c r="H145" t="n">
-        <v>0.73</v>
+        <v>1.08</v>
       </c>
       <c r="I145" t="n">
-        <v>21771449</v>
+        <v>21895749</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>747803876</v>
+        <v>750678237</v>
       </c>
       <c r="E146" t="n">
-        <v>1153179601</v>
+        <v>1157612120</v>
       </c>
       <c r="F146" t="n">
-        <v>121346.0837495085</v>
+        <v>151949.7275427871</v>
       </c>
       <c r="G146" t="n">
-        <v>98690.40694875334</v>
+        <v>143031.307128697</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>329663914</v>
+        <v>270381137</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21670240</v>
+        <v>21990722</v>
       </c>
       <c r="E147" t="n">
-        <v>21670240</v>
+        <v>21990722</v>
       </c>
       <c r="F147" t="n">
-        <v>3823.805325716248</v>
+        <v>3547.757060510936</v>
       </c>
       <c r="G147" t="n">
-        <v>6057.926666146891</v>
+        <v>8003.731072014316</v>
       </c>
       <c r="H147" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I147" t="n">
-        <v>5963197</v>
+        <v>5936612</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3797693</v>
+        <v>3794882</v>
       </c>
       <c r="E148" t="n">
-        <v>8278438</v>
+        <v>8272311</v>
       </c>
       <c r="F148" t="n">
-        <v>6697.323571624755</v>
+        <v>6690.880574785005</v>
       </c>
       <c r="G148" t="n">
-        <v>7155.146817137516</v>
+        <v>7140.044729627356</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2051974</v>
+        <v>2068008</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9233059</v>
+        <v>9236516</v>
       </c>
       <c r="E149" t="n">
-        <v>9233059</v>
+        <v>9236516</v>
       </c>
       <c r="F149" t="n">
-        <v>78939.20170134923</v>
+        <v>76760.78552743956</v>
       </c>
       <c r="G149" t="n">
-        <v>85018.38814677231</v>
+        <v>81134.93830850908</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I149" t="n">
-        <v>6394257</v>
+        <v>6464324</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>461827293</v>
+        <v>469423662</v>
       </c>
       <c r="E150" t="n">
-        <v>1607582373</v>
+        <v>1634024699</v>
       </c>
       <c r="F150" t="n">
-        <v>778496.6690075872</v>
+        <v>657811.9812323087</v>
       </c>
       <c r="G150" t="n">
-        <v>793846.4004062611</v>
+        <v>694537.831963024</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I150" t="n">
-        <v>47381830</v>
+        <v>47782429</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46031320</v>
+        <v>46041055</v>
       </c>
       <c r="E151" t="n">
-        <v>113312417</v>
+        <v>113336385</v>
       </c>
       <c r="F151" t="n">
-        <v>469.4680040817812</v>
+        <v>5685.423381868677</v>
       </c>
       <c r="G151" t="n">
-        <v>10971.02717996053</v>
+        <v>8119.914669472169</v>
       </c>
       <c r="H151" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="I151" t="n">
-        <v>117317</v>
+        <v>119189</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7158856</v>
+        <v>7135949</v>
       </c>
       <c r="E152" t="n">
-        <v>18597938</v>
+        <v>18538428</v>
       </c>
       <c r="F152" t="n">
-        <v>6195.901427077656</v>
+        <v>6198.49548346074</v>
       </c>
       <c r="G152" t="n">
-        <v>6499.517534505892</v>
+        <v>6125.905827064557</v>
       </c>
       <c r="H152" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="I152" t="n">
-        <v>770187</v>
+        <v>773384</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18797376771</v>
+        <v>18769428439</v>
       </c>
       <c r="F153" t="n">
-        <v>164.0526765977763</v>
+        <v>1201.169646510062</v>
       </c>
       <c r="G153" t="n">
-        <v>19798.30989446552</v>
+        <v>3346.711655336283</v>
       </c>
       <c r="H153" t="n">
-        <v>0.53</v>
+        <v>2.26</v>
       </c>
       <c r="I153" t="n">
-        <v>33502495</v>
+        <v>31755599</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2350364</v>
+        <v>2313228</v>
       </c>
       <c r="E154" t="n">
-        <v>9401455</v>
+        <v>9252913</v>
       </c>
       <c r="F154" t="n">
-        <v>1200.146104727108</v>
+        <v>1095.822113728595</v>
       </c>
       <c r="G154" t="n">
-        <v>2129.618920425776</v>
+        <v>1653.072991440786</v>
       </c>
       <c r="H154" t="n">
         <v>0.43</v>
       </c>
       <c r="I154" t="n">
-        <v>7534218</v>
+        <v>7759475</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>207948546</v>
+        <v>211205594</v>
       </c>
       <c r="E155" t="n">
-        <v>639363522</v>
+        <v>649377721</v>
       </c>
       <c r="F155" t="n">
-        <v>35670.85245646157</v>
+        <v>29669.64214564761</v>
       </c>
       <c r="G155" t="n">
-        <v>43986.93718529707</v>
+        <v>34471.09006320041</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="I155" t="n">
-        <v>22640841</v>
+        <v>22975014</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>378731146</v>
+        <v>380530367</v>
       </c>
       <c r="E156" t="n">
-        <v>2164177974</v>
+        <v>2174459238</v>
       </c>
       <c r="F156" t="n">
-        <v>288925.4402608243</v>
+        <v>231045.6468932861</v>
       </c>
       <c r="G156" t="n">
-        <v>315717.2388736368</v>
+        <v>229119.8741670282</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>61637851</v>
+        <v>62583821</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3874760</v>
+        <v>3862364</v>
       </c>
       <c r="F2" t="n">
-        <v>170.8843874082455</v>
+        <v>588.9291714824155</v>
       </c>
       <c r="G2" t="n">
-        <v>395.8159307625029</v>
+        <v>391.568822670124</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>1.38</v>
       </c>
       <c r="I2" t="n">
-        <v>142189</v>
+        <v>140986</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>590922192</v>
+        <v>587953168</v>
       </c>
       <c r="E3" t="n">
-        <v>1146806473</v>
+        <v>1141067602</v>
       </c>
       <c r="F3" t="n">
-        <v>12810.81674964507</v>
+        <v>17550.47800168418</v>
       </c>
       <c r="G3" t="n">
-        <v>24383.32944521767</v>
+        <v>35733.90254463014</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>47258017</v>
+        <v>47652528</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>250898348</v>
+        <v>248945660</v>
       </c>
       <c r="E4" t="n">
-        <v>1573348277</v>
+        <v>1561103240</v>
       </c>
       <c r="F4" t="n">
-        <v>169335.326137292</v>
+        <v>159746.2261701133</v>
       </c>
       <c r="G4" t="n">
-        <v>148121.6798670096</v>
+        <v>130228.0916762204</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>26550752</v>
+        <v>27766031</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140271378</v>
+        <v>139802533</v>
       </c>
       <c r="E5" t="n">
-        <v>155442609</v>
+        <v>154923055</v>
       </c>
       <c r="F5" t="n">
-        <v>8452.498450677444</v>
+        <v>8592.489320626137</v>
       </c>
       <c r="G5" t="n">
-        <v>298.5552178033558</v>
+        <v>373.4644988693681</v>
       </c>
       <c r="H5" t="n">
         <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>53570372</v>
+        <v>53648292</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48529266</v>
+        <v>48339455</v>
       </c>
       <c r="E6" t="n">
-        <v>60708867</v>
+        <v>60471419</v>
       </c>
       <c r="F6" t="n">
-        <v>5425.524040049469</v>
+        <v>6086.693391731919</v>
       </c>
       <c r="G6" t="n">
-        <v>1582.749214495333</v>
+        <v>3970.196679207074</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I6" t="n">
-        <v>792808</v>
+        <v>558762</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66318756</v>
+        <v>65379126</v>
       </c>
       <c r="E7" t="n">
-        <v>132084517</v>
+        <v>130213093</v>
       </c>
       <c r="F7" t="n">
-        <v>12066.03838916523</v>
+        <v>10681.75475037239</v>
       </c>
       <c r="G7" t="n">
-        <v>12357.57442892249</v>
+        <v>12283.14144966364</v>
       </c>
       <c r="H7" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I7" t="n">
-        <v>984433</v>
+        <v>1052792</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40802271</v>
+        <v>41388968</v>
       </c>
       <c r="E8" t="n">
-        <v>45663619</v>
+        <v>46320217</v>
       </c>
       <c r="F8" t="n">
-        <v>649.9653746713703</v>
+        <v>411.1205800994155</v>
       </c>
       <c r="G8" t="n">
-        <v>348.0444081656502</v>
+        <v>55.22039263502529</v>
       </c>
       <c r="H8" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4952984</v>
+        <v>5056491</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13989027</v>
+        <v>13915897</v>
       </c>
       <c r="E9" t="n">
-        <v>41224759</v>
+        <v>41009250</v>
       </c>
       <c r="F9" t="n">
-        <v>4704.19283432882</v>
+        <v>5042.334587816138</v>
       </c>
       <c r="G9" t="n">
-        <v>4147.54253521859</v>
+        <v>4644.336222020446</v>
       </c>
       <c r="H9" t="n">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="I9" t="n">
-        <v>900671</v>
+        <v>889375</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8599636</v>
+        <v>8729128</v>
       </c>
       <c r="E10" t="n">
-        <v>36966019</v>
+        <v>37522651</v>
       </c>
       <c r="F10" t="n">
-        <v>262.4530812834408</v>
+        <v>398.4267566805675</v>
       </c>
       <c r="G10" t="n">
-        <v>360.3225886045297</v>
+        <v>856.4181028585975</v>
       </c>
       <c r="H10" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="I10" t="n">
-        <v>926637</v>
+        <v>931919</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>548563221</v>
+        <v>547109318</v>
       </c>
       <c r="E11" t="n">
-        <v>686171058</v>
+        <v>684352441</v>
       </c>
       <c r="F11" t="n">
-        <v>245390.2755061329</v>
+        <v>242708.7408392246</v>
       </c>
       <c r="G11" t="n">
-        <v>236730.5441168674</v>
+        <v>288473.8671837382</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>98950500</v>
+        <v>99075354</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4372134</v>
+        <v>4358662</v>
       </c>
       <c r="E12" t="n">
-        <v>26844241</v>
+        <v>26761524</v>
       </c>
       <c r="F12" t="n">
-        <v>9970.255088313927</v>
+        <v>9785.559286675492</v>
       </c>
       <c r="G12" t="n">
-        <v>7593.593098160655</v>
+        <v>10212.84562918093</v>
       </c>
       <c r="H12" t="n">
         <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>599156</v>
+        <v>575108</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23617241</v>
+        <v>23897775</v>
       </c>
       <c r="E13" t="n">
-        <v>23660802</v>
+        <v>23941854</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>870830</v>
+        <v>873244</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78971258</v>
+        <v>78431542</v>
       </c>
       <c r="E14" t="n">
-        <v>232343237</v>
+        <v>230755325</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>444022</v>
+        <v>465065</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>496694658</v>
+        <v>494102238</v>
       </c>
       <c r="E15" t="n">
-        <v>496694658</v>
+        <v>494102238</v>
       </c>
       <c r="F15" t="n">
-        <v>8424.602598611395</v>
+        <v>20909.49431221893</v>
       </c>
       <c r="G15" t="n">
-        <v>17467.67095495364</v>
+        <v>19257.04357839299</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>74517029</v>
+        <v>77411763</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4562076</v>
+        <v>4544508</v>
       </c>
       <c r="E16" t="n">
-        <v>4562076</v>
+        <v>4544508</v>
       </c>
       <c r="F16" t="n">
-        <v>356.2069479495788</v>
+        <v>281.5241323701504</v>
       </c>
       <c r="G16" t="n">
-        <v>1266.872366786341</v>
+        <v>1222.356527863877</v>
       </c>
       <c r="H16" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="I16" t="n">
-        <v>2251453</v>
+        <v>2235871</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3214527</v>
+        <v>3178228</v>
       </c>
       <c r="E17" t="n">
-        <v>3214527</v>
+        <v>3178228</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>654247</v>
+        <v>657784</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167350033</v>
+        <v>167311285</v>
       </c>
       <c r="E18" t="n">
-        <v>207186310</v>
+        <v>207138338</v>
       </c>
       <c r="F18" t="n">
-        <v>4457.790036200687</v>
+        <v>9344.823211496792</v>
       </c>
       <c r="G18" t="n">
-        <v>13123.22795471426</v>
+        <v>9331.022187338662</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>550570</v>
+        <v>220549</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6963407</v>
+        <v>6962510</v>
       </c>
       <c r="E19" t="n">
-        <v>9590390</v>
+        <v>9589155</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>414591</v>
+        <v>410726</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>887884</v>
+        <v>888559</v>
       </c>
       <c r="E20" t="n">
-        <v>6215185</v>
+        <v>6219912</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>222943</v>
+        <v>204185</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108427374</v>
+        <v>108613892</v>
       </c>
       <c r="E21" t="n">
-        <v>421451347</v>
+        <v>422160709</v>
       </c>
       <c r="F21" t="n">
-        <v>772.5273182405092</v>
+        <v>5248.30170867769</v>
       </c>
       <c r="G21" t="n">
-        <v>2848.439876630801</v>
+        <v>9898.258262359868</v>
       </c>
       <c r="H21" t="n">
-        <v>0.71</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>12371552</v>
+        <v>12409068</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1720266</v>
+        <v>1720346</v>
       </c>
       <c r="E22" t="n">
-        <v>12390933</v>
+        <v>12391507</v>
       </c>
       <c r="F22" t="n">
-        <v>3644.370448425796</v>
+        <v>4925.223518223735</v>
       </c>
       <c r="G22" t="n">
-        <v>5912.207286250663</v>
+        <v>6029.077017016891</v>
       </c>
       <c r="H22" t="n">
-        <v>0.85</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>54134</v>
+        <v>54254</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137384780</v>
+        <v>137269253</v>
       </c>
       <c r="E23" t="n">
-        <v>137384780</v>
+        <v>137269253</v>
       </c>
       <c r="F23" t="n">
-        <v>899165.6677855777</v>
+        <v>1050529.790329372</v>
       </c>
       <c r="G23" t="n">
-        <v>793670.1239715026</v>
+        <v>1298936.99804459</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>95097931</v>
+        <v>91656009</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63501328</v>
+        <v>63121878</v>
       </c>
       <c r="E24" t="n">
-        <v>325647834</v>
+        <v>323701936</v>
       </c>
       <c r="F24" t="n">
-        <v>57298.23172685255</v>
+        <v>69456.93191535614</v>
       </c>
       <c r="G24" t="n">
-        <v>90212.55572770482</v>
+        <v>131597.8029012638</v>
       </c>
       <c r="H24" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>27325872</v>
+        <v>26670787</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>249649031</v>
+        <v>248612857</v>
       </c>
       <c r="E25" t="n">
-        <v>249649031</v>
+        <v>248612857</v>
       </c>
       <c r="F25" t="n">
-        <v>372899.0953286417</v>
+        <v>278812.8018934038</v>
       </c>
       <c r="G25" t="n">
-        <v>351202.9006589243</v>
+        <v>435492.0350156301</v>
       </c>
       <c r="H25" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>26088198</v>
+        <v>26299202</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1109232</v>
+        <v>1112133</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>133528</v>
+        <v>131107</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2187543</v>
+        <v>2116410</v>
       </c>
       <c r="E27" t="n">
-        <v>2452832</v>
+        <v>2357538</v>
       </c>
       <c r="F27" t="n">
-        <v>200.1400010068564</v>
+        <v>16.18455477702621</v>
       </c>
       <c r="G27" t="n">
-        <v>483.801893780499</v>
+        <v>1152.525080582612</v>
       </c>
       <c r="H27" t="n">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="I27" t="n">
-        <v>445876</v>
+        <v>445262</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3756196</v>
+        <v>3742013</v>
       </c>
       <c r="E28" t="n">
-        <v>3757108</v>
+        <v>3742865</v>
       </c>
       <c r="F28" t="n">
-        <v>899.6768822655345</v>
+        <v>962.7997698353242</v>
       </c>
       <c r="G28" t="n">
-        <v>2894.229625028227</v>
+        <v>3384.860903543904</v>
       </c>
       <c r="H28" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I28" t="n">
-        <v>246764</v>
+        <v>247622</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6818180</v>
+        <v>6777312</v>
       </c>
       <c r="E29" t="n">
-        <v>16560835</v>
+        <v>16461568</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>434551</v>
+        <v>432220</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97124835</v>
+        <v>96615590</v>
       </c>
       <c r="E30" t="n">
-        <v>121103284</v>
+        <v>120468315</v>
       </c>
       <c r="F30" t="n">
-        <v>99198.87222515456</v>
+        <v>111760.9898668004</v>
       </c>
       <c r="G30" t="n">
-        <v>85399.88352992729</v>
+        <v>108723.1909604003</v>
       </c>
       <c r="H30" t="n">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12706723</v>
+        <v>12641850</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1115977</v>
+        <v>1109037</v>
       </c>
       <c r="E31" t="n">
-        <v>12128021</v>
+        <v>12052597</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12918.59</v>
+        <v>12879.91</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80837850</v>
+        <v>77897462</v>
       </c>
       <c r="E32" t="n">
-        <v>226165333</v>
+        <v>217976971</v>
       </c>
       <c r="F32" t="n">
-        <v>51002.90433391433</v>
+        <v>62228.68643038259</v>
       </c>
       <c r="G32" t="n">
-        <v>53212.26868472637</v>
+        <v>91312.57131039353</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>54709160</v>
+        <v>54951563</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4067269</v>
+        <v>4069828</v>
       </c>
       <c r="E33" t="n">
-        <v>8020997</v>
+        <v>8026042</v>
       </c>
       <c r="F33" t="n">
-        <v>8060.510371879859</v>
+        <v>7669.698223283887</v>
       </c>
       <c r="G33" t="n">
-        <v>6170.101488082988</v>
+        <v>10816.75772889074</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.59</v>
       </c>
       <c r="I33" t="n">
-        <v>1674867</v>
+        <v>1686083</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36386133</v>
+        <v>36347344</v>
       </c>
       <c r="F34" t="n">
-        <v>243.7535774187757</v>
+        <v>243.93400831393</v>
       </c>
       <c r="G34" t="n">
-        <v>433.8856922940951</v>
+        <v>434.1277394512727</v>
       </c>
       <c r="H34" t="n">
         <v>0.63</v>
       </c>
       <c r="I34" t="n">
-        <v>37491</v>
+        <v>35663</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17217944</v>
+        <v>17150629</v>
       </c>
       <c r="E35" t="n">
-        <v>18147309</v>
+        <v>18076361</v>
       </c>
       <c r="F35" t="n">
-        <v>3504.854263662902</v>
+        <v>3485.284434931391</v>
       </c>
       <c r="G35" t="n">
-        <v>2559.303014687815</v>
+        <v>2559.539065016859</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>50681</v>
+        <v>51296</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23037746</v>
+        <v>23066946</v>
       </c>
       <c r="F36" t="n">
-        <v>5181.821333006278</v>
+        <v>5168.970507972384</v>
       </c>
       <c r="G36" t="n">
-        <v>5574.085295767209</v>
+        <v>5591.553639868076</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="I36" t="n">
-        <v>128477</v>
+        <v>128747</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>83891595</v>
+        <v>87800933</v>
       </c>
       <c r="E37" t="n">
-        <v>174907237</v>
+        <v>183057894</v>
       </c>
       <c r="F37" t="n">
-        <v>58626.41947529436</v>
+        <v>71390.85615490034</v>
       </c>
       <c r="G37" t="n">
-        <v>33575.89270210372</v>
+        <v>43881.96304022171</v>
       </c>
       <c r="H37" t="n">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>71703615</v>
+        <v>76629865</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>271650745</v>
+        <v>274977960</v>
       </c>
       <c r="E38" t="n">
-        <v>271650745</v>
+        <v>274977960</v>
       </c>
       <c r="F38" t="n">
-        <v>27755.51495600631</v>
+        <v>28411.42140134268</v>
       </c>
       <c r="G38" t="n">
-        <v>23174.3497809721</v>
+        <v>35167.97189693745</v>
       </c>
       <c r="H38" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I38" t="n">
-        <v>12172358</v>
+        <v>10999335</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195830886</v>
+        <v>194815792</v>
       </c>
       <c r="E39" t="n">
-        <v>680334196</v>
+        <v>676807667</v>
       </c>
       <c r="F39" t="n">
-        <v>164188.2469488934</v>
+        <v>113152.3932255557</v>
       </c>
       <c r="G39" t="n">
-        <v>211690.5610709513</v>
+        <v>202719.8267491497</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>41181059</v>
+        <v>41325525</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3337991</v>
+        <v>3283135</v>
       </c>
       <c r="E40" t="n">
-        <v>3337991</v>
+        <v>3283135</v>
       </c>
       <c r="F40" t="n">
-        <v>703.1254410647533</v>
+        <v>1813.177366789426</v>
       </c>
       <c r="G40" t="n">
-        <v>2010.269315544598</v>
+        <v>1411.989864807807</v>
       </c>
       <c r="H40" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="I40" t="n">
-        <v>2212098</v>
+        <v>2003924</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>108823183</v>
+        <v>108733815</v>
       </c>
       <c r="E41" t="n">
-        <v>461555908</v>
+        <v>461128674</v>
       </c>
       <c r="F41" t="n">
-        <v>5484.426700304213</v>
+        <v>5754.118643256823</v>
       </c>
       <c r="G41" t="n">
-        <v>6425.796753386097</v>
+        <v>6626.239548544494</v>
       </c>
       <c r="H41" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I41" t="n">
-        <v>15038941</v>
+        <v>15086241</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>546683</v>
+        <v>551261</v>
       </c>
       <c r="E42" t="n">
-        <v>6630733</v>
+        <v>6686259</v>
       </c>
       <c r="F42" t="n">
-        <v>349.1971441733929</v>
+        <v>156.9074812431438</v>
       </c>
       <c r="G42" t="n">
-        <v>465.4771166202131</v>
+        <v>630.1308136930112</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9</v>
+        <v>1.96</v>
       </c>
       <c r="I42" t="n">
-        <v>2905091</v>
+        <v>2933090</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1403117660</v>
+        <v>1457712127</v>
       </c>
       <c r="E43" t="n">
-        <v>6728236532</v>
+        <v>6990028181</v>
       </c>
       <c r="F43" t="n">
-        <v>6742.711990875629</v>
+        <v>43510.12489692814</v>
       </c>
       <c r="G43" t="n">
-        <v>17268.3199586466</v>
+        <v>46823.95649500097</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>500299564</v>
+        <v>519782385</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5915499294</v>
+        <v>5915534507</v>
       </c>
       <c r="E44" t="n">
-        <v>5915499294</v>
+        <v>5915534507</v>
       </c>
       <c r="F44" t="n">
-        <v>543430.6647153118</v>
+        <v>705818.4249816017</v>
       </c>
       <c r="G44" t="n">
-        <v>560542.0380424545</v>
+        <v>443005.0511381613</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>396503481</v>
+        <v>393154619</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>258555613</v>
+        <v>258346014</v>
       </c>
       <c r="E45" t="n">
-        <v>1116069560</v>
+        <v>1115164813</v>
       </c>
       <c r="F45" t="n">
-        <v>93360.72319045673</v>
+        <v>110267.2397591344</v>
       </c>
       <c r="G45" t="n">
-        <v>105895.8016641814</v>
+        <v>85122.551078131</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>142673730</v>
+        <v>142519851</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112325056</v>
+        <v>112159049</v>
       </c>
       <c r="E46" t="n">
-        <v>112325056</v>
+        <v>112159049</v>
       </c>
       <c r="F46" t="n">
-        <v>28053.69818602006</v>
+        <v>32451.5416099025</v>
       </c>
       <c r="G46" t="n">
-        <v>38513.76458378064</v>
+        <v>34875.84695815745</v>
       </c>
       <c r="H46" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="I46" t="n">
-        <v>7093131</v>
+        <v>7063484</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2035621909</v>
+        <v>2046650936</v>
       </c>
       <c r="E47" t="n">
-        <v>2035621909</v>
+        <v>2046650936</v>
       </c>
       <c r="F47" t="n">
-        <v>227043.5041600656</v>
+        <v>226954.4606570558</v>
       </c>
       <c r="G47" t="n">
-        <v>200452.3754275865</v>
+        <v>200494.4669124696</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>9133321269</v>
+        <v>9234052795</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10156740</v>
+        <v>10203597</v>
       </c>
       <c r="F48" t="n">
-        <v>6258.584849768752</v>
+        <v>6325.147306349004</v>
       </c>
       <c r="G48" t="n">
-        <v>6032.447335169691</v>
+        <v>6324.841041940301</v>
       </c>
       <c r="H48" t="n">
         <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>183611</v>
+        <v>180046</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4143783</v>
+        <v>4164700</v>
       </c>
       <c r="E49" t="n">
-        <v>5440247</v>
+        <v>5467708</v>
       </c>
       <c r="F49" t="n">
-        <v>6074.717909714956</v>
+        <v>6054.095239075135</v>
       </c>
       <c r="G49" t="n">
-        <v>3254.250611667265</v>
+        <v>3484.57776082311</v>
       </c>
       <c r="H49" t="n">
         <v>0.14</v>
       </c>
       <c r="I49" t="n">
-        <v>571869</v>
+        <v>574862</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12613314</v>
+        <v>12630146</v>
       </c>
       <c r="E50" t="n">
-        <v>18547640</v>
+        <v>18572392</v>
       </c>
       <c r="F50" t="n">
-        <v>6787.272782514958</v>
+        <v>7166.840134124978</v>
       </c>
       <c r="G50" t="n">
-        <v>11824.77977695064</v>
+        <v>6841.884999484774</v>
       </c>
       <c r="H50" t="n">
         <v>0.22</v>
       </c>
       <c r="I50" t="n">
-        <v>6855214</v>
+        <v>6861497</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21756876</v>
+        <v>21834103</v>
       </c>
       <c r="E51" t="n">
-        <v>28223645</v>
+        <v>28323826</v>
       </c>
       <c r="F51" t="n">
-        <v>10441.45092791908</v>
+        <v>11506.1769635089</v>
       </c>
       <c r="G51" t="n">
-        <v>15614.8136683578</v>
+        <v>12563.564631798</v>
       </c>
       <c r="H51" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>225308</v>
+        <v>233437</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13747352</v>
+        <v>14087949</v>
       </c>
       <c r="E52" t="n">
-        <v>13747352</v>
+        <v>14087949</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5570614</v>
+        <v>5692593</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97909719</v>
+        <v>97908316</v>
       </c>
       <c r="E53" t="n">
-        <v>121110818</v>
+        <v>121109082</v>
       </c>
       <c r="F53" t="n">
-        <v>753.8210578340813</v>
+        <v>1044.369166058671</v>
       </c>
       <c r="G53" t="n">
-        <v>3685.160665399345</v>
+        <v>1401.634765851151</v>
       </c>
       <c r="H53" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
       </c>
       <c r="I53" t="n">
-        <v>1074781</v>
+        <v>1043392</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5030286</v>
+        <v>4956382</v>
       </c>
       <c r="E54" t="n">
-        <v>7038099</v>
+        <v>6934697</v>
       </c>
       <c r="F54" t="n">
-        <v>1.082697878269091</v>
+        <v>1.076915511079875</v>
       </c>
       <c r="G54" t="n">
-        <v>102.0493766088408</v>
+        <v>289.7738815498461</v>
       </c>
       <c r="H54" t="n">
-        <v>2.11</v>
+        <v>2.57</v>
       </c>
       <c r="I54" t="n">
-        <v>69053</v>
+        <v>66184</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13937032</v>
+        <v>14045645</v>
       </c>
       <c r="E55" t="n">
-        <v>67499271</v>
+        <v>68025298</v>
       </c>
       <c r="F55" t="n">
-        <v>5734.347193235061</v>
+        <v>8703.200694891535</v>
       </c>
       <c r="G55" t="n">
-        <v>6935.561280467975</v>
+        <v>8556.339839106602</v>
       </c>
       <c r="H55" t="n">
-        <v>0.92</v>
+        <v>0.22</v>
       </c>
       <c r="I55" t="n">
-        <v>5619514</v>
+        <v>5655944</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56138</v>
+        <v>56126</v>
       </c>
       <c r="E56" t="n">
-        <v>134463</v>
+        <v>134434</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16356.43</v>
+        <v>16361.12</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1844541893</v>
+        <v>1842334612</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30864091</v>
+        <v>31281325</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11660659</v>
+        <v>11898503</v>
       </c>
       <c r="E58" t="n">
-        <v>16906272</v>
+        <v>17251113</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2025143</v>
+        <v>1363529</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>118970507</v>
+        <v>121630743</v>
       </c>
       <c r="E59" t="n">
-        <v>316393728</v>
+        <v>323468439</v>
       </c>
       <c r="F59" t="n">
-        <v>7563.598385137817</v>
+        <v>7608.729208292666</v>
       </c>
       <c r="G59" t="n">
-        <v>7199.133900225088</v>
+        <v>7251.45703553266</v>
       </c>
       <c r="H59" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="I59" t="n">
-        <v>713763</v>
+        <v>728018</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29967479</v>
+        <v>29885184</v>
       </c>
       <c r="E60" t="n">
-        <v>93309114</v>
+        <v>93052874</v>
       </c>
       <c r="F60" t="n">
-        <v>1737.750303430459</v>
+        <v>2595.215220888711</v>
       </c>
       <c r="G60" t="n">
-        <v>3628.254498037979</v>
+        <v>5902.616152105348</v>
       </c>
       <c r="H60" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="I60" t="n">
-        <v>10603051</v>
+        <v>10648692</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1813402</v>
+        <v>1823947</v>
       </c>
       <c r="E61" t="n">
-        <v>13003728</v>
+        <v>13079338</v>
       </c>
       <c r="F61" t="n">
-        <v>5064.731920482449</v>
+        <v>1078.439181957336</v>
       </c>
       <c r="G61" t="n">
-        <v>159.0895993150946</v>
+        <v>5062.554926115254</v>
       </c>
       <c r="H61" t="n">
-        <v>0.61</v>
+        <v>1.59</v>
       </c>
       <c r="I61" t="n">
-        <v>2098923</v>
+        <v>2069988</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>192912913</v>
+        <v>192820270</v>
       </c>
       <c r="E62" t="n">
-        <v>1092391446</v>
+        <v>1091866847</v>
       </c>
       <c r="F62" t="n">
-        <v>562233.6632637884</v>
+        <v>507688.2803002535</v>
       </c>
       <c r="G62" t="n">
-        <v>886829.140094646</v>
+        <v>738467.6907375788</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>86519247</v>
+        <v>86558627</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>487319</v>
+        <v>495621</v>
       </c>
       <c r="E63" t="n">
-        <v>1640249</v>
+        <v>1668190</v>
       </c>
       <c r="F63" t="n">
-        <v>4655.190958983621</v>
+        <v>4481.233136041998</v>
       </c>
       <c r="G63" t="n">
-        <v>717.5381978019385</v>
+        <v>539.9593068276284</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>640002</v>
+        <v>641973</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343686</v>
+        <v>343618</v>
       </c>
       <c r="E64" t="n">
-        <v>343686</v>
+        <v>343618</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2400.89</v>
+        <v>2398.49</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>123707878</v>
+        <v>122841734</v>
       </c>
       <c r="E65" t="n">
-        <v>916354651</v>
+        <v>909938772</v>
       </c>
       <c r="F65" t="n">
-        <v>28939.8076453732</v>
+        <v>31760.45185473823</v>
       </c>
       <c r="G65" t="n">
-        <v>36363.95442720356</v>
+        <v>40491.85347773702</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>35779404</v>
+        <v>35775879</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8565041</v>
+        <v>8692374</v>
       </c>
       <c r="E66" t="n">
-        <v>11474298</v>
+        <v>11644883</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>81224</v>
+        <v>84423</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>35116024</v>
+        <v>34922815</v>
       </c>
       <c r="E67" t="n">
-        <v>35116024</v>
+        <v>34922815</v>
       </c>
       <c r="F67" t="n">
-        <v>7085.582163423697</v>
+        <v>7034.404616275234</v>
       </c>
       <c r="G67" t="n">
-        <v>5203.983903983655</v>
+        <v>5512.967753671986</v>
       </c>
       <c r="H67" t="n">
         <v>0.42</v>
       </c>
       <c r="I67" t="n">
-        <v>982301</v>
+        <v>992262</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1531662</v>
+        <v>1549238</v>
       </c>
       <c r="E68" t="n">
-        <v>11895062</v>
+        <v>12031559</v>
       </c>
       <c r="F68" t="n">
-        <v>19031.8944196405</v>
+        <v>18510.6438159717</v>
       </c>
       <c r="G68" t="n">
-        <v>14501.64679152186</v>
+        <v>14774.98719690691</v>
       </c>
       <c r="H68" t="n">
-        <v>0.79</v>
+        <v>1.18</v>
       </c>
       <c r="I68" t="n">
-        <v>511280</v>
+        <v>511138</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>320052307</v>
+        <v>320542421</v>
       </c>
       <c r="E69" t="n">
-        <v>2879389010</v>
+        <v>2883798383</v>
       </c>
       <c r="F69" t="n">
-        <v>1678210.824962756</v>
+        <v>1475381.920243893</v>
       </c>
       <c r="G69" t="n">
-        <v>1349239.906155325</v>
+        <v>1699734.130428312</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>69205699</v>
+        <v>70476767</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>250050</v>
+        <v>251463</v>
       </c>
       <c r="E70" t="n">
-        <v>2206879</v>
+        <v>2219347</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>75059</v>
+        <v>76147</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1525191</v>
+        <v>1524351</v>
       </c>
       <c r="E71" t="n">
-        <v>12709925</v>
+        <v>12702924</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30846</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9423217</v>
+        <v>9406099</v>
       </c>
       <c r="E72" t="n">
-        <v>43677152</v>
+        <v>43597810</v>
       </c>
       <c r="F72" t="n">
-        <v>10946.24801655817</v>
+        <v>9792.489104275804</v>
       </c>
       <c r="G72" t="n">
-        <v>3302.94889991366</v>
+        <v>3314.033339305821</v>
       </c>
       <c r="H72" t="n">
-        <v>1.02</v>
+        <v>0.82</v>
       </c>
       <c r="I72" t="n">
-        <v>109972</v>
+        <v>111596</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47065518</v>
+        <v>46917909</v>
       </c>
       <c r="E73" t="n">
-        <v>272489904</v>
+        <v>271635307</v>
       </c>
       <c r="F73" t="n">
-        <v>69997.6547207492</v>
+        <v>103795.634790244</v>
       </c>
       <c r="G73" t="n">
-        <v>146236.9612794649</v>
+        <v>191559.673953981</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>49006799</v>
+        <v>49296090</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38776561</v>
+        <v>38731501</v>
       </c>
       <c r="E74" t="n">
-        <v>53555953</v>
+        <v>53493718</v>
       </c>
       <c r="F74" t="n">
-        <v>4647.104439553454</v>
+        <v>4648.053738147589</v>
       </c>
       <c r="G74" t="n">
-        <v>4236.641844895722</v>
+        <v>4250.162481940833</v>
       </c>
       <c r="H74" t="n">
-        <v>0.31</v>
+        <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>302961</v>
+        <v>316614</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>100180</v>
+        <v>99299</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3775.01</v>
+        <v>3821.64</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13350071</v>
+        <v>13376796</v>
       </c>
       <c r="E76" t="n">
-        <v>13395503</v>
+        <v>13422319</v>
       </c>
       <c r="F76" t="n">
-        <v>1230.356065067059</v>
+        <v>2110.037763249765</v>
       </c>
       <c r="G76" t="n">
-        <v>7402.628552036669</v>
+        <v>6932.271668356009</v>
       </c>
       <c r="H76" t="n">
-        <v>0.66</v>
+        <v>1.32</v>
       </c>
       <c r="I76" t="n">
-        <v>7081527</v>
+        <v>7108899</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42123994</v>
+        <v>41934643</v>
       </c>
       <c r="E77" t="n">
-        <v>71516742</v>
+        <v>71195268</v>
       </c>
       <c r="F77" t="n">
-        <v>6181.90344541415</v>
+        <v>6972.928452693498</v>
       </c>
       <c r="G77" t="n">
-        <v>9536.755192763876</v>
+        <v>9967.454895918636</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I77" t="n">
-        <v>1153640</v>
+        <v>1155217</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19784699</v>
+        <v>19554026</v>
       </c>
       <c r="E78" t="n">
-        <v>59317623</v>
+        <v>58626029</v>
       </c>
       <c r="F78" t="n">
-        <v>44926.5801941027</v>
+        <v>47932.65925999968</v>
       </c>
       <c r="G78" t="n">
-        <v>26240.87263412712</v>
+        <v>33901.1436648223</v>
       </c>
       <c r="H78" t="n">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>4428902</v>
+        <v>4388349</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>99976824</v>
+        <v>97757257</v>
       </c>
       <c r="E79" t="n">
-        <v>106284400</v>
+        <v>103924799</v>
       </c>
       <c r="F79" t="n">
-        <v>1882.331274875769</v>
+        <v>2522.685092111453</v>
       </c>
       <c r="G79" t="n">
-        <v>2018.559563719408</v>
+        <v>4805.535836882624</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="I79" t="n">
-        <v>1820101</v>
+        <v>535936</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10374280</v>
+        <v>10400298</v>
       </c>
       <c r="E80" t="n">
-        <v>45055972</v>
+        <v>45144237</v>
       </c>
       <c r="F80" t="n">
-        <v>5895.799317182158</v>
+        <v>6129.740792744129</v>
       </c>
       <c r="G80" t="n">
-        <v>5789.078806365656</v>
+        <v>5816.859116310717</v>
       </c>
       <c r="H80" t="n">
         <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>116385</v>
+        <v>115040</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15187935</v>
+        <v>15333570</v>
       </c>
       <c r="E81" t="n">
-        <v>93091848</v>
+        <v>93984494</v>
       </c>
       <c r="F81" t="n">
-        <v>378.2372763747861</v>
+        <v>2986.277930137992</v>
       </c>
       <c r="G81" t="n">
-        <v>862.430015763174</v>
+        <v>3477.112394419902</v>
       </c>
       <c r="H81" t="n">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="I81" t="n">
-        <v>12203475</v>
+        <v>12054046</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1415614</v>
+        <v>1418085</v>
       </c>
       <c r="E82" t="n">
-        <v>1455434</v>
+        <v>1457975</v>
       </c>
       <c r="F82" t="n">
-        <v>14.51765948248454</v>
+        <v>498.9381199364108</v>
       </c>
       <c r="G82" t="n">
-        <v>2883.101500799939</v>
+        <v>2922.785106941536</v>
       </c>
       <c r="H82" t="n">
         <v>0.05</v>
       </c>
       <c r="I82" t="n">
-        <v>138529</v>
+        <v>143199</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49497602</v>
+        <v>49812293</v>
       </c>
       <c r="E83" t="n">
-        <v>213230256</v>
+        <v>214585909</v>
       </c>
       <c r="F83" t="n">
-        <v>2997.765859862641</v>
+        <v>3100.359025446505</v>
       </c>
       <c r="G83" t="n">
-        <v>484.073313332659</v>
+        <v>405.9180428920008</v>
       </c>
       <c r="H83" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I83" t="n">
-        <v>13068201</v>
+        <v>13192887</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2277969</v>
+        <v>2250149</v>
       </c>
       <c r="E84" t="n">
-        <v>8268573</v>
+        <v>8167557</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>223848</v>
+        <v>224450</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8782190</v>
+        <v>8763089</v>
       </c>
       <c r="E85" t="n">
-        <v>19477648</v>
+        <v>19435285</v>
       </c>
       <c r="F85" t="n">
-        <v>6405.910990797834</v>
+        <v>5734.403393950181</v>
       </c>
       <c r="G85" t="n">
-        <v>6834.323907828842</v>
+        <v>7560.728367634364</v>
       </c>
       <c r="H85" t="n">
         <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>324446</v>
+        <v>233222</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2439943</v>
+        <v>2441655</v>
       </c>
       <c r="E86" t="n">
-        <v>18359944</v>
+        <v>18372827</v>
       </c>
       <c r="F86" t="n">
-        <v>5258.891698451471</v>
+        <v>5325.826927339033</v>
       </c>
       <c r="G86" t="n">
-        <v>11948.82316662395</v>
+        <v>11968.23884154294</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>161211</v>
+        <v>159435</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19455012</v>
+        <v>19653651</v>
       </c>
       <c r="E87" t="n">
-        <v>77820046</v>
+        <v>78614605</v>
       </c>
       <c r="F87" t="n">
-        <v>2451.467381745575</v>
+        <v>644.286288939388</v>
       </c>
       <c r="G87" t="n">
-        <v>621.561248470118</v>
+        <v>1745.973768901242</v>
       </c>
       <c r="H87" t="n">
-        <v>2.41</v>
+        <v>2.05</v>
       </c>
       <c r="I87" t="n">
-        <v>3620096</v>
+        <v>3789849</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4460963</v>
+        <v>4427578</v>
       </c>
       <c r="E88" t="n">
-        <v>4460963</v>
+        <v>4427578</v>
       </c>
       <c r="F88" t="n">
-        <v>403.0591816770516</v>
+        <v>1853.720585742369</v>
       </c>
       <c r="G88" t="n">
-        <v>1135.646858921477</v>
+        <v>2107.762254595889</v>
       </c>
       <c r="H88" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="I88" t="n">
-        <v>2852858</v>
+        <v>2835704</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12601631</v>
+        <v>12719317</v>
       </c>
       <c r="E89" t="n">
-        <v>39857315</v>
+        <v>40229242</v>
       </c>
       <c r="F89" t="n">
-        <v>13290.9214891289</v>
+        <v>19509.03238712649</v>
       </c>
       <c r="G89" t="n">
-        <v>13648.18884129451</v>
+        <v>6771.648258362269</v>
       </c>
       <c r="H89" t="n">
         <v>0.47</v>
       </c>
       <c r="I89" t="n">
-        <v>1005242</v>
+        <v>1034662</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24827</v>
+        <v>24904</v>
       </c>
       <c r="E90" t="n">
-        <v>195258</v>
+        <v>195866</v>
       </c>
       <c r="F90" t="n">
-        <v>197.9419497382839</v>
+        <v>197.9709102141142</v>
       </c>
       <c r="G90" t="n">
-        <v>669.0407760258247</v>
+        <v>669.1895205297224</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>40834</v>
+        <v>40898</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7589451</v>
+        <v>7670354</v>
       </c>
       <c r="E91" t="n">
-        <v>7589451</v>
+        <v>7670354</v>
       </c>
       <c r="F91" t="n">
-        <v>1026.344578555499</v>
+        <v>1461.566174136917</v>
       </c>
       <c r="G91" t="n">
-        <v>3531.873198667969</v>
+        <v>4795.17895264413</v>
       </c>
       <c r="H91" t="n">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="I91" t="n">
-        <v>4066314</v>
+        <v>4100432</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9159771</v>
+        <v>9085841</v>
       </c>
       <c r="E92" t="n">
-        <v>9159771</v>
+        <v>9085841</v>
       </c>
       <c r="F92" t="n">
-        <v>4744.937012281348</v>
+        <v>2254.496984040311</v>
       </c>
       <c r="G92" t="n">
-        <v>2818.005428455736</v>
+        <v>4602.347298623224</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5</v>
+        <v>1.03</v>
       </c>
       <c r="I92" t="n">
-        <v>1905916</v>
+        <v>1857795</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30802806</v>
+        <v>30926637</v>
       </c>
       <c r="E93" t="n">
-        <v>77669888</v>
+        <v>77982131</v>
       </c>
       <c r="F93" t="n">
-        <v>127.4856928255917</v>
+        <v>80.1750686588322</v>
       </c>
       <c r="G93" t="n">
-        <v>8446.656151880985</v>
+        <v>6650.792848079859</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="I93" t="n">
-        <v>6168714</v>
+        <v>6197345</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>299750472</v>
+        <v>298401708</v>
       </c>
       <c r="E94" t="n">
-        <v>304439938</v>
+        <v>303068076</v>
       </c>
       <c r="F94" t="n">
-        <v>47611.64435398652</v>
+        <v>46934.50370222367</v>
       </c>
       <c r="G94" t="n">
-        <v>43303.71703579638</v>
+        <v>46778.32134070424</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="I94" t="n">
-        <v>25250004</v>
+        <v>25283735</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3638.291751139365</v>
+        <v>999.7118694855272</v>
       </c>
       <c r="G95" t="n">
-        <v>6414.300142548103</v>
+        <v>6494.455982125531</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>203947</v>
+        <v>196560</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>76177260</v>
+        <v>76581994</v>
       </c>
       <c r="E96" t="n">
-        <v>76177260</v>
+        <v>76581994</v>
       </c>
       <c r="F96" t="n">
-        <v>6027.492504344865</v>
+        <v>6920.452445538855</v>
       </c>
       <c r="G96" t="n">
-        <v>6138.491747735634</v>
+        <v>4817.357417885023</v>
       </c>
       <c r="H96" t="n">
-        <v>0.42</v>
+        <v>0.73</v>
       </c>
       <c r="I96" t="n">
-        <v>4412685</v>
+        <v>4649153</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>289572255</v>
+        <v>288226375</v>
       </c>
       <c r="E97" t="n">
-        <v>289572255</v>
+        <v>288226375</v>
       </c>
       <c r="F97" t="n">
-        <v>283969.6558123353</v>
+        <v>273509.5358453729</v>
       </c>
       <c r="G97" t="n">
-        <v>351897.6348261986</v>
+        <v>449369.4451900687</v>
       </c>
       <c r="H97" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I97" t="n">
-        <v>93889776</v>
+        <v>93122111</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4585942</v>
+        <v>4541627</v>
       </c>
       <c r="E98" t="n">
-        <v>31335421</v>
+        <v>31032618</v>
       </c>
       <c r="F98" t="n">
-        <v>24365.40375394661</v>
+        <v>100.9577334706286</v>
       </c>
       <c r="G98" t="n">
-        <v>25884.34355582206</v>
+        <v>1468.080311046537</v>
       </c>
       <c r="H98" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>3008224</v>
+        <v>3007497</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84350209</v>
+        <v>83856684</v>
       </c>
       <c r="E99" t="n">
-        <v>486062286</v>
+        <v>483218382</v>
       </c>
       <c r="F99" t="n">
-        <v>146421.9415439961</v>
+        <v>146910.6581177037</v>
       </c>
       <c r="G99" t="n">
-        <v>150232.2241347225</v>
+        <v>152316.3491526286</v>
       </c>
       <c r="H99" t="n">
         <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21230623</v>
+        <v>21266664</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>105191398</v>
+        <v>105263141</v>
       </c>
       <c r="E100" t="n">
-        <v>258811936</v>
+        <v>258988453</v>
       </c>
       <c r="F100" t="n">
-        <v>32361.46872657254</v>
+        <v>38727.48661100292</v>
       </c>
       <c r="G100" t="n">
-        <v>30438.00261821941</v>
+        <v>35980.05394358904</v>
       </c>
       <c r="H100" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2810320</v>
+        <v>2822846</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>233308032</v>
+        <v>235365468</v>
       </c>
       <c r="E101" t="n">
-        <v>233310350</v>
+        <v>235367806</v>
       </c>
       <c r="F101" t="n">
-        <v>30577.38162920477</v>
+        <v>36578.12568751125</v>
       </c>
       <c r="G101" t="n">
-        <v>19723.47569632636</v>
+        <v>29358.56364730517</v>
       </c>
       <c r="H101" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>1992108</v>
+        <v>2950071</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29180678</v>
+        <v>29369536</v>
       </c>
       <c r="E102" t="n">
-        <v>130653865</v>
+        <v>131499461</v>
       </c>
       <c r="F102" t="n">
-        <v>59224.59661577328</v>
+        <v>70434.29016895978</v>
       </c>
       <c r="G102" t="n">
-        <v>97276.77927844085</v>
+        <v>100729.376256366</v>
       </c>
       <c r="H102" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>14853759</v>
+        <v>15053413</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2883092</v>
+        <v>2890126</v>
       </c>
       <c r="E103" t="n">
-        <v>2883092</v>
+        <v>2890126</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>298226</v>
+        <v>293020</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6010114</v>
+        <v>5999116</v>
       </c>
       <c r="E104" t="n">
-        <v>15773537</v>
+        <v>15744659</v>
       </c>
       <c r="F104" t="n">
-        <v>114.1581303589611</v>
+        <v>164.9408860927684</v>
       </c>
       <c r="G104" t="n">
-        <v>507.7605973762178</v>
+        <v>140.2058912790427</v>
       </c>
       <c r="H104" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="I104" t="n">
-        <v>31358</v>
+        <v>31083</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16066353</v>
+        <v>16085580</v>
       </c>
       <c r="E105" t="n">
-        <v>74160143</v>
+        <v>74248895</v>
       </c>
       <c r="F105" t="n">
-        <v>4974.341258347445</v>
+        <v>3003.173359753101</v>
       </c>
       <c r="G105" t="n">
-        <v>1788.260929594771</v>
+        <v>2942.533879725247</v>
       </c>
       <c r="H105" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="I105" t="n">
-        <v>1229759</v>
+        <v>1235470</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48103556</v>
+        <v>48001613</v>
       </c>
       <c r="E106" t="n">
-        <v>311938759</v>
+        <v>311277685</v>
       </c>
       <c r="F106" t="n">
-        <v>109350.0468814865</v>
+        <v>108319.6005022823</v>
       </c>
       <c r="G106" t="n">
-        <v>120915.9070204697</v>
+        <v>156681.1236536674</v>
       </c>
       <c r="H106" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21833477</v>
+        <v>21950385</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2464457</v>
+        <v>2456446</v>
       </c>
       <c r="E107" t="n">
-        <v>4464828</v>
+        <v>4450315</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>108684</v>
+        <v>107803</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123904669</v>
+        <v>124116271</v>
       </c>
       <c r="E108" t="n">
-        <v>2051962792</v>
+        <v>2055467096</v>
       </c>
       <c r="F108" t="n">
-        <v>24101.11328586903</v>
+        <v>22403.17171015674</v>
       </c>
       <c r="G108" t="n">
-        <v>10810.3837882401</v>
+        <v>20711.34322373042</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>36326117</v>
+        <v>36560476</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23053341</v>
+        <v>22897073</v>
       </c>
       <c r="E109" t="n">
-        <v>137932776</v>
+        <v>136997791</v>
       </c>
       <c r="F109" t="n">
-        <v>39486.43213328282</v>
+        <v>40018.60099129265</v>
       </c>
       <c r="G109" t="n">
-        <v>37466.38070644415</v>
+        <v>36963.95718506265</v>
       </c>
       <c r="H109" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>18294288</v>
+        <v>18366155</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1043968</v>
+        <v>1039667</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>94721</v>
+        <v>95311</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2253760</v>
+        <v>2285334</v>
       </c>
       <c r="F111" t="n">
-        <v>1431.293600597834</v>
+        <v>1492.122049413965</v>
       </c>
       <c r="G111" t="n">
-        <v>138.0382311828827</v>
+        <v>166.1517199010755</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>189992</v>
+        <v>194799</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147339680</v>
+        <v>147438021</v>
       </c>
       <c r="F112" t="n">
-        <v>8554.084797167045</v>
+        <v>8555.883892174372</v>
       </c>
       <c r="G112" t="n">
-        <v>3621.096201829969</v>
+        <v>3348.468935008223</v>
       </c>
       <c r="H112" t="n">
         <v>0.47</v>
       </c>
       <c r="I112" t="n">
-        <v>69437</v>
+        <v>72556</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6260427</v>
+        <v>6307976</v>
       </c>
       <c r="E113" t="n">
-        <v>32207993</v>
+        <v>32452619</v>
       </c>
       <c r="F113" t="n">
-        <v>1054.78515667419</v>
+        <v>2055.141508371775</v>
       </c>
       <c r="G113" t="n">
-        <v>187.8823827118381</v>
+        <v>1459.853580899806</v>
       </c>
       <c r="H113" t="n">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="I113" t="n">
-        <v>962992</v>
+        <v>966098</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>33243310</v>
+        <v>31997359</v>
       </c>
       <c r="E114" t="n">
-        <v>45582390</v>
+        <v>43873973</v>
       </c>
       <c r="F114" t="n">
-        <v>4273.484455957353</v>
+        <v>4879.044952269099</v>
       </c>
       <c r="G114" t="n">
-        <v>3932.100147115912</v>
+        <v>5107.898049542901</v>
       </c>
       <c r="H114" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="I114" t="n">
-        <v>921785</v>
+        <v>1194819</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7587503</v>
+        <v>7578647</v>
       </c>
       <c r="F115" t="n">
-        <v>1715.070236969243</v>
+        <v>1898.335102057541</v>
       </c>
       <c r="G115" t="n">
-        <v>5454.016581451435</v>
+        <v>5570.302514232297</v>
       </c>
       <c r="H115" t="n">
         <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>657363</v>
+        <v>649180</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3601986</v>
+        <v>3587071</v>
       </c>
       <c r="E116" t="n">
-        <v>4825088</v>
+        <v>4805109</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>124796</v>
+        <v>124237</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32263561</v>
+        <v>32351315</v>
       </c>
       <c r="E117" t="n">
-        <v>161010040</v>
+        <v>161447978</v>
       </c>
       <c r="F117" t="n">
-        <v>74204.23226212217</v>
+        <v>85924.53575795081</v>
       </c>
       <c r="G117" t="n">
-        <v>76701.60337173381</v>
+        <v>77496.94093393888</v>
       </c>
       <c r="H117" t="n">
         <v>0.19</v>
       </c>
       <c r="I117" t="n">
-        <v>14172599</v>
+        <v>14434928</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3490327</v>
+        <v>3491551</v>
       </c>
       <c r="E118" t="n">
-        <v>5013919</v>
+        <v>5015678</v>
       </c>
       <c r="F118" t="n">
-        <v>616.3625540606545</v>
+        <v>616.4672774957149</v>
       </c>
       <c r="G118" t="n">
-        <v>412.0023650965556</v>
+        <v>379.3510513285329</v>
       </c>
       <c r="H118" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="I118" t="n">
-        <v>146954</v>
+        <v>144979</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>290821836</v>
+        <v>283050649</v>
       </c>
       <c r="E119" t="n">
-        <v>538086717</v>
+        <v>523708249</v>
       </c>
       <c r="F119" t="n">
-        <v>28515.86215423239</v>
+        <v>26556.14748716045</v>
       </c>
       <c r="G119" t="n">
-        <v>17643.29629931771</v>
+        <v>26300.95944187462</v>
       </c>
       <c r="H119" t="n">
-        <v>0.58</v>
+        <v>0.25</v>
       </c>
       <c r="I119" t="n">
-        <v>18292333</v>
+        <v>21282496</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69507184</v>
+        <v>69585528</v>
       </c>
       <c r="E120" t="n">
-        <v>662961120</v>
+        <v>663701152</v>
       </c>
       <c r="F120" t="n">
-        <v>2829.894581923015</v>
+        <v>1140.137341026326</v>
       </c>
       <c r="G120" t="n">
-        <v>1975.40149290572</v>
+        <v>1668.443795832036</v>
       </c>
       <c r="H120" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I120" t="n">
-        <v>24050881</v>
+        <v>23813697</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>35618220</v>
+        <v>36109880</v>
       </c>
       <c r="E121" t="n">
-        <v>46564687</v>
+        <v>47207257</v>
       </c>
       <c r="F121" t="n">
-        <v>6351.516247463664</v>
+        <v>170.4885542121561</v>
       </c>
       <c r="G121" t="n">
-        <v>29.46796089551672</v>
+        <v>5765.580423643891</v>
       </c>
       <c r="H121" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="I121" t="n">
-        <v>468636</v>
+        <v>421325</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9180025</v>
+        <v>9043561</v>
       </c>
       <c r="E122" t="n">
-        <v>27214537</v>
+        <v>26809984</v>
       </c>
       <c r="F122" t="n">
-        <v>222.519970553124</v>
+        <v>594.8761868793461</v>
       </c>
       <c r="G122" t="n">
-        <v>3512.372152275856</v>
+        <v>6118.035211960667</v>
       </c>
       <c r="H122" t="n">
-        <v>1.55</v>
+        <v>0.84</v>
       </c>
       <c r="I122" t="n">
-        <v>6514621</v>
+        <v>6590430</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2277173</v>
+        <v>2281049</v>
       </c>
       <c r="E123" t="n">
-        <v>7609477</v>
+        <v>7622431</v>
       </c>
       <c r="F123" t="n">
-        <v>524.0368362040448</v>
+        <v>636.3399775288934</v>
       </c>
       <c r="G123" t="n">
-        <v>988.8788488160009</v>
+        <v>1051.996802401677</v>
       </c>
       <c r="H123" t="n">
-        <v>1.42</v>
+        <v>0.65</v>
       </c>
       <c r="I123" t="n">
-        <v>892976</v>
+        <v>869770</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7361103</v>
+        <v>7364300</v>
       </c>
       <c r="E124" t="n">
-        <v>7361114</v>
+        <v>7364311</v>
       </c>
       <c r="F124" t="n">
-        <v>74.27957279084322</v>
+        <v>203.4495604831866</v>
       </c>
       <c r="G124" t="n">
-        <v>598.1616832075765</v>
+        <v>595.8060577450301</v>
       </c>
       <c r="H124" t="n">
-        <v>0.97</v>
+        <v>2.42</v>
       </c>
       <c r="I124" t="n">
-        <v>259244</v>
+        <v>259127</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5996640</v>
+        <v>5984589</v>
       </c>
       <c r="E125" t="n">
-        <v>5996640</v>
+        <v>5984589</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>513416</v>
+        <v>519989</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6169132</v>
+        <v>6136185</v>
       </c>
       <c r="E126" t="n">
-        <v>22533451</v>
+        <v>22413109</v>
       </c>
       <c r="F126" t="n">
-        <v>6462.563539087952</v>
+        <v>6622.429065794463</v>
       </c>
       <c r="G126" t="n">
-        <v>8459.156987765595</v>
+        <v>8521.385181854745</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="I126" t="n">
-        <v>534374</v>
+        <v>510727</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43372119</v>
+        <v>43347726</v>
       </c>
       <c r="E127" t="n">
-        <v>43372119</v>
+        <v>43347726</v>
       </c>
       <c r="F127" t="n">
-        <v>58134.79632315889</v>
+        <v>54211.41821502615</v>
       </c>
       <c r="G127" t="n">
-        <v>67578.63673456473</v>
+        <v>78812.62456945491</v>
       </c>
       <c r="H127" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>11974369</v>
+        <v>11705413</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141343118</v>
+        <v>141144244</v>
       </c>
       <c r="F128" t="n">
-        <v>81.4894235649995</v>
+        <v>74.64241831317001</v>
       </c>
       <c r="G128" t="n">
-        <v>1856.995313335535</v>
+        <v>2814.710027693552</v>
       </c>
       <c r="H128" t="n">
-        <v>1.81</v>
+        <v>1.4</v>
       </c>
       <c r="I128" t="n">
-        <v>1616438</v>
+        <v>1627668</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2959206</v>
+        <v>2885754</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>74649</v>
+        <v>72853</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19557397</v>
+        <v>19796005</v>
       </c>
       <c r="F130" t="n">
-        <v>309.3770855628947</v>
+        <v>662.9265849673345</v>
       </c>
       <c r="G130" t="n">
-        <v>1313.724654587443</v>
+        <v>989.169131150286</v>
       </c>
       <c r="H130" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="I130" t="n">
-        <v>2932153</v>
+        <v>2933735</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1312929</v>
+        <v>1305732</v>
       </c>
       <c r="E131" t="n">
-        <v>3973410</v>
+        <v>3950960</v>
       </c>
       <c r="F131" t="n">
-        <v>817.9833308598974</v>
+        <v>836.9006697612493</v>
       </c>
       <c r="G131" t="n">
-        <v>694.9319355049</v>
+        <v>702.0561648470127</v>
       </c>
       <c r="H131" t="n">
         <v>1.51</v>
       </c>
       <c r="I131" t="n">
-        <v>37878</v>
+        <v>46686</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>580365108</v>
+        <v>578423029</v>
       </c>
       <c r="E132" t="n">
-        <v>2247668436</v>
+        <v>2240147051</v>
       </c>
       <c r="F132" t="n">
-        <v>728133.5901555833</v>
+        <v>717010.2097089867</v>
       </c>
       <c r="G132" t="n">
-        <v>699266.2916604962</v>
+        <v>1069882.66947262</v>
       </c>
       <c r="H132" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>61737895</v>
+        <v>62380545</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3612627</v>
+        <v>3601001</v>
       </c>
       <c r="E133" t="n">
-        <v>6158213</v>
+        <v>6138396</v>
       </c>
       <c r="F133" t="n">
-        <v>4647.06236841887</v>
+        <v>5239.926266772588</v>
       </c>
       <c r="G133" t="n">
-        <v>7020.239073364576</v>
+        <v>5404.640826409187</v>
       </c>
       <c r="H133" t="n">
-        <v>0.97</v>
+        <v>0.16</v>
       </c>
       <c r="I133" t="n">
-        <v>1123949</v>
+        <v>1127446</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>108668687</v>
+        <v>109068613</v>
       </c>
       <c r="E134" t="n">
-        <v>1028789614</v>
+        <v>1032575801</v>
       </c>
       <c r="F134" t="n">
-        <v>58011.31141249467</v>
+        <v>77962.2507650653</v>
       </c>
       <c r="G134" t="n">
-        <v>79746.51935532581</v>
+        <v>87509.44974806257</v>
       </c>
       <c r="H134" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>17103272</v>
+        <v>17699539</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>949234573</v>
+        <v>950104256</v>
       </c>
       <c r="E135" t="n">
-        <v>1042736780</v>
+        <v>1043692129</v>
       </c>
       <c r="F135" t="n">
-        <v>18809.14349543733</v>
+        <v>24002.58874824243</v>
       </c>
       <c r="G135" t="n">
-        <v>14605.26412661117</v>
+        <v>14067.87568377965</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I135" t="n">
-        <v>10381527</v>
+        <v>11417981</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1064356</v>
+        <v>1066081</v>
       </c>
       <c r="E136" t="n">
-        <v>4121419</v>
+        <v>4128100</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>295808</v>
+        <v>298065</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121117275</v>
+        <v>120239099</v>
       </c>
       <c r="E137" t="n">
-        <v>464625362</v>
+        <v>461256538</v>
       </c>
       <c r="F137" t="n">
-        <v>144243.5395325915</v>
+        <v>185817.3259201128</v>
       </c>
       <c r="G137" t="n">
-        <v>185409.4245616584</v>
+        <v>241193.6328289612</v>
       </c>
       <c r="H137" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>37400155</v>
+        <v>33684430</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3071929</v>
+        <v>3083372</v>
       </c>
       <c r="E138" t="n">
-        <v>29106982</v>
+        <v>29215405</v>
       </c>
       <c r="F138" t="n">
-        <v>3771.832998993117</v>
+        <v>2753.906297305315</v>
       </c>
       <c r="G138" t="n">
-        <v>5096.98073879489</v>
+        <v>4476.850630701918</v>
       </c>
       <c r="H138" t="n">
-        <v>0.92</v>
+        <v>0.14</v>
       </c>
       <c r="I138" t="n">
-        <v>221104</v>
+        <v>222102</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>21786669</v>
+        <v>22417080</v>
       </c>
       <c r="E139" t="n">
-        <v>21786669</v>
+        <v>22417080</v>
       </c>
       <c r="F139" t="n">
-        <v>1096.008155998334</v>
+        <v>1545.296304353264</v>
       </c>
       <c r="G139" t="n">
-        <v>1586.73684848448</v>
+        <v>1275.09350549044</v>
       </c>
       <c r="H139" t="n">
-        <v>1.6</v>
+        <v>1.02</v>
       </c>
       <c r="I139" t="n">
-        <v>790232</v>
+        <v>812287</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>495913581</v>
+        <v>494781293</v>
       </c>
       <c r="E140" t="n">
-        <v>495913581</v>
+        <v>494781293</v>
       </c>
       <c r="F140" t="n">
-        <v>680105.188226354</v>
+        <v>687736.5376017704</v>
       </c>
       <c r="G140" t="n">
-        <v>764585.6706314381</v>
+        <v>788370.7572842542</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>39050728</v>
+        <v>46206798</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>37175137</v>
+        <v>38011142</v>
       </c>
       <c r="F141" t="n">
-        <v>28045.25645474933</v>
+        <v>79067.12928863689</v>
       </c>
       <c r="G141" t="n">
-        <v>73010.96737580287</v>
+        <v>83118.43845284091</v>
       </c>
       <c r="H141" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="I141" t="n">
-        <v>8163068</v>
+        <v>8400940</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>791134</v>
+        <v>820344</v>
       </c>
       <c r="E142" t="n">
-        <v>12618308</v>
+        <v>13084193</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>504.5643168356739</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>27.056366864054</v>
       </c>
       <c r="H142" t="n">
-        <v>4.21</v>
+        <v>3.32</v>
       </c>
       <c r="I142" t="n">
-        <v>335053</v>
+        <v>335639</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2530519097</v>
+        <v>2518159348</v>
       </c>
       <c r="E143" t="n">
-        <v>2686752832</v>
+        <v>2673629994</v>
       </c>
       <c r="F143" t="n">
-        <v>3217.830055292198</v>
+        <v>3289.846083196362</v>
       </c>
       <c r="G143" t="n">
-        <v>20417.60049958454</v>
+        <v>23256.07142190136</v>
       </c>
       <c r="H143" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I143" t="n">
-        <v>60135880</v>
+        <v>60008551</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1707546</v>
+        <v>1711269</v>
       </c>
       <c r="E144" t="n">
-        <v>1713573</v>
+        <v>1717309</v>
       </c>
       <c r="F144" t="n">
-        <v>5580.713679752471</v>
+        <v>1854.483080783659</v>
       </c>
       <c r="G144" t="n">
-        <v>1613.968439977027</v>
+        <v>1879.765458697725</v>
       </c>
       <c r="H144" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="I144" t="n">
-        <v>466973</v>
+        <v>465355</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>56646043</v>
+        <v>56911799</v>
       </c>
       <c r="E145" t="n">
-        <v>138948904</v>
+        <v>139600785</v>
       </c>
       <c r="F145" t="n">
-        <v>2933.452268052584</v>
+        <v>5198.377750302108</v>
       </c>
       <c r="G145" t="n">
-        <v>988.9304773863779</v>
+        <v>4022.220021083106</v>
       </c>
       <c r="H145" t="n">
         <v>1.08</v>
       </c>
       <c r="I145" t="n">
-        <v>21895749</v>
+        <v>22008884</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>750678237</v>
+        <v>737417339</v>
       </c>
       <c r="E146" t="n">
-        <v>1157612120</v>
+        <v>1137162645</v>
       </c>
       <c r="F146" t="n">
-        <v>151949.7275427871</v>
+        <v>105566.7836944824</v>
       </c>
       <c r="G146" t="n">
-        <v>143031.307128697</v>
+        <v>128699.9183559216</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>270381137</v>
+        <v>273864899</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21990722</v>
+        <v>21752812</v>
       </c>
       <c r="E147" t="n">
-        <v>21990722</v>
+        <v>21752812</v>
       </c>
       <c r="F147" t="n">
-        <v>3547.757060510936</v>
+        <v>3479.842711236764</v>
       </c>
       <c r="G147" t="n">
-        <v>8003.731072014316</v>
+        <v>7038.662400032452</v>
       </c>
       <c r="H147" t="n">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="I147" t="n">
-        <v>5936612</v>
+        <v>5905450</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3794882</v>
+        <v>3808401</v>
       </c>
       <c r="E148" t="n">
-        <v>8272311</v>
+        <v>8301781</v>
       </c>
       <c r="F148" t="n">
-        <v>6690.880574785005</v>
+        <v>6692.172183702469</v>
       </c>
       <c r="G148" t="n">
-        <v>7140.044729627356</v>
+        <v>7141.939093731916</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2068008</v>
+        <v>2087710</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9236516</v>
+        <v>9246122</v>
       </c>
       <c r="E149" t="n">
-        <v>9236516</v>
+        <v>9246122</v>
       </c>
       <c r="F149" t="n">
-        <v>76760.78552743956</v>
+        <v>76967.18913355151</v>
       </c>
       <c r="G149" t="n">
-        <v>81134.93830850908</v>
+        <v>79923.51891499036</v>
       </c>
       <c r="H149" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6464324</v>
+        <v>6469725</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>469423662</v>
+        <v>467785611</v>
       </c>
       <c r="E150" t="n">
-        <v>1634024699</v>
+        <v>1628322780</v>
       </c>
       <c r="F150" t="n">
-        <v>657811.9812323087</v>
+        <v>374180.9902904714</v>
       </c>
       <c r="G150" t="n">
-        <v>694537.831963024</v>
+        <v>497273.6053059014</v>
       </c>
       <c r="H150" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>47782429</v>
+        <v>47755083</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46041055</v>
+        <v>46046501</v>
       </c>
       <c r="E151" t="n">
-        <v>113336385</v>
+        <v>113349799</v>
       </c>
       <c r="F151" t="n">
-        <v>5685.423381868677</v>
+        <v>8602.038842024896</v>
       </c>
       <c r="G151" t="n">
-        <v>8119.914669472169</v>
+        <v>7622.065802238443</v>
       </c>
       <c r="H151" t="n">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="I151" t="n">
-        <v>119189</v>
+        <v>123121</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7135949</v>
+        <v>7091626</v>
       </c>
       <c r="E152" t="n">
-        <v>18538428</v>
+        <v>18423282</v>
       </c>
       <c r="F152" t="n">
-        <v>6198.49548346074</v>
+        <v>6069.399714748297</v>
       </c>
       <c r="G152" t="n">
-        <v>6125.905827064557</v>
+        <v>6459.977310821479</v>
       </c>
       <c r="H152" t="n">
-        <v>2.13</v>
+        <v>1.6</v>
       </c>
       <c r="I152" t="n">
-        <v>773384</v>
+        <v>775611</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18769428439</v>
+        <v>18782192085</v>
       </c>
       <c r="F153" t="n">
-        <v>1201.169646510062</v>
+        <v>1196.815891643904</v>
       </c>
       <c r="G153" t="n">
-        <v>3346.711655336283</v>
+        <v>325.8521144274742</v>
       </c>
       <c r="H153" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="I153" t="n">
-        <v>31755599</v>
+        <v>30088793</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2313228</v>
+        <v>2322876</v>
       </c>
       <c r="E154" t="n">
-        <v>9252913</v>
+        <v>9291506</v>
       </c>
       <c r="F154" t="n">
-        <v>1095.822113728595</v>
+        <v>1281.562035461265</v>
       </c>
       <c r="G154" t="n">
-        <v>1653.072991440786</v>
+        <v>1754.841898673809</v>
       </c>
       <c r="H154" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="I154" t="n">
-        <v>7759475</v>
+        <v>7620563</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>211205594</v>
+        <v>210239326</v>
       </c>
       <c r="E155" t="n">
-        <v>649377721</v>
+        <v>646406810</v>
       </c>
       <c r="F155" t="n">
-        <v>29669.64214564761</v>
+        <v>33510.03378730237</v>
       </c>
       <c r="G155" t="n">
-        <v>34471.09006320041</v>
+        <v>45045.39507161621</v>
       </c>
       <c r="H155" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>22975014</v>
+        <v>22984804</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>380530367</v>
+        <v>379956897</v>
       </c>
       <c r="E156" t="n">
-        <v>2174459238</v>
+        <v>2171182269</v>
       </c>
       <c r="F156" t="n">
-        <v>231045.6468932861</v>
+        <v>256774.267940293</v>
       </c>
       <c r="G156" t="n">
-        <v>229119.8741670282</v>
+        <v>342160.9994242411</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>62583821</v>
+        <v>63517583</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3862364</v>
+        <v>3820890</v>
       </c>
       <c r="F2" t="n">
-        <v>588.9291714824155</v>
+        <v>549.5684586323264</v>
       </c>
       <c r="G2" t="n">
-        <v>391.568822670124</v>
+        <v>762.5816311111914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="I2" t="n">
-        <v>140986</v>
+        <v>38101</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>587953168</v>
+        <v>591375570</v>
       </c>
       <c r="E3" t="n">
-        <v>1141067602</v>
+        <v>1147709613</v>
       </c>
       <c r="F3" t="n">
-        <v>17550.47800168418</v>
+        <v>17654.39334831265</v>
       </c>
       <c r="G3" t="n">
-        <v>35733.90254463014</v>
+        <v>32489.44454478482</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>47652528</v>
+        <v>47173527</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248945660</v>
+        <v>251555377</v>
       </c>
       <c r="E4" t="n">
-        <v>1561103240</v>
+        <v>1577468413</v>
       </c>
       <c r="F4" t="n">
-        <v>159746.2261701133</v>
+        <v>97562.44613703521</v>
       </c>
       <c r="G4" t="n">
-        <v>130228.0916762204</v>
+        <v>155495.5005186632</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>27766031</v>
+        <v>28028268</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139802533</v>
+        <v>140156167</v>
       </c>
       <c r="E5" t="n">
-        <v>154923055</v>
+        <v>155314937</v>
       </c>
       <c r="F5" t="n">
-        <v>8592.489320626137</v>
+        <v>8591.781473141758</v>
       </c>
       <c r="G5" t="n">
-        <v>373.4644988693681</v>
+        <v>325.4368334159435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>53648292</v>
+        <v>53681697</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48339455</v>
+        <v>48250976</v>
       </c>
       <c r="E6" t="n">
-        <v>60471419</v>
+        <v>60360733</v>
       </c>
       <c r="F6" t="n">
-        <v>6086.693391731919</v>
+        <v>6499.920978847829</v>
       </c>
       <c r="G6" t="n">
-        <v>3970.196679207074</v>
+        <v>5477.196373233955</v>
       </c>
       <c r="H6" t="n">
         <v>0.33</v>
       </c>
       <c r="I6" t="n">
-        <v>558762</v>
+        <v>682304</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65379126</v>
+        <v>65409435</v>
       </c>
       <c r="E7" t="n">
-        <v>130213093</v>
+        <v>130273458</v>
       </c>
       <c r="F7" t="n">
-        <v>10681.75475037239</v>
+        <v>10799.1954565693</v>
       </c>
       <c r="G7" t="n">
-        <v>12283.14144966364</v>
+        <v>11909.5810156462</v>
       </c>
       <c r="H7" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="I7" t="n">
-        <v>1052792</v>
+        <v>1060886</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41388968</v>
+        <v>41872031</v>
       </c>
       <c r="E8" t="n">
-        <v>46320217</v>
+        <v>46860833</v>
       </c>
       <c r="F8" t="n">
-        <v>411.1205800994155</v>
+        <v>317.2150112021224</v>
       </c>
       <c r="G8" t="n">
-        <v>55.22039263502529</v>
+        <v>92.89864830083263</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5056491</v>
+        <v>5359106</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13915897</v>
+        <v>13831119</v>
       </c>
       <c r="E9" t="n">
-        <v>41009250</v>
+        <v>40759416</v>
       </c>
       <c r="F9" t="n">
-        <v>5042.334587816138</v>
+        <v>5135.011507252321</v>
       </c>
       <c r="G9" t="n">
-        <v>4644.336222020446</v>
+        <v>4883.656352889032</v>
       </c>
       <c r="H9" t="n">
-        <v>0.76</v>
+        <v>1.11</v>
       </c>
       <c r="I9" t="n">
-        <v>889375</v>
+        <v>883607</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8729128</v>
+        <v>8708255</v>
       </c>
       <c r="E10" t="n">
-        <v>37522651</v>
+        <v>37432923</v>
       </c>
       <c r="F10" t="n">
-        <v>398.4267566805675</v>
+        <v>3450.473301469815</v>
       </c>
       <c r="G10" t="n">
-        <v>856.4181028585975</v>
+        <v>3961.71731153573</v>
       </c>
       <c r="H10" t="n">
-        <v>1.06</v>
+        <v>0.53</v>
       </c>
       <c r="I10" t="n">
-        <v>931919</v>
+        <v>932999</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>547109318</v>
+        <v>547861417</v>
       </c>
       <c r="E11" t="n">
-        <v>684352441</v>
+        <v>685293205</v>
       </c>
       <c r="F11" t="n">
-        <v>242708.7408392246</v>
+        <v>227236.1991317802</v>
       </c>
       <c r="G11" t="n">
-        <v>288473.8671837382</v>
+        <v>266393.8402803854</v>
       </c>
       <c r="H11" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>99075354</v>
+        <v>98958392</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4358662</v>
+        <v>4347979</v>
       </c>
       <c r="E12" t="n">
-        <v>26761524</v>
+        <v>26695935</v>
       </c>
       <c r="F12" t="n">
-        <v>9785.559286675492</v>
+        <v>9768.160955796331</v>
       </c>
       <c r="G12" t="n">
-        <v>10212.84562918093</v>
+        <v>9934.753848038865</v>
       </c>
       <c r="H12" t="n">
         <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>575108</v>
+        <v>561385</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23897775</v>
+        <v>23942731</v>
       </c>
       <c r="E13" t="n">
-        <v>23941854</v>
+        <v>23986893</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>873244</v>
+        <v>869789</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78431542</v>
+        <v>79012124</v>
       </c>
       <c r="E14" t="n">
-        <v>230755325</v>
+        <v>232463469</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>465065</v>
+        <v>464878</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>494102238</v>
+        <v>491536218</v>
       </c>
       <c r="E15" t="n">
-        <v>494102238</v>
+        <v>491536218</v>
       </c>
       <c r="F15" t="n">
-        <v>20909.49431221893</v>
+        <v>20404.5957895824</v>
       </c>
       <c r="G15" t="n">
-        <v>19257.04357839299</v>
+        <v>17702.07866390775</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>77411763</v>
+        <v>75952495</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4544508</v>
+        <v>4546876</v>
       </c>
       <c r="E16" t="n">
-        <v>4544508</v>
+        <v>4546876</v>
       </c>
       <c r="F16" t="n">
-        <v>281.5241323701504</v>
+        <v>414.9926558399252</v>
       </c>
       <c r="G16" t="n">
-        <v>1222.356527863877</v>
+        <v>1122.423249713165</v>
       </c>
       <c r="H16" t="n">
         <v>0.86</v>
       </c>
       <c r="I16" t="n">
-        <v>2235871</v>
+        <v>2235251</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3178228</v>
+        <v>3203045</v>
       </c>
       <c r="E17" t="n">
-        <v>3178228</v>
+        <v>3203045</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>657784</v>
+        <v>665158</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167311285</v>
+        <v>168143302</v>
       </c>
       <c r="E18" t="n">
-        <v>207138338</v>
+        <v>208168410</v>
       </c>
       <c r="F18" t="n">
-        <v>9344.823211496792</v>
+        <v>4614.930062314692</v>
       </c>
       <c r="G18" t="n">
-        <v>9331.022187338662</v>
+        <v>14221.49348668714</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>220549</v>
+        <v>168923</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6962510</v>
+        <v>6939671</v>
       </c>
       <c r="E19" t="n">
-        <v>9589155</v>
+        <v>9557700</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>410726</v>
+        <v>420853</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>888559</v>
+        <v>886271</v>
       </c>
       <c r="E20" t="n">
-        <v>6219912</v>
+        <v>6203896</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>204185</v>
+        <v>221541</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108613892</v>
+        <v>108821775</v>
       </c>
       <c r="E21" t="n">
-        <v>422160709</v>
+        <v>422959953</v>
       </c>
       <c r="F21" t="n">
-        <v>5248.30170867769</v>
+        <v>4765.289869189817</v>
       </c>
       <c r="G21" t="n">
-        <v>9898.258262359868</v>
+        <v>8892.389845103529</v>
       </c>
       <c r="H21" t="n">
         <v>0.24</v>
       </c>
       <c r="I21" t="n">
-        <v>12409068</v>
+        <v>12407227</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1720346</v>
+        <v>1719417</v>
       </c>
       <c r="E22" t="n">
-        <v>12391507</v>
+        <v>12384815</v>
       </c>
       <c r="F22" t="n">
-        <v>4925.223518223735</v>
+        <v>4925.278148119663</v>
       </c>
       <c r="G22" t="n">
-        <v>6029.077017016891</v>
+        <v>5949.732365823527</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>54254</v>
+        <v>54229</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137269253</v>
+        <v>137094017</v>
       </c>
       <c r="E23" t="n">
-        <v>137269253</v>
+        <v>137094017</v>
       </c>
       <c r="F23" t="n">
-        <v>1050529.790329372</v>
+        <v>1006189.974099315</v>
       </c>
       <c r="G23" t="n">
-        <v>1298936.99804459</v>
+        <v>1185063.467991549</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>91656009</v>
+        <v>91505601</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63121878</v>
+        <v>63232179</v>
       </c>
       <c r="E24" t="n">
-        <v>323701936</v>
+        <v>324267586</v>
       </c>
       <c r="F24" t="n">
-        <v>69456.93191535614</v>
+        <v>65778.393544929</v>
       </c>
       <c r="G24" t="n">
-        <v>131597.8029012638</v>
+        <v>111653.1202500842</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>26670787</v>
+        <v>26623876</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>248612857</v>
+        <v>248910997</v>
       </c>
       <c r="E25" t="n">
-        <v>248612857</v>
+        <v>248910997</v>
       </c>
       <c r="F25" t="n">
-        <v>278812.8018934038</v>
+        <v>289868.4811235454</v>
       </c>
       <c r="G25" t="n">
-        <v>435492.0350156301</v>
+        <v>428720.6688890558</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>26299202</v>
+        <v>26330682</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1112133</v>
+        <v>1110582</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>131107</v>
+        <v>130095</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2116410</v>
+        <v>2123405</v>
       </c>
       <c r="E27" t="n">
-        <v>2357538</v>
+        <v>2371814</v>
       </c>
       <c r="F27" t="n">
-        <v>16.18455477702621</v>
+        <v>104.4482561725703</v>
       </c>
       <c r="G27" t="n">
-        <v>1152.525080582612</v>
+        <v>902.0777870774035</v>
       </c>
       <c r="H27" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>445262</v>
+        <v>447690</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3742013</v>
+        <v>3768899</v>
       </c>
       <c r="E28" t="n">
-        <v>3742865</v>
+        <v>3769692</v>
       </c>
       <c r="F28" t="n">
-        <v>962.7997698353242</v>
+        <v>890.3778595483748</v>
       </c>
       <c r="G28" t="n">
-        <v>3384.860903543904</v>
+        <v>2082.03436264369</v>
       </c>
       <c r="H28" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>247622</v>
+        <v>247059</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6777312</v>
+        <v>6738450</v>
       </c>
       <c r="E29" t="n">
-        <v>16461568</v>
+        <v>16367177</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>432220</v>
+        <v>429429</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96615590</v>
+        <v>96611617</v>
       </c>
       <c r="E30" t="n">
-        <v>120468315</v>
+        <v>120463362</v>
       </c>
       <c r="F30" t="n">
-        <v>111760.9898668004</v>
+        <v>111237.5292790874</v>
       </c>
       <c r="G30" t="n">
-        <v>108723.1909604003</v>
+        <v>102129.5524075722</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12641850</v>
+        <v>12617743</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109037</v>
+        <v>1108781</v>
       </c>
       <c r="E31" t="n">
-        <v>12052597</v>
+        <v>12049814</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12879.91</v>
+        <v>12841.72</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>77897462</v>
+        <v>77782218</v>
       </c>
       <c r="E32" t="n">
-        <v>217976971</v>
+        <v>217662904</v>
       </c>
       <c r="F32" t="n">
-        <v>62228.68643038259</v>
+        <v>72658.6706056015</v>
       </c>
       <c r="G32" t="n">
-        <v>91312.57131039353</v>
+        <v>68745.49163300374</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>54951563</v>
+        <v>54786360</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4069828</v>
+        <v>4067034</v>
       </c>
       <c r="E33" t="n">
-        <v>8026042</v>
+        <v>8020534</v>
       </c>
       <c r="F33" t="n">
-        <v>7669.698223283887</v>
+        <v>7672.48897692239</v>
       </c>
       <c r="G33" t="n">
-        <v>10816.75772889074</v>
+        <v>10836.55804162767</v>
       </c>
       <c r="H33" t="n">
         <v>0.59</v>
       </c>
       <c r="I33" t="n">
-        <v>1686083</v>
+        <v>1694292</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36347344</v>
+        <v>36312990</v>
       </c>
       <c r="F34" t="n">
-        <v>243.93400831393</v>
+        <v>242.0878154636944</v>
       </c>
       <c r="G34" t="n">
-        <v>434.1277394512727</v>
+        <v>434.1325547359268</v>
       </c>
       <c r="H34" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="I34" t="n">
-        <v>35663</v>
+        <v>35127</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17150629</v>
+        <v>17156974</v>
       </c>
       <c r="E35" t="n">
-        <v>18076361</v>
+        <v>18083049</v>
       </c>
       <c r="F35" t="n">
-        <v>3485.284434931391</v>
+        <v>3485.323093222788</v>
       </c>
       <c r="G35" t="n">
-        <v>2559.539065016859</v>
+        <v>2559.567455069052</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>51296</v>
+        <v>50198</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23066946</v>
+        <v>23040588</v>
       </c>
       <c r="F36" t="n">
-        <v>5168.970507972384</v>
+        <v>5160.279850223982</v>
       </c>
       <c r="G36" t="n">
-        <v>5591.553639868076</v>
+        <v>561.3611767256353</v>
       </c>
       <c r="H36" t="n">
         <v>0.78</v>
       </c>
       <c r="I36" t="n">
-        <v>128747</v>
+        <v>128827</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87800933</v>
+        <v>87689778</v>
       </c>
       <c r="E37" t="n">
-        <v>183057894</v>
+        <v>182826144</v>
       </c>
       <c r="F37" t="n">
-        <v>71390.85615490034</v>
+        <v>54454.64516751765</v>
       </c>
       <c r="G37" t="n">
-        <v>43881.96304022171</v>
+        <v>40819.53310797755</v>
       </c>
       <c r="H37" t="n">
         <v>0.2</v>
       </c>
       <c r="I37" t="n">
-        <v>76629865</v>
+        <v>77011541</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>274977960</v>
+        <v>275983698</v>
       </c>
       <c r="E38" t="n">
-        <v>274977960</v>
+        <v>275983698</v>
       </c>
       <c r="F38" t="n">
-        <v>28411.42140134268</v>
+        <v>27748.56682993057</v>
       </c>
       <c r="G38" t="n">
-        <v>35167.97189693745</v>
+        <v>34565.39867639516</v>
       </c>
       <c r="H38" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I38" t="n">
-        <v>10999335</v>
+        <v>11183751</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>194815792</v>
+        <v>195474535</v>
       </c>
       <c r="E39" t="n">
-        <v>676807667</v>
+        <v>679096201</v>
       </c>
       <c r="F39" t="n">
-        <v>113152.3932255557</v>
+        <v>152662.7406391974</v>
       </c>
       <c r="G39" t="n">
-        <v>202719.8267491497</v>
+        <v>278920.4395647925</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>41325525</v>
+        <v>41360870</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3283135</v>
+        <v>3298050</v>
       </c>
       <c r="E40" t="n">
-        <v>3283135</v>
+        <v>3298049</v>
       </c>
       <c r="F40" t="n">
-        <v>1813.177366789426</v>
+        <v>1136.444372933697</v>
       </c>
       <c r="G40" t="n">
-        <v>1411.989864807807</v>
+        <v>3171.801344385171</v>
       </c>
       <c r="H40" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="I40" t="n">
-        <v>2003924</v>
+        <v>2022137</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>108733815</v>
+        <v>109000859</v>
       </c>
       <c r="E41" t="n">
-        <v>461128674</v>
+        <v>462245177</v>
       </c>
       <c r="F41" t="n">
-        <v>5754.118643256823</v>
+        <v>5480.388114544334</v>
       </c>
       <c r="G41" t="n">
-        <v>6626.239548544494</v>
+        <v>6879.686927665816</v>
       </c>
       <c r="H41" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I41" t="n">
-        <v>15086241</v>
+        <v>15060963</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>551261</v>
+        <v>562051</v>
       </c>
       <c r="E42" t="n">
-        <v>6686259</v>
+        <v>6817126</v>
       </c>
       <c r="F42" t="n">
-        <v>156.9074812431438</v>
+        <v>559.8757915145461</v>
       </c>
       <c r="G42" t="n">
-        <v>630.1308136930112</v>
+        <v>430.1921533148011</v>
       </c>
       <c r="H42" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="I42" t="n">
-        <v>2933090</v>
+        <v>2968944</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1457712127</v>
+        <v>1457736844</v>
       </c>
       <c r="E43" t="n">
-        <v>6990028181</v>
+        <v>6990146704</v>
       </c>
       <c r="F43" t="n">
-        <v>43510.12489692814</v>
+        <v>42121.74306645836</v>
       </c>
       <c r="G43" t="n">
-        <v>46823.95649500097</v>
+        <v>45879.94510761469</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I43" t="n">
-        <v>519782385</v>
+        <v>523184855</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5915534507</v>
+        <v>5912161018</v>
       </c>
       <c r="E44" t="n">
-        <v>5915534507</v>
+        <v>5912161018</v>
       </c>
       <c r="F44" t="n">
-        <v>705818.4249816017</v>
+        <v>660898.9816964051</v>
       </c>
       <c r="G44" t="n">
-        <v>443005.0511381613</v>
+        <v>439937.5845168919</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>393154619</v>
+        <v>393742430</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>258346014</v>
+        <v>258740722</v>
       </c>
       <c r="E45" t="n">
-        <v>1115164813</v>
+        <v>1116868593</v>
       </c>
       <c r="F45" t="n">
-        <v>110267.2397591344</v>
+        <v>110236.7912028939</v>
       </c>
       <c r="G45" t="n">
-        <v>85122.551078131</v>
+        <v>91880.55707809119</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I45" t="n">
-        <v>142519851</v>
+        <v>142112179</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112159049</v>
+        <v>112305247</v>
       </c>
       <c r="E46" t="n">
-        <v>112159049</v>
+        <v>112305247</v>
       </c>
       <c r="F46" t="n">
-        <v>32451.5416099025</v>
+        <v>31520.4731669849</v>
       </c>
       <c r="G46" t="n">
-        <v>34875.84695815745</v>
+        <v>35261.27363026809</v>
       </c>
       <c r="H46" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="I46" t="n">
-        <v>7063484</v>
+        <v>7009673</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2046650936</v>
+        <v>2044844964</v>
       </c>
       <c r="E47" t="n">
-        <v>2046650936</v>
+        <v>2044844964</v>
       </c>
       <c r="F47" t="n">
-        <v>226954.4606570558</v>
+        <v>176476.8996489859</v>
       </c>
       <c r="G47" t="n">
-        <v>200494.4669124696</v>
+        <v>149786.3180220548</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>9234052795</v>
+        <v>6101250349</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10203597</v>
+        <v>10209733</v>
       </c>
       <c r="F48" t="n">
-        <v>6325.147306349004</v>
+        <v>6513.387316990465</v>
       </c>
       <c r="G48" t="n">
-        <v>6324.841041940301</v>
+        <v>6040.717774650622</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>180046</v>
+        <v>179180</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4164700</v>
+        <v>4153987</v>
       </c>
       <c r="E49" t="n">
-        <v>5467708</v>
+        <v>5453643</v>
       </c>
       <c r="F49" t="n">
-        <v>6054.095239075135</v>
+        <v>6000.535936774982</v>
       </c>
       <c r="G49" t="n">
-        <v>3484.57776082311</v>
+        <v>3483.121369428168</v>
       </c>
       <c r="H49" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="I49" t="n">
-        <v>574862</v>
+        <v>576411</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12630146</v>
+        <v>12744350</v>
       </c>
       <c r="E50" t="n">
-        <v>18572392</v>
+        <v>18740326</v>
       </c>
       <c r="F50" t="n">
-        <v>7166.840134124978</v>
+        <v>7221.404531124151</v>
       </c>
       <c r="G50" t="n">
-        <v>6841.884999484774</v>
+        <v>6861.289350577817</v>
       </c>
       <c r="H50" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>6861497</v>
+        <v>6886024</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21834103</v>
+        <v>21845765</v>
       </c>
       <c r="E51" t="n">
-        <v>28323826</v>
+        <v>28338955</v>
       </c>
       <c r="F51" t="n">
-        <v>11506.1769635089</v>
+        <v>11373.35248313651</v>
       </c>
       <c r="G51" t="n">
-        <v>12563.564631798</v>
+        <v>13612.89460572746</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>233437</v>
+        <v>233162</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14087949</v>
+        <v>14093738</v>
       </c>
       <c r="E52" t="n">
-        <v>14087949</v>
+        <v>14093738</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5692593</v>
+        <v>5739279</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97908316</v>
+        <v>97948992</v>
       </c>
       <c r="E53" t="n">
-        <v>121109082</v>
+        <v>121159398</v>
       </c>
       <c r="F53" t="n">
-        <v>1044.369166058671</v>
+        <v>931.5999686571347</v>
       </c>
       <c r="G53" t="n">
-        <v>1401.634765851151</v>
+        <v>1411.967457590955</v>
       </c>
       <c r="H53" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="I53" t="n">
-        <v>1043392</v>
+        <v>1047622</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4956382</v>
+        <v>4938956</v>
       </c>
       <c r="E54" t="n">
-        <v>6934697</v>
+        <v>6910315</v>
       </c>
       <c r="F54" t="n">
-        <v>1.076915511079875</v>
+        <v>108.8270665992185</v>
       </c>
       <c r="G54" t="n">
-        <v>289.7738815498461</v>
+        <v>306.3755495757002</v>
       </c>
       <c r="H54" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="I54" t="n">
-        <v>66184</v>
+        <v>66524</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14045645</v>
+        <v>14185972</v>
       </c>
       <c r="E55" t="n">
-        <v>68025298</v>
+        <v>68704928</v>
       </c>
       <c r="F55" t="n">
-        <v>8703.200694891535</v>
+        <v>12385.49950063861</v>
       </c>
       <c r="G55" t="n">
-        <v>8556.339839106602</v>
+        <v>8750.742781613671</v>
       </c>
       <c r="H55" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>5655944</v>
+        <v>5659279</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56126</v>
+        <v>56081</v>
       </c>
       <c r="E56" t="n">
-        <v>134434</v>
+        <v>134326</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16361.12</v>
+        <v>16352.73</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1842334612</v>
+        <v>1846155036</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>31281325</v>
+        <v>31496117</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11898503</v>
+        <v>11848813</v>
       </c>
       <c r="E58" t="n">
-        <v>17251113</v>
+        <v>17179069</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1363529</v>
+        <v>2006208</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>121630743</v>
+        <v>120702473</v>
       </c>
       <c r="E59" t="n">
-        <v>323468439</v>
+        <v>320999771</v>
       </c>
       <c r="F59" t="n">
-        <v>7608.729208292666</v>
+        <v>7527.079037770742</v>
       </c>
       <c r="G59" t="n">
-        <v>7251.45703553266</v>
+        <v>7271.775751243289</v>
       </c>
       <c r="H59" t="n">
-        <v>0.65</v>
+        <v>0.46</v>
       </c>
       <c r="I59" t="n">
-        <v>728018</v>
+        <v>737187</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29885184</v>
+        <v>29961919</v>
       </c>
       <c r="E60" t="n">
-        <v>93052874</v>
+        <v>93291801</v>
       </c>
       <c r="F60" t="n">
-        <v>2595.215220888711</v>
+        <v>2610.170521005384</v>
       </c>
       <c r="G60" t="n">
-        <v>5902.616152105348</v>
+        <v>4824.801986496432</v>
       </c>
       <c r="H60" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I60" t="n">
-        <v>10648692</v>
+        <v>10670221</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1823947</v>
+        <v>1826128</v>
       </c>
       <c r="E61" t="n">
-        <v>13079338</v>
+        <v>13094979</v>
       </c>
       <c r="F61" t="n">
-        <v>1078.439181957336</v>
+        <v>939.7911025974244</v>
       </c>
       <c r="G61" t="n">
-        <v>5062.554926115254</v>
+        <v>5046.084597195463</v>
       </c>
       <c r="H61" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="I61" t="n">
-        <v>2069988</v>
+        <v>2077689</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>192820270</v>
+        <v>192899985</v>
       </c>
       <c r="E62" t="n">
-        <v>1091866847</v>
+        <v>1092318243</v>
       </c>
       <c r="F62" t="n">
-        <v>507688.2803002535</v>
+        <v>470037.1877376023</v>
       </c>
       <c r="G62" t="n">
-        <v>738467.6907375788</v>
+        <v>775887.2933941935</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>86558627</v>
+        <v>86376657</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>495621</v>
+        <v>498547</v>
       </c>
       <c r="E63" t="n">
-        <v>1668190</v>
+        <v>1678039</v>
       </c>
       <c r="F63" t="n">
-        <v>4481.233136041998</v>
+        <v>576.1592400634158</v>
       </c>
       <c r="G63" t="n">
-        <v>539.9593068276284</v>
+        <v>528.9578345132195</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>641973</v>
+        <v>556804</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>343618</v>
+        <v>348371</v>
       </c>
       <c r="E64" t="n">
-        <v>343618</v>
+        <v>348371</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2398.49</v>
+        <v>2588.67</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>122841734</v>
+        <v>123351147</v>
       </c>
       <c r="E65" t="n">
-        <v>909938772</v>
+        <v>913712201</v>
       </c>
       <c r="F65" t="n">
-        <v>31760.45185473823</v>
+        <v>13791.6337853049</v>
       </c>
       <c r="G65" t="n">
-        <v>40491.85347773702</v>
+        <v>40379.00447310955</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>35775879</v>
+        <v>35785340</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8692374</v>
+        <v>8602061</v>
       </c>
       <c r="E66" t="n">
-        <v>11644883</v>
+        <v>11523894</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>84423</v>
+        <v>84704</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>34922815</v>
+        <v>34862353</v>
       </c>
       <c r="E67" t="n">
-        <v>34922815</v>
+        <v>34862353</v>
       </c>
       <c r="F67" t="n">
-        <v>7034.404616275234</v>
+        <v>8205.986366967179</v>
       </c>
       <c r="G67" t="n">
-        <v>5512.967753671986</v>
+        <v>5189.221902646729</v>
       </c>
       <c r="H67" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="I67" t="n">
-        <v>992262</v>
+        <v>994788</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1549238</v>
+        <v>1549503</v>
       </c>
       <c r="E68" t="n">
-        <v>12031559</v>
+        <v>12033619</v>
       </c>
       <c r="F68" t="n">
-        <v>18510.6438159717</v>
+        <v>15287.19646833389</v>
       </c>
       <c r="G68" t="n">
-        <v>14774.98719690691</v>
+        <v>22104.83245918576</v>
       </c>
       <c r="H68" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="I68" t="n">
-        <v>511138</v>
+        <v>511907</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>320542421</v>
+        <v>320812327</v>
       </c>
       <c r="E69" t="n">
-        <v>2883798383</v>
+        <v>2886226625</v>
       </c>
       <c r="F69" t="n">
-        <v>1475381.920243893</v>
+        <v>1505384.642457852</v>
       </c>
       <c r="G69" t="n">
-        <v>1699734.130428312</v>
+        <v>1810830.917819872</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>70476767</v>
+        <v>69593050</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251463</v>
+        <v>252659</v>
       </c>
       <c r="E70" t="n">
-        <v>2219347</v>
+        <v>2229905</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>76147</v>
+        <v>76820</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1524351</v>
+        <v>1524986</v>
       </c>
       <c r="E71" t="n">
-        <v>12702924</v>
+        <v>12708214</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30884</v>
+        <v>30886</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9406099</v>
+        <v>9375315</v>
       </c>
       <c r="E72" t="n">
-        <v>43597810</v>
+        <v>43455122</v>
       </c>
       <c r="F72" t="n">
-        <v>9792.489104275804</v>
+        <v>9765.839238387738</v>
       </c>
       <c r="G72" t="n">
-        <v>3314.033339305821</v>
+        <v>2952.23266623341</v>
       </c>
       <c r="H72" t="n">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="I72" t="n">
-        <v>111596</v>
+        <v>111467</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46917909</v>
+        <v>46934043</v>
       </c>
       <c r="E73" t="n">
-        <v>271635307</v>
+        <v>271728715</v>
       </c>
       <c r="F73" t="n">
-        <v>103795.634790244</v>
+        <v>103683.3496535804</v>
       </c>
       <c r="G73" t="n">
-        <v>191559.673953981</v>
+        <v>208636.4303872619</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>49296090</v>
+        <v>48080052</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38731501</v>
+        <v>38655933</v>
       </c>
       <c r="E74" t="n">
-        <v>53493718</v>
+        <v>53389348</v>
       </c>
       <c r="F74" t="n">
-        <v>4648.053738147589</v>
+        <v>4648.105293714771</v>
       </c>
       <c r="G74" t="n">
-        <v>4250.162481940833</v>
+        <v>4228.249262969421</v>
       </c>
       <c r="H74" t="n">
         <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>316614</v>
+        <v>315948</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99299</v>
+        <v>99282</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3821.64</v>
+        <v>3820.36</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13376796</v>
+        <v>13434819</v>
       </c>
       <c r="E76" t="n">
-        <v>13422319</v>
+        <v>13480539</v>
       </c>
       <c r="F76" t="n">
-        <v>2110.037763249765</v>
+        <v>1341.415944483305</v>
       </c>
       <c r="G76" t="n">
-        <v>6932.271668356009</v>
+        <v>7016.227925924827</v>
       </c>
       <c r="H76" t="n">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>7108899</v>
+        <v>7125839</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41934643</v>
+        <v>41904572</v>
       </c>
       <c r="E77" t="n">
-        <v>71195268</v>
+        <v>71144215</v>
       </c>
       <c r="F77" t="n">
-        <v>6972.928452693498</v>
+        <v>6241.049729514019</v>
       </c>
       <c r="G77" t="n">
-        <v>9967.454895918636</v>
+        <v>9010.470182545872</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1155217</v>
+        <v>1153963</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19554026</v>
+        <v>19527992</v>
       </c>
       <c r="E78" t="n">
-        <v>58626029</v>
+        <v>58547976</v>
       </c>
       <c r="F78" t="n">
-        <v>47932.65925999968</v>
+        <v>30145.00166030856</v>
       </c>
       <c r="G78" t="n">
-        <v>33901.1436648223</v>
+        <v>36618.05632839284</v>
       </c>
       <c r="H78" t="n">
         <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>4388349</v>
+        <v>3672406</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>97757257</v>
+        <v>97829991</v>
       </c>
       <c r="E79" t="n">
-        <v>103924799</v>
+        <v>104002122</v>
       </c>
       <c r="F79" t="n">
-        <v>2522.685092111453</v>
+        <v>2521.996927164458</v>
       </c>
       <c r="G79" t="n">
-        <v>4805.535836882624</v>
+        <v>4223.887233455031</v>
       </c>
       <c r="H79" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="I79" t="n">
-        <v>535936</v>
+        <v>536258</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10400298</v>
+        <v>10394068</v>
       </c>
       <c r="E80" t="n">
-        <v>45144237</v>
+        <v>45117285</v>
       </c>
       <c r="F80" t="n">
-        <v>6129.740792744129</v>
+        <v>6119.533414288176</v>
       </c>
       <c r="G80" t="n">
-        <v>5816.859116310717</v>
+        <v>5816.916291987951</v>
       </c>
       <c r="H80" t="n">
         <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>115040</v>
+        <v>114853</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15333570</v>
+        <v>15341613</v>
       </c>
       <c r="E81" t="n">
-        <v>93984494</v>
+        <v>94033789</v>
       </c>
       <c r="F81" t="n">
-        <v>2986.277930137992</v>
+        <v>2936.043468528286</v>
       </c>
       <c r="G81" t="n">
-        <v>3477.112394419902</v>
+        <v>3616.928937394896</v>
       </c>
       <c r="H81" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="I81" t="n">
-        <v>12054046</v>
+        <v>12253597</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1418085</v>
+        <v>1417179</v>
       </c>
       <c r="E82" t="n">
-        <v>1457975</v>
+        <v>1457043</v>
       </c>
       <c r="F82" t="n">
-        <v>498.9381199364108</v>
+        <v>128.9727193538404</v>
       </c>
       <c r="G82" t="n">
-        <v>2922.785106941536</v>
+        <v>2922.816157596806</v>
       </c>
       <c r="H82" t="n">
         <v>0.05</v>
       </c>
       <c r="I82" t="n">
-        <v>143199</v>
+        <v>144306</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49812293</v>
+        <v>49930018</v>
       </c>
       <c r="E83" t="n">
-        <v>214585909</v>
+        <v>215093058</v>
       </c>
       <c r="F83" t="n">
-        <v>3100.359025446505</v>
+        <v>3064.797429061388</v>
       </c>
       <c r="G83" t="n">
-        <v>405.9180428920008</v>
+        <v>403.6485828340623</v>
       </c>
       <c r="H83" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I83" t="n">
-        <v>13192887</v>
+        <v>13217772</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2250149</v>
+        <v>2240878</v>
       </c>
       <c r="E84" t="n">
-        <v>8167557</v>
+        <v>8133906</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>224450</v>
+        <v>224290</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8763089</v>
+        <v>8795154</v>
       </c>
       <c r="E85" t="n">
-        <v>19435285</v>
+        <v>19506401</v>
       </c>
       <c r="F85" t="n">
-        <v>5734.403393950181</v>
+        <v>5768.628302040973</v>
       </c>
       <c r="G85" t="n">
-        <v>7560.728367634364</v>
+        <v>7637.003868581075</v>
       </c>
       <c r="H85" t="n">
         <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>233222</v>
+        <v>324879</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441655</v>
+        <v>2440793</v>
       </c>
       <c r="E86" t="n">
-        <v>18372827</v>
+        <v>18366337</v>
       </c>
       <c r="F86" t="n">
-        <v>5325.826927339033</v>
+        <v>5276.363953018481</v>
       </c>
       <c r="G86" t="n">
-        <v>11968.23884154294</v>
+        <v>12026.42650658415</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>159435</v>
+        <v>158652</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19653651</v>
+        <v>19716804</v>
       </c>
       <c r="E87" t="n">
-        <v>78614605</v>
+        <v>78867216</v>
       </c>
       <c r="F87" t="n">
-        <v>644.286288939388</v>
+        <v>1052.792801377285</v>
       </c>
       <c r="G87" t="n">
-        <v>1745.973768901242</v>
+        <v>1331.839547258959</v>
       </c>
       <c r="H87" t="n">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="I87" t="n">
-        <v>3789849</v>
+        <v>3818349</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4427578</v>
+        <v>4445420</v>
       </c>
       <c r="E88" t="n">
-        <v>4427578</v>
+        <v>4445420</v>
       </c>
       <c r="F88" t="n">
-        <v>1853.720585742369</v>
+        <v>3290.182898937775</v>
       </c>
       <c r="G88" t="n">
-        <v>2107.762254595889</v>
+        <v>885.5513676330334</v>
       </c>
       <c r="H88" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="I88" t="n">
-        <v>2835704</v>
+        <v>2822371</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12719317</v>
+        <v>12853256</v>
       </c>
       <c r="E89" t="n">
-        <v>40229242</v>
+        <v>40652872</v>
       </c>
       <c r="F89" t="n">
-        <v>19509.03238712649</v>
+        <v>13933.09762286917</v>
       </c>
       <c r="G89" t="n">
-        <v>6771.648258362269</v>
+        <v>5634.446612245887</v>
       </c>
       <c r="H89" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="I89" t="n">
-        <v>1034662</v>
+        <v>1075792</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24904</v>
+        <v>24924</v>
       </c>
       <c r="E90" t="n">
-        <v>195866</v>
+        <v>196020</v>
       </c>
       <c r="F90" t="n">
-        <v>197.9709102141142</v>
+        <v>197.9726363898962</v>
       </c>
       <c r="G90" t="n">
-        <v>669.1895205297224</v>
+        <v>669.1953554210337</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>40898</v>
+        <v>40635</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7670354</v>
+        <v>7781177</v>
       </c>
       <c r="E91" t="n">
-        <v>7670354</v>
+        <v>7781177</v>
       </c>
       <c r="F91" t="n">
-        <v>1461.566174136917</v>
+        <v>1153.475960043602</v>
       </c>
       <c r="G91" t="n">
-        <v>4795.17895264413</v>
+        <v>4477.036938929894</v>
       </c>
       <c r="H91" t="n">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="I91" t="n">
-        <v>4100432</v>
+        <v>4140841</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9085841</v>
+        <v>9095148</v>
       </c>
       <c r="E92" t="n">
-        <v>9085841</v>
+        <v>9095148</v>
       </c>
       <c r="F92" t="n">
-        <v>2254.496984040311</v>
+        <v>2930.174545776059</v>
       </c>
       <c r="G92" t="n">
-        <v>4602.347298623224</v>
+        <v>5361.666822470544</v>
       </c>
       <c r="H92" t="n">
         <v>1.03</v>
       </c>
       <c r="I92" t="n">
-        <v>1857795</v>
+        <v>1773885</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30926637</v>
+        <v>30968181</v>
       </c>
       <c r="E93" t="n">
-        <v>77982131</v>
+        <v>78086886</v>
       </c>
       <c r="F93" t="n">
-        <v>80.1750686588322</v>
+        <v>2.997861390454763</v>
       </c>
       <c r="G93" t="n">
-        <v>6650.792848079859</v>
+        <v>6438.231344702939</v>
       </c>
       <c r="H93" t="n">
         <v>0.64</v>
       </c>
       <c r="I93" t="n">
-        <v>6197345</v>
+        <v>6193806</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>298401708</v>
+        <v>298558457</v>
       </c>
       <c r="E94" t="n">
-        <v>303068076</v>
+        <v>303228386</v>
       </c>
       <c r="F94" t="n">
-        <v>46934.50370222367</v>
+        <v>46490.10846259298</v>
       </c>
       <c r="G94" t="n">
-        <v>46778.32134070424</v>
+        <v>47582.19605501621</v>
       </c>
       <c r="H94" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I94" t="n">
-        <v>25283735</v>
+        <v>25297133</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>999.7118694855272</v>
+        <v>997.9239065484784</v>
       </c>
       <c r="G95" t="n">
-        <v>6494.455982125531</v>
+        <v>6525.735294610348</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>196560</v>
+        <v>196191</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>76581994</v>
+        <v>77071454</v>
       </c>
       <c r="E96" t="n">
-        <v>76581994</v>
+        <v>77071454</v>
       </c>
       <c r="F96" t="n">
-        <v>6920.452445538855</v>
+        <v>10980.05463969665</v>
       </c>
       <c r="G96" t="n">
-        <v>4817.357417885023</v>
+        <v>7501.499687666926</v>
       </c>
       <c r="H96" t="n">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="I96" t="n">
-        <v>4649153</v>
+        <v>4799538</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>288226375</v>
+        <v>288958357</v>
       </c>
       <c r="E97" t="n">
-        <v>288226375</v>
+        <v>288958357</v>
       </c>
       <c r="F97" t="n">
-        <v>273509.5358453729</v>
+        <v>333790.0100775914</v>
       </c>
       <c r="G97" t="n">
-        <v>449369.4451900687</v>
+        <v>429262.171694195</v>
       </c>
       <c r="H97" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>93122111</v>
+        <v>93223913</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4541627</v>
+        <v>4567527</v>
       </c>
       <c r="E98" t="n">
-        <v>31032618</v>
+        <v>31209593</v>
       </c>
       <c r="F98" t="n">
-        <v>100.9577334706286</v>
+        <v>4992.129023255678</v>
       </c>
       <c r="G98" t="n">
-        <v>1468.080311046537</v>
+        <v>25090.9232506689</v>
       </c>
       <c r="H98" t="n">
         <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>3007497</v>
+        <v>3008132</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83856684</v>
+        <v>84171987</v>
       </c>
       <c r="E99" t="n">
-        <v>483218382</v>
+        <v>485035297</v>
       </c>
       <c r="F99" t="n">
-        <v>146910.6581177037</v>
+        <v>155486.7337978585</v>
       </c>
       <c r="G99" t="n">
-        <v>152316.3491526286</v>
+        <v>146757.0897173294</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>21266664</v>
+        <v>21276260</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>105263141</v>
+        <v>105488770</v>
       </c>
       <c r="E100" t="n">
-        <v>258988453</v>
+        <v>259543589</v>
       </c>
       <c r="F100" t="n">
-        <v>38727.48661100292</v>
+        <v>31123.80043359966</v>
       </c>
       <c r="G100" t="n">
-        <v>35980.05394358904</v>
+        <v>35078.72605952811</v>
       </c>
       <c r="H100" t="n">
         <v>0.19</v>
       </c>
       <c r="I100" t="n">
-        <v>2822846</v>
+        <v>2830088</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>235365468</v>
+        <v>235690541</v>
       </c>
       <c r="E101" t="n">
-        <v>235367806</v>
+        <v>235692882</v>
       </c>
       <c r="F101" t="n">
-        <v>36578.12568751125</v>
+        <v>24958.0483754905</v>
       </c>
       <c r="G101" t="n">
-        <v>29358.56364730517</v>
+        <v>24682.85636919496</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="I101" t="n">
-        <v>2950071</v>
+        <v>2956185</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29369536</v>
+        <v>29599391</v>
       </c>
       <c r="E102" t="n">
-        <v>131499461</v>
+        <v>132528616</v>
       </c>
       <c r="F102" t="n">
-        <v>70434.29016895978</v>
+        <v>74435.52252738713</v>
       </c>
       <c r="G102" t="n">
-        <v>100729.376256366</v>
+        <v>100783.4052560939</v>
       </c>
       <c r="H102" t="n">
         <v>0.23</v>
       </c>
       <c r="I102" t="n">
-        <v>15053413</v>
+        <v>15196607</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2890126</v>
+        <v>2884803</v>
       </c>
       <c r="E103" t="n">
-        <v>2890126</v>
+        <v>2884803</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>293020</v>
+        <v>293489</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5999116</v>
+        <v>5987267</v>
       </c>
       <c r="E104" t="n">
-        <v>15744659</v>
+        <v>15713563</v>
       </c>
       <c r="F104" t="n">
-        <v>164.9408860927684</v>
+        <v>67.69390503012917</v>
       </c>
       <c r="G104" t="n">
-        <v>140.2058912790427</v>
+        <v>246.2088577506441</v>
       </c>
       <c r="H104" t="n">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="I104" t="n">
-        <v>31083</v>
+        <v>28629</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16085580</v>
+        <v>16125338</v>
       </c>
       <c r="E105" t="n">
-        <v>74248895</v>
+        <v>74432408</v>
       </c>
       <c r="F105" t="n">
-        <v>3003.173359753101</v>
+        <v>7423.059735999615</v>
       </c>
       <c r="G105" t="n">
-        <v>2942.533879725247</v>
+        <v>3941.844930950759</v>
       </c>
       <c r="H105" t="n">
         <v>0.67</v>
       </c>
       <c r="I105" t="n">
-        <v>1235470</v>
+        <v>1254517</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48001613</v>
+        <v>48040098</v>
       </c>
       <c r="E106" t="n">
-        <v>311277685</v>
+        <v>311527251</v>
       </c>
       <c r="F106" t="n">
-        <v>108319.6005022823</v>
+        <v>110154.7795606404</v>
       </c>
       <c r="G106" t="n">
-        <v>156681.1236536674</v>
+        <v>151288.6093141545</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21950385</v>
+        <v>21974523</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2456446</v>
+        <v>2455689</v>
       </c>
       <c r="E107" t="n">
-        <v>4450315</v>
+        <v>4448943</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>107803</v>
+        <v>107638</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124116271</v>
+        <v>124318235</v>
       </c>
       <c r="E108" t="n">
-        <v>2055467096</v>
+        <v>2058811783</v>
       </c>
       <c r="F108" t="n">
-        <v>22403.17171015674</v>
+        <v>29636.97570672789</v>
       </c>
       <c r="G108" t="n">
-        <v>20711.34322373042</v>
+        <v>9545.562190696086</v>
       </c>
       <c r="H108" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>36560476</v>
+        <v>36702936</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22897073</v>
+        <v>22959505</v>
       </c>
       <c r="E109" t="n">
-        <v>136997791</v>
+        <v>137371331</v>
       </c>
       <c r="F109" t="n">
-        <v>40018.60099129265</v>
+        <v>40035.86591975727</v>
       </c>
       <c r="G109" t="n">
-        <v>36963.95718506265</v>
+        <v>36723.47551038871</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I109" t="n">
-        <v>18366155</v>
+        <v>18396203</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1039667</v>
+        <v>1044488</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>95311</v>
+        <v>93759</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2285334</v>
+        <v>2299492</v>
       </c>
       <c r="F111" t="n">
-        <v>1492.122049413965</v>
+        <v>2761.798894771068</v>
       </c>
       <c r="G111" t="n">
-        <v>166.1517199010755</v>
+        <v>150.6247244831802</v>
       </c>
       <c r="H111" t="n">
         <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>194799</v>
+        <v>195525</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147438021</v>
+        <v>147335705</v>
       </c>
       <c r="F112" t="n">
-        <v>8555.883892174372</v>
+        <v>8608.014712233708</v>
       </c>
       <c r="G112" t="n">
-        <v>3348.468935008223</v>
+        <v>2915.799556473239</v>
       </c>
       <c r="H112" t="n">
-        <v>0.47</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>72556</v>
+        <v>73312</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6307976</v>
+        <v>6296151</v>
       </c>
       <c r="E113" t="n">
-        <v>32452619</v>
+        <v>32391784</v>
       </c>
       <c r="F113" t="n">
-        <v>2055.141508371775</v>
+        <v>2786.385755315601</v>
       </c>
       <c r="G113" t="n">
-        <v>1459.853580899806</v>
+        <v>1254.526520825442</v>
       </c>
       <c r="H113" t="n">
         <v>0.62</v>
       </c>
       <c r="I113" t="n">
-        <v>966098</v>
+        <v>967419</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>31997359</v>
+        <v>31942919</v>
       </c>
       <c r="E114" t="n">
-        <v>43873973</v>
+        <v>43799327</v>
       </c>
       <c r="F114" t="n">
-        <v>4879.044952269099</v>
+        <v>6231.331082662902</v>
       </c>
       <c r="G114" t="n">
-        <v>5107.898049542901</v>
+        <v>5222.596871388447</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="I114" t="n">
-        <v>1194819</v>
+        <v>1262789</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7578647</v>
+        <v>7583640</v>
       </c>
       <c r="F115" t="n">
-        <v>1898.335102057541</v>
+        <v>1774.389076352444</v>
       </c>
       <c r="G115" t="n">
-        <v>5570.302514232297</v>
+        <v>5462.275255288593</v>
       </c>
       <c r="H115" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="I115" t="n">
-        <v>649180</v>
+        <v>651118</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3587071</v>
+        <v>3602627</v>
       </c>
       <c r="E116" t="n">
-        <v>4805109</v>
+        <v>4825947</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>124237</v>
+        <v>86189</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32351315</v>
+        <v>32422476</v>
       </c>
       <c r="E117" t="n">
-        <v>161447978</v>
+        <v>161803101</v>
       </c>
       <c r="F117" t="n">
-        <v>85924.53575795081</v>
+        <v>76322.71488194681</v>
       </c>
       <c r="G117" t="n">
-        <v>77496.94093393888</v>
+        <v>78281.95897699386</v>
       </c>
       <c r="H117" t="n">
         <v>0.19</v>
       </c>
       <c r="I117" t="n">
-        <v>14434928</v>
+        <v>14396527</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3491551</v>
+        <v>3492290</v>
       </c>
       <c r="E118" t="n">
-        <v>5015678</v>
+        <v>5016739</v>
       </c>
       <c r="F118" t="n">
-        <v>616.4672774957149</v>
+        <v>616.4726526838356</v>
       </c>
       <c r="G118" t="n">
-        <v>379.3510513285329</v>
+        <v>379.3543590195314</v>
       </c>
       <c r="H118" t="n">
         <v>0.79</v>
       </c>
       <c r="I118" t="n">
-        <v>144979</v>
+        <v>144486</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>283050649</v>
+        <v>284500510</v>
       </c>
       <c r="E119" t="n">
-        <v>523708249</v>
+        <v>526390824</v>
       </c>
       <c r="F119" t="n">
-        <v>26556.14748716045</v>
+        <v>29615.67813386473</v>
       </c>
       <c r="G119" t="n">
-        <v>26300.95944187462</v>
+        <v>25636.2194272925</v>
       </c>
       <c r="H119" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>21282496</v>
+        <v>21412670</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69585528</v>
+        <v>69660437</v>
       </c>
       <c r="E120" t="n">
-        <v>663701152</v>
+        <v>664414722</v>
       </c>
       <c r="F120" t="n">
-        <v>1140.137341026326</v>
+        <v>1716.3549116351</v>
       </c>
       <c r="G120" t="n">
-        <v>1668.443795832036</v>
+        <v>2622.24729129382</v>
       </c>
       <c r="H120" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>23813697</v>
+        <v>23885255</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36109880</v>
+        <v>36143692</v>
       </c>
       <c r="E121" t="n">
-        <v>47207257</v>
+        <v>47251353</v>
       </c>
       <c r="F121" t="n">
-        <v>170.4885542121561</v>
+        <v>88.24720815597595</v>
       </c>
       <c r="G121" t="n">
-        <v>5765.580423643891</v>
+        <v>6149.565316767246</v>
       </c>
       <c r="H121" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="I121" t="n">
-        <v>421325</v>
+        <v>589389</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9043561</v>
+        <v>9138149</v>
       </c>
       <c r="E122" t="n">
-        <v>26809984</v>
+        <v>27090394</v>
       </c>
       <c r="F122" t="n">
-        <v>594.8761868793461</v>
+        <v>657.1982666693979</v>
       </c>
       <c r="G122" t="n">
-        <v>6118.035211960667</v>
+        <v>6522.989921041341</v>
       </c>
       <c r="H122" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="I122" t="n">
-        <v>6590430</v>
+        <v>6614468</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2281049</v>
+        <v>2277425</v>
       </c>
       <c r="E123" t="n">
-        <v>7622431</v>
+        <v>7610318</v>
       </c>
       <c r="F123" t="n">
-        <v>636.3399775288934</v>
+        <v>636.3455259938529</v>
       </c>
       <c r="G123" t="n">
-        <v>1051.996802401677</v>
+        <v>1034.235175025839</v>
       </c>
       <c r="H123" t="n">
         <v>0.65</v>
       </c>
       <c r="I123" t="n">
-        <v>869770</v>
+        <v>866345</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7364300</v>
+        <v>7337747</v>
       </c>
       <c r="E124" t="n">
-        <v>7364311</v>
+        <v>7337758</v>
       </c>
       <c r="F124" t="n">
-        <v>203.4495604831866</v>
+        <v>198.2436911113556</v>
       </c>
       <c r="G124" t="n">
-        <v>595.8060577450301</v>
+        <v>569.9535556037926</v>
       </c>
       <c r="H124" t="n">
         <v>2.42</v>
       </c>
       <c r="I124" t="n">
-        <v>259127</v>
+        <v>258930</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5984589</v>
+        <v>5947454</v>
       </c>
       <c r="E125" t="n">
-        <v>5984589</v>
+        <v>5947454</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>519989</v>
+        <v>514519</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6136185</v>
+        <v>6132256</v>
       </c>
       <c r="E126" t="n">
-        <v>22413109</v>
+        <v>22398760</v>
       </c>
       <c r="F126" t="n">
-        <v>6622.429065794463</v>
+        <v>6631.485991496949</v>
       </c>
       <c r="G126" t="n">
-        <v>8521.385181854745</v>
+        <v>8496.519695643159</v>
       </c>
       <c r="H126" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="I126" t="n">
-        <v>510727</v>
+        <v>580027</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43347726</v>
+        <v>43291804</v>
       </c>
       <c r="E127" t="n">
-        <v>43347726</v>
+        <v>43291804</v>
       </c>
       <c r="F127" t="n">
-        <v>54211.41821502615</v>
+        <v>63065.44408602193</v>
       </c>
       <c r="G127" t="n">
-        <v>78812.62456945491</v>
+        <v>77452.53200364148</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>11705413</v>
+        <v>9890381</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141144244</v>
+        <v>140934308</v>
       </c>
       <c r="F128" t="n">
-        <v>74.64241831317001</v>
+        <v>74.52530830878233</v>
       </c>
       <c r="G128" t="n">
-        <v>2814.710027693552</v>
+        <v>2814.78696344746</v>
       </c>
       <c r="H128" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="I128" t="n">
-        <v>1627668</v>
+        <v>1623895</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2885754</v>
+        <v>2860925</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72853</v>
+        <v>72027</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19796005</v>
+        <v>19798647</v>
       </c>
       <c r="F130" t="n">
-        <v>662.9265849673345</v>
+        <v>921.6317749321446</v>
       </c>
       <c r="G130" t="n">
-        <v>989.169131150286</v>
+        <v>817.2234197675863</v>
       </c>
       <c r="H130" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="I130" t="n">
-        <v>2933735</v>
+        <v>2931527</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1305732</v>
+        <v>1310909</v>
       </c>
       <c r="E131" t="n">
-        <v>3950960</v>
+        <v>3960400</v>
       </c>
       <c r="F131" t="n">
-        <v>836.9006697612493</v>
+        <v>836.797197920997</v>
       </c>
       <c r="G131" t="n">
-        <v>702.0561648470127</v>
+        <v>702.0622863137881</v>
       </c>
       <c r="H131" t="n">
         <v>1.51</v>
       </c>
       <c r="I131" t="n">
-        <v>46686</v>
+        <v>40466</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>578423029</v>
+        <v>579404414</v>
       </c>
       <c r="E132" t="n">
-        <v>2240147051</v>
+        <v>2243947811</v>
       </c>
       <c r="F132" t="n">
-        <v>717010.2097089867</v>
+        <v>747414.2463025182</v>
       </c>
       <c r="G132" t="n">
-        <v>1069882.66947262</v>
+        <v>976465.0819428373</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62380545</v>
+        <v>61803846</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3601001</v>
+        <v>3596802</v>
       </c>
       <c r="E133" t="n">
-        <v>6138396</v>
+        <v>6131238</v>
       </c>
       <c r="F133" t="n">
-        <v>5239.926266772588</v>
+        <v>4823.57027912198</v>
       </c>
       <c r="G133" t="n">
-        <v>5404.640826409187</v>
+        <v>4767.646429469899</v>
       </c>
       <c r="H133" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="I133" t="n">
-        <v>1127446</v>
+        <v>1127224</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109068613</v>
+        <v>109151351</v>
       </c>
       <c r="E134" t="n">
-        <v>1032575801</v>
+        <v>1033359102</v>
       </c>
       <c r="F134" t="n">
-        <v>77962.2507650653</v>
+        <v>83996.99616478589</v>
       </c>
       <c r="G134" t="n">
-        <v>87509.44974806257</v>
+        <v>89226.93412395034</v>
       </c>
       <c r="H134" t="n">
         <v>0.1</v>
       </c>
       <c r="I134" t="n">
-        <v>17699539</v>
+        <v>17624431</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>950104256</v>
+        <v>951695599</v>
       </c>
       <c r="E135" t="n">
-        <v>1043692129</v>
+        <v>1045440224</v>
       </c>
       <c r="F135" t="n">
-        <v>24002.58874824243</v>
+        <v>13878.51188495361</v>
       </c>
       <c r="G135" t="n">
-        <v>14067.87568377965</v>
+        <v>13936.71696923171</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I135" t="n">
-        <v>11417981</v>
+        <v>11387135</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1066081</v>
+        <v>1065741</v>
       </c>
       <c r="E136" t="n">
-        <v>4128100</v>
+        <v>4126783</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>298065</v>
+        <v>297980</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>120239099</v>
+        <v>120306802</v>
       </c>
       <c r="E137" t="n">
-        <v>461256538</v>
+        <v>461516257</v>
       </c>
       <c r="F137" t="n">
-        <v>185817.3259201128</v>
+        <v>151403.2249028813</v>
       </c>
       <c r="G137" t="n">
-        <v>241193.6328289612</v>
+        <v>241006.6604118052</v>
       </c>
       <c r="H137" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I137" t="n">
-        <v>33684430</v>
+        <v>32967816</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3083372</v>
+        <v>3082601</v>
       </c>
       <c r="E138" t="n">
-        <v>29215405</v>
+        <v>29208097</v>
       </c>
       <c r="F138" t="n">
-        <v>2753.906297305315</v>
+        <v>2750.385275998152</v>
       </c>
       <c r="G138" t="n">
-        <v>4476.850630701918</v>
+        <v>4864.563828254163</v>
       </c>
       <c r="H138" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="I138" t="n">
-        <v>222102</v>
+        <v>223798</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22417080</v>
+        <v>22403372</v>
       </c>
       <c r="E139" t="n">
-        <v>22417080</v>
+        <v>22403372</v>
       </c>
       <c r="F139" t="n">
-        <v>1545.296304353264</v>
+        <v>1374.152798589693</v>
       </c>
       <c r="G139" t="n">
-        <v>1275.09350549044</v>
+        <v>1463.449866314863</v>
       </c>
       <c r="H139" t="n">
-        <v>1.02</v>
+        <v>1.95</v>
       </c>
       <c r="I139" t="n">
-        <v>812287</v>
+        <v>812724</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494781293</v>
+        <v>494481877</v>
       </c>
       <c r="E140" t="n">
-        <v>494781293</v>
+        <v>494481877</v>
       </c>
       <c r="F140" t="n">
-        <v>687736.5376017704</v>
+        <v>689357.1631471497</v>
       </c>
       <c r="G140" t="n">
-        <v>788370.7572842542</v>
+        <v>788111.5311033645</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>46206798</v>
+        <v>44842444</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>38011142</v>
+        <v>38415458</v>
       </c>
       <c r="F141" t="n">
-        <v>79067.12928863689</v>
+        <v>60183.42692992265</v>
       </c>
       <c r="G141" t="n">
-        <v>83118.43845284091</v>
+        <v>70503.86452991598</v>
       </c>
       <c r="H141" t="n">
-        <v>0.18</v>
+        <v>0.55</v>
       </c>
       <c r="I141" t="n">
-        <v>8400940</v>
+        <v>8452780</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>820344</v>
+        <v>816819</v>
       </c>
       <c r="E142" t="n">
-        <v>13084193</v>
+        <v>13027969</v>
       </c>
       <c r="F142" t="n">
-        <v>504.5643168356739</v>
+        <v>504.5687163037738</v>
       </c>
       <c r="G142" t="n">
-        <v>27.056366864054</v>
+        <v>27.06876972523619</v>
       </c>
       <c r="H142" t="n">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="I142" t="n">
-        <v>335639</v>
+        <v>335751</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2518159348</v>
+        <v>2523927053</v>
       </c>
       <c r="E143" t="n">
-        <v>2673629994</v>
+        <v>2679753797</v>
       </c>
       <c r="F143" t="n">
-        <v>3289.846083196362</v>
+        <v>3293.204808139585</v>
       </c>
       <c r="G143" t="n">
-        <v>23256.07142190136</v>
+        <v>23267.65931897263</v>
       </c>
       <c r="H143" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I143" t="n">
-        <v>60008551</v>
+        <v>59618273</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1711269</v>
+        <v>1707810</v>
       </c>
       <c r="E144" t="n">
-        <v>1717309</v>
+        <v>1713838</v>
       </c>
       <c r="F144" t="n">
-        <v>1854.483080783659</v>
+        <v>171.4936387050409</v>
       </c>
       <c r="G144" t="n">
-        <v>1879.765458697725</v>
+        <v>1621.823544480404</v>
       </c>
       <c r="H144" t="n">
-        <v>1.24</v>
+        <v>0.3</v>
       </c>
       <c r="I144" t="n">
-        <v>465355</v>
+        <v>443664</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>56911799</v>
+        <v>57061749</v>
       </c>
       <c r="E145" t="n">
-        <v>139600785</v>
+        <v>139968603</v>
       </c>
       <c r="F145" t="n">
-        <v>5198.377750302108</v>
+        <v>5206.780545204421</v>
       </c>
       <c r="G145" t="n">
-        <v>4022.220021083106</v>
+        <v>2996.797011859425</v>
       </c>
       <c r="H145" t="n">
-        <v>1.08</v>
+        <v>0.72</v>
       </c>
       <c r="I145" t="n">
-        <v>22008884</v>
+        <v>22021449</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>737417339</v>
+        <v>738039353</v>
       </c>
       <c r="E146" t="n">
-        <v>1137162645</v>
+        <v>1138121844</v>
       </c>
       <c r="F146" t="n">
-        <v>105566.7836944824</v>
+        <v>149566.3513337476</v>
       </c>
       <c r="G146" t="n">
-        <v>128699.9183559216</v>
+        <v>102268.9013778426</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>273864899</v>
+        <v>274195783</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21752812</v>
+        <v>21805484</v>
       </c>
       <c r="E147" t="n">
-        <v>21752812</v>
+        <v>21805484</v>
       </c>
       <c r="F147" t="n">
-        <v>3479.842711236764</v>
+        <v>3652.802892358544</v>
       </c>
       <c r="G147" t="n">
-        <v>7038.662400032452</v>
+        <v>5931.077473609849</v>
       </c>
       <c r="H147" t="n">
         <v>0.33</v>
       </c>
       <c r="I147" t="n">
-        <v>5905450</v>
+        <v>5893519</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3808401</v>
+        <v>3798383</v>
       </c>
       <c r="E148" t="n">
-        <v>8301781</v>
+        <v>8279943</v>
       </c>
       <c r="F148" t="n">
-        <v>6692.172183702469</v>
+        <v>6692.195214874646</v>
       </c>
       <c r="G148" t="n">
-        <v>7141.939093731916</v>
+        <v>7142.262899886297</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2087710</v>
+        <v>2091507</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9246122</v>
+        <v>9243173</v>
       </c>
       <c r="E149" t="n">
-        <v>9246122</v>
+        <v>9243173</v>
       </c>
       <c r="F149" t="n">
-        <v>76967.18913355151</v>
+        <v>76494.52280857599</v>
       </c>
       <c r="G149" t="n">
-        <v>79923.51891499036</v>
+        <v>78418.33576830656</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I149" t="n">
-        <v>6469725</v>
+        <v>6468819</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>467785611</v>
+        <v>466989852</v>
       </c>
       <c r="E150" t="n">
-        <v>1628322780</v>
+        <v>1625552809</v>
       </c>
       <c r="F150" t="n">
-        <v>374180.9902904714</v>
+        <v>386157.6191620996</v>
       </c>
       <c r="G150" t="n">
-        <v>497273.6053059014</v>
+        <v>468815.172359123</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>47755083</v>
+        <v>48135721</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46046501</v>
+        <v>46007885</v>
       </c>
       <c r="E151" t="n">
-        <v>113349799</v>
+        <v>113254738</v>
       </c>
       <c r="F151" t="n">
-        <v>8602.038842024896</v>
+        <v>6968.324065334662</v>
       </c>
       <c r="G151" t="n">
-        <v>7622.065802238443</v>
+        <v>7584.92193385049</v>
       </c>
       <c r="H151" t="n">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="I151" t="n">
-        <v>123121</v>
+        <v>123233</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7091626</v>
+        <v>7092500</v>
       </c>
       <c r="E152" t="n">
-        <v>18423282</v>
+        <v>18425552</v>
       </c>
       <c r="F152" t="n">
-        <v>6069.399714748297</v>
+        <v>6155.113095241185</v>
       </c>
       <c r="G152" t="n">
-        <v>6459.977310821479</v>
+        <v>6020.971824896183</v>
       </c>
       <c r="H152" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="I152" t="n">
-        <v>775611</v>
+        <v>776018</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18782192085</v>
+        <v>18782522537</v>
       </c>
       <c r="F153" t="n">
-        <v>1196.815891643904</v>
+        <v>1338.135094111421</v>
       </c>
       <c r="G153" t="n">
-        <v>325.8521144274742</v>
+        <v>192.4809136614344</v>
       </c>
       <c r="H153" t="n">
-        <v>2.46</v>
+        <v>2.13</v>
       </c>
       <c r="I153" t="n">
-        <v>30088793</v>
+        <v>29695906</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2322876</v>
+        <v>2315687</v>
       </c>
       <c r="E154" t="n">
-        <v>9291506</v>
+        <v>9262748</v>
       </c>
       <c r="F154" t="n">
-        <v>1281.562035461265</v>
+        <v>1219.356420067702</v>
       </c>
       <c r="G154" t="n">
-        <v>1754.841898673809</v>
+        <v>1880.995362946642</v>
       </c>
       <c r="H154" t="n">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="I154" t="n">
-        <v>7620563</v>
+        <v>7343527</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>210239326</v>
+        <v>210347134</v>
       </c>
       <c r="E155" t="n">
-        <v>646406810</v>
+        <v>646738279</v>
       </c>
       <c r="F155" t="n">
-        <v>33510.03378730237</v>
+        <v>43558.13136051086</v>
       </c>
       <c r="G155" t="n">
-        <v>45045.39507161621</v>
+        <v>41751.41287963813</v>
       </c>
       <c r="H155" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>22984804</v>
+        <v>22806187</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>379956897</v>
+        <v>381392464</v>
       </c>
       <c r="E156" t="n">
-        <v>2171182269</v>
+        <v>2179385508</v>
       </c>
       <c r="F156" t="n">
-        <v>256774.267940293</v>
+        <v>274534.6597244928</v>
       </c>
       <c r="G156" t="n">
-        <v>342160.9994242411</v>
+        <v>339476.8544229259</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>63517583</v>
+        <v>63508203</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3820890</v>
+        <v>3814430</v>
       </c>
       <c r="F2" t="n">
-        <v>549.5684586323264</v>
+        <v>269.4561433423867</v>
       </c>
       <c r="G2" t="n">
-        <v>762.5816311111914</v>
+        <v>526.7645652480419</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>38101</v>
+        <v>138518</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>591375570</v>
+        <v>593509672</v>
       </c>
       <c r="E3" t="n">
-        <v>1147709613</v>
+        <v>1151861075</v>
       </c>
       <c r="F3" t="n">
-        <v>17654.39334831265</v>
+        <v>22821.04529743392</v>
       </c>
       <c r="G3" t="n">
-        <v>32489.44454478482</v>
+        <v>32978.24225459417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>47173527</v>
+        <v>47465742</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251555377</v>
+        <v>252013767</v>
       </c>
       <c r="E4" t="n">
-        <v>1577468413</v>
+        <v>1580342912</v>
       </c>
       <c r="F4" t="n">
-        <v>97562.44613703521</v>
+        <v>175633.0973546659</v>
       </c>
       <c r="G4" t="n">
-        <v>155495.5005186632</v>
+        <v>152426.2404562309</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>28028268</v>
+        <v>29422509</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140156167</v>
+        <v>141372122</v>
       </c>
       <c r="E5" t="n">
-        <v>155314937</v>
+        <v>156662405</v>
       </c>
       <c r="F5" t="n">
-        <v>8591.781473141758</v>
+        <v>8449.183365966304</v>
       </c>
       <c r="G5" t="n">
-        <v>325.4368334159435</v>
+        <v>726.7094379821731</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I5" t="n">
-        <v>53681697</v>
+        <v>53654367</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48250976</v>
+        <v>49196216</v>
       </c>
       <c r="E6" t="n">
-        <v>60360733</v>
+        <v>61543205</v>
       </c>
       <c r="F6" t="n">
-        <v>6499.920978847829</v>
+        <v>6885.171127699395</v>
       </c>
       <c r="G6" t="n">
-        <v>5477.196373233955</v>
+        <v>3680.36180209757</v>
       </c>
       <c r="H6" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>682304</v>
+        <v>767685</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65409435</v>
+        <v>65795685</v>
       </c>
       <c r="E7" t="n">
-        <v>130273458</v>
+        <v>131016694</v>
       </c>
       <c r="F7" t="n">
-        <v>10799.1954565693</v>
+        <v>10663.44231185968</v>
       </c>
       <c r="G7" t="n">
-        <v>11909.5810156462</v>
+        <v>14236.1205119606</v>
       </c>
       <c r="H7" t="n">
         <v>0.48</v>
       </c>
       <c r="I7" t="n">
-        <v>1060886</v>
+        <v>994895</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41872031</v>
+        <v>41085011</v>
       </c>
       <c r="E8" t="n">
-        <v>46860833</v>
+        <v>45980045</v>
       </c>
       <c r="F8" t="n">
-        <v>317.2150112021224</v>
+        <v>680.4088766735458</v>
       </c>
       <c r="G8" t="n">
-        <v>92.89864830083263</v>
+        <v>104.1001723076031</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5359106</v>
+        <v>11798765</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13831119</v>
+        <v>13871714</v>
       </c>
       <c r="E9" t="n">
-        <v>40759416</v>
+        <v>40879046</v>
       </c>
       <c r="F9" t="n">
-        <v>5135.011507252321</v>
+        <v>4959.774627614725</v>
       </c>
       <c r="G9" t="n">
-        <v>4883.656352889032</v>
+        <v>4718.002814868778</v>
       </c>
       <c r="H9" t="n">
-        <v>1.11</v>
+        <v>0.99</v>
       </c>
       <c r="I9" t="n">
-        <v>883607</v>
+        <v>847041</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8708255</v>
+        <v>9380711</v>
       </c>
       <c r="E10" t="n">
-        <v>37432923</v>
+        <v>40323513</v>
       </c>
       <c r="F10" t="n">
-        <v>3450.473301469815</v>
+        <v>715.3626425578964</v>
       </c>
       <c r="G10" t="n">
-        <v>3961.71731153573</v>
+        <v>392.8972440720527</v>
       </c>
       <c r="H10" t="n">
-        <v>0.53</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>932999</v>
+        <v>819961</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>547861417</v>
+        <v>555495259</v>
       </c>
       <c r="E11" t="n">
-        <v>685293205</v>
+        <v>694842008</v>
       </c>
       <c r="F11" t="n">
-        <v>227236.1991317802</v>
+        <v>282045.8189275591</v>
       </c>
       <c r="G11" t="n">
-        <v>266393.8402803854</v>
+        <v>280293.3919879323</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>98958392</v>
+        <v>101718011</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4347979</v>
+        <v>4367913</v>
       </c>
       <c r="E12" t="n">
-        <v>26695935</v>
+        <v>26818231</v>
       </c>
       <c r="F12" t="n">
-        <v>9768.160955796331</v>
+        <v>8614.463778919242</v>
       </c>
       <c r="G12" t="n">
-        <v>9934.753848038865</v>
+        <v>11001.52404655625</v>
       </c>
       <c r="H12" t="n">
         <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>561385</v>
+        <v>371672</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23942731</v>
+        <v>23485976</v>
       </c>
       <c r="E13" t="n">
-        <v>23986893</v>
+        <v>23528888</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>869789</v>
+        <v>868959</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79012124</v>
+        <v>78860970</v>
       </c>
       <c r="E14" t="n">
-        <v>232463469</v>
+        <v>232018756</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>464878</v>
+        <v>447941</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>491536218</v>
+        <v>484168283</v>
       </c>
       <c r="E15" t="n">
-        <v>491536218</v>
+        <v>484168283</v>
       </c>
       <c r="F15" t="n">
-        <v>20404.5957895824</v>
+        <v>24946.30892708668</v>
       </c>
       <c r="G15" t="n">
-        <v>17702.07866390775</v>
+        <v>21777.63984875844</v>
       </c>
       <c r="H15" t="n">
         <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>75952495</v>
+        <v>75138017</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4546876</v>
+        <v>4630049</v>
       </c>
       <c r="E16" t="n">
-        <v>4546876</v>
+        <v>4630049</v>
       </c>
       <c r="F16" t="n">
-        <v>414.9926558399252</v>
+        <v>262.2770801217314</v>
       </c>
       <c r="G16" t="n">
-        <v>1122.423249713165</v>
+        <v>1362.941780009852</v>
       </c>
       <c r="H16" t="n">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2235251</v>
+        <v>2262572</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3203045</v>
+        <v>3324276</v>
       </c>
       <c r="E17" t="n">
-        <v>3203045</v>
+        <v>3324276</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>665158</v>
+        <v>750666</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168143302</v>
+        <v>168037449</v>
       </c>
       <c r="E18" t="n">
-        <v>208168410</v>
+        <v>208037360</v>
       </c>
       <c r="F18" t="n">
-        <v>4614.930062314692</v>
+        <v>8020.686890712161</v>
       </c>
       <c r="G18" t="n">
-        <v>14221.49348668714</v>
+        <v>7758.588577902939</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>168923</v>
+        <v>522171</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6939671</v>
+        <v>6453276</v>
       </c>
       <c r="E19" t="n">
-        <v>9557700</v>
+        <v>8887810</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>420853</v>
+        <v>439978</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>886271</v>
+        <v>880464</v>
       </c>
       <c r="E20" t="n">
-        <v>6203896</v>
+        <v>6163248</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>221541</v>
+        <v>214434</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108821775</v>
+        <v>108738860</v>
       </c>
       <c r="E21" t="n">
-        <v>422959953</v>
+        <v>422564584</v>
       </c>
       <c r="F21" t="n">
-        <v>4765.289869189817</v>
+        <v>3406.986016800252</v>
       </c>
       <c r="G21" t="n">
-        <v>8892.389845103529</v>
+        <v>9500.530675431362</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="I21" t="n">
-        <v>12407227</v>
+        <v>12708835</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1719417</v>
+        <v>1720518</v>
       </c>
       <c r="E22" t="n">
-        <v>12384815</v>
+        <v>12392747</v>
       </c>
       <c r="F22" t="n">
-        <v>4925.278148119663</v>
+        <v>4927.735880692859</v>
       </c>
       <c r="G22" t="n">
-        <v>5949.732365823527</v>
+        <v>5971.598007175335</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>54229</v>
+        <v>55329</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>137094017</v>
+        <v>138867255</v>
       </c>
       <c r="E23" t="n">
-        <v>137094017</v>
+        <v>138867255</v>
       </c>
       <c r="F23" t="n">
-        <v>1006189.974099315</v>
+        <v>984375.1833785851</v>
       </c>
       <c r="G23" t="n">
-        <v>1185063.467991549</v>
+        <v>1400541.459588795</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>91505601</v>
+        <v>96970000</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63232179</v>
+        <v>63661124</v>
       </c>
       <c r="E24" t="n">
-        <v>324267586</v>
+        <v>326467304</v>
       </c>
       <c r="F24" t="n">
-        <v>65778.393544929</v>
+        <v>79493.67345960617</v>
       </c>
       <c r="G24" t="n">
-        <v>111653.1202500842</v>
+        <v>127713.7872900335</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>26623876</v>
+        <v>25757247</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>248910997</v>
+        <v>251394517</v>
       </c>
       <c r="E25" t="n">
-        <v>248910997</v>
+        <v>251394517</v>
       </c>
       <c r="F25" t="n">
-        <v>289868.4811235454</v>
+        <v>295989.7024492058</v>
       </c>
       <c r="G25" t="n">
-        <v>428720.6688890558</v>
+        <v>412440.9145713772</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>26330682</v>
+        <v>26938774</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1110582</v>
+        <v>1117210</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>130095</v>
+        <v>117927</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2123405</v>
+        <v>2153714</v>
       </c>
       <c r="E27" t="n">
-        <v>2371814</v>
+        <v>2403579</v>
       </c>
       <c r="F27" t="n">
-        <v>104.4482561725703</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>902.0777870774035</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5600000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="I27" t="n">
-        <v>447690</v>
+        <v>477895</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3768899</v>
+        <v>3808208</v>
       </c>
       <c r="E28" t="n">
-        <v>3769692</v>
+        <v>3809027</v>
       </c>
       <c r="F28" t="n">
-        <v>890.3778595483748</v>
+        <v>894.4752236856382</v>
       </c>
       <c r="G28" t="n">
-        <v>2082.03436264369</v>
+        <v>3405.420124426299</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24</v>
+        <v>0.57</v>
       </c>
       <c r="I28" t="n">
-        <v>247059</v>
+        <v>246240</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6738450</v>
+        <v>6794713</v>
       </c>
       <c r="E29" t="n">
-        <v>16367177</v>
+        <v>16503836</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>429429</v>
+        <v>423157</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96611617</v>
+        <v>96049217</v>
       </c>
       <c r="E30" t="n">
-        <v>120463362</v>
+        <v>119762114</v>
       </c>
       <c r="F30" t="n">
-        <v>111237.5292790874</v>
+        <v>114383.2710680944</v>
       </c>
       <c r="G30" t="n">
-        <v>102129.5524075722</v>
+        <v>132221.5958559368</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>12617743</v>
+        <v>13168336</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1108781</v>
+        <v>1109965</v>
       </c>
       <c r="E31" t="n">
-        <v>12049814</v>
+        <v>12062684</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12841.72</v>
+        <v>12859.81</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>77782218</v>
+        <v>82438123</v>
       </c>
       <c r="E32" t="n">
-        <v>217662904</v>
+        <v>230679334</v>
       </c>
       <c r="F32" t="n">
-        <v>72658.6706056015</v>
+        <v>49487.95934986611</v>
       </c>
       <c r="G32" t="n">
-        <v>68745.49163300374</v>
+        <v>93254.53875017432</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>54786360</v>
+        <v>64077761</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4067034</v>
+        <v>4151731</v>
       </c>
       <c r="E33" t="n">
-        <v>8020534</v>
+        <v>8187564</v>
       </c>
       <c r="F33" t="n">
-        <v>7672.48897692239</v>
+        <v>7875.08267681785</v>
       </c>
       <c r="G33" t="n">
-        <v>10836.55804162767</v>
+        <v>7768.79636332576</v>
       </c>
       <c r="H33" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="I33" t="n">
-        <v>1694292</v>
+        <v>1718216</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36312990</v>
+        <v>36326074</v>
       </c>
       <c r="F34" t="n">
-        <v>242.0878154636944</v>
+        <v>233.4047132002595</v>
       </c>
       <c r="G34" t="n">
-        <v>434.1325547359268</v>
+        <v>284.3927162094923</v>
       </c>
       <c r="H34" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
       <c r="I34" t="n">
-        <v>35127</v>
+        <v>26339</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17156974</v>
+        <v>17159411</v>
       </c>
       <c r="E35" t="n">
-        <v>18083049</v>
+        <v>18085616</v>
       </c>
       <c r="F35" t="n">
-        <v>3485.323093222788</v>
+        <v>3487.062282730927</v>
       </c>
       <c r="G35" t="n">
-        <v>2559.567455069052</v>
+        <v>2560.844688985152</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>50198</v>
+        <v>49020</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23040588</v>
+        <v>23047517</v>
       </c>
       <c r="F36" t="n">
-        <v>5160.279850223982</v>
+        <v>5182.053264577466</v>
       </c>
       <c r="G36" t="n">
-        <v>561.3611767256353</v>
+        <v>5584.590232481916</v>
       </c>
       <c r="H36" t="n">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>128827</v>
+        <v>128329</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>87689778</v>
+        <v>84602256</v>
       </c>
       <c r="E37" t="n">
-        <v>182826144</v>
+        <v>176388908</v>
       </c>
       <c r="F37" t="n">
-        <v>54454.64516751765</v>
+        <v>60366.19142718231</v>
       </c>
       <c r="G37" t="n">
-        <v>40819.53310797755</v>
+        <v>52060.12156749995</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>77011541</v>
+        <v>80544311</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>275983698</v>
+        <v>277545954</v>
       </c>
       <c r="E38" t="n">
-        <v>275983698</v>
+        <v>277545954</v>
       </c>
       <c r="F38" t="n">
-        <v>27748.56682993057</v>
+        <v>25005.95853208659</v>
       </c>
       <c r="G38" t="n">
-        <v>34565.39867639516</v>
+        <v>31197.07965817853</v>
       </c>
       <c r="H38" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>11183751</v>
+        <v>11802926</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195474535</v>
+        <v>195618902</v>
       </c>
       <c r="E39" t="n">
-        <v>679096201</v>
+        <v>679597746</v>
       </c>
       <c r="F39" t="n">
-        <v>152662.7406391974</v>
+        <v>46804.00424258872</v>
       </c>
       <c r="G39" t="n">
-        <v>278920.4395647925</v>
+        <v>210645.4729951181</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>41360870</v>
+        <v>41238373</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3298050</v>
+        <v>3266822</v>
       </c>
       <c r="E40" t="n">
-        <v>3298049</v>
+        <v>3266822</v>
       </c>
       <c r="F40" t="n">
-        <v>1136.444372933697</v>
+        <v>845.3058132611527</v>
       </c>
       <c r="G40" t="n">
-        <v>3171.801344385171</v>
+        <v>3927.95310069963</v>
       </c>
       <c r="H40" t="n">
-        <v>0.55</v>
+        <v>0.76</v>
       </c>
       <c r="I40" t="n">
-        <v>2022137</v>
+        <v>1916263</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109000859</v>
+        <v>109351211</v>
       </c>
       <c r="E41" t="n">
-        <v>462245177</v>
+        <v>463585760</v>
       </c>
       <c r="F41" t="n">
-        <v>5480.388114544334</v>
+        <v>5626.780556541659</v>
       </c>
       <c r="G41" t="n">
-        <v>6879.686927665816</v>
+        <v>8632.996946697878</v>
       </c>
       <c r="H41" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I41" t="n">
-        <v>15060963</v>
+        <v>14966037</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>562051</v>
+        <v>609148</v>
       </c>
       <c r="E42" t="n">
-        <v>6817126</v>
+        <v>7388377</v>
       </c>
       <c r="F42" t="n">
-        <v>559.8757915145461</v>
+        <v>503.5037530156172</v>
       </c>
       <c r="G42" t="n">
-        <v>430.1921533148011</v>
+        <v>525.3180587293137</v>
       </c>
       <c r="H42" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="I42" t="n">
-        <v>2968944</v>
+        <v>2987908</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1457736844</v>
+        <v>1428088407</v>
       </c>
       <c r="E43" t="n">
-        <v>6990146704</v>
+        <v>6847976376</v>
       </c>
       <c r="F43" t="n">
-        <v>42121.74306645836</v>
+        <v>18967.89769297299</v>
       </c>
       <c r="G43" t="n">
-        <v>45879.94510761469</v>
+        <v>22532.46610313508</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I43" t="n">
-        <v>523184855</v>
+        <v>571483061</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5912161018</v>
+        <v>5915691721</v>
       </c>
       <c r="E44" t="n">
-        <v>5912161018</v>
+        <v>5911038647</v>
       </c>
       <c r="F44" t="n">
-        <v>660898.9816964051</v>
+        <v>779706.3221563878</v>
       </c>
       <c r="G44" t="n">
-        <v>439937.5845168919</v>
+        <v>418705.2595211958</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>393742430</v>
+        <v>415089034</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>258740722</v>
+        <v>260647281</v>
       </c>
       <c r="E45" t="n">
-        <v>1116868593</v>
+        <v>1125098360</v>
       </c>
       <c r="F45" t="n">
-        <v>110236.7912028939</v>
+        <v>109182.4404058735</v>
       </c>
       <c r="G45" t="n">
-        <v>91880.55707809119</v>
+        <v>95329.09968053282</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>142112179</v>
+        <v>140218988</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>112305247</v>
+        <v>113307447</v>
       </c>
       <c r="E46" t="n">
-        <v>112305247</v>
+        <v>113307447</v>
       </c>
       <c r="F46" t="n">
-        <v>31520.4731669849</v>
+        <v>32593.81158136083</v>
       </c>
       <c r="G46" t="n">
-        <v>35261.27363026809</v>
+        <v>30795.08837488314</v>
       </c>
       <c r="H46" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="I46" t="n">
-        <v>7009673</v>
+        <v>7209059</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2044844964</v>
+        <v>2042406981</v>
       </c>
       <c r="E47" t="n">
-        <v>2044844964</v>
+        <v>2042406981</v>
       </c>
       <c r="F47" t="n">
-        <v>176476.8996489859</v>
+        <v>227289.3481009538</v>
       </c>
       <c r="G47" t="n">
-        <v>149786.3180220548</v>
+        <v>200673.9643307727</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>6101250349</v>
+        <v>9071683431</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10209733</v>
+        <v>10198497</v>
       </c>
       <c r="F48" t="n">
-        <v>6513.387316990465</v>
+        <v>6372.932681719534</v>
       </c>
       <c r="G48" t="n">
-        <v>6040.717774650622</v>
+        <v>6627.980478227582</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>179180</v>
+        <v>180640</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4153987</v>
+        <v>4181777</v>
       </c>
       <c r="E49" t="n">
-        <v>5453643</v>
+        <v>5490128</v>
       </c>
       <c r="F49" t="n">
-        <v>6000.535936774982</v>
+        <v>5623.593099062424</v>
       </c>
       <c r="G49" t="n">
-        <v>3483.121369428168</v>
+        <v>4314.002604024501</v>
       </c>
       <c r="H49" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>576411</v>
+        <v>583296</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12744350</v>
+        <v>12790668</v>
       </c>
       <c r="E50" t="n">
-        <v>18740326</v>
+        <v>18808436</v>
       </c>
       <c r="F50" t="n">
-        <v>7221.404531124151</v>
+        <v>2687.303519753052</v>
       </c>
       <c r="G50" t="n">
-        <v>6861.289350577817</v>
+        <v>6872.075416102009</v>
       </c>
       <c r="H50" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="I50" t="n">
-        <v>6886024</v>
+        <v>6813230</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21845765</v>
+        <v>22061184</v>
       </c>
       <c r="E51" t="n">
-        <v>28338955</v>
+        <v>28618402</v>
       </c>
       <c r="F51" t="n">
-        <v>11373.35248313651</v>
+        <v>12793.60670805738</v>
       </c>
       <c r="G51" t="n">
-        <v>13612.89460572746</v>
+        <v>9902.61740835502</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>233162</v>
+        <v>238034</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14093738</v>
+        <v>14088447</v>
       </c>
       <c r="E52" t="n">
-        <v>14093738</v>
+        <v>14088447</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5739279</v>
+        <v>5729454</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>97948992</v>
+        <v>99342654</v>
       </c>
       <c r="E53" t="n">
-        <v>121159398</v>
+        <v>122883308</v>
       </c>
       <c r="F53" t="n">
-        <v>931.5999686571347</v>
+        <v>865.3648433577056</v>
       </c>
       <c r="G53" t="n">
-        <v>1411.967457590955</v>
+        <v>3654.250250457374</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>1047622</v>
+        <v>1094281</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4938956</v>
+        <v>4931421</v>
       </c>
       <c r="E54" t="n">
-        <v>6910315</v>
+        <v>6899773</v>
       </c>
       <c r="F54" t="n">
-        <v>108.8270665992185</v>
+        <v>446.9437384540243</v>
       </c>
       <c r="G54" t="n">
-        <v>306.3755495757002</v>
+        <v>251.8322059355805</v>
       </c>
       <c r="H54" t="n">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="I54" t="n">
-        <v>66524</v>
+        <v>54198</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14185972</v>
+        <v>14134841</v>
       </c>
       <c r="E55" t="n">
-        <v>68704928</v>
+        <v>68457292</v>
       </c>
       <c r="F55" t="n">
-        <v>12385.49950063861</v>
+        <v>11062.05584520216</v>
       </c>
       <c r="G55" t="n">
-        <v>8750.742781613671</v>
+        <v>7072.646584014742</v>
       </c>
       <c r="H55" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I55" t="n">
-        <v>5659279</v>
+        <v>5602363</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56081</v>
+        <v>54383</v>
       </c>
       <c r="E56" t="n">
-        <v>134326</v>
+        <v>130258</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16352.73</v>
+        <v>16744.82</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1846155036</v>
+        <v>1852892481</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>31496117</v>
+        <v>32021894</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11848813</v>
+        <v>11911981</v>
       </c>
       <c r="E58" t="n">
-        <v>17179069</v>
+        <v>17270654</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2006208</v>
+        <v>2020721</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>120702473</v>
+        <v>122420809</v>
       </c>
       <c r="E59" t="n">
-        <v>320999771</v>
+        <v>325569565</v>
       </c>
       <c r="F59" t="n">
-        <v>7527.079037770742</v>
+        <v>7797.828926806038</v>
       </c>
       <c r="G59" t="n">
-        <v>7271.775751243289</v>
+        <v>7289.742841327807</v>
       </c>
       <c r="H59" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="I59" t="n">
-        <v>737187</v>
+        <v>763656</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29961919</v>
+        <v>29319926</v>
       </c>
       <c r="E60" t="n">
-        <v>93291801</v>
+        <v>91292842</v>
       </c>
       <c r="F60" t="n">
-        <v>2610.170521005384</v>
+        <v>2621.921573451247</v>
       </c>
       <c r="G60" t="n">
-        <v>4824.801986496432</v>
+        <v>6412.229810461546</v>
       </c>
       <c r="H60" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I60" t="n">
-        <v>10670221</v>
+        <v>11032593</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1826128</v>
+        <v>1826901</v>
       </c>
       <c r="E61" t="n">
-        <v>13094979</v>
+        <v>13100523</v>
       </c>
       <c r="F61" t="n">
-        <v>939.7911025974244</v>
+        <v>5165.618176066462</v>
       </c>
       <c r="G61" t="n">
-        <v>5046.084597195463</v>
+        <v>2852.125612738555</v>
       </c>
       <c r="H61" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="I61" t="n">
-        <v>2077689</v>
+        <v>2105808</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>192899985</v>
+        <v>194246905</v>
       </c>
       <c r="E62" t="n">
-        <v>1092318243</v>
+        <v>1099945327</v>
       </c>
       <c r="F62" t="n">
-        <v>470037.1877376023</v>
+        <v>432732.3109633034</v>
       </c>
       <c r="G62" t="n">
-        <v>775887.2933941935</v>
+        <v>709299.3730344416</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>86376657</v>
+        <v>85798939</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498547</v>
+        <v>489979</v>
       </c>
       <c r="E63" t="n">
-        <v>1678039</v>
+        <v>1649202</v>
       </c>
       <c r="F63" t="n">
-        <v>576.1592400634158</v>
+        <v>5220.591718740765</v>
       </c>
       <c r="G63" t="n">
-        <v>528.9578345132195</v>
+        <v>492.709896860709</v>
       </c>
       <c r="H63" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I63" t="n">
-        <v>556804</v>
+        <v>643235</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>348371</v>
+        <v>358446</v>
       </c>
       <c r="E64" t="n">
-        <v>348371</v>
+        <v>358446</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2588.67</v>
+        <v>3520.39</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>123351147</v>
+        <v>131114099</v>
       </c>
       <c r="E65" t="n">
-        <v>913712201</v>
+        <v>971215548</v>
       </c>
       <c r="F65" t="n">
-        <v>13791.6337853049</v>
+        <v>31545.84377055989</v>
       </c>
       <c r="G65" t="n">
-        <v>40379.00447310955</v>
+        <v>30381.00623775432</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>35785340</v>
+        <v>36499784</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8602061</v>
+        <v>8799615</v>
       </c>
       <c r="E66" t="n">
-        <v>11523894</v>
+        <v>11788550</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>84704</v>
+        <v>48351</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>34862353</v>
+        <v>25547608</v>
       </c>
       <c r="E67" t="n">
-        <v>34862353</v>
+        <v>25547608</v>
       </c>
       <c r="F67" t="n">
-        <v>8205.986366967179</v>
+        <v>8104.688805179162</v>
       </c>
       <c r="G67" t="n">
-        <v>5189.221902646729</v>
+        <v>5251.907325689755</v>
       </c>
       <c r="H67" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="I67" t="n">
-        <v>994788</v>
+        <v>366194</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1549503</v>
+        <v>1536176</v>
       </c>
       <c r="E68" t="n">
-        <v>12033619</v>
+        <v>11930120</v>
       </c>
       <c r="F68" t="n">
-        <v>15287.19646833389</v>
+        <v>16481.84675501549</v>
       </c>
       <c r="G68" t="n">
-        <v>22104.83245918576</v>
+        <v>21936.79609856281</v>
       </c>
       <c r="H68" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="I68" t="n">
-        <v>511907</v>
+        <v>555331</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>320812327</v>
+        <v>321393976</v>
       </c>
       <c r="E69" t="n">
-        <v>2886226625</v>
+        <v>2891459496</v>
       </c>
       <c r="F69" t="n">
-        <v>1505384.642457852</v>
+        <v>1403416.014159581</v>
       </c>
       <c r="G69" t="n">
-        <v>1810830.917819872</v>
+        <v>1774284.942253387</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>69593050</v>
+        <v>71112238</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>252659</v>
+        <v>251817</v>
       </c>
       <c r="E70" t="n">
-        <v>2229905</v>
+        <v>2222474</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>76820</v>
+        <v>72030</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1524986</v>
+        <v>1538264</v>
       </c>
       <c r="E71" t="n">
-        <v>12708214</v>
+        <v>12818866</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30886</v>
+        <v>30653</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9375315</v>
+        <v>9329083</v>
       </c>
       <c r="E72" t="n">
-        <v>43455122</v>
+        <v>43240835</v>
       </c>
       <c r="F72" t="n">
-        <v>9765.839238387738</v>
+        <v>10191.47592576945</v>
       </c>
       <c r="G72" t="n">
-        <v>2952.23266623341</v>
+        <v>3141.820927808465</v>
       </c>
       <c r="H72" t="n">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
       <c r="I72" t="n">
-        <v>111467</v>
+        <v>119934</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46934043</v>
+        <v>46560982</v>
       </c>
       <c r="E73" t="n">
-        <v>271728715</v>
+        <v>269568849</v>
       </c>
       <c r="F73" t="n">
-        <v>103683.3496535804</v>
+        <v>120022.0883606658</v>
       </c>
       <c r="G73" t="n">
-        <v>208636.4303872619</v>
+        <v>187275.7575899704</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>48080052</v>
+        <v>39301719</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38655933</v>
+        <v>39119623</v>
       </c>
       <c r="E74" t="n">
-        <v>53389348</v>
+        <v>54029770</v>
       </c>
       <c r="F74" t="n">
-        <v>4648.105293714771</v>
+        <v>4424.356907778343</v>
       </c>
       <c r="G74" t="n">
-        <v>4228.249262969421</v>
+        <v>10502.36127793485</v>
       </c>
       <c r="H74" t="n">
         <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>315948</v>
+        <v>300262</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99282</v>
+        <v>98680</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3820.36</v>
+        <v>3931.87</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13434819</v>
+        <v>13558917</v>
       </c>
       <c r="E76" t="n">
-        <v>13480539</v>
+        <v>13605059</v>
       </c>
       <c r="F76" t="n">
-        <v>1341.415944483305</v>
+        <v>1546.73858502171</v>
       </c>
       <c r="G76" t="n">
-        <v>7016.227925924827</v>
+        <v>7023.53692789749</v>
       </c>
       <c r="H76" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>7125839</v>
+        <v>7286960</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41904572</v>
+        <v>41954042</v>
       </c>
       <c r="E77" t="n">
-        <v>71144215</v>
+        <v>71217869</v>
       </c>
       <c r="F77" t="n">
-        <v>6241.049729514019</v>
+        <v>6633.254238278196</v>
       </c>
       <c r="G77" t="n">
-        <v>9010.470182545872</v>
+        <v>7881.137390994812</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I77" t="n">
-        <v>1153963</v>
+        <v>1065504</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19527992</v>
+        <v>19516173</v>
       </c>
       <c r="E78" t="n">
-        <v>58547976</v>
+        <v>58513657</v>
       </c>
       <c r="F78" t="n">
-        <v>30145.00166030856</v>
+        <v>47197.85266306608</v>
       </c>
       <c r="G78" t="n">
-        <v>36618.05632839284</v>
+        <v>46423.65224529353</v>
       </c>
       <c r="H78" t="n">
         <v>0.29</v>
       </c>
       <c r="I78" t="n">
-        <v>3672406</v>
+        <v>4384100</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>97829991</v>
+        <v>99917116</v>
       </c>
       <c r="E79" t="n">
-        <v>104002122</v>
+        <v>106220924</v>
       </c>
       <c r="F79" t="n">
-        <v>2521.996927164458</v>
+        <v>3159.143991216308</v>
       </c>
       <c r="G79" t="n">
-        <v>4223.887233455031</v>
+        <v>8160.038083199045</v>
       </c>
       <c r="H79" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I79" t="n">
-        <v>536258</v>
+        <v>2531262</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10394068</v>
+        <v>10451237</v>
       </c>
       <c r="E80" t="n">
-        <v>45117285</v>
+        <v>45354762</v>
       </c>
       <c r="F80" t="n">
-        <v>6119.533414288176</v>
+        <v>6153.957054520206</v>
       </c>
       <c r="G80" t="n">
-        <v>5816.916291987951</v>
+        <v>5847.383690054787</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="I80" t="n">
-        <v>114853</v>
+        <v>119842</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15341613</v>
+        <v>15865527</v>
       </c>
       <c r="E81" t="n">
-        <v>94033789</v>
+        <v>97245031</v>
       </c>
       <c r="F81" t="n">
-        <v>2936.043468528286</v>
+        <v>1732.562185145363</v>
       </c>
       <c r="G81" t="n">
-        <v>3616.928937394896</v>
+        <v>3287.830593096754</v>
       </c>
       <c r="H81" t="n">
-        <v>0.91</v>
+        <v>1.01</v>
       </c>
       <c r="I81" t="n">
-        <v>12253597</v>
+        <v>12404251</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1417179</v>
+        <v>1460209</v>
       </c>
       <c r="E82" t="n">
-        <v>1457043</v>
+        <v>1501284</v>
       </c>
       <c r="F82" t="n">
-        <v>128.9727193538404</v>
+        <v>2297.570731267077</v>
       </c>
       <c r="G82" t="n">
-        <v>2922.816157596806</v>
+        <v>2097.763152145218</v>
       </c>
       <c r="H82" t="n">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="I82" t="n">
-        <v>144306</v>
+        <v>97665</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49930018</v>
+        <v>49616493</v>
       </c>
       <c r="E83" t="n">
-        <v>215093058</v>
+        <v>213742428</v>
       </c>
       <c r="F83" t="n">
-        <v>3064.797429061388</v>
+        <v>3026.614831985024</v>
       </c>
       <c r="G83" t="n">
-        <v>403.6485828340623</v>
+        <v>610.2857744813386</v>
       </c>
       <c r="H83" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="I83" t="n">
-        <v>13217772</v>
+        <v>13628824</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2240878</v>
+        <v>2282269</v>
       </c>
       <c r="E84" t="n">
-        <v>8133906</v>
+        <v>8283647</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>224290</v>
+        <v>240798</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8795154</v>
+        <v>8776975</v>
       </c>
       <c r="E85" t="n">
-        <v>19506401</v>
+        <v>19466083</v>
       </c>
       <c r="F85" t="n">
-        <v>5768.628302040973</v>
+        <v>8064.088418599577</v>
       </c>
       <c r="G85" t="n">
-        <v>7637.003868581075</v>
+        <v>7296.495887469271</v>
       </c>
       <c r="H85" t="n">
         <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>324879</v>
+        <v>303695</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2440793</v>
+        <v>2444635</v>
       </c>
       <c r="E86" t="n">
-        <v>18366337</v>
+        <v>18395253</v>
       </c>
       <c r="F86" t="n">
-        <v>5276.363953018481</v>
+        <v>5265.924140776686</v>
       </c>
       <c r="G86" t="n">
-        <v>12026.42650658415</v>
+        <v>12103.5405477663</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>158652</v>
+        <v>155842</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19716804</v>
+        <v>19447748</v>
       </c>
       <c r="E87" t="n">
-        <v>78867216</v>
+        <v>77790993</v>
       </c>
       <c r="F87" t="n">
-        <v>1052.792801377285</v>
+        <v>4391.758420899927</v>
       </c>
       <c r="G87" t="n">
-        <v>1331.839547258959</v>
+        <v>1232.340450666559</v>
       </c>
       <c r="H87" t="n">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="I87" t="n">
-        <v>3818349</v>
+        <v>3874540</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4445420</v>
+        <v>4644007</v>
       </c>
       <c r="E88" t="n">
-        <v>4445420</v>
+        <v>4644007</v>
       </c>
       <c r="F88" t="n">
-        <v>3290.182898937775</v>
+        <v>408.0366840048096</v>
       </c>
       <c r="G88" t="n">
-        <v>885.5513676330334</v>
+        <v>865.6462085414796</v>
       </c>
       <c r="H88" t="n">
-        <v>1.65</v>
+        <v>0.73</v>
       </c>
       <c r="I88" t="n">
-        <v>2822371</v>
+        <v>2821525</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12853256</v>
+        <v>13104771</v>
       </c>
       <c r="E89" t="n">
-        <v>40652872</v>
+        <v>41448372</v>
       </c>
       <c r="F89" t="n">
-        <v>13933.09762286917</v>
+        <v>13349.62010943568</v>
       </c>
       <c r="G89" t="n">
-        <v>5634.446612245887</v>
+        <v>8253.17241669431</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I89" t="n">
-        <v>1075792</v>
+        <v>1190893</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24924</v>
+        <v>24979</v>
       </c>
       <c r="E90" t="n">
-        <v>196020</v>
+        <v>196454</v>
       </c>
       <c r="F90" t="n">
-        <v>197.9726363898962</v>
+        <v>217.8667540300762</v>
       </c>
       <c r="G90" t="n">
-        <v>669.1953554210337</v>
+        <v>1968.023847270902</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>40635</v>
+        <v>34593</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7781177</v>
+        <v>8061074</v>
       </c>
       <c r="E91" t="n">
-        <v>7781177</v>
+        <v>8061074</v>
       </c>
       <c r="F91" t="n">
-        <v>1153.475960043602</v>
+        <v>1312.21112314609</v>
       </c>
       <c r="G91" t="n">
-        <v>4477.036938929894</v>
+        <v>4959.189746152095</v>
       </c>
       <c r="H91" t="n">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>4140841</v>
+        <v>4254426</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>9095148</v>
+        <v>8889061</v>
       </c>
       <c r="E92" t="n">
-        <v>9095148</v>
+        <v>8889061</v>
       </c>
       <c r="F92" t="n">
-        <v>2930.174545776059</v>
+        <v>6727.785950684583</v>
       </c>
       <c r="G92" t="n">
-        <v>5361.666822470544</v>
+        <v>3063.103700438131</v>
       </c>
       <c r="H92" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I92" t="n">
-        <v>1773885</v>
+        <v>1540728</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30968181</v>
+        <v>31109222</v>
       </c>
       <c r="E93" t="n">
-        <v>78086886</v>
+        <v>78442523</v>
       </c>
       <c r="F93" t="n">
-        <v>2.997861390454763</v>
+        <v>2.998030184117229</v>
       </c>
       <c r="G93" t="n">
-        <v>6438.231344702939</v>
+        <v>5326.337998219871</v>
       </c>
       <c r="H93" t="n">
-        <v>0.64</v>
+        <v>0.89</v>
       </c>
       <c r="I93" t="n">
-        <v>6193806</v>
+        <v>6521358</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>298558457</v>
+        <v>294868945</v>
       </c>
       <c r="E94" t="n">
-        <v>303228386</v>
+        <v>299480645</v>
       </c>
       <c r="F94" t="n">
-        <v>46490.10846259298</v>
+        <v>6482.163637632826</v>
       </c>
       <c r="G94" t="n">
-        <v>47582.19605501621</v>
+        <v>8261.799493153825</v>
       </c>
       <c r="H94" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I94" t="n">
-        <v>25297133</v>
+        <v>25485709</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>997.9239065484784</v>
+        <v>991.6866845820798</v>
       </c>
       <c r="G95" t="n">
-        <v>6525.735294610348</v>
+        <v>6530.176073716591</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>196191</v>
+        <v>184792</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77071454</v>
+        <v>78059442</v>
       </c>
       <c r="E96" t="n">
-        <v>77071454</v>
+        <v>78059442</v>
       </c>
       <c r="F96" t="n">
-        <v>10980.05463969665</v>
+        <v>7432.6088827776</v>
       </c>
       <c r="G96" t="n">
-        <v>7501.499687666926</v>
+        <v>6671.432851167427</v>
       </c>
       <c r="H96" t="n">
-        <v>0.52</v>
+        <v>0.72</v>
       </c>
       <c r="I96" t="n">
-        <v>4799538</v>
+        <v>4720020</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>288958357</v>
+        <v>305793549</v>
       </c>
       <c r="E97" t="n">
-        <v>288958357</v>
+        <v>305793549</v>
       </c>
       <c r="F97" t="n">
-        <v>333790.0100775914</v>
+        <v>338126.5560113007</v>
       </c>
       <c r="G97" t="n">
-        <v>429262.171694195</v>
+        <v>403198.824933328</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>93223913</v>
+        <v>110646931</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4567527</v>
+        <v>4610217</v>
       </c>
       <c r="E98" t="n">
-        <v>31209593</v>
+        <v>31501289</v>
       </c>
       <c r="F98" t="n">
-        <v>4992.129023255678</v>
+        <v>5113.256408481805</v>
       </c>
       <c r="G98" t="n">
-        <v>25090.9232506689</v>
+        <v>4873.709045811802</v>
       </c>
       <c r="H98" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>3008132</v>
+        <v>3036761</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84171987</v>
+        <v>84230065</v>
       </c>
       <c r="E99" t="n">
-        <v>485035297</v>
+        <v>485369967</v>
       </c>
       <c r="F99" t="n">
-        <v>155486.7337978585</v>
+        <v>124180.3687737397</v>
       </c>
       <c r="G99" t="n">
-        <v>146757.0897173294</v>
+        <v>160328.2452988889</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21276260</v>
+        <v>21335738</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>105488770</v>
+        <v>106972841</v>
       </c>
       <c r="E100" t="n">
-        <v>259543589</v>
+        <v>263194981</v>
       </c>
       <c r="F100" t="n">
-        <v>31123.80043359966</v>
+        <v>44690.99041734526</v>
       </c>
       <c r="G100" t="n">
-        <v>35078.72605952811</v>
+        <v>29201.22101624015</v>
       </c>
       <c r="H100" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I100" t="n">
-        <v>2830088</v>
+        <v>3053685</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>235690541</v>
+        <v>238386655</v>
       </c>
       <c r="E101" t="n">
-        <v>235692882</v>
+        <v>238389024</v>
       </c>
       <c r="F101" t="n">
-        <v>24958.0483754905</v>
+        <v>11189.69943353743</v>
       </c>
       <c r="G101" t="n">
-        <v>24682.85636919496</v>
+        <v>28607.71527501328</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2956185</v>
+        <v>2990015</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>29599391</v>
+        <v>30172320</v>
       </c>
       <c r="E102" t="n">
-        <v>132528616</v>
+        <v>135093854</v>
       </c>
       <c r="F102" t="n">
-        <v>74435.52252738713</v>
+        <v>73798.07390773983</v>
       </c>
       <c r="G102" t="n">
-        <v>100783.4052560939</v>
+        <v>119767.7916736382</v>
       </c>
       <c r="H102" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>15196607</v>
+        <v>16319376</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2884803</v>
+        <v>2859708</v>
       </c>
       <c r="E103" t="n">
-        <v>2884803</v>
+        <v>2859708</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>293489</v>
+        <v>298140</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5987267</v>
+        <v>6013561</v>
       </c>
       <c r="E104" t="n">
-        <v>15713563</v>
+        <v>15782568</v>
       </c>
       <c r="F104" t="n">
-        <v>67.69390503012917</v>
+        <v>64.98374112225389</v>
       </c>
       <c r="G104" t="n">
-        <v>246.2088577506441</v>
+        <v>306.2286066726247</v>
       </c>
       <c r="H104" t="n">
-        <v>1.97</v>
+        <v>2.27</v>
       </c>
       <c r="I104" t="n">
-        <v>28629</v>
+        <v>28404</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16125338</v>
+        <v>16307924</v>
       </c>
       <c r="E105" t="n">
-        <v>74432408</v>
+        <v>75275251</v>
       </c>
       <c r="F105" t="n">
-        <v>7423.059735999615</v>
+        <v>5830.86810500228</v>
       </c>
       <c r="G105" t="n">
-        <v>3941.844930950759</v>
+        <v>4520.721493559935</v>
       </c>
       <c r="H105" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1254517</v>
+        <v>1223130</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48040098</v>
+        <v>47942532</v>
       </c>
       <c r="E106" t="n">
-        <v>311527251</v>
+        <v>310894558</v>
       </c>
       <c r="F106" t="n">
-        <v>110154.7795606404</v>
+        <v>111933.4700069852</v>
       </c>
       <c r="G106" t="n">
-        <v>151288.6093141545</v>
+        <v>136614.7176164382</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21974523</v>
+        <v>22052162</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2455689</v>
+        <v>2450000</v>
       </c>
       <c r="E107" t="n">
-        <v>4448943</v>
+        <v>4438636</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>107638</v>
+        <v>105377</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124318235</v>
+        <v>124142542</v>
       </c>
       <c r="E108" t="n">
-        <v>2058811783</v>
+        <v>2055902174</v>
       </c>
       <c r="F108" t="n">
-        <v>29636.97570672789</v>
+        <v>25048.98728230352</v>
       </c>
       <c r="G108" t="n">
-        <v>9545.562190696086</v>
+        <v>11871.62640833042</v>
       </c>
       <c r="H108" t="n">
         <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>36702936</v>
+        <v>41249929</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22959505</v>
+        <v>22991464</v>
       </c>
       <c r="E109" t="n">
-        <v>137371331</v>
+        <v>137562548</v>
       </c>
       <c r="F109" t="n">
-        <v>40035.86591975727</v>
+        <v>39871.77545012548</v>
       </c>
       <c r="G109" t="n">
-        <v>36723.47551038871</v>
+        <v>37289.51760917147</v>
       </c>
       <c r="H109" t="n">
         <v>0.15</v>
       </c>
       <c r="I109" t="n">
-        <v>18396203</v>
+        <v>18595367</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1044488</v>
+        <v>1045106</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>93759</v>
+        <v>94378</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2299492</v>
+        <v>2393403</v>
       </c>
       <c r="F111" t="n">
-        <v>2761.798894771068</v>
+        <v>4507.059940362306</v>
       </c>
       <c r="G111" t="n">
-        <v>150.6247244831802</v>
+        <v>171.5864738856363</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="I111" t="n">
-        <v>195525</v>
+        <v>213207</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>147335705</v>
+        <v>150008496</v>
       </c>
       <c r="F112" t="n">
-        <v>8608.014712233708</v>
+        <v>5147.891421855952</v>
       </c>
       <c r="G112" t="n">
-        <v>2915.799556473239</v>
+        <v>4260.154290446341</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>73312</v>
+        <v>79992</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6296151</v>
+        <v>6268162</v>
       </c>
       <c r="E113" t="n">
-        <v>32391784</v>
+        <v>32247788</v>
       </c>
       <c r="F113" t="n">
-        <v>2786.385755315601</v>
+        <v>1106.416803092927</v>
       </c>
       <c r="G113" t="n">
-        <v>1254.526520825442</v>
+        <v>1387.181340937698</v>
       </c>
       <c r="H113" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="I113" t="n">
-        <v>967419</v>
+        <v>973542</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>31942919</v>
+        <v>30032577</v>
       </c>
       <c r="E114" t="n">
-        <v>43799327</v>
+        <v>41179913</v>
       </c>
       <c r="F114" t="n">
-        <v>6231.331082662902</v>
+        <v>2874.035757678244</v>
       </c>
       <c r="G114" t="n">
-        <v>5222.596871388447</v>
+        <v>4887.117946138531</v>
       </c>
       <c r="H114" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="I114" t="n">
-        <v>1262789</v>
+        <v>1470013</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7583640</v>
+        <v>7597625</v>
       </c>
       <c r="F115" t="n">
-        <v>1774.389076352444</v>
+        <v>1708.534886721923</v>
       </c>
       <c r="G115" t="n">
-        <v>5462.275255288593</v>
+        <v>5807.89820397759</v>
       </c>
       <c r="H115" t="n">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>651118</v>
+        <v>665024</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3602627</v>
+        <v>3633015</v>
       </c>
       <c r="E116" t="n">
-        <v>4825947</v>
+        <v>4866653</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>86189</v>
+        <v>127640</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32422476</v>
+        <v>32435057</v>
       </c>
       <c r="E117" t="n">
-        <v>161803101</v>
+        <v>161865886</v>
       </c>
       <c r="F117" t="n">
-        <v>76322.71488194681</v>
+        <v>97267.33402075584</v>
       </c>
       <c r="G117" t="n">
-        <v>78281.95897699386</v>
+        <v>78621.45331740689</v>
       </c>
       <c r="H117" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>14396527</v>
+        <v>14181955</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3492290</v>
+        <v>3496588</v>
       </c>
       <c r="E118" t="n">
-        <v>5016739</v>
+        <v>5022913</v>
       </c>
       <c r="F118" t="n">
-        <v>616.4726526838356</v>
+        <v>617.2516460294659</v>
       </c>
       <c r="G118" t="n">
-        <v>379.3543590195314</v>
+        <v>764.8220922269458</v>
       </c>
       <c r="H118" t="n">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>144486</v>
+        <v>151217</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>284500510</v>
+        <v>284395549</v>
       </c>
       <c r="E119" t="n">
-        <v>526390824</v>
+        <v>526196621</v>
       </c>
       <c r="F119" t="n">
-        <v>29615.67813386473</v>
+        <v>34230.77506805796</v>
       </c>
       <c r="G119" t="n">
-        <v>25636.2194272925</v>
+        <v>32922.91342523738</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>21412670</v>
+        <v>23182057</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69660437</v>
+        <v>70177242</v>
       </c>
       <c r="E120" t="n">
-        <v>664414722</v>
+        <v>669321417</v>
       </c>
       <c r="F120" t="n">
-        <v>1716.3549116351</v>
+        <v>5180.225877419316</v>
       </c>
       <c r="G120" t="n">
-        <v>2622.24729129382</v>
+        <v>2265.488338855554</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>23885255</v>
+        <v>25457749</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36143692</v>
+        <v>37195362</v>
       </c>
       <c r="E121" t="n">
-        <v>47251353</v>
+        <v>48625645</v>
       </c>
       <c r="F121" t="n">
-        <v>88.24720815597595</v>
+        <v>5876.582071099509</v>
       </c>
       <c r="G121" t="n">
-        <v>6149.565316767246</v>
+        <v>4609.807203379217</v>
       </c>
       <c r="H121" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>589389</v>
+        <v>441215</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9138149</v>
+        <v>9555808</v>
       </c>
       <c r="E122" t="n">
-        <v>27090394</v>
+        <v>28328560</v>
       </c>
       <c r="F122" t="n">
-        <v>657.1982666693979</v>
+        <v>992.2873702073387</v>
       </c>
       <c r="G122" t="n">
-        <v>6522.989921041341</v>
+        <v>7101.712673330468</v>
       </c>
       <c r="H122" t="n">
-        <v>0.74</v>
+        <v>0.53</v>
       </c>
       <c r="I122" t="n">
-        <v>6614468</v>
+        <v>6893221</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2277425</v>
+        <v>2285309</v>
       </c>
       <c r="E123" t="n">
-        <v>7610318</v>
+        <v>7636665</v>
       </c>
       <c r="F123" t="n">
-        <v>636.3455259938529</v>
+        <v>563.2713786402786</v>
       </c>
       <c r="G123" t="n">
-        <v>1034.235175025839</v>
+        <v>748.6363780556443</v>
       </c>
       <c r="H123" t="n">
-        <v>0.65</v>
+        <v>1.8</v>
       </c>
       <c r="I123" t="n">
-        <v>866345</v>
+        <v>901517</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7337747</v>
+        <v>7326627</v>
       </c>
       <c r="E124" t="n">
-        <v>7337758</v>
+        <v>7326638</v>
       </c>
       <c r="F124" t="n">
-        <v>198.2436911113556</v>
+        <v>348.1202134217586</v>
       </c>
       <c r="G124" t="n">
-        <v>569.9535556037926</v>
+        <v>552.3723045485722</v>
       </c>
       <c r="H124" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="I124" t="n">
-        <v>258930</v>
+        <v>251531</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5947454</v>
+        <v>6199632</v>
       </c>
       <c r="E125" t="n">
-        <v>5947454</v>
+        <v>6199632</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>514519</v>
+        <v>579838</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6132256</v>
+        <v>6178140</v>
       </c>
       <c r="E126" t="n">
-        <v>22398760</v>
+        <v>22566354</v>
       </c>
       <c r="F126" t="n">
-        <v>6631.485991496949</v>
+        <v>6718.332958219071</v>
       </c>
       <c r="G126" t="n">
-        <v>8496.519695643159</v>
+        <v>8475.408726835267</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="I126" t="n">
-        <v>580027</v>
+        <v>594763</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43291804</v>
+        <v>43916430</v>
       </c>
       <c r="E127" t="n">
-        <v>43291804</v>
+        <v>43916430</v>
       </c>
       <c r="F127" t="n">
-        <v>63065.44408602193</v>
+        <v>62378.910025016</v>
       </c>
       <c r="G127" t="n">
-        <v>77452.53200364148</v>
+        <v>74440.3238927456</v>
       </c>
       <c r="H127" t="n">
         <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>9890381</v>
+        <v>12423869</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>140934308</v>
+        <v>140245490</v>
       </c>
       <c r="F128" t="n">
-        <v>74.52530830878233</v>
+        <v>76.35238975821393</v>
       </c>
       <c r="G128" t="n">
-        <v>2814.78696344746</v>
+        <v>2687.313061567002</v>
       </c>
       <c r="H128" t="n">
-        <v>1.12</v>
+        <v>0.71</v>
       </c>
       <c r="I128" t="n">
-        <v>1623895</v>
+        <v>1422058</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2860925</v>
+        <v>2974206</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72027</v>
+        <v>77136</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19798647</v>
+        <v>19668259</v>
       </c>
       <c r="F130" t="n">
-        <v>921.6317749321446</v>
+        <v>407.4499800946827</v>
       </c>
       <c r="G130" t="n">
-        <v>817.2234197675863</v>
+        <v>250.2433259011484</v>
       </c>
       <c r="H130" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="I130" t="n">
-        <v>2931527</v>
+        <v>2934325</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1310909</v>
+        <v>1296716</v>
       </c>
       <c r="E131" t="n">
-        <v>3960400</v>
+        <v>3917447</v>
       </c>
       <c r="F131" t="n">
-        <v>836.797197920997</v>
+        <v>813.5388490463382</v>
       </c>
       <c r="G131" t="n">
-        <v>702.0622863137881</v>
+        <v>701.0359910708002</v>
       </c>
       <c r="H131" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>40466</v>
+        <v>48465</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>579404414</v>
+        <v>583908283</v>
       </c>
       <c r="E132" t="n">
-        <v>2243947811</v>
+        <v>2261390631</v>
       </c>
       <c r="F132" t="n">
-        <v>747414.2463025182</v>
+        <v>793335.0981602048</v>
       </c>
       <c r="G132" t="n">
-        <v>976465.0819428373</v>
+        <v>972866.4594646501</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>61803846</v>
+        <v>62878942</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3596802</v>
+        <v>3612796</v>
       </c>
       <c r="E133" t="n">
-        <v>6131238</v>
+        <v>6158501</v>
       </c>
       <c r="F133" t="n">
-        <v>4823.57027912198</v>
+        <v>5126.162816685977</v>
       </c>
       <c r="G133" t="n">
-        <v>4767.646429469899</v>
+        <v>5390.511256167306</v>
       </c>
       <c r="H133" t="n">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="I133" t="n">
-        <v>1127224</v>
+        <v>1143233</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109151351</v>
+        <v>109055720</v>
       </c>
       <c r="E134" t="n">
-        <v>1033359102</v>
+        <v>1031859345</v>
       </c>
       <c r="F134" t="n">
-        <v>83996.99616478589</v>
+        <v>85561.94805016939</v>
       </c>
       <c r="G134" t="n">
-        <v>89226.93412395034</v>
+        <v>93078.47385878745</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I134" t="n">
-        <v>17624431</v>
+        <v>18055921</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>951695599</v>
+        <v>969986905</v>
       </c>
       <c r="E135" t="n">
-        <v>1045440224</v>
+        <v>1065533273</v>
       </c>
       <c r="F135" t="n">
-        <v>13878.51188495361</v>
+        <v>17402.79110509728</v>
       </c>
       <c r="G135" t="n">
-        <v>13936.71696923171</v>
+        <v>14537.56150109275</v>
       </c>
       <c r="H135" t="n">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="I135" t="n">
-        <v>11387135</v>
+        <v>11538449</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1065741</v>
+        <v>1075216</v>
       </c>
       <c r="E136" t="n">
-        <v>4126783</v>
+        <v>4163470</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>297980</v>
+        <v>283821</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>120306802</v>
+        <v>122971126</v>
       </c>
       <c r="E137" t="n">
-        <v>461516257</v>
+        <v>471737032</v>
       </c>
       <c r="F137" t="n">
-        <v>151403.2249028813</v>
+        <v>141322.3300176465</v>
       </c>
       <c r="G137" t="n">
-        <v>241006.6604118052</v>
+        <v>202837.5704391189</v>
       </c>
       <c r="H137" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32967816</v>
+        <v>32642394</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3082601</v>
+        <v>3151992</v>
       </c>
       <c r="E138" t="n">
-        <v>29208097</v>
+        <v>29865587</v>
       </c>
       <c r="F138" t="n">
-        <v>2750.385275998152</v>
+        <v>4270.446210741208</v>
       </c>
       <c r="G138" t="n">
-        <v>4864.563828254163</v>
+        <v>4745.742227699033</v>
       </c>
       <c r="H138" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="I138" t="n">
-        <v>223798</v>
+        <v>277310</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22403372</v>
+        <v>22831253</v>
       </c>
       <c r="E139" t="n">
-        <v>22403372</v>
+        <v>22831253</v>
       </c>
       <c r="F139" t="n">
-        <v>1374.152798589693</v>
+        <v>1357.727482693942</v>
       </c>
       <c r="G139" t="n">
-        <v>1463.449866314863</v>
+        <v>1355.662546084108</v>
       </c>
       <c r="H139" t="n">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="I139" t="n">
-        <v>812724</v>
+        <v>826733</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494481877</v>
+        <v>494881010</v>
       </c>
       <c r="E140" t="n">
-        <v>494481877</v>
+        <v>494881010</v>
       </c>
       <c r="F140" t="n">
-        <v>689357.1631471497</v>
+        <v>675689.4047823222</v>
       </c>
       <c r="G140" t="n">
-        <v>788111.5311033645</v>
+        <v>702224.9254065462</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>44842444</v>
+        <v>47456500</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>38415458</v>
+        <v>40908844</v>
       </c>
       <c r="F141" t="n">
-        <v>60183.42692992265</v>
+        <v>49150.53942757825</v>
       </c>
       <c r="G141" t="n">
-        <v>70503.86452991598</v>
+        <v>73122.06760200601</v>
       </c>
       <c r="H141" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="I141" t="n">
-        <v>8452780</v>
+        <v>9714076</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>816819</v>
+        <v>776006</v>
       </c>
       <c r="E142" t="n">
-        <v>13027969</v>
+        <v>12377024</v>
       </c>
       <c r="F142" t="n">
-        <v>504.5687163037738</v>
+        <v>1116.635595684798</v>
       </c>
       <c r="G142" t="n">
-        <v>27.06876972523619</v>
+        <v>46.87474117294749</v>
       </c>
       <c r="H142" t="n">
-        <v>3.25</v>
+        <v>1.9</v>
       </c>
       <c r="I142" t="n">
-        <v>335751</v>
+        <v>337950</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2523927053</v>
+        <v>2542680699</v>
       </c>
       <c r="E143" t="n">
-        <v>2679753797</v>
+        <v>2699665289</v>
       </c>
       <c r="F143" t="n">
-        <v>3293.204808139585</v>
+        <v>3441.445757634164</v>
       </c>
       <c r="G143" t="n">
-        <v>23267.65931897263</v>
+        <v>23368.28094788417</v>
       </c>
       <c r="H143" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I143" t="n">
-        <v>59618273</v>
+        <v>60939679</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1707810</v>
+        <v>1715096</v>
       </c>
       <c r="E144" t="n">
-        <v>1713838</v>
+        <v>1721149</v>
       </c>
       <c r="F144" t="n">
-        <v>171.4936387050409</v>
+        <v>3539.596267948645</v>
       </c>
       <c r="G144" t="n">
-        <v>1621.823544480404</v>
+        <v>554.2148498402839</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="I144" t="n">
-        <v>443664</v>
+        <v>443672</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>57061749</v>
+        <v>56096235</v>
       </c>
       <c r="E145" t="n">
-        <v>139968603</v>
+        <v>137600262</v>
       </c>
       <c r="F145" t="n">
-        <v>5206.780545204421</v>
+        <v>2654.519006598556</v>
       </c>
       <c r="G145" t="n">
-        <v>2996.797011859425</v>
+        <v>3406.829380184185</v>
       </c>
       <c r="H145" t="n">
-        <v>0.72</v>
+        <v>0.61</v>
       </c>
       <c r="I145" t="n">
-        <v>22021449</v>
+        <v>21763783</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>738039353</v>
+        <v>741213703</v>
       </c>
       <c r="E146" t="n">
-        <v>1138121844</v>
+        <v>1143016972</v>
       </c>
       <c r="F146" t="n">
-        <v>149566.3513337476</v>
+        <v>106721.5341724669</v>
       </c>
       <c r="G146" t="n">
-        <v>102268.9013778426</v>
+        <v>131756.4770871128</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>274195783</v>
+        <v>332349548</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>21805484</v>
+        <v>22042507</v>
       </c>
       <c r="E147" t="n">
-        <v>21805484</v>
+        <v>22042507</v>
       </c>
       <c r="F147" t="n">
-        <v>3652.802892358544</v>
+        <v>159.8323483347891</v>
       </c>
       <c r="G147" t="n">
-        <v>5931.077473609849</v>
+        <v>3907.324621158878</v>
       </c>
       <c r="H147" t="n">
-        <v>0.33</v>
+        <v>0.98</v>
       </c>
       <c r="I147" t="n">
-        <v>5893519</v>
+        <v>5613669</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3798383</v>
+        <v>3801958</v>
       </c>
       <c r="E148" t="n">
-        <v>8279943</v>
+        <v>8287736</v>
       </c>
       <c r="F148" t="n">
-        <v>6692.195214874646</v>
+        <v>6704.445293467767</v>
       </c>
       <c r="G148" t="n">
-        <v>7142.262899886297</v>
+        <v>7112.716253222564</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2091507</v>
+        <v>2162554</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9243173</v>
+        <v>9260566</v>
       </c>
       <c r="E149" t="n">
-        <v>9243173</v>
+        <v>9260566</v>
       </c>
       <c r="F149" t="n">
-        <v>76494.52280857599</v>
+        <v>82592.90864891655</v>
       </c>
       <c r="G149" t="n">
-        <v>78418.33576830656</v>
+        <v>78270.4306368606</v>
       </c>
       <c r="H149" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I149" t="n">
-        <v>6468819</v>
+        <v>6589817</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>466989852</v>
+        <v>467721983</v>
       </c>
       <c r="E150" t="n">
-        <v>1625552809</v>
+        <v>1627276137</v>
       </c>
       <c r="F150" t="n">
-        <v>386157.6191620996</v>
+        <v>389635.7208969218</v>
       </c>
       <c r="G150" t="n">
-        <v>468815.172359123</v>
+        <v>482736.9966333675</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>48135721</v>
+        <v>49269599</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46007885</v>
+        <v>46053397</v>
       </c>
       <c r="E151" t="n">
-        <v>113254738</v>
+        <v>113366791</v>
       </c>
       <c r="F151" t="n">
-        <v>6968.324065334662</v>
+        <v>6550.190685510323</v>
       </c>
       <c r="G151" t="n">
-        <v>7584.92193385049</v>
+        <v>6121.185754800236</v>
       </c>
       <c r="H151" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="I151" t="n">
-        <v>123233</v>
+        <v>178292</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7092500</v>
+        <v>7097047</v>
       </c>
       <c r="E152" t="n">
-        <v>18425552</v>
+        <v>18437364</v>
       </c>
       <c r="F152" t="n">
-        <v>6155.113095241185</v>
+        <v>6156.655713341304</v>
       </c>
       <c r="G152" t="n">
-        <v>6020.971824896183</v>
+        <v>6394.759186772553</v>
       </c>
       <c r="H152" t="n">
-        <v>2.13</v>
+        <v>1.6</v>
       </c>
       <c r="I152" t="n">
-        <v>776018</v>
+        <v>788820</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18782522537</v>
+        <v>18924944735</v>
       </c>
       <c r="F153" t="n">
-        <v>1338.135094111421</v>
+        <v>1553.814029146627</v>
       </c>
       <c r="G153" t="n">
-        <v>192.4809136614344</v>
+        <v>282.4376329474337</v>
       </c>
       <c r="H153" t="n">
-        <v>2.13</v>
+        <v>2.36</v>
       </c>
       <c r="I153" t="n">
-        <v>29695906</v>
+        <v>24034736</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2315687</v>
+        <v>2296806</v>
       </c>
       <c r="E154" t="n">
-        <v>9262748</v>
+        <v>9187223</v>
       </c>
       <c r="F154" t="n">
-        <v>1219.356420067702</v>
+        <v>940.9775155301976</v>
       </c>
       <c r="G154" t="n">
-        <v>1880.995362946642</v>
+        <v>1461.714933082121</v>
       </c>
       <c r="H154" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="I154" t="n">
-        <v>7343527</v>
+        <v>7884418</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>210347134</v>
+        <v>209940982</v>
       </c>
       <c r="E155" t="n">
-        <v>646738279</v>
+        <v>645489514</v>
       </c>
       <c r="F155" t="n">
-        <v>43558.13136051086</v>
+        <v>34425.02702809647</v>
       </c>
       <c r="G155" t="n">
-        <v>41751.41287963813</v>
+        <v>53337.48409129383</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I155" t="n">
-        <v>22806187</v>
+        <v>23233534</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>381392464</v>
+        <v>378990547</v>
       </c>
       <c r="E156" t="n">
-        <v>2179385508</v>
+        <v>2165660270</v>
       </c>
       <c r="F156" t="n">
-        <v>274534.6597244928</v>
+        <v>281214.7332126653</v>
       </c>
       <c r="G156" t="n">
-        <v>339476.8544229259</v>
+        <v>356419.1507661138</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>63508203</v>
+        <v>63538010</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3814430</v>
+        <v>3803826</v>
       </c>
       <c r="F2" t="n">
-        <v>269.4561433423867</v>
+        <v>467.8610948875172</v>
       </c>
       <c r="G2" t="n">
-        <v>526.7645652480419</v>
+        <v>752.9022246110006</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="I2" t="n">
-        <v>138518</v>
+        <v>136820</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>593509672</v>
+        <v>600666791</v>
       </c>
       <c r="E3" t="n">
-        <v>1151861075</v>
+        <v>1165750188</v>
       </c>
       <c r="F3" t="n">
-        <v>22821.04529743392</v>
+        <v>23710.25974567848</v>
       </c>
       <c r="G3" t="n">
-        <v>32978.24225459417</v>
+        <v>30416.57369188846</v>
       </c>
       <c r="H3" t="n">
         <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>47465742</v>
+        <v>47904486</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252013767</v>
+        <v>251173663</v>
       </c>
       <c r="E4" t="n">
-        <v>1580342912</v>
+        <v>1575074737</v>
       </c>
       <c r="F4" t="n">
-        <v>175633.0973546659</v>
+        <v>225047.6374404251</v>
       </c>
       <c r="G4" t="n">
-        <v>152426.2404562309</v>
+        <v>317007.1550105408</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>29422509</v>
+        <v>29605823</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141372122</v>
+        <v>140283716</v>
       </c>
       <c r="E5" t="n">
-        <v>156662405</v>
+        <v>155456281</v>
       </c>
       <c r="F5" t="n">
-        <v>8449.183365966304</v>
+        <v>8585.121893929449</v>
       </c>
       <c r="G5" t="n">
-        <v>726.7094379821731</v>
+        <v>919.8121664016716</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>53654367</v>
+        <v>53463671</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49196216</v>
+        <v>49297062</v>
       </c>
       <c r="E6" t="n">
-        <v>61543205</v>
+        <v>61669361</v>
       </c>
       <c r="F6" t="n">
-        <v>6885.171127699395</v>
+        <v>6167.485974504555</v>
       </c>
       <c r="G6" t="n">
-        <v>3680.36180209757</v>
+        <v>4907.34091144295</v>
       </c>
       <c r="H6" t="n">
         <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>767685</v>
+        <v>765967</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65795685</v>
+        <v>65641399</v>
       </c>
       <c r="E7" t="n">
-        <v>131016694</v>
+        <v>130709469</v>
       </c>
       <c r="F7" t="n">
-        <v>10663.44231185968</v>
+        <v>10476.46552141016</v>
       </c>
       <c r="G7" t="n">
-        <v>14236.1205119606</v>
+        <v>11610.6051233775</v>
       </c>
       <c r="H7" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>994895</v>
+        <v>993761</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41085011</v>
+        <v>41463064</v>
       </c>
       <c r="E8" t="n">
-        <v>45980045</v>
+        <v>46403141</v>
       </c>
       <c r="F8" t="n">
-        <v>680.4088766735458</v>
+        <v>460.0786231673602</v>
       </c>
       <c r="G8" t="n">
-        <v>104.1001723076031</v>
+        <v>187.7313328946184</v>
       </c>
       <c r="H8" t="n">
         <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>11798765</v>
+        <v>12086472</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13871714</v>
+        <v>13806808</v>
       </c>
       <c r="E9" t="n">
-        <v>40879046</v>
+        <v>40687772</v>
       </c>
       <c r="F9" t="n">
-        <v>4959.774627614725</v>
+        <v>4960.743404562577</v>
       </c>
       <c r="G9" t="n">
-        <v>4718.002814868778</v>
+        <v>4907.234236137612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="I9" t="n">
-        <v>847041</v>
+        <v>834210</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9380711</v>
+        <v>9394356</v>
       </c>
       <c r="E10" t="n">
-        <v>40323513</v>
+        <v>40382169</v>
       </c>
       <c r="F10" t="n">
-        <v>715.3626425578964</v>
+        <v>386.3083248026717</v>
       </c>
       <c r="G10" t="n">
-        <v>392.8972440720527</v>
+        <v>915.1013658555891</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
       <c r="I10" t="n">
-        <v>819961</v>
+        <v>807095</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>555495259</v>
+        <v>551272243</v>
       </c>
       <c r="E11" t="n">
-        <v>694842008</v>
+        <v>689559643</v>
       </c>
       <c r="F11" t="n">
-        <v>282045.8189275591</v>
+        <v>373656.1967700977</v>
       </c>
       <c r="G11" t="n">
-        <v>280293.3919879323</v>
+        <v>259401.7210442156</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I11" t="n">
-        <v>101718011</v>
+        <v>100967509</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4367913</v>
+        <v>4362121</v>
       </c>
       <c r="E12" t="n">
-        <v>26818231</v>
+        <v>26782634</v>
       </c>
       <c r="F12" t="n">
-        <v>8614.463778919242</v>
+        <v>10152.83645333903</v>
       </c>
       <c r="G12" t="n">
-        <v>11001.52404655625</v>
+        <v>9172.115112977808</v>
       </c>
       <c r="H12" t="n">
         <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>371672</v>
+        <v>455589</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23485976</v>
+        <v>23542046</v>
       </c>
       <c r="E13" t="n">
-        <v>23528888</v>
+        <v>23585061</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>868959</v>
+        <v>636570</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78860970</v>
+        <v>79150395</v>
       </c>
       <c r="E14" t="n">
-        <v>232018756</v>
+        <v>232870278</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>447941</v>
+        <v>446024</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>484168283</v>
+        <v>484375098</v>
       </c>
       <c r="E15" t="n">
-        <v>484168283</v>
+        <v>484375100</v>
       </c>
       <c r="F15" t="n">
-        <v>24946.30892708668</v>
+        <v>23483.73535483837</v>
       </c>
       <c r="G15" t="n">
-        <v>21777.63984875844</v>
+        <v>21458.83655607261</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>75138017</v>
+        <v>74750441</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4630049</v>
+        <v>4636090</v>
       </c>
       <c r="E16" t="n">
-        <v>4630049</v>
+        <v>4636090</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2770801217314</v>
+        <v>274.1439621167126</v>
       </c>
       <c r="G16" t="n">
-        <v>1362.941780009852</v>
+        <v>1232.313344618965</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I16" t="n">
-        <v>2262572</v>
+        <v>2287512</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3324276</v>
+        <v>3318461</v>
       </c>
       <c r="E17" t="n">
-        <v>3324276</v>
+        <v>3318461</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>750666</v>
+        <v>748499</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168037449</v>
+        <v>167285339</v>
       </c>
       <c r="E18" t="n">
-        <v>208037360</v>
+        <v>207106216</v>
       </c>
       <c r="F18" t="n">
-        <v>8020.686890712161</v>
+        <v>7680.346027409014</v>
       </c>
       <c r="G18" t="n">
-        <v>7758.588577902939</v>
+        <v>8641.93082014521</v>
       </c>
       <c r="H18" t="n">
         <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>522171</v>
+        <v>512882</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6453276</v>
+        <v>6890763</v>
       </c>
       <c r="E19" t="n">
-        <v>8887810</v>
+        <v>9490341</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>439978</v>
+        <v>425388</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>880464</v>
+        <v>882022</v>
       </c>
       <c r="E20" t="n">
-        <v>6163248</v>
+        <v>6174157</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>214434</v>
+        <v>236173</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>108738860</v>
+        <v>110818205</v>
       </c>
       <c r="E21" t="n">
-        <v>422564584</v>
+        <v>430620122</v>
       </c>
       <c r="F21" t="n">
-        <v>3406.986016800252</v>
+        <v>4432.733259095656</v>
       </c>
       <c r="G21" t="n">
-        <v>9500.530675431362</v>
+        <v>14814.3282685111</v>
       </c>
       <c r="H21" t="n">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>12708835</v>
+        <v>12713191</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1720518</v>
+        <v>1717548</v>
       </c>
       <c r="E22" t="n">
-        <v>12392747</v>
+        <v>12371352</v>
       </c>
       <c r="F22" t="n">
-        <v>4927.735880692859</v>
+        <v>4901.711440940944</v>
       </c>
       <c r="G22" t="n">
-        <v>5971.598007175335</v>
+        <v>4926.029946059963</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>55329</v>
+        <v>55386</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138867255</v>
+        <v>139402856</v>
       </c>
       <c r="E23" t="n">
-        <v>138867255</v>
+        <v>139402856</v>
       </c>
       <c r="F23" t="n">
-        <v>984375.1833785851</v>
+        <v>1046987.618270686</v>
       </c>
       <c r="G23" t="n">
-        <v>1400541.459588795</v>
+        <v>1113257.489303678</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>96970000</v>
+        <v>97000362</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63661124</v>
+        <v>63432932</v>
       </c>
       <c r="E24" t="n">
-        <v>326467304</v>
+        <v>325297087</v>
       </c>
       <c r="F24" t="n">
-        <v>79493.67345960617</v>
+        <v>83901.26461358712</v>
       </c>
       <c r="G24" t="n">
-        <v>127713.7872900335</v>
+        <v>124549.1283381232</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>25757247</v>
+        <v>25424613</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251394517</v>
+        <v>250550414</v>
       </c>
       <c r="E25" t="n">
-        <v>251394517</v>
+        <v>250550414</v>
       </c>
       <c r="F25" t="n">
-        <v>295989.7024492058</v>
+        <v>311789.7208966314</v>
       </c>
       <c r="G25" t="n">
-        <v>412440.9145713772</v>
+        <v>399890.4836174555</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>26938774</v>
+        <v>27050631</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1117210</v>
+        <v>1113469</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>117927</v>
+        <v>119128</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2153714</v>
+        <v>2122118</v>
       </c>
       <c r="E27" t="n">
-        <v>2403579</v>
+        <v>2392823</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>210.771911359892</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>550.2791780572908</v>
       </c>
       <c r="H27" t="n">
-        <v>4.64</v>
+        <v>0.27</v>
       </c>
       <c r="I27" t="n">
-        <v>477895</v>
+        <v>481015</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3808208</v>
+        <v>3815109</v>
       </c>
       <c r="E28" t="n">
-        <v>3809027</v>
+        <v>3815943</v>
       </c>
       <c r="F28" t="n">
-        <v>894.4752236856382</v>
+        <v>803.5638019895504</v>
       </c>
       <c r="G28" t="n">
-        <v>3405.420124426299</v>
+        <v>1689.823718460966</v>
       </c>
       <c r="H28" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="I28" t="n">
-        <v>246240</v>
+        <v>236231</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6794713</v>
+        <v>6748994</v>
       </c>
       <c r="E29" t="n">
-        <v>16503836</v>
+        <v>16392786</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>423157</v>
+        <v>422761</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96049217</v>
+        <v>96533510</v>
       </c>
       <c r="E30" t="n">
-        <v>119762114</v>
+        <v>120365971</v>
       </c>
       <c r="F30" t="n">
-        <v>114383.2710680944</v>
+        <v>115315.8389512841</v>
       </c>
       <c r="G30" t="n">
-        <v>132221.5958559368</v>
+        <v>116428.0004242145</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>13168336</v>
+        <v>13272676</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109965</v>
+        <v>1109604</v>
       </c>
       <c r="E31" t="n">
-        <v>12062684</v>
+        <v>12058762</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12859.81</v>
+        <v>12822.14</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>82438123</v>
+        <v>81228998</v>
       </c>
       <c r="E32" t="n">
-        <v>230679334</v>
+        <v>227312070</v>
       </c>
       <c r="F32" t="n">
-        <v>49487.95934986611</v>
+        <v>56905.05351155165</v>
       </c>
       <c r="G32" t="n">
-        <v>93254.53875017432</v>
+        <v>69975.84374352238</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I32" t="n">
-        <v>64077761</v>
+        <v>57915850</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4151731</v>
+        <v>4146509</v>
       </c>
       <c r="E33" t="n">
-        <v>8187564</v>
+        <v>8177265</v>
       </c>
       <c r="F33" t="n">
-        <v>7875.08267681785</v>
+        <v>6779.762682192538</v>
       </c>
       <c r="G33" t="n">
-        <v>7768.79636332576</v>
+        <v>11239.34473174245</v>
       </c>
       <c r="H33" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="I33" t="n">
-        <v>1718216</v>
+        <v>1725789</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36326074</v>
+        <v>36306892</v>
       </c>
       <c r="F34" t="n">
-        <v>233.4047132002595</v>
+        <v>233.408496225288</v>
       </c>
       <c r="G34" t="n">
-        <v>284.3927162094923</v>
+        <v>284.3973256483876</v>
       </c>
       <c r="H34" t="n">
         <v>0.36</v>
       </c>
       <c r="I34" t="n">
-        <v>26339</v>
+        <v>22870</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17159411</v>
+        <v>17159565</v>
       </c>
       <c r="E35" t="n">
-        <v>18085616</v>
+        <v>18085779</v>
       </c>
       <c r="F35" t="n">
-        <v>3487.062282730927</v>
+        <v>3487.118801057873</v>
       </c>
       <c r="G35" t="n">
-        <v>2560.844688985152</v>
+        <v>2570.885251549895</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>49020</v>
+        <v>49045</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23047517</v>
+        <v>23066722</v>
       </c>
       <c r="F36" t="n">
-        <v>5182.053264577466</v>
+        <v>5186.408503173166</v>
       </c>
       <c r="G36" t="n">
-        <v>5584.590232481916</v>
+        <v>5588.219315237982</v>
       </c>
       <c r="H36" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>128329</v>
+        <v>127930</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84602256</v>
+        <v>84615321</v>
       </c>
       <c r="E37" t="n">
-        <v>176388908</v>
+        <v>176416149</v>
       </c>
       <c r="F37" t="n">
-        <v>60366.19142718231</v>
+        <v>45310.35308779138</v>
       </c>
       <c r="G37" t="n">
-        <v>52060.12156749995</v>
+        <v>31237.96599075218</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>80544311</v>
+        <v>83065804</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277545954</v>
+        <v>275119173</v>
       </c>
       <c r="E38" t="n">
-        <v>277545954</v>
+        <v>275119173</v>
       </c>
       <c r="F38" t="n">
-        <v>25005.95853208659</v>
+        <v>32085.37575420388</v>
       </c>
       <c r="G38" t="n">
-        <v>31197.07965817853</v>
+        <v>26430.58148176828</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>11802926</v>
+        <v>11586586</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195618902</v>
+        <v>195142834</v>
       </c>
       <c r="E39" t="n">
-        <v>679597746</v>
+        <v>677943842</v>
       </c>
       <c r="F39" t="n">
-        <v>46804.00424258872</v>
+        <v>184762.0916091875</v>
       </c>
       <c r="G39" t="n">
-        <v>210645.4729951181</v>
+        <v>329756.1328155559</v>
       </c>
       <c r="H39" t="n">
         <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>41238373</v>
+        <v>41251650</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3266822</v>
+        <v>3263078</v>
       </c>
       <c r="E40" t="n">
-        <v>3266822</v>
+        <v>3263078</v>
       </c>
       <c r="F40" t="n">
-        <v>845.3058132611527</v>
+        <v>844.4712112949271</v>
       </c>
       <c r="G40" t="n">
-        <v>3927.95310069963</v>
+        <v>4579.349718738463</v>
       </c>
       <c r="H40" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="I40" t="n">
-        <v>1916263</v>
+        <v>1816927</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109351211</v>
+        <v>108947362</v>
       </c>
       <c r="E41" t="n">
-        <v>463585760</v>
+        <v>461825584</v>
       </c>
       <c r="F41" t="n">
-        <v>5626.780556541659</v>
+        <v>5638.818381521299</v>
       </c>
       <c r="G41" t="n">
-        <v>8632.996946697878</v>
+        <v>7713.180138559905</v>
       </c>
       <c r="H41" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I41" t="n">
-        <v>14966037</v>
+        <v>14868350</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>609148</v>
+        <v>595574</v>
       </c>
       <c r="E42" t="n">
-        <v>7388377</v>
+        <v>7223727</v>
       </c>
       <c r="F42" t="n">
-        <v>503.5037530156172</v>
+        <v>683.9381871948923</v>
       </c>
       <c r="G42" t="n">
-        <v>525.3180587293137</v>
+        <v>653.7019056940738</v>
       </c>
       <c r="H42" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="I42" t="n">
-        <v>2987908</v>
+        <v>2978458</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1428088407</v>
+        <v>1430910986</v>
       </c>
       <c r="E43" t="n">
-        <v>6847976376</v>
+        <v>6861511220</v>
       </c>
       <c r="F43" t="n">
-        <v>18967.89769297299</v>
+        <v>46509.45947037738</v>
       </c>
       <c r="G43" t="n">
-        <v>22532.46610313508</v>
+        <v>50951.65192238982</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>571483061</v>
+        <v>579586040</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5915691721</v>
+        <v>5916677197</v>
       </c>
       <c r="E44" t="n">
-        <v>5911038647</v>
+        <v>5916677197</v>
       </c>
       <c r="F44" t="n">
-        <v>779706.3221563878</v>
+        <v>661384.0823429803</v>
       </c>
       <c r="G44" t="n">
-        <v>418705.2595211958</v>
+        <v>501767.652333739</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>415089034</v>
+        <v>421277302</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>260647281</v>
+        <v>260298834</v>
       </c>
       <c r="E45" t="n">
-        <v>1125098360</v>
+        <v>1123594269</v>
       </c>
       <c r="F45" t="n">
-        <v>109182.4404058735</v>
+        <v>93184.2105098349</v>
       </c>
       <c r="G45" t="n">
-        <v>95329.09968053282</v>
+        <v>106456.4413771033</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>140218988</v>
+        <v>142338074</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>113307447</v>
+        <v>116883139</v>
       </c>
       <c r="E46" t="n">
-        <v>113307447</v>
+        <v>116883139</v>
       </c>
       <c r="F46" t="n">
-        <v>32593.81158136083</v>
+        <v>34794.76476796613</v>
       </c>
       <c r="G46" t="n">
-        <v>30795.08837488314</v>
+        <v>24171.65117746031</v>
       </c>
       <c r="H46" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I46" t="n">
-        <v>7209059</v>
+        <v>7556931</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042406981</v>
+        <v>2041963872</v>
       </c>
       <c r="E47" t="n">
-        <v>2042406981</v>
+        <v>2041963872</v>
       </c>
       <c r="F47" t="n">
-        <v>227289.3481009538</v>
+        <v>227292.962126196</v>
       </c>
       <c r="G47" t="n">
-        <v>200673.9643307727</v>
+        <v>200677.2966196721</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>9071683431</v>
+        <v>9217254209</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10198497</v>
+        <v>10252687</v>
       </c>
       <c r="F48" t="n">
-        <v>6372.932681719534</v>
+        <v>6272.126668919411</v>
       </c>
       <c r="G48" t="n">
-        <v>6627.980478227582</v>
+        <v>6346.149001524255</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>180640</v>
+        <v>178151</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4181777</v>
+        <v>4170720</v>
       </c>
       <c r="E49" t="n">
-        <v>5490128</v>
+        <v>5475611</v>
       </c>
       <c r="F49" t="n">
-        <v>5623.593099062424</v>
+        <v>5291.340805747926</v>
       </c>
       <c r="G49" t="n">
-        <v>4314.002604024501</v>
+        <v>4665.496160675892</v>
       </c>
       <c r="H49" t="n">
         <v>0.28</v>
       </c>
       <c r="I49" t="n">
-        <v>583296</v>
+        <v>605334</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12790668</v>
+        <v>12884142</v>
       </c>
       <c r="E50" t="n">
-        <v>18808436</v>
+        <v>18945888</v>
       </c>
       <c r="F50" t="n">
-        <v>2687.303519753052</v>
+        <v>1370.396804983669</v>
       </c>
       <c r="G50" t="n">
-        <v>6872.075416102009</v>
+        <v>6894.165628618508</v>
       </c>
       <c r="H50" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I50" t="n">
-        <v>6813230</v>
+        <v>6916734</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22061184</v>
+        <v>22199180</v>
       </c>
       <c r="E51" t="n">
-        <v>28618402</v>
+        <v>28797414</v>
       </c>
       <c r="F51" t="n">
-        <v>12793.60670805738</v>
+        <v>12127.77451120392</v>
       </c>
       <c r="G51" t="n">
-        <v>9902.61740835502</v>
+        <v>13370.10417052871</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>238034</v>
+        <v>238644</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14088447</v>
+        <v>14101559</v>
       </c>
       <c r="E52" t="n">
-        <v>14088447</v>
+        <v>14101559</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5729454</v>
+        <v>5762296</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99342654</v>
+        <v>98851338</v>
       </c>
       <c r="E53" t="n">
-        <v>122883308</v>
+        <v>122275567</v>
       </c>
       <c r="F53" t="n">
-        <v>865.3648433577056</v>
+        <v>845.5548364722362</v>
       </c>
       <c r="G53" t="n">
-        <v>3654.250250457374</v>
+        <v>3751.301187641907</v>
       </c>
       <c r="H53" t="n">
         <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>1094281</v>
+        <v>1076864</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4931421</v>
+        <v>4948268</v>
       </c>
       <c r="E54" t="n">
-        <v>6899773</v>
+        <v>6923344</v>
       </c>
       <c r="F54" t="n">
-        <v>446.9437384540243</v>
+        <v>405.0550023242351</v>
       </c>
       <c r="G54" t="n">
-        <v>251.8322059355805</v>
+        <v>249.1699559950563</v>
       </c>
       <c r="H54" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="I54" t="n">
-        <v>54198</v>
+        <v>54186</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14134841</v>
+        <v>14131269</v>
       </c>
       <c r="E55" t="n">
-        <v>68457292</v>
+        <v>68439991</v>
       </c>
       <c r="F55" t="n">
-        <v>11062.05584520216</v>
+        <v>13738.37017136621</v>
       </c>
       <c r="G55" t="n">
-        <v>7072.646584014742</v>
+        <v>6428.775260265609</v>
       </c>
       <c r="H55" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="I55" t="n">
-        <v>5602363</v>
+        <v>5570651</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>54383</v>
+        <v>54359</v>
       </c>
       <c r="E56" t="n">
-        <v>130258</v>
+        <v>130201</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16744.82</v>
+        <v>16733.23</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1852892481</v>
+        <v>1852627988</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>32021894</v>
+        <v>31873048</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11911981</v>
+        <v>11926608</v>
       </c>
       <c r="E58" t="n">
-        <v>17270654</v>
+        <v>17291861</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2020721</v>
+        <v>1916357</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>122420809</v>
+        <v>122101946</v>
       </c>
       <c r="E59" t="n">
-        <v>325569565</v>
+        <v>324721572</v>
       </c>
       <c r="F59" t="n">
-        <v>7797.828926806038</v>
+        <v>7780.516772492324</v>
       </c>
       <c r="G59" t="n">
-        <v>7289.742841327807</v>
+        <v>7382.306191737927</v>
       </c>
       <c r="H59" t="n">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="I59" t="n">
-        <v>763656</v>
+        <v>774624</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29319926</v>
+        <v>29161299</v>
       </c>
       <c r="E60" t="n">
-        <v>91292842</v>
+        <v>90798929</v>
       </c>
       <c r="F60" t="n">
-        <v>2621.921573451247</v>
+        <v>1739.85165503627</v>
       </c>
       <c r="G60" t="n">
-        <v>6412.229810461546</v>
+        <v>5426.315825993116</v>
       </c>
       <c r="H60" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I60" t="n">
-        <v>11032593</v>
+        <v>11066873</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1826901</v>
+        <v>1846226</v>
       </c>
       <c r="E61" t="n">
-        <v>13100523</v>
+        <v>13239100</v>
       </c>
       <c r="F61" t="n">
-        <v>5165.618176066462</v>
+        <v>5460.67633017878</v>
       </c>
       <c r="G61" t="n">
-        <v>2852.125612738555</v>
+        <v>1392.010478985693</v>
       </c>
       <c r="H61" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="I61" t="n">
-        <v>2105808</v>
+        <v>2112053</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194246905</v>
+        <v>192614082</v>
       </c>
       <c r="E62" t="n">
-        <v>1099945327</v>
+        <v>1090699281</v>
       </c>
       <c r="F62" t="n">
-        <v>432732.3109633034</v>
+        <v>615589.6364211891</v>
       </c>
       <c r="G62" t="n">
-        <v>709299.3730344416</v>
+        <v>881183.2332259176</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>85798939</v>
+        <v>85435375</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>489979</v>
+        <v>489621</v>
       </c>
       <c r="E63" t="n">
-        <v>1649202</v>
+        <v>1647998</v>
       </c>
       <c r="F63" t="n">
-        <v>5220.591718740765</v>
+        <v>5263.817693899721</v>
       </c>
       <c r="G63" t="n">
-        <v>492.709896860709</v>
+        <v>498.8421357571569</v>
       </c>
       <c r="H63" t="n">
         <v>0.6</v>
       </c>
       <c r="I63" t="n">
-        <v>643235</v>
+        <v>643477</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>358446</v>
+        <v>360526</v>
       </c>
       <c r="E64" t="n">
-        <v>358446</v>
+        <v>360526</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3520.39</v>
+        <v>3527.97</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>131114099</v>
+        <v>131003667</v>
       </c>
       <c r="E65" t="n">
-        <v>971215548</v>
+        <v>970397531</v>
       </c>
       <c r="F65" t="n">
-        <v>31545.84377055989</v>
+        <v>31844.51867947619</v>
       </c>
       <c r="G65" t="n">
-        <v>30381.00623775432</v>
+        <v>30051.49410191772</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>36499784</v>
+        <v>36871378</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8799615</v>
+        <v>8789343</v>
       </c>
       <c r="E66" t="n">
-        <v>11788550</v>
+        <v>11774789</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>48351</v>
+        <v>48119</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25547608</v>
+        <v>25496732</v>
       </c>
       <c r="E67" t="n">
-        <v>25547608</v>
+        <v>25496732</v>
       </c>
       <c r="F67" t="n">
-        <v>8104.688805179162</v>
+        <v>8096.13721333532</v>
       </c>
       <c r="G67" t="n">
-        <v>5251.907325689755</v>
+        <v>5259.740405556468</v>
       </c>
       <c r="H67" t="n">
         <v>0.43</v>
       </c>
       <c r="I67" t="n">
-        <v>366194</v>
+        <v>369775</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1536176</v>
+        <v>1538978</v>
       </c>
       <c r="E68" t="n">
-        <v>11930120</v>
+        <v>11951881</v>
       </c>
       <c r="F68" t="n">
-        <v>16481.84675501549</v>
+        <v>16425.10659795735</v>
       </c>
       <c r="G68" t="n">
-        <v>21936.79609856281</v>
+        <v>19545.42614527946</v>
       </c>
       <c r="H68" t="n">
         <v>1.06</v>
       </c>
       <c r="I68" t="n">
-        <v>555331</v>
+        <v>549815</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>321393976</v>
+        <v>322433146</v>
       </c>
       <c r="E69" t="n">
-        <v>2891459496</v>
+        <v>2900808516</v>
       </c>
       <c r="F69" t="n">
-        <v>1403416.014159581</v>
+        <v>1231319.525342122</v>
       </c>
       <c r="G69" t="n">
-        <v>1774284.942253387</v>
+        <v>1860082.803668676</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>71112238</v>
+        <v>70463013</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251817</v>
+        <v>247077</v>
       </c>
       <c r="E70" t="n">
-        <v>2222474</v>
+        <v>2180639</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72030</v>
+        <v>71556</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1538264</v>
+        <v>1535835</v>
       </c>
       <c r="E71" t="n">
-        <v>12818866</v>
+        <v>12798628</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>30653</v>
+        <v>29387</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9329083</v>
+        <v>9337734</v>
       </c>
       <c r="E72" t="n">
-        <v>43240835</v>
+        <v>43280934</v>
       </c>
       <c r="F72" t="n">
-        <v>10191.47592576945</v>
+        <v>9621.398468741094</v>
       </c>
       <c r="G72" t="n">
-        <v>3141.820927808465</v>
+        <v>3139.552865515482</v>
       </c>
       <c r="H72" t="n">
         <v>0.63</v>
       </c>
       <c r="I72" t="n">
-        <v>119934</v>
+        <v>118988</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46560982</v>
+        <v>46500414</v>
       </c>
       <c r="E73" t="n">
-        <v>269568849</v>
+        <v>269218185</v>
       </c>
       <c r="F73" t="n">
-        <v>120022.0883606658</v>
+        <v>105060.4725074237</v>
       </c>
       <c r="G73" t="n">
-        <v>187275.7575899704</v>
+        <v>229115.9930697879</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>39301719</v>
+        <v>38257788</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39119623</v>
+        <v>39094440</v>
       </c>
       <c r="E74" t="n">
-        <v>54029770</v>
+        <v>53994989</v>
       </c>
       <c r="F74" t="n">
-        <v>4424.356907778343</v>
+        <v>4654.447766122855</v>
       </c>
       <c r="G74" t="n">
-        <v>10502.36127793485</v>
+        <v>4552.907233389685</v>
       </c>
       <c r="H74" t="n">
         <v>0.39</v>
       </c>
       <c r="I74" t="n">
-        <v>300262</v>
+        <v>302888</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>98680</v>
+        <v>97664</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3931.87</v>
+        <v>4001.36</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13558917</v>
+        <v>13531785</v>
       </c>
       <c r="E76" t="n">
-        <v>13605059</v>
+        <v>13577835</v>
       </c>
       <c r="F76" t="n">
-        <v>1546.73858502171</v>
+        <v>1819.824471473102</v>
       </c>
       <c r="G76" t="n">
-        <v>7023.53692789749</v>
+        <v>6055.663650827902</v>
       </c>
       <c r="H76" t="n">
         <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>7286960</v>
+        <v>7284381</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41954042</v>
+        <v>41952870</v>
       </c>
       <c r="E77" t="n">
-        <v>71217869</v>
+        <v>71215877</v>
       </c>
       <c r="F77" t="n">
-        <v>6633.254238278196</v>
+        <v>1795.305149731316</v>
       </c>
       <c r="G77" t="n">
-        <v>7881.137390994812</v>
+        <v>6290.741615411749</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1065504</v>
+        <v>1067650</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19516173</v>
+        <v>19448537</v>
       </c>
       <c r="E78" t="n">
-        <v>58513657</v>
+        <v>58311176</v>
       </c>
       <c r="F78" t="n">
-        <v>47197.85266306608</v>
+        <v>35398.67443607759</v>
       </c>
       <c r="G78" t="n">
-        <v>46423.65224529353</v>
+        <v>63784.38365809158</v>
       </c>
       <c r="H78" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="I78" t="n">
-        <v>4384100</v>
+        <v>4295010</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>99917116</v>
+        <v>103046103</v>
       </c>
       <c r="E79" t="n">
-        <v>106220924</v>
+        <v>109547320</v>
       </c>
       <c r="F79" t="n">
-        <v>3159.143991216308</v>
+        <v>4342.764541915614</v>
       </c>
       <c r="G79" t="n">
-        <v>8160.038083199045</v>
+        <v>5250.831756899555</v>
       </c>
       <c r="H79" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="I79" t="n">
-        <v>2531262</v>
+        <v>2962507</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10451237</v>
+        <v>10425023</v>
       </c>
       <c r="E80" t="n">
-        <v>45354762</v>
+        <v>45264595</v>
       </c>
       <c r="F80" t="n">
-        <v>6153.957054520206</v>
+        <v>6139.211014713001</v>
       </c>
       <c r="G80" t="n">
-        <v>5847.383690054787</v>
+        <v>6173.002087283465</v>
       </c>
       <c r="H80" t="n">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>119842</v>
+        <v>116904</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15865527</v>
+        <v>15822354</v>
       </c>
       <c r="E81" t="n">
-        <v>97245031</v>
+        <v>96980410</v>
       </c>
       <c r="F81" t="n">
-        <v>1732.562185145363</v>
+        <v>4129.648295108598</v>
       </c>
       <c r="G81" t="n">
-        <v>3287.830593096754</v>
+        <v>6323.609399608697</v>
       </c>
       <c r="H81" t="n">
-        <v>1.01</v>
+        <v>0.19</v>
       </c>
       <c r="I81" t="n">
-        <v>12404251</v>
+        <v>12678181</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1460209</v>
+        <v>1466660</v>
       </c>
       <c r="E82" t="n">
-        <v>1501284</v>
+        <v>1507916</v>
       </c>
       <c r="F82" t="n">
-        <v>2297.570731267077</v>
+        <v>2307.705084742055</v>
       </c>
       <c r="G82" t="n">
-        <v>2097.763152145218</v>
+        <v>1822.391042046792</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I82" t="n">
-        <v>97665</v>
+        <v>148271</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>49616493</v>
+        <v>48947245</v>
       </c>
       <c r="E83" t="n">
-        <v>213742428</v>
+        <v>210859380</v>
       </c>
       <c r="F83" t="n">
-        <v>3026.614831985024</v>
+        <v>2831.86930260617</v>
       </c>
       <c r="G83" t="n">
-        <v>610.2857744813386</v>
+        <v>4652.618343221196</v>
       </c>
       <c r="H83" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="I83" t="n">
-        <v>13628824</v>
+        <v>13704894</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2282269</v>
+        <v>2300100</v>
       </c>
       <c r="E84" t="n">
-        <v>8283647</v>
+        <v>8348040</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>240798</v>
+        <v>233724</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8776975</v>
+        <v>8775736</v>
       </c>
       <c r="E85" t="n">
-        <v>19466083</v>
+        <v>19463334</v>
       </c>
       <c r="F85" t="n">
-        <v>8064.088418599577</v>
+        <v>7880.964132474071</v>
       </c>
       <c r="G85" t="n">
-        <v>7296.495887469271</v>
+        <v>7322.067456362797</v>
       </c>
       <c r="H85" t="n">
         <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>303695</v>
+        <v>301244</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2444635</v>
+        <v>2441909</v>
       </c>
       <c r="E86" t="n">
-        <v>18395253</v>
+        <v>18374735</v>
       </c>
       <c r="F86" t="n">
-        <v>5265.924140776686</v>
+        <v>5271.949112885964</v>
       </c>
       <c r="G86" t="n">
-        <v>12103.5405477663</v>
+        <v>12042.99714618931</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>155842</v>
+        <v>155710</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19447748</v>
+        <v>18952109</v>
       </c>
       <c r="E87" t="n">
-        <v>77790993</v>
+        <v>75808437</v>
       </c>
       <c r="F87" t="n">
-        <v>4391.758420899927</v>
+        <v>4478.703778866064</v>
       </c>
       <c r="G87" t="n">
-        <v>1232.340450666559</v>
+        <v>2127.66320176262</v>
       </c>
       <c r="H87" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="I87" t="n">
-        <v>3874540</v>
+        <v>3908395</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4644007</v>
+        <v>4622619</v>
       </c>
       <c r="E88" t="n">
-        <v>4644007</v>
+        <v>4622619</v>
       </c>
       <c r="F88" t="n">
-        <v>408.0366840048096</v>
+        <v>1713.740697004384</v>
       </c>
       <c r="G88" t="n">
-        <v>865.6462085414796</v>
+        <v>1265.163645700512</v>
       </c>
       <c r="H88" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="I88" t="n">
-        <v>2821525</v>
+        <v>2809246</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13104771</v>
+        <v>12911407</v>
       </c>
       <c r="E89" t="n">
-        <v>41448372</v>
+        <v>40836790</v>
       </c>
       <c r="F89" t="n">
-        <v>13349.62010943568</v>
+        <v>13420.06949383031</v>
       </c>
       <c r="G89" t="n">
-        <v>8253.17241669431</v>
+        <v>13212.94939098689</v>
       </c>
       <c r="H89" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="I89" t="n">
-        <v>1190893</v>
+        <v>1185605</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24979</v>
+        <v>24961</v>
       </c>
       <c r="E90" t="n">
-        <v>196454</v>
+        <v>196308</v>
       </c>
       <c r="F90" t="n">
-        <v>217.8667540300762</v>
+        <v>224.1563908048974</v>
       </c>
       <c r="G90" t="n">
-        <v>1968.023847270902</v>
+        <v>647.0901265310107</v>
       </c>
       <c r="H90" t="n">
         <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>34593</v>
+        <v>33275</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8061074</v>
+        <v>8013807</v>
       </c>
       <c r="E91" t="n">
-        <v>8061074</v>
+        <v>8013807</v>
       </c>
       <c r="F91" t="n">
-        <v>1312.21112314609</v>
+        <v>1181.891492726179</v>
       </c>
       <c r="G91" t="n">
-        <v>4959.189746152095</v>
+        <v>4833.570968347305</v>
       </c>
       <c r="H91" t="n">
         <v>0.49</v>
       </c>
       <c r="I91" t="n">
-        <v>4254426</v>
+        <v>4265904</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8889061</v>
+        <v>8793289</v>
       </c>
       <c r="E92" t="n">
-        <v>8889061</v>
+        <v>8793289</v>
       </c>
       <c r="F92" t="n">
-        <v>6727.785950684583</v>
+        <v>6954.005207484304</v>
       </c>
       <c r="G92" t="n">
-        <v>3063.103700438131</v>
+        <v>3095.079309860999</v>
       </c>
       <c r="H92" t="n">
-        <v>1.04</v>
+        <v>0.79</v>
       </c>
       <c r="I92" t="n">
-        <v>1540728</v>
+        <v>1374411</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31109222</v>
+        <v>31577225</v>
       </c>
       <c r="E93" t="n">
-        <v>78442523</v>
+        <v>79622602</v>
       </c>
       <c r="F93" t="n">
-        <v>2.998030184117229</v>
+        <v>2.997474828831085</v>
       </c>
       <c r="G93" t="n">
-        <v>5326.337998219871</v>
+        <v>5479.0567996112</v>
       </c>
       <c r="H93" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I93" t="n">
-        <v>6521358</v>
+        <v>6488816</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>294868945</v>
+        <v>295167206</v>
       </c>
       <c r="E94" t="n">
-        <v>299480645</v>
+        <v>299783180</v>
       </c>
       <c r="F94" t="n">
-        <v>6482.163637632826</v>
+        <v>6504.887623175288</v>
       </c>
       <c r="G94" t="n">
-        <v>8261.799493153825</v>
+        <v>6992.820166329568</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I94" t="n">
-        <v>25485709</v>
+        <v>25225792</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>991.6866845820798</v>
+        <v>3502.02039077646</v>
       </c>
       <c r="G95" t="n">
-        <v>6530.176073716591</v>
+        <v>6509.603895134644</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>184792</v>
+        <v>169104</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78059442</v>
+        <v>77930778</v>
       </c>
       <c r="E96" t="n">
-        <v>78059442</v>
+        <v>77930778</v>
       </c>
       <c r="F96" t="n">
-        <v>7432.6088827776</v>
+        <v>9657.231433700663</v>
       </c>
       <c r="G96" t="n">
-        <v>6671.432851167427</v>
+        <v>4779.615515007324</v>
       </c>
       <c r="H96" t="n">
         <v>0.72</v>
       </c>
       <c r="I96" t="n">
-        <v>4720020</v>
+        <v>4499224</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>305793549</v>
+        <v>303815106</v>
       </c>
       <c r="E97" t="n">
-        <v>305793549</v>
+        <v>303815106</v>
       </c>
       <c r="F97" t="n">
-        <v>338126.5560113007</v>
+        <v>335179.292115788</v>
       </c>
       <c r="G97" t="n">
-        <v>403198.824933328</v>
+        <v>417170.0988587662</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>110646931</v>
+        <v>112417657</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4610217</v>
+        <v>4608602</v>
       </c>
       <c r="E98" t="n">
-        <v>31501289</v>
+        <v>31490252</v>
       </c>
       <c r="F98" t="n">
-        <v>5113.256408481805</v>
+        <v>24433.55273145418</v>
       </c>
       <c r="G98" t="n">
-        <v>4873.709045811802</v>
+        <v>26020.90220079628</v>
       </c>
       <c r="H98" t="n">
         <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>3036761</v>
+        <v>3034814</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84230065</v>
+        <v>83896235</v>
       </c>
       <c r="E99" t="n">
-        <v>485369967</v>
+        <v>483446293</v>
       </c>
       <c r="F99" t="n">
-        <v>124180.3687737397</v>
+        <v>157219.6635184545</v>
       </c>
       <c r="G99" t="n">
-        <v>160328.2452988889</v>
+        <v>146890.2903808267</v>
       </c>
       <c r="H99" t="n">
         <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21335738</v>
+        <v>21342638</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106972841</v>
+        <v>106819293</v>
       </c>
       <c r="E100" t="n">
-        <v>263194981</v>
+        <v>262817193</v>
       </c>
       <c r="F100" t="n">
-        <v>44690.99041734526</v>
+        <v>46242.21716430534</v>
       </c>
       <c r="G100" t="n">
-        <v>29201.22101624015</v>
+        <v>29419.27715073106</v>
       </c>
       <c r="H100" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I100" t="n">
-        <v>3053685</v>
+        <v>3032351</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>238386655</v>
+        <v>238164017</v>
       </c>
       <c r="E101" t="n">
-        <v>238389024</v>
+        <v>238166383</v>
       </c>
       <c r="F101" t="n">
-        <v>11189.69943353743</v>
+        <v>43455.13132119861</v>
       </c>
       <c r="G101" t="n">
-        <v>28607.71527501328</v>
+        <v>21743.03097710015</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I101" t="n">
-        <v>2990015</v>
+        <v>2984524</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30172320</v>
+        <v>30810536</v>
       </c>
       <c r="E102" t="n">
-        <v>135093854</v>
+        <v>137951407</v>
       </c>
       <c r="F102" t="n">
-        <v>73798.07390773983</v>
+        <v>58546.57511772401</v>
       </c>
       <c r="G102" t="n">
-        <v>119767.7916736382</v>
+        <v>114345.3622883</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>16319376</v>
+        <v>16862430</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2859708</v>
+        <v>2840364</v>
       </c>
       <c r="E103" t="n">
-        <v>2859708</v>
+        <v>2840364</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>298140</v>
+        <v>294324</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6013561</v>
+        <v>5962613</v>
       </c>
       <c r="E104" t="n">
-        <v>15782568</v>
+        <v>15648857</v>
       </c>
       <c r="F104" t="n">
-        <v>64.98374112225389</v>
+        <v>97.90225202800895</v>
       </c>
       <c r="G104" t="n">
-        <v>306.2286066726247</v>
+        <v>622.4516629600993</v>
       </c>
       <c r="H104" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="I104" t="n">
-        <v>28404</v>
+        <v>28534</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16307924</v>
+        <v>16246715</v>
       </c>
       <c r="E105" t="n">
-        <v>75275251</v>
+        <v>74992720</v>
       </c>
       <c r="F105" t="n">
-        <v>5830.86810500228</v>
+        <v>7316.187881582475</v>
       </c>
       <c r="G105" t="n">
-        <v>4520.721493559935</v>
+        <v>5056.360804540649</v>
       </c>
       <c r="H105" t="n">
         <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1223130</v>
+        <v>1156312</v>
       </c>
     </row>
     <row r="106">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA</t>
+          <t>Gaming (GameFi), Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47942532</v>
+        <v>47880735</v>
       </c>
       <c r="E106" t="n">
-        <v>310894558</v>
+        <v>310493821</v>
       </c>
       <c r="F106" t="n">
-        <v>111933.4700069852</v>
+        <v>123119.8830230432</v>
       </c>
       <c r="G106" t="n">
-        <v>136614.7176164382</v>
+        <v>139928.7914955712</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>22052162</v>
+        <v>21873411</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2450000</v>
+        <v>2446310</v>
       </c>
       <c r="E107" t="n">
-        <v>4438636</v>
+        <v>4431951</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>105377</v>
+        <v>100687</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124142542</v>
+        <v>123642218</v>
       </c>
       <c r="E108" t="n">
-        <v>2055902174</v>
+        <v>2047616400</v>
       </c>
       <c r="F108" t="n">
-        <v>25048.98728230352</v>
+        <v>31059.66759257543</v>
       </c>
       <c r="G108" t="n">
-        <v>11871.62640833042</v>
+        <v>126774.7200742023</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>41249929</v>
+        <v>43199872</v>
       </c>
     </row>
     <row r="109">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22991464</v>
+        <v>22995425</v>
       </c>
       <c r="E109" t="n">
-        <v>137562548</v>
+        <v>137586251</v>
       </c>
       <c r="F109" t="n">
-        <v>39871.77545012548</v>
+        <v>5377.640433888064</v>
       </c>
       <c r="G109" t="n">
-        <v>37289.51760917147</v>
+        <v>36607.38840859554</v>
       </c>
       <c r="H109" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>18595367</v>
+        <v>18468931</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1045106</v>
+        <v>1042804</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>94378</v>
+        <v>93397</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2393403</v>
+        <v>2400475</v>
       </c>
       <c r="F111" t="n">
-        <v>4507.059940362306</v>
+        <v>3089.599176349487</v>
       </c>
       <c r="G111" t="n">
-        <v>171.5864738856363</v>
+        <v>173.728636217874</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>213207</v>
+        <v>217043</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>150008496</v>
+        <v>149787179</v>
       </c>
       <c r="F112" t="n">
-        <v>5147.891421855952</v>
+        <v>5147.969299283453</v>
       </c>
       <c r="G112" t="n">
-        <v>4260.154290446341</v>
+        <v>4286.245224356577</v>
       </c>
       <c r="H112" t="n">
         <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>79992</v>
+        <v>80345</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6268162</v>
+        <v>6120983</v>
       </c>
       <c r="E113" t="n">
-        <v>32247788</v>
+        <v>31490600</v>
       </c>
       <c r="F113" t="n">
-        <v>1106.416803092927</v>
+        <v>2187.281852871554</v>
       </c>
       <c r="G113" t="n">
-        <v>1387.181340937698</v>
+        <v>235.0890046918241</v>
       </c>
       <c r="H113" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="I113" t="n">
-        <v>973542</v>
+        <v>950289</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30032577</v>
+        <v>29978336</v>
       </c>
       <c r="E114" t="n">
-        <v>41179913</v>
+        <v>41105540</v>
       </c>
       <c r="F114" t="n">
-        <v>2874.035757678244</v>
+        <v>3905.612564136894</v>
       </c>
       <c r="G114" t="n">
-        <v>4887.117946138531</v>
+        <v>5590.279698881653</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>1470013</v>
+        <v>1468496</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7597625</v>
+        <v>7584715</v>
       </c>
       <c r="F115" t="n">
-        <v>1708.534886721923</v>
+        <v>1730.862840000557</v>
       </c>
       <c r="G115" t="n">
-        <v>5807.89820397759</v>
+        <v>5785.9900062863</v>
       </c>
       <c r="H115" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I115" t="n">
-        <v>665024</v>
+        <v>676518</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3633015</v>
+        <v>3615797</v>
       </c>
       <c r="E116" t="n">
-        <v>4866653</v>
+        <v>4843588</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>127640</v>
+        <v>127773</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32435057</v>
+        <v>32397138</v>
       </c>
       <c r="E117" t="n">
-        <v>161865886</v>
+        <v>161676654</v>
       </c>
       <c r="F117" t="n">
-        <v>97267.33402075584</v>
+        <v>74041.82507878722</v>
       </c>
       <c r="G117" t="n">
-        <v>78621.45331740689</v>
+        <v>82460.97888189575</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>14181955</v>
+        <v>14012051</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3496588</v>
+        <v>3500329</v>
       </c>
       <c r="E118" t="n">
-        <v>5022913</v>
+        <v>5028288</v>
       </c>
       <c r="F118" t="n">
-        <v>617.2516460294659</v>
+        <v>617.2609838274833</v>
       </c>
       <c r="G118" t="n">
-        <v>764.8220922269458</v>
+        <v>764.8336624742873</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>151217</v>
+        <v>155748</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>284395549</v>
+        <v>288853903</v>
       </c>
       <c r="E119" t="n">
-        <v>526196621</v>
+        <v>534445593</v>
       </c>
       <c r="F119" t="n">
-        <v>34230.77506805796</v>
+        <v>24178.5872928027</v>
       </c>
       <c r="G119" t="n">
-        <v>32922.91342523738</v>
+        <v>34968.69089184982</v>
       </c>
       <c r="H119" t="n">
         <v>0.02</v>
       </c>
       <c r="I119" t="n">
-        <v>23182057</v>
+        <v>23870406</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>70177242</v>
+        <v>69023818</v>
       </c>
       <c r="E120" t="n">
-        <v>669321417</v>
+        <v>658317041</v>
       </c>
       <c r="F120" t="n">
-        <v>5180.225877419316</v>
+        <v>4853.587911799718</v>
       </c>
       <c r="G120" t="n">
-        <v>2265.488338855554</v>
+        <v>2267.676483224594</v>
       </c>
       <c r="H120" t="n">
         <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>25457749</v>
+        <v>25852858</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37195362</v>
+        <v>37011826</v>
       </c>
       <c r="E121" t="n">
-        <v>48625645</v>
+        <v>48385585</v>
       </c>
       <c r="F121" t="n">
-        <v>5876.582071099509</v>
+        <v>248.6273874649136</v>
       </c>
       <c r="G121" t="n">
-        <v>4609.807203379217</v>
+        <v>5031.333778755839</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>2.97</v>
       </c>
       <c r="I121" t="n">
-        <v>441215</v>
+        <v>451869</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9555808</v>
+        <v>9470291</v>
       </c>
       <c r="E122" t="n">
-        <v>28328560</v>
+        <v>28075043</v>
       </c>
       <c r="F122" t="n">
-        <v>992.2873702073387</v>
+        <v>2603.694901886844</v>
       </c>
       <c r="G122" t="n">
-        <v>7101.712673330468</v>
+        <v>8011.616729639363</v>
       </c>
       <c r="H122" t="n">
         <v>0.53</v>
       </c>
       <c r="I122" t="n">
-        <v>6893221</v>
+        <v>6828184</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2285309</v>
+        <v>2278847</v>
       </c>
       <c r="E123" t="n">
-        <v>7636665</v>
+        <v>7615073</v>
       </c>
       <c r="F123" t="n">
-        <v>563.2713786402786</v>
+        <v>414.3159610003787</v>
       </c>
       <c r="G123" t="n">
-        <v>748.6363780556443</v>
+        <v>781.8614006497477</v>
       </c>
       <c r="H123" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="I123" t="n">
-        <v>901517</v>
+        <v>935571</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7326627</v>
+        <v>7309793</v>
       </c>
       <c r="E124" t="n">
-        <v>7326638</v>
+        <v>7309804</v>
       </c>
       <c r="F124" t="n">
-        <v>348.1202134217586</v>
+        <v>353.0728287849648</v>
       </c>
       <c r="G124" t="n">
-        <v>552.3723045485722</v>
+        <v>466.4005165980074</v>
       </c>
       <c r="H124" t="n">
         <v>1.94</v>
       </c>
       <c r="I124" t="n">
-        <v>251531</v>
+        <v>247054</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6199632</v>
+        <v>6130877</v>
       </c>
       <c r="E125" t="n">
-        <v>6199632</v>
+        <v>6130877</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>579838</v>
+        <v>592737</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6178140</v>
+        <v>6137264</v>
       </c>
       <c r="E126" t="n">
-        <v>22566354</v>
+        <v>22417049</v>
       </c>
       <c r="F126" t="n">
-        <v>6718.332958219071</v>
+        <v>6728.425034763201</v>
       </c>
       <c r="G126" t="n">
-        <v>8475.408726835267</v>
+        <v>8360.659857286102</v>
       </c>
       <c r="H126" t="n">
         <v>0.76</v>
       </c>
       <c r="I126" t="n">
-        <v>594763</v>
+        <v>599922</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43916430</v>
+        <v>43823795</v>
       </c>
       <c r="E127" t="n">
-        <v>43916430</v>
+        <v>43823795</v>
       </c>
       <c r="F127" t="n">
-        <v>62378.910025016</v>
+        <v>56242.91606075828</v>
       </c>
       <c r="G127" t="n">
-        <v>74440.3238927456</v>
+        <v>78201.83520649916</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>12423869</v>
+        <v>12825781</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>140245490</v>
+        <v>140965721</v>
       </c>
       <c r="F128" t="n">
-        <v>76.35238975821393</v>
+        <v>72.12280901416831</v>
       </c>
       <c r="G128" t="n">
-        <v>2687.313061567002</v>
+        <v>2501.933373317627</v>
       </c>
       <c r="H128" t="n">
         <v>0.71</v>
       </c>
       <c r="I128" t="n">
-        <v>1422058</v>
+        <v>1493967</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2974206</v>
+        <v>2894757</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>77136</v>
+        <v>73949</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19668259</v>
+        <v>19578522</v>
       </c>
       <c r="F130" t="n">
-        <v>407.4499800946827</v>
+        <v>264.8400693368616</v>
       </c>
       <c r="G130" t="n">
-        <v>250.2433259011484</v>
+        <v>1379.511509861413</v>
       </c>
       <c r="H130" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I130" t="n">
-        <v>2934325</v>
+        <v>2929500</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1296716</v>
+        <v>1301243</v>
       </c>
       <c r="E131" t="n">
-        <v>3917447</v>
+        <v>3930711</v>
       </c>
       <c r="F131" t="n">
-        <v>813.5388490463382</v>
+        <v>815.3666651351073</v>
       </c>
       <c r="G131" t="n">
-        <v>701.0359910708002</v>
+        <v>666.8610478832423</v>
       </c>
       <c r="H131" t="n">
         <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>48465</v>
+        <v>45241</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>583908283</v>
+        <v>580553927</v>
       </c>
       <c r="E132" t="n">
-        <v>2261390631</v>
+        <v>2248399703</v>
       </c>
       <c r="F132" t="n">
-        <v>793335.0981602048</v>
+        <v>778147.3383358759</v>
       </c>
       <c r="G132" t="n">
-        <v>972866.4594646501</v>
+        <v>996213.2287993595</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62878942</v>
+        <v>62496488</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3612796</v>
+        <v>3622032</v>
       </c>
       <c r="E133" t="n">
-        <v>6158501</v>
+        <v>6174246</v>
       </c>
       <c r="F133" t="n">
-        <v>5126.162816685977</v>
+        <v>5282.044521847005</v>
       </c>
       <c r="G133" t="n">
-        <v>5390.511256167306</v>
+        <v>5434.130420610607</v>
       </c>
       <c r="H133" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>1143233</v>
+        <v>1149332</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109055720</v>
+        <v>108569629</v>
       </c>
       <c r="E134" t="n">
-        <v>1031859345</v>
+        <v>1027260066</v>
       </c>
       <c r="F134" t="n">
-        <v>85561.94805016939</v>
+        <v>118660.0376580341</v>
       </c>
       <c r="G134" t="n">
-        <v>93078.47385878745</v>
+        <v>110898.792063043</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I134" t="n">
-        <v>18055921</v>
+        <v>17934435</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>969986905</v>
+        <v>969889426</v>
       </c>
       <c r="E135" t="n">
-        <v>1065533273</v>
+        <v>1065426193</v>
       </c>
       <c r="F135" t="n">
-        <v>17402.79110509728</v>
+        <v>10772.05726490056</v>
       </c>
       <c r="G135" t="n">
-        <v>14537.56150109275</v>
+        <v>20541.60798878602</v>
       </c>
       <c r="H135" t="n">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="I135" t="n">
-        <v>11538449</v>
+        <v>10975146</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1075216</v>
+        <v>1060441</v>
       </c>
       <c r="E136" t="n">
-        <v>4163470</v>
+        <v>4106260</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>283821</v>
+        <v>278808</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122971126</v>
+        <v>121716146</v>
       </c>
       <c r="E137" t="n">
-        <v>471737032</v>
+        <v>466922725</v>
       </c>
       <c r="F137" t="n">
-        <v>141322.3300176465</v>
+        <v>137895.6981366623</v>
       </c>
       <c r="G137" t="n">
-        <v>202837.5704391189</v>
+        <v>211931.3437016472</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32642394</v>
+        <v>32312274</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3151992</v>
+        <v>3124254</v>
       </c>
       <c r="E138" t="n">
-        <v>29865587</v>
+        <v>29602773</v>
       </c>
       <c r="F138" t="n">
-        <v>4270.446210741208</v>
+        <v>3029.804354497956</v>
       </c>
       <c r="G138" t="n">
-        <v>4745.742227699033</v>
+        <v>5200.234119159887</v>
       </c>
       <c r="H138" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="I138" t="n">
-        <v>277310</v>
+        <v>228552</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22831253</v>
+        <v>23164549</v>
       </c>
       <c r="E139" t="n">
-        <v>22831253</v>
+        <v>23164549</v>
       </c>
       <c r="F139" t="n">
-        <v>1357.727482693942</v>
+        <v>1939.62613469525</v>
       </c>
       <c r="G139" t="n">
-        <v>1355.662546084108</v>
+        <v>6809.256122416146</v>
       </c>
       <c r="H139" t="n">
-        <v>2.09</v>
+        <v>0.96</v>
       </c>
       <c r="I139" t="n">
-        <v>826733</v>
+        <v>849898</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494881010</v>
+        <v>494321824</v>
       </c>
       <c r="E140" t="n">
-        <v>494881010</v>
+        <v>494321824</v>
       </c>
       <c r="F140" t="n">
-        <v>675689.4047823222</v>
+        <v>684178.0375048942</v>
       </c>
       <c r="G140" t="n">
-        <v>702224.9254065462</v>
+        <v>694467.6507829158</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>47456500</v>
+        <v>47281955</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>40908844</v>
+        <v>40999077</v>
       </c>
       <c r="F141" t="n">
-        <v>49150.53942757825</v>
+        <v>41892.7733139858</v>
       </c>
       <c r="G141" t="n">
-        <v>73122.06760200601</v>
+        <v>87059.28950182162</v>
       </c>
       <c r="H141" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="I141" t="n">
-        <v>9714076</v>
+        <v>9063001</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>776006</v>
+        <v>771752</v>
       </c>
       <c r="E142" t="n">
-        <v>12377024</v>
+        <v>12309176</v>
       </c>
       <c r="F142" t="n">
-        <v>1116.635595684798</v>
+        <v>1149.300445784225</v>
       </c>
       <c r="G142" t="n">
-        <v>46.87474117294749</v>
+        <v>150.5024822074977</v>
       </c>
       <c r="H142" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="I142" t="n">
-        <v>337950</v>
+        <v>338050</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2542680699</v>
+        <v>2541469898</v>
       </c>
       <c r="E143" t="n">
-        <v>2699665289</v>
+        <v>2698379733</v>
       </c>
       <c r="F143" t="n">
-        <v>3441.445757634164</v>
+        <v>2503.852858198991</v>
       </c>
       <c r="G143" t="n">
-        <v>23368.28094788417</v>
+        <v>21529.88622253046</v>
       </c>
       <c r="H143" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="I143" t="n">
-        <v>60939679</v>
+        <v>60783444</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1715096</v>
+        <v>1705664</v>
       </c>
       <c r="E144" t="n">
-        <v>1721149</v>
+        <v>1711684</v>
       </c>
       <c r="F144" t="n">
-        <v>3539.596267948645</v>
+        <v>431.8758525443479</v>
       </c>
       <c r="G144" t="n">
-        <v>554.2148498402839</v>
+        <v>3718.45224396398</v>
       </c>
       <c r="H144" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="I144" t="n">
-        <v>443672</v>
+        <v>426194</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>56096235</v>
+        <v>55384318</v>
       </c>
       <c r="E145" t="n">
-        <v>137600262</v>
+        <v>135853977</v>
       </c>
       <c r="F145" t="n">
-        <v>2654.519006598556</v>
+        <v>5165.670672637248</v>
       </c>
       <c r="G145" t="n">
-        <v>3406.829380184185</v>
+        <v>3865.113533574827</v>
       </c>
       <c r="H145" t="n">
-        <v>0.61</v>
+        <v>0.12</v>
       </c>
       <c r="I145" t="n">
-        <v>21763783</v>
+        <v>21711531</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>741213703</v>
+        <v>742401782</v>
       </c>
       <c r="E146" t="n">
-        <v>1143016972</v>
+        <v>1144849096</v>
       </c>
       <c r="F146" t="n">
-        <v>106721.5341724669</v>
+        <v>125300.6290354442</v>
       </c>
       <c r="G146" t="n">
-        <v>131756.4770871128</v>
+        <v>109769.6457955494</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>332349548</v>
+        <v>336552827</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22042507</v>
+        <v>22179422</v>
       </c>
       <c r="E147" t="n">
-        <v>22042507</v>
+        <v>22179422</v>
       </c>
       <c r="F147" t="n">
-        <v>159.8323483347891</v>
+        <v>4147.649405556876</v>
       </c>
       <c r="G147" t="n">
-        <v>3907.324621158878</v>
+        <v>5167.233377520338</v>
       </c>
       <c r="H147" t="n">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="I147" t="n">
-        <v>5613669</v>
+        <v>5598238</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3801958</v>
+        <v>3800437</v>
       </c>
       <c r="E148" t="n">
-        <v>8287736</v>
+        <v>8284419</v>
       </c>
       <c r="F148" t="n">
-        <v>6704.445293467767</v>
+        <v>6704.476041714787</v>
       </c>
       <c r="G148" t="n">
-        <v>7112.716253222564</v>
+        <v>7112.823854568232</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2162554</v>
+        <v>2182958</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9260566</v>
+        <v>9245430</v>
       </c>
       <c r="E149" t="n">
-        <v>9260566</v>
+        <v>9245430</v>
       </c>
       <c r="F149" t="n">
-        <v>82592.90864891655</v>
+        <v>86453.81381559029</v>
       </c>
       <c r="G149" t="n">
-        <v>78270.4306368606</v>
+        <v>81782.85779917242</v>
       </c>
       <c r="H149" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6589817</v>
+        <v>6623958</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>467721983</v>
+        <v>467340196</v>
       </c>
       <c r="E150" t="n">
-        <v>1627276137</v>
+        <v>1625947839</v>
       </c>
       <c r="F150" t="n">
-        <v>389635.7208969218</v>
+        <v>768510.2932370133</v>
       </c>
       <c r="G150" t="n">
-        <v>482736.9966333675</v>
+        <v>637875.7405594027</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>49269599</v>
+        <v>49734125</v>
       </c>
     </row>
     <row r="151">
@@ -5639,7 +5639,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Gaming (GameFi), Osmosis Ecosystem, Gaming Platform, Appchains</t>
+          <t>Smart Contract Platform, Gaming (GameFi), NFT, NFT Marketplace, Osmosis Ecosystem, Gaming Platform, Appchains, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46053397</v>
+        <v>45983247</v>
       </c>
       <c r="E151" t="n">
-        <v>113366791</v>
+        <v>113194114</v>
       </c>
       <c r="F151" t="n">
-        <v>6550.190685510323</v>
+        <v>3157.492756125893</v>
       </c>
       <c r="G151" t="n">
-        <v>6121.185754800236</v>
+        <v>9839.490060100374</v>
       </c>
       <c r="H151" t="n">
-        <v>0.18</v>
+        <v>0.71</v>
       </c>
       <c r="I151" t="n">
-        <v>178292</v>
+        <v>176051</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7097047</v>
+        <v>7054891</v>
       </c>
       <c r="E152" t="n">
-        <v>18437364</v>
+        <v>18327847</v>
       </c>
       <c r="F152" t="n">
-        <v>6156.655713341304</v>
+        <v>6024.976099114205</v>
       </c>
       <c r="G152" t="n">
-        <v>6394.759186772553</v>
+        <v>200.4218167002662</v>
       </c>
       <c r="H152" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="I152" t="n">
-        <v>788820</v>
+        <v>792093</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18924944735</v>
+        <v>18920904426</v>
       </c>
       <c r="F153" t="n">
-        <v>1553.814029146627</v>
+        <v>31943.74056809562</v>
       </c>
       <c r="G153" t="n">
-        <v>282.4376329474337</v>
+        <v>29564.38417220698</v>
       </c>
       <c r="H153" t="n">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="I153" t="n">
-        <v>24034736</v>
+        <v>22658215</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2296806</v>
+        <v>2298807</v>
       </c>
       <c r="E154" t="n">
-        <v>9187223</v>
+        <v>9195230</v>
       </c>
       <c r="F154" t="n">
-        <v>940.9775155301976</v>
+        <v>1271.180265392827</v>
       </c>
       <c r="G154" t="n">
-        <v>1461.714933082121</v>
+        <v>1630.408677049023</v>
       </c>
       <c r="H154" t="n">
-        <v>0.54</v>
+        <v>0.22</v>
       </c>
       <c r="I154" t="n">
-        <v>7884418</v>
+        <v>7949282</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>209940982</v>
+        <v>209124829</v>
       </c>
       <c r="E155" t="n">
-        <v>645489514</v>
+        <v>642980151</v>
       </c>
       <c r="F155" t="n">
-        <v>34425.02702809647</v>
+        <v>51491.8762281458</v>
       </c>
       <c r="G155" t="n">
-        <v>53337.48409129383</v>
+        <v>37651.25414372361</v>
       </c>
       <c r="H155" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I155" t="n">
-        <v>23233534</v>
+        <v>23362264</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>378990547</v>
+        <v>380684700</v>
       </c>
       <c r="E156" t="n">
-        <v>2165660270</v>
+        <v>2175341141</v>
       </c>
       <c r="F156" t="n">
-        <v>281214.7332126653</v>
+        <v>299834.7258212747</v>
       </c>
       <c r="G156" t="n">
-        <v>356419.1507661138</v>
+        <v>291438.4286814695</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>63538010</v>
+        <v>63843369</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3803826</v>
+        <v>3796987</v>
       </c>
       <c r="F2" t="n">
-        <v>467.8610948875172</v>
+        <v>136.4360023686642</v>
       </c>
       <c r="G2" t="n">
-        <v>752.9022246110006</v>
+        <v>1316.153552290853</v>
       </c>
       <c r="H2" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
       <c r="I2" t="n">
-        <v>136820</v>
+        <v>137278</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600666791</v>
+        <v>597997386</v>
       </c>
       <c r="E3" t="n">
-        <v>1165750188</v>
+        <v>1160567343</v>
       </c>
       <c r="F3" t="n">
-        <v>23710.25974567848</v>
+        <v>21331.5210521419</v>
       </c>
       <c r="G3" t="n">
-        <v>30416.57369188846</v>
+        <v>31297.69406518521</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>47904486</v>
+        <v>48474807</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251173663</v>
+        <v>252315043</v>
       </c>
       <c r="E4" t="n">
-        <v>1575074737</v>
+        <v>1582232169</v>
       </c>
       <c r="F4" t="n">
-        <v>225047.6374404251</v>
+        <v>152450.576416322</v>
       </c>
       <c r="G4" t="n">
-        <v>317007.1550105408</v>
+        <v>251569.937386875</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>29605823</v>
+        <v>29896273</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140283716</v>
+        <v>140176298</v>
       </c>
       <c r="E5" t="n">
-        <v>155456281</v>
+        <v>155337245</v>
       </c>
       <c r="F5" t="n">
-        <v>8585.121893929449</v>
+        <v>8609.91456170582</v>
       </c>
       <c r="G5" t="n">
-        <v>919.8121664016716</v>
+        <v>872.3963116316216</v>
       </c>
       <c r="H5" t="n">
         <v>0.26</v>
       </c>
       <c r="I5" t="n">
-        <v>53463671</v>
+        <v>53475081</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49297062</v>
+        <v>49606263</v>
       </c>
       <c r="E6" t="n">
-        <v>61669361</v>
+        <v>62056164</v>
       </c>
       <c r="F6" t="n">
-        <v>6167.485974504555</v>
+        <v>5547.75177377235</v>
       </c>
       <c r="G6" t="n">
-        <v>4907.34091144295</v>
+        <v>5263.693535831202</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="I6" t="n">
-        <v>765967</v>
+        <v>767700</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65641399</v>
+        <v>65595804</v>
       </c>
       <c r="E7" t="n">
-        <v>130709469</v>
+        <v>130618678</v>
       </c>
       <c r="F7" t="n">
-        <v>10476.46552141016</v>
+        <v>11199.31003013463</v>
       </c>
       <c r="G7" t="n">
-        <v>11610.6051233775</v>
+        <v>12062.19928247454</v>
       </c>
       <c r="H7" t="n">
         <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>993761</v>
+        <v>922526</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41463064</v>
+        <v>42081536</v>
       </c>
       <c r="E8" t="n">
-        <v>46403141</v>
+        <v>47095300</v>
       </c>
       <c r="F8" t="n">
-        <v>460.0786231673602</v>
+        <v>565.1177238607698</v>
       </c>
       <c r="G8" t="n">
-        <v>187.7313328946184</v>
+        <v>662.5872904406012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I8" t="n">
-        <v>12086472</v>
+        <v>13117209</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13806808</v>
+        <v>13815206</v>
       </c>
       <c r="E9" t="n">
-        <v>40687772</v>
+        <v>40712520</v>
       </c>
       <c r="F9" t="n">
-        <v>4960.743404562577</v>
+        <v>5009.569803376245</v>
       </c>
       <c r="G9" t="n">
-        <v>4907.234236137612</v>
+        <v>4509.772874431854</v>
       </c>
       <c r="H9" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="I9" t="n">
-        <v>834210</v>
+        <v>821287</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9394356</v>
+        <v>9733992</v>
       </c>
       <c r="E10" t="n">
-        <v>40382169</v>
+        <v>41842115</v>
       </c>
       <c r="F10" t="n">
-        <v>386.3083248026717</v>
+        <v>257.3547597514387</v>
       </c>
       <c r="G10" t="n">
-        <v>915.1013658555891</v>
+        <v>1536.004545260242</v>
       </c>
       <c r="H10" t="n">
-        <v>0.89</v>
+        <v>1.53</v>
       </c>
       <c r="I10" t="n">
-        <v>807095</v>
+        <v>724454</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>551272243</v>
+        <v>551979178</v>
       </c>
       <c r="E11" t="n">
-        <v>689559643</v>
+        <v>690443913</v>
       </c>
       <c r="F11" t="n">
-        <v>373656.1967700977</v>
+        <v>300810.9443470263</v>
       </c>
       <c r="G11" t="n">
-        <v>259401.7210442156</v>
+        <v>253106.103036338</v>
       </c>
       <c r="H11" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>100967509</v>
+        <v>100441530</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4362121</v>
+        <v>4334830</v>
       </c>
       <c r="E12" t="n">
-        <v>26782634</v>
+        <v>26615076</v>
       </c>
       <c r="F12" t="n">
-        <v>10152.83645333903</v>
+        <v>8432.843604692822</v>
       </c>
       <c r="G12" t="n">
-        <v>9172.115112977808</v>
+        <v>10544.91116440234</v>
       </c>
       <c r="H12" t="n">
         <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>455589</v>
+        <v>445773</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23542046</v>
+        <v>23500583</v>
       </c>
       <c r="E13" t="n">
-        <v>23585061</v>
+        <v>23543521</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>636570</v>
+        <v>875673</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79150395</v>
+        <v>79416085</v>
       </c>
       <c r="E14" t="n">
-        <v>232870278</v>
+        <v>233651972</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>446024</v>
+        <v>444807</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>484375098</v>
+        <v>475079724</v>
       </c>
       <c r="E15" t="n">
-        <v>484375100</v>
+        <v>475079724</v>
       </c>
       <c r="F15" t="n">
-        <v>23483.73535483837</v>
+        <v>29149.96072811216</v>
       </c>
       <c r="G15" t="n">
-        <v>21458.83655607261</v>
+        <v>20553.71806147784</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>74750441</v>
+        <v>74536027</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4636090</v>
+        <v>4597625</v>
       </c>
       <c r="E16" t="n">
-        <v>4636090</v>
+        <v>4597625</v>
       </c>
       <c r="F16" t="n">
-        <v>274.1439621167126</v>
+        <v>5421.465111708831</v>
       </c>
       <c r="G16" t="n">
-        <v>1232.313344618965</v>
+        <v>5546.516859086324</v>
       </c>
       <c r="H16" t="n">
-        <v>0.77</v>
+        <v>0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2287512</v>
+        <v>2303613</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3318461</v>
+        <v>3282448</v>
       </c>
       <c r="E17" t="n">
-        <v>3318461</v>
+        <v>3282448</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>748499</v>
+        <v>737201</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>167285339</v>
+        <v>166972020</v>
       </c>
       <c r="E18" t="n">
-        <v>207106216</v>
+        <v>206718313</v>
       </c>
       <c r="F18" t="n">
-        <v>7680.346027409014</v>
+        <v>9280.96000765502</v>
       </c>
       <c r="G18" t="n">
-        <v>8641.93082014521</v>
+        <v>8018.424734126665</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>512882</v>
+        <v>556341</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6890763</v>
+        <v>6425431</v>
       </c>
       <c r="E19" t="n">
-        <v>9490341</v>
+        <v>8849460</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>425388</v>
+        <v>396310</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>882022</v>
+        <v>893273</v>
       </c>
       <c r="E20" t="n">
-        <v>6174157</v>
+        <v>6252911</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>236173</v>
+        <v>238478</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>110818205</v>
+        <v>113931895</v>
       </c>
       <c r="E21" t="n">
-        <v>430620122</v>
+        <v>442693923</v>
       </c>
       <c r="F21" t="n">
-        <v>4432.733259095656</v>
+        <v>9085.202263442963</v>
       </c>
       <c r="G21" t="n">
-        <v>14814.3282685111</v>
+        <v>18128.96290701026</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>12713191</v>
+        <v>13454406</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1717548</v>
+        <v>1717967</v>
       </c>
       <c r="E22" t="n">
-        <v>12371352</v>
+        <v>12374371</v>
       </c>
       <c r="F22" t="n">
-        <v>4901.711440940944</v>
+        <v>4901.716928706538</v>
       </c>
       <c r="G22" t="n">
-        <v>4926.029946059963</v>
+        <v>4926.035461051609</v>
       </c>
       <c r="H22" t="n">
         <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>55386</v>
+        <v>55003</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>139402856</v>
+        <v>138624087</v>
       </c>
       <c r="E23" t="n">
-        <v>139402856</v>
+        <v>138624087</v>
       </c>
       <c r="F23" t="n">
-        <v>1046987.618270686</v>
+        <v>986875.000863664</v>
       </c>
       <c r="G23" t="n">
-        <v>1113257.489303678</v>
+        <v>1342496.66774246</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>97000362</v>
+        <v>96066712</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63432932</v>
+        <v>63342622</v>
       </c>
       <c r="E24" t="n">
-        <v>325297087</v>
+        <v>324833961</v>
       </c>
       <c r="F24" t="n">
-        <v>83901.26461358712</v>
+        <v>82287.1766839601</v>
       </c>
       <c r="G24" t="n">
-        <v>124549.1283381232</v>
+        <v>135520.1801550622</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>25424613</v>
+        <v>24561588</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>250550414</v>
+        <v>249989889</v>
       </c>
       <c r="E25" t="n">
-        <v>250550414</v>
+        <v>249989889</v>
       </c>
       <c r="F25" t="n">
-        <v>311789.7208966314</v>
+        <v>308349.8808452548</v>
       </c>
       <c r="G25" t="n">
-        <v>399890.4836174555</v>
+        <v>357765.3599245073</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>27050631</v>
+        <v>27975143</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1113469</v>
+        <v>1114309</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>119128</v>
+        <v>119419</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2122118</v>
+        <v>2255067</v>
       </c>
       <c r="E27" t="n">
-        <v>2392823</v>
+        <v>2528420</v>
       </c>
       <c r="F27" t="n">
-        <v>210.771911359892</v>
+        <v>400.4781605156018</v>
       </c>
       <c r="G27" t="n">
-        <v>550.2791780572908</v>
+        <v>655.4765221423602</v>
       </c>
       <c r="H27" t="n">
-        <v>0.27</v>
+        <v>1.01</v>
       </c>
       <c r="I27" t="n">
-        <v>481015</v>
+        <v>501303</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3815109</v>
+        <v>3772331</v>
       </c>
       <c r="E28" t="n">
-        <v>3815943</v>
+        <v>3773154</v>
       </c>
       <c r="F28" t="n">
-        <v>803.5638019895504</v>
+        <v>749.3452424224805</v>
       </c>
       <c r="G28" t="n">
-        <v>1689.823718460966</v>
+        <v>3914.639293907087</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>236231</v>
+        <v>242761</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6748994</v>
+        <v>6748583</v>
       </c>
       <c r="E29" t="n">
-        <v>16392786</v>
+        <v>16391788</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>422761</v>
+        <v>423999</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96533510</v>
+        <v>97355847</v>
       </c>
       <c r="E30" t="n">
-        <v>120365971</v>
+        <v>121391329</v>
       </c>
       <c r="F30" t="n">
-        <v>115315.8389512841</v>
+        <v>104738.6343116362</v>
       </c>
       <c r="G30" t="n">
-        <v>116428.0004242145</v>
+        <v>117596.220546367</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13272676</v>
+        <v>13416934</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109604</v>
+        <v>1109933</v>
       </c>
       <c r="E31" t="n">
-        <v>12058762</v>
+        <v>12062333</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12822.14</v>
+        <v>12831.77</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>81228998</v>
+        <v>79374148</v>
       </c>
       <c r="E32" t="n">
-        <v>227312070</v>
+        <v>222135494</v>
       </c>
       <c r="F32" t="n">
-        <v>56905.05351155165</v>
+        <v>72758.44979869315</v>
       </c>
       <c r="G32" t="n">
-        <v>69975.84374352238</v>
+        <v>76629.78901544776</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>57915850</v>
+        <v>57610997</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4146509</v>
+        <v>4160603</v>
       </c>
       <c r="E33" t="n">
-        <v>8177265</v>
+        <v>8205059</v>
       </c>
       <c r="F33" t="n">
-        <v>6779.762682192538</v>
+        <v>8050.491581536477</v>
       </c>
       <c r="G33" t="n">
-        <v>11239.34473174245</v>
+        <v>7375.075773084968</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>1725789</v>
+        <v>1728838</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36306892</v>
+        <v>36306218</v>
       </c>
       <c r="F34" t="n">
-        <v>233.408496225288</v>
+        <v>233.4087575625025</v>
       </c>
       <c r="G34" t="n">
-        <v>284.3973256483876</v>
+        <v>284.397644075549</v>
       </c>
       <c r="H34" t="n">
         <v>0.36</v>
       </c>
       <c r="I34" t="n">
-        <v>22870</v>
+        <v>19006.85</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17159565</v>
+        <v>17172684</v>
       </c>
       <c r="E35" t="n">
-        <v>18085779</v>
+        <v>18099606</v>
       </c>
       <c r="F35" t="n">
-        <v>3487.118801057873</v>
+        <v>3487.122705431231</v>
       </c>
       <c r="G35" t="n">
-        <v>2570.885251549895</v>
+        <v>2560.889062483135</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>49045</v>
+        <v>35145</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23066722</v>
+        <v>23074570</v>
       </c>
       <c r="F36" t="n">
-        <v>5186.408503173166</v>
+        <v>5184.11578186427</v>
       </c>
       <c r="G36" t="n">
-        <v>5588.219315237982</v>
+        <v>5266.296725428409</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I36" t="n">
-        <v>127930</v>
+        <v>127494</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84615321</v>
+        <v>84095959</v>
       </c>
       <c r="E37" t="n">
-        <v>176416149</v>
+        <v>175333321</v>
       </c>
       <c r="F37" t="n">
-        <v>45310.35308779138</v>
+        <v>64385.30668262346</v>
       </c>
       <c r="G37" t="n">
-        <v>31237.96599075218</v>
+        <v>58988.32961589534</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>83065804</v>
+        <v>84533343</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>275119173</v>
+        <v>273373344</v>
       </c>
       <c r="E38" t="n">
-        <v>275119173</v>
+        <v>273373344</v>
       </c>
       <c r="F38" t="n">
-        <v>32085.37575420388</v>
+        <v>35394.14609690882</v>
       </c>
       <c r="G38" t="n">
-        <v>26430.58148176828</v>
+        <v>32023.21687130159</v>
       </c>
       <c r="H38" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>11586586</v>
+        <v>11889545</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195142834</v>
+        <v>195537529</v>
       </c>
       <c r="E39" t="n">
-        <v>677943842</v>
+        <v>679315048</v>
       </c>
       <c r="F39" t="n">
-        <v>184762.0916091875</v>
+        <v>192141.2104677946</v>
       </c>
       <c r="G39" t="n">
-        <v>329756.1328155559</v>
+        <v>314783.6100052579</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>41251650</v>
+        <v>41667170</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3263078</v>
+        <v>3249206</v>
       </c>
       <c r="E40" t="n">
-        <v>3263078</v>
+        <v>3249206</v>
       </c>
       <c r="F40" t="n">
-        <v>844.4712112949271</v>
+        <v>1001.674017275935</v>
       </c>
       <c r="G40" t="n">
-        <v>4579.349718738463</v>
+        <v>4463.144709845308</v>
       </c>
       <c r="H40" t="n">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="I40" t="n">
-        <v>1816927</v>
+        <v>1758322</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>108947362</v>
+        <v>109325689</v>
       </c>
       <c r="E41" t="n">
-        <v>461825584</v>
+        <v>463381000</v>
       </c>
       <c r="F41" t="n">
-        <v>5638.818381521299</v>
+        <v>5656.949954092724</v>
       </c>
       <c r="G41" t="n">
-        <v>7713.180138559905</v>
+        <v>8448.82948773673</v>
       </c>
       <c r="H41" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="I41" t="n">
-        <v>14868350</v>
+        <v>14930211</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>595574</v>
+        <v>580988</v>
       </c>
       <c r="E42" t="n">
-        <v>7223727</v>
+        <v>7046820</v>
       </c>
       <c r="F42" t="n">
-        <v>683.9381871948923</v>
+        <v>475.7832245785632</v>
       </c>
       <c r="G42" t="n">
-        <v>653.7019056940738</v>
+        <v>733.6742782030208</v>
       </c>
       <c r="H42" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="I42" t="n">
-        <v>2978458</v>
+        <v>2962498</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1430910986</v>
+        <v>1445287459</v>
       </c>
       <c r="E43" t="n">
-        <v>6861511220</v>
+        <v>6930449353</v>
       </c>
       <c r="F43" t="n">
-        <v>46509.45947037738</v>
+        <v>62355.6275613313</v>
       </c>
       <c r="G43" t="n">
-        <v>50951.65192238982</v>
+        <v>34531.57574993966</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>579586040</v>
+        <v>584377497</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5916677197</v>
+        <v>5899936467</v>
       </c>
       <c r="E44" t="n">
-        <v>5916677197</v>
+        <v>5891523323</v>
       </c>
       <c r="F44" t="n">
-        <v>661384.0823429803</v>
+        <v>724639.5603639184</v>
       </c>
       <c r="G44" t="n">
-        <v>501767.652333739</v>
+        <v>467645.8033354028</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>421277302</v>
+        <v>429803043</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>260298834</v>
+        <v>260856089</v>
       </c>
       <c r="E45" t="n">
-        <v>1123594269</v>
+        <v>1125999693</v>
       </c>
       <c r="F45" t="n">
-        <v>93184.2105098349</v>
+        <v>108463.5705394733</v>
       </c>
       <c r="G45" t="n">
-        <v>106456.4413771033</v>
+        <v>91675.48393061</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>142338074</v>
+        <v>142342909</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>116883139</v>
+        <v>117373224</v>
       </c>
       <c r="E46" t="n">
-        <v>116883139</v>
+        <v>117373224</v>
       </c>
       <c r="F46" t="n">
-        <v>34794.76476796613</v>
+        <v>24162.12653574202</v>
       </c>
       <c r="G46" t="n">
-        <v>24171.65117746031</v>
+        <v>31758.97992119177</v>
       </c>
       <c r="H46" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>7556931</v>
+        <v>9110717</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2041963872</v>
+        <v>2044078148</v>
       </c>
       <c r="E47" t="n">
-        <v>2041963872</v>
+        <v>2044078148</v>
       </c>
       <c r="F47" t="n">
-        <v>227292.962126196</v>
+        <v>226962.9557400668</v>
       </c>
       <c r="G47" t="n">
-        <v>200677.2966196721</v>
+        <v>200100.0093483793</v>
       </c>
       <c r="H47" t="n">
         <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>9217254209</v>
+        <v>9199582062</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10252687</v>
+        <v>10233672</v>
       </c>
       <c r="F48" t="n">
-        <v>6272.126668919411</v>
+        <v>6142.543532876405</v>
       </c>
       <c r="G48" t="n">
-        <v>6346.149001524255</v>
+        <v>6748.511096516158</v>
       </c>
       <c r="H48" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>178151</v>
+        <v>173209</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4170720</v>
+        <v>4190508</v>
       </c>
       <c r="E49" t="n">
-        <v>5475611</v>
+        <v>5501591</v>
       </c>
       <c r="F49" t="n">
-        <v>5291.340805747926</v>
+        <v>5417.710298942727</v>
       </c>
       <c r="G49" t="n">
-        <v>4665.496160675892</v>
+        <v>4846.802087719832</v>
       </c>
       <c r="H49" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I49" t="n">
-        <v>605334</v>
+        <v>614915</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12884142</v>
+        <v>12986972</v>
       </c>
       <c r="E50" t="n">
-        <v>18945888</v>
+        <v>19097097</v>
       </c>
       <c r="F50" t="n">
-        <v>1370.396804983669</v>
+        <v>6809.745402814055</v>
       </c>
       <c r="G50" t="n">
-        <v>6894.165628618508</v>
+        <v>6966.539878720244</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>6916734</v>
+        <v>7071127</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22199180</v>
+        <v>22340475</v>
       </c>
       <c r="E51" t="n">
-        <v>28797414</v>
+        <v>28980707</v>
       </c>
       <c r="F51" t="n">
-        <v>12127.77451120392</v>
+        <v>9312.66979539253</v>
       </c>
       <c r="G51" t="n">
-        <v>13370.10417052871</v>
+        <v>7227.296904855109</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>238644</v>
+        <v>243359</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14101559</v>
+        <v>14110208</v>
       </c>
       <c r="E52" t="n">
-        <v>14101559</v>
+        <v>14110208</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5762296</v>
+        <v>5786035</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98851338</v>
+        <v>99142315</v>
       </c>
       <c r="E53" t="n">
-        <v>122275567</v>
+        <v>122635495</v>
       </c>
       <c r="F53" t="n">
-        <v>845.5548364722362</v>
+        <v>754.2385574561237</v>
       </c>
       <c r="G53" t="n">
-        <v>3751.301187641907</v>
+        <v>3847.728764371958</v>
       </c>
       <c r="H53" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>1076864</v>
+        <v>1076818</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4948268</v>
+        <v>4961198</v>
       </c>
       <c r="E54" t="n">
-        <v>6923344</v>
+        <v>6941436</v>
       </c>
       <c r="F54" t="n">
-        <v>405.0550023242351</v>
+        <v>439.7976499929994</v>
       </c>
       <c r="G54" t="n">
-        <v>249.1699559950563</v>
+        <v>223.5956614702147</v>
       </c>
       <c r="H54" t="n">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="I54" t="n">
-        <v>54186</v>
+        <v>54309</v>
       </c>
     </row>
     <row r="55">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14131269</v>
+        <v>14070728</v>
       </c>
       <c r="E55" t="n">
-        <v>68439991</v>
+        <v>68146781</v>
       </c>
       <c r="F55" t="n">
-        <v>13738.37017136621</v>
+        <v>11324.20463186953</v>
       </c>
       <c r="G55" t="n">
-        <v>6428.775260265609</v>
+        <v>14497.22844904834</v>
       </c>
       <c r="H55" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I55" t="n">
-        <v>5570651</v>
+        <v>5573679</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>54359</v>
+        <v>55229</v>
       </c>
       <c r="E56" t="n">
-        <v>130201</v>
+        <v>132286</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16733.23</v>
+        <v>16740.33</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1852627988</v>
+        <v>1853606529</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>31873048</v>
+        <v>32006348</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11926608</v>
+        <v>12025337</v>
       </c>
       <c r="E58" t="n">
-        <v>17291861</v>
+        <v>17435003</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1916357</v>
+        <v>1783085</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>122101946</v>
+        <v>122304349</v>
       </c>
       <c r="E59" t="n">
-        <v>324721572</v>
+        <v>325259846</v>
       </c>
       <c r="F59" t="n">
-        <v>7780.516772492324</v>
+        <v>7946.878658850659</v>
       </c>
       <c r="G59" t="n">
-        <v>7382.306191737927</v>
+        <v>7429.362675733524</v>
       </c>
       <c r="H59" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="I59" t="n">
-        <v>774624</v>
+        <v>814121</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29161299</v>
+        <v>29442240</v>
       </c>
       <c r="E60" t="n">
-        <v>90798929</v>
+        <v>91673687</v>
       </c>
       <c r="F60" t="n">
-        <v>1739.85165503627</v>
+        <v>2583.769581005008</v>
       </c>
       <c r="G60" t="n">
-        <v>5426.315825993116</v>
+        <v>5988.895302829585</v>
       </c>
       <c r="H60" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="I60" t="n">
-        <v>11066873</v>
+        <v>11023063</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1846226</v>
+        <v>1831493</v>
       </c>
       <c r="E61" t="n">
-        <v>13239100</v>
+        <v>13133450</v>
       </c>
       <c r="F61" t="n">
-        <v>5460.67633017878</v>
+        <v>5175.867796458803</v>
       </c>
       <c r="G61" t="n">
-        <v>1392.010478985693</v>
+        <v>5504.218646420819</v>
       </c>
       <c r="H61" t="n">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="I61" t="n">
-        <v>2112053</v>
+        <v>2144561</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>192614082</v>
+        <v>194037709</v>
       </c>
       <c r="E62" t="n">
-        <v>1090699281</v>
+        <v>1098760733</v>
       </c>
       <c r="F62" t="n">
-        <v>615589.6364211891</v>
+        <v>664911.9856690064</v>
       </c>
       <c r="G62" t="n">
-        <v>881183.2332259176</v>
+        <v>826005.9826353431</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>85435375</v>
+        <v>85462875</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>489621</v>
+        <v>487714</v>
       </c>
       <c r="E63" t="n">
-        <v>1647998</v>
+        <v>1641577</v>
       </c>
       <c r="F63" t="n">
-        <v>5263.817693899721</v>
+        <v>4943.66712671789</v>
       </c>
       <c r="G63" t="n">
-        <v>498.8421357571569</v>
+        <v>522.9117847507632</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I63" t="n">
-        <v>643477</v>
+        <v>644401</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>360526</v>
+        <v>367746</v>
       </c>
       <c r="E64" t="n">
-        <v>360526</v>
+        <v>367746</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3527.97</v>
+        <v>3901.35</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>131003667</v>
+        <v>128679854</v>
       </c>
       <c r="E65" t="n">
-        <v>970397531</v>
+        <v>953184102</v>
       </c>
       <c r="F65" t="n">
-        <v>31844.51867947619</v>
+        <v>32785.70477952575</v>
       </c>
       <c r="G65" t="n">
-        <v>30051.49410191772</v>
+        <v>34727.25054442462</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>36871378</v>
+        <v>37426409</v>
       </c>
     </row>
     <row r="66">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Metaverse, Meme, Play To Earn, Ethereum Ecosystem, Base Ecosystem, Gaming Utility Token, Fighting Games</t>
+          <t>Gaming (GameFi), NFT, BNB Chain Ecosystem, Metaverse, Meme, Play To Earn, Ethereum Ecosystem, NFT Marketplace, Base Ecosystem, Gaming Utility Token, Fighting Games, Action Games</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8789343</v>
+        <v>8902104</v>
       </c>
       <c r="E66" t="n">
-        <v>11774789</v>
+        <v>11925851</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>48119</v>
+        <v>93682</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25496732</v>
+        <v>25949944</v>
       </c>
       <c r="E67" t="n">
-        <v>25496732</v>
+        <v>25949944</v>
       </c>
       <c r="F67" t="n">
-        <v>8096.13721333532</v>
+        <v>8122.469769203555</v>
       </c>
       <c r="G67" t="n">
-        <v>5259.740405556468</v>
+        <v>5229.420567086118</v>
       </c>
       <c r="H67" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="I67" t="n">
-        <v>369775</v>
+        <v>368227</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1538978</v>
+        <v>1539748</v>
       </c>
       <c r="E68" t="n">
-        <v>11951881</v>
+        <v>11957861</v>
       </c>
       <c r="F68" t="n">
-        <v>16425.10659795735</v>
+        <v>15694.87134235623</v>
       </c>
       <c r="G68" t="n">
-        <v>19545.42614527946</v>
+        <v>21937.7767131609</v>
       </c>
       <c r="H68" t="n">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="I68" t="n">
-        <v>549815</v>
+        <v>536553</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>322433146</v>
+        <v>323777149</v>
       </c>
       <c r="E69" t="n">
-        <v>2900808516</v>
+        <v>2912899999</v>
       </c>
       <c r="F69" t="n">
-        <v>1231319.525342122</v>
+        <v>1575877.806593991</v>
       </c>
       <c r="G69" t="n">
-        <v>1860082.803668676</v>
+        <v>1388567.290538608</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>70463013</v>
+        <v>71109729</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>247077</v>
+        <v>247867</v>
       </c>
       <c r="E70" t="n">
-        <v>2180639</v>
+        <v>2187613</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>71556</v>
+        <v>71673</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1535835</v>
+        <v>1549794</v>
       </c>
       <c r="E71" t="n">
-        <v>12798628</v>
+        <v>12914948</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>29387</v>
+        <v>32902</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9337734</v>
+        <v>9331842</v>
       </c>
       <c r="E72" t="n">
-        <v>43280934</v>
+        <v>43253622</v>
       </c>
       <c r="F72" t="n">
-        <v>9621.398468741094</v>
+        <v>9624.422539564779</v>
       </c>
       <c r="G72" t="n">
-        <v>3139.552865515482</v>
+        <v>3302.657268498919</v>
       </c>
       <c r="H72" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="I72" t="n">
-        <v>118988</v>
+        <v>119199</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46500414</v>
+        <v>46567326</v>
       </c>
       <c r="E73" t="n">
-        <v>269218185</v>
+        <v>269605576</v>
       </c>
       <c r="F73" t="n">
-        <v>105060.4725074237</v>
+        <v>106088.3285674847</v>
       </c>
       <c r="G73" t="n">
-        <v>229115.9930697879</v>
+        <v>196640.4587371558</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>38257788</v>
+        <v>35943159</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>39094440</v>
+        <v>38405726</v>
       </c>
       <c r="E74" t="n">
-        <v>53994989</v>
+        <v>53043777</v>
       </c>
       <c r="F74" t="n">
-        <v>4654.447766122855</v>
+        <v>4658.179480054265</v>
       </c>
       <c r="G74" t="n">
-        <v>4552.907233389685</v>
+        <v>4507.394159097412</v>
       </c>
       <c r="H74" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I74" t="n">
-        <v>302888</v>
+        <v>315785</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>97664</v>
+        <v>95220</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4001.36</v>
+        <v>4189.13</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13531785</v>
+        <v>13359571</v>
       </c>
       <c r="E76" t="n">
-        <v>13577835</v>
+        <v>13405035</v>
       </c>
       <c r="F76" t="n">
-        <v>1819.824471473102</v>
+        <v>1633.172897624089</v>
       </c>
       <c r="G76" t="n">
-        <v>6055.663650827902</v>
+        <v>7184.591492795743</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>7284381</v>
+        <v>7256386</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41952870</v>
+        <v>42074080</v>
       </c>
       <c r="E77" t="n">
-        <v>71215877</v>
+        <v>71421635</v>
       </c>
       <c r="F77" t="n">
-        <v>1795.305149731316</v>
+        <v>7130.692301354373</v>
       </c>
       <c r="G77" t="n">
-        <v>6290.741615411749</v>
+        <v>7048.489436311537</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I77" t="n">
-        <v>1067650</v>
+        <v>1072999</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19448537</v>
+        <v>19568373</v>
       </c>
       <c r="E78" t="n">
-        <v>58311176</v>
+        <v>58670472</v>
       </c>
       <c r="F78" t="n">
-        <v>35398.67443607759</v>
+        <v>71521.18540263895</v>
       </c>
       <c r="G78" t="n">
-        <v>63784.38365809158</v>
+        <v>42404.59773719811</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="I78" t="n">
-        <v>4295010</v>
+        <v>4338892</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>103046103</v>
+        <v>106692377</v>
       </c>
       <c r="E79" t="n">
-        <v>109547320</v>
+        <v>113423639</v>
       </c>
       <c r="F79" t="n">
-        <v>4342.764541915614</v>
+        <v>3651.621906195775</v>
       </c>
       <c r="G79" t="n">
-        <v>5250.831756899555</v>
+        <v>5530.481063888399</v>
       </c>
       <c r="H79" t="n">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="I79" t="n">
-        <v>2962507</v>
+        <v>7036318</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10425023</v>
+        <v>10469677</v>
       </c>
       <c r="E80" t="n">
-        <v>45264595</v>
+        <v>45459619</v>
       </c>
       <c r="F80" t="n">
-        <v>6139.211014713001</v>
+        <v>5662.617614245727</v>
       </c>
       <c r="G80" t="n">
-        <v>6173.002087283465</v>
+        <v>6190.389874961666</v>
       </c>
       <c r="H80" t="n">
         <v>0.5</v>
       </c>
       <c r="I80" t="n">
-        <v>116904</v>
+        <v>118103</v>
       </c>
     </row>
     <row r="81">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, NFT Marketplace, Gaming Platform, Action Games</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15822354</v>
+        <v>15927367</v>
       </c>
       <c r="E81" t="n">
-        <v>96980410</v>
+        <v>97624072</v>
       </c>
       <c r="F81" t="n">
-        <v>4129.648295108598</v>
+        <v>4152.472680099645</v>
       </c>
       <c r="G81" t="n">
-        <v>6323.609399608697</v>
+        <v>5890.777439387464</v>
       </c>
       <c r="H81" t="n">
         <v>0.19</v>
       </c>
       <c r="I81" t="n">
-        <v>12678181</v>
+        <v>12782495</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1466660</v>
+        <v>1435844</v>
       </c>
       <c r="E82" t="n">
-        <v>1507916</v>
+        <v>1476233</v>
       </c>
       <c r="F82" t="n">
-        <v>2307.705084742055</v>
+        <v>1567.948393482691</v>
       </c>
       <c r="G82" t="n">
-        <v>1822.391042046792</v>
+        <v>2434.385028281003</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="I82" t="n">
-        <v>148271</v>
+        <v>144344</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>48947245</v>
+        <v>48852499</v>
       </c>
       <c r="E83" t="n">
-        <v>210859380</v>
+        <v>210451222</v>
       </c>
       <c r="F83" t="n">
-        <v>2831.86930260617</v>
+        <v>2949.988829305973</v>
       </c>
       <c r="G83" t="n">
-        <v>4652.618343221196</v>
+        <v>4406.155019574251</v>
       </c>
       <c r="H83" t="n">
         <v>0.18</v>
       </c>
       <c r="I83" t="n">
-        <v>13704894</v>
+        <v>13580565</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2300100</v>
+        <v>2301869</v>
       </c>
       <c r="E84" t="n">
-        <v>8348040</v>
+        <v>8354354</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>233724</v>
+        <v>227567</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8775736</v>
+        <v>8776952</v>
       </c>
       <c r="E85" t="n">
-        <v>19463334</v>
+        <v>19466033</v>
       </c>
       <c r="F85" t="n">
-        <v>7880.964132474071</v>
+        <v>7958.671753764353</v>
       </c>
       <c r="G85" t="n">
-        <v>7322.067456362797</v>
+        <v>7288.635709554253</v>
       </c>
       <c r="H85" t="n">
         <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>301244</v>
+        <v>296364</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441909</v>
+        <v>2441084</v>
       </c>
       <c r="E86" t="n">
-        <v>18374735</v>
+        <v>18368521</v>
       </c>
       <c r="F86" t="n">
-        <v>5271.949112885964</v>
+        <v>5083.131960297947</v>
       </c>
       <c r="G86" t="n">
-        <v>12042.99714618931</v>
+        <v>12290.34764688713</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>155710</v>
+        <v>156074</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18952109</v>
+        <v>18760310</v>
       </c>
       <c r="E87" t="n">
-        <v>75808437</v>
+        <v>75041239</v>
       </c>
       <c r="F87" t="n">
-        <v>4478.703778866064</v>
+        <v>5743.271603197371</v>
       </c>
       <c r="G87" t="n">
-        <v>2127.66320176262</v>
+        <v>2060.28050570526</v>
       </c>
       <c r="H87" t="n">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="I87" t="n">
-        <v>3908395</v>
+        <v>3933828</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4622619</v>
+        <v>4659511</v>
       </c>
       <c r="E88" t="n">
-        <v>4622619</v>
+        <v>4659511</v>
       </c>
       <c r="F88" t="n">
-        <v>1713.740697004384</v>
+        <v>2135.868737502601</v>
       </c>
       <c r="G88" t="n">
-        <v>1265.163645700512</v>
+        <v>1040.873778892219</v>
       </c>
       <c r="H88" t="n">
-        <v>0.58</v>
+        <v>1.3</v>
       </c>
       <c r="I88" t="n">
-        <v>2809246</v>
+        <v>2834026</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12911407</v>
+        <v>13026835</v>
       </c>
       <c r="E89" t="n">
-        <v>40836790</v>
+        <v>41201873</v>
       </c>
       <c r="F89" t="n">
-        <v>13420.06949383031</v>
+        <v>16556.72581436629</v>
       </c>
       <c r="G89" t="n">
-        <v>13212.94939098689</v>
+        <v>11101.55311998618</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I89" t="n">
-        <v>1185605</v>
+        <v>1209585</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24961</v>
+        <v>24904</v>
       </c>
       <c r="E90" t="n">
-        <v>196308</v>
+        <v>195866</v>
       </c>
       <c r="F90" t="n">
-        <v>224.1563908048974</v>
+        <v>212.867201595251</v>
       </c>
       <c r="G90" t="n">
-        <v>647.0901265310107</v>
+        <v>644.2474552962373</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>33275</v>
+        <v>30353</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8013807</v>
+        <v>7989804</v>
       </c>
       <c r="E91" t="n">
-        <v>8013807</v>
+        <v>7989804</v>
       </c>
       <c r="F91" t="n">
-        <v>1181.891492726179</v>
+        <v>2481.70126461224</v>
       </c>
       <c r="G91" t="n">
-        <v>4833.570968347305</v>
+        <v>4824.925672816779</v>
       </c>
       <c r="H91" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="I91" t="n">
-        <v>4265904</v>
+        <v>4305229</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8793289</v>
+        <v>8766144</v>
       </c>
       <c r="E92" t="n">
-        <v>8793289</v>
+        <v>8766144</v>
       </c>
       <c r="F92" t="n">
-        <v>6954.005207484304</v>
+        <v>6742.552594805588</v>
       </c>
       <c r="G92" t="n">
-        <v>3095.079309860999</v>
+        <v>2482.780724778888</v>
       </c>
       <c r="H92" t="n">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="I92" t="n">
-        <v>1374411</v>
+        <v>1356760</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31577225</v>
+        <v>31350587</v>
       </c>
       <c r="E93" t="n">
-        <v>79622602</v>
+        <v>79051130</v>
       </c>
       <c r="F93" t="n">
-        <v>2.997474828831085</v>
+        <v>2.999277032228394</v>
       </c>
       <c r="G93" t="n">
-        <v>5479.0567996112</v>
+        <v>6081.681486668478</v>
       </c>
       <c r="H93" t="n">
         <v>0.88</v>
       </c>
       <c r="I93" t="n">
-        <v>6488816</v>
+        <v>6428567</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>295167206</v>
+        <v>299065055</v>
       </c>
       <c r="E94" t="n">
-        <v>299783180</v>
+        <v>303743278</v>
       </c>
       <c r="F94" t="n">
-        <v>6504.887623175288</v>
+        <v>6389.961664825078</v>
       </c>
       <c r="G94" t="n">
-        <v>6992.820166329568</v>
+        <v>7807.420828004163</v>
       </c>
       <c r="H94" t="n">
         <v>0.14</v>
       </c>
       <c r="I94" t="n">
-        <v>25225792</v>
+        <v>25269380</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3502.02039077646</v>
+        <v>1002.658103791849</v>
       </c>
       <c r="G95" t="n">
-        <v>6509.603895134644</v>
+        <v>6515.665808683589</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>169104</v>
+        <v>163470</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77930778</v>
+        <v>77979808</v>
       </c>
       <c r="E96" t="n">
-        <v>77930778</v>
+        <v>77979808</v>
       </c>
       <c r="F96" t="n">
-        <v>9657.231433700663</v>
+        <v>10669.87028492021</v>
       </c>
       <c r="G96" t="n">
-        <v>4779.615515007324</v>
+        <v>4911.873660721671</v>
       </c>
       <c r="H96" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="I96" t="n">
-        <v>4499224</v>
+        <v>4434719</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>303815106</v>
+        <v>301016671</v>
       </c>
       <c r="E97" t="n">
-        <v>303815106</v>
+        <v>301016671</v>
       </c>
       <c r="F97" t="n">
-        <v>335179.292115788</v>
+        <v>288014.4006285334</v>
       </c>
       <c r="G97" t="n">
-        <v>417170.0988587662</v>
+        <v>446387.5402542095</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>112417657</v>
+        <v>111913143</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4608602</v>
+        <v>4584841</v>
       </c>
       <c r="E98" t="n">
-        <v>31490252</v>
+        <v>31327897</v>
       </c>
       <c r="F98" t="n">
-        <v>24433.55273145418</v>
+        <v>5041.955942786583</v>
       </c>
       <c r="G98" t="n">
-        <v>26020.90220079628</v>
+        <v>4809.987910843459</v>
       </c>
       <c r="H98" t="n">
         <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>3034814</v>
+        <v>3052479</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>83896235</v>
+        <v>84247918</v>
       </c>
       <c r="E99" t="n">
-        <v>483446293</v>
+        <v>485472841</v>
       </c>
       <c r="F99" t="n">
-        <v>157219.6635184545</v>
+        <v>149399.5480971564</v>
       </c>
       <c r="G99" t="n">
-        <v>146890.2903808267</v>
+        <v>158575.0146454191</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>21342638</v>
+        <v>21610378</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>106819293</v>
+        <v>108932105</v>
       </c>
       <c r="E100" t="n">
-        <v>262817193</v>
+        <v>268015538</v>
       </c>
       <c r="F100" t="n">
-        <v>46242.21716430534</v>
+        <v>46288.38788446702</v>
       </c>
       <c r="G100" t="n">
-        <v>29419.27715073106</v>
+        <v>30190.51621316289</v>
       </c>
       <c r="H100" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="I100" t="n">
-        <v>3032351</v>
+        <v>3184917</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>238164017</v>
+        <v>238361486</v>
       </c>
       <c r="E101" t="n">
-        <v>238166383</v>
+        <v>238363854</v>
       </c>
       <c r="F101" t="n">
-        <v>43455.13132119861</v>
+        <v>11123.69835887452</v>
       </c>
       <c r="G101" t="n">
-        <v>21743.03097710015</v>
+        <v>26734.34101973836</v>
       </c>
       <c r="H101" t="n">
         <v>0.23</v>
       </c>
       <c r="I101" t="n">
-        <v>2984524</v>
+        <v>2990825</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30810536</v>
+        <v>30621575</v>
       </c>
       <c r="E102" t="n">
-        <v>137951407</v>
+        <v>137105354</v>
       </c>
       <c r="F102" t="n">
-        <v>58546.57511772401</v>
+        <v>61429.04325093084</v>
       </c>
       <c r="G102" t="n">
-        <v>114345.3622883</v>
+        <v>128409.739132304</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>16862430</v>
+        <v>17494699</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2840364</v>
+        <v>2870236</v>
       </c>
       <c r="E103" t="n">
-        <v>2840364</v>
+        <v>2870236</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>294324</v>
+        <v>292765</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5962613</v>
+        <v>5969593</v>
       </c>
       <c r="E104" t="n">
-        <v>15648857</v>
+        <v>15667176</v>
       </c>
       <c r="F104" t="n">
-        <v>97.90225202800895</v>
+        <v>624.7786236301507</v>
       </c>
       <c r="G104" t="n">
-        <v>622.4516629600993</v>
+        <v>610.3855672667081</v>
       </c>
       <c r="H104" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="I104" t="n">
-        <v>28534</v>
+        <v>27975</v>
       </c>
     </row>
     <row r="105">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Play To Earn, Ethereum Ecosystem, Andreessen Horowitz (a16z) Portfolio</t>
+          <t>Gaming (GameFi), NFT, Play To Earn, Ethereum Ecosystem, NFT Marketplace, Andreessen Horowitz (a16z) Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16246715</v>
+        <v>16245828</v>
       </c>
       <c r="E105" t="n">
-        <v>74992720</v>
+        <v>74988666</v>
       </c>
       <c r="F105" t="n">
-        <v>7316.187881582475</v>
+        <v>7182.280330378787</v>
       </c>
       <c r="G105" t="n">
-        <v>5056.360804540649</v>
+        <v>5763.272778916555</v>
       </c>
       <c r="H105" t="n">
         <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1156312</v>
+        <v>1200406</v>
       </c>
     </row>
     <row r="106">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, NFT Marketplace, Animoca Brands Portfolio, Ronin Ecosystem, Gaming Utility Token, Made in USA, Gaming Marketplace</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47880735</v>
+        <v>47974650</v>
       </c>
       <c r="E106" t="n">
-        <v>310493821</v>
+        <v>311102839</v>
       </c>
       <c r="F106" t="n">
-        <v>123119.8830230432</v>
+        <v>117586.6103304464</v>
       </c>
       <c r="G106" t="n">
-        <v>139928.7914955712</v>
+        <v>129229.0557538939</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21873411</v>
+        <v>22103396</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2446310</v>
+        <v>2436705</v>
       </c>
       <c r="E107" t="n">
-        <v>4431951</v>
+        <v>4414550</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>100687</v>
+        <v>96256</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123642218</v>
+        <v>124041426</v>
       </c>
       <c r="E108" t="n">
-        <v>2047616400</v>
+        <v>2054227610</v>
       </c>
       <c r="F108" t="n">
-        <v>31059.66759257543</v>
+        <v>30603.45927693631</v>
       </c>
       <c r="G108" t="n">
-        <v>126774.7200742023</v>
+        <v>148843.9507840727</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>43199872</v>
+        <v>45021067</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>22995425</v>
+        <v>23065732</v>
       </c>
       <c r="E109" t="n">
-        <v>137586251</v>
+        <v>138006913</v>
       </c>
       <c r="F109" t="n">
-        <v>5377.640433888064</v>
+        <v>4710.25103338076</v>
       </c>
       <c r="G109" t="n">
-        <v>36607.38840859554</v>
+        <v>37253.67817871042</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>18468931</v>
+        <v>18048167</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1042804</v>
+        <v>1030250</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>93397</v>
+        <v>91111</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2400475</v>
+        <v>2401677</v>
       </c>
       <c r="F111" t="n">
-        <v>3089.599176349487</v>
+        <v>4568.357679625944</v>
       </c>
       <c r="G111" t="n">
-        <v>173.728636217874</v>
+        <v>230.993849922506</v>
       </c>
       <c r="H111" t="n">
         <v>0.51</v>
       </c>
       <c r="I111" t="n">
-        <v>217043</v>
+        <v>220473</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149787179</v>
+        <v>149799197</v>
       </c>
       <c r="F112" t="n">
-        <v>5147.969299283453</v>
+        <v>4945.998998701874</v>
       </c>
       <c r="G112" t="n">
-        <v>4286.245224356577</v>
+        <v>3964.441528444857</v>
       </c>
       <c r="H112" t="n">
         <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>80345</v>
+        <v>79085</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6120983</v>
+        <v>6155548</v>
       </c>
       <c r="E113" t="n">
-        <v>31490600</v>
+        <v>31668425</v>
       </c>
       <c r="F113" t="n">
-        <v>2187.281852871554</v>
+        <v>1138.354386156682</v>
       </c>
       <c r="G113" t="n">
-        <v>235.0890046918241</v>
+        <v>539.6586119710498</v>
       </c>
       <c r="H113" t="n">
-        <v>0.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I113" t="n">
-        <v>950289</v>
+        <v>959552</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29978336</v>
+        <v>29931536</v>
       </c>
       <c r="E114" t="n">
-        <v>41105540</v>
+        <v>41041369</v>
       </c>
       <c r="F114" t="n">
-        <v>3905.612564136894</v>
+        <v>3874.523152323011</v>
       </c>
       <c r="G114" t="n">
-        <v>5590.279698881653</v>
+        <v>5703.331806518673</v>
       </c>
       <c r="H114" t="n">
         <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>1468496</v>
+        <v>1502130</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7584715</v>
+        <v>7584560</v>
       </c>
       <c r="F115" t="n">
-        <v>1730.862840000557</v>
+        <v>1734.57247524797</v>
       </c>
       <c r="G115" t="n">
-        <v>5785.9900062863</v>
+        <v>5671.359156185839</v>
       </c>
       <c r="H115" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="I115" t="n">
-        <v>676518</v>
+        <v>678549</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3615797</v>
+        <v>3559739</v>
       </c>
       <c r="E116" t="n">
-        <v>4843588</v>
+        <v>4768496</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>127773</v>
+        <v>125773</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32397138</v>
+        <v>32479015</v>
       </c>
       <c r="E117" t="n">
-        <v>161676654</v>
+        <v>162085257</v>
       </c>
       <c r="F117" t="n">
-        <v>74041.82507878722</v>
+        <v>102797.4767741971</v>
       </c>
       <c r="G117" t="n">
-        <v>82460.97888189575</v>
+        <v>85765.16113460441</v>
       </c>
       <c r="H117" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I117" t="n">
-        <v>14012051</v>
+        <v>13873097</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3500329</v>
+        <v>3495008</v>
       </c>
       <c r="E118" t="n">
-        <v>5028288</v>
+        <v>5020641</v>
       </c>
       <c r="F118" t="n">
-        <v>617.2609838274833</v>
+        <v>617.2623419754208</v>
       </c>
       <c r="G118" t="n">
-        <v>764.8336624742873</v>
+        <v>764.8353453236628</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>155748</v>
+        <v>161034</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>288853903</v>
+        <v>293186287</v>
       </c>
       <c r="E119" t="n">
-        <v>534445593</v>
+        <v>542461490</v>
       </c>
       <c r="F119" t="n">
-        <v>24178.5872928027</v>
+        <v>20064.78004457567</v>
       </c>
       <c r="G119" t="n">
-        <v>34968.69089184982</v>
+        <v>33839.68273840595</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
       <c r="I119" t="n">
-        <v>23870406</v>
+        <v>25352447</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69023818</v>
+        <v>69002620</v>
       </c>
       <c r="E120" t="n">
-        <v>658317041</v>
+        <v>658104065</v>
       </c>
       <c r="F120" t="n">
-        <v>4853.587911799718</v>
+        <v>2584.550832822454</v>
       </c>
       <c r="G120" t="n">
-        <v>2267.676483224594</v>
+        <v>2563.13069116851</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>25852858</v>
+        <v>25711247</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37011826</v>
+        <v>37094511</v>
       </c>
       <c r="E121" t="n">
-        <v>48385585</v>
+        <v>48493565</v>
       </c>
       <c r="F121" t="n">
-        <v>248.6273874649136</v>
+        <v>164.1463817722178</v>
       </c>
       <c r="G121" t="n">
-        <v>5031.333778755839</v>
+        <v>3361.50284519177</v>
       </c>
       <c r="H121" t="n">
-        <v>2.97</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>451869</v>
+        <v>531196</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9470291</v>
+        <v>9403975</v>
       </c>
       <c r="E122" t="n">
-        <v>28075043</v>
+        <v>27878444</v>
       </c>
       <c r="F122" t="n">
-        <v>2603.694901886844</v>
+        <v>2354.236572148487</v>
       </c>
       <c r="G122" t="n">
-        <v>8011.616729639363</v>
+        <v>7680.334644534855</v>
       </c>
       <c r="H122" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="I122" t="n">
-        <v>6828184</v>
+        <v>6795429</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2278847</v>
+        <v>2278658</v>
       </c>
       <c r="E123" t="n">
-        <v>7615073</v>
+        <v>7614440</v>
       </c>
       <c r="F123" t="n">
-        <v>414.3159610003787</v>
+        <v>542.4719959919331</v>
       </c>
       <c r="G123" t="n">
-        <v>781.8614006497477</v>
+        <v>634.1438153001584</v>
       </c>
       <c r="H123" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="I123" t="n">
-        <v>935571</v>
+        <v>982341</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7309793</v>
+        <v>7340895</v>
       </c>
       <c r="E124" t="n">
-        <v>7309804</v>
+        <v>7340906</v>
       </c>
       <c r="F124" t="n">
-        <v>353.0728287849648</v>
+        <v>47.60388429064125</v>
       </c>
       <c r="G124" t="n">
-        <v>466.4005165980074</v>
+        <v>466.0272273053171</v>
       </c>
       <c r="H124" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="I124" t="n">
-        <v>247054</v>
+        <v>237092</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6130877</v>
+        <v>6301758</v>
       </c>
       <c r="E125" t="n">
-        <v>6130877</v>
+        <v>6301758</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>592737</v>
+        <v>575588</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6137264</v>
+        <v>6136538</v>
       </c>
       <c r="E126" t="n">
-        <v>22417049</v>
+        <v>22414399</v>
       </c>
       <c r="F126" t="n">
-        <v>6728.425034763201</v>
+        <v>6751.45616875833</v>
       </c>
       <c r="G126" t="n">
-        <v>8360.659857286102</v>
+        <v>8347.620499888657</v>
       </c>
       <c r="H126" t="n">
         <v>0.76</v>
       </c>
       <c r="I126" t="n">
-        <v>599922</v>
+        <v>559705</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43823795</v>
+        <v>43891212</v>
       </c>
       <c r="E127" t="n">
-        <v>43823795</v>
+        <v>43891212</v>
       </c>
       <c r="F127" t="n">
-        <v>56242.91606075828</v>
+        <v>57823.05721573449</v>
       </c>
       <c r="G127" t="n">
-        <v>78201.83520649916</v>
+        <v>75788.28036716639</v>
       </c>
       <c r="H127" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I127" t="n">
-        <v>12825781</v>
+        <v>12431398</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>140965721</v>
+        <v>140539633</v>
       </c>
       <c r="F128" t="n">
-        <v>72.12280901416831</v>
+        <v>55.75622840764861</v>
       </c>
       <c r="G128" t="n">
-        <v>2501.933373317627</v>
+        <v>2533.487746757704</v>
       </c>
       <c r="H128" t="n">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="I128" t="n">
-        <v>1493967</v>
+        <v>1531254</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2894757</v>
+        <v>2898275</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>73949</v>
+        <v>72064</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19578522</v>
+        <v>19498485</v>
       </c>
       <c r="F130" t="n">
-        <v>264.8400693368616</v>
+        <v>262.3632855378293</v>
       </c>
       <c r="G130" t="n">
-        <v>1379.511509861413</v>
+        <v>1255.141254119957</v>
       </c>
       <c r="H130" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="I130" t="n">
-        <v>2929500</v>
+        <v>2924959</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1301243</v>
+        <v>1284610</v>
       </c>
       <c r="E131" t="n">
-        <v>3930711</v>
+        <v>3878053</v>
       </c>
       <c r="F131" t="n">
-        <v>815.3666651351073</v>
+        <v>829.683815907701</v>
       </c>
       <c r="G131" t="n">
-        <v>666.8610478832423</v>
+        <v>696.1499851504394</v>
       </c>
       <c r="H131" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>45241</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>580553927</v>
+        <v>582299414</v>
       </c>
       <c r="E132" t="n">
-        <v>2248399703</v>
+        <v>2255159719</v>
       </c>
       <c r="F132" t="n">
-        <v>778147.3383358759</v>
+        <v>691870.5478167788</v>
       </c>
       <c r="G132" t="n">
-        <v>996213.2287993595</v>
+        <v>1006317.812230383</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62496488</v>
+        <v>62329396</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3622032</v>
+        <v>3627233</v>
       </c>
       <c r="E133" t="n">
-        <v>6174246</v>
+        <v>6183111</v>
       </c>
       <c r="F133" t="n">
-        <v>5282.044521847005</v>
+        <v>4255.844145780205</v>
       </c>
       <c r="G133" t="n">
-        <v>5434.130420610607</v>
+        <v>4579.701510483225</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="I133" t="n">
-        <v>1149332</v>
+        <v>1149481</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>108569629</v>
+        <v>109071012</v>
       </c>
       <c r="E134" t="n">
-        <v>1027260066</v>
+        <v>1032004033</v>
       </c>
       <c r="F134" t="n">
-        <v>118660.0376580341</v>
+        <v>109042.5777455582</v>
       </c>
       <c r="G134" t="n">
-        <v>110898.792063043</v>
+        <v>102037.2034376951</v>
       </c>
       <c r="H134" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I134" t="n">
-        <v>17934435</v>
+        <v>17931029</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>969889426</v>
+        <v>975488887</v>
       </c>
       <c r="E135" t="n">
-        <v>1065426193</v>
+        <v>1071577216</v>
       </c>
       <c r="F135" t="n">
-        <v>10772.05726490056</v>
+        <v>14495.42776172506</v>
       </c>
       <c r="G135" t="n">
-        <v>20541.60798878602</v>
+        <v>19595.32006714291</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I135" t="n">
-        <v>10975146</v>
+        <v>10333086</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1060441</v>
+        <v>1063690</v>
       </c>
       <c r="E136" t="n">
-        <v>4106260</v>
+        <v>4118839</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>278808</v>
+        <v>197256</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121716146</v>
+        <v>122278087</v>
       </c>
       <c r="E137" t="n">
-        <v>466922725</v>
+        <v>469078424</v>
       </c>
       <c r="F137" t="n">
-        <v>137895.6981366623</v>
+        <v>141995.8661497273</v>
       </c>
       <c r="G137" t="n">
-        <v>211931.3437016472</v>
+        <v>220243.0044305621</v>
       </c>
       <c r="H137" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I137" t="n">
-        <v>32312274</v>
+        <v>32654162</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3124254</v>
+        <v>3087661</v>
       </c>
       <c r="E138" t="n">
-        <v>29602773</v>
+        <v>29256045</v>
       </c>
       <c r="F138" t="n">
-        <v>3029.804354497956</v>
+        <v>3044.110250253999</v>
       </c>
       <c r="G138" t="n">
-        <v>5200.234119159887</v>
+        <v>4392.922022294145</v>
       </c>
       <c r="H138" t="n">
         <v>0.27</v>
       </c>
       <c r="I138" t="n">
-        <v>228552</v>
+        <v>228187</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>23164549</v>
+        <v>22748366</v>
       </c>
       <c r="E139" t="n">
-        <v>23164549</v>
+        <v>22748366</v>
       </c>
       <c r="F139" t="n">
-        <v>1939.62613469525</v>
+        <v>1527.477271703256</v>
       </c>
       <c r="G139" t="n">
-        <v>6809.256122416146</v>
+        <v>888.8412307793541</v>
       </c>
       <c r="H139" t="n">
-        <v>0.96</v>
+        <v>2.05</v>
       </c>
       <c r="I139" t="n">
-        <v>849898</v>
+        <v>844773</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494321824</v>
+        <v>494570794</v>
       </c>
       <c r="E140" t="n">
-        <v>494321824</v>
+        <v>494570794</v>
       </c>
       <c r="F140" t="n">
-        <v>684178.0375048942</v>
+        <v>913194.8136985875</v>
       </c>
       <c r="G140" t="n">
-        <v>694467.6507829158</v>
+        <v>856657.8134531283</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>47281955</v>
+        <v>48949003</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>40999077</v>
+        <v>41955767</v>
       </c>
       <c r="F141" t="n">
-        <v>41892.7733139858</v>
+        <v>76946.12135838046</v>
       </c>
       <c r="G141" t="n">
-        <v>87059.28950182162</v>
+        <v>58861.4542811188</v>
       </c>
       <c r="H141" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I141" t="n">
-        <v>9063001</v>
+        <v>10453932</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>771752</v>
+        <v>771876</v>
       </c>
       <c r="E142" t="n">
-        <v>12309176</v>
+        <v>12311142</v>
       </c>
       <c r="F142" t="n">
-        <v>1149.300445784225</v>
+        <v>1132.199353250968</v>
       </c>
       <c r="G142" t="n">
-        <v>150.5024822074977</v>
+        <v>51.96913853519055</v>
       </c>
       <c r="H142" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="I142" t="n">
-        <v>338050</v>
+        <v>337940</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2541469898</v>
+        <v>2551452861</v>
       </c>
       <c r="E143" t="n">
-        <v>2698379733</v>
+        <v>2708979043</v>
       </c>
       <c r="F143" t="n">
-        <v>2503.852858198991</v>
+        <v>3608.553832040175</v>
       </c>
       <c r="G143" t="n">
-        <v>21529.88622253046</v>
+        <v>23732.37244390959</v>
       </c>
       <c r="H143" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="I143" t="n">
-        <v>60783444</v>
+        <v>61158919</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1705664</v>
+        <v>1699845</v>
       </c>
       <c r="E144" t="n">
-        <v>1711684</v>
+        <v>1705845</v>
       </c>
       <c r="F144" t="n">
-        <v>431.8758525443479</v>
+        <v>577.8474958657308</v>
       </c>
       <c r="G144" t="n">
-        <v>3718.45224396398</v>
+        <v>268.3009932156828</v>
       </c>
       <c r="H144" t="n">
-        <v>1.16</v>
+        <v>1.83</v>
       </c>
       <c r="I144" t="n">
-        <v>426194</v>
+        <v>424629</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55384318</v>
+        <v>54561499</v>
       </c>
       <c r="E145" t="n">
-        <v>135853977</v>
+        <v>133835660</v>
       </c>
       <c r="F145" t="n">
-        <v>5165.670672637248</v>
+        <v>4560.876636570342</v>
       </c>
       <c r="G145" t="n">
-        <v>3865.113533574827</v>
+        <v>5011.026739166913</v>
       </c>
       <c r="H145" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I145" t="n">
-        <v>21711531</v>
+        <v>21807962</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>742401782</v>
+        <v>753521295</v>
       </c>
       <c r="E146" t="n">
-        <v>1144849096</v>
+        <v>1161996367</v>
       </c>
       <c r="F146" t="n">
-        <v>125300.6290354442</v>
+        <v>114523.4358890333</v>
       </c>
       <c r="G146" t="n">
-        <v>109769.6457955494</v>
+        <v>157746.9871000556</v>
       </c>
       <c r="H146" t="n">
         <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>336552827</v>
+        <v>337566401</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22179422</v>
+        <v>22511866</v>
       </c>
       <c r="E147" t="n">
-        <v>22179422</v>
+        <v>22511866</v>
       </c>
       <c r="F147" t="n">
-        <v>4147.649405556876</v>
+        <v>4226.272408864843</v>
       </c>
       <c r="G147" t="n">
-        <v>5167.233377520338</v>
+        <v>5921.07069488022</v>
       </c>
       <c r="H147" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I147" t="n">
-        <v>5598238</v>
+        <v>5566771</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3800437</v>
+        <v>3798359</v>
       </c>
       <c r="E148" t="n">
-        <v>8284419</v>
+        <v>8279890</v>
       </c>
       <c r="F148" t="n">
-        <v>6704.476041714787</v>
+        <v>6704.490793449541</v>
       </c>
       <c r="G148" t="n">
-        <v>7112.823854568232</v>
+        <v>7112.839504783133</v>
       </c>
       <c r="H148" t="n">
         <v>0.48</v>
       </c>
       <c r="I148" t="n">
-        <v>2182958</v>
+        <v>2204684</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9245430</v>
+        <v>9243037</v>
       </c>
       <c r="E149" t="n">
-        <v>9245430</v>
+        <v>9243037</v>
       </c>
       <c r="F149" t="n">
-        <v>86453.81381559029</v>
+        <v>79003.0591197178</v>
       </c>
       <c r="G149" t="n">
-        <v>81782.85779917242</v>
+        <v>85277.84845966302</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6623958</v>
+        <v>423068</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>467340196</v>
+        <v>468148337</v>
       </c>
       <c r="E150" t="n">
-        <v>1625947839</v>
+        <v>1628759485</v>
       </c>
       <c r="F150" t="n">
-        <v>768510.2932370133</v>
+        <v>706870.9611914543</v>
       </c>
       <c r="G150" t="n">
-        <v>637875.7405594027</v>
+        <v>694677.6732919599</v>
       </c>
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>49734125</v>
+        <v>50410187</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>45983247</v>
+        <v>45939482</v>
       </c>
       <c r="E151" t="n">
-        <v>113194114</v>
+        <v>113086386</v>
       </c>
       <c r="F151" t="n">
-        <v>3157.492756125893</v>
+        <v>8355.448974961633</v>
       </c>
       <c r="G151" t="n">
-        <v>9839.490060100374</v>
+        <v>8193.719145341804</v>
       </c>
       <c r="H151" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="I151" t="n">
-        <v>176051</v>
+        <v>174898</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7054891</v>
+        <v>7032029</v>
       </c>
       <c r="E152" t="n">
-        <v>18327847</v>
+        <v>18268456</v>
       </c>
       <c r="F152" t="n">
-        <v>6024.976099114205</v>
+        <v>6378.64124316437</v>
       </c>
       <c r="G152" t="n">
-        <v>200.4218167002662</v>
+        <v>5523.953368855349</v>
       </c>
       <c r="H152" t="n">
         <v>2.13</v>
       </c>
       <c r="I152" t="n">
-        <v>792093</v>
+        <v>795691</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18920904426</v>
+        <v>18926747148</v>
       </c>
       <c r="F153" t="n">
-        <v>31943.74056809562</v>
+        <v>1473.166482973362</v>
       </c>
       <c r="G153" t="n">
-        <v>29564.38417220698</v>
+        <v>29462.8445011957</v>
       </c>
       <c r="H153" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="I153" t="n">
-        <v>22658215</v>
+        <v>20964213</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2298807</v>
+        <v>2300322</v>
       </c>
       <c r="E154" t="n">
-        <v>9195230</v>
+        <v>9201289</v>
       </c>
       <c r="F154" t="n">
-        <v>1271.180265392827</v>
+        <v>1293.31052026996</v>
       </c>
       <c r="G154" t="n">
-        <v>1630.408677049023</v>
+        <v>1514.381356592713</v>
       </c>
       <c r="H154" t="n">
-        <v>0.22</v>
+        <v>0.43</v>
       </c>
       <c r="I154" t="n">
-        <v>7949282</v>
+        <v>8033123</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>209124829</v>
+        <v>210283093</v>
       </c>
       <c r="E155" t="n">
-        <v>642980151</v>
+        <v>646541378</v>
       </c>
       <c r="F155" t="n">
-        <v>51491.8762281458</v>
+        <v>43582.1697442478</v>
       </c>
       <c r="G155" t="n">
-        <v>37651.25414372361</v>
+        <v>54234.23644215426</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>23362264</v>
+        <v>23629163</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>380684700</v>
+        <v>379663916</v>
       </c>
       <c r="E156" t="n">
-        <v>2175341141</v>
+        <v>2169508092</v>
       </c>
       <c r="F156" t="n">
-        <v>299834.7258212747</v>
+        <v>265996.3869248346</v>
       </c>
       <c r="G156" t="n">
-        <v>291438.4286814695</v>
+        <v>345191.8198148647</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>63843369</v>
+        <v>63556728</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3796987</v>
+        <v>3793603</v>
       </c>
       <c r="F2" t="n">
-        <v>136.4360023686642</v>
+        <v>77.02010080241455</v>
       </c>
       <c r="G2" t="n">
-        <v>1316.153552290853</v>
+        <v>606.0655621401492</v>
       </c>
       <c r="H2" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>137278</v>
+        <v>136732</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>597997386</v>
+        <v>600240096</v>
       </c>
       <c r="E3" t="n">
-        <v>1160567343</v>
+        <v>1164919909</v>
       </c>
       <c r="F3" t="n">
-        <v>21331.5210521419</v>
+        <v>11312.85835155243</v>
       </c>
       <c r="G3" t="n">
-        <v>31297.69406518521</v>
+        <v>14855.9517861165</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="I3" t="n">
-        <v>48474807</v>
+        <v>49325722</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252315043</v>
+        <v>251855794</v>
       </c>
       <c r="E4" t="n">
-        <v>1582232169</v>
+        <v>1579352281</v>
       </c>
       <c r="F4" t="n">
-        <v>152450.576416322</v>
+        <v>211960.4448139369</v>
       </c>
       <c r="G4" t="n">
-        <v>251569.937386875</v>
+        <v>238501.5947406274</v>
       </c>
       <c r="H4" t="n">
         <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>29896273</v>
+        <v>29959336</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140176298</v>
+        <v>140249643</v>
       </c>
       <c r="E5" t="n">
-        <v>155337245</v>
+        <v>155418523</v>
       </c>
       <c r="F5" t="n">
-        <v>8609.91456170582</v>
+        <v>8346.573130652847</v>
       </c>
       <c r="G5" t="n">
-        <v>872.3963116316216</v>
+        <v>1024.580254020897</v>
       </c>
       <c r="H5" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>53475081</v>
+        <v>52718282</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49606263</v>
+        <v>49835840</v>
       </c>
       <c r="E6" t="n">
-        <v>62056164</v>
+        <v>62343358</v>
       </c>
       <c r="F6" t="n">
-        <v>5547.75177377235</v>
+        <v>5999.624783485203</v>
       </c>
       <c r="G6" t="n">
-        <v>5263.693535831202</v>
+        <v>5363.643118049907</v>
       </c>
       <c r="H6" t="n">
-        <v>0.64</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>767700</v>
+        <v>760068</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65595804</v>
+        <v>65649756</v>
       </c>
       <c r="E7" t="n">
-        <v>130618678</v>
+        <v>130726112</v>
       </c>
       <c r="F7" t="n">
-        <v>11199.31003013463</v>
+        <v>10618.08032023162</v>
       </c>
       <c r="G7" t="n">
-        <v>12062.19928247454</v>
+        <v>12182.10081850822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I7" t="n">
-        <v>922526</v>
+        <v>948544</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42081536</v>
+        <v>42758863</v>
       </c>
       <c r="E8" t="n">
-        <v>47095300</v>
+        <v>47853326</v>
       </c>
       <c r="F8" t="n">
-        <v>565.1177238607698</v>
+        <v>708.112463943397</v>
       </c>
       <c r="G8" t="n">
-        <v>662.5872904406012</v>
+        <v>235.4566269202336</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="I8" t="n">
-        <v>13117209</v>
+        <v>13774777</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13815206</v>
+        <v>13794165</v>
       </c>
       <c r="E9" t="n">
-        <v>40712520</v>
+        <v>40650515</v>
       </c>
       <c r="F9" t="n">
-        <v>5009.569803376245</v>
+        <v>5181.926642352315</v>
       </c>
       <c r="G9" t="n">
-        <v>4509.772874431854</v>
+        <v>4599.966349301295</v>
       </c>
       <c r="H9" t="n">
-        <v>1.17</v>
+        <v>0.76</v>
       </c>
       <c r="I9" t="n">
-        <v>821287</v>
+        <v>816589</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9733992</v>
+        <v>9970748</v>
       </c>
       <c r="E10" t="n">
-        <v>41842115</v>
+        <v>42859824</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3547597514387</v>
+        <v>940.026451021262</v>
       </c>
       <c r="G10" t="n">
-        <v>1536.004545260242</v>
+        <v>217.6124387377862</v>
       </c>
       <c r="H10" t="n">
-        <v>1.53</v>
+        <v>0.28</v>
       </c>
       <c r="I10" t="n">
-        <v>724454</v>
+        <v>770558</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>551979178</v>
+        <v>551193156</v>
       </c>
       <c r="E11" t="n">
-        <v>690443913</v>
+        <v>689460717</v>
       </c>
       <c r="F11" t="n">
-        <v>300810.9443470263</v>
+        <v>267766.1397318495</v>
       </c>
       <c r="G11" t="n">
-        <v>253106.103036338</v>
+        <v>267900.5922087816</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>100441530</v>
+        <v>97514341</v>
       </c>
     </row>
     <row r="12">
@@ -838,7 +838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Play To Earn, Ronin Ecosystem, Gaming Utility Token, DeFiance Capital Portfolio</t>
+          <t>Gaming (GameFi), NFT, Play To Earn, Ronin Ecosystem, Gaming Utility Token, DeFiance Capital Portfolio, Action Games, MMO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4334830</v>
+        <v>4374743</v>
       </c>
       <c r="E12" t="n">
-        <v>26615076</v>
+        <v>26860130</v>
       </c>
       <c r="F12" t="n">
-        <v>8432.843604692822</v>
+        <v>10567.74057297016</v>
       </c>
       <c r="G12" t="n">
-        <v>10544.91116440234</v>
+        <v>7792.263843843466</v>
       </c>
       <c r="H12" t="n">
         <v>0.37</v>
       </c>
       <c r="I12" t="n">
-        <v>445773</v>
+        <v>428075</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23500583</v>
+        <v>23528584</v>
       </c>
       <c r="E13" t="n">
-        <v>23543521</v>
+        <v>23571574</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>875673</v>
+        <v>868457</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79416085</v>
+        <v>79266083</v>
       </c>
       <c r="E14" t="n">
-        <v>233651972</v>
+        <v>233210646</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>444807</v>
+        <v>441463</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>475079724</v>
+        <v>472368129</v>
       </c>
       <c r="E15" t="n">
-        <v>475079724</v>
+        <v>472368131</v>
       </c>
       <c r="F15" t="n">
-        <v>29149.96072811216</v>
+        <v>25432.48304323308</v>
       </c>
       <c r="G15" t="n">
-        <v>20553.71806147784</v>
+        <v>24435.08499299059</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>74536027</v>
+        <v>73203581</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4597625</v>
+        <v>4607269</v>
       </c>
       <c r="E16" t="n">
-        <v>4597625</v>
+        <v>4607269</v>
       </c>
       <c r="F16" t="n">
-        <v>5421.465111708831</v>
+        <v>6929.412894990255</v>
       </c>
       <c r="G16" t="n">
-        <v>5546.516859086324</v>
+        <v>1199.52061533297</v>
       </c>
       <c r="H16" t="n">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="I16" t="n">
-        <v>2303613</v>
+        <v>2217289</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3282448</v>
+        <v>3291290</v>
       </c>
       <c r="E17" t="n">
-        <v>3282448</v>
+        <v>3291290</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>737201</v>
+        <v>740196</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>166972020</v>
+        <v>169822309</v>
       </c>
       <c r="E18" t="n">
-        <v>206718313</v>
+        <v>210247090</v>
       </c>
       <c r="F18" t="n">
-        <v>9280.96000765502</v>
+        <v>9619.968241757813</v>
       </c>
       <c r="G18" t="n">
-        <v>8018.424734126665</v>
+        <v>8744.80153194776</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>556341</v>
+        <v>570396</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6425431</v>
+        <v>6766864</v>
       </c>
       <c r="E19" t="n">
-        <v>8849460</v>
+        <v>9319701</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>396310</v>
+        <v>420615</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>893273</v>
+        <v>889356</v>
       </c>
       <c r="E20" t="n">
-        <v>6252911</v>
+        <v>6225494</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>238478</v>
+        <v>187195</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>113931895</v>
+        <v>115017145</v>
       </c>
       <c r="E21" t="n">
-        <v>442693923</v>
+        <v>446884965</v>
       </c>
       <c r="F21" t="n">
-        <v>9085.202263442963</v>
+        <v>11048.29139444457</v>
       </c>
       <c r="G21" t="n">
-        <v>18128.96290701026</v>
+        <v>16722.14338093293</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>13454406</v>
+        <v>13411808</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1717967</v>
+        <v>1715680</v>
       </c>
       <c r="E22" t="n">
-        <v>12374371</v>
+        <v>12357900</v>
       </c>
       <c r="F22" t="n">
-        <v>4901.716928706538</v>
+        <v>4901.838054893267</v>
       </c>
       <c r="G22" t="n">
-        <v>4926.035461051609</v>
+        <v>4926.157188172895</v>
       </c>
       <c r="H22" t="n">
         <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>55003</v>
+        <v>54825</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138624087</v>
+        <v>138856322</v>
       </c>
       <c r="E23" t="n">
-        <v>138624087</v>
+        <v>138856322</v>
       </c>
       <c r="F23" t="n">
-        <v>986875.000863664</v>
+        <v>868986.943382838</v>
       </c>
       <c r="G23" t="n">
-        <v>1342496.66774246</v>
+        <v>1422925.85028926</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>96066712</v>
+        <v>95230493</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63342622</v>
+        <v>63483973</v>
       </c>
       <c r="E24" t="n">
-        <v>324833961</v>
+        <v>325558835</v>
       </c>
       <c r="F24" t="n">
-        <v>82287.1766839601</v>
+        <v>89813.92497235033</v>
       </c>
       <c r="G24" t="n">
-        <v>135520.1801550622</v>
+        <v>126522.1251548272</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>24561588</v>
+        <v>23576626</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>249989889</v>
+        <v>251162649</v>
       </c>
       <c r="E25" t="n">
-        <v>249989889</v>
+        <v>251162649</v>
       </c>
       <c r="F25" t="n">
-        <v>308349.8808452548</v>
+        <v>301766.8268357769</v>
       </c>
       <c r="G25" t="n">
-        <v>357765.3599245073</v>
+        <v>386485.4007036458</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>27975143</v>
+        <v>28189622</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1114309</v>
+        <v>1112878</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>119419</v>
+        <v>119904</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2255067</v>
+        <v>2221991</v>
       </c>
       <c r="E27" t="n">
-        <v>2528420</v>
+        <v>2484861</v>
       </c>
       <c r="F27" t="n">
-        <v>400.4781605156018</v>
+        <v>508.319391409602</v>
       </c>
       <c r="G27" t="n">
-        <v>655.4765221423602</v>
+        <v>60.14862589434326</v>
       </c>
       <c r="H27" t="n">
-        <v>1.01</v>
+        <v>0.26</v>
       </c>
       <c r="I27" t="n">
-        <v>501303</v>
+        <v>524415</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3772331</v>
+        <v>3785486</v>
       </c>
       <c r="E28" t="n">
-        <v>3773154</v>
+        <v>3786302</v>
       </c>
       <c r="F28" t="n">
-        <v>749.3452424224805</v>
+        <v>904.9923654386756</v>
       </c>
       <c r="G28" t="n">
-        <v>3914.639293907087</v>
+        <v>3854.882611319509</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="I28" t="n">
-        <v>242761</v>
+        <v>240222</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6748583</v>
+        <v>6742954</v>
       </c>
       <c r="E29" t="n">
-        <v>16391788</v>
+        <v>16378116</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>423999</v>
+        <v>426960</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97355847</v>
+        <v>97484019</v>
       </c>
       <c r="E30" t="n">
-        <v>121391329</v>
+        <v>121551144</v>
       </c>
       <c r="F30" t="n">
-        <v>104738.6343116362</v>
+        <v>108690.2319997161</v>
       </c>
       <c r="G30" t="n">
-        <v>117596.220546367</v>
+        <v>110772.3935088543</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13416934</v>
+        <v>13461822</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109933</v>
+        <v>1109667</v>
       </c>
       <c r="E31" t="n">
-        <v>12062333</v>
+        <v>12059448</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12831.77</v>
+        <v>12826.98</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>79374148</v>
+        <v>79059733</v>
       </c>
       <c r="E32" t="n">
-        <v>222135494</v>
+        <v>221225880</v>
       </c>
       <c r="F32" t="n">
-        <v>72758.44979869315</v>
+        <v>58980.18057159966</v>
       </c>
       <c r="G32" t="n">
-        <v>76629.78901544776</v>
+        <v>81024.52300953107</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>57610997</v>
+        <v>57058336</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4160603</v>
+        <v>4127565</v>
       </c>
       <c r="E33" t="n">
-        <v>8205059</v>
+        <v>8139906</v>
       </c>
       <c r="F33" t="n">
-        <v>8050.491581536477</v>
+        <v>8661.015566881</v>
       </c>
       <c r="G33" t="n">
-        <v>7375.075773084968</v>
+        <v>6224.839201534942</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="I33" t="n">
-        <v>1728838</v>
+        <v>1724623</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36306218</v>
+        <v>36375981</v>
       </c>
       <c r="F34" t="n">
-        <v>233.4087575625025</v>
+        <v>233.4145252974945</v>
       </c>
       <c r="G34" t="n">
-        <v>284.397644075549</v>
+        <v>284.4046717906206</v>
       </c>
       <c r="H34" t="n">
         <v>0.36</v>
       </c>
       <c r="I34" t="n">
-        <v>19006.85</v>
+        <v>16291.22</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17172684</v>
+        <v>17175598</v>
       </c>
       <c r="E35" t="n">
-        <v>18099606</v>
+        <v>18102677</v>
       </c>
       <c r="F35" t="n">
-        <v>3487.122705431231</v>
+        <v>3487.208875289892</v>
       </c>
       <c r="G35" t="n">
-        <v>2560.889062483135</v>
+        <v>2570.951658956081</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>35145</v>
+        <v>48967</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23074570</v>
+        <v>23083596</v>
       </c>
       <c r="F36" t="n">
-        <v>5184.11578186427</v>
+        <v>5222.2948064544</v>
       </c>
       <c r="G36" t="n">
-        <v>5266.296725428409</v>
+        <v>5242.47810025376</v>
       </c>
       <c r="H36" t="n">
-        <v>0.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>127494</v>
+        <v>126618</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84095959</v>
+        <v>85471819</v>
       </c>
       <c r="E37" t="n">
-        <v>175333321</v>
+        <v>178201879</v>
       </c>
       <c r="F37" t="n">
-        <v>64385.30668262346</v>
+        <v>55253.97819399383</v>
       </c>
       <c r="G37" t="n">
-        <v>58988.32961589534</v>
+        <v>56002.96877258024</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>84533343</v>
+        <v>84836473</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>273373344</v>
+        <v>274500450</v>
       </c>
       <c r="E38" t="n">
-        <v>273373344</v>
+        <v>274500450</v>
       </c>
       <c r="F38" t="n">
-        <v>35394.14609690882</v>
+        <v>28593.68149629214</v>
       </c>
       <c r="G38" t="n">
-        <v>32023.21687130159</v>
+        <v>30424.03993491844</v>
       </c>
       <c r="H38" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>11889545</v>
+        <v>11957318</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195537529</v>
+        <v>195310409</v>
       </c>
       <c r="E39" t="n">
-        <v>679315048</v>
+        <v>678526012</v>
       </c>
       <c r="F39" t="n">
-        <v>192141.2104677946</v>
+        <v>141788.4984431229</v>
       </c>
       <c r="G39" t="n">
-        <v>314783.6100052579</v>
+        <v>294104.4096018432</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>41667170</v>
+        <v>41343114</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3249206</v>
+        <v>3346492</v>
       </c>
       <c r="E40" t="n">
-        <v>3249206</v>
+        <v>3346492</v>
       </c>
       <c r="F40" t="n">
-        <v>1001.674017275935</v>
+        <v>904.6174947944012</v>
       </c>
       <c r="G40" t="n">
-        <v>4463.144709845308</v>
+        <v>2509.021124387626</v>
       </c>
       <c r="H40" t="n">
-        <v>0.76</v>
+        <v>0.33</v>
       </c>
       <c r="I40" t="n">
-        <v>1758322</v>
+        <v>1770313</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109325689</v>
+        <v>109162890</v>
       </c>
       <c r="E41" t="n">
-        <v>463381000</v>
+        <v>462658760</v>
       </c>
       <c r="F41" t="n">
-        <v>5656.949954092724</v>
+        <v>5361.347163787891</v>
       </c>
       <c r="G41" t="n">
-        <v>8448.82948773673</v>
+        <v>7417.359695812588</v>
       </c>
       <c r="H41" t="n">
         <v>0.19</v>
       </c>
       <c r="I41" t="n">
-        <v>14930211</v>
+        <v>14676056</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>580988</v>
+        <v>533479</v>
       </c>
       <c r="E42" t="n">
-        <v>7046820</v>
+        <v>6470582</v>
       </c>
       <c r="F42" t="n">
-        <v>475.7832245785632</v>
+        <v>386.6663100309001</v>
       </c>
       <c r="G42" t="n">
-        <v>733.6742782030208</v>
+        <v>547.6110294008558</v>
       </c>
       <c r="H42" t="n">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2962498</v>
+        <v>2966345</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1445287459</v>
+        <v>1432883515</v>
       </c>
       <c r="E43" t="n">
-        <v>6930449353</v>
+        <v>6870969900</v>
       </c>
       <c r="F43" t="n">
-        <v>62355.6275613313</v>
+        <v>17245.01094896474</v>
       </c>
       <c r="G43" t="n">
-        <v>34531.57574993966</v>
+        <v>24626.58346246905</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>584377497</v>
+        <v>584200999</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5899936467</v>
+        <v>5891356462</v>
       </c>
       <c r="E44" t="n">
-        <v>5891523323</v>
+        <v>5891356462</v>
       </c>
       <c r="F44" t="n">
-        <v>724639.5603639184</v>
+        <v>924302.9483135012</v>
       </c>
       <c r="G44" t="n">
-        <v>467645.8033354028</v>
+        <v>431913.1934410165</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>429803043</v>
+        <v>431344587</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>260856089</v>
+        <v>261289688</v>
       </c>
       <c r="E45" t="n">
-        <v>1125999693</v>
+        <v>1127871348</v>
       </c>
       <c r="F45" t="n">
-        <v>108463.5705394733</v>
+        <v>104252.636606559</v>
       </c>
       <c r="G45" t="n">
-        <v>91675.48393061</v>
+        <v>89290.71812201593</v>
       </c>
       <c r="H45" t="n">
         <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>142342909</v>
+        <v>141479259</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>117373224</v>
+        <v>119669312</v>
       </c>
       <c r="E46" t="n">
-        <v>117373224</v>
+        <v>119669312</v>
       </c>
       <c r="F46" t="n">
-        <v>24162.12653574202</v>
+        <v>22787.67157505423</v>
       </c>
       <c r="G46" t="n">
-        <v>31758.97992119177</v>
+        <v>28617.07831480806</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I46" t="n">
-        <v>9110717</v>
+        <v>9415504</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2044078148</v>
+        <v>2043590192</v>
       </c>
       <c r="E47" t="n">
-        <v>2044078148</v>
+        <v>2043590192</v>
       </c>
       <c r="F47" t="n">
-        <v>226962.9557400668</v>
+        <v>226968.5641936458</v>
       </c>
       <c r="G47" t="n">
-        <v>200100.0093483793</v>
+        <v>200104.9539950064</v>
       </c>
       <c r="H47" t="n">
         <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>9199582062</v>
+        <v>9111335503</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10233672</v>
+        <v>10274562</v>
       </c>
       <c r="F48" t="n">
-        <v>6142.543532876405</v>
+        <v>6260.447395514876</v>
       </c>
       <c r="G48" t="n">
-        <v>6748.511096516158</v>
+        <v>6477.814963462813</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>173209</v>
+        <v>165956</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4190508</v>
+        <v>4206453</v>
       </c>
       <c r="E49" t="n">
-        <v>5501591</v>
+        <v>5522524</v>
       </c>
       <c r="F49" t="n">
-        <v>5417.710298942727</v>
+        <v>5395.699261737957</v>
       </c>
       <c r="G49" t="n">
-        <v>4846.802087719832</v>
+        <v>4742.743576460297</v>
       </c>
       <c r="H49" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="I49" t="n">
-        <v>614915</v>
+        <v>588583</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12986972</v>
+        <v>12861734</v>
       </c>
       <c r="E50" t="n">
-        <v>19097097</v>
+        <v>18912937</v>
       </c>
       <c r="F50" t="n">
-        <v>6809.745402814055</v>
+        <v>7564.668814121062</v>
       </c>
       <c r="G50" t="n">
-        <v>6966.539878720244</v>
+        <v>6970.321730158678</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>7071127</v>
+        <v>7011394</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22340475</v>
+        <v>22333038</v>
       </c>
       <c r="E51" t="n">
-        <v>28980707</v>
+        <v>28971059</v>
       </c>
       <c r="F51" t="n">
-        <v>9312.66979539253</v>
+        <v>9993.646475935067</v>
       </c>
       <c r="G51" t="n">
-        <v>7227.296904855109</v>
+        <v>15640.88365516461</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>243359</v>
+        <v>243227</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14110208</v>
+        <v>14183278</v>
       </c>
       <c r="E52" t="n">
-        <v>14110208</v>
+        <v>14183278</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5786035</v>
+        <v>5861736</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99142315</v>
+        <v>99078369</v>
       </c>
       <c r="E53" t="n">
-        <v>122635495</v>
+        <v>122556396</v>
       </c>
       <c r="F53" t="n">
-        <v>754.2385574561237</v>
+        <v>734.266600740516</v>
       </c>
       <c r="G53" t="n">
-        <v>3847.728764371958</v>
+        <v>3707.610949927872</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I53" t="n">
-        <v>1076818</v>
+        <v>1067729</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4961198</v>
+        <v>4974650</v>
       </c>
       <c r="E54" t="n">
-        <v>6941436</v>
+        <v>6960257</v>
       </c>
       <c r="F54" t="n">
-        <v>439.7976499929994</v>
+        <v>424.1524085665673</v>
       </c>
       <c r="G54" t="n">
-        <v>223.5956614702147</v>
+        <v>223.3964364568337</v>
       </c>
       <c r="H54" t="n">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="I54" t="n">
-        <v>54309</v>
+        <v>55168</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14070728</v>
+        <v>14046752</v>
       </c>
       <c r="E55" t="n">
-        <v>68146781</v>
+        <v>68030662</v>
       </c>
       <c r="F55" t="n">
-        <v>11324.20463186953</v>
+        <v>11471.26335960226</v>
       </c>
       <c r="G55" t="n">
-        <v>14497.22844904834</v>
+        <v>12290.28021030055</v>
       </c>
       <c r="H55" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I55" t="n">
-        <v>5573679</v>
+        <v>5530119</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55229</v>
+        <v>56989</v>
       </c>
       <c r="E56" t="n">
-        <v>132286</v>
+        <v>136500</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16740.33</v>
+        <v>17052.87</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1853606529</v>
+        <v>1854412311</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>32006348</v>
+        <v>31853308</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12025337</v>
+        <v>12032609</v>
       </c>
       <c r="E58" t="n">
-        <v>17435003</v>
+        <v>17445547</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1783085</v>
+        <v>1748818</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>122304349</v>
+        <v>122507347</v>
       </c>
       <c r="E59" t="n">
-        <v>325259846</v>
+        <v>325799707</v>
       </c>
       <c r="F59" t="n">
-        <v>7946.878658850659</v>
+        <v>7907.481585197264</v>
       </c>
       <c r="G59" t="n">
-        <v>7429.362675733524</v>
+        <v>7207.953491047002</v>
       </c>
       <c r="H59" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="I59" t="n">
-        <v>814121</v>
+        <v>823241</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29442240</v>
+        <v>29508486</v>
       </c>
       <c r="E60" t="n">
-        <v>91673687</v>
+        <v>91879958</v>
       </c>
       <c r="F60" t="n">
-        <v>2583.769581005008</v>
+        <v>1862.362369541252</v>
       </c>
       <c r="G60" t="n">
-        <v>5988.895302829585</v>
+        <v>5748.445797678093</v>
       </c>
       <c r="H60" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="I60" t="n">
-        <v>11023063</v>
+        <v>11050059</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1831493</v>
+        <v>1837609</v>
       </c>
       <c r="E61" t="n">
-        <v>13133450</v>
+        <v>13177312</v>
       </c>
       <c r="F61" t="n">
-        <v>5175.867796458803</v>
+        <v>5172.450747328121</v>
       </c>
       <c r="G61" t="n">
-        <v>5504.218646420819</v>
+        <v>2921.047159443698</v>
       </c>
       <c r="H61" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="I61" t="n">
-        <v>2144561</v>
+        <v>2150567</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194037709</v>
+        <v>194554015</v>
       </c>
       <c r="E62" t="n">
-        <v>1098760733</v>
+        <v>1101684377</v>
       </c>
       <c r="F62" t="n">
-        <v>664911.9856690064</v>
+        <v>719237.4958083848</v>
       </c>
       <c r="G62" t="n">
-        <v>826005.9826353431</v>
+        <v>745315.4681942492</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>85462875</v>
+        <v>84205091</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>487714</v>
+        <v>493235</v>
       </c>
       <c r="E63" t="n">
-        <v>1641577</v>
+        <v>1660159</v>
       </c>
       <c r="F63" t="n">
-        <v>4943.66712671789</v>
+        <v>5214.341694816245</v>
       </c>
       <c r="G63" t="n">
-        <v>522.9117847507632</v>
+        <v>493.8627647055558</v>
       </c>
       <c r="H63" t="n">
         <v>0.48</v>
       </c>
       <c r="I63" t="n">
-        <v>644401</v>
+        <v>644260</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>367746</v>
+        <v>366297</v>
       </c>
       <c r="E64" t="n">
-        <v>367746</v>
+        <v>366297</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3901.35</v>
+        <v>4428.97</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>128679854</v>
+        <v>129490620</v>
       </c>
       <c r="E65" t="n">
-        <v>953184102</v>
+        <v>959189777</v>
       </c>
       <c r="F65" t="n">
-        <v>32785.70477952575</v>
+        <v>32581.33016749708</v>
       </c>
       <c r="G65" t="n">
-        <v>34727.25054442462</v>
+        <v>39642.36771993437</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I65" t="n">
-        <v>37426409</v>
+        <v>37250089</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8902104</v>
+        <v>8994027</v>
       </c>
       <c r="E66" t="n">
-        <v>11925851</v>
+        <v>12048998</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>93682</v>
+        <v>95147</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25949944</v>
+        <v>26258177</v>
       </c>
       <c r="E67" t="n">
-        <v>25949944</v>
+        <v>26258177</v>
       </c>
       <c r="F67" t="n">
-        <v>8122.469769203555</v>
+        <v>8863.025042652149</v>
       </c>
       <c r="G67" t="n">
-        <v>5229.420567086118</v>
+        <v>5091.08478570638</v>
       </c>
       <c r="H67" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="I67" t="n">
-        <v>368227</v>
+        <v>366090</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1539748</v>
+        <v>1537785</v>
       </c>
       <c r="E68" t="n">
-        <v>11957861</v>
+        <v>11942614</v>
       </c>
       <c r="F68" t="n">
-        <v>15694.87134235623</v>
+        <v>14986.13657101668</v>
       </c>
       <c r="G68" t="n">
-        <v>21937.7767131609</v>
+        <v>22042.63295411973</v>
       </c>
       <c r="H68" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="I68" t="n">
-        <v>536553</v>
+        <v>507782</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>323777149</v>
+        <v>324662213</v>
       </c>
       <c r="E69" t="n">
-        <v>2912899999</v>
+        <v>2920862587</v>
       </c>
       <c r="F69" t="n">
-        <v>1575877.806593991</v>
+        <v>1371725.602687666</v>
       </c>
       <c r="G69" t="n">
-        <v>1388567.290538608</v>
+        <v>1943642.266025635</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>71109729</v>
+        <v>70828000</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>247867</v>
+        <v>248561</v>
       </c>
       <c r="E70" t="n">
-        <v>2187613</v>
+        <v>2193739</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>71673</v>
+        <v>72164</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1549794</v>
+        <v>1553734</v>
       </c>
       <c r="E71" t="n">
-        <v>12914948</v>
+        <v>12947783</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>32902</v>
+        <v>33143</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9331842</v>
+        <v>9314276</v>
       </c>
       <c r="E72" t="n">
-        <v>43253622</v>
+        <v>43172206</v>
       </c>
       <c r="F72" t="n">
-        <v>9624.422539564779</v>
+        <v>9116.739963771857</v>
       </c>
       <c r="G72" t="n">
-        <v>3302.657268498919</v>
+        <v>3342.105611766376</v>
       </c>
       <c r="H72" t="n">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>119199</v>
+        <v>112746</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>46567326</v>
+        <v>47015937</v>
       </c>
       <c r="E73" t="n">
-        <v>269605576</v>
+        <v>272202850</v>
       </c>
       <c r="F73" t="n">
-        <v>106088.3285674847</v>
+        <v>93289.94545636904</v>
       </c>
       <c r="G73" t="n">
-        <v>196640.4587371558</v>
+        <v>186504.1687753727</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>35943159</v>
+        <v>36406863</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38405726</v>
+        <v>38470914</v>
       </c>
       <c r="E74" t="n">
-        <v>53043777</v>
+        <v>53133810</v>
       </c>
       <c r="F74" t="n">
-        <v>4658.179480054265</v>
+        <v>4652.279133419046</v>
       </c>
       <c r="G74" t="n">
-        <v>4507.394159097412</v>
+        <v>4456.222761332044</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I74" t="n">
-        <v>315785</v>
+        <v>316566</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>95220</v>
+        <v>98320</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4189.13</v>
+        <v>4325.27</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13359571</v>
+        <v>13419535</v>
       </c>
       <c r="E76" t="n">
-        <v>13405035</v>
+        <v>13465203</v>
       </c>
       <c r="F76" t="n">
-        <v>1633.172897624089</v>
+        <v>1651.450524268796</v>
       </c>
       <c r="G76" t="n">
-        <v>7184.591492795743</v>
+        <v>4129.599694655253</v>
       </c>
       <c r="H76" t="n">
         <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>7256386</v>
+        <v>7370301</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>42074080</v>
+        <v>41988593</v>
       </c>
       <c r="E77" t="n">
-        <v>71421635</v>
+        <v>71276519</v>
       </c>
       <c r="F77" t="n">
-        <v>7130.692301354373</v>
+        <v>6976.695198366217</v>
       </c>
       <c r="G77" t="n">
-        <v>7048.489436311537</v>
+        <v>9340.78235908454</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1072999</v>
+        <v>1092962</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19568373</v>
+        <v>19394359</v>
       </c>
       <c r="E78" t="n">
-        <v>58670472</v>
+        <v>58150324</v>
       </c>
       <c r="F78" t="n">
-        <v>71521.18540263895</v>
+        <v>55636.66651376858</v>
       </c>
       <c r="G78" t="n">
-        <v>42404.59773719811</v>
+        <v>48357.61822170865</v>
       </c>
       <c r="H78" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I78" t="n">
-        <v>4338892</v>
+        <v>4166976</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106692377</v>
+        <v>109345746</v>
       </c>
       <c r="E79" t="n">
-        <v>113423639</v>
+        <v>116244411</v>
       </c>
       <c r="F79" t="n">
-        <v>3651.621906195775</v>
+        <v>3268.462205218505</v>
       </c>
       <c r="G79" t="n">
-        <v>5530.481063888399</v>
+        <v>3153.439107473392</v>
       </c>
       <c r="H79" t="n">
-        <v>0.53</v>
+        <v>1.2</v>
       </c>
       <c r="I79" t="n">
-        <v>7036318</v>
+        <v>9119666</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10469677</v>
+        <v>10468779</v>
       </c>
       <c r="E80" t="n">
-        <v>45459619</v>
+        <v>45433189</v>
       </c>
       <c r="F80" t="n">
-        <v>5662.617614245727</v>
+        <v>6160.615605629139</v>
       </c>
       <c r="G80" t="n">
-        <v>6190.389874961666</v>
+        <v>6007.668482020539</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>118103</v>
+        <v>118386</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15927367</v>
+        <v>15738506</v>
       </c>
       <c r="E81" t="n">
-        <v>97624072</v>
+        <v>96466477</v>
       </c>
       <c r="F81" t="n">
-        <v>4152.472680099645</v>
+        <v>3955.346235687777</v>
       </c>
       <c r="G81" t="n">
-        <v>5890.777439387464</v>
+        <v>5987.531215399792</v>
       </c>
       <c r="H81" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I81" t="n">
-        <v>12782495</v>
+        <v>12749754</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1435844</v>
+        <v>1437944</v>
       </c>
       <c r="E82" t="n">
-        <v>1476233</v>
+        <v>1478391</v>
       </c>
       <c r="F82" t="n">
-        <v>1567.948393482691</v>
+        <v>1937.716389771494</v>
       </c>
       <c r="G82" t="n">
-        <v>2434.385028281003</v>
+        <v>2434.547005922943</v>
       </c>
       <c r="H82" t="n">
         <v>0.88</v>
       </c>
       <c r="I82" t="n">
-        <v>144344</v>
+        <v>141853</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>48852499</v>
+        <v>50125321</v>
       </c>
       <c r="E83" t="n">
-        <v>210451222</v>
+        <v>215934402</v>
       </c>
       <c r="F83" t="n">
-        <v>2949.988829305973</v>
+        <v>2986.026141115673</v>
       </c>
       <c r="G83" t="n">
-        <v>4406.155019574251</v>
+        <v>556.5670734110089</v>
       </c>
       <c r="H83" t="n">
         <v>0.18</v>
       </c>
       <c r="I83" t="n">
-        <v>13580565</v>
+        <v>14100131</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2301869</v>
+        <v>2263928</v>
       </c>
       <c r="E84" t="n">
-        <v>8354354</v>
+        <v>8216258</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>227567</v>
+        <v>228002</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8776952</v>
+        <v>8774755</v>
       </c>
       <c r="E85" t="n">
-        <v>19466033</v>
+        <v>19461159</v>
       </c>
       <c r="F85" t="n">
-        <v>7958.671753764353</v>
+        <v>5541.267614978647</v>
       </c>
       <c r="G85" t="n">
-        <v>7288.635709554253</v>
+        <v>5953.167896211208</v>
       </c>
       <c r="H85" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="I85" t="n">
-        <v>296364</v>
+        <v>293526</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441084</v>
+        <v>2441202</v>
       </c>
       <c r="E86" t="n">
-        <v>18368521</v>
+        <v>18369411</v>
       </c>
       <c r="F86" t="n">
-        <v>5083.131960297947</v>
+        <v>5106.939358141794</v>
       </c>
       <c r="G86" t="n">
-        <v>12290.34764688713</v>
+        <v>12329.07848233427</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>156074</v>
+        <v>156072</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18760310</v>
+        <v>18705612</v>
       </c>
       <c r="E87" t="n">
-        <v>75041239</v>
+        <v>74822449</v>
       </c>
       <c r="F87" t="n">
-        <v>5743.271603197371</v>
+        <v>2001.257074438562</v>
       </c>
       <c r="G87" t="n">
-        <v>2060.28050570526</v>
+        <v>1177.597495531392</v>
       </c>
       <c r="H87" t="n">
-        <v>1.85</v>
+        <v>3.03</v>
       </c>
       <c r="I87" t="n">
-        <v>3933828</v>
+        <v>3930506</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4659511</v>
+        <v>4674433</v>
       </c>
       <c r="E88" t="n">
-        <v>4659511</v>
+        <v>4674433</v>
       </c>
       <c r="F88" t="n">
-        <v>2135.868737502601</v>
+        <v>3044.259427476983</v>
       </c>
       <c r="G88" t="n">
-        <v>1040.873778892219</v>
+        <v>2021.90359503293</v>
       </c>
       <c r="H88" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="I88" t="n">
-        <v>2834026</v>
+        <v>2823177</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13026835</v>
+        <v>13297389</v>
       </c>
       <c r="E89" t="n">
-        <v>41201873</v>
+        <v>42057552</v>
       </c>
       <c r="F89" t="n">
-        <v>16556.72581436629</v>
+        <v>12794.74176568876</v>
       </c>
       <c r="G89" t="n">
-        <v>11101.55311998618</v>
+        <v>10561.05888614588</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I89" t="n">
-        <v>1209585</v>
+        <v>1239231</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24904</v>
+        <v>24631</v>
       </c>
       <c r="E90" t="n">
-        <v>195866</v>
+        <v>193713</v>
       </c>
       <c r="F90" t="n">
-        <v>212.867201595251</v>
+        <v>256.0904287642384</v>
       </c>
       <c r="G90" t="n">
-        <v>644.2474552962373</v>
+        <v>654.4123772748682</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>30353</v>
+        <v>27445</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7989804</v>
+        <v>8099159</v>
       </c>
       <c r="E91" t="n">
-        <v>7989804</v>
+        <v>8099159</v>
       </c>
       <c r="F91" t="n">
-        <v>2481.70126461224</v>
+        <v>1434.084422231</v>
       </c>
       <c r="G91" t="n">
-        <v>4824.925672816779</v>
+        <v>4655.071912826548</v>
       </c>
       <c r="H91" t="n">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="I91" t="n">
-        <v>4305229</v>
+        <v>4291773</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8766144</v>
+        <v>8863113</v>
       </c>
       <c r="E92" t="n">
-        <v>8766144</v>
+        <v>8863113</v>
       </c>
       <c r="F92" t="n">
-        <v>6742.552594805588</v>
+        <v>6693.408685751392</v>
       </c>
       <c r="G92" t="n">
-        <v>2482.780724778888</v>
+        <v>3262.168585115419</v>
       </c>
       <c r="H92" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I92" t="n">
-        <v>1356760</v>
+        <v>1375190</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31350587</v>
+        <v>31608493</v>
       </c>
       <c r="E93" t="n">
-        <v>79051130</v>
+        <v>79701443</v>
       </c>
       <c r="F93" t="n">
-        <v>2.999277032228394</v>
+        <v>33.49247678844416</v>
       </c>
       <c r="G93" t="n">
-        <v>6081.681486668478</v>
+        <v>5392.058581270414</v>
       </c>
       <c r="H93" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="I93" t="n">
-        <v>6428567</v>
+        <v>6453968</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>299065055</v>
+        <v>300715959</v>
       </c>
       <c r="E94" t="n">
-        <v>303743278</v>
+        <v>305418663</v>
       </c>
       <c r="F94" t="n">
-        <v>6389.961664825078</v>
+        <v>6342.505138250505</v>
       </c>
       <c r="G94" t="n">
-        <v>7807.420828004163</v>
+        <v>8092.354931442324</v>
       </c>
       <c r="H94" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="I94" t="n">
-        <v>25269380</v>
+        <v>24541779</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1002.658103791849</v>
+        <v>3601.863833389278</v>
       </c>
       <c r="G95" t="n">
-        <v>6515.665808683589</v>
+        <v>6397.266774410169</v>
       </c>
       <c r="H95" t="n">
         <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>163470</v>
+        <v>159673</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77979808</v>
+        <v>78246867</v>
       </c>
       <c r="E96" t="n">
-        <v>77979808</v>
+        <v>78246867</v>
       </c>
       <c r="F96" t="n">
-        <v>10669.87028492021</v>
+        <v>8775.940442721694</v>
       </c>
       <c r="G96" t="n">
-        <v>4911.873660721671</v>
+        <v>5164.015934401012</v>
       </c>
       <c r="H96" t="n">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
       <c r="I96" t="n">
-        <v>4434719</v>
+        <v>4653758</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301016671</v>
+        <v>300311758</v>
       </c>
       <c r="E97" t="n">
-        <v>301016671</v>
+        <v>300311758</v>
       </c>
       <c r="F97" t="n">
-        <v>288014.4006285334</v>
+        <v>268594.1099684524</v>
       </c>
       <c r="G97" t="n">
-        <v>446387.5402542095</v>
+        <v>464009.8862986226</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>111913143</v>
+        <v>113113742</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4584841</v>
+        <v>4591996</v>
       </c>
       <c r="E98" t="n">
-        <v>31327897</v>
+        <v>31376788</v>
       </c>
       <c r="F98" t="n">
-        <v>5041.955942786583</v>
+        <v>5075.948248786104</v>
       </c>
       <c r="G98" t="n">
-        <v>4809.987910843459</v>
+        <v>213.0762994007686</v>
       </c>
       <c r="H98" t="n">
         <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>3052479</v>
+        <v>3056080</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84247918</v>
+        <v>84497781</v>
       </c>
       <c r="E99" t="n">
-        <v>485472841</v>
+        <v>486912658</v>
       </c>
       <c r="F99" t="n">
-        <v>149399.5480971564</v>
+        <v>155620.7448920439</v>
       </c>
       <c r="G99" t="n">
-        <v>158575.0146454191</v>
+        <v>148095.1875664912</v>
       </c>
       <c r="H99" t="n">
         <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>21610378</v>
+        <v>21138249</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108932105</v>
+        <v>109062227</v>
       </c>
       <c r="E100" t="n">
-        <v>268015538</v>
+        <v>268335687</v>
       </c>
       <c r="F100" t="n">
-        <v>46288.38788446702</v>
+        <v>41493.38477709109</v>
       </c>
       <c r="G100" t="n">
-        <v>30190.51621316289</v>
+        <v>31831.65546468972</v>
       </c>
       <c r="H100" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="I100" t="n">
-        <v>3184917</v>
+        <v>3256546</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>238361486</v>
+        <v>238585077</v>
       </c>
       <c r="E101" t="n">
-        <v>238363854</v>
+        <v>238587447</v>
       </c>
       <c r="F101" t="n">
-        <v>11123.69835887452</v>
+        <v>10181.16268694552</v>
       </c>
       <c r="G101" t="n">
-        <v>26734.34101973836</v>
+        <v>26739.78771380753</v>
       </c>
       <c r="H101" t="n">
         <v>0.23</v>
       </c>
       <c r="I101" t="n">
-        <v>2990825</v>
+        <v>2987842</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30621575</v>
+        <v>30959789</v>
       </c>
       <c r="E102" t="n">
-        <v>137105354</v>
+        <v>138619678</v>
       </c>
       <c r="F102" t="n">
-        <v>61429.04325093084</v>
+        <v>63410.32303517874</v>
       </c>
       <c r="G102" t="n">
-        <v>128409.739132304</v>
+        <v>107525.5330427833</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I102" t="n">
-        <v>17494699</v>
+        <v>17825500</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2870236</v>
+        <v>2858753</v>
       </c>
       <c r="E103" t="n">
-        <v>2870236</v>
+        <v>2858753</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>292765</v>
+        <v>296670</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5969593</v>
+        <v>5963281</v>
       </c>
       <c r="E104" t="n">
-        <v>15667176</v>
+        <v>15650609</v>
       </c>
       <c r="F104" t="n">
-        <v>624.7786236301507</v>
+        <v>640.2455025394319</v>
       </c>
       <c r="G104" t="n">
-        <v>610.3855672667081</v>
+        <v>624.2219841693095</v>
       </c>
       <c r="H104" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="I104" t="n">
-        <v>27975</v>
+        <v>27642</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16245828</v>
+        <v>16265867</v>
       </c>
       <c r="E105" t="n">
-        <v>74988666</v>
+        <v>75081164</v>
       </c>
       <c r="F105" t="n">
-        <v>7182.280330378787</v>
+        <v>7940.362925728233</v>
       </c>
       <c r="G105" t="n">
-        <v>5763.272778916555</v>
+        <v>5407.238532690258</v>
       </c>
       <c r="H105" t="n">
         <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1200406</v>
+        <v>1177780</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47974650</v>
+        <v>47888711</v>
       </c>
       <c r="E106" t="n">
-        <v>311102839</v>
+        <v>310545545</v>
       </c>
       <c r="F106" t="n">
-        <v>117586.6103304464</v>
+        <v>115173.8614957158</v>
       </c>
       <c r="G106" t="n">
-        <v>129229.0557538939</v>
+        <v>146589.0281306263</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>22103396</v>
+        <v>21908660</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2436705</v>
+        <v>2438540</v>
       </c>
       <c r="E107" t="n">
-        <v>4414550</v>
+        <v>4417874</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>96256</v>
+        <v>90361</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124041426</v>
+        <v>124143298</v>
       </c>
       <c r="E108" t="n">
-        <v>2054227610</v>
+        <v>2055914683</v>
       </c>
       <c r="F108" t="n">
-        <v>30603.45927693631</v>
+        <v>27343.04245670847</v>
       </c>
       <c r="G108" t="n">
-        <v>148843.9507840727</v>
+        <v>164090.3146342305</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>45021067</v>
+        <v>46892136</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23065732</v>
+        <v>23089849</v>
       </c>
       <c r="E109" t="n">
-        <v>138006913</v>
+        <v>138151209</v>
       </c>
       <c r="F109" t="n">
-        <v>4710.25103338076</v>
+        <v>39895.09972388455</v>
       </c>
       <c r="G109" t="n">
-        <v>37253.67817871042</v>
+        <v>37298.29511260983</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I109" t="n">
-        <v>18048167</v>
+        <v>18101191</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1030250</v>
+        <v>1034286</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>91111</v>
+        <v>90805</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2401677</v>
+        <v>2410563</v>
       </c>
       <c r="F111" t="n">
-        <v>4568.357679625944</v>
+        <v>4761.855082474839</v>
       </c>
       <c r="G111" t="n">
-        <v>230.993849922506</v>
+        <v>175.9624188376743</v>
       </c>
       <c r="H111" t="n">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="I111" t="n">
-        <v>220473</v>
+        <v>219684</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149799197</v>
+        <v>149824634</v>
       </c>
       <c r="F112" t="n">
-        <v>4945.998998701874</v>
+        <v>5341.499946005686</v>
       </c>
       <c r="G112" t="n">
-        <v>3964.441528444857</v>
+        <v>3348.851145532225</v>
       </c>
       <c r="H112" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>79085</v>
+        <v>79226</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6155548</v>
+        <v>6171211</v>
       </c>
       <c r="E113" t="n">
-        <v>31668425</v>
+        <v>31749006</v>
       </c>
       <c r="F113" t="n">
-        <v>1138.354386156682</v>
+        <v>569.8462208855462</v>
       </c>
       <c r="G113" t="n">
-        <v>539.6586119710498</v>
+        <v>994.9246408844919</v>
       </c>
       <c r="H113" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I113" t="n">
-        <v>959552</v>
+        <v>955267</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>29931536</v>
+        <v>30089316</v>
       </c>
       <c r="E114" t="n">
-        <v>41041369</v>
+        <v>41257713</v>
       </c>
       <c r="F114" t="n">
-        <v>3874.523152323011</v>
+        <v>3997.571714771607</v>
       </c>
       <c r="G114" t="n">
-        <v>5703.331806518673</v>
+        <v>5881.476394556457</v>
       </c>
       <c r="H114" t="n">
         <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>1502130</v>
+        <v>1477076</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7584560</v>
+        <v>7582423</v>
       </c>
       <c r="F115" t="n">
-        <v>1734.57247524797</v>
+        <v>1601.908622406381</v>
       </c>
       <c r="G115" t="n">
-        <v>5671.359156185839</v>
+        <v>5665.763535345539</v>
       </c>
       <c r="H115" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I115" t="n">
-        <v>678549</v>
+        <v>568340</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3559739</v>
+        <v>3511003</v>
       </c>
       <c r="E116" t="n">
-        <v>4768496</v>
+        <v>4703210</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>125773</v>
+        <v>124132</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32479015</v>
+        <v>32588409</v>
       </c>
       <c r="E117" t="n">
-        <v>162085257</v>
+        <v>162631185</v>
       </c>
       <c r="F117" t="n">
-        <v>102797.4767741971</v>
+        <v>111952.2067205516</v>
       </c>
       <c r="G117" t="n">
-        <v>85765.16113460441</v>
+        <v>73333.56867280837</v>
       </c>
       <c r="H117" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>13873097</v>
+        <v>13898282</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3495008</v>
+        <v>3492003</v>
       </c>
       <c r="E118" t="n">
-        <v>5020641</v>
+        <v>5016324</v>
       </c>
       <c r="F118" t="n">
-        <v>617.2623419754208</v>
+        <v>617.277001587694</v>
       </c>
       <c r="G118" t="n">
-        <v>764.8353453236628</v>
+        <v>764.8535097067021</v>
       </c>
       <c r="H118" t="n">
         <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>161034</v>
+        <v>165021</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>293186287</v>
+        <v>302732407</v>
       </c>
       <c r="E119" t="n">
-        <v>542461490</v>
+        <v>560123990</v>
       </c>
       <c r="F119" t="n">
-        <v>20064.78004457567</v>
+        <v>28318.88702050144</v>
       </c>
       <c r="G119" t="n">
-        <v>33839.68273840595</v>
+        <v>37189.0596005148</v>
       </c>
       <c r="H119" t="n">
-        <v>0.28</v>
+        <v>0.05</v>
       </c>
       <c r="I119" t="n">
-        <v>25352447</v>
+        <v>28658407</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69002620</v>
+        <v>68980061</v>
       </c>
       <c r="E120" t="n">
-        <v>658104065</v>
+        <v>657882236</v>
       </c>
       <c r="F120" t="n">
-        <v>2584.550832822454</v>
+        <v>2396.152483696162</v>
       </c>
       <c r="G120" t="n">
-        <v>2563.13069116851</v>
+        <v>2637.984136474427</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>25711247</v>
+        <v>25471289</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37094511</v>
+        <v>36978033</v>
       </c>
       <c r="E121" t="n">
-        <v>48493565</v>
+        <v>48341065</v>
       </c>
       <c r="F121" t="n">
-        <v>164.1463817722178</v>
+        <v>5733.525051874313</v>
       </c>
       <c r="G121" t="n">
-        <v>3361.50284519177</v>
+        <v>2064.373299970473</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="I121" t="n">
-        <v>531196</v>
+        <v>533346</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9403975</v>
+        <v>9446764</v>
       </c>
       <c r="E122" t="n">
-        <v>27878444</v>
+        <v>28005296</v>
       </c>
       <c r="F122" t="n">
-        <v>2354.236572148487</v>
+        <v>2083.035683067244</v>
       </c>
       <c r="G122" t="n">
-        <v>7680.334644534855</v>
+        <v>7414.152926490679</v>
       </c>
       <c r="H122" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="I122" t="n">
-        <v>6795429</v>
+        <v>6543797</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2278658</v>
+        <v>2276023</v>
       </c>
       <c r="E123" t="n">
-        <v>7614440</v>
+        <v>7605635</v>
       </c>
       <c r="F123" t="n">
-        <v>542.4719959919331</v>
+        <v>611.3026618447263</v>
       </c>
       <c r="G123" t="n">
-        <v>634.1438153001584</v>
+        <v>1340.397551051059</v>
       </c>
       <c r="H123" t="n">
-        <v>1.93</v>
+        <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>982341</v>
+        <v>1001308</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7340895</v>
+        <v>7286019</v>
       </c>
       <c r="E124" t="n">
-        <v>7340906</v>
+        <v>7286030</v>
       </c>
       <c r="F124" t="n">
-        <v>47.60388429064125</v>
+        <v>536.8801321246558</v>
       </c>
       <c r="G124" t="n">
-        <v>466.0272273053171</v>
+        <v>757.7243561614057</v>
       </c>
       <c r="H124" t="n">
-        <v>2.42</v>
+        <v>2.21</v>
       </c>
       <c r="I124" t="n">
-        <v>237092</v>
+        <v>232305</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6301758</v>
+        <v>6294418</v>
       </c>
       <c r="E125" t="n">
-        <v>6301758</v>
+        <v>6294418</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>575588</v>
+        <v>584383</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6136538</v>
+        <v>6148081</v>
       </c>
       <c r="E126" t="n">
-        <v>22414399</v>
+        <v>22456560</v>
       </c>
       <c r="F126" t="n">
-        <v>6751.45616875833</v>
+        <v>6767.304962264588</v>
       </c>
       <c r="G126" t="n">
-        <v>8347.620499888657</v>
+        <v>8630.528976809102</v>
       </c>
       <c r="H126" t="n">
         <v>0.76</v>
       </c>
       <c r="I126" t="n">
-        <v>559705</v>
+        <v>557740</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>43891212</v>
+        <v>44092630</v>
       </c>
       <c r="E127" t="n">
-        <v>43891212</v>
+        <v>44092630</v>
       </c>
       <c r="F127" t="n">
-        <v>57823.05721573449</v>
+        <v>60712.83514535461</v>
       </c>
       <c r="G127" t="n">
-        <v>75788.28036716639</v>
+        <v>76614.87646352925</v>
       </c>
       <c r="H127" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="I127" t="n">
-        <v>12431398</v>
+        <v>11431845</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>140539633</v>
+        <v>141459348</v>
       </c>
       <c r="F128" t="n">
-        <v>55.75622840764861</v>
+        <v>313.9795779131774</v>
       </c>
       <c r="G128" t="n">
-        <v>2533.487746757704</v>
+        <v>2541.631956274721</v>
       </c>
       <c r="H128" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="I128" t="n">
-        <v>1531254</v>
+        <v>1757264</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2898275</v>
+        <v>2914937</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>72064</v>
+        <v>70735</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19498485</v>
+        <v>19504037</v>
       </c>
       <c r="F130" t="n">
-        <v>262.3632855378293</v>
+        <v>504.578127318494</v>
       </c>
       <c r="G130" t="n">
-        <v>1255.141254119957</v>
+        <v>1340.693016755629</v>
       </c>
       <c r="H130" t="n">
-        <v>1.88</v>
+        <v>1.02</v>
       </c>
       <c r="I130" t="n">
-        <v>2924959</v>
+        <v>2921081</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1284610</v>
+        <v>1279742</v>
       </c>
       <c r="E131" t="n">
-        <v>3878053</v>
+        <v>3863163</v>
       </c>
       <c r="F131" t="n">
-        <v>829.683815907701</v>
+        <v>830.1670385449951</v>
       </c>
       <c r="G131" t="n">
-        <v>696.1499851504394</v>
+        <v>596.7754442962573</v>
       </c>
       <c r="H131" t="n">
         <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>44918</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>582299414</v>
+        <v>583070583</v>
       </c>
       <c r="E132" t="n">
-        <v>2255159719</v>
+        <v>2258146344</v>
       </c>
       <c r="F132" t="n">
-        <v>691870.5478167788</v>
+        <v>732733.3296472947</v>
       </c>
       <c r="G132" t="n">
-        <v>1006317.812230383</v>
+        <v>1042614.537185335</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62329396</v>
+        <v>61872769</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3627233</v>
+        <v>3620752</v>
       </c>
       <c r="E133" t="n">
-        <v>6183111</v>
+        <v>6172064</v>
       </c>
       <c r="F133" t="n">
-        <v>4255.844145780205</v>
+        <v>5123.315993942789</v>
       </c>
       <c r="G133" t="n">
-        <v>4579.701510483225</v>
+        <v>5166.543068763894</v>
       </c>
       <c r="H133" t="n">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="I133" t="n">
-        <v>1149481</v>
+        <v>1153881</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109071012</v>
+        <v>109540499</v>
       </c>
       <c r="E134" t="n">
-        <v>1032004033</v>
+        <v>1036446209</v>
       </c>
       <c r="F134" t="n">
-        <v>109042.5777455582</v>
+        <v>110518.7027417232</v>
       </c>
       <c r="G134" t="n">
-        <v>102037.2034376951</v>
+        <v>106662.5888919118</v>
       </c>
       <c r="H134" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I134" t="n">
-        <v>17931029</v>
+        <v>17789821</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>975488887</v>
+        <v>995064468</v>
       </c>
       <c r="E135" t="n">
-        <v>1071577216</v>
+        <v>1093081045</v>
       </c>
       <c r="F135" t="n">
-        <v>14495.42776172506</v>
+        <v>14178.1660078001</v>
       </c>
       <c r="G135" t="n">
-        <v>19595.32006714291</v>
+        <v>14484.00533938352</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="I135" t="n">
-        <v>10333086</v>
+        <v>10520419</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1063690</v>
+        <v>1068292</v>
       </c>
       <c r="E136" t="n">
-        <v>4118839</v>
+        <v>4136660</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>197256</v>
+        <v>275278</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122278087</v>
+        <v>122954769</v>
       </c>
       <c r="E137" t="n">
-        <v>469078424</v>
+        <v>471674283</v>
       </c>
       <c r="F137" t="n">
-        <v>141995.8661497273</v>
+        <v>182882.0893681953</v>
       </c>
       <c r="G137" t="n">
-        <v>220243.0044305621</v>
+        <v>240885.5700245297</v>
       </c>
       <c r="H137" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32654162</v>
+        <v>32497058</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3087661</v>
+        <v>3099506</v>
       </c>
       <c r="E138" t="n">
-        <v>29256045</v>
+        <v>29368274</v>
       </c>
       <c r="F138" t="n">
-        <v>3044.110250253999</v>
+        <v>2968.535700610611</v>
       </c>
       <c r="G138" t="n">
-        <v>4392.922022294145</v>
+        <v>5138.846359766147</v>
       </c>
       <c r="H138" t="n">
-        <v>0.27</v>
+        <v>0.41</v>
       </c>
       <c r="I138" t="n">
-        <v>228187</v>
+        <v>275518</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22748366</v>
+        <v>22752405</v>
       </c>
       <c r="E139" t="n">
-        <v>22748366</v>
+        <v>22752405</v>
       </c>
       <c r="F139" t="n">
-        <v>1527.477271703256</v>
+        <v>1503.90830801803</v>
       </c>
       <c r="G139" t="n">
-        <v>888.8412307793541</v>
+        <v>1366.784185242888</v>
       </c>
       <c r="H139" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="I139" t="n">
-        <v>844773</v>
+        <v>821537</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494570794</v>
+        <v>494778280</v>
       </c>
       <c r="E140" t="n">
-        <v>494570794</v>
+        <v>494778280</v>
       </c>
       <c r="F140" t="n">
-        <v>913194.8136985875</v>
+        <v>897705.913196264</v>
       </c>
       <c r="G140" t="n">
-        <v>856657.8134531283</v>
+        <v>869073.6244055314</v>
       </c>
       <c r="H140" t="n">
         <v>0.03</v>
       </c>
       <c r="I140" t="n">
-        <v>48949003</v>
+        <v>48837167</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>41955767</v>
+        <v>42216685</v>
       </c>
       <c r="F141" t="n">
-        <v>76946.12135838046</v>
+        <v>50788.60426626525</v>
       </c>
       <c r="G141" t="n">
-        <v>58861.4542811188</v>
+        <v>61840.22758881256</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I141" t="n">
-        <v>10453932</v>
+        <v>10366775</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>771876</v>
+        <v>781538</v>
       </c>
       <c r="E142" t="n">
-        <v>12311142</v>
+        <v>12465261</v>
       </c>
       <c r="F142" t="n">
-        <v>1132.199353250968</v>
+        <v>1118.615107227031</v>
       </c>
       <c r="G142" t="n">
-        <v>51.96913853519055</v>
+        <v>51.97037277121841</v>
       </c>
       <c r="H142" t="n">
         <v>2.3</v>
       </c>
       <c r="I142" t="n">
-        <v>337940</v>
+        <v>335661</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2551452861</v>
+        <v>2557564629</v>
       </c>
       <c r="E143" t="n">
-        <v>2708979043</v>
+        <v>2715468150</v>
       </c>
       <c r="F143" t="n">
-        <v>3608.553832040175</v>
+        <v>3466.61573341464</v>
       </c>
       <c r="G143" t="n">
-        <v>23732.37244390959</v>
+        <v>23451.22196946032</v>
       </c>
       <c r="H143" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="I143" t="n">
-        <v>61158919</v>
+        <v>61283568</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1699845</v>
+        <v>1700503</v>
       </c>
       <c r="E144" t="n">
-        <v>1705845</v>
+        <v>1706505</v>
       </c>
       <c r="F144" t="n">
-        <v>577.8474958657308</v>
+        <v>225.6553542800975</v>
       </c>
       <c r="G144" t="n">
-        <v>268.3009932156828</v>
+        <v>2388.864556785953</v>
       </c>
       <c r="H144" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="I144" t="n">
-        <v>424629</v>
+        <v>435794</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>54561499</v>
+        <v>55475961</v>
       </c>
       <c r="E145" t="n">
-        <v>133835660</v>
+        <v>136078771</v>
       </c>
       <c r="F145" t="n">
-        <v>4560.876636570342</v>
+        <v>5735.859629825584</v>
       </c>
       <c r="G145" t="n">
-        <v>5011.026739166913</v>
+        <v>4160.128537729654</v>
       </c>
       <c r="H145" t="n">
-        <v>0.25</v>
+        <v>0.74</v>
       </c>
       <c r="I145" t="n">
-        <v>21807962</v>
+        <v>22119486</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>753521295</v>
+        <v>751536405</v>
       </c>
       <c r="E146" t="n">
-        <v>1161996367</v>
+        <v>1158935490</v>
       </c>
       <c r="F146" t="n">
-        <v>114523.4358890333</v>
+        <v>136388.7997406945</v>
       </c>
       <c r="G146" t="n">
-        <v>157746.9871000556</v>
+        <v>150783.6314433874</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>337566401</v>
+        <v>277760206</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22511866</v>
+        <v>23030805</v>
       </c>
       <c r="E147" t="n">
-        <v>22511866</v>
+        <v>23030805</v>
       </c>
       <c r="F147" t="n">
-        <v>4226.272408864843</v>
+        <v>3689.821592008142</v>
       </c>
       <c r="G147" t="n">
-        <v>5921.07069488022</v>
+        <v>6382.303609273406</v>
       </c>
       <c r="H147" t="n">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="I147" t="n">
-        <v>5566771</v>
+        <v>5402863</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3798359</v>
+        <v>3799150</v>
       </c>
       <c r="E148" t="n">
-        <v>8279890</v>
+        <v>8281614</v>
       </c>
       <c r="F148" t="n">
-        <v>6704.490793449541</v>
+        <v>6822.247027020929</v>
       </c>
       <c r="G148" t="n">
-        <v>7112.839504783133</v>
+        <v>7192.455886149505</v>
       </c>
       <c r="H148" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="I148" t="n">
-        <v>2204684</v>
+        <v>2222081</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9243037</v>
+        <v>9253819</v>
       </c>
       <c r="E149" t="n">
-        <v>9243037</v>
+        <v>9253819</v>
       </c>
       <c r="F149" t="n">
-        <v>79003.0591197178</v>
+        <v>535655.215288879</v>
       </c>
       <c r="G149" t="n">
-        <v>85277.84845966302</v>
+        <v>281309.1370065169</v>
       </c>
       <c r="H149" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I149" t="n">
-        <v>423068</v>
+        <v>6593715</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>468148337</v>
+        <v>470271132</v>
       </c>
       <c r="E150" t="n">
-        <v>1628759485</v>
+        <v>1636145015</v>
       </c>
       <c r="F150" t="n">
-        <v>706870.9611914543</v>
+        <v>766407.8824248513</v>
       </c>
       <c r="G150" t="n">
-        <v>694677.6732919599</v>
+        <v>853833.5231398977</v>
       </c>
       <c r="H150" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>50410187</v>
+        <v>49175296</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>45939482</v>
+        <v>46642855</v>
       </c>
       <c r="E151" t="n">
-        <v>113086386</v>
+        <v>114817842</v>
       </c>
       <c r="F151" t="n">
-        <v>8355.448974961633</v>
+        <v>7968.163636280938</v>
       </c>
       <c r="G151" t="n">
-        <v>8193.719145341804</v>
+        <v>4858.107740570703</v>
       </c>
       <c r="H151" t="n">
         <v>0.18</v>
       </c>
       <c r="I151" t="n">
-        <v>174898</v>
+        <v>175513</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7032029</v>
+        <v>7108724</v>
       </c>
       <c r="E152" t="n">
-        <v>18268456</v>
+        <v>18467700</v>
       </c>
       <c r="F152" t="n">
-        <v>6378.64124316437</v>
+        <v>6375.556701559827</v>
       </c>
       <c r="G152" t="n">
-        <v>5523.953368855349</v>
+        <v>95.88489429250801</v>
       </c>
       <c r="H152" t="n">
         <v>2.13</v>
       </c>
       <c r="I152" t="n">
-        <v>795691</v>
+        <v>791780</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18926747148</v>
+        <v>18928652876</v>
       </c>
       <c r="F153" t="n">
-        <v>1473.166482973362</v>
+        <v>1494.609596947438</v>
       </c>
       <c r="G153" t="n">
-        <v>29462.8445011957</v>
+        <v>29463.54422617078</v>
       </c>
       <c r="H153" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="I153" t="n">
-        <v>20964213</v>
+        <v>19992848</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2300322</v>
+        <v>2296285</v>
       </c>
       <c r="E154" t="n">
-        <v>9201289</v>
+        <v>9185138</v>
       </c>
       <c r="F154" t="n">
-        <v>1293.31052026996</v>
+        <v>1188.167116845313</v>
       </c>
       <c r="G154" t="n">
-        <v>1514.381356592713</v>
+        <v>1738.150254788582</v>
       </c>
       <c r="H154" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I154" t="n">
-        <v>8033123</v>
+        <v>7359690</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>210283093</v>
+        <v>210684195</v>
       </c>
       <c r="E155" t="n">
-        <v>646541378</v>
+        <v>647774613</v>
       </c>
       <c r="F155" t="n">
-        <v>43582.1697442478</v>
+        <v>35328.71942362515</v>
       </c>
       <c r="G155" t="n">
-        <v>54234.23644215426</v>
+        <v>64602.9358451752</v>
       </c>
       <c r="H155" t="n">
         <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>23629163</v>
+        <v>23145756</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>379663916</v>
+        <v>378777703</v>
       </c>
       <c r="E156" t="n">
-        <v>2169508092</v>
+        <v>2164444017</v>
       </c>
       <c r="F156" t="n">
-        <v>265996.3869248346</v>
+        <v>276212.8892683287</v>
       </c>
       <c r="G156" t="n">
-        <v>345191.8198148647</v>
+        <v>351124.4193206773</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>63556728</v>
+        <v>64830084</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3793603</v>
+        <v>3830155</v>
       </c>
       <c r="F2" t="n">
-        <v>77.02010080241455</v>
+        <v>136.2593814524774</v>
       </c>
       <c r="G2" t="n">
-        <v>606.0655621401492</v>
+        <v>1199.145305280243</v>
       </c>
       <c r="H2" t="n">
-        <v>1.03</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
-        <v>136732</v>
+        <v>135176</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>600240096</v>
+        <v>611794581</v>
       </c>
       <c r="E3" t="n">
-        <v>1164919909</v>
+        <v>1187344384</v>
       </c>
       <c r="F3" t="n">
-        <v>11312.85835155243</v>
+        <v>16292.63386343921</v>
       </c>
       <c r="G3" t="n">
-        <v>14855.9517861165</v>
+        <v>33540.200493255</v>
       </c>
       <c r="H3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>49325722</v>
+        <v>49927008</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251855794</v>
+        <v>251938715</v>
       </c>
       <c r="E4" t="n">
-        <v>1579352281</v>
+        <v>1579872272</v>
       </c>
       <c r="F4" t="n">
-        <v>211960.4448139369</v>
+        <v>170985.7265110755</v>
       </c>
       <c r="G4" t="n">
-        <v>238501.5947406274</v>
+        <v>333971.9244861195</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29959336</v>
+        <v>29679804</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140249643</v>
+        <v>140652894</v>
       </c>
       <c r="E5" t="n">
-        <v>155418523</v>
+        <v>155865388</v>
       </c>
       <c r="F5" t="n">
-        <v>8346.573130652847</v>
+        <v>8782.070584153313</v>
       </c>
       <c r="G5" t="n">
-        <v>1024.580254020897</v>
+        <v>501.6526080566771</v>
       </c>
       <c r="H5" t="n">
         <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>52718282</v>
+        <v>52421355</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49835840</v>
+        <v>49449393</v>
       </c>
       <c r="E6" t="n">
-        <v>62343358</v>
+        <v>61859922</v>
       </c>
       <c r="F6" t="n">
-        <v>5999.624783485203</v>
+        <v>3446.418991308861</v>
       </c>
       <c r="G6" t="n">
-        <v>5363.643118049907</v>
+        <v>7084.440104577469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I6" t="n">
-        <v>760068</v>
+        <v>753936</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65649756</v>
+        <v>66376443</v>
       </c>
       <c r="E7" t="n">
-        <v>130726112</v>
+        <v>132173137</v>
       </c>
       <c r="F7" t="n">
-        <v>10618.08032023162</v>
+        <v>11522.32630041052</v>
       </c>
       <c r="G7" t="n">
-        <v>12182.10081850822</v>
+        <v>13433.79303442193</v>
       </c>
       <c r="H7" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>948544</v>
+        <v>955910</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42758863</v>
+        <v>42466361</v>
       </c>
       <c r="E8" t="n">
-        <v>47853326</v>
+        <v>47525975</v>
       </c>
       <c r="F8" t="n">
-        <v>708.112463943397</v>
+        <v>301.699673450971</v>
       </c>
       <c r="G8" t="n">
-        <v>235.4566269202336</v>
+        <v>604.9832010716598</v>
       </c>
       <c r="H8" t="n">
-        <v>0.64</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>13774777</v>
+        <v>14018643</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13794165</v>
+        <v>13724590</v>
       </c>
       <c r="E9" t="n">
-        <v>40650515</v>
+        <v>40445481</v>
       </c>
       <c r="F9" t="n">
-        <v>5181.926642352315</v>
+        <v>4918.00492141734</v>
       </c>
       <c r="G9" t="n">
-        <v>4599.966349301295</v>
+        <v>4672.788151063164</v>
       </c>
       <c r="H9" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="I9" t="n">
-        <v>816589</v>
+        <v>802068</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9970748</v>
+        <v>9395341</v>
       </c>
       <c r="E10" t="n">
-        <v>42859824</v>
+        <v>40386402</v>
       </c>
       <c r="F10" t="n">
-        <v>940.026451021262</v>
+        <v>420.7165762955997</v>
       </c>
       <c r="G10" t="n">
-        <v>217.6124387377862</v>
+        <v>800.9337791046502</v>
       </c>
       <c r="H10" t="n">
-        <v>0.28</v>
+        <v>1.08</v>
       </c>
       <c r="I10" t="n">
-        <v>770558</v>
+        <v>675840</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>551193156</v>
+        <v>551097111</v>
       </c>
       <c r="E11" t="n">
-        <v>689460717</v>
+        <v>689340579</v>
       </c>
       <c r="F11" t="n">
-        <v>267766.1397318495</v>
+        <v>337816.5064425001</v>
       </c>
       <c r="G11" t="n">
-        <v>267900.5922087816</v>
+        <v>285665.3063747474</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>97514341</v>
+        <v>97416658</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4374743</v>
+        <v>4349571</v>
       </c>
       <c r="E12" t="n">
-        <v>26860130</v>
+        <v>26705579</v>
       </c>
       <c r="F12" t="n">
-        <v>10567.74057297016</v>
+        <v>10148.22785079608</v>
       </c>
       <c r="G12" t="n">
-        <v>7792.263843843466</v>
+        <v>10407.93520913643</v>
       </c>
       <c r="H12" t="n">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="I12" t="n">
-        <v>428075</v>
+        <v>301635</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23528584</v>
+        <v>23459824</v>
       </c>
       <c r="E13" t="n">
-        <v>23571574</v>
+        <v>23502689</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>868457</v>
+        <v>862651</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79266083</v>
+        <v>79548317</v>
       </c>
       <c r="E14" t="n">
-        <v>233210646</v>
+        <v>234041014</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>441463</v>
+        <v>438352</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>472368129</v>
+        <v>472258018</v>
       </c>
       <c r="E15" t="n">
-        <v>472368131</v>
+        <v>472258018</v>
       </c>
       <c r="F15" t="n">
-        <v>25432.48304323308</v>
+        <v>25728.13892691718</v>
       </c>
       <c r="G15" t="n">
-        <v>24435.08499299059</v>
+        <v>26077.62399018302</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>73203581</v>
+        <v>73171275</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4607269</v>
+        <v>4634884</v>
       </c>
       <c r="E16" t="n">
-        <v>4607269</v>
+        <v>4634884</v>
       </c>
       <c r="F16" t="n">
-        <v>6929.412894990255</v>
+        <v>197.1692294347125</v>
       </c>
       <c r="G16" t="n">
-        <v>1199.52061533297</v>
+        <v>1211.484204299629</v>
       </c>
       <c r="H16" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2217289</v>
+        <v>2303126</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3291290</v>
+        <v>3262973</v>
       </c>
       <c r="E17" t="n">
-        <v>3291290</v>
+        <v>3262973</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>740196</v>
+        <v>733377</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>169822309</v>
+        <v>168215615</v>
       </c>
       <c r="E18" t="n">
-        <v>210247090</v>
+        <v>208257936</v>
       </c>
       <c r="F18" t="n">
-        <v>9619.968241757813</v>
+        <v>9457.434800843495</v>
       </c>
       <c r="G18" t="n">
-        <v>8744.80153194776</v>
+        <v>7814.771707474237</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="I18" t="n">
-        <v>570396</v>
+        <v>517162</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6766864</v>
+        <v>6383721</v>
       </c>
       <c r="E19" t="n">
-        <v>9319701</v>
+        <v>8792015</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>420615</v>
+        <v>387483</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>889356</v>
+        <v>880844</v>
       </c>
       <c r="E20" t="n">
-        <v>6225494</v>
+        <v>6165910</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>187195</v>
+        <v>148004</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115017145</v>
+        <v>115172760</v>
       </c>
       <c r="E21" t="n">
-        <v>446884965</v>
+        <v>447463811</v>
       </c>
       <c r="F21" t="n">
-        <v>11048.29139444457</v>
+        <v>16829.72894159046</v>
       </c>
       <c r="G21" t="n">
-        <v>16722.14338093293</v>
+        <v>15161.25809983175</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>13411808</v>
+        <v>12476912</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1715680</v>
+        <v>1714978</v>
       </c>
       <c r="E22" t="n">
-        <v>12357900</v>
+        <v>12352844</v>
       </c>
       <c r="F22" t="n">
-        <v>4901.838054893267</v>
+        <v>4901.315903903207</v>
       </c>
       <c r="G22" t="n">
-        <v>4926.157188172895</v>
+        <v>4925.632446673036</v>
       </c>
       <c r="H22" t="n">
         <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>54825</v>
+        <v>54787</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>138856322</v>
+        <v>139484243</v>
       </c>
       <c r="E23" t="n">
-        <v>138856322</v>
+        <v>139484243</v>
       </c>
       <c r="F23" t="n">
-        <v>868986.943382838</v>
+        <v>1058422.891297185</v>
       </c>
       <c r="G23" t="n">
-        <v>1422925.85028926</v>
+        <v>1340367.085130967</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>95230493</v>
+        <v>94350219</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63483973</v>
+        <v>63222012</v>
       </c>
       <c r="E24" t="n">
-        <v>325558835</v>
+        <v>324215444</v>
       </c>
       <c r="F24" t="n">
-        <v>89813.92497235033</v>
+        <v>82817.36009406646</v>
       </c>
       <c r="G24" t="n">
-        <v>126522.1251548272</v>
+        <v>132769.7565767404</v>
       </c>
       <c r="H24" t="n">
         <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>23576626</v>
+        <v>24026129</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251162649</v>
+        <v>250533914</v>
       </c>
       <c r="E25" t="n">
-        <v>251162649</v>
+        <v>250533914</v>
       </c>
       <c r="F25" t="n">
-        <v>301766.8268357769</v>
+        <v>313493.8479709689</v>
       </c>
       <c r="G25" t="n">
-        <v>386485.4007036458</v>
+        <v>379098.5228276004</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>28189622</v>
+        <v>28447985</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1112878</v>
+        <v>1120331</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>119904</v>
+        <v>121510</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2221991</v>
+        <v>2219410</v>
       </c>
       <c r="E27" t="n">
-        <v>2484861</v>
+        <v>2480587</v>
       </c>
       <c r="F27" t="n">
-        <v>508.319391409602</v>
+        <v>360.2791874059558</v>
       </c>
       <c r="G27" t="n">
-        <v>60.14862589434326</v>
+        <v>336.8827026158049</v>
       </c>
       <c r="H27" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
       <c r="I27" t="n">
-        <v>524415</v>
+        <v>542963</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3785486</v>
+        <v>3787333</v>
       </c>
       <c r="E28" t="n">
-        <v>3786302</v>
+        <v>3788207</v>
       </c>
       <c r="F28" t="n">
-        <v>904.9923654386756</v>
+        <v>1122.234120534123</v>
       </c>
       <c r="G28" t="n">
-        <v>3854.882611319509</v>
+        <v>3674.785385159101</v>
       </c>
       <c r="H28" t="n">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
       <c r="I28" t="n">
-        <v>240222</v>
+        <v>238228</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6742954</v>
+        <v>6749454</v>
       </c>
       <c r="E29" t="n">
-        <v>16378116</v>
+        <v>16393904</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>426960</v>
+        <v>436458</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97484019</v>
+        <v>97487897</v>
       </c>
       <c r="E30" t="n">
-        <v>121551144</v>
+        <v>121555980</v>
       </c>
       <c r="F30" t="n">
-        <v>108690.2319997161</v>
+        <v>102823.4705974998</v>
       </c>
       <c r="G30" t="n">
-        <v>110772.3935088543</v>
+        <v>106583.1338296472</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13461822</v>
+        <v>13380642</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109667</v>
+        <v>1109235</v>
       </c>
       <c r="E31" t="n">
-        <v>12059448</v>
+        <v>12054751</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12826.98</v>
+        <v>12822.95</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>79059733</v>
+        <v>78409631</v>
       </c>
       <c r="E32" t="n">
-        <v>221225880</v>
+        <v>219445091</v>
       </c>
       <c r="F32" t="n">
-        <v>58980.18057159966</v>
+        <v>78928.57459109109</v>
       </c>
       <c r="G32" t="n">
-        <v>81024.52300953107</v>
+        <v>91635.55953363866</v>
       </c>
       <c r="H32" t="n">
         <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>57058336</v>
+        <v>61233531</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4127565</v>
+        <v>4107986</v>
       </c>
       <c r="E33" t="n">
-        <v>8139906</v>
+        <v>8101293</v>
       </c>
       <c r="F33" t="n">
-        <v>8661.015566881</v>
+        <v>10085.46020774565</v>
       </c>
       <c r="G33" t="n">
-        <v>6224.839201534942</v>
+        <v>6094.929514034825</v>
       </c>
       <c r="H33" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>1724623</v>
+        <v>1686570</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36375981</v>
+        <v>36233748</v>
       </c>
       <c r="F34" t="n">
-        <v>233.4145252974945</v>
+        <v>231.6864853964029</v>
       </c>
       <c r="G34" t="n">
-        <v>284.4046717906206</v>
+        <v>250.6167879798554</v>
       </c>
       <c r="H34" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="I34" t="n">
-        <v>16291.22</v>
+        <v>13817.56</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17175598</v>
+        <v>17116807</v>
       </c>
       <c r="E35" t="n">
-        <v>18102677</v>
+        <v>18040713</v>
       </c>
       <c r="F35" t="n">
-        <v>3487.208875289892</v>
+        <v>3481.051859111457</v>
       </c>
       <c r="G35" t="n">
-        <v>2570.951658956081</v>
+        <v>2570.256617198699</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>48967</v>
+        <v>47638</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23083596</v>
+        <v>23017405</v>
       </c>
       <c r="F36" t="n">
-        <v>5222.2948064544</v>
+        <v>5191.625273075509</v>
       </c>
       <c r="G36" t="n">
-        <v>5242.47810025376</v>
+        <v>5521.776081356301</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>126618</v>
+        <v>127007</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>85471819</v>
+        <v>85205464</v>
       </c>
       <c r="E37" t="n">
-        <v>178201879</v>
+        <v>177646549</v>
       </c>
       <c r="F37" t="n">
-        <v>55253.97819399383</v>
+        <v>64046.52259661811</v>
       </c>
       <c r="G37" t="n">
-        <v>56002.96877258024</v>
+        <v>43857.16369612904</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>84836473</v>
+        <v>85692851</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>274500450</v>
+        <v>276037714</v>
       </c>
       <c r="E38" t="n">
-        <v>274500450</v>
+        <v>276037714</v>
       </c>
       <c r="F38" t="n">
-        <v>28593.68149629214</v>
+        <v>27617.05840440602</v>
       </c>
       <c r="G38" t="n">
-        <v>30424.03993491844</v>
+        <v>30968.37369879109</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>11957318</v>
+        <v>11893603</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>195310409</v>
+        <v>193289298</v>
       </c>
       <c r="E39" t="n">
-        <v>678526012</v>
+        <v>671504490</v>
       </c>
       <c r="F39" t="n">
-        <v>141788.4984431229</v>
+        <v>125504.2671011548</v>
       </c>
       <c r="G39" t="n">
-        <v>294104.4096018432</v>
+        <v>300056.3871477997</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>41343114</v>
+        <v>41931553</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3346492</v>
+        <v>3270544</v>
       </c>
       <c r="E40" t="n">
-        <v>3346492</v>
+        <v>3270544</v>
       </c>
       <c r="F40" t="n">
-        <v>904.6174947944012</v>
+        <v>878.0117561233209</v>
       </c>
       <c r="G40" t="n">
-        <v>2509.021124387626</v>
+        <v>2743.320511188896</v>
       </c>
       <c r="H40" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I40" t="n">
-        <v>1770313</v>
+        <v>1703479</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>109162890</v>
+        <v>110992660</v>
       </c>
       <c r="E41" t="n">
-        <v>462658760</v>
+        <v>470348495</v>
       </c>
       <c r="F41" t="n">
-        <v>5361.347163787891</v>
+        <v>5334.746250816381</v>
       </c>
       <c r="G41" t="n">
-        <v>7417.359695812588</v>
+        <v>6571.49410321557</v>
       </c>
       <c r="H41" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="I41" t="n">
-        <v>14676056</v>
+        <v>15021833</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>533479</v>
+        <v>577093</v>
       </c>
       <c r="E42" t="n">
-        <v>6470582</v>
+        <v>6999573</v>
       </c>
       <c r="F42" t="n">
-        <v>386.6663100309001</v>
+        <v>855.6467113097634</v>
       </c>
       <c r="G42" t="n">
-        <v>547.6110294008558</v>
+        <v>442.7068701415348</v>
       </c>
       <c r="H42" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="I42" t="n">
-        <v>2966345</v>
+        <v>3061674</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1432883515</v>
+        <v>1429350864</v>
       </c>
       <c r="E43" t="n">
-        <v>6870969900</v>
+        <v>6854030115</v>
       </c>
       <c r="F43" t="n">
-        <v>17245.01094896474</v>
+        <v>46686.17493145928</v>
       </c>
       <c r="G43" t="n">
-        <v>24626.58346246905</v>
+        <v>50312.08367963818</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>584200999</v>
+        <v>579338487</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5891356462</v>
+        <v>5888622440</v>
       </c>
       <c r="E44" t="n">
-        <v>5891356462</v>
+        <v>5883437152</v>
       </c>
       <c r="F44" t="n">
-        <v>924302.9483135012</v>
+        <v>679851.9441485279</v>
       </c>
       <c r="G44" t="n">
-        <v>431913.1934410165</v>
+        <v>571478.038786676</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>431344587</v>
+        <v>431081434</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>261289688</v>
+        <v>262285374</v>
       </c>
       <c r="E45" t="n">
-        <v>1127871348</v>
+        <v>1132169279</v>
       </c>
       <c r="F45" t="n">
-        <v>104252.636606559</v>
+        <v>97467.79079994578</v>
       </c>
       <c r="G45" t="n">
-        <v>89290.71812201593</v>
+        <v>105782.0219816524</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>141479259</v>
+        <v>142089759</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>119669312</v>
+        <v>119040982</v>
       </c>
       <c r="E46" t="n">
-        <v>119669312</v>
+        <v>119040982</v>
       </c>
       <c r="F46" t="n">
-        <v>22787.67157505423</v>
+        <v>26878.0129323998</v>
       </c>
       <c r="G46" t="n">
-        <v>28617.07831480806</v>
+        <v>26049.10608279236</v>
       </c>
       <c r="H46" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="I46" t="n">
-        <v>9415504</v>
+        <v>9723577</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2043590192</v>
+        <v>2042538697</v>
       </c>
       <c r="E47" t="n">
-        <v>2043590192</v>
+        <v>2042538697</v>
       </c>
       <c r="F47" t="n">
-        <v>226968.5641936458</v>
+        <v>221165.0748996864</v>
       </c>
       <c r="G47" t="n">
-        <v>200104.9539950064</v>
+        <v>194133.3358178903</v>
       </c>
       <c r="H47" t="n">
         <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>9111335503</v>
+        <v>9037056715</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10274562</v>
+        <v>10306655</v>
       </c>
       <c r="F48" t="n">
-        <v>6260.447395514876</v>
+        <v>6644.310789528604</v>
       </c>
       <c r="G48" t="n">
-        <v>6477.814963462813</v>
+        <v>6677.634135401975</v>
       </c>
       <c r="H48" t="n">
         <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>165956</v>
+        <v>161566</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4206453</v>
+        <v>4582122</v>
       </c>
       <c r="E49" t="n">
-        <v>5522524</v>
+        <v>6015728</v>
       </c>
       <c r="F49" t="n">
-        <v>5395.699261737957</v>
+        <v>975.8094350202897</v>
       </c>
       <c r="G49" t="n">
-        <v>4742.743576460297</v>
+        <v>6945.947399847882</v>
       </c>
       <c r="H49" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="I49" t="n">
-        <v>588583</v>
+        <v>706005</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12861734</v>
+        <v>12922357</v>
       </c>
       <c r="E50" t="n">
-        <v>18912937</v>
+        <v>19002083</v>
       </c>
       <c r="F50" t="n">
-        <v>7564.668814121062</v>
+        <v>7533.20302502958</v>
       </c>
       <c r="G50" t="n">
-        <v>6970.321730158678</v>
+        <v>6948.299548599231</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>7011394</v>
+        <v>6973884</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22333038</v>
+        <v>22327294</v>
       </c>
       <c r="E51" t="n">
-        <v>28971059</v>
+        <v>28963608</v>
       </c>
       <c r="F51" t="n">
-        <v>9993.646475935067</v>
+        <v>7586.175410528023</v>
       </c>
       <c r="G51" t="n">
-        <v>15640.88365516461</v>
+        <v>15770.59466024603</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>243227</v>
+        <v>238345</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14183278</v>
+        <v>14331195</v>
       </c>
       <c r="E52" t="n">
-        <v>14183278</v>
+        <v>14331195</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5861736</v>
+        <v>5824185</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99078369</v>
+        <v>98952183</v>
       </c>
       <c r="E53" t="n">
-        <v>122556396</v>
+        <v>122400309</v>
       </c>
       <c r="F53" t="n">
-        <v>734.266600740516</v>
+        <v>729.2580830737587</v>
       </c>
       <c r="G53" t="n">
-        <v>3707.610949927872</v>
+        <v>3816.075389066339</v>
       </c>
       <c r="H53" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>1067729</v>
+        <v>1065580</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4974650</v>
+        <v>4928954</v>
       </c>
       <c r="E54" t="n">
-        <v>6960257</v>
+        <v>6896321</v>
       </c>
       <c r="F54" t="n">
-        <v>424.1524085665673</v>
+        <v>632.4785699955137</v>
       </c>
       <c r="G54" t="n">
-        <v>223.3964364568337</v>
+        <v>12.52112910973433</v>
       </c>
       <c r="H54" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="I54" t="n">
-        <v>55168</v>
+        <v>57773</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14046752</v>
+        <v>14020818</v>
       </c>
       <c r="E55" t="n">
-        <v>68030662</v>
+        <v>67905057</v>
       </c>
       <c r="F55" t="n">
-        <v>11471.26335960226</v>
+        <v>12922.60431384109</v>
       </c>
       <c r="G55" t="n">
-        <v>12290.28021030055</v>
+        <v>17171.86604964405</v>
       </c>
       <c r="H55" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I55" t="n">
-        <v>5530119</v>
+        <v>5402895</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56989</v>
+        <v>56984</v>
       </c>
       <c r="E56" t="n">
-        <v>136500</v>
+        <v>136489</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>17052.87</v>
+        <v>16973.54</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1854412311</v>
+        <v>1849823873</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>31853308</v>
+        <v>32132263</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12032609</v>
+        <v>11973818</v>
       </c>
       <c r="E58" t="n">
-        <v>17445547</v>
+        <v>17360308</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1748818</v>
+        <v>1745146</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>122507347</v>
+        <v>121911940</v>
       </c>
       <c r="E59" t="n">
-        <v>325799707</v>
+        <v>324216264</v>
       </c>
       <c r="F59" t="n">
-        <v>7907.481585197264</v>
+        <v>7932.885640515224</v>
       </c>
       <c r="G59" t="n">
-        <v>7207.953491047002</v>
+        <v>7080.241794211805</v>
       </c>
       <c r="H59" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="I59" t="n">
-        <v>823241</v>
+        <v>727184</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29508486</v>
+        <v>29344180</v>
       </c>
       <c r="E60" t="n">
-        <v>91879958</v>
+        <v>91368361</v>
       </c>
       <c r="F60" t="n">
-        <v>1862.362369541252</v>
+        <v>1813.088007072232</v>
       </c>
       <c r="G60" t="n">
-        <v>5748.445797678093</v>
+        <v>7123.191278129126</v>
       </c>
       <c r="H60" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="I60" t="n">
-        <v>11050059</v>
+        <v>11046860</v>
       </c>
     </row>
     <row r="61">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Platform</t>
+          <t>Gaming (GameFi), NFT, Ethereum Ecosystem, Animoca Brands Portfolio, Gaming Platform, Arcade Games</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1837609</v>
+        <v>1821418</v>
       </c>
       <c r="E61" t="n">
-        <v>13177312</v>
+        <v>13061209</v>
       </c>
       <c r="F61" t="n">
-        <v>5172.450747328121</v>
+        <v>5116.879875443638</v>
       </c>
       <c r="G61" t="n">
-        <v>2921.047159443698</v>
+        <v>2841.971864443793</v>
       </c>
       <c r="H61" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="I61" t="n">
-        <v>2150567</v>
+        <v>2163502</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194554015</v>
+        <v>195719965</v>
       </c>
       <c r="E62" t="n">
-        <v>1101684377</v>
+        <v>1108286699</v>
       </c>
       <c r="F62" t="n">
-        <v>719237.4958083848</v>
+        <v>624548.0519440505</v>
       </c>
       <c r="G62" t="n">
-        <v>745315.4681942492</v>
+        <v>828678.8896342231</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>84205091</v>
+        <v>83309599</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>493235</v>
+        <v>498329</v>
       </c>
       <c r="E63" t="n">
-        <v>1660159</v>
+        <v>1677307</v>
       </c>
       <c r="F63" t="n">
-        <v>5214.341694816245</v>
+        <v>5118.799132393114</v>
       </c>
       <c r="G63" t="n">
-        <v>493.8627647055558</v>
+        <v>511.2669088294726</v>
       </c>
       <c r="H63" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>644260</v>
+        <v>643303</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>366297</v>
+        <v>366895</v>
       </c>
       <c r="E64" t="n">
-        <v>366297</v>
+        <v>366895</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4428.97</v>
+        <v>4481.81</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>129490620</v>
+        <v>129235366</v>
       </c>
       <c r="E65" t="n">
-        <v>959189777</v>
+        <v>957299007</v>
       </c>
       <c r="F65" t="n">
-        <v>32581.33016749708</v>
+        <v>31349.51353399599</v>
       </c>
       <c r="G65" t="n">
-        <v>39642.36771993437</v>
+        <v>41826.22013480712</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>37250089</v>
+        <v>40149005</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8994027</v>
+        <v>8834386</v>
       </c>
       <c r="E66" t="n">
-        <v>12048998</v>
+        <v>11835132</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>95147</v>
+        <v>87964</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26258177</v>
+        <v>26248405</v>
       </c>
       <c r="E67" t="n">
-        <v>26258177</v>
+        <v>26248405</v>
       </c>
       <c r="F67" t="n">
-        <v>8863.025042652149</v>
+        <v>6430.2029125366</v>
       </c>
       <c r="G67" t="n">
-        <v>5091.08478570638</v>
+        <v>4794.893115635319</v>
       </c>
       <c r="H67" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="I67" t="n">
-        <v>366090</v>
+        <v>369915</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1537785</v>
+        <v>1540248</v>
       </c>
       <c r="E68" t="n">
-        <v>11942614</v>
+        <v>11961744</v>
       </c>
       <c r="F68" t="n">
-        <v>14986.13657101668</v>
+        <v>13153.90711880221</v>
       </c>
       <c r="G68" t="n">
-        <v>22042.63295411973</v>
+        <v>26335.04789877209</v>
       </c>
       <c r="H68" t="n">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="I68" t="n">
-        <v>507782</v>
+        <v>506459</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>324662213</v>
+        <v>323572878</v>
       </c>
       <c r="E69" t="n">
-        <v>2920862587</v>
+        <v>2911062251</v>
       </c>
       <c r="F69" t="n">
-        <v>1371725.602687666</v>
+        <v>1637486.957269516</v>
       </c>
       <c r="G69" t="n">
-        <v>1943642.266025635</v>
+        <v>1560907.600025024</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>70828000</v>
+        <v>69922750</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>248561</v>
+        <v>250579</v>
       </c>
       <c r="E70" t="n">
-        <v>2193739</v>
+        <v>2211544</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>72164</v>
+        <v>77402</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1553734</v>
+        <v>1550521</v>
       </c>
       <c r="E71" t="n">
-        <v>12947783</v>
+        <v>12921007</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>33143</v>
+        <v>33411</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9314276</v>
+        <v>9371408</v>
       </c>
       <c r="E72" t="n">
-        <v>43172206</v>
+        <v>43437015</v>
       </c>
       <c r="F72" t="n">
-        <v>9116.739963771857</v>
+        <v>9288.188907667971</v>
       </c>
       <c r="G72" t="n">
-        <v>3342.105611766376</v>
+        <v>3337.446043066928</v>
       </c>
       <c r="H72" t="n">
         <v>1.05</v>
       </c>
       <c r="I72" t="n">
-        <v>112746</v>
+        <v>113590</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47015937</v>
+        <v>47533346</v>
       </c>
       <c r="E73" t="n">
-        <v>272202850</v>
+        <v>275198435</v>
       </c>
       <c r="F73" t="n">
-        <v>93289.94545636904</v>
+        <v>98871.89138107057</v>
       </c>
       <c r="G73" t="n">
-        <v>186504.1687753727</v>
+        <v>200797.8040075458</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>36406863</v>
+        <v>34101317</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38470914</v>
+        <v>38452999</v>
       </c>
       <c r="E74" t="n">
-        <v>53133810</v>
+        <v>53109067</v>
       </c>
       <c r="F74" t="n">
-        <v>4652.279133419046</v>
+        <v>10817.10823251832</v>
       </c>
       <c r="G74" t="n">
-        <v>4456.222761332044</v>
+        <v>4466.166609316332</v>
       </c>
       <c r="H74" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="I74" t="n">
-        <v>316566</v>
+        <v>313151</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>98320</v>
+        <v>99920</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4325.27</v>
+        <v>4389.2</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13419535</v>
+        <v>13420390</v>
       </c>
       <c r="E76" t="n">
-        <v>13465203</v>
+        <v>13466061</v>
       </c>
       <c r="F76" t="n">
-        <v>1651.450524268796</v>
+        <v>5075.379176941261</v>
       </c>
       <c r="G76" t="n">
-        <v>4129.599694655253</v>
+        <v>5895.349230635606</v>
       </c>
       <c r="H76" t="n">
         <v>0.66</v>
       </c>
       <c r="I76" t="n">
-        <v>7370301</v>
+        <v>7376556</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41988593</v>
+        <v>41884166</v>
       </c>
       <c r="E77" t="n">
-        <v>71276519</v>
+        <v>71099252</v>
       </c>
       <c r="F77" t="n">
-        <v>6976.695198366217</v>
+        <v>6551.471152340247</v>
       </c>
       <c r="G77" t="n">
-        <v>9340.78235908454</v>
+        <v>10521.12201293264</v>
       </c>
       <c r="H77" t="n">
         <v>0.08</v>
       </c>
       <c r="I77" t="n">
-        <v>1092962</v>
+        <v>1125932</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19394359</v>
+        <v>19397825</v>
       </c>
       <c r="E78" t="n">
-        <v>58150324</v>
+        <v>58160385</v>
       </c>
       <c r="F78" t="n">
-        <v>55636.66651376858</v>
+        <v>56496.09520418722</v>
       </c>
       <c r="G78" t="n">
-        <v>48357.61822170865</v>
+        <v>41255.80944496816</v>
       </c>
       <c r="H78" t="n">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="I78" t="n">
-        <v>4166976</v>
+        <v>4126616</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109345746</v>
+        <v>105844855</v>
       </c>
       <c r="E79" t="n">
-        <v>116244411</v>
+        <v>112522646</v>
       </c>
       <c r="F79" t="n">
-        <v>3268.462205218505</v>
+        <v>3031.213530176849</v>
       </c>
       <c r="G79" t="n">
-        <v>3153.439107473392</v>
+        <v>5083.170492605542</v>
       </c>
       <c r="H79" t="n">
-        <v>1.2</v>
+        <v>0.76</v>
       </c>
       <c r="I79" t="n">
-        <v>9119666</v>
+        <v>990160</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10468779</v>
+        <v>10446162</v>
       </c>
       <c r="E80" t="n">
-        <v>45433189</v>
+        <v>45332672</v>
       </c>
       <c r="F80" t="n">
-        <v>6160.615605629139</v>
+        <v>5986.868426473447</v>
       </c>
       <c r="G80" t="n">
-        <v>6007.668482020539</v>
+        <v>5541.461794253499</v>
       </c>
       <c r="H80" t="n">
         <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>118386</v>
+        <v>119427</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15738506</v>
+        <v>15587470</v>
       </c>
       <c r="E81" t="n">
-        <v>96466477</v>
+        <v>95540728</v>
       </c>
       <c r="F81" t="n">
-        <v>3955.346235687777</v>
+        <v>4057.656977460385</v>
       </c>
       <c r="G81" t="n">
-        <v>5987.531215399792</v>
+        <v>6377.70906411472</v>
       </c>
       <c r="H81" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I81" t="n">
-        <v>12749754</v>
+        <v>12984673</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1437944</v>
+        <v>1437318</v>
       </c>
       <c r="E82" t="n">
-        <v>1478391</v>
+        <v>1477748</v>
       </c>
       <c r="F82" t="n">
-        <v>1937.716389771494</v>
+        <v>2306.275992953761</v>
       </c>
       <c r="G82" t="n">
-        <v>2434.547005922943</v>
+        <v>2192.007738846202</v>
       </c>
       <c r="H82" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="I82" t="n">
-        <v>141853</v>
+        <v>139520</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50125321</v>
+        <v>52105615</v>
       </c>
       <c r="E83" t="n">
-        <v>215934402</v>
+        <v>224465294</v>
       </c>
       <c r="F83" t="n">
-        <v>2986.026141115673</v>
+        <v>3237.771794853503</v>
       </c>
       <c r="G83" t="n">
-        <v>556.5670734110089</v>
+        <v>2246.994559326573</v>
       </c>
       <c r="H83" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I83" t="n">
-        <v>14100131</v>
+        <v>14910689</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2263928</v>
+        <v>2256159</v>
       </c>
       <c r="E84" t="n">
-        <v>8216258</v>
+        <v>8187994</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>228002</v>
+        <v>217009</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8774755</v>
+        <v>8778610</v>
       </c>
       <c r="E85" t="n">
-        <v>19461159</v>
+        <v>19469710</v>
       </c>
       <c r="F85" t="n">
-        <v>5541.267614978647</v>
+        <v>6101.677123942422</v>
       </c>
       <c r="G85" t="n">
-        <v>5953.167896211208</v>
+        <v>6168.370381679099</v>
       </c>
       <c r="H85" t="n">
         <v>1.23</v>
       </c>
       <c r="I85" t="n">
-        <v>293526</v>
+        <v>284665</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2441202</v>
+        <v>2444445</v>
       </c>
       <c r="E86" t="n">
-        <v>18369411</v>
+        <v>18393816</v>
       </c>
       <c r="F86" t="n">
-        <v>5106.939358141794</v>
+        <v>5184.880364947508</v>
       </c>
       <c r="G86" t="n">
-        <v>12329.07848233427</v>
+        <v>12055.9141670403</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>156072</v>
+        <v>156288</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18705612</v>
+        <v>18729175</v>
       </c>
       <c r="E87" t="n">
-        <v>74822449</v>
+        <v>74916700</v>
       </c>
       <c r="F87" t="n">
-        <v>2001.257074438562</v>
+        <v>5302.388096909018</v>
       </c>
       <c r="G87" t="n">
-        <v>1177.597495531392</v>
+        <v>1126.896936323073</v>
       </c>
       <c r="H87" t="n">
-        <v>3.03</v>
+        <v>1.98</v>
       </c>
       <c r="I87" t="n">
-        <v>3930506</v>
+        <v>3922626</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4674433</v>
+        <v>4701148</v>
       </c>
       <c r="E88" t="n">
-        <v>4674433</v>
+        <v>4701148</v>
       </c>
       <c r="F88" t="n">
-        <v>3044.259427476983</v>
+        <v>967.1238331372119</v>
       </c>
       <c r="G88" t="n">
-        <v>2021.90359503293</v>
+        <v>2128.538836050841</v>
       </c>
       <c r="H88" t="n">
-        <v>1.15</v>
+        <v>0.43</v>
       </c>
       <c r="I88" t="n">
-        <v>2823177</v>
+        <v>2811759</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13297389</v>
+        <v>13351842</v>
       </c>
       <c r="E89" t="n">
-        <v>42057552</v>
+        <v>42229779</v>
       </c>
       <c r="F89" t="n">
-        <v>12794.74176568876</v>
+        <v>14867.33621997458</v>
       </c>
       <c r="G89" t="n">
-        <v>10561.05888614588</v>
+        <v>9834.481765685934</v>
       </c>
       <c r="H89" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I89" t="n">
-        <v>1239231</v>
+        <v>1237545</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24631</v>
+        <v>24698</v>
       </c>
       <c r="E90" t="n">
-        <v>193713</v>
+        <v>194240</v>
       </c>
       <c r="F90" t="n">
-        <v>256.0904287642384</v>
+        <v>264.664774099584</v>
       </c>
       <c r="G90" t="n">
-        <v>654.4123772748682</v>
+        <v>652.0837865924406</v>
       </c>
       <c r="H90" t="n">
         <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>27445</v>
+        <v>27332</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8099159</v>
+        <v>8247086</v>
       </c>
       <c r="E91" t="n">
-        <v>8099159</v>
+        <v>8247086</v>
       </c>
       <c r="F91" t="n">
-        <v>1434.084422231</v>
+        <v>2747.100939872056</v>
       </c>
       <c r="G91" t="n">
-        <v>4655.071912826548</v>
+        <v>4777.253160996193</v>
       </c>
       <c r="H91" t="n">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>4291773</v>
+        <v>4290134</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8863113</v>
+        <v>8823483</v>
       </c>
       <c r="E92" t="n">
-        <v>8863113</v>
+        <v>8823483</v>
       </c>
       <c r="F92" t="n">
-        <v>6693.408685751392</v>
+        <v>5245.720513285236</v>
       </c>
       <c r="G92" t="n">
-        <v>3262.168585115419</v>
+        <v>3612.611049646696</v>
       </c>
       <c r="H92" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I92" t="n">
-        <v>1375190</v>
+        <v>1363389</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31608493</v>
+        <v>31748344</v>
       </c>
       <c r="E93" t="n">
-        <v>79701443</v>
+        <v>80054082</v>
       </c>
       <c r="F93" t="n">
-        <v>33.49247678844416</v>
+        <v>2.998964132168827</v>
       </c>
       <c r="G93" t="n">
-        <v>5392.058581270414</v>
+        <v>9418.752061173347</v>
       </c>
       <c r="H93" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="I93" t="n">
-        <v>6453968</v>
+        <v>6492681</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>300715959</v>
+        <v>302062439</v>
       </c>
       <c r="E94" t="n">
-        <v>305418663</v>
+        <v>306787494</v>
       </c>
       <c r="F94" t="n">
-        <v>6342.505138250505</v>
+        <v>6435.457294034653</v>
       </c>
       <c r="G94" t="n">
-        <v>8092.354931442324</v>
+        <v>6970.406585249645</v>
       </c>
       <c r="H94" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I94" t="n">
-        <v>24541779</v>
+        <v>23792424</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3601.863833389278</v>
+        <v>1002.105785086311</v>
       </c>
       <c r="G95" t="n">
-        <v>6397.266774410169</v>
+        <v>6532.432300104193</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>159673</v>
+        <v>156268</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78246867</v>
+        <v>77909683</v>
       </c>
       <c r="E96" t="n">
-        <v>78246867</v>
+        <v>77909683</v>
       </c>
       <c r="F96" t="n">
-        <v>8775.940442721694</v>
+        <v>12790.94151116376</v>
       </c>
       <c r="G96" t="n">
-        <v>5164.015934401012</v>
+        <v>7238.662041200729</v>
       </c>
       <c r="H96" t="n">
-        <v>0.72</v>
+        <v>0.41</v>
       </c>
       <c r="I96" t="n">
-        <v>4653758</v>
+        <v>4560999</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>300311758</v>
+        <v>300326864</v>
       </c>
       <c r="E97" t="n">
-        <v>300311758</v>
+        <v>300326864</v>
       </c>
       <c r="F97" t="n">
-        <v>268594.1099684524</v>
+        <v>302143.6402569409</v>
       </c>
       <c r="G97" t="n">
-        <v>464009.8862986226</v>
+        <v>479049.3184364329</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>113113742</v>
+        <v>105099651</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4591996</v>
+        <v>4576132</v>
       </c>
       <c r="E98" t="n">
-        <v>31376788</v>
+        <v>31268388</v>
       </c>
       <c r="F98" t="n">
-        <v>5075.948248786104</v>
+        <v>307.1150534905141</v>
       </c>
       <c r="G98" t="n">
-        <v>213.0762994007686</v>
+        <v>305.2837529293398</v>
       </c>
       <c r="H98" t="n">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>3056080</v>
+        <v>3064636</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84497781</v>
+        <v>84502382</v>
       </c>
       <c r="E99" t="n">
-        <v>486912658</v>
+        <v>486939171</v>
       </c>
       <c r="F99" t="n">
-        <v>155620.7448920439</v>
+        <v>151314.5746479724</v>
       </c>
       <c r="G99" t="n">
-        <v>148095.1875664912</v>
+        <v>128816.2351659052</v>
       </c>
       <c r="H99" t="n">
         <v>0.08</v>
       </c>
       <c r="I99" t="n">
-        <v>21138249</v>
+        <v>21509279</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>109062227</v>
+        <v>108333158</v>
       </c>
       <c r="E100" t="n">
-        <v>268335687</v>
+        <v>266541893</v>
       </c>
       <c r="F100" t="n">
-        <v>41493.38477709109</v>
+        <v>44432.8463211453</v>
       </c>
       <c r="G100" t="n">
-        <v>31831.65546468972</v>
+        <v>35548.17860837829</v>
       </c>
       <c r="H100" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>3256546</v>
+        <v>3253870</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>238585077</v>
+        <v>239339016</v>
       </c>
       <c r="E101" t="n">
-        <v>238587447</v>
+        <v>239341394</v>
       </c>
       <c r="F101" t="n">
-        <v>10181.16268694552</v>
+        <v>41334.07066692942</v>
       </c>
       <c r="G101" t="n">
-        <v>26739.78771380753</v>
+        <v>22205.23901000651</v>
       </c>
       <c r="H101" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2987842</v>
+        <v>2824021</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30959789</v>
+        <v>30584292</v>
       </c>
       <c r="E102" t="n">
-        <v>138619678</v>
+        <v>136938422</v>
       </c>
       <c r="F102" t="n">
-        <v>63410.32303517874</v>
+        <v>56784.61031788335</v>
       </c>
       <c r="G102" t="n">
-        <v>107525.5330427833</v>
+        <v>99310.03998798583</v>
       </c>
       <c r="H102" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>17825500</v>
+        <v>19471405</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2858753</v>
+        <v>2821904</v>
       </c>
       <c r="E103" t="n">
-        <v>2858753</v>
+        <v>2821904</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>296670</v>
+        <v>297244</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5963281</v>
+        <v>5992970</v>
       </c>
       <c r="E104" t="n">
-        <v>15650609</v>
+        <v>15728529</v>
       </c>
       <c r="F104" t="n">
-        <v>640.2455025394319</v>
+        <v>582.5078495901432</v>
       </c>
       <c r="G104" t="n">
-        <v>624.2219841693095</v>
+        <v>91.23660687434854</v>
       </c>
       <c r="H104" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="I104" t="n">
-        <v>27642</v>
+        <v>30112</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16265867</v>
+        <v>16256203</v>
       </c>
       <c r="E105" t="n">
-        <v>75081164</v>
+        <v>75036544</v>
       </c>
       <c r="F105" t="n">
-        <v>7940.362925728233</v>
+        <v>6555.15499838985</v>
       </c>
       <c r="G105" t="n">
-        <v>5407.238532690258</v>
+        <v>12779.25463874959</v>
       </c>
       <c r="H105" t="n">
         <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1177780</v>
+        <v>1159813</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47888711</v>
+        <v>47885857</v>
       </c>
       <c r="E106" t="n">
-        <v>310545545</v>
+        <v>310527037</v>
       </c>
       <c r="F106" t="n">
-        <v>115173.8614957158</v>
+        <v>129917.2450681811</v>
       </c>
       <c r="G106" t="n">
-        <v>146589.0281306263</v>
+        <v>154769.1103842971</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21908660</v>
+        <v>21808050</v>
       </c>
     </row>
     <row r="107">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Solana Ecosystem, Play To Earn, DWF Labs Portfolio, Poolz Finance Launchpad, Gaming Utility Token, Core Ecosystem</t>
+          <t>Gaming (GameFi), BNB Chain Ecosystem, Solana Ecosystem, Play To Earn, DWF Labs Portfolio, Poolz Finance Launchpad, Gaming Utility Token, Core Ecosystem, Arcade Games</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2438540</v>
+        <v>2438542</v>
       </c>
       <c r="E107" t="n">
-        <v>4417874</v>
+        <v>4417879</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>90361</v>
+        <v>84656</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>124143298</v>
+        <v>123739416</v>
       </c>
       <c r="E108" t="n">
-        <v>2055914683</v>
+        <v>2049226077</v>
       </c>
       <c r="F108" t="n">
-        <v>27343.04245670847</v>
+        <v>29828.76402424627</v>
       </c>
       <c r="G108" t="n">
-        <v>164090.3146342305</v>
+        <v>160652.661886359</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>46892136</v>
+        <v>53094471</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23089849</v>
+        <v>23020168</v>
       </c>
       <c r="E109" t="n">
-        <v>138151209</v>
+        <v>137734293</v>
       </c>
       <c r="F109" t="n">
-        <v>39895.09972388455</v>
+        <v>40488.19783269265</v>
       </c>
       <c r="G109" t="n">
-        <v>37298.29511260983</v>
+        <v>38801.11202236259</v>
       </c>
       <c r="H109" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I109" t="n">
-        <v>18101191</v>
+        <v>17790911</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1034286</v>
+        <v>1027755</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>90805</v>
+        <v>88001</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2410563</v>
+        <v>2410820</v>
       </c>
       <c r="F111" t="n">
-        <v>4761.855082474839</v>
+        <v>3378.961693545275</v>
       </c>
       <c r="G111" t="n">
-        <v>175.9624188376743</v>
+        <v>236.5012954816655</v>
       </c>
       <c r="H111" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I111" t="n">
-        <v>219684</v>
+        <v>218830</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149824634</v>
+        <v>149674174</v>
       </c>
       <c r="F112" t="n">
-        <v>5341.499946005686</v>
+        <v>5415.573066367147</v>
       </c>
       <c r="G112" t="n">
-        <v>3348.851145532225</v>
+        <v>3478.669098077948</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>79226</v>
+        <v>79597</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6171211</v>
+        <v>6206512</v>
       </c>
       <c r="E113" t="n">
-        <v>31749006</v>
+        <v>31930616</v>
       </c>
       <c r="F113" t="n">
-        <v>569.8462208855462</v>
+        <v>1746.211079809136</v>
       </c>
       <c r="G113" t="n">
-        <v>994.9246408844919</v>
+        <v>1322.931088462017</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I113" t="n">
-        <v>955267</v>
+        <v>980772</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30089316</v>
+        <v>30566746</v>
       </c>
       <c r="E114" t="n">
-        <v>41257713</v>
+        <v>41912353</v>
       </c>
       <c r="F114" t="n">
-        <v>3997.571714771607</v>
+        <v>4858.25425596817</v>
       </c>
       <c r="G114" t="n">
-        <v>5881.476394556457</v>
+        <v>6241.991835895392</v>
       </c>
       <c r="H114" t="n">
         <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>1477076</v>
+        <v>1574247</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7582423</v>
+        <v>7575494</v>
       </c>
       <c r="F115" t="n">
-        <v>1601.908622406381</v>
+        <v>1803.491878626575</v>
       </c>
       <c r="G115" t="n">
-        <v>5665.763535345539</v>
+        <v>5834.694410969585</v>
       </c>
       <c r="H115" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>568340</v>
+        <v>685404</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3511003</v>
+        <v>3550862</v>
       </c>
       <c r="E116" t="n">
-        <v>4703210</v>
+        <v>4756604</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>124132</v>
+        <v>126547</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32588409</v>
+        <v>32548479</v>
       </c>
       <c r="E117" t="n">
-        <v>162631185</v>
+        <v>162431916</v>
       </c>
       <c r="F117" t="n">
-        <v>111952.2067205516</v>
+        <v>85662.65105334521</v>
       </c>
       <c r="G117" t="n">
-        <v>73333.56867280837</v>
+        <v>81928.62228511448</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>13898282</v>
+        <v>13757541</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3492003</v>
+        <v>3493236</v>
       </c>
       <c r="E118" t="n">
-        <v>5016324</v>
+        <v>5018095</v>
       </c>
       <c r="F118" t="n">
-        <v>617.277001587694</v>
+        <v>616.7468681087404</v>
       </c>
       <c r="G118" t="n">
-        <v>764.8535097067021</v>
+        <v>654.3652125383206</v>
       </c>
       <c r="H118" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="I118" t="n">
-        <v>165021</v>
+        <v>173910</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>302732407</v>
+        <v>296027705</v>
       </c>
       <c r="E119" t="n">
-        <v>560123990</v>
+        <v>547718762</v>
       </c>
       <c r="F119" t="n">
-        <v>28318.88702050144</v>
+        <v>37463.08888981566</v>
       </c>
       <c r="G119" t="n">
-        <v>37189.0596005148</v>
+        <v>43989.36654896881</v>
       </c>
       <c r="H119" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="I119" t="n">
-        <v>28658407</v>
+        <v>26128091</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>68980061</v>
+        <v>69007738</v>
       </c>
       <c r="E120" t="n">
-        <v>657882236</v>
+        <v>658138026</v>
       </c>
       <c r="F120" t="n">
-        <v>2396.152483696162</v>
+        <v>3562.975168331537</v>
       </c>
       <c r="G120" t="n">
-        <v>2637.984136474427</v>
+        <v>4557.229739127949</v>
       </c>
       <c r="H120" t="n">
         <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>25471289</v>
+        <v>25551949</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36978033</v>
+        <v>36971036</v>
       </c>
       <c r="E121" t="n">
-        <v>48341065</v>
+        <v>48331654</v>
       </c>
       <c r="F121" t="n">
-        <v>5733.525051874313</v>
+        <v>6032.579715562596</v>
       </c>
       <c r="G121" t="n">
-        <v>2064.373299970473</v>
+        <v>361.9886761706274</v>
       </c>
       <c r="H121" t="n">
-        <v>2.96</v>
+        <v>1.84</v>
       </c>
       <c r="I121" t="n">
-        <v>533346</v>
+        <v>241693</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9446764</v>
+        <v>9765045</v>
       </c>
       <c r="E122" t="n">
-        <v>28005296</v>
+        <v>28948852</v>
       </c>
       <c r="F122" t="n">
-        <v>2083.035683067244</v>
+        <v>2149.407302832628</v>
       </c>
       <c r="G122" t="n">
-        <v>7414.152926490679</v>
+        <v>7838.870061768334</v>
       </c>
       <c r="H122" t="n">
-        <v>0.62</v>
+        <v>0.43</v>
       </c>
       <c r="I122" t="n">
-        <v>6543797</v>
+        <v>6649924</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2276023</v>
+        <v>2272332</v>
       </c>
       <c r="E123" t="n">
-        <v>7605635</v>
+        <v>7593302</v>
       </c>
       <c r="F123" t="n">
-        <v>611.3026618447263</v>
+        <v>710.5196707126122</v>
       </c>
       <c r="G123" t="n">
-        <v>1340.397551051059</v>
+        <v>995.564131031403</v>
       </c>
       <c r="H123" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="I123" t="n">
-        <v>1001308</v>
+        <v>978263</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7286019</v>
+        <v>7347219</v>
       </c>
       <c r="E124" t="n">
-        <v>7286030</v>
+        <v>7347229</v>
       </c>
       <c r="F124" t="n">
-        <v>536.8801321246558</v>
+        <v>145.0984926616294</v>
       </c>
       <c r="G124" t="n">
-        <v>757.7243561614057</v>
+        <v>473.4708882092021</v>
       </c>
       <c r="H124" t="n">
-        <v>2.21</v>
+        <v>2.18</v>
       </c>
       <c r="I124" t="n">
-        <v>232305</v>
+        <v>228389</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6294418</v>
+        <v>6183631</v>
       </c>
       <c r="E125" t="n">
-        <v>6294418</v>
+        <v>6183631</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>584383</v>
+        <v>572723</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6148081</v>
+        <v>6172863</v>
       </c>
       <c r="E126" t="n">
-        <v>22456560</v>
+        <v>22547079</v>
       </c>
       <c r="F126" t="n">
-        <v>6767.304962264588</v>
+        <v>5303.176367412527</v>
       </c>
       <c r="G126" t="n">
-        <v>8630.528976809102</v>
+        <v>7613.266097476438</v>
       </c>
       <c r="H126" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="I126" t="n">
-        <v>557740</v>
+        <v>531058</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44092630</v>
+        <v>44141508</v>
       </c>
       <c r="E127" t="n">
-        <v>44092630</v>
+        <v>44141508</v>
       </c>
       <c r="F127" t="n">
-        <v>60712.83514535461</v>
+        <v>56173.38079772042</v>
       </c>
       <c r="G127" t="n">
-        <v>76614.87646352925</v>
+        <v>77935.54634377838</v>
       </c>
       <c r="H127" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>11431845</v>
+        <v>11823842</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141459348</v>
+        <v>141815153</v>
       </c>
       <c r="F128" t="n">
-        <v>313.9795779131774</v>
+        <v>1361.583491645965</v>
       </c>
       <c r="G128" t="n">
-        <v>2541.631956274721</v>
+        <v>3119.309554781165</v>
       </c>
       <c r="H128" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="I128" t="n">
-        <v>1757264</v>
+        <v>1749388</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2914937</v>
+        <v>2887460</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>70735</v>
+        <v>66882</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19504037</v>
+        <v>19526628</v>
       </c>
       <c r="F130" t="n">
-        <v>504.578127318494</v>
+        <v>437.2010238101707</v>
       </c>
       <c r="G130" t="n">
-        <v>1340.693016755629</v>
+        <v>1110.40680445827</v>
       </c>
       <c r="H130" t="n">
-        <v>1.02</v>
+        <v>0.96</v>
       </c>
       <c r="I130" t="n">
-        <v>2921081</v>
+        <v>2916404</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1279742</v>
+        <v>1273616</v>
       </c>
       <c r="E131" t="n">
-        <v>3863163</v>
+        <v>3844735</v>
       </c>
       <c r="F131" t="n">
-        <v>830.1670385449951</v>
+        <v>804.6106051011499</v>
       </c>
       <c r="G131" t="n">
-        <v>596.7754442962573</v>
+        <v>693.3438908087613</v>
       </c>
       <c r="H131" t="n">
         <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>45486</v>
+        <v>46357</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>583070583</v>
+        <v>582579619</v>
       </c>
       <c r="E132" t="n">
-        <v>2258146344</v>
+        <v>2256244912</v>
       </c>
       <c r="F132" t="n">
-        <v>732733.3296472947</v>
+        <v>691289.663937634</v>
       </c>
       <c r="G132" t="n">
-        <v>1042614.537185335</v>
+        <v>1031504.245009966</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>61872769</v>
+        <v>62007762</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3620752</v>
+        <v>3596729</v>
       </c>
       <c r="E133" t="n">
-        <v>6172064</v>
+        <v>6131113</v>
       </c>
       <c r="F133" t="n">
-        <v>5123.315993942789</v>
+        <v>5045.131647699912</v>
       </c>
       <c r="G133" t="n">
-        <v>5166.543068763894</v>
+        <v>5096.287704679916</v>
       </c>
       <c r="H133" t="n">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>1153881</v>
+        <v>1182668</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109540499</v>
+        <v>109192441</v>
       </c>
       <c r="E134" t="n">
-        <v>1036446209</v>
+        <v>1033152963</v>
       </c>
       <c r="F134" t="n">
-        <v>110518.7027417232</v>
+        <v>98242.84000986302</v>
       </c>
       <c r="G134" t="n">
-        <v>106662.5888919118</v>
+        <v>102533.5925487516</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I134" t="n">
-        <v>17789821</v>
+        <v>17965380</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>995064468</v>
+        <v>989012227</v>
       </c>
       <c r="E135" t="n">
-        <v>1093081045</v>
+        <v>1086432642</v>
       </c>
       <c r="F135" t="n">
-        <v>14178.1660078001</v>
+        <v>14991.44924276443</v>
       </c>
       <c r="G135" t="n">
-        <v>14484.00533938352</v>
+        <v>13390.86656804034</v>
       </c>
       <c r="H135" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="I135" t="n">
-        <v>10520419</v>
+        <v>10299518</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1068292</v>
+        <v>1058243</v>
       </c>
       <c r="E136" t="n">
-        <v>4136660</v>
+        <v>4097749</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>275278</v>
+        <v>188042</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122954769</v>
+        <v>120940316</v>
       </c>
       <c r="E137" t="n">
-        <v>471674283</v>
+        <v>463946517</v>
       </c>
       <c r="F137" t="n">
-        <v>182882.0893681953</v>
+        <v>142030.1070857452</v>
       </c>
       <c r="G137" t="n">
-        <v>240885.5700245297</v>
+        <v>240911.6235472879</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32497058</v>
+        <v>32379238</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3099506</v>
+        <v>3108749</v>
       </c>
       <c r="E138" t="n">
-        <v>29368274</v>
+        <v>29455855</v>
       </c>
       <c r="F138" t="n">
-        <v>2968.535700610611</v>
+        <v>5480.936451530051</v>
       </c>
       <c r="G138" t="n">
-        <v>5138.846359766147</v>
+        <v>3987.418050315147</v>
       </c>
       <c r="H138" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="I138" t="n">
-        <v>275518</v>
+        <v>228103</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22752405</v>
+        <v>22091001</v>
       </c>
       <c r="E139" t="n">
-        <v>22752405</v>
+        <v>22091001</v>
       </c>
       <c r="F139" t="n">
-        <v>1503.90830801803</v>
+        <v>1018.568393781147</v>
       </c>
       <c r="G139" t="n">
-        <v>1366.784185242888</v>
+        <v>793.3393389226447</v>
       </c>
       <c r="H139" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="I139" t="n">
-        <v>821537</v>
+        <v>810046</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494778280</v>
+        <v>494158726</v>
       </c>
       <c r="E140" t="n">
-        <v>494778280</v>
+        <v>494158726</v>
       </c>
       <c r="F140" t="n">
-        <v>897705.913196264</v>
+        <v>919472.9241961373</v>
       </c>
       <c r="G140" t="n">
-        <v>869073.6244055314</v>
+        <v>837178.5910392345</v>
       </c>
       <c r="H140" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>48837167</v>
+        <v>50023086</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>42216685</v>
+        <v>42560209</v>
       </c>
       <c r="F141" t="n">
-        <v>50788.60426626525</v>
+        <v>11243.8678247445</v>
       </c>
       <c r="G141" t="n">
-        <v>61840.22758881256</v>
+        <v>34337.2104370227</v>
       </c>
       <c r="H141" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="I141" t="n">
-        <v>10366775</v>
+        <v>10904297</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>781538</v>
+        <v>776302</v>
       </c>
       <c r="E142" t="n">
-        <v>12465261</v>
+        <v>12381734</v>
       </c>
       <c r="F142" t="n">
-        <v>1118.615107227031</v>
+        <v>52.86807467678971</v>
       </c>
       <c r="G142" t="n">
-        <v>51.97037277121841</v>
+        <v>128.5747970050394</v>
       </c>
       <c r="H142" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="I142" t="n">
-        <v>335661</v>
+        <v>146417</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2557564629</v>
+        <v>2548220635</v>
       </c>
       <c r="E143" t="n">
-        <v>2715468150</v>
+        <v>2705547260</v>
       </c>
       <c r="F143" t="n">
-        <v>3466.61573341464</v>
+        <v>3487.335223257917</v>
       </c>
       <c r="G143" t="n">
-        <v>23451.22196946032</v>
+        <v>26021.3535788376</v>
       </c>
       <c r="H143" t="n">
         <v>0.16</v>
       </c>
       <c r="I143" t="n">
-        <v>61283568</v>
+        <v>60848823</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1700503</v>
+        <v>1697726</v>
       </c>
       <c r="E144" t="n">
-        <v>1706505</v>
+        <v>1703718</v>
       </c>
       <c r="F144" t="n">
-        <v>225.6553542800975</v>
+        <v>1781.542844726345</v>
       </c>
       <c r="G144" t="n">
-        <v>2388.864556785953</v>
+        <v>280.4060904597058</v>
       </c>
       <c r="H144" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="I144" t="n">
-        <v>435794</v>
+        <v>405269</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55475961</v>
+        <v>55955625</v>
       </c>
       <c r="E145" t="n">
-        <v>136078771</v>
+        <v>137255356</v>
       </c>
       <c r="F145" t="n">
-        <v>5735.859629825584</v>
+        <v>4888.163845197577</v>
       </c>
       <c r="G145" t="n">
-        <v>4160.128537729654</v>
+        <v>4354.803315262542</v>
       </c>
       <c r="H145" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I145" t="n">
-        <v>22119486</v>
+        <v>22152285</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>751536405</v>
+        <v>757566824</v>
       </c>
       <c r="E146" t="n">
-        <v>1158935490</v>
+        <v>1168234930</v>
       </c>
       <c r="F146" t="n">
-        <v>136388.7997406945</v>
+        <v>142748.4023609012</v>
       </c>
       <c r="G146" t="n">
-        <v>150783.6314433874</v>
+        <v>127529.1667913486</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>277760206</v>
+        <v>338433076</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>23030805</v>
+        <v>22678613</v>
       </c>
       <c r="E147" t="n">
-        <v>23030805</v>
+        <v>22678613</v>
       </c>
       <c r="F147" t="n">
-        <v>3689.821592008142</v>
+        <v>4649.023152058438</v>
       </c>
       <c r="G147" t="n">
-        <v>6382.303609273406</v>
+        <v>2658.710947252952</v>
       </c>
       <c r="H147" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I147" t="n">
-        <v>5402863</v>
+        <v>5728310</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3799150</v>
+        <v>3798456</v>
       </c>
       <c r="E148" t="n">
-        <v>8281614</v>
+        <v>8280102</v>
       </c>
       <c r="F148" t="n">
-        <v>6822.247027020929</v>
+        <v>6739.110264305544</v>
       </c>
       <c r="G148" t="n">
-        <v>7192.455886149505</v>
+        <v>7508.488123474264</v>
       </c>
       <c r="H148" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>2222081</v>
+        <v>2240602</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9253819</v>
+        <v>9251193</v>
       </c>
       <c r="E149" t="n">
-        <v>9253819</v>
+        <v>9251193</v>
       </c>
       <c r="F149" t="n">
-        <v>535655.215288879</v>
+        <v>81253.37806175173</v>
       </c>
       <c r="G149" t="n">
-        <v>281309.1370065169</v>
+        <v>79496.82081202618</v>
       </c>
       <c r="H149" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6593715</v>
+        <v>6603521</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>470271132</v>
+        <v>465565582</v>
       </c>
       <c r="E150" t="n">
-        <v>1636145015</v>
+        <v>1619773687</v>
       </c>
       <c r="F150" t="n">
-        <v>766407.8824248513</v>
+        <v>757083.5041500647</v>
       </c>
       <c r="G150" t="n">
-        <v>853833.5231398977</v>
+        <v>842390.5365171602</v>
       </c>
       <c r="H150" t="n">
         <v>0.06</v>
       </c>
       <c r="I150" t="n">
-        <v>49175296</v>
+        <v>48771053</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46642855</v>
+        <v>46120862</v>
       </c>
       <c r="E151" t="n">
-        <v>114817842</v>
+        <v>113532892</v>
       </c>
       <c r="F151" t="n">
-        <v>7968.163636280938</v>
+        <v>8255.856792362651</v>
       </c>
       <c r="G151" t="n">
-        <v>4858.107740570703</v>
+        <v>8114.777151731233</v>
       </c>
       <c r="H151" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="I151" t="n">
-        <v>175513</v>
+        <v>356245</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7108724</v>
+        <v>7396477</v>
       </c>
       <c r="E152" t="n">
-        <v>18467700</v>
+        <v>19215251</v>
       </c>
       <c r="F152" t="n">
-        <v>6375.556701559827</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>95.88489429250801</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>2.13</v>
+        <v>4.64</v>
       </c>
       <c r="I152" t="n">
-        <v>791780</v>
+        <v>800484</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18928652876</v>
+        <v>18945486243</v>
       </c>
       <c r="F153" t="n">
-        <v>1494.609596947438</v>
+        <v>1494.447730944767</v>
       </c>
       <c r="G153" t="n">
-        <v>29463.54422617078</v>
+        <v>29453.22683092764</v>
       </c>
       <c r="H153" t="n">
         <v>1.07</v>
       </c>
       <c r="I153" t="n">
-        <v>19992848</v>
+        <v>17622452</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2296285</v>
+        <v>2288951</v>
       </c>
       <c r="E154" t="n">
-        <v>9185138</v>
+        <v>9155803</v>
       </c>
       <c r="F154" t="n">
-        <v>1188.167116845313</v>
+        <v>728.2574188386708</v>
       </c>
       <c r="G154" t="n">
-        <v>1738.150254788582</v>
+        <v>1822.879614761951</v>
       </c>
       <c r="H154" t="n">
-        <v>0.65</v>
+        <v>0.33</v>
       </c>
       <c r="I154" t="n">
-        <v>7359690</v>
+        <v>8168177</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>210684195</v>
+        <v>210309907</v>
       </c>
       <c r="E155" t="n">
-        <v>647774613</v>
+        <v>646623819</v>
       </c>
       <c r="F155" t="n">
-        <v>35328.71942362515</v>
+        <v>34930.85377290685</v>
       </c>
       <c r="G155" t="n">
-        <v>64602.9358451752</v>
+        <v>61262.60212881416</v>
       </c>
       <c r="H155" t="n">
         <v>0.03</v>
       </c>
       <c r="I155" t="n">
-        <v>23145756</v>
+        <v>21226145</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>378777703</v>
+        <v>378926118</v>
       </c>
       <c r="E156" t="n">
-        <v>2164444017</v>
+        <v>2165292106</v>
       </c>
       <c r="F156" t="n">
-        <v>276212.8892683287</v>
+        <v>291735.0737041805</v>
       </c>
       <c r="G156" t="n">
-        <v>351124.4193206773</v>
+        <v>315477.6692687737</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>64830084</v>
+        <v>64541990</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3830155</v>
+        <v>3848344</v>
       </c>
       <c r="F2" t="n">
-        <v>136.2593814524774</v>
+        <v>155.6094763258359</v>
       </c>
       <c r="G2" t="n">
-        <v>1199.145305280243</v>
+        <v>1199.192208029314</v>
       </c>
       <c r="H2" t="n">
-        <v>2.54</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>135176</v>
+        <v>130598</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>611794581</v>
+        <v>614881166</v>
       </c>
       <c r="E3" t="n">
-        <v>1187344384</v>
+        <v>1193334993</v>
       </c>
       <c r="F3" t="n">
-        <v>16292.63386343921</v>
+        <v>14397.9468557637</v>
       </c>
       <c r="G3" t="n">
-        <v>33540.200493255</v>
+        <v>32702.32791096871</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>49927008</v>
+        <v>50817889</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>251938715</v>
+        <v>252777708</v>
       </c>
       <c r="E4" t="n">
-        <v>1579872272</v>
+        <v>1585133476</v>
       </c>
       <c r="F4" t="n">
-        <v>170985.7265110755</v>
+        <v>311332.571221673</v>
       </c>
       <c r="G4" t="n">
-        <v>333971.9244861195</v>
+        <v>269469.7741176134</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>29679804</v>
+        <v>29613603</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>140652894</v>
+        <v>141150162</v>
       </c>
       <c r="E5" t="n">
-        <v>155865388</v>
+        <v>156416438</v>
       </c>
       <c r="F5" t="n">
-        <v>8782.070584153313</v>
+        <v>8747.88988428091</v>
       </c>
       <c r="G5" t="n">
-        <v>501.6526080566771</v>
+        <v>538.3563769854188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="I5" t="n">
-        <v>52421355</v>
+        <v>52211714</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49449393</v>
+        <v>49360823</v>
       </c>
       <c r="E6" t="n">
-        <v>61859922</v>
+        <v>61749124</v>
       </c>
       <c r="F6" t="n">
-        <v>3446.418991308861</v>
+        <v>5452.894446621865</v>
       </c>
       <c r="G6" t="n">
-        <v>7084.440104577469</v>
+        <v>7175.168558749058</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>753936</v>
+        <v>757815</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66376443</v>
+        <v>66442142</v>
       </c>
       <c r="E7" t="n">
-        <v>132173137</v>
+        <v>132303961</v>
       </c>
       <c r="F7" t="n">
-        <v>11522.32630041052</v>
+        <v>11715.20178582183</v>
       </c>
       <c r="G7" t="n">
-        <v>13433.79303442193</v>
+        <v>12586.71253774364</v>
       </c>
       <c r="H7" t="n">
         <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>955910</v>
+        <v>923821</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42466361</v>
+        <v>42865166</v>
       </c>
       <c r="E8" t="n">
-        <v>47525975</v>
+        <v>47972295</v>
       </c>
       <c r="F8" t="n">
-        <v>301.699673450971</v>
+        <v>839.9295464855587</v>
       </c>
       <c r="G8" t="n">
-        <v>604.9832010716598</v>
+        <v>295.8244752641153</v>
       </c>
       <c r="H8" t="n">
         <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>14018643</v>
+        <v>14452865</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13724590</v>
+        <v>13720429</v>
       </c>
       <c r="E9" t="n">
-        <v>40445481</v>
+        <v>40433218</v>
       </c>
       <c r="F9" t="n">
-        <v>4918.00492141734</v>
+        <v>4934.482542461583</v>
       </c>
       <c r="G9" t="n">
-        <v>4672.788151063164</v>
+        <v>4430.036359359371</v>
       </c>
       <c r="H9" t="n">
-        <v>0.59</v>
+        <v>1.23</v>
       </c>
       <c r="I9" t="n">
-        <v>802068</v>
+        <v>806744</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9395341</v>
+        <v>9433238</v>
       </c>
       <c r="E10" t="n">
-        <v>40386402</v>
+        <v>40549304</v>
       </c>
       <c r="F10" t="n">
-        <v>420.7165762955997</v>
+        <v>402.9744846510274</v>
       </c>
       <c r="G10" t="n">
-        <v>800.9337791046502</v>
+        <v>16627.94651011118</v>
       </c>
       <c r="H10" t="n">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="I10" t="n">
-        <v>675840</v>
+        <v>684799</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>551097111</v>
+        <v>555567971</v>
       </c>
       <c r="E11" t="n">
-        <v>689340579</v>
+        <v>694932960</v>
       </c>
       <c r="F11" t="n">
-        <v>337816.5064425001</v>
+        <v>319796.6445308793</v>
       </c>
       <c r="G11" t="n">
-        <v>285665.3063747474</v>
+        <v>318940.1788161926</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>97416658</v>
+        <v>98215103</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4349571</v>
+        <v>4389054</v>
       </c>
       <c r="E12" t="n">
-        <v>26705579</v>
+        <v>26947986</v>
       </c>
       <c r="F12" t="n">
-        <v>10148.22785079608</v>
+        <v>10296.82577742142</v>
       </c>
       <c r="G12" t="n">
-        <v>10407.93520913643</v>
+        <v>10456.84509631102</v>
       </c>
       <c r="H12" t="n">
         <v>0.74</v>
       </c>
       <c r="I12" t="n">
-        <v>301635</v>
+        <v>397600</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23459824</v>
+        <v>23511527</v>
       </c>
       <c r="E13" t="n">
-        <v>23502689</v>
+        <v>23554486</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>862651</v>
+        <v>858638</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79548317</v>
+        <v>79773367</v>
       </c>
       <c r="E14" t="n">
-        <v>234041014</v>
+        <v>234703140</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>438352</v>
+        <v>432380</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>472258018</v>
+        <v>476418039</v>
       </c>
       <c r="E15" t="n">
-        <v>472258018</v>
+        <v>476418042</v>
       </c>
       <c r="F15" t="n">
-        <v>25728.13892691718</v>
+        <v>30136.50711076684</v>
       </c>
       <c r="G15" t="n">
-        <v>26077.62399018302</v>
+        <v>20120.8838139752</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>73171275</v>
+        <v>73711399</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4634884</v>
+        <v>4620737</v>
       </c>
       <c r="E16" t="n">
-        <v>4634884</v>
+        <v>4620737</v>
       </c>
       <c r="F16" t="n">
-        <v>197.1692294347125</v>
+        <v>162.9627069379962</v>
       </c>
       <c r="G16" t="n">
-        <v>1211.484204299629</v>
+        <v>855.488672018079</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2303126</v>
+        <v>2291275</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3262973</v>
+        <v>3247190</v>
       </c>
       <c r="E17" t="n">
-        <v>3262973</v>
+        <v>3247190</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>733377</v>
+        <v>730811</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168215615</v>
+        <v>168433570</v>
       </c>
       <c r="E18" t="n">
-        <v>208257936</v>
+        <v>208527774</v>
       </c>
       <c r="F18" t="n">
-        <v>9457.434800843495</v>
+        <v>10574.44502077805</v>
       </c>
       <c r="G18" t="n">
-        <v>7814.771707474237</v>
+        <v>10116.21509365761</v>
       </c>
       <c r="H18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I18" t="n">
-        <v>517162</v>
+        <v>525024</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6383721</v>
+        <v>6225282</v>
       </c>
       <c r="E19" t="n">
-        <v>8792015</v>
+        <v>8573804</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>387483</v>
+        <v>376837</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>880844</v>
+        <v>888940</v>
       </c>
       <c r="E20" t="n">
-        <v>6165910</v>
+        <v>6222581</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>148004</v>
+        <v>168487</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115172760</v>
+        <v>115365685</v>
       </c>
       <c r="E21" t="n">
-        <v>447463811</v>
+        <v>448196732</v>
       </c>
       <c r="F21" t="n">
-        <v>16829.72894159046</v>
+        <v>15844.43085598184</v>
       </c>
       <c r="G21" t="n">
-        <v>15161.25809983175</v>
+        <v>14299.30876236091</v>
       </c>
       <c r="H21" t="n">
         <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>12476912</v>
+        <v>12658795</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1714978</v>
+        <v>1714294</v>
       </c>
       <c r="E22" t="n">
-        <v>12352844</v>
+        <v>12347917</v>
       </c>
       <c r="F22" t="n">
-        <v>4901.315903903207</v>
+        <v>4906.443714648564</v>
       </c>
       <c r="G22" t="n">
-        <v>4925.632446673036</v>
+        <v>6044.763726212104</v>
       </c>
       <c r="H22" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>54787</v>
+        <v>54799</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>139484243</v>
+        <v>139927778</v>
       </c>
       <c r="E23" t="n">
-        <v>139484243</v>
+        <v>139927778</v>
       </c>
       <c r="F23" t="n">
-        <v>1058422.891297185</v>
+        <v>980070.6486878349</v>
       </c>
       <c r="G23" t="n">
-        <v>1340367.085130967</v>
+        <v>1373726.950058012</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>94350219</v>
+        <v>93533533</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63222012</v>
+        <v>63158677</v>
       </c>
       <c r="E24" t="n">
-        <v>324215444</v>
+        <v>323890650</v>
       </c>
       <c r="F24" t="n">
-        <v>82817.36009406646</v>
+        <v>88841.2784579599</v>
       </c>
       <c r="G24" t="n">
-        <v>132769.7565767404</v>
+        <v>124386.0903507701</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>24026129</v>
+        <v>24118620</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>250533914</v>
+        <v>251522906</v>
       </c>
       <c r="E25" t="n">
-        <v>250533914</v>
+        <v>251522906</v>
       </c>
       <c r="F25" t="n">
-        <v>313493.8479709689</v>
+        <v>311278.0867306741</v>
       </c>
       <c r="G25" t="n">
-        <v>379098.5228276004</v>
+        <v>468978.2239152565</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I25" t="n">
-        <v>28447985</v>
+        <v>28706902</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1120331</v>
+        <v>1124082</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>121510</v>
+        <v>120926</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2219410</v>
+        <v>2200022</v>
       </c>
       <c r="E27" t="n">
-        <v>2480587</v>
+        <v>2459702</v>
       </c>
       <c r="F27" t="n">
-        <v>360.2791874059558</v>
+        <v>337.6038711819169</v>
       </c>
       <c r="G27" t="n">
-        <v>336.8827026158049</v>
+        <v>722.5553973674679</v>
       </c>
       <c r="H27" t="n">
-        <v>0.39</v>
+        <v>1.47</v>
       </c>
       <c r="I27" t="n">
-        <v>542963</v>
+        <v>557129</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3787333</v>
+        <v>3795607</v>
       </c>
       <c r="E28" t="n">
-        <v>3788207</v>
+        <v>3796483</v>
       </c>
       <c r="F28" t="n">
-        <v>1122.234120534123</v>
+        <v>860.4574158121093</v>
       </c>
       <c r="G28" t="n">
-        <v>3674.785385159101</v>
+        <v>3960.449694817938</v>
       </c>
       <c r="H28" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="I28" t="n">
-        <v>238228</v>
+        <v>237647</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6749454</v>
+        <v>6798234</v>
       </c>
       <c r="E29" t="n">
-        <v>16393904</v>
+        <v>16512388</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>436458</v>
+        <v>439148</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97487897</v>
+        <v>98182739</v>
       </c>
       <c r="E30" t="n">
-        <v>121555980</v>
+        <v>122422366</v>
       </c>
       <c r="F30" t="n">
-        <v>102823.4705974998</v>
+        <v>105871.0707559473</v>
       </c>
       <c r="G30" t="n">
-        <v>106583.1338296472</v>
+        <v>99543.9890891113</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13380642</v>
+        <v>13396313</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109235</v>
+        <v>1109201</v>
       </c>
       <c r="E31" t="n">
-        <v>12054751</v>
+        <v>12054384</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12822.95</v>
+        <v>12833.86</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>78409631</v>
+        <v>78730306</v>
       </c>
       <c r="E32" t="n">
-        <v>219445091</v>
+        <v>220330795</v>
       </c>
       <c r="F32" t="n">
-        <v>78928.57459109109</v>
+        <v>58565.70735266015</v>
       </c>
       <c r="G32" t="n">
-        <v>91635.55953363866</v>
+        <v>69673.28407583614</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>61233531</v>
+        <v>52817438</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4107986</v>
+        <v>4107289</v>
       </c>
       <c r="E33" t="n">
-        <v>8101293</v>
+        <v>8099919</v>
       </c>
       <c r="F33" t="n">
-        <v>10085.46020774565</v>
+        <v>8783.567537151037</v>
       </c>
       <c r="G33" t="n">
-        <v>6094.929514034825</v>
+        <v>6164.86643508934</v>
       </c>
       <c r="H33" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="I33" t="n">
-        <v>1686570</v>
+        <v>1684917</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36233748</v>
+        <v>36262097</v>
       </c>
       <c r="F34" t="n">
-        <v>231.6864853964029</v>
+        <v>231.6865290393305</v>
       </c>
       <c r="G34" t="n">
-        <v>250.6167879798554</v>
+        <v>250.6168351886957</v>
       </c>
       <c r="H34" t="n">
         <v>0.28</v>
       </c>
       <c r="I34" t="n">
-        <v>13817.56</v>
+        <v>12462.41</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17116807</v>
+        <v>17175082</v>
       </c>
       <c r="E35" t="n">
-        <v>18040713</v>
+        <v>18102134</v>
       </c>
       <c r="F35" t="n">
-        <v>3481.051859111457</v>
+        <v>3481.052514839364</v>
       </c>
       <c r="G35" t="n">
-        <v>2570.256617198699</v>
+        <v>2560.25879276795</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>47638</v>
+        <v>35054</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23017405</v>
+        <v>23016516</v>
       </c>
       <c r="F36" t="n">
-        <v>5191.625273075509</v>
+        <v>5183.140911585542</v>
       </c>
       <c r="G36" t="n">
-        <v>5521.776081356301</v>
+        <v>5575.304058748623</v>
       </c>
       <c r="H36" t="n">
         <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>127007</v>
+        <v>125861</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>85205464</v>
+        <v>84339638</v>
       </c>
       <c r="E37" t="n">
-        <v>177646549</v>
+        <v>175841371</v>
       </c>
       <c r="F37" t="n">
-        <v>64046.52259661811</v>
+        <v>54373.73863842504</v>
       </c>
       <c r="G37" t="n">
-        <v>43857.16369612904</v>
+        <v>47836.25407016935</v>
       </c>
       <c r="H37" t="n">
         <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>85692851</v>
+        <v>85461343</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>276037714</v>
+        <v>277097297</v>
       </c>
       <c r="E38" t="n">
-        <v>276037714</v>
+        <v>277097297</v>
       </c>
       <c r="F38" t="n">
-        <v>27617.05840440602</v>
+        <v>33547.01854036254</v>
       </c>
       <c r="G38" t="n">
-        <v>30968.37369879109</v>
+        <v>32148.11726093944</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>11893603</v>
+        <v>11740430</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>193289298</v>
+        <v>193782521</v>
       </c>
       <c r="E39" t="n">
-        <v>671504490</v>
+        <v>673217993</v>
       </c>
       <c r="F39" t="n">
-        <v>125504.2671011548</v>
+        <v>107818.9650390338</v>
       </c>
       <c r="G39" t="n">
-        <v>300056.3871477997</v>
+        <v>249686.8314985681</v>
       </c>
       <c r="H39" t="n">
         <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>41931553</v>
+        <v>42101603</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3270544</v>
+        <v>3208514</v>
       </c>
       <c r="E40" t="n">
-        <v>3270544</v>
+        <v>3208514</v>
       </c>
       <c r="F40" t="n">
-        <v>878.0117561233209</v>
+        <v>890.8821215562365</v>
       </c>
       <c r="G40" t="n">
-        <v>2743.320511188896</v>
+        <v>2358.243007519233</v>
       </c>
       <c r="H40" t="n">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="I40" t="n">
-        <v>1703479</v>
+        <v>1704418</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>110992660</v>
+        <v>111670735</v>
       </c>
       <c r="E41" t="n">
-        <v>470348495</v>
+        <v>473189089</v>
       </c>
       <c r="F41" t="n">
-        <v>5334.746250816381</v>
+        <v>5421.207586898468</v>
       </c>
       <c r="G41" t="n">
-        <v>6571.49410321557</v>
+        <v>8680.317613717847</v>
       </c>
       <c r="H41" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="I41" t="n">
-        <v>15021833</v>
+        <v>14884849</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>577093</v>
+        <v>561708</v>
       </c>
       <c r="E42" t="n">
-        <v>6999573</v>
+        <v>6812967</v>
       </c>
       <c r="F42" t="n">
-        <v>855.6467113097634</v>
+        <v>699.8219354141212</v>
       </c>
       <c r="G42" t="n">
-        <v>442.7068701415348</v>
+        <v>414.4133179398059</v>
       </c>
       <c r="H42" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="I42" t="n">
-        <v>3061674</v>
+        <v>3091281</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1429350864</v>
+        <v>1429158238</v>
       </c>
       <c r="E43" t="n">
-        <v>6854030115</v>
+        <v>6853106437</v>
       </c>
       <c r="F43" t="n">
-        <v>46686.17493145928</v>
+        <v>46846.45680111067</v>
       </c>
       <c r="G43" t="n">
-        <v>50312.08367963818</v>
+        <v>52190.28590045046</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>579338487</v>
+        <v>594994146</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5888622440</v>
+        <v>5885553380</v>
       </c>
       <c r="E44" t="n">
-        <v>5883437152</v>
+        <v>5885553380</v>
       </c>
       <c r="F44" t="n">
-        <v>679851.9441485279</v>
+        <v>679305.4197515083</v>
       </c>
       <c r="G44" t="n">
-        <v>571478.038786676</v>
+        <v>476112.0814916085</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>431081434</v>
+        <v>435005249</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>262285374</v>
+        <v>263825155</v>
       </c>
       <c r="E45" t="n">
-        <v>1132169279</v>
+        <v>1138815828</v>
       </c>
       <c r="F45" t="n">
-        <v>97467.79079994578</v>
+        <v>105859.7772832889</v>
       </c>
       <c r="G45" t="n">
-        <v>105782.0219816524</v>
+        <v>97750.27307316194</v>
       </c>
       <c r="H45" t="n">
         <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>142089759</v>
+        <v>141589032</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>119040982</v>
+        <v>119690594</v>
       </c>
       <c r="E46" t="n">
-        <v>119040982</v>
+        <v>119690594</v>
       </c>
       <c r="F46" t="n">
-        <v>26878.0129323998</v>
+        <v>18379.14787970687</v>
       </c>
       <c r="G46" t="n">
-        <v>26049.10608279236</v>
+        <v>40399.30545925941</v>
       </c>
       <c r="H46" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I46" t="n">
-        <v>9723577</v>
+        <v>10009946</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042538697</v>
+        <v>2042193190</v>
       </c>
       <c r="E47" t="n">
-        <v>2042538697</v>
+        <v>2042193190</v>
       </c>
       <c r="F47" t="n">
-        <v>221165.0748996864</v>
+        <v>221108.9980899059</v>
       </c>
       <c r="G47" t="n">
-        <v>194133.3358178903</v>
+        <v>199951.7510054013</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="I47" t="n">
-        <v>9037056715</v>
+        <v>8998472287</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10306655</v>
+        <v>10338513</v>
       </c>
       <c r="F48" t="n">
-        <v>6644.310789528604</v>
+        <v>6295.090735389898</v>
       </c>
       <c r="G48" t="n">
-        <v>6677.634135401975</v>
+        <v>6812.917496049022</v>
       </c>
       <c r="H48" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>161566</v>
+        <v>160375</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4582122</v>
+        <v>4540953</v>
       </c>
       <c r="E49" t="n">
-        <v>6015728</v>
+        <v>5961678</v>
       </c>
       <c r="F49" t="n">
-        <v>975.8094350202897</v>
+        <v>1053.640503507823</v>
       </c>
       <c r="G49" t="n">
-        <v>6945.947399847882</v>
+        <v>4096.964884834672</v>
       </c>
       <c r="H49" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>706005</v>
+        <v>717402</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12922357</v>
+        <v>12941589</v>
       </c>
       <c r="E50" t="n">
-        <v>19002083</v>
+        <v>19030362</v>
       </c>
       <c r="F50" t="n">
-        <v>7533.20302502958</v>
+        <v>7483.667736444647</v>
       </c>
       <c r="G50" t="n">
-        <v>6948.299548599231</v>
+        <v>6995.722254167227</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>6973884</v>
+        <v>6865214</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22327294</v>
+        <v>22339779</v>
       </c>
       <c r="E51" t="n">
-        <v>28963608</v>
+        <v>28979804</v>
       </c>
       <c r="F51" t="n">
-        <v>7586.175410528023</v>
+        <v>8609.187228669818</v>
       </c>
       <c r="G51" t="n">
-        <v>15770.59466024603</v>
+        <v>13998.18518048776</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>238345</v>
+        <v>234122</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14331195</v>
+        <v>14360393</v>
       </c>
       <c r="E52" t="n">
-        <v>14331195</v>
+        <v>14360393</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5824185</v>
+        <v>5836614</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>98952183</v>
+        <v>99067741</v>
       </c>
       <c r="E53" t="n">
-        <v>122400309</v>
+        <v>122543250</v>
       </c>
       <c r="F53" t="n">
-        <v>729.2580830737587</v>
+        <v>693.1781692361895</v>
       </c>
       <c r="G53" t="n">
-        <v>3816.075389066339</v>
+        <v>3832.547436497815</v>
       </c>
       <c r="H53" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>1065580</v>
+        <v>1067492</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4928954</v>
+        <v>4917305</v>
       </c>
       <c r="E54" t="n">
-        <v>6896321</v>
+        <v>6880023</v>
       </c>
       <c r="F54" t="n">
-        <v>632.4785699955137</v>
+        <v>531.0960028443171</v>
       </c>
       <c r="G54" t="n">
-        <v>12.52112910973433</v>
+        <v>22.64881943059769</v>
       </c>
       <c r="H54" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>57773</v>
+        <v>56881</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14020818</v>
+        <v>14084739</v>
       </c>
       <c r="E55" t="n">
-        <v>67905057</v>
+        <v>68214641</v>
       </c>
       <c r="F55" t="n">
-        <v>12922.60431384109</v>
+        <v>9537.513343802846</v>
       </c>
       <c r="G55" t="n">
-        <v>17171.86604964405</v>
+        <v>12851.10119733766</v>
       </c>
       <c r="H55" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="I55" t="n">
-        <v>5402895</v>
+        <v>5411444</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>56984</v>
+        <v>55238</v>
       </c>
       <c r="E56" t="n">
-        <v>136489</v>
+        <v>132308</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16973.54</v>
+        <v>16914.27</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1849823873</v>
+        <v>1842467542</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>32132263</v>
+        <v>32065610</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11973818</v>
+        <v>12050667</v>
       </c>
       <c r="E58" t="n">
-        <v>17360308</v>
+        <v>17471729</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1745146</v>
+        <v>1772528</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>121911940</v>
+        <v>121960319</v>
       </c>
       <c r="E59" t="n">
-        <v>324216264</v>
+        <v>324344924</v>
       </c>
       <c r="F59" t="n">
-        <v>7932.885640515224</v>
+        <v>7816.471471830314</v>
       </c>
       <c r="G59" t="n">
-        <v>7080.241794211805</v>
+        <v>7257.612700054928</v>
       </c>
       <c r="H59" t="n">
         <v>0.58</v>
       </c>
       <c r="I59" t="n">
-        <v>727184</v>
+        <v>850688</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29344180</v>
+        <v>29374359</v>
       </c>
       <c r="E60" t="n">
-        <v>91368361</v>
+        <v>91462330</v>
       </c>
       <c r="F60" t="n">
-        <v>1813.088007072232</v>
+        <v>990.0956290423235</v>
       </c>
       <c r="G60" t="n">
-        <v>7123.191278129126</v>
+        <v>6052.735074671933</v>
       </c>
       <c r="H60" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="I60" t="n">
-        <v>11046860</v>
+        <v>11094157</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1821418</v>
+        <v>1826184</v>
       </c>
       <c r="E61" t="n">
-        <v>13061209</v>
+        <v>13095386</v>
       </c>
       <c r="F61" t="n">
-        <v>5116.879875443638</v>
+        <v>5086.07347947264</v>
       </c>
       <c r="G61" t="n">
-        <v>2841.971864443793</v>
+        <v>2761.570204071393</v>
       </c>
       <c r="H61" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="I61" t="n">
-        <v>2163502</v>
+        <v>2192724</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>195719965</v>
+        <v>196070379</v>
       </c>
       <c r="E62" t="n">
-        <v>1108286699</v>
+        <v>1110270959</v>
       </c>
       <c r="F62" t="n">
-        <v>624548.0519440505</v>
+        <v>532880.3379689655</v>
       </c>
       <c r="G62" t="n">
-        <v>828678.8896342231</v>
+        <v>822044.95523293</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>83309599</v>
+        <v>82946515</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>498329</v>
+        <v>488436</v>
       </c>
       <c r="E63" t="n">
-        <v>1677307</v>
+        <v>1644009</v>
       </c>
       <c r="F63" t="n">
-        <v>5118.799132393114</v>
+        <v>5261.577195945412</v>
       </c>
       <c r="G63" t="n">
-        <v>511.2669088294726</v>
+        <v>474.3223806835128</v>
       </c>
       <c r="H63" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I63" t="n">
-        <v>643303</v>
+        <v>642771</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>366895</v>
+        <v>370268</v>
       </c>
       <c r="E64" t="n">
-        <v>366895</v>
+        <v>370268</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4481.81</v>
+        <v>4536.51</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>129235366</v>
+        <v>130516703</v>
       </c>
       <c r="E65" t="n">
-        <v>957299007</v>
+        <v>966790394</v>
       </c>
       <c r="F65" t="n">
-        <v>31349.51353399599</v>
+        <v>33460.02857835986</v>
       </c>
       <c r="G65" t="n">
-        <v>41826.22013480712</v>
+        <v>36320.3263767293</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>40149005</v>
+        <v>40321978</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8834386</v>
+        <v>8743607</v>
       </c>
       <c r="E66" t="n">
-        <v>11835132</v>
+        <v>11713518</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>87964</v>
+        <v>94068</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26248405</v>
+        <v>26339472</v>
       </c>
       <c r="E67" t="n">
-        <v>26248405</v>
+        <v>26339472</v>
       </c>
       <c r="F67" t="n">
-        <v>6430.2029125366</v>
+        <v>8851.485126393703</v>
       </c>
       <c r="G67" t="n">
-        <v>4794.893115635319</v>
+        <v>5207.383281476683</v>
       </c>
       <c r="H67" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I67" t="n">
-        <v>369915</v>
+        <v>369011</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1540248</v>
+        <v>1564576</v>
       </c>
       <c r="E68" t="n">
-        <v>11961744</v>
+        <v>12150678</v>
       </c>
       <c r="F68" t="n">
-        <v>13153.90711880221</v>
+        <v>14151.40012412541</v>
       </c>
       <c r="G68" t="n">
-        <v>26335.04789877209</v>
+        <v>24307.00686380517</v>
       </c>
       <c r="H68" t="n">
-        <v>0.84</v>
+        <v>0.5</v>
       </c>
       <c r="I68" t="n">
-        <v>506459</v>
+        <v>524810</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>323572878</v>
+        <v>322191400</v>
       </c>
       <c r="E69" t="n">
-        <v>2911062251</v>
+        <v>2898633619</v>
       </c>
       <c r="F69" t="n">
-        <v>1637486.957269516</v>
+        <v>1311170.240701335</v>
       </c>
       <c r="G69" t="n">
-        <v>1560907.600025024</v>
+        <v>1594863.285380052</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>69922750</v>
+        <v>70830844</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>250579</v>
+        <v>249630</v>
       </c>
       <c r="E70" t="n">
-        <v>2211544</v>
+        <v>2203171</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>77402</v>
+        <v>76386</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1550521</v>
+        <v>1549810</v>
       </c>
       <c r="E71" t="n">
-        <v>12921007</v>
+        <v>12915084</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>33411</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9371408</v>
+        <v>9397570</v>
       </c>
       <c r="E72" t="n">
-        <v>43437015</v>
+        <v>43558276</v>
       </c>
       <c r="F72" t="n">
-        <v>9288.188907667971</v>
+        <v>9912.765316849433</v>
       </c>
       <c r="G72" t="n">
-        <v>3337.446043066928</v>
+        <v>3404.747657787415</v>
       </c>
       <c r="H72" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="I72" t="n">
-        <v>113590</v>
+        <v>112742</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47533346</v>
+        <v>47866522</v>
       </c>
       <c r="E73" t="n">
-        <v>275198435</v>
+        <v>277127382</v>
       </c>
       <c r="F73" t="n">
-        <v>98871.89138107057</v>
+        <v>105697.3513808611</v>
       </c>
       <c r="G73" t="n">
-        <v>200797.8040075458</v>
+        <v>215029.6542180274</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>34101317</v>
+        <v>32976694</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>38452999</v>
+        <v>37879907</v>
       </c>
       <c r="E74" t="n">
-        <v>53109067</v>
+        <v>52317546</v>
       </c>
       <c r="F74" t="n">
-        <v>10817.10823251832</v>
+        <v>497.2678334467703</v>
       </c>
       <c r="G74" t="n">
-        <v>4466.166609316332</v>
+        <v>754.0536835050738</v>
       </c>
       <c r="H74" t="n">
-        <v>0.32</v>
+        <v>1.05</v>
       </c>
       <c r="I74" t="n">
-        <v>313151</v>
+        <v>326318</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>99920</v>
+        <v>104585</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4389.2</v>
+        <v>5200.55</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13420390</v>
+        <v>13468410</v>
       </c>
       <c r="E76" t="n">
-        <v>13466061</v>
+        <v>13514245</v>
       </c>
       <c r="F76" t="n">
-        <v>5075.379176941261</v>
+        <v>2138.472645377085</v>
       </c>
       <c r="G76" t="n">
-        <v>5895.349230635606</v>
+        <v>7130.936428430211</v>
       </c>
       <c r="H76" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>7376556</v>
+        <v>7433547</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41884166</v>
+        <v>41874259</v>
       </c>
       <c r="E77" t="n">
-        <v>71099252</v>
+        <v>71082434</v>
       </c>
       <c r="F77" t="n">
-        <v>6551.471152340247</v>
+        <v>7426.608565973623</v>
       </c>
       <c r="G77" t="n">
-        <v>10521.12201293264</v>
+        <v>6920.146853783247</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I77" t="n">
-        <v>1125932</v>
+        <v>1122859</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19397825</v>
+        <v>19508145</v>
       </c>
       <c r="E78" t="n">
-        <v>58160385</v>
+        <v>58491158</v>
       </c>
       <c r="F78" t="n">
-        <v>56496.09520418722</v>
+        <v>69794.03139184551</v>
       </c>
       <c r="G78" t="n">
-        <v>41255.80944496816</v>
+        <v>50818.87842791272</v>
       </c>
       <c r="H78" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="I78" t="n">
-        <v>4126616</v>
+        <v>4136723</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105844855</v>
+        <v>106011997</v>
       </c>
       <c r="E79" t="n">
-        <v>112522646</v>
+        <v>112700334</v>
       </c>
       <c r="F79" t="n">
-        <v>3031.213530176849</v>
+        <v>3133.004611950981</v>
       </c>
       <c r="G79" t="n">
-        <v>5083.170492605542</v>
+        <v>4321.212726674063</v>
       </c>
       <c r="H79" t="n">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="I79" t="n">
-        <v>990160</v>
+        <v>9380028</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10446162</v>
+        <v>10450608</v>
       </c>
       <c r="E80" t="n">
-        <v>45332672</v>
+        <v>45349619</v>
       </c>
       <c r="F80" t="n">
-        <v>5986.868426473447</v>
+        <v>5908.300526458034</v>
       </c>
       <c r="G80" t="n">
-        <v>5541.461794253499</v>
+        <v>5748.176784274915</v>
       </c>
       <c r="H80" t="n">
         <v>0.52</v>
       </c>
       <c r="I80" t="n">
-        <v>119427</v>
+        <v>120594</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15587470</v>
+        <v>15612916</v>
       </c>
       <c r="E81" t="n">
-        <v>95540728</v>
+        <v>95696696</v>
       </c>
       <c r="F81" t="n">
-        <v>4057.656977460385</v>
+        <v>4044.826009014838</v>
       </c>
       <c r="G81" t="n">
-        <v>6377.70906411472</v>
+        <v>5982.752723461547</v>
       </c>
       <c r="H81" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="I81" t="n">
-        <v>12984673</v>
+        <v>12419012</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1437318</v>
+        <v>1438744</v>
       </c>
       <c r="E82" t="n">
-        <v>1477748</v>
+        <v>1479214</v>
       </c>
       <c r="F82" t="n">
-        <v>2306.275992953761</v>
+        <v>1936.685725892207</v>
       </c>
       <c r="G82" t="n">
-        <v>2192.007738846202</v>
+        <v>2192.567034296192</v>
       </c>
       <c r="H82" t="n">
         <v>0.82</v>
       </c>
       <c r="I82" t="n">
-        <v>139520</v>
+        <v>138490</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>52105615</v>
+        <v>51860328</v>
       </c>
       <c r="E83" t="n">
-        <v>224465294</v>
+        <v>223408621</v>
       </c>
       <c r="F83" t="n">
-        <v>3237.771794853503</v>
+        <v>3069.630463016194</v>
       </c>
       <c r="G83" t="n">
-        <v>2246.994559326573</v>
+        <v>2417.598168407141</v>
       </c>
       <c r="H83" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I83" t="n">
-        <v>14910689</v>
+        <v>14904888</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2256159</v>
+        <v>2258550</v>
       </c>
       <c r="E84" t="n">
-        <v>8187994</v>
+        <v>8196600</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>217009</v>
+        <v>213913</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8778610</v>
+        <v>8775006</v>
       </c>
       <c r="E85" t="n">
-        <v>19469710</v>
+        <v>19461715</v>
       </c>
       <c r="F85" t="n">
-        <v>6101.677123942422</v>
+        <v>7908.78401970574</v>
       </c>
       <c r="G85" t="n">
-        <v>6168.370381679099</v>
+        <v>8310.356601384676</v>
       </c>
       <c r="H85" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="I85" t="n">
-        <v>284665</v>
+        <v>286190</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2444445</v>
+        <v>2443787</v>
       </c>
       <c r="E86" t="n">
-        <v>18393816</v>
+        <v>18388862</v>
       </c>
       <c r="F86" t="n">
-        <v>5184.880364947508</v>
+        <v>5338.903915242975</v>
       </c>
       <c r="G86" t="n">
-        <v>12055.9141670403</v>
+        <v>12024.81422144545</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>156288</v>
+        <v>155804</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18729175</v>
+        <v>18672353</v>
       </c>
       <c r="E87" t="n">
-        <v>74916700</v>
+        <v>74689413</v>
       </c>
       <c r="F87" t="n">
-        <v>5302.388096909018</v>
+        <v>5409.102992923935</v>
       </c>
       <c r="G87" t="n">
-        <v>1126.896936323073</v>
+        <v>1017.273832658297</v>
       </c>
       <c r="H87" t="n">
         <v>1.98</v>
       </c>
       <c r="I87" t="n">
-        <v>3922626</v>
+        <v>3920129</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4701148</v>
+        <v>4736072</v>
       </c>
       <c r="E88" t="n">
-        <v>4701148</v>
+        <v>4736072</v>
       </c>
       <c r="F88" t="n">
-        <v>967.1238331372119</v>
+        <v>1671.617493458662</v>
       </c>
       <c r="G88" t="n">
-        <v>2128.538836050841</v>
+        <v>2063.621129923584</v>
       </c>
       <c r="H88" t="n">
-        <v>0.43</v>
+        <v>1.42</v>
       </c>
       <c r="I88" t="n">
-        <v>2811759</v>
+        <v>2772682</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13351842</v>
+        <v>13252522</v>
       </c>
       <c r="E89" t="n">
-        <v>42229779</v>
+        <v>41913804</v>
       </c>
       <c r="F89" t="n">
-        <v>14867.33621997458</v>
+        <v>12532.76014701865</v>
       </c>
       <c r="G89" t="n">
-        <v>9834.481765685934</v>
+        <v>13875.19256690073</v>
       </c>
       <c r="H89" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="I89" t="n">
-        <v>1237545</v>
+        <v>1269495</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24698</v>
+        <v>24709</v>
       </c>
       <c r="E90" t="n">
-        <v>194240</v>
+        <v>194332</v>
       </c>
       <c r="F90" t="n">
-        <v>264.664774099584</v>
+        <v>264.6648239546523</v>
       </c>
       <c r="G90" t="n">
-        <v>652.0837865924406</v>
+        <v>653.1926915394379</v>
       </c>
       <c r="H90" t="n">
         <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>27332</v>
+        <v>26657</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8247086</v>
+        <v>8405068</v>
       </c>
       <c r="E91" t="n">
-        <v>8247086</v>
+        <v>8405068</v>
       </c>
       <c r="F91" t="n">
-        <v>2747.100939872056</v>
+        <v>2001.111360286301</v>
       </c>
       <c r="G91" t="n">
-        <v>4777.253160996193</v>
+        <v>4470.510244345031</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="I91" t="n">
-        <v>4290134</v>
+        <v>4278524</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8823483</v>
+        <v>8920801</v>
       </c>
       <c r="E92" t="n">
-        <v>8823483</v>
+        <v>8920801</v>
       </c>
       <c r="F92" t="n">
-        <v>5245.720513285236</v>
+        <v>4890.28525301669</v>
       </c>
       <c r="G92" t="n">
-        <v>3612.611049646696</v>
+        <v>4578.711629136702</v>
       </c>
       <c r="H92" t="n">
-        <v>1.04</v>
+        <v>0.52</v>
       </c>
       <c r="I92" t="n">
-        <v>1363389</v>
+        <v>1379440</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31748344</v>
+        <v>31633605</v>
       </c>
       <c r="E93" t="n">
-        <v>80054082</v>
+        <v>79764764</v>
       </c>
       <c r="F93" t="n">
-        <v>2.998964132168827</v>
+        <v>49.88136942844415</v>
       </c>
       <c r="G93" t="n">
-        <v>9418.752061173347</v>
+        <v>1805.615307042745</v>
       </c>
       <c r="H93" t="n">
-        <v>0.25</v>
+        <v>2.79</v>
       </c>
       <c r="I93" t="n">
-        <v>6492681</v>
+        <v>6512801</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>302062439</v>
+        <v>302210819</v>
       </c>
       <c r="E94" t="n">
-        <v>306787494</v>
+        <v>306936910</v>
       </c>
       <c r="F94" t="n">
-        <v>6435.457294034653</v>
+        <v>7504.473968241418</v>
       </c>
       <c r="G94" t="n">
-        <v>6970.406585249645</v>
+        <v>6554.964559101898</v>
       </c>
       <c r="H94" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I94" t="n">
-        <v>23792424</v>
+        <v>23373965</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1002.105785086311</v>
+        <v>3602.064837220626</v>
       </c>
       <c r="G95" t="n">
-        <v>6532.432300104193</v>
+        <v>6317.160179565294</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>156268</v>
+        <v>154453</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77909683</v>
+        <v>78130229</v>
       </c>
       <c r="E96" t="n">
-        <v>77909683</v>
+        <v>78130229</v>
       </c>
       <c r="F96" t="n">
-        <v>12790.94151116376</v>
+        <v>11845.15041973763</v>
       </c>
       <c r="G96" t="n">
-        <v>7238.662041200729</v>
+        <v>5365.293448658876</v>
       </c>
       <c r="H96" t="n">
         <v>0.41</v>
       </c>
       <c r="I96" t="n">
-        <v>4560999</v>
+        <v>4351287</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>300326864</v>
+        <v>301450664</v>
       </c>
       <c r="E97" t="n">
-        <v>300326864</v>
+        <v>301450664</v>
       </c>
       <c r="F97" t="n">
-        <v>302143.6402569409</v>
+        <v>344518.9441236474</v>
       </c>
       <c r="G97" t="n">
-        <v>479049.3184364329</v>
+        <v>459387.252383937</v>
       </c>
       <c r="H97" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>105099651</v>
+        <v>91406055</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4576132</v>
+        <v>4607167</v>
       </c>
       <c r="E98" t="n">
-        <v>31268388</v>
+        <v>31480450</v>
       </c>
       <c r="F98" t="n">
-        <v>307.1150534905141</v>
+        <v>5067.085215139919</v>
       </c>
       <c r="G98" t="n">
-        <v>305.2837529293398</v>
+        <v>5820.134925540277</v>
       </c>
       <c r="H98" t="n">
         <v>0.32</v>
       </c>
       <c r="I98" t="n">
-        <v>3064636</v>
+        <v>3077247</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84502382</v>
+        <v>84797163</v>
       </c>
       <c r="E99" t="n">
-        <v>486939171</v>
+        <v>488637828</v>
       </c>
       <c r="F99" t="n">
-        <v>151314.5746479724</v>
+        <v>143298.3267605127</v>
       </c>
       <c r="G99" t="n">
-        <v>128816.2351659052</v>
+        <v>155799.9549525786</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21509279</v>
+        <v>21547199</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108333158</v>
+        <v>108569141</v>
       </c>
       <c r="E100" t="n">
-        <v>266541893</v>
+        <v>267122505</v>
       </c>
       <c r="F100" t="n">
-        <v>44432.8463211453</v>
+        <v>35349.87928510545</v>
       </c>
       <c r="G100" t="n">
-        <v>35548.17860837829</v>
+        <v>42243.55674561123</v>
       </c>
       <c r="H100" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>3253870</v>
+        <v>3266106</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>239339016</v>
+        <v>239811944</v>
       </c>
       <c r="E101" t="n">
-        <v>239341394</v>
+        <v>239814327</v>
       </c>
       <c r="F101" t="n">
-        <v>41334.07066692942</v>
+        <v>25619.24118577414</v>
       </c>
       <c r="G101" t="n">
-        <v>22205.23901000651</v>
+        <v>29892.53519546265</v>
       </c>
       <c r="H101" t="n">
         <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2824021</v>
+        <v>2826290</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30584292</v>
+        <v>30638311</v>
       </c>
       <c r="E102" t="n">
-        <v>136938422</v>
+        <v>137180286</v>
       </c>
       <c r="F102" t="n">
-        <v>56784.61031788335</v>
+        <v>66106.99466139459</v>
       </c>
       <c r="G102" t="n">
-        <v>99310.03998798583</v>
+        <v>104531.6615398275</v>
       </c>
       <c r="H102" t="n">
         <v>0.22</v>
       </c>
       <c r="I102" t="n">
-        <v>19471405</v>
+        <v>19724474</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2821904</v>
+        <v>2818231</v>
       </c>
       <c r="E103" t="n">
-        <v>2821904</v>
+        <v>2818231</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>297244</v>
+        <v>290985</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5992970</v>
+        <v>5947251</v>
       </c>
       <c r="E104" t="n">
-        <v>15728529</v>
+        <v>15608534</v>
       </c>
       <c r="F104" t="n">
-        <v>582.5078495901432</v>
+        <v>616.0600999486199</v>
       </c>
       <c r="G104" t="n">
-        <v>91.23660687434854</v>
+        <v>570.3774333510154</v>
       </c>
       <c r="H104" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="I104" t="n">
-        <v>30112</v>
+        <v>26712</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16256203</v>
+        <v>16228178</v>
       </c>
       <c r="E105" t="n">
-        <v>75036544</v>
+        <v>74907269</v>
       </c>
       <c r="F105" t="n">
-        <v>6555.15499838985</v>
+        <v>6017.13369186519</v>
       </c>
       <c r="G105" t="n">
-        <v>12779.25463874959</v>
+        <v>11945.35383021628</v>
       </c>
       <c r="H105" t="n">
         <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1159813</v>
+        <v>1160171</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>47885857</v>
+        <v>48056356</v>
       </c>
       <c r="E106" t="n">
-        <v>310527037</v>
+        <v>311632677</v>
       </c>
       <c r="F106" t="n">
-        <v>129917.2450681811</v>
+        <v>135395.5422369963</v>
       </c>
       <c r="G106" t="n">
-        <v>154769.1103842971</v>
+        <v>170297.5022484084</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21808050</v>
+        <v>21815158</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2438542</v>
+        <v>2443861</v>
       </c>
       <c r="E107" t="n">
-        <v>4417879</v>
+        <v>4427514</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>84656</v>
+        <v>83057</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123739416</v>
+        <v>123050355</v>
       </c>
       <c r="E108" t="n">
-        <v>2049226077</v>
+        <v>2037814664</v>
       </c>
       <c r="F108" t="n">
-        <v>29828.76402424627</v>
+        <v>22084.07324284288</v>
       </c>
       <c r="G108" t="n">
-        <v>160652.661886359</v>
+        <v>173479.0380684813</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>53094471</v>
+        <v>60381675</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23020168</v>
+        <v>23059702</v>
       </c>
       <c r="E109" t="n">
-        <v>137734293</v>
+        <v>137970832</v>
       </c>
       <c r="F109" t="n">
-        <v>40488.19783269265</v>
+        <v>40089.24984343459</v>
       </c>
       <c r="G109" t="n">
-        <v>38801.11202236259</v>
+        <v>39464.97747319649</v>
       </c>
       <c r="H109" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I109" t="n">
-        <v>17790911</v>
+        <v>17824156</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1027755</v>
+        <v>1027506</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>88001</v>
+        <v>87482</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2410820</v>
+        <v>2400509</v>
       </c>
       <c r="F111" t="n">
-        <v>3378.961693545275</v>
+        <v>4750.979542292303</v>
       </c>
       <c r="G111" t="n">
-        <v>236.5012954816655</v>
+        <v>231.6385710794439</v>
       </c>
       <c r="H111" t="n">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="I111" t="n">
-        <v>218830</v>
+        <v>218265</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149674174</v>
+        <v>149758147</v>
       </c>
       <c r="F112" t="n">
-        <v>5415.573066367147</v>
+        <v>4945.586797342162</v>
       </c>
       <c r="G112" t="n">
-        <v>3478.669098077948</v>
+        <v>3844.646414113928</v>
       </c>
       <c r="H112" t="n">
         <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>79597</v>
+        <v>80374</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6206512</v>
+        <v>6233299</v>
       </c>
       <c r="E113" t="n">
-        <v>31930616</v>
+        <v>32068429</v>
       </c>
       <c r="F113" t="n">
-        <v>1746.211079809136</v>
+        <v>2699.801777398557</v>
       </c>
       <c r="G113" t="n">
-        <v>1322.931088462017</v>
+        <v>1289.631188366174</v>
       </c>
       <c r="H113" t="n">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="I113" t="n">
-        <v>980772</v>
+        <v>981814</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30566746</v>
+        <v>30649112</v>
       </c>
       <c r="E114" t="n">
-        <v>41912353</v>
+        <v>42025291</v>
       </c>
       <c r="F114" t="n">
-        <v>4858.25425596817</v>
+        <v>2896.462340412984</v>
       </c>
       <c r="G114" t="n">
-        <v>6241.991835895392</v>
+        <v>6634.940937476243</v>
       </c>
       <c r="H114" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I114" t="n">
-        <v>1574247</v>
+        <v>1591818</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7575494</v>
+        <v>7572752</v>
       </c>
       <c r="F115" t="n">
-        <v>1803.491878626575</v>
+        <v>1808.785602345282</v>
       </c>
       <c r="G115" t="n">
-        <v>5834.694410969585</v>
+        <v>5692.599042938649</v>
       </c>
       <c r="H115" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="I115" t="n">
-        <v>685404</v>
+        <v>699524</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3550862</v>
+        <v>3576813</v>
       </c>
       <c r="E116" t="n">
-        <v>4756604</v>
+        <v>4791367</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>126547</v>
+        <v>126422</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32548479</v>
+        <v>32770882</v>
       </c>
       <c r="E117" t="n">
-        <v>162431916</v>
+        <v>163541808</v>
       </c>
       <c r="F117" t="n">
-        <v>85662.65105334521</v>
+        <v>95479.81009335852</v>
       </c>
       <c r="G117" t="n">
-        <v>81928.62228511448</v>
+        <v>89419.92941989051</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>13757541</v>
+        <v>13786082</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3493236</v>
+        <v>3492803</v>
       </c>
       <c r="E118" t="n">
-        <v>5018095</v>
+        <v>5017473</v>
       </c>
       <c r="F118" t="n">
-        <v>616.7468681087404</v>
+        <v>616.741791233623</v>
       </c>
       <c r="G118" t="n">
-        <v>654.3652125383206</v>
+        <v>651.7951359685078</v>
       </c>
       <c r="H118" t="n">
         <v>0.79</v>
       </c>
       <c r="I118" t="n">
-        <v>173910</v>
+        <v>177915</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>296027705</v>
+        <v>300260770</v>
       </c>
       <c r="E119" t="n">
-        <v>547718762</v>
+        <v>555550897</v>
       </c>
       <c r="F119" t="n">
-        <v>37463.08888981566</v>
+        <v>36091.79257493777</v>
       </c>
       <c r="G119" t="n">
-        <v>43989.36654896881</v>
+        <v>63002.6097050413</v>
       </c>
       <c r="H119" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I119" t="n">
-        <v>26128091</v>
+        <v>26061872</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69007738</v>
+        <v>69378909</v>
       </c>
       <c r="E120" t="n">
-        <v>658138026</v>
+        <v>661671347</v>
       </c>
       <c r="F120" t="n">
-        <v>3562.975168331537</v>
+        <v>2100.137561623113</v>
       </c>
       <c r="G120" t="n">
-        <v>4557.229739127949</v>
+        <v>4537.087109986933</v>
       </c>
       <c r="H120" t="n">
         <v>0.03</v>
       </c>
       <c r="I120" t="n">
-        <v>25551949</v>
+        <v>25460407</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36971036</v>
+        <v>36923654</v>
       </c>
       <c r="E121" t="n">
-        <v>48331654</v>
+        <v>48269630</v>
       </c>
       <c r="F121" t="n">
-        <v>6032.579715562596</v>
+        <v>6044.707694605758</v>
       </c>
       <c r="G121" t="n">
-        <v>361.9886761706274</v>
+        <v>245.8592688908677</v>
       </c>
       <c r="H121" t="n">
         <v>1.84</v>
       </c>
       <c r="I121" t="n">
-        <v>241693</v>
+        <v>145907</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9765045</v>
+        <v>9848253</v>
       </c>
       <c r="E122" t="n">
-        <v>28948852</v>
+        <v>29195523</v>
       </c>
       <c r="F122" t="n">
-        <v>2149.407302832628</v>
+        <v>792.5859836225926</v>
       </c>
       <c r="G122" t="n">
-        <v>7838.870061768334</v>
+        <v>7449.638128397037</v>
       </c>
       <c r="H122" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="I122" t="n">
-        <v>6649924</v>
+        <v>6761648</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2272332</v>
+        <v>2268539</v>
       </c>
       <c r="E123" t="n">
-        <v>7593302</v>
+        <v>7580626</v>
       </c>
       <c r="F123" t="n">
-        <v>710.5196707126122</v>
+        <v>483.530306548427</v>
       </c>
       <c r="G123" t="n">
-        <v>995.564131031403</v>
+        <v>1151.875771990005</v>
       </c>
       <c r="H123" t="n">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>978263</v>
+        <v>992700</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7347219</v>
+        <v>7357495</v>
       </c>
       <c r="E124" t="n">
-        <v>7347229</v>
+        <v>7357506</v>
       </c>
       <c r="F124" t="n">
-        <v>145.0984926616294</v>
+        <v>718.887789763168</v>
       </c>
       <c r="G124" t="n">
-        <v>473.4708882092021</v>
+        <v>609.4819777560676</v>
       </c>
       <c r="H124" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="I124" t="n">
-        <v>228389</v>
+        <v>224511</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6183631</v>
+        <v>6306310</v>
       </c>
       <c r="E125" t="n">
-        <v>6183631</v>
+        <v>6306310</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>572723</v>
+        <v>597006</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6172863</v>
+        <v>6145449</v>
       </c>
       <c r="E126" t="n">
-        <v>22547079</v>
+        <v>22446946</v>
       </c>
       <c r="F126" t="n">
-        <v>5303.176367412527</v>
+        <v>280.2355977363678</v>
       </c>
       <c r="G126" t="n">
-        <v>7613.266097476438</v>
+        <v>7594.77099379351</v>
       </c>
       <c r="H126" t="n">
         <v>0.62</v>
       </c>
       <c r="I126" t="n">
-        <v>531058</v>
+        <v>530482</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44141508</v>
+        <v>44512002</v>
       </c>
       <c r="E127" t="n">
-        <v>44141508</v>
+        <v>44512002</v>
       </c>
       <c r="F127" t="n">
-        <v>56173.38079772042</v>
+        <v>57905.44806105212</v>
       </c>
       <c r="G127" t="n">
-        <v>77935.54634377838</v>
+        <v>71072.07674376317</v>
       </c>
       <c r="H127" t="n">
         <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>11823842</v>
+        <v>11771828</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141815153</v>
+        <v>141404321</v>
       </c>
       <c r="F128" t="n">
-        <v>1361.583491645965</v>
+        <v>637.8556540329655</v>
       </c>
       <c r="G128" t="n">
-        <v>3119.309554781165</v>
+        <v>3216.542487341615</v>
       </c>
       <c r="H128" t="n">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>1749388</v>
+        <v>1740866</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2887460</v>
+        <v>2885227</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>66882</v>
+        <v>66859</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19526628</v>
+        <v>19460869</v>
       </c>
       <c r="F130" t="n">
-        <v>437.2010238101707</v>
+        <v>466.2475390899399</v>
       </c>
       <c r="G130" t="n">
-        <v>1110.40680445827</v>
+        <v>1201.398861085528</v>
       </c>
       <c r="H130" t="n">
-        <v>0.96</v>
+        <v>1.83</v>
       </c>
       <c r="I130" t="n">
-        <v>2916404</v>
+        <v>2906134</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1273616</v>
+        <v>1274281</v>
       </c>
       <c r="E131" t="n">
-        <v>3844735</v>
+        <v>3846601</v>
       </c>
       <c r="F131" t="n">
-        <v>804.6106051011499</v>
+        <v>824.3178468022642</v>
       </c>
       <c r="G131" t="n">
-        <v>693.3438908087613</v>
+        <v>691.1572030728388</v>
       </c>
       <c r="H131" t="n">
         <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>46357</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>582579619</v>
+        <v>584363722</v>
       </c>
       <c r="E132" t="n">
-        <v>2256244912</v>
+        <v>2263154478</v>
       </c>
       <c r="F132" t="n">
-        <v>691289.663937634</v>
+        <v>746668.2172967215</v>
       </c>
       <c r="G132" t="n">
-        <v>1031504.245009966</v>
+        <v>1023113.41437559</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62007762</v>
+        <v>62112175</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3596729</v>
+        <v>3599058</v>
       </c>
       <c r="E133" t="n">
-        <v>6131113</v>
+        <v>6135083</v>
       </c>
       <c r="F133" t="n">
-        <v>5045.131647699912</v>
+        <v>5060.069848521041</v>
       </c>
       <c r="G133" t="n">
-        <v>5096.287704679916</v>
+        <v>5011.963632407946</v>
       </c>
       <c r="H133" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>1182668</v>
+        <v>1195416</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109192441</v>
+        <v>109174531</v>
       </c>
       <c r="E134" t="n">
-        <v>1033152963</v>
+        <v>1032983508</v>
       </c>
       <c r="F134" t="n">
-        <v>98242.84000986302</v>
+        <v>117996.0508037491</v>
       </c>
       <c r="G134" t="n">
-        <v>102533.5925487516</v>
+        <v>99517.27023186028</v>
       </c>
       <c r="H134" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I134" t="n">
-        <v>17965380</v>
+        <v>17945698</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>989012227</v>
+        <v>976972145</v>
       </c>
       <c r="E135" t="n">
-        <v>1086432642</v>
+        <v>1073206579</v>
       </c>
       <c r="F135" t="n">
-        <v>14991.44924276443</v>
+        <v>10893.97093208259</v>
       </c>
       <c r="G135" t="n">
-        <v>13390.86656804034</v>
+        <v>12797.96053511773</v>
       </c>
       <c r="H135" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="I135" t="n">
-        <v>10299518</v>
+        <v>10124170</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1058243</v>
+        <v>1059380</v>
       </c>
       <c r="E136" t="n">
-        <v>4097749</v>
+        <v>4102151</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>188042</v>
+        <v>260726</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>120940316</v>
+        <v>122024172</v>
       </c>
       <c r="E137" t="n">
-        <v>463946517</v>
+        <v>468104365</v>
       </c>
       <c r="F137" t="n">
-        <v>142030.1070857452</v>
+        <v>136492.6830608177</v>
       </c>
       <c r="G137" t="n">
-        <v>240911.6235472879</v>
+        <v>253482.2782420103</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32379238</v>
+        <v>32267749</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3108749</v>
+        <v>3133626</v>
       </c>
       <c r="E138" t="n">
-        <v>29455855</v>
+        <v>29691567</v>
       </c>
       <c r="F138" t="n">
-        <v>5480.936451530051</v>
+        <v>4735.234873113046</v>
       </c>
       <c r="G138" t="n">
-        <v>3987.418050315147</v>
+        <v>2805.974492642617</v>
       </c>
       <c r="H138" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="I138" t="n">
-        <v>228103</v>
+        <v>229126</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22091001</v>
+        <v>24234434</v>
       </c>
       <c r="E139" t="n">
-        <v>22091001</v>
+        <v>24234434</v>
       </c>
       <c r="F139" t="n">
-        <v>1018.568393781147</v>
+        <v>35.27643593501305</v>
       </c>
       <c r="G139" t="n">
-        <v>793.3393389226447</v>
+        <v>44.38059962958241</v>
       </c>
       <c r="H139" t="n">
-        <v>1.49</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I139" t="n">
-        <v>810046</v>
+        <v>879934</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494158726</v>
+        <v>494305820</v>
       </c>
       <c r="E140" t="n">
-        <v>494158726</v>
+        <v>494305820</v>
       </c>
       <c r="F140" t="n">
-        <v>919472.9241961373</v>
+        <v>772414.7732091519</v>
       </c>
       <c r="G140" t="n">
-        <v>837178.5910392345</v>
+        <v>875075.2100727543</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>50023086</v>
+        <v>49946945</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>42560209</v>
+        <v>44060439</v>
       </c>
       <c r="F141" t="n">
-        <v>11243.8678247445</v>
+        <v>49830.46608782778</v>
       </c>
       <c r="G141" t="n">
-        <v>34337.2104370227</v>
+        <v>70531.8422913174</v>
       </c>
       <c r="H141" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I141" t="n">
-        <v>10904297</v>
+        <v>12003081</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>776302</v>
+        <v>760539</v>
       </c>
       <c r="E142" t="n">
-        <v>12381734</v>
+        <v>12130321</v>
       </c>
       <c r="F142" t="n">
-        <v>52.86807467678971</v>
+        <v>82.32579624909827</v>
       </c>
       <c r="G142" t="n">
-        <v>128.5747970050394</v>
+        <v>228.9405020162732</v>
       </c>
       <c r="H142" t="n">
-        <v>0.4</v>
+        <v>1.47</v>
       </c>
       <c r="I142" t="n">
-        <v>146417</v>
+        <v>136661</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2548220635</v>
+        <v>2555169530</v>
       </c>
       <c r="E143" t="n">
-        <v>2705547260</v>
+        <v>2712925178</v>
       </c>
       <c r="F143" t="n">
-        <v>3487.335223257917</v>
+        <v>3025.898466052372</v>
       </c>
       <c r="G143" t="n">
-        <v>26021.3535788376</v>
+        <v>25410.65668305506</v>
       </c>
       <c r="H143" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I143" t="n">
-        <v>60848823</v>
+        <v>61103834</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1697726</v>
+        <v>1699647</v>
       </c>
       <c r="E144" t="n">
-        <v>1703718</v>
+        <v>1705647</v>
       </c>
       <c r="F144" t="n">
-        <v>1781.542844726345</v>
+        <v>1735.662031471755</v>
       </c>
       <c r="G144" t="n">
-        <v>280.4060904597058</v>
+        <v>219.3000727761741</v>
       </c>
       <c r="H144" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="I144" t="n">
-        <v>405269</v>
+        <v>403345</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55955625</v>
+        <v>55860003</v>
       </c>
       <c r="E145" t="n">
-        <v>137255356</v>
+        <v>137020801</v>
       </c>
       <c r="F145" t="n">
-        <v>4888.163845197577</v>
+        <v>6265.560462227662</v>
       </c>
       <c r="G145" t="n">
-        <v>4354.803315262542</v>
+        <v>1257.385056146741</v>
       </c>
       <c r="H145" t="n">
-        <v>0.73</v>
+        <v>1.83</v>
       </c>
       <c r="I145" t="n">
-        <v>22152285</v>
+        <v>22197283</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>757566824</v>
+        <v>764372333</v>
       </c>
       <c r="E146" t="n">
-        <v>1168234930</v>
+        <v>1178729626</v>
       </c>
       <c r="F146" t="n">
-        <v>142748.4023609012</v>
+        <v>149097.8680540939</v>
       </c>
       <c r="G146" t="n">
-        <v>127529.1667913486</v>
+        <v>124866.6487487486</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I146" t="n">
-        <v>338433076</v>
+        <v>341824945</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22678613</v>
+        <v>22894775</v>
       </c>
       <c r="E147" t="n">
-        <v>22678613</v>
+        <v>22894775</v>
       </c>
       <c r="F147" t="n">
-        <v>4649.023152058438</v>
+        <v>3536.39651968055</v>
       </c>
       <c r="G147" t="n">
-        <v>2658.710947252952</v>
+        <v>7513.314538910059</v>
       </c>
       <c r="H147" t="n">
-        <v>0.32</v>
+        <v>0.95</v>
       </c>
       <c r="I147" t="n">
-        <v>5728310</v>
+        <v>5552391</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3798456</v>
+        <v>3807090</v>
       </c>
       <c r="E148" t="n">
-        <v>8280102</v>
+        <v>8298923</v>
       </c>
       <c r="F148" t="n">
-        <v>6739.110264305544</v>
+        <v>6738.870566584442</v>
       </c>
       <c r="G148" t="n">
-        <v>7508.488123474264</v>
+        <v>7493.114407535193</v>
       </c>
       <c r="H148" t="n">
         <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>2240602</v>
+        <v>2248874</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9251193</v>
+        <v>9249935</v>
       </c>
       <c r="E149" t="n">
-        <v>9251193</v>
+        <v>9249935</v>
       </c>
       <c r="F149" t="n">
-        <v>81253.37806175173</v>
+        <v>74950.57615937442</v>
       </c>
       <c r="G149" t="n">
-        <v>79496.82081202618</v>
+        <v>83159.05218705349</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6603521</v>
+        <v>5417890</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>465565582</v>
+        <v>468541628</v>
       </c>
       <c r="E150" t="n">
-        <v>1619773687</v>
+        <v>1630127804</v>
       </c>
       <c r="F150" t="n">
-        <v>757083.5041500647</v>
+        <v>569680.7111341356</v>
       </c>
       <c r="G150" t="n">
-        <v>842390.5365171602</v>
+        <v>680669.5499621133</v>
       </c>
       <c r="H150" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>48771053</v>
+        <v>48984351</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46120862</v>
+        <v>46326335</v>
       </c>
       <c r="E151" t="n">
-        <v>113532892</v>
+        <v>114038698</v>
       </c>
       <c r="F151" t="n">
-        <v>8255.856792362651</v>
+        <v>8560.080420675267</v>
       </c>
       <c r="G151" t="n">
-        <v>8114.777151731233</v>
+        <v>5564.942754000603</v>
       </c>
       <c r="H151" t="n">
         <v>0.35</v>
       </c>
       <c r="I151" t="n">
-        <v>356245</v>
+        <v>176843</v>
       </c>
     </row>
     <row r="152">
@@ -5683,10 +5683,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7396477</v>
+        <v>7229852</v>
       </c>
       <c r="E152" t="n">
-        <v>19215251</v>
+        <v>18782379</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>4.64</v>
       </c>
       <c r="I152" t="n">
-        <v>800484</v>
+        <v>813099</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18945486243</v>
+        <v>18967143875</v>
       </c>
       <c r="F153" t="n">
-        <v>1494.447730944767</v>
+        <v>1497.442565006113</v>
       </c>
       <c r="G153" t="n">
-        <v>29453.22683092764</v>
+        <v>29452.98438179648</v>
       </c>
       <c r="H153" t="n">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="I153" t="n">
-        <v>17622452</v>
+        <v>16734179</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2288951</v>
+        <v>2285731</v>
       </c>
       <c r="E154" t="n">
-        <v>9155803</v>
+        <v>9142925</v>
       </c>
       <c r="F154" t="n">
-        <v>728.2574188386708</v>
+        <v>933.0412240649789</v>
       </c>
       <c r="G154" t="n">
-        <v>1822.879614761951</v>
+        <v>1613.411715783956</v>
       </c>
       <c r="H154" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="I154" t="n">
-        <v>8168177</v>
+        <v>8225585</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>210309907</v>
+        <v>212534336</v>
       </c>
       <c r="E155" t="n">
-        <v>646623819</v>
+        <v>653463102</v>
       </c>
       <c r="F155" t="n">
-        <v>34930.85377290685</v>
+        <v>55260.91524776696</v>
       </c>
       <c r="G155" t="n">
-        <v>61262.60212881416</v>
+        <v>73619.82049965289</v>
       </c>
       <c r="H155" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>21226145</v>
+        <v>20940993</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>378926118</v>
+        <v>381741442</v>
       </c>
       <c r="E156" t="n">
-        <v>2165292106</v>
+        <v>2181379670</v>
       </c>
       <c r="F156" t="n">
-        <v>291735.0737041805</v>
+        <v>269562.8420499343</v>
       </c>
       <c r="G156" t="n">
-        <v>315477.6692687737</v>
+        <v>337685.2241755336</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>64541990</v>
+        <v>64852734</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3848344</v>
+        <v>3854832</v>
       </c>
       <c r="F2" t="n">
-        <v>155.6094763258359</v>
+        <v>181.0340366696464</v>
       </c>
       <c r="G2" t="n">
-        <v>1199.192208029314</v>
+        <v>1321.38513263671</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>2.71</v>
       </c>
       <c r="I2" t="n">
-        <v>130598</v>
+        <v>130782</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>614881166</v>
+        <v>615087558</v>
       </c>
       <c r="E3" t="n">
-        <v>1193334993</v>
+        <v>1193735508</v>
       </c>
       <c r="F3" t="n">
-        <v>14397.9468557637</v>
+        <v>11676.48150900034</v>
       </c>
       <c r="G3" t="n">
-        <v>32702.32791096871</v>
+        <v>30920.1483275242</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>50817889</v>
+        <v>51261448</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252777708</v>
+        <v>253109004</v>
       </c>
       <c r="E4" t="n">
-        <v>1585133476</v>
+        <v>1587210990</v>
       </c>
       <c r="F4" t="n">
-        <v>311332.571221673</v>
+        <v>241265.9294058808</v>
       </c>
       <c r="G4" t="n">
-        <v>269469.7741176134</v>
+        <v>224483.1731343831</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>29613603</v>
+        <v>29532295</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141150162</v>
+        <v>141163607</v>
       </c>
       <c r="E5" t="n">
-        <v>156416438</v>
+        <v>156431337</v>
       </c>
       <c r="F5" t="n">
-        <v>8747.88988428091</v>
+        <v>8848.534447623635</v>
       </c>
       <c r="G5" t="n">
-        <v>538.3563769854188</v>
+        <v>804.3523389840104</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>52211714</v>
+        <v>52260682</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49360823</v>
+        <v>49303926</v>
       </c>
       <c r="E6" t="n">
-        <v>61749124</v>
+        <v>61677947</v>
       </c>
       <c r="F6" t="n">
-        <v>5452.894446621865</v>
+        <v>5452.921206746531</v>
       </c>
       <c r="G6" t="n">
-        <v>7175.168558749058</v>
+        <v>7180.656183617702</v>
       </c>
       <c r="H6" t="n">
         <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>757815</v>
+        <v>755394</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66442142</v>
+        <v>66373384</v>
       </c>
       <c r="E7" t="n">
-        <v>132303961</v>
+        <v>132167046</v>
       </c>
       <c r="F7" t="n">
-        <v>11715.20178582183</v>
+        <v>11822.69953334884</v>
       </c>
       <c r="G7" t="n">
-        <v>12586.71253774364</v>
+        <v>12893.96384484073</v>
       </c>
       <c r="H7" t="n">
         <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>923821</v>
+        <v>922252</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42865166</v>
+        <v>42725112</v>
       </c>
       <c r="E8" t="n">
-        <v>47972295</v>
+        <v>47815555</v>
       </c>
       <c r="F8" t="n">
-        <v>839.9295464855587</v>
+        <v>656.9944601364488</v>
       </c>
       <c r="G8" t="n">
-        <v>295.8244752641153</v>
+        <v>662.3026462775089</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="I8" t="n">
-        <v>14452865</v>
+        <v>14506613</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13720429</v>
+        <v>13766691</v>
       </c>
       <c r="E9" t="n">
-        <v>40433218</v>
+        <v>40569549</v>
       </c>
       <c r="F9" t="n">
-        <v>4934.482542461583</v>
+        <v>4977.766592431629</v>
       </c>
       <c r="G9" t="n">
-        <v>4430.036359359371</v>
+        <v>4913.161787075188</v>
       </c>
       <c r="H9" t="n">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="I9" t="n">
-        <v>806744</v>
+        <v>804988</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9433238</v>
+        <v>9444675</v>
       </c>
       <c r="E10" t="n">
-        <v>40549304</v>
+        <v>40598468</v>
       </c>
       <c r="F10" t="n">
-        <v>402.9744846510274</v>
+        <v>404.4530279540315</v>
       </c>
       <c r="G10" t="n">
-        <v>16627.94651011118</v>
+        <v>15970.86371041638</v>
       </c>
       <c r="H10" t="n">
-        <v>1.41</v>
+        <v>0.82</v>
       </c>
       <c r="I10" t="n">
-        <v>684799</v>
+        <v>726775</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>555567971</v>
+        <v>556471482</v>
       </c>
       <c r="E11" t="n">
-        <v>694932960</v>
+        <v>696063118</v>
       </c>
       <c r="F11" t="n">
-        <v>319796.6445308793</v>
+        <v>307004.2659645439</v>
       </c>
       <c r="G11" t="n">
-        <v>318940.1788161926</v>
+        <v>315508.5801489797</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>98215103</v>
+        <v>97938627</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4389054</v>
+        <v>4363905</v>
       </c>
       <c r="E12" t="n">
-        <v>26947986</v>
+        <v>26793578</v>
       </c>
       <c r="F12" t="n">
-        <v>10296.82577742142</v>
+        <v>9179.658918132405</v>
       </c>
       <c r="G12" t="n">
-        <v>10456.84509631102</v>
+        <v>10255.42823847515</v>
       </c>
       <c r="H12" t="n">
-        <v>0.74</v>
+        <v>1.12</v>
       </c>
       <c r="I12" t="n">
-        <v>397600</v>
+        <v>395645</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23511527</v>
+        <v>23474229</v>
       </c>
       <c r="E13" t="n">
-        <v>23554486</v>
+        <v>23517120</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>858638</v>
+        <v>860285</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79773367</v>
+        <v>79305694</v>
       </c>
       <c r="E14" t="n">
-        <v>234703140</v>
+        <v>233327187</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>432380</v>
+        <v>399032</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>476418039</v>
+        <v>474443449</v>
       </c>
       <c r="E15" t="n">
-        <v>476418042</v>
+        <v>474443449</v>
       </c>
       <c r="F15" t="n">
-        <v>30136.50711076684</v>
+        <v>26737.68008113146</v>
       </c>
       <c r="G15" t="n">
-        <v>20120.8838139752</v>
+        <v>27509.42009547422</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>73711399</v>
+        <v>73323446</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4620737</v>
+        <v>4650544</v>
       </c>
       <c r="E16" t="n">
-        <v>4620737</v>
+        <v>4650544</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9627069379962</v>
+        <v>157.1261127475775</v>
       </c>
       <c r="G16" t="n">
-        <v>855.488672018079</v>
+        <v>1174.343884084892</v>
       </c>
       <c r="H16" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="I16" t="n">
-        <v>2291275</v>
+        <v>2289635</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3247190</v>
+        <v>3237144</v>
       </c>
       <c r="E17" t="n">
-        <v>3247190</v>
+        <v>3237144</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>730811</v>
+        <v>725535</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168433570</v>
+        <v>168345815</v>
       </c>
       <c r="E18" t="n">
-        <v>208527774</v>
+        <v>208419130</v>
       </c>
       <c r="F18" t="n">
-        <v>10574.44502077805</v>
+        <v>7963.817747207373</v>
       </c>
       <c r="G18" t="n">
-        <v>10116.21509365761</v>
+        <v>8951.372834612946</v>
       </c>
       <c r="H18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>525024</v>
+        <v>524712</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6225282</v>
+        <v>6221809</v>
       </c>
       <c r="E19" t="n">
-        <v>8573804</v>
+        <v>8569020</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>376837</v>
+        <v>376879</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>888940</v>
+        <v>889982</v>
       </c>
       <c r="E20" t="n">
-        <v>6222581</v>
+        <v>6229873</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>168487</v>
+        <v>147852</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>115365685</v>
+        <v>114350062</v>
       </c>
       <c r="E21" t="n">
-        <v>448196732</v>
+        <v>444241884</v>
       </c>
       <c r="F21" t="n">
-        <v>15844.43085598184</v>
+        <v>7657.296831194226</v>
       </c>
       <c r="G21" t="n">
-        <v>14299.30876236091</v>
+        <v>11479.54315512344</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>12658795</v>
+        <v>22024474</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1714294</v>
+        <v>1714297</v>
       </c>
       <c r="E22" t="n">
-        <v>12347917</v>
+        <v>12347933</v>
       </c>
       <c r="F22" t="n">
-        <v>4906.443714648564</v>
+        <v>4906.467793061736</v>
       </c>
       <c r="G22" t="n">
-        <v>6044.763726212104</v>
+        <v>6029.291708697737</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>54799</v>
+        <v>54784</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>139927778</v>
+        <v>140553605</v>
       </c>
       <c r="E23" t="n">
-        <v>139927778</v>
+        <v>140553605</v>
       </c>
       <c r="F23" t="n">
-        <v>980070.6486878349</v>
+        <v>943743.8138937439</v>
       </c>
       <c r="G23" t="n">
-        <v>1373726.950058012</v>
+        <v>1241035.493251082</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>93533533</v>
+        <v>93464570</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63158677</v>
+        <v>63037806</v>
       </c>
       <c r="E24" t="n">
-        <v>323890650</v>
+        <v>323270798</v>
       </c>
       <c r="F24" t="n">
-        <v>88841.2784579599</v>
+        <v>89016.99208043175</v>
       </c>
       <c r="G24" t="n">
-        <v>124386.0903507701</v>
+        <v>132028.8919175465</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>24118620</v>
+        <v>23989027</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251522906</v>
+        <v>251601601</v>
       </c>
       <c r="E25" t="n">
-        <v>251522906</v>
+        <v>251601601</v>
       </c>
       <c r="F25" t="n">
-        <v>311278.0867306741</v>
+        <v>322137.8540634589</v>
       </c>
       <c r="G25" t="n">
-        <v>468978.2239152565</v>
+        <v>461162.9725787982</v>
       </c>
       <c r="H25" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>28706902</v>
+        <v>28763188</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1124082</v>
+        <v>1120788</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>120926</v>
+        <v>121799</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2200022</v>
+        <v>2224719</v>
       </c>
       <c r="E27" t="n">
-        <v>2459702</v>
+        <v>2487944</v>
       </c>
       <c r="F27" t="n">
-        <v>337.6038711819169</v>
+        <v>387.017907061133</v>
       </c>
       <c r="G27" t="n">
-        <v>722.5553973674679</v>
+        <v>195.2208376870143</v>
       </c>
       <c r="H27" t="n">
-        <v>1.47</v>
+        <v>0.38</v>
       </c>
       <c r="I27" t="n">
-        <v>557129</v>
+        <v>562530</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3795607</v>
+        <v>3796032</v>
       </c>
       <c r="E28" t="n">
-        <v>3796483</v>
+        <v>3796885</v>
       </c>
       <c r="F28" t="n">
-        <v>860.4574158121093</v>
+        <v>776.8590818457621</v>
       </c>
       <c r="G28" t="n">
-        <v>3960.449694817938</v>
+        <v>3897.780380245059</v>
       </c>
       <c r="H28" t="n">
-        <v>0.73</v>
+        <v>1.37</v>
       </c>
       <c r="I28" t="n">
-        <v>237647</v>
+        <v>228796</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6798234</v>
+        <v>6801294</v>
       </c>
       <c r="E29" t="n">
-        <v>16512388</v>
+        <v>16519819</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>439148</v>
+        <v>442662</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>98182739</v>
+        <v>97748830</v>
       </c>
       <c r="E30" t="n">
-        <v>122422366</v>
+        <v>121881333</v>
       </c>
       <c r="F30" t="n">
-        <v>105871.0707559473</v>
+        <v>100821.15546437</v>
       </c>
       <c r="G30" t="n">
-        <v>99543.9890891113</v>
+        <v>107663.2872317527</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13396313</v>
+        <v>13431112</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109201</v>
+        <v>1109725</v>
       </c>
       <c r="E31" t="n">
-        <v>12054384</v>
+        <v>12060074</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12833.86</v>
+        <v>12826.62</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>78730306</v>
+        <v>78302902</v>
       </c>
       <c r="E32" t="n">
-        <v>220330795</v>
+        <v>219142094</v>
       </c>
       <c r="F32" t="n">
-        <v>58565.70735266015</v>
+        <v>56093.33163475394</v>
       </c>
       <c r="G32" t="n">
-        <v>69673.28407583614</v>
+        <v>69733.30826490962</v>
       </c>
       <c r="H32" t="n">
         <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>52817438</v>
+        <v>52350082</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4107289</v>
+        <v>4103293</v>
       </c>
       <c r="E33" t="n">
-        <v>8099919</v>
+        <v>8092038</v>
       </c>
       <c r="F33" t="n">
-        <v>8783.567537151037</v>
+        <v>5168.132627693513</v>
       </c>
       <c r="G33" t="n">
-        <v>6164.86643508934</v>
+        <v>6009.73945104956</v>
       </c>
       <c r="H33" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>1684917</v>
+        <v>1683372</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36262097</v>
+        <v>36195627</v>
       </c>
       <c r="F34" t="n">
-        <v>231.6865290393305</v>
+        <v>231.6876660428909</v>
       </c>
       <c r="G34" t="n">
-        <v>250.6168351886957</v>
+        <v>250.6180650928904</v>
       </c>
       <c r="H34" t="n">
         <v>0.28</v>
       </c>
       <c r="I34" t="n">
-        <v>12462.41</v>
+        <v>11860.13</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17175082</v>
+        <v>17124236</v>
       </c>
       <c r="E35" t="n">
-        <v>18102134</v>
+        <v>18048543</v>
       </c>
       <c r="F35" t="n">
-        <v>3481.052514839364</v>
+        <v>3481.069598133415</v>
       </c>
       <c r="G35" t="n">
-        <v>2560.25879276795</v>
+        <v>2560.271357259183</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>35054</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23016516</v>
+        <v>23037913</v>
       </c>
       <c r="F36" t="n">
-        <v>5183.140911585542</v>
+        <v>5183.69860527246</v>
       </c>
       <c r="G36" t="n">
-        <v>5575.304058748623</v>
+        <v>5600.673845350539</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>125861</v>
+        <v>125953</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84339638</v>
+        <v>84075409</v>
       </c>
       <c r="E37" t="n">
-        <v>175841371</v>
+        <v>175290475</v>
       </c>
       <c r="F37" t="n">
-        <v>54373.73863842504</v>
+        <v>42399.23802614355</v>
       </c>
       <c r="G37" t="n">
-        <v>47836.25407016935</v>
+        <v>35290.1440885222</v>
       </c>
       <c r="H37" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I37" t="n">
-        <v>85461343</v>
+        <v>85303027</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277097297</v>
+        <v>276915298</v>
       </c>
       <c r="E38" t="n">
-        <v>277097297</v>
+        <v>276915298</v>
       </c>
       <c r="F38" t="n">
-        <v>33547.01854036254</v>
+        <v>26622.44077887813</v>
       </c>
       <c r="G38" t="n">
-        <v>32148.11726093944</v>
+        <v>29592.75603042877</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>11740430</v>
+        <v>11533092</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>193782521</v>
+        <v>193272945</v>
       </c>
       <c r="E39" t="n">
-        <v>673217993</v>
+        <v>671447677</v>
       </c>
       <c r="F39" t="n">
-        <v>107818.9650390338</v>
+        <v>107653.6236910059</v>
       </c>
       <c r="G39" t="n">
-        <v>249686.8314985681</v>
+        <v>306655.9397618604</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>42101603</v>
+        <v>42052755</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3208514</v>
+        <v>3215807</v>
       </c>
       <c r="E40" t="n">
-        <v>3208514</v>
+        <v>3215807</v>
       </c>
       <c r="F40" t="n">
-        <v>890.8821215562365</v>
+        <v>842.42230129244</v>
       </c>
       <c r="G40" t="n">
-        <v>2358.243007519233</v>
+        <v>2581.86763254111</v>
       </c>
       <c r="H40" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="I40" t="n">
-        <v>1704418</v>
+        <v>1703973</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111670735</v>
+        <v>111637931</v>
       </c>
       <c r="E41" t="n">
-        <v>473189089</v>
+        <v>473033639</v>
       </c>
       <c r="F41" t="n">
-        <v>5421.207586898468</v>
+        <v>5402.925172145727</v>
       </c>
       <c r="G41" t="n">
-        <v>8680.317613717847</v>
+        <v>7917.124617088952</v>
       </c>
       <c r="H41" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>14884849</v>
+        <v>14848572</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>561708</v>
+        <v>604888</v>
       </c>
       <c r="E42" t="n">
-        <v>6812967</v>
+        <v>7336700</v>
       </c>
       <c r="F42" t="n">
-        <v>699.8219354141212</v>
+        <v>638.4272447816113</v>
       </c>
       <c r="G42" t="n">
-        <v>414.4133179398059</v>
+        <v>385.4900949986286</v>
       </c>
       <c r="H42" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="I42" t="n">
-        <v>3091281</v>
+        <v>2734745</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1429158238</v>
+        <v>1412522068</v>
       </c>
       <c r="E43" t="n">
-        <v>6853106437</v>
+        <v>6773332596</v>
       </c>
       <c r="F43" t="n">
-        <v>46846.45680111067</v>
+        <v>46452.04676853946</v>
       </c>
       <c r="G43" t="n">
-        <v>52190.28590045046</v>
+        <v>48384.68656001861</v>
       </c>
       <c r="H43" t="n">
         <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>594994146</v>
+        <v>594910534</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5885553380</v>
+        <v>5884692154</v>
       </c>
       <c r="E44" t="n">
-        <v>5885553380</v>
+        <v>5884626779</v>
       </c>
       <c r="F44" t="n">
-        <v>679305.4197515083</v>
+        <v>639185.4374756572</v>
       </c>
       <c r="G44" t="n">
-        <v>476112.0814916085</v>
+        <v>476150.9573261523</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>435005249</v>
+        <v>436649202</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>263825155</v>
+        <v>262887412</v>
       </c>
       <c r="E45" t="n">
-        <v>1138815828</v>
+        <v>1134768010</v>
       </c>
       <c r="F45" t="n">
-        <v>105859.7772832889</v>
+        <v>99592.10683583844</v>
       </c>
       <c r="G45" t="n">
-        <v>97750.27307316194</v>
+        <v>85207.73023009772</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
-        <v>141589032</v>
+        <v>141155941</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>119690594</v>
+        <v>119235624</v>
       </c>
       <c r="E46" t="n">
-        <v>119690594</v>
+        <v>119235624</v>
       </c>
       <c r="F46" t="n">
-        <v>18379.14787970687</v>
+        <v>24791.07810037142</v>
       </c>
       <c r="G46" t="n">
-        <v>40399.30545925941</v>
+        <v>29941.56225039392</v>
       </c>
       <c r="H46" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="I46" t="n">
-        <v>10009946</v>
+        <v>10079017</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042193190</v>
+        <v>2042431341</v>
       </c>
       <c r="E47" t="n">
-        <v>2042193190</v>
+        <v>2042431341</v>
       </c>
       <c r="F47" t="n">
-        <v>221108.9980899059</v>
+        <v>221110.0831841455</v>
       </c>
       <c r="G47" t="n">
-        <v>199951.7510054013</v>
+        <v>199952.7322702757</v>
       </c>
       <c r="H47" t="n">
         <v>0.16</v>
       </c>
       <c r="I47" t="n">
-        <v>8998472287</v>
+        <v>8949177968</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10338513</v>
+        <v>10342203</v>
       </c>
       <c r="F48" t="n">
-        <v>6295.090735389898</v>
+        <v>6445.887930457594</v>
       </c>
       <c r="G48" t="n">
-        <v>6812.917496049022</v>
+        <v>6908.547921858556</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>160375</v>
+        <v>160810</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4540953</v>
+        <v>4560430</v>
       </c>
       <c r="E49" t="n">
-        <v>5961678</v>
+        <v>5987249</v>
       </c>
       <c r="F49" t="n">
-        <v>1053.640503507823</v>
+        <v>2435.902352750388</v>
       </c>
       <c r="G49" t="n">
-        <v>4096.964884834672</v>
+        <v>6368.150193030565</v>
       </c>
       <c r="H49" t="n">
         <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>717402</v>
+        <v>727080</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12941589</v>
+        <v>12889936</v>
       </c>
       <c r="E50" t="n">
-        <v>19030362</v>
+        <v>18954407</v>
       </c>
       <c r="F50" t="n">
-        <v>7483.667736444647</v>
+        <v>6301.003770134877</v>
       </c>
       <c r="G50" t="n">
-        <v>6995.722254167227</v>
+        <v>6975.224817401193</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>6865214</v>
+        <v>4088145</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22339779</v>
+        <v>22372763</v>
       </c>
       <c r="E51" t="n">
-        <v>28979804</v>
+        <v>29022592</v>
       </c>
       <c r="F51" t="n">
-        <v>8609.187228669818</v>
+        <v>11484.18884387991</v>
       </c>
       <c r="G51" t="n">
-        <v>13998.18518048776</v>
+        <v>9402.94750194942</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>234122</v>
+        <v>227667</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14360393</v>
+        <v>14412688</v>
       </c>
       <c r="E52" t="n">
-        <v>14360393</v>
+        <v>14412688</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5836614</v>
+        <v>5705510</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99067741</v>
+        <v>99192373</v>
       </c>
       <c r="E53" t="n">
-        <v>122543250</v>
+        <v>122697415</v>
       </c>
       <c r="F53" t="n">
-        <v>693.1781692361895</v>
+        <v>660.86043098491</v>
       </c>
       <c r="G53" t="n">
-        <v>3832.547436497815</v>
+        <v>3832.650031120639</v>
       </c>
       <c r="H53" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I53" t="n">
-        <v>1067492</v>
+        <v>1064140</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4917305</v>
+        <v>4965512</v>
       </c>
       <c r="E54" t="n">
-        <v>6880023</v>
+        <v>6947472</v>
       </c>
       <c r="F54" t="n">
-        <v>531.0960028443171</v>
+        <v>498.3816810363774</v>
       </c>
       <c r="G54" t="n">
-        <v>22.64881943059769</v>
+        <v>47.43477442556534</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="I54" t="n">
-        <v>56881</v>
+        <v>57288</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14084739</v>
+        <v>14110835</v>
       </c>
       <c r="E55" t="n">
-        <v>68214641</v>
+        <v>68341026</v>
       </c>
       <c r="F55" t="n">
-        <v>9537.513343802846</v>
+        <v>12642.65504405878</v>
       </c>
       <c r="G55" t="n">
-        <v>12851.10119733766</v>
+        <v>13129.46717981826</v>
       </c>
       <c r="H55" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I55" t="n">
-        <v>5411444</v>
+        <v>5407539</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55238</v>
+        <v>55229</v>
       </c>
       <c r="E56" t="n">
-        <v>132308</v>
+        <v>132286</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16914.27</v>
+        <v>16914.24</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1842467542</v>
+        <v>1842939448</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>32065610</v>
+        <v>32052442</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12050667</v>
+        <v>11989249</v>
       </c>
       <c r="E58" t="n">
-        <v>17471729</v>
+        <v>17382681</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1772528</v>
+        <v>1778725</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>121960319</v>
+        <v>121753276</v>
       </c>
       <c r="E59" t="n">
-        <v>324344924</v>
+        <v>323794308</v>
       </c>
       <c r="F59" t="n">
-        <v>7816.471471830314</v>
+        <v>7816.059093582256</v>
       </c>
       <c r="G59" t="n">
-        <v>7257.612700054928</v>
+        <v>7255.586395408302</v>
       </c>
       <c r="H59" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I59" t="n">
-        <v>850688</v>
+        <v>850684</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29374359</v>
+        <v>29301999</v>
       </c>
       <c r="E60" t="n">
-        <v>91462330</v>
+        <v>91237022</v>
       </c>
       <c r="F60" t="n">
-        <v>990.0956290423235</v>
+        <v>1411.637320115343</v>
       </c>
       <c r="G60" t="n">
-        <v>6052.735074671933</v>
+        <v>3503.755456146679</v>
       </c>
       <c r="H60" t="n">
-        <v>0.32</v>
+        <v>0.67</v>
       </c>
       <c r="I60" t="n">
-        <v>11094157</v>
+        <v>11148096</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1826184</v>
+        <v>1806014</v>
       </c>
       <c r="E61" t="n">
-        <v>13095386</v>
+        <v>12950743</v>
       </c>
       <c r="F61" t="n">
-        <v>5086.07347947264</v>
+        <v>5193.452181026856</v>
       </c>
       <c r="G61" t="n">
-        <v>2761.570204071393</v>
+        <v>5364.539102798838</v>
       </c>
       <c r="H61" t="n">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="I61" t="n">
-        <v>2192724</v>
+        <v>2183504</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>196070379</v>
+        <v>195205496</v>
       </c>
       <c r="E62" t="n">
-        <v>1110270959</v>
+        <v>1105373459</v>
       </c>
       <c r="F62" t="n">
-        <v>532880.3379689655</v>
+        <v>567717.1571642434</v>
       </c>
       <c r="G62" t="n">
-        <v>822044.95523293</v>
+        <v>898716.8162149466</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>82946515</v>
+        <v>82001669</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>488436</v>
+        <v>489274</v>
       </c>
       <c r="E63" t="n">
-        <v>1644009</v>
+        <v>1646827</v>
       </c>
       <c r="F63" t="n">
-        <v>5261.577195945412</v>
+        <v>5399.231170700812</v>
       </c>
       <c r="G63" t="n">
-        <v>474.3223806835128</v>
+        <v>454.7758562321408</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>642771</v>
+        <v>645202</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>370268</v>
+        <v>370794</v>
       </c>
       <c r="E64" t="n">
-        <v>370268</v>
+        <v>370794</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4536.51</v>
+        <v>4529.44</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>130516703</v>
+        <v>130838898</v>
       </c>
       <c r="E65" t="n">
-        <v>966790394</v>
+        <v>969177023</v>
       </c>
       <c r="F65" t="n">
-        <v>33460.02857835986</v>
+        <v>31690.16427480901</v>
       </c>
       <c r="G65" t="n">
-        <v>36320.3263767293</v>
+        <v>39223.31089122913</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I65" t="n">
-        <v>40321978</v>
+        <v>39955077</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8743607</v>
+        <v>8735547</v>
       </c>
       <c r="E66" t="n">
-        <v>11713518</v>
+        <v>11702720</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>94068</v>
+        <v>94048</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26339472</v>
+        <v>26155992</v>
       </c>
       <c r="E67" t="n">
-        <v>26339472</v>
+        <v>26155992</v>
       </c>
       <c r="F67" t="n">
-        <v>8851.485126393703</v>
+        <v>8050.505363709282</v>
       </c>
       <c r="G67" t="n">
-        <v>5207.383281476683</v>
+        <v>5202.337164217825</v>
       </c>
       <c r="H67" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="I67" t="n">
-        <v>369011</v>
+        <v>368858</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1564576</v>
+        <v>1565216</v>
       </c>
       <c r="E68" t="n">
-        <v>12150678</v>
+        <v>12155647</v>
       </c>
       <c r="F68" t="n">
-        <v>14151.40012412541</v>
+        <v>13965.69389706584</v>
       </c>
       <c r="G68" t="n">
-        <v>24307.00686380517</v>
+        <v>24306.38074508518</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="I68" t="n">
-        <v>524810</v>
+        <v>527254</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>322191400</v>
+        <v>319135549</v>
       </c>
       <c r="E69" t="n">
-        <v>2898633619</v>
+        <v>2871141288</v>
       </c>
       <c r="F69" t="n">
-        <v>1311170.240701335</v>
+        <v>1329742.723280851</v>
       </c>
       <c r="G69" t="n">
-        <v>1594863.285380052</v>
+        <v>1649147.582139869</v>
       </c>
       <c r="H69" t="n">
         <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>70830844</v>
+        <v>75090704</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249630</v>
+        <v>249708</v>
       </c>
       <c r="E70" t="n">
-        <v>2203171</v>
+        <v>2203859</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>76386</v>
+        <v>75891</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1549810</v>
+        <v>1550059</v>
       </c>
       <c r="E71" t="n">
-        <v>12915084</v>
+        <v>12917160</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>33459</v>
+        <v>33449</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9397570</v>
+        <v>9392376</v>
       </c>
       <c r="E72" t="n">
-        <v>43558276</v>
+        <v>43534203</v>
       </c>
       <c r="F72" t="n">
-        <v>9912.765316849433</v>
+        <v>9912.803152919068</v>
       </c>
       <c r="G72" t="n">
-        <v>3404.747657787415</v>
+        <v>3378.257019515572</v>
       </c>
       <c r="H72" t="n">
         <v>1.04</v>
       </c>
       <c r="I72" t="n">
-        <v>112742</v>
+        <v>111737</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47866522</v>
+        <v>47836540</v>
       </c>
       <c r="E73" t="n">
-        <v>277127382</v>
+        <v>276953801</v>
       </c>
       <c r="F73" t="n">
-        <v>105697.3513808611</v>
+        <v>105877.3492892002</v>
       </c>
       <c r="G73" t="n">
-        <v>215029.6542180274</v>
+        <v>188613.3417035106</v>
       </c>
       <c r="H73" t="n">
         <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>32976694</v>
+        <v>32646037</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>37879907</v>
+        <v>37822113</v>
       </c>
       <c r="E74" t="n">
-        <v>52317546</v>
+        <v>52237725</v>
       </c>
       <c r="F74" t="n">
-        <v>497.2678334467703</v>
+        <v>497.2697314701547</v>
       </c>
       <c r="G74" t="n">
-        <v>754.0536835050738</v>
+        <v>816.4827442696326</v>
       </c>
       <c r="H74" t="n">
-        <v>1.05</v>
+        <v>0.64</v>
       </c>
       <c r="I74" t="n">
-        <v>326318</v>
+        <v>327165</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>104585</v>
+        <v>110648</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5200.55</v>
+        <v>5198.29</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13468410</v>
+        <v>13497435</v>
       </c>
       <c r="E76" t="n">
-        <v>13514245</v>
+        <v>13543369</v>
       </c>
       <c r="F76" t="n">
-        <v>2138.472645377085</v>
+        <v>1687.806312875507</v>
       </c>
       <c r="G76" t="n">
-        <v>7130.936428430211</v>
+        <v>6365.86440091319</v>
       </c>
       <c r="H76" t="n">
         <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>7433547</v>
+        <v>7408840</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41874259</v>
+        <v>41864958</v>
       </c>
       <c r="E77" t="n">
-        <v>71082434</v>
+        <v>71066645</v>
       </c>
       <c r="F77" t="n">
-        <v>7426.608565973623</v>
+        <v>7000.014543777152</v>
       </c>
       <c r="G77" t="n">
-        <v>6920.146853783247</v>
+        <v>10001.85158358608</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I77" t="n">
-        <v>1122859</v>
+        <v>1129354</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19508145</v>
+        <v>19609103</v>
       </c>
       <c r="E78" t="n">
-        <v>58491158</v>
+        <v>58793859</v>
       </c>
       <c r="F78" t="n">
-        <v>69794.03139184551</v>
+        <v>56697.45985134781</v>
       </c>
       <c r="G78" t="n">
-        <v>50818.87842791272</v>
+        <v>44697.21615359629</v>
       </c>
       <c r="H78" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I78" t="n">
-        <v>4136723</v>
+        <v>4228864</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106011997</v>
+        <v>105455816</v>
       </c>
       <c r="E79" t="n">
-        <v>112700334</v>
+        <v>112109063</v>
       </c>
       <c r="F79" t="n">
-        <v>3133.004611950981</v>
+        <v>2539.261908974469</v>
       </c>
       <c r="G79" t="n">
-        <v>4321.212726674063</v>
+        <v>2132.101969736697</v>
       </c>
       <c r="H79" t="n">
-        <v>0.89</v>
+        <v>1.16</v>
       </c>
       <c r="I79" t="n">
-        <v>9380028</v>
+        <v>1015525</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10450608</v>
+        <v>10446621</v>
       </c>
       <c r="E80" t="n">
-        <v>45349619</v>
+        <v>45328720</v>
       </c>
       <c r="F80" t="n">
-        <v>5908.300526458034</v>
+        <v>5898.303557086399</v>
       </c>
       <c r="G80" t="n">
-        <v>5748.176784274915</v>
+        <v>5822.954319577708</v>
       </c>
       <c r="H80" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I80" t="n">
-        <v>120594</v>
+        <v>120660</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15612916</v>
+        <v>15571235</v>
       </c>
       <c r="E81" t="n">
-        <v>95696696</v>
+        <v>95441217</v>
       </c>
       <c r="F81" t="n">
-        <v>4044.826009014838</v>
+        <v>4084.802114353751</v>
       </c>
       <c r="G81" t="n">
-        <v>5982.752723461547</v>
+        <v>6067.941084387247</v>
       </c>
       <c r="H81" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I81" t="n">
-        <v>12419012</v>
+        <v>13077197</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1438744</v>
+        <v>1438077</v>
       </c>
       <c r="E82" t="n">
-        <v>1479214</v>
+        <v>1478528</v>
       </c>
       <c r="F82" t="n">
-        <v>1936.685725892207</v>
+        <v>1936.784584749784</v>
       </c>
       <c r="G82" t="n">
-        <v>2192.567034296192</v>
+        <v>2191.831547080376</v>
       </c>
       <c r="H82" t="n">
         <v>0.82</v>
       </c>
       <c r="I82" t="n">
-        <v>138490</v>
+        <v>138044</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51860328</v>
+        <v>51999743</v>
       </c>
       <c r="E83" t="n">
-        <v>223408621</v>
+        <v>224009207</v>
       </c>
       <c r="F83" t="n">
-        <v>3069.630463016194</v>
+        <v>3072.667464062345</v>
       </c>
       <c r="G83" t="n">
-        <v>2417.598168407141</v>
+        <v>614.078368716209</v>
       </c>
       <c r="H83" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I83" t="n">
-        <v>14904888</v>
+        <v>15039852</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2258550</v>
+        <v>2321585</v>
       </c>
       <c r="E84" t="n">
-        <v>8196600</v>
+        <v>8424963</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>213913</v>
+        <v>219187</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8775006</v>
+        <v>8795523</v>
       </c>
       <c r="E85" t="n">
-        <v>19461715</v>
+        <v>19507097</v>
       </c>
       <c r="F85" t="n">
-        <v>7908.78401970574</v>
+        <v>7976.57696108684</v>
       </c>
       <c r="G85" t="n">
-        <v>8310.356601384676</v>
+        <v>8245.922066828742</v>
       </c>
       <c r="H85" t="n">
-        <v>1.63</v>
+        <v>0.82</v>
       </c>
       <c r="I85" t="n">
-        <v>286190</v>
+        <v>292840</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2443787</v>
+        <v>2442347</v>
       </c>
       <c r="E86" t="n">
-        <v>18388862</v>
+        <v>18378024</v>
       </c>
       <c r="F86" t="n">
-        <v>5338.903915242975</v>
+        <v>5315.387775051617</v>
       </c>
       <c r="G86" t="n">
-        <v>12024.81422144545</v>
+        <v>12061.98796648496</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>155804</v>
+        <v>156752</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18672353</v>
+        <v>18695717</v>
       </c>
       <c r="E87" t="n">
-        <v>74689413</v>
+        <v>74782869</v>
       </c>
       <c r="F87" t="n">
-        <v>5409.102992923935</v>
+        <v>3954.756578130943</v>
       </c>
       <c r="G87" t="n">
-        <v>1017.273832658297</v>
+        <v>1649.780204656267</v>
       </c>
       <c r="H87" t="n">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="I87" t="n">
-        <v>3920129</v>
+        <v>3903310</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4736072</v>
+        <v>4717879</v>
       </c>
       <c r="E88" t="n">
-        <v>4736072</v>
+        <v>4717879</v>
       </c>
       <c r="F88" t="n">
-        <v>1671.617493458662</v>
+        <v>329.7470667678392</v>
       </c>
       <c r="G88" t="n">
-        <v>2063.621129923584</v>
+        <v>784.9525343365369</v>
       </c>
       <c r="H88" t="n">
-        <v>1.42</v>
+        <v>0.58</v>
       </c>
       <c r="I88" t="n">
-        <v>2772682</v>
+        <v>2743609</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13252522</v>
+        <v>13095743</v>
       </c>
       <c r="E89" t="n">
-        <v>41913804</v>
+        <v>41417958</v>
       </c>
       <c r="F89" t="n">
-        <v>12532.76014701865</v>
+        <v>13427.55154302565</v>
       </c>
       <c r="G89" t="n">
-        <v>13875.19256690073</v>
+        <v>7168.783907470688</v>
       </c>
       <c r="H89" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I89" t="n">
-        <v>1269495</v>
+        <v>1271916</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24709</v>
+        <v>24671</v>
       </c>
       <c r="E90" t="n">
-        <v>194332</v>
+        <v>194031</v>
       </c>
       <c r="F90" t="n">
-        <v>264.6648239546523</v>
+        <v>277.5946690421795</v>
       </c>
       <c r="G90" t="n">
-        <v>653.1926915394379</v>
+        <v>657.2503625264269</v>
       </c>
       <c r="H90" t="n">
         <v>0.41</v>
       </c>
       <c r="I90" t="n">
-        <v>26657</v>
+        <v>26634</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8405068</v>
+        <v>8340833</v>
       </c>
       <c r="E91" t="n">
-        <v>8405068</v>
+        <v>8340833</v>
       </c>
       <c r="F91" t="n">
-        <v>2001.111360286301</v>
+        <v>1229.107306799053</v>
       </c>
       <c r="G91" t="n">
-        <v>4470.510244345031</v>
+        <v>3300.97477129525</v>
       </c>
       <c r="H91" t="n">
         <v>0.35</v>
       </c>
       <c r="I91" t="n">
-        <v>4278524</v>
+        <v>4272471</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8920801</v>
+        <v>8981962</v>
       </c>
       <c r="E92" t="n">
-        <v>8920801</v>
+        <v>8981962</v>
       </c>
       <c r="F92" t="n">
-        <v>4890.28525301669</v>
+        <v>5825.149970242596</v>
       </c>
       <c r="G92" t="n">
-        <v>4578.711629136702</v>
+        <v>2075.038855555908</v>
       </c>
       <c r="H92" t="n">
-        <v>0.52</v>
+        <v>1.03</v>
       </c>
       <c r="I92" t="n">
-        <v>1379440</v>
+        <v>1382567</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31633605</v>
+        <v>31598014</v>
       </c>
       <c r="E93" t="n">
-        <v>79764764</v>
+        <v>79675022</v>
       </c>
       <c r="F93" t="n">
-        <v>49.88136942844415</v>
+        <v>69.78281836442855</v>
       </c>
       <c r="G93" t="n">
-        <v>1805.615307042745</v>
+        <v>976.5480105099814</v>
       </c>
       <c r="H93" t="n">
-        <v>2.79</v>
+        <v>2.44</v>
       </c>
       <c r="I93" t="n">
-        <v>6512801</v>
+        <v>6517380</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>302210819</v>
+        <v>301183432</v>
       </c>
       <c r="E94" t="n">
-        <v>306936910</v>
+        <v>305894704</v>
       </c>
       <c r="F94" t="n">
-        <v>7504.473968241418</v>
+        <v>4617.437417633266</v>
       </c>
       <c r="G94" t="n">
-        <v>6554.964559101898</v>
+        <v>5665.368274782374</v>
       </c>
       <c r="H94" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I94" t="n">
-        <v>23373965</v>
+        <v>23214762</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3602.064837220626</v>
+        <v>1004.112963697706</v>
       </c>
       <c r="G95" t="n">
-        <v>6317.160179565294</v>
+        <v>6533.989592582507</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>154453</v>
+        <v>153760</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>78130229</v>
+        <v>77996775</v>
       </c>
       <c r="E96" t="n">
-        <v>78130229</v>
+        <v>77996775</v>
       </c>
       <c r="F96" t="n">
-        <v>11845.15041973763</v>
+        <v>10300.03370769115</v>
       </c>
       <c r="G96" t="n">
-        <v>5365.293448658876</v>
+        <v>7090.890639554741</v>
       </c>
       <c r="H96" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="I96" t="n">
-        <v>4351287</v>
+        <v>4324905</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301450664</v>
+        <v>299943949</v>
       </c>
       <c r="E97" t="n">
-        <v>301450664</v>
+        <v>299943949</v>
       </c>
       <c r="F97" t="n">
-        <v>344518.9441236474</v>
+        <v>262516.4393970417</v>
       </c>
       <c r="G97" t="n">
-        <v>459387.252383937</v>
+        <v>505603.1016487231</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>91406055</v>
+        <v>91339566</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4607167</v>
+        <v>4579664</v>
       </c>
       <c r="E98" t="n">
-        <v>31480450</v>
+        <v>31292522</v>
       </c>
       <c r="F98" t="n">
-        <v>5067.085215139919</v>
+        <v>24254.34471431493</v>
       </c>
       <c r="G98" t="n">
-        <v>5820.134925540277</v>
+        <v>25644.92460294147</v>
       </c>
       <c r="H98" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="I98" t="n">
-        <v>3077247</v>
+        <v>3084016</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84797163</v>
+        <v>84498037</v>
       </c>
       <c r="E99" t="n">
-        <v>488637828</v>
+        <v>486914137</v>
       </c>
       <c r="F99" t="n">
-        <v>143298.3267605127</v>
+        <v>140487.8367832834</v>
       </c>
       <c r="G99" t="n">
-        <v>155799.9549525786</v>
+        <v>145613.8794451609</v>
       </c>
       <c r="H99" t="n">
         <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21547199</v>
+        <v>21429350</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108569141</v>
+        <v>108486087</v>
       </c>
       <c r="E100" t="n">
-        <v>267122505</v>
+        <v>266918159</v>
       </c>
       <c r="F100" t="n">
-        <v>35349.87928510545</v>
+        <v>42229.68408839183</v>
       </c>
       <c r="G100" t="n">
-        <v>42243.55674561123</v>
+        <v>43361.23461558087</v>
       </c>
       <c r="H100" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I100" t="n">
-        <v>3266106</v>
+        <v>3263666</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>239811944</v>
+        <v>240183669</v>
       </c>
       <c r="E101" t="n">
-        <v>239814327</v>
+        <v>240186055</v>
       </c>
       <c r="F101" t="n">
-        <v>25619.24118577414</v>
+        <v>43062.55515273563</v>
       </c>
       <c r="G101" t="n">
-        <v>29892.53519546265</v>
+        <v>28749.43458316127</v>
       </c>
       <c r="H101" t="n">
         <v>0.21</v>
       </c>
       <c r="I101" t="n">
-        <v>2826290</v>
+        <v>2985460</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30638311</v>
+        <v>30543385</v>
       </c>
       <c r="E102" t="n">
-        <v>137180286</v>
+        <v>136755263</v>
       </c>
       <c r="F102" t="n">
-        <v>66106.99466139459</v>
+        <v>60952.00920762769</v>
       </c>
       <c r="G102" t="n">
-        <v>104531.6615398275</v>
+        <v>85466.65580417092</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I102" t="n">
-        <v>19724474</v>
+        <v>19744476</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2818231</v>
+        <v>2808302</v>
       </c>
       <c r="E103" t="n">
-        <v>2818231</v>
+        <v>2808302</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>290985</v>
+        <v>299312</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5947251</v>
+        <v>5952898</v>
       </c>
       <c r="E104" t="n">
-        <v>15608534</v>
+        <v>15623355</v>
       </c>
       <c r="F104" t="n">
-        <v>616.0600999486199</v>
+        <v>625.9580492483252</v>
       </c>
       <c r="G104" t="n">
-        <v>570.3774333510154</v>
+        <v>570.3764314275156</v>
       </c>
       <c r="H104" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="I104" t="n">
-        <v>26712</v>
+        <v>26624</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16228178</v>
+        <v>16225866</v>
       </c>
       <c r="E105" t="n">
-        <v>74907269</v>
+        <v>74896604</v>
       </c>
       <c r="F105" t="n">
-        <v>6017.13369186519</v>
+        <v>7928.939731963574</v>
       </c>
       <c r="G105" t="n">
-        <v>11945.35383021628</v>
+        <v>13090.89826968316</v>
       </c>
       <c r="H105" t="n">
         <v>0.53</v>
       </c>
       <c r="I105" t="n">
-        <v>1160171</v>
+        <v>1159692</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48056356</v>
+        <v>48055023</v>
       </c>
       <c r="E106" t="n">
-        <v>311632677</v>
+        <v>311624032</v>
       </c>
       <c r="F106" t="n">
-        <v>135395.5422369963</v>
+        <v>108675.4357280301</v>
       </c>
       <c r="G106" t="n">
-        <v>170297.5022484084</v>
+        <v>155779.4776202496</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21815158</v>
+        <v>21790930</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2443861</v>
+        <v>2428660</v>
       </c>
       <c r="E107" t="n">
-        <v>4427514</v>
+        <v>4399975</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>83057</v>
+        <v>81766</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>123050355</v>
+        <v>122816822</v>
       </c>
       <c r="E108" t="n">
-        <v>2037814664</v>
+        <v>2033947169</v>
       </c>
       <c r="F108" t="n">
-        <v>22084.07324284288</v>
+        <v>22133.51171984322</v>
       </c>
       <c r="G108" t="n">
-        <v>173479.0380684813</v>
+        <v>168112.3498232181</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>60381675</v>
+        <v>61452966</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23059702</v>
+        <v>23031539</v>
       </c>
       <c r="E109" t="n">
-        <v>137970832</v>
+        <v>137802330</v>
       </c>
       <c r="F109" t="n">
-        <v>40089.24984343459</v>
+        <v>40003.4100375843</v>
       </c>
       <c r="G109" t="n">
-        <v>39464.97747319649</v>
+        <v>39366.79488030777</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I109" t="n">
-        <v>17824156</v>
+        <v>17845707</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1027506</v>
+        <v>1029440</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>87482</v>
+        <v>87371</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2400509</v>
+        <v>2404749</v>
       </c>
       <c r="F111" t="n">
-        <v>4750.979542292303</v>
+        <v>421.6278515055644</v>
       </c>
       <c r="G111" t="n">
-        <v>231.6385710794439</v>
+        <v>156.6150235993577</v>
       </c>
       <c r="H111" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="I111" t="n">
-        <v>218265</v>
+        <v>217359</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149758147</v>
+        <v>149681917</v>
       </c>
       <c r="F112" t="n">
-        <v>4945.586797342162</v>
+        <v>4957.215780067198</v>
       </c>
       <c r="G112" t="n">
-        <v>3844.646414113928</v>
+        <v>3478.612855051584</v>
       </c>
       <c r="H112" t="n">
         <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>80374</v>
+        <v>80991</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6233299</v>
+        <v>6254751</v>
       </c>
       <c r="E113" t="n">
-        <v>32068429</v>
+        <v>32178792</v>
       </c>
       <c r="F113" t="n">
-        <v>2699.801777398557</v>
+        <v>3601.928323072694</v>
       </c>
       <c r="G113" t="n">
-        <v>1289.631188366174</v>
+        <v>926.7072869988776</v>
       </c>
       <c r="H113" t="n">
         <v>0.31</v>
       </c>
       <c r="I113" t="n">
-        <v>981814</v>
+        <v>983967</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30649112</v>
+        <v>30645750</v>
       </c>
       <c r="E114" t="n">
-        <v>42025291</v>
+        <v>42020682</v>
       </c>
       <c r="F114" t="n">
-        <v>2896.462340412984</v>
+        <v>4149.398887056695</v>
       </c>
       <c r="G114" t="n">
-        <v>6634.940937476243</v>
+        <v>2374.982312684845</v>
       </c>
       <c r="H114" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>1591818</v>
+        <v>1581358</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7572752</v>
+        <v>7575908</v>
       </c>
       <c r="F115" t="n">
-        <v>1808.785602345282</v>
+        <v>1651.143406320664</v>
       </c>
       <c r="G115" t="n">
-        <v>5692.599042938649</v>
+        <v>5699.605959645333</v>
       </c>
       <c r="H115" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="I115" t="n">
-        <v>699524</v>
+        <v>682505</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3576813</v>
+        <v>3574535</v>
       </c>
       <c r="E116" t="n">
-        <v>4791367</v>
+        <v>4788316</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>126422</v>
+        <v>126643</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32770882</v>
+        <v>32733888</v>
       </c>
       <c r="E117" t="n">
-        <v>163541808</v>
+        <v>163357189</v>
       </c>
       <c r="F117" t="n">
-        <v>95479.81009335852</v>
+        <v>107687.1175817411</v>
       </c>
       <c r="G117" t="n">
-        <v>89419.92941989051</v>
+        <v>65319.62880652105</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>13786082</v>
+        <v>13761049</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3492803</v>
+        <v>3491647</v>
       </c>
       <c r="E118" t="n">
-        <v>5017473</v>
+        <v>5015812</v>
       </c>
       <c r="F118" t="n">
-        <v>616.741791233623</v>
+        <v>616.744145277587</v>
       </c>
       <c r="G118" t="n">
-        <v>651.7951359685078</v>
+        <v>651.7976238077096</v>
       </c>
       <c r="H118" t="n">
         <v>0.79</v>
       </c>
       <c r="I118" t="n">
-        <v>177915</v>
+        <v>180170</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>300260770</v>
+        <v>300203080</v>
       </c>
       <c r="E119" t="n">
-        <v>555550897</v>
+        <v>555444159</v>
       </c>
       <c r="F119" t="n">
-        <v>36091.79257493777</v>
+        <v>31178.85451524009</v>
       </c>
       <c r="G119" t="n">
-        <v>63002.6097050413</v>
+        <v>41304.21071323912</v>
       </c>
       <c r="H119" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I119" t="n">
-        <v>26061872</v>
+        <v>26334839</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69378909</v>
+        <v>69193092</v>
       </c>
       <c r="E120" t="n">
-        <v>661671347</v>
+        <v>659898541</v>
       </c>
       <c r="F120" t="n">
-        <v>2100.137561623113</v>
+        <v>1946.0809613089</v>
       </c>
       <c r="G120" t="n">
-        <v>4537.087109986933</v>
+        <v>6529.740508717005</v>
       </c>
       <c r="H120" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I120" t="n">
-        <v>25460407</v>
+        <v>24808611</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36923654</v>
+        <v>36908084</v>
       </c>
       <c r="E121" t="n">
-        <v>48269630</v>
+        <v>48249250</v>
       </c>
       <c r="F121" t="n">
-        <v>6044.707694605758</v>
+        <v>6049.079474216315</v>
       </c>
       <c r="G121" t="n">
-        <v>245.8592688908677</v>
+        <v>245.2847805851173</v>
       </c>
       <c r="H121" t="n">
         <v>1.84</v>
       </c>
       <c r="I121" t="n">
-        <v>145907</v>
+        <v>88414</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9848253</v>
+        <v>9832823</v>
       </c>
       <c r="E122" t="n">
-        <v>29195523</v>
+        <v>29149781</v>
       </c>
       <c r="F122" t="n">
-        <v>792.5859836225926</v>
+        <v>504.6718597671247</v>
       </c>
       <c r="G122" t="n">
-        <v>7449.638128397037</v>
+        <v>4979.404017931166</v>
       </c>
       <c r="H122" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="I122" t="n">
-        <v>6761648</v>
+        <v>6734663</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2268539</v>
+        <v>2268553</v>
       </c>
       <c r="E123" t="n">
-        <v>7580626</v>
+        <v>7580674</v>
       </c>
       <c r="F123" t="n">
-        <v>483.530306548427</v>
+        <v>483.5321521207018</v>
       </c>
       <c r="G123" t="n">
-        <v>1151.875771990005</v>
+        <v>1249.072155424589</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>992700</v>
+        <v>1001053</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7357495</v>
+        <v>7348875</v>
       </c>
       <c r="E124" t="n">
-        <v>7357506</v>
+        <v>7348886</v>
       </c>
       <c r="F124" t="n">
-        <v>718.887789763168</v>
+        <v>717.8852165671146</v>
       </c>
       <c r="G124" t="n">
-        <v>609.4819777560676</v>
+        <v>545.1969304771706</v>
       </c>
       <c r="H124" t="n">
         <v>1.93</v>
       </c>
       <c r="I124" t="n">
-        <v>224511</v>
+        <v>223877</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6306310</v>
+        <v>6313216</v>
       </c>
       <c r="E125" t="n">
-        <v>6306310</v>
+        <v>6313216</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>597006</v>
+        <v>584558</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6145449</v>
+        <v>6143719</v>
       </c>
       <c r="E126" t="n">
-        <v>22446946</v>
+        <v>22440630</v>
       </c>
       <c r="F126" t="n">
-        <v>280.2355977363678</v>
+        <v>298.9802865607776</v>
       </c>
       <c r="G126" t="n">
-        <v>7594.77099379351</v>
+        <v>2574.947417168117</v>
       </c>
       <c r="H126" t="n">
         <v>0.62</v>
       </c>
       <c r="I126" t="n">
-        <v>530482</v>
+        <v>531751</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44512002</v>
+        <v>44437743</v>
       </c>
       <c r="E127" t="n">
-        <v>44512002</v>
+        <v>44437743</v>
       </c>
       <c r="F127" t="n">
-        <v>57905.44806105212</v>
+        <v>46925.65234607654</v>
       </c>
       <c r="G127" t="n">
-        <v>71072.07674376317</v>
+        <v>87208.93328794361</v>
       </c>
       <c r="H127" t="n">
         <v>0.11</v>
       </c>
       <c r="I127" t="n">
-        <v>11771828</v>
+        <v>13758310</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141404321</v>
+        <v>141398786</v>
       </c>
       <c r="F128" t="n">
-        <v>637.8556540329655</v>
+        <v>633.5522340803526</v>
       </c>
       <c r="G128" t="n">
-        <v>3216.542487341615</v>
+        <v>3112.884167992635</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I128" t="n">
-        <v>1740866</v>
+        <v>1754356</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2885227</v>
+        <v>2885067</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>66859</v>
+        <v>65608</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19460869</v>
+        <v>19487185</v>
       </c>
       <c r="F130" t="n">
-        <v>466.2475390899399</v>
+        <v>538.503898007848</v>
       </c>
       <c r="G130" t="n">
-        <v>1201.398861085528</v>
+        <v>1056.520614264867</v>
       </c>
       <c r="H130" t="n">
         <v>1.83</v>
       </c>
       <c r="I130" t="n">
-        <v>2906134</v>
+        <v>2899028</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1274281</v>
+        <v>1273858</v>
       </c>
       <c r="E131" t="n">
-        <v>3846601</v>
+        <v>3845104</v>
       </c>
       <c r="F131" t="n">
-        <v>824.3178468022642</v>
+        <v>802.3790598997761</v>
       </c>
       <c r="G131" t="n">
-        <v>691.1572030728388</v>
+        <v>691.1598411299663</v>
       </c>
       <c r="H131" t="n">
         <v>1.53</v>
       </c>
       <c r="I131" t="n">
-        <v>45301</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>584363722</v>
+        <v>582045747</v>
       </c>
       <c r="E132" t="n">
-        <v>2263154478</v>
+        <v>2254177302</v>
       </c>
       <c r="F132" t="n">
-        <v>746668.2172967215</v>
+        <v>889016.4282061643</v>
       </c>
       <c r="G132" t="n">
-        <v>1023113.41437559</v>
+        <v>1031627.111183013</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62112175</v>
+        <v>61983627</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3599058</v>
+        <v>3600769</v>
       </c>
       <c r="E133" t="n">
-        <v>6135083</v>
+        <v>6138000</v>
       </c>
       <c r="F133" t="n">
-        <v>5060.069848521041</v>
+        <v>5072.831127611896</v>
       </c>
       <c r="G133" t="n">
-        <v>5011.963632407946</v>
+        <v>5030.902480612094</v>
       </c>
       <c r="H133" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>1195416</v>
+        <v>1195592</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>109174531</v>
+        <v>108483193</v>
       </c>
       <c r="E134" t="n">
-        <v>1032983508</v>
+        <v>1026442231</v>
       </c>
       <c r="F134" t="n">
-        <v>117996.0508037491</v>
+        <v>98596.63344402563</v>
       </c>
       <c r="G134" t="n">
-        <v>99517.27023186028</v>
+        <v>98370.26177487394</v>
       </c>
       <c r="H134" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I134" t="n">
-        <v>17945698</v>
+        <v>17968266</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>976972145</v>
+        <v>977194947</v>
       </c>
       <c r="E135" t="n">
-        <v>1073206579</v>
+        <v>1073451328</v>
       </c>
       <c r="F135" t="n">
-        <v>10893.97093208259</v>
+        <v>10804.56054181806</v>
       </c>
       <c r="G135" t="n">
-        <v>12797.96053511773</v>
+        <v>14234.92897053452</v>
       </c>
       <c r="H135" t="n">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="I135" t="n">
-        <v>10124170</v>
+        <v>10097706</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1059380</v>
+        <v>1059597</v>
       </c>
       <c r="E136" t="n">
-        <v>4102151</v>
+        <v>4102991</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>260726</v>
+        <v>267725</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>122024172</v>
+        <v>121765076</v>
       </c>
       <c r="E137" t="n">
-        <v>468104365</v>
+        <v>467110431</v>
       </c>
       <c r="F137" t="n">
-        <v>136492.6830608177</v>
+        <v>178326.2571887316</v>
       </c>
       <c r="G137" t="n">
-        <v>253482.2782420103</v>
+        <v>202430.2301276255</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32267749</v>
+        <v>32104912</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3133626</v>
+        <v>3172784</v>
       </c>
       <c r="E138" t="n">
-        <v>29691567</v>
+        <v>30062596</v>
       </c>
       <c r="F138" t="n">
-        <v>4735.234873113046</v>
+        <v>5010.437950150268</v>
       </c>
       <c r="G138" t="n">
-        <v>2805.974492642617</v>
+        <v>2949.635881191855</v>
       </c>
       <c r="H138" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="I138" t="n">
-        <v>229126</v>
+        <v>230433</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>24234434</v>
+        <v>24419963</v>
       </c>
       <c r="E139" t="n">
-        <v>24234434</v>
+        <v>24419963</v>
       </c>
       <c r="F139" t="n">
-        <v>35.27643593501305</v>
+        <v>89.47865056337514</v>
       </c>
       <c r="G139" t="n">
-        <v>44.38059962958241</v>
+        <v>22.90005824524691</v>
       </c>
       <c r="H139" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="I139" t="n">
-        <v>879934</v>
+        <v>876699</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494305820</v>
+        <v>494222457</v>
       </c>
       <c r="E140" t="n">
-        <v>494305820</v>
+        <v>494222457</v>
       </c>
       <c r="F140" t="n">
-        <v>772414.7732091519</v>
+        <v>773660.6700814989</v>
       </c>
       <c r="G140" t="n">
-        <v>875075.2100727543</v>
+        <v>847799.6621667189</v>
       </c>
       <c r="H140" t="n">
         <v>0.02</v>
       </c>
       <c r="I140" t="n">
-        <v>49946945</v>
+        <v>49973424</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>44060439</v>
+        <v>42820343</v>
       </c>
       <c r="F141" t="n">
-        <v>49830.46608782778</v>
+        <v>46525.54783996538</v>
       </c>
       <c r="G141" t="n">
-        <v>70531.8422913174</v>
+        <v>45860.31254547367</v>
       </c>
       <c r="H141" t="n">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="I141" t="n">
-        <v>12003081</v>
+        <v>12012468</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>760539</v>
+        <v>761552</v>
       </c>
       <c r="E142" t="n">
-        <v>12130321</v>
+        <v>12146484</v>
       </c>
       <c r="F142" t="n">
-        <v>82.32579624909827</v>
+        <v>96.67386325967327</v>
       </c>
       <c r="G142" t="n">
-        <v>228.9405020162732</v>
+        <v>230.0347387249214</v>
       </c>
       <c r="H142" t="n">
-        <v>1.47</v>
+        <v>2.58</v>
       </c>
       <c r="I142" t="n">
-        <v>136661</v>
+        <v>131989</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2555169530</v>
+        <v>2549282003</v>
       </c>
       <c r="E143" t="n">
-        <v>2712925178</v>
+        <v>2706674156</v>
       </c>
       <c r="F143" t="n">
-        <v>3025.898466052372</v>
+        <v>2952.425502903476</v>
       </c>
       <c r="G143" t="n">
-        <v>25410.65668305506</v>
+        <v>23452.71548548908</v>
       </c>
       <c r="H143" t="n">
         <v>0.19</v>
       </c>
       <c r="I143" t="n">
-        <v>61103834</v>
+        <v>60456396</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1699647</v>
+        <v>1699600</v>
       </c>
       <c r="E144" t="n">
-        <v>1705647</v>
+        <v>1705599</v>
       </c>
       <c r="F144" t="n">
-        <v>1735.662031471755</v>
+        <v>3603.768082181889</v>
       </c>
       <c r="G144" t="n">
-        <v>219.3000727761741</v>
+        <v>3635.218871476601</v>
       </c>
       <c r="H144" t="n">
-        <v>1.73</v>
+        <v>0.99</v>
       </c>
       <c r="I144" t="n">
-        <v>403345</v>
+        <v>424574</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55860003</v>
+        <v>55549406</v>
       </c>
       <c r="E145" t="n">
-        <v>137020801</v>
+        <v>136258927</v>
       </c>
       <c r="F145" t="n">
-        <v>6265.560462227662</v>
+        <v>5182.963415455411</v>
       </c>
       <c r="G145" t="n">
-        <v>1257.385056146741</v>
+        <v>4458.088505321457</v>
       </c>
       <c r="H145" t="n">
-        <v>1.83</v>
+        <v>0.98</v>
       </c>
       <c r="I145" t="n">
-        <v>22197283</v>
+        <v>22191829</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>764372333</v>
+        <v>759897361</v>
       </c>
       <c r="E146" t="n">
-        <v>1178729626</v>
+        <v>1171828824</v>
       </c>
       <c r="F146" t="n">
-        <v>149097.8680540939</v>
+        <v>137942.4401048685</v>
       </c>
       <c r="G146" t="n">
-        <v>124866.6487487486</v>
+        <v>168649.2127770646</v>
       </c>
       <c r="H146" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I146" t="n">
-        <v>341824945</v>
+        <v>339162595</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22894775</v>
+        <v>22859720</v>
       </c>
       <c r="E147" t="n">
-        <v>22894775</v>
+        <v>22859720</v>
       </c>
       <c r="F147" t="n">
-        <v>3536.39651968055</v>
+        <v>4391.091848215582</v>
       </c>
       <c r="G147" t="n">
-        <v>7513.314538910059</v>
+        <v>7075.427357560034</v>
       </c>
       <c r="H147" t="n">
-        <v>0.95</v>
+        <v>0.63</v>
       </c>
       <c r="I147" t="n">
-        <v>5552391</v>
+        <v>5536709</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3807090</v>
+        <v>3806503</v>
       </c>
       <c r="E148" t="n">
-        <v>8298923</v>
+        <v>8297642</v>
       </c>
       <c r="F148" t="n">
-        <v>6738.870566584442</v>
+        <v>6738.896287976695</v>
       </c>
       <c r="G148" t="n">
-        <v>7493.114407535193</v>
+        <v>7518.981553705969</v>
       </c>
       <c r="H148" t="n">
         <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>2248874</v>
+        <v>2255728</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9249935</v>
+        <v>9247666</v>
       </c>
       <c r="E149" t="n">
-        <v>9249935</v>
+        <v>9247666</v>
       </c>
       <c r="F149" t="n">
-        <v>74950.57615937442</v>
+        <v>72757.71738165582</v>
       </c>
       <c r="G149" t="n">
-        <v>83159.05218705349</v>
+        <v>84773.66986087228</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>5417890</v>
+        <v>6600681</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>468541628</v>
+        <v>465194440</v>
       </c>
       <c r="E150" t="n">
-        <v>1630127804</v>
+        <v>1618482427</v>
       </c>
       <c r="F150" t="n">
-        <v>569680.7111341356</v>
+        <v>749748.2665274735</v>
       </c>
       <c r="G150" t="n">
-        <v>680669.5499621133</v>
+        <v>678913.8387859638</v>
       </c>
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>48984351</v>
+        <v>49007469</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46326335</v>
+        <v>46255103</v>
       </c>
       <c r="E151" t="n">
-        <v>114038698</v>
+        <v>113863350</v>
       </c>
       <c r="F151" t="n">
-        <v>8560.080420675267</v>
+        <v>8517.696709535547</v>
       </c>
       <c r="G151" t="n">
-        <v>5564.942754000603</v>
+        <v>5544.621535402162</v>
       </c>
       <c r="H151" t="n">
         <v>0.35</v>
       </c>
       <c r="I151" t="n">
-        <v>176843</v>
+        <v>174985</v>
       </c>
     </row>
     <row r="152">
@@ -5683,10 +5683,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7229852</v>
+        <v>7254170</v>
       </c>
       <c r="E152" t="n">
-        <v>18782379</v>
+        <v>18845554</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>4.64</v>
+        <v>4.12</v>
       </c>
       <c r="I152" t="n">
-        <v>813099</v>
+        <v>815297</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18967143875</v>
+        <v>18952531435</v>
       </c>
       <c r="F153" t="n">
-        <v>1497.442565006113</v>
+        <v>1494.457810483273</v>
       </c>
       <c r="G153" t="n">
-        <v>29452.98438179648</v>
+        <v>29460.13574680376</v>
       </c>
       <c r="H153" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="I153" t="n">
-        <v>16734179</v>
+        <v>16190931</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2285731</v>
+        <v>2281576</v>
       </c>
       <c r="E154" t="n">
-        <v>9142925</v>
+        <v>9126305</v>
       </c>
       <c r="F154" t="n">
-        <v>933.0412240649789</v>
+        <v>949.3672124784764</v>
       </c>
       <c r="G154" t="n">
-        <v>1613.411715783956</v>
+        <v>1480.961652588341</v>
       </c>
       <c r="H154" t="n">
         <v>0.44</v>
       </c>
       <c r="I154" t="n">
-        <v>8225585</v>
+        <v>8239799</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212534336</v>
+        <v>212240223</v>
       </c>
       <c r="E155" t="n">
-        <v>653463102</v>
+        <v>652558814</v>
       </c>
       <c r="F155" t="n">
-        <v>55260.91524776696</v>
+        <v>46393.72479165535</v>
       </c>
       <c r="G155" t="n">
-        <v>73619.82049965289</v>
+        <v>72938.38857109625</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>20940993</v>
+        <v>20905346</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>381741442</v>
+        <v>381174562</v>
       </c>
       <c r="E156" t="n">
-        <v>2181379670</v>
+        <v>2178140356</v>
       </c>
       <c r="F156" t="n">
-        <v>269562.8420499343</v>
+        <v>273743.7156892931</v>
       </c>
       <c r="G156" t="n">
-        <v>337685.2241755336</v>
+        <v>342728.7830196046</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>64852734</v>
+        <v>64687889</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3854832</v>
+        <v>3822634</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0340366696464</v>
+        <v>387.034759666037</v>
       </c>
       <c r="G2" t="n">
-        <v>1321.38513263671</v>
+        <v>1260.539319802261</v>
       </c>
       <c r="H2" t="n">
-        <v>2.71</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>130782</v>
+        <v>129145</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>615087558</v>
+        <v>608916720</v>
       </c>
       <c r="E3" t="n">
-        <v>1193735508</v>
+        <v>1181761352</v>
       </c>
       <c r="F3" t="n">
-        <v>11676.48150900034</v>
+        <v>17909.39799659325</v>
       </c>
       <c r="G3" t="n">
-        <v>30920.1483275242</v>
+        <v>32447.90315233983</v>
       </c>
       <c r="H3" t="n">
         <v>0.13</v>
       </c>
       <c r="I3" t="n">
-        <v>51261448</v>
+        <v>46862827</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253109004</v>
+        <v>252112985</v>
       </c>
       <c r="E4" t="n">
-        <v>1587210990</v>
+        <v>1580965093</v>
       </c>
       <c r="F4" t="n">
-        <v>241265.9294058808</v>
+        <v>217501.2691769829</v>
       </c>
       <c r="G4" t="n">
-        <v>224483.1731343831</v>
+        <v>262300.4788959394</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>29532295</v>
+        <v>29773893</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141163607</v>
+        <v>142017043</v>
       </c>
       <c r="E5" t="n">
-        <v>156431337</v>
+        <v>157377079</v>
       </c>
       <c r="F5" t="n">
-        <v>8848.534447623635</v>
+        <v>8912.005505627338</v>
       </c>
       <c r="G5" t="n">
-        <v>804.3523389840104</v>
+        <v>810.5521450394187</v>
       </c>
       <c r="H5" t="n">
         <v>0.19</v>
       </c>
       <c r="I5" t="n">
-        <v>52260682</v>
+        <v>51964073</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49303926</v>
+        <v>49219793</v>
       </c>
       <c r="E6" t="n">
-        <v>61677947</v>
+        <v>61572699</v>
       </c>
       <c r="F6" t="n">
-        <v>5452.921206746531</v>
+        <v>6002.245004057339</v>
       </c>
       <c r="G6" t="n">
-        <v>7180.656183617702</v>
+        <v>5380.438314954875</v>
       </c>
       <c r="H6" t="n">
         <v>0.16</v>
       </c>
       <c r="I6" t="n">
-        <v>755394</v>
+        <v>745501</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66373384</v>
+        <v>66145787</v>
       </c>
       <c r="E7" t="n">
-        <v>132167046</v>
+        <v>131713841</v>
       </c>
       <c r="F7" t="n">
-        <v>11822.69953334884</v>
+        <v>11050.65631390985</v>
       </c>
       <c r="G7" t="n">
-        <v>12893.96384484073</v>
+        <v>12537.86085734024</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>922252</v>
+        <v>941980</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42725112</v>
+        <v>42307919</v>
       </c>
       <c r="E8" t="n">
-        <v>47815555</v>
+        <v>47348656</v>
       </c>
       <c r="F8" t="n">
-        <v>656.9944601364488</v>
+        <v>509.7740333205508</v>
       </c>
       <c r="G8" t="n">
-        <v>662.3026462775089</v>
+        <v>280.3011514386292</v>
       </c>
       <c r="H8" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>14506613</v>
+        <v>14589230</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13766691</v>
+        <v>13710078</v>
       </c>
       <c r="E9" t="n">
-        <v>40569549</v>
+        <v>40402713</v>
       </c>
       <c r="F9" t="n">
-        <v>4977.766592431629</v>
+        <v>4999.558196538922</v>
       </c>
       <c r="G9" t="n">
-        <v>4913.161787075188</v>
+        <v>4270.945869454192</v>
       </c>
       <c r="H9" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="I9" t="n">
-        <v>804988</v>
+        <v>803495</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9444675</v>
+        <v>9744655</v>
       </c>
       <c r="E10" t="n">
-        <v>40598468</v>
+        <v>41887947</v>
       </c>
       <c r="F10" t="n">
-        <v>404.4530279540315</v>
+        <v>382.0515621567142</v>
       </c>
       <c r="G10" t="n">
-        <v>15970.86371041638</v>
+        <v>13676.79583860307</v>
       </c>
       <c r="H10" t="n">
-        <v>0.82</v>
+        <v>1.08</v>
       </c>
       <c r="I10" t="n">
-        <v>726775</v>
+        <v>725075</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>556471482</v>
+        <v>558459134</v>
       </c>
       <c r="E11" t="n">
-        <v>696063118</v>
+        <v>698549374</v>
       </c>
       <c r="F11" t="n">
-        <v>307004.2659645439</v>
+        <v>302220.1433762977</v>
       </c>
       <c r="G11" t="n">
-        <v>315508.5801489797</v>
+        <v>328676.987406065</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>97938627</v>
+        <v>98737932</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4363905</v>
+        <v>4394219</v>
       </c>
       <c r="E12" t="n">
-        <v>26793578</v>
+        <v>26979695</v>
       </c>
       <c r="F12" t="n">
-        <v>9179.658918132405</v>
+        <v>7939.340291697354</v>
       </c>
       <c r="G12" t="n">
-        <v>10255.42823847515</v>
+        <v>9187.728589196358</v>
       </c>
       <c r="H12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="I12" t="n">
-        <v>395645</v>
+        <v>377352</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23474229</v>
+        <v>23489684</v>
       </c>
       <c r="E13" t="n">
-        <v>23517120</v>
+        <v>23532602</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>860285</v>
+        <v>857602</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79305694</v>
+        <v>79505703</v>
       </c>
       <c r="E14" t="n">
-        <v>233327187</v>
+        <v>233915638</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>399032</v>
+        <v>424981</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>474443449</v>
+        <v>478075077</v>
       </c>
       <c r="E15" t="n">
-        <v>474443449</v>
+        <v>478075079</v>
       </c>
       <c r="F15" t="n">
-        <v>26737.68008113146</v>
+        <v>29640.52360092572</v>
       </c>
       <c r="G15" t="n">
-        <v>27509.42009547422</v>
+        <v>23416.5325998055</v>
       </c>
       <c r="H15" t="n">
         <v>0.21</v>
       </c>
       <c r="I15" t="n">
-        <v>73323446</v>
+        <v>73624877</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4650544</v>
+        <v>4634343</v>
       </c>
       <c r="E16" t="n">
-        <v>4650544</v>
+        <v>4634343</v>
       </c>
       <c r="F16" t="n">
-        <v>157.1261127475775</v>
+        <v>166.3987151662587</v>
       </c>
       <c r="G16" t="n">
-        <v>1174.343884084892</v>
+        <v>985.794589344254</v>
       </c>
       <c r="H16" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="I16" t="n">
-        <v>2289635</v>
+        <v>2307359</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3237144</v>
+        <v>3259294</v>
       </c>
       <c r="E17" t="n">
-        <v>3237144</v>
+        <v>3259294</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>725535</v>
+        <v>744037</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168345815</v>
+        <v>168346966</v>
       </c>
       <c r="E18" t="n">
-        <v>208419130</v>
+        <v>208420555</v>
       </c>
       <c r="F18" t="n">
-        <v>7963.817747207373</v>
+        <v>8505.068672054793</v>
       </c>
       <c r="G18" t="n">
-        <v>8951.372834612946</v>
+        <v>9531.838426514687</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I18" t="n">
-        <v>524712</v>
+        <v>447828</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6221809</v>
+        <v>6517853</v>
       </c>
       <c r="E19" t="n">
-        <v>8569020</v>
+        <v>8976749</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>376879</v>
+        <v>396222</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>889982</v>
+        <v>884104</v>
       </c>
       <c r="E20" t="n">
-        <v>6229873</v>
+        <v>6188725</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>147852</v>
+        <v>163622</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>114350062</v>
+        <v>112500989</v>
       </c>
       <c r="E21" t="n">
-        <v>444241884</v>
+        <v>437042158</v>
       </c>
       <c r="F21" t="n">
-        <v>7657.296831194226</v>
+        <v>15229.22860813626</v>
       </c>
       <c r="G21" t="n">
-        <v>11479.54315512344</v>
+        <v>15772.42000260158</v>
       </c>
       <c r="H21" t="n">
         <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>22024474</v>
+        <v>12528969</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1714297</v>
+        <v>1713793</v>
       </c>
       <c r="E22" t="n">
-        <v>12347933</v>
+        <v>12344307</v>
       </c>
       <c r="F22" t="n">
-        <v>4906.467793061736</v>
+        <v>4906.304823418682</v>
       </c>
       <c r="G22" t="n">
-        <v>6029.291708697737</v>
+        <v>5992.834816102873</v>
       </c>
       <c r="H22" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>54784</v>
+        <v>54240</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>140553605</v>
+        <v>142570903</v>
       </c>
       <c r="E23" t="n">
-        <v>140553605</v>
+        <v>142570903</v>
       </c>
       <c r="F23" t="n">
-        <v>943743.8138937439</v>
+        <v>893076.1411907912</v>
       </c>
       <c r="G23" t="n">
-        <v>1241035.493251082</v>
+        <v>1301007.920274158</v>
       </c>
       <c r="H23" t="n">
         <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>93464570</v>
+        <v>94191965</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63037806</v>
+        <v>63226894</v>
       </c>
       <c r="E24" t="n">
-        <v>323270798</v>
+        <v>324240485</v>
       </c>
       <c r="F24" t="n">
-        <v>89016.99208043175</v>
+        <v>92693.94608205417</v>
       </c>
       <c r="G24" t="n">
-        <v>132028.8919175465</v>
+        <v>123131.6781548811</v>
       </c>
       <c r="H24" t="n">
         <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>23989027</v>
+        <v>22881200</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>251601601</v>
+        <v>252949940</v>
       </c>
       <c r="E25" t="n">
-        <v>251601601</v>
+        <v>252949940</v>
       </c>
       <c r="F25" t="n">
-        <v>322137.8540634589</v>
+        <v>346340.3617278238</v>
       </c>
       <c r="G25" t="n">
-        <v>461162.9725787982</v>
+        <v>406571.5176008554</v>
       </c>
       <c r="H25" t="n">
         <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>28763188</v>
+        <v>28905549</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1120788</v>
+        <v>1124547</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>121799</v>
+        <v>125606</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2224719</v>
+        <v>2191031</v>
       </c>
       <c r="E27" t="n">
-        <v>2487944</v>
+        <v>2449433</v>
       </c>
       <c r="F27" t="n">
-        <v>387.017907061133</v>
+        <v>366.687232891663</v>
       </c>
       <c r="G27" t="n">
-        <v>195.2208376870143</v>
+        <v>343.7464540278862</v>
       </c>
       <c r="H27" t="n">
-        <v>0.38</v>
+        <v>1.49</v>
       </c>
       <c r="I27" t="n">
-        <v>562530</v>
+        <v>573663</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3796032</v>
+        <v>3802322</v>
       </c>
       <c r="E28" t="n">
-        <v>3796885</v>
+        <v>3803182</v>
       </c>
       <c r="F28" t="n">
-        <v>776.8590818457621</v>
+        <v>983.6018736624281</v>
       </c>
       <c r="G28" t="n">
-        <v>3897.780380245059</v>
+        <v>3579.621196749451</v>
       </c>
       <c r="H28" t="n">
-        <v>1.37</v>
+        <v>0.49</v>
       </c>
       <c r="I28" t="n">
-        <v>228796</v>
+        <v>224280</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6801294</v>
+        <v>6852931</v>
       </c>
       <c r="E29" t="n">
-        <v>16519819</v>
+        <v>16645241</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>442662</v>
+        <v>441814</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97748830</v>
+        <v>97273440</v>
       </c>
       <c r="E30" t="n">
-        <v>121881333</v>
+        <v>121288577</v>
       </c>
       <c r="F30" t="n">
-        <v>100821.15546437</v>
+        <v>106410.953744641</v>
       </c>
       <c r="G30" t="n">
-        <v>107663.2872317527</v>
+        <v>109773.50182075</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13431112</v>
+        <v>13251462</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109725</v>
+        <v>1109260</v>
       </c>
       <c r="E31" t="n">
-        <v>12060074</v>
+        <v>12055019</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12826.62</v>
+        <v>12817.11</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>78302902</v>
+        <v>78020894</v>
       </c>
       <c r="E32" t="n">
-        <v>219142094</v>
+        <v>218361890</v>
       </c>
       <c r="F32" t="n">
-        <v>56093.33163475394</v>
+        <v>55328.96760601167</v>
       </c>
       <c r="G32" t="n">
-        <v>69733.30826490962</v>
+        <v>64081.50785107686</v>
       </c>
       <c r="H32" t="n">
         <v>0.02</v>
       </c>
       <c r="I32" t="n">
-        <v>52350082</v>
+        <v>50004037</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4103293</v>
+        <v>4071148</v>
       </c>
       <c r="E33" t="n">
-        <v>8092038</v>
+        <v>8028646</v>
       </c>
       <c r="F33" t="n">
-        <v>5168.132627693513</v>
+        <v>7942.356823069819</v>
       </c>
       <c r="G33" t="n">
-        <v>6009.73945104956</v>
+        <v>6256.50654318786</v>
       </c>
       <c r="H33" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1683372</v>
+        <v>1135193</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36195627</v>
+        <v>36206942</v>
       </c>
       <c r="F34" t="n">
-        <v>231.6876660428909</v>
+        <v>231.6799704749533</v>
       </c>
       <c r="G34" t="n">
-        <v>250.6180650928904</v>
+        <v>250.6097407466736</v>
       </c>
       <c r="H34" t="n">
         <v>0.28</v>
       </c>
       <c r="I34" t="n">
-        <v>11860.13</v>
+        <v>11785.06</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17124236</v>
+        <v>17172354</v>
       </c>
       <c r="E35" t="n">
-        <v>18048543</v>
+        <v>18099258</v>
       </c>
       <c r="F35" t="n">
-        <v>3481.069598133415</v>
+        <v>3486.741585617606</v>
       </c>
       <c r="G35" t="n">
-        <v>2560.271357259183</v>
+        <v>2560.671584165486</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>42303</v>
+        <v>48806</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23037913</v>
+        <v>23121150</v>
       </c>
       <c r="F36" t="n">
-        <v>5183.69860527246</v>
+        <v>5184.83657059449</v>
       </c>
       <c r="G36" t="n">
-        <v>5600.673845350539</v>
+        <v>5260.818602952739</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I36" t="n">
-        <v>125953</v>
+        <v>126652</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84075409</v>
+        <v>84109199</v>
       </c>
       <c r="E37" t="n">
-        <v>175290475</v>
+        <v>175360926</v>
       </c>
       <c r="F37" t="n">
-        <v>42399.23802614355</v>
+        <v>54456.31137965369</v>
       </c>
       <c r="G37" t="n">
-        <v>35290.1440885222</v>
+        <v>52857.10507678687</v>
       </c>
       <c r="H37" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="I37" t="n">
-        <v>85303027</v>
+        <v>85152690</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>276915298</v>
+        <v>277855500</v>
       </c>
       <c r="E38" t="n">
-        <v>276915298</v>
+        <v>277855500</v>
       </c>
       <c r="F38" t="n">
-        <v>26622.44077887813</v>
+        <v>35610.59811099888</v>
       </c>
       <c r="G38" t="n">
-        <v>29592.75603042877</v>
+        <v>20809.80451139545</v>
       </c>
       <c r="H38" t="n">
         <v>0.11</v>
       </c>
       <c r="I38" t="n">
-        <v>11533092</v>
+        <v>11676077</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>193272945</v>
+        <v>192879737</v>
       </c>
       <c r="E39" t="n">
-        <v>671447677</v>
+        <v>670081638</v>
       </c>
       <c r="F39" t="n">
-        <v>107653.6236910059</v>
+        <v>219750.459608526</v>
       </c>
       <c r="G39" t="n">
-        <v>306655.9397618604</v>
+        <v>229809.0864575761</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I39" t="n">
-        <v>42052755</v>
+        <v>41201688</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3215807</v>
+        <v>3387939</v>
       </c>
       <c r="E40" t="n">
-        <v>3215807</v>
+        <v>3387939</v>
       </c>
       <c r="F40" t="n">
-        <v>842.42230129244</v>
+        <v>2682.981495570973</v>
       </c>
       <c r="G40" t="n">
-        <v>2581.86763254111</v>
+        <v>2169.058284395383</v>
       </c>
       <c r="H40" t="n">
-        <v>0.83</v>
+        <v>0.36</v>
       </c>
       <c r="I40" t="n">
-        <v>1703973</v>
+        <v>1664971</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>111637931</v>
+        <v>112133484</v>
       </c>
       <c r="E41" t="n">
-        <v>473033639</v>
+        <v>475083392</v>
       </c>
       <c r="F41" t="n">
-        <v>5402.925172145727</v>
+        <v>5628.089103645687</v>
       </c>
       <c r="G41" t="n">
-        <v>7917.124617088952</v>
+        <v>6736.001695138776</v>
       </c>
       <c r="H41" t="n">
         <v>0.15</v>
       </c>
       <c r="I41" t="n">
-        <v>14848572</v>
+        <v>14809030</v>
       </c>
     </row>
     <row r="42">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>604888</v>
+        <v>639492</v>
       </c>
       <c r="E42" t="n">
-        <v>7336700</v>
+        <v>7756414</v>
       </c>
       <c r="F42" t="n">
-        <v>638.4272447816113</v>
+        <v>896.1215026398373</v>
       </c>
       <c r="G42" t="n">
-        <v>385.4900949986286</v>
+        <v>573.252859840369</v>
       </c>
       <c r="H42" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="I42" t="n">
-        <v>2734745</v>
+        <v>3179073</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1412522068</v>
+        <v>1398510764</v>
       </c>
       <c r="E43" t="n">
-        <v>6773332596</v>
+        <v>6706145522</v>
       </c>
       <c r="F43" t="n">
-        <v>46452.04676853946</v>
+        <v>47790.76299359654</v>
       </c>
       <c r="G43" t="n">
-        <v>48384.68656001861</v>
+        <v>49793.10454540456</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>594910534</v>
+        <v>595291781</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5884692154</v>
+        <v>5886614089</v>
       </c>
       <c r="E44" t="n">
-        <v>5884626779</v>
+        <v>5886201130</v>
       </c>
       <c r="F44" t="n">
-        <v>639185.4374756572</v>
+        <v>646060.8710212746</v>
       </c>
       <c r="G44" t="n">
-        <v>476150.9573261523</v>
+        <v>413233.4298817337</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>436649202</v>
+        <v>441501845</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>262887412</v>
+        <v>262206217</v>
       </c>
       <c r="E45" t="n">
-        <v>1134768010</v>
+        <v>1131827595</v>
       </c>
       <c r="F45" t="n">
-        <v>99592.10683583844</v>
+        <v>95912.16687492267</v>
       </c>
       <c r="G45" t="n">
-        <v>85207.73023009772</v>
+        <v>92793.44251946689</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>141155941</v>
+        <v>139586129</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>119235624</v>
+        <v>118779370</v>
       </c>
       <c r="E46" t="n">
-        <v>119235624</v>
+        <v>118779370</v>
       </c>
       <c r="F46" t="n">
-        <v>24791.07810037142</v>
+        <v>23889.72380979371</v>
       </c>
       <c r="G46" t="n">
-        <v>29941.56225039392</v>
+        <v>43817.39208785864</v>
       </c>
       <c r="H46" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="I46" t="n">
-        <v>10079017</v>
+        <v>10196600</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2042431341</v>
+        <v>2046145992</v>
       </c>
       <c r="E47" t="n">
-        <v>2042431341</v>
+        <v>2046145992</v>
       </c>
       <c r="F47" t="n">
-        <v>221110.0831841455</v>
+        <v>221225.7463446016</v>
       </c>
       <c r="G47" t="n">
-        <v>199952.7322702757</v>
+        <v>199950.6864071007</v>
       </c>
       <c r="H47" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I47" t="n">
-        <v>8949177968</v>
+        <v>8829516239</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10342203</v>
+        <v>10332954</v>
       </c>
       <c r="F48" t="n">
-        <v>6445.887930457594</v>
+        <v>6691.737438380611</v>
       </c>
       <c r="G48" t="n">
-        <v>6908.547921858556</v>
+        <v>7312.104685859894</v>
       </c>
       <c r="H48" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="I48" t="n">
-        <v>160810</v>
+        <v>159145</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4560430</v>
+        <v>4510157</v>
       </c>
       <c r="E49" t="n">
-        <v>5987249</v>
+        <v>5921248</v>
       </c>
       <c r="F49" t="n">
-        <v>2435.902352750388</v>
+        <v>3984.282148287709</v>
       </c>
       <c r="G49" t="n">
-        <v>6368.150193030565</v>
+        <v>5796.574203924003</v>
       </c>
       <c r="H49" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I49" t="n">
-        <v>727080</v>
+        <v>712921</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12889936</v>
+        <v>12826167</v>
       </c>
       <c r="E50" t="n">
-        <v>18954407</v>
+        <v>18860637</v>
       </c>
       <c r="F50" t="n">
-        <v>6301.003770134877</v>
+        <v>6946.002976827414</v>
       </c>
       <c r="G50" t="n">
-        <v>6975.224817401193</v>
+        <v>6931.416812371111</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>4088145</v>
+        <v>6265996</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22372763</v>
+        <v>22372784</v>
       </c>
       <c r="E51" t="n">
-        <v>29022592</v>
+        <v>29022619</v>
       </c>
       <c r="F51" t="n">
-        <v>11484.18884387991</v>
+        <v>13557.37601742979</v>
       </c>
       <c r="G51" t="n">
-        <v>9402.94750194942</v>
+        <v>10195.89568308324</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>227667</v>
+        <v>220665</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14412688</v>
+        <v>14473823</v>
       </c>
       <c r="E52" t="n">
-        <v>14412688</v>
+        <v>14473823</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5705510</v>
+        <v>5922456</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99192373</v>
+        <v>99440138</v>
       </c>
       <c r="E53" t="n">
-        <v>122697415</v>
+        <v>123003891</v>
       </c>
       <c r="F53" t="n">
-        <v>660.86043098491</v>
+        <v>915.8048964294829</v>
       </c>
       <c r="G53" t="n">
-        <v>3832.650031120639</v>
+        <v>1261.888536956068</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I53" t="n">
-        <v>1064140</v>
+        <v>1040410</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4965512</v>
+        <v>4978738</v>
       </c>
       <c r="E54" t="n">
-        <v>6947472</v>
+        <v>6965976</v>
       </c>
       <c r="F54" t="n">
-        <v>498.3816810363774</v>
+        <v>493.1385089342866</v>
       </c>
       <c r="G54" t="n">
-        <v>47.43477442556534</v>
+        <v>136.7005044604819</v>
       </c>
       <c r="H54" t="n">
-        <v>2.68</v>
+        <v>2.13</v>
       </c>
       <c r="I54" t="n">
-        <v>57288</v>
+        <v>59037</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14110835</v>
+        <v>14110053</v>
       </c>
       <c r="E55" t="n">
-        <v>68341026</v>
+        <v>68337241</v>
       </c>
       <c r="F55" t="n">
-        <v>12642.65504405878</v>
+        <v>11556.31399188238</v>
       </c>
       <c r="G55" t="n">
-        <v>13129.46717981826</v>
+        <v>9697.218629169005</v>
       </c>
       <c r="H55" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I55" t="n">
-        <v>5407539</v>
+        <v>5272835</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55229</v>
+        <v>55223</v>
       </c>
       <c r="E56" t="n">
-        <v>132286</v>
+        <v>132270</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16914.24</v>
+        <v>16876.46</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1842939448</v>
+        <v>1844070531</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>32052442</v>
+        <v>32105430</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11989249</v>
+        <v>12105339</v>
       </c>
       <c r="E58" t="n">
-        <v>17382681</v>
+        <v>17550995</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1778725</v>
+        <v>1789926</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>121753276</v>
+        <v>120712096</v>
       </c>
       <c r="E59" t="n">
-        <v>323794308</v>
+        <v>321025361</v>
       </c>
       <c r="F59" t="n">
-        <v>7816.059093582256</v>
+        <v>7994.788413935405</v>
       </c>
       <c r="G59" t="n">
-        <v>7255.586395408302</v>
+        <v>7109.624732971602</v>
       </c>
       <c r="H59" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="I59" t="n">
-        <v>850684</v>
+        <v>858275</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29301999</v>
+        <v>29064918</v>
       </c>
       <c r="E60" t="n">
-        <v>91237022</v>
+        <v>90498828</v>
       </c>
       <c r="F60" t="n">
-        <v>1411.637320115343</v>
+        <v>2504.913526393229</v>
       </c>
       <c r="G60" t="n">
-        <v>3503.755456146679</v>
+        <v>7871.250124688118</v>
       </c>
       <c r="H60" t="n">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>11148096</v>
+        <v>11233347</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1806014</v>
+        <v>1808312</v>
       </c>
       <c r="E61" t="n">
-        <v>12950743</v>
+        <v>12967226</v>
       </c>
       <c r="F61" t="n">
-        <v>5193.452181026856</v>
+        <v>5205.299694446152</v>
       </c>
       <c r="G61" t="n">
-        <v>5364.539102798838</v>
+        <v>5302.246378015424</v>
       </c>
       <c r="H61" t="n">
-        <v>1.96</v>
+        <v>1.21</v>
       </c>
       <c r="I61" t="n">
-        <v>2183504</v>
+        <v>2191613</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>195205496</v>
+        <v>194816177</v>
       </c>
       <c r="E62" t="n">
-        <v>1105373459</v>
+        <v>1103168897</v>
       </c>
       <c r="F62" t="n">
-        <v>567717.1571642434</v>
+        <v>604085.9811896585</v>
       </c>
       <c r="G62" t="n">
-        <v>898716.8162149466</v>
+        <v>858919.9638026273</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>82001669</v>
+        <v>80784748</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>489274</v>
+        <v>488531</v>
       </c>
       <c r="E63" t="n">
-        <v>1646827</v>
+        <v>1644327</v>
       </c>
       <c r="F63" t="n">
-        <v>5399.231170700812</v>
+        <v>567.9147156136025</v>
       </c>
       <c r="G63" t="n">
-        <v>454.7758562321408</v>
+        <v>654.5163016270714</v>
       </c>
       <c r="H63" t="n">
         <v>0.54</v>
       </c>
       <c r="I63" t="n">
-        <v>645202</v>
+        <v>643406</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>370794</v>
+        <v>365954</v>
       </c>
       <c r="E64" t="n">
-        <v>370794</v>
+        <v>365954</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4529.44</v>
+        <v>4718.98</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>130838898</v>
+        <v>130410728</v>
       </c>
       <c r="E65" t="n">
-        <v>969177023</v>
+        <v>966005389</v>
       </c>
       <c r="F65" t="n">
-        <v>31690.16427480901</v>
+        <v>33862.38396375463</v>
       </c>
       <c r="G65" t="n">
-        <v>39223.31089122913</v>
+        <v>37319.83457917362</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>39955077</v>
+        <v>40380464</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8735547</v>
+        <v>8720277</v>
       </c>
       <c r="E66" t="n">
-        <v>11702720</v>
+        <v>11682264</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>94048</v>
+        <v>92407</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26155992</v>
+        <v>26082863</v>
       </c>
       <c r="E67" t="n">
-        <v>26155992</v>
+        <v>26082863</v>
       </c>
       <c r="F67" t="n">
-        <v>8050.505363709282</v>
+        <v>8032.948597182301</v>
       </c>
       <c r="G67" t="n">
-        <v>5202.337164217825</v>
+        <v>5343.127905922075</v>
       </c>
       <c r="H67" t="n">
-        <v>0.35</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>368858</v>
+        <v>368995</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1565216</v>
+        <v>1566836</v>
       </c>
       <c r="E68" t="n">
-        <v>12155647</v>
+        <v>12168230</v>
       </c>
       <c r="F68" t="n">
-        <v>13965.69389706584</v>
+        <v>18063.47229563144</v>
       </c>
       <c r="G68" t="n">
-        <v>24306.38074508518</v>
+        <v>19482.34969528109</v>
       </c>
       <c r="H68" t="n">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
       <c r="I68" t="n">
-        <v>527254</v>
+        <v>531293</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>319135549</v>
+        <v>316359939</v>
       </c>
       <c r="E69" t="n">
-        <v>2871141288</v>
+        <v>2846170181</v>
       </c>
       <c r="F69" t="n">
-        <v>1329742.723280851</v>
+        <v>971465.5683925349</v>
       </c>
       <c r="G69" t="n">
-        <v>1649147.582139869</v>
+        <v>1539162.047090659</v>
       </c>
       <c r="H69" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I69" t="n">
-        <v>75090704</v>
+        <v>71001506</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>249708</v>
+        <v>251239</v>
       </c>
       <c r="E70" t="n">
-        <v>2203859</v>
+        <v>2217377</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>75891</v>
+        <v>74058</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1550059</v>
+        <v>1531363</v>
       </c>
       <c r="E71" t="n">
-        <v>12917160</v>
+        <v>12761355</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>33449</v>
+        <v>32681</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9392376</v>
+        <v>9388885</v>
       </c>
       <c r="E72" t="n">
-        <v>43534203</v>
+        <v>43518020</v>
       </c>
       <c r="F72" t="n">
-        <v>9912.803152919068</v>
+        <v>9729.093235498132</v>
       </c>
       <c r="G72" t="n">
-        <v>3378.257019515572</v>
+        <v>3367.058221660921</v>
       </c>
       <c r="H72" t="n">
-        <v>1.04</v>
+        <v>0.83</v>
       </c>
       <c r="I72" t="n">
-        <v>111737</v>
+        <v>111495</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47836540</v>
+        <v>48259265</v>
       </c>
       <c r="E73" t="n">
-        <v>276953801</v>
+        <v>279401203</v>
       </c>
       <c r="F73" t="n">
-        <v>105877.3492892002</v>
+        <v>100736.7357808498</v>
       </c>
       <c r="G73" t="n">
-        <v>188613.3417035106</v>
+        <v>175273.394866771</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>32646037</v>
+        <v>31551305</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>37822113</v>
+        <v>37886861</v>
       </c>
       <c r="E74" t="n">
-        <v>52237725</v>
+        <v>52327151</v>
       </c>
       <c r="F74" t="n">
-        <v>497.2697314701547</v>
+        <v>4231.154598559639</v>
       </c>
       <c r="G74" t="n">
-        <v>816.4827442696326</v>
+        <v>4588.622571252252</v>
       </c>
       <c r="H74" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="I74" t="n">
-        <v>327165</v>
+        <v>332110</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>110648</v>
+        <v>101415</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5198.29</v>
+        <v>5132.87</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13497435</v>
+        <v>13527900</v>
       </c>
       <c r="E76" t="n">
-        <v>13543369</v>
+        <v>13573937</v>
       </c>
       <c r="F76" t="n">
-        <v>1687.806312875507</v>
+        <v>5108.01606411492</v>
       </c>
       <c r="G76" t="n">
-        <v>6365.86440091319</v>
+        <v>2839.140732517908</v>
       </c>
       <c r="H76" t="n">
         <v>0.65</v>
       </c>
       <c r="I76" t="n">
-        <v>7408840</v>
+        <v>7424020</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41864958</v>
+        <v>41800341</v>
       </c>
       <c r="E77" t="n">
-        <v>71066645</v>
+        <v>70956957</v>
       </c>
       <c r="F77" t="n">
-        <v>7000.014543777152</v>
+        <v>6674.768006675681</v>
       </c>
       <c r="G77" t="n">
-        <v>10001.85158358608</v>
+        <v>7472.840817415891</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I77" t="n">
-        <v>1129354</v>
+        <v>1154578</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19609103</v>
+        <v>19851987</v>
       </c>
       <c r="E78" t="n">
-        <v>58793859</v>
+        <v>59522096</v>
       </c>
       <c r="F78" t="n">
-        <v>56697.45985134781</v>
+        <v>58254.45409893699</v>
       </c>
       <c r="G78" t="n">
-        <v>44697.21615359629</v>
+        <v>41103.68341298538</v>
       </c>
       <c r="H78" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>4228864</v>
+        <v>4294078</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105455816</v>
+        <v>106343374</v>
       </c>
       <c r="E79" t="n">
-        <v>112109063</v>
+        <v>113052617</v>
       </c>
       <c r="F79" t="n">
-        <v>2539.261908974469</v>
+        <v>2791.353425562736</v>
       </c>
       <c r="G79" t="n">
-        <v>2132.101969736697</v>
+        <v>2175.229514582278</v>
       </c>
       <c r="H79" t="n">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
       <c r="I79" t="n">
-        <v>1015525</v>
+        <v>964303</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10446621</v>
+        <v>10460855</v>
       </c>
       <c r="E80" t="n">
-        <v>45328720</v>
+        <v>45388539</v>
       </c>
       <c r="F80" t="n">
-        <v>5898.303557086399</v>
+        <v>6142.975283679208</v>
       </c>
       <c r="G80" t="n">
-        <v>5822.954319577708</v>
+        <v>5693.131877714676</v>
       </c>
       <c r="H80" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="I80" t="n">
-        <v>120660</v>
+        <v>120455</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15571235</v>
+        <v>15636612</v>
       </c>
       <c r="E81" t="n">
-        <v>95441217</v>
+        <v>95841939</v>
       </c>
       <c r="F81" t="n">
-        <v>4084.802114353751</v>
+        <v>4070.640767274234</v>
       </c>
       <c r="G81" t="n">
-        <v>6067.941084387247</v>
+        <v>5778.826466061327</v>
       </c>
       <c r="H81" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I81" t="n">
-        <v>13077197</v>
+        <v>13014552</v>
       </c>
     </row>
     <row r="82">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1438077</v>
+        <v>1435298</v>
       </c>
       <c r="E82" t="n">
-        <v>1478528</v>
+        <v>1475671</v>
       </c>
       <c r="F82" t="n">
-        <v>1936.784584749784</v>
+        <v>2307.859397040469</v>
       </c>
       <c r="G82" t="n">
-        <v>2191.831547080376</v>
+        <v>1828.247161309714</v>
       </c>
       <c r="H82" t="n">
         <v>0.82</v>
       </c>
       <c r="I82" t="n">
-        <v>138044</v>
+        <v>135201</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51999743</v>
+        <v>51044887</v>
       </c>
       <c r="E83" t="n">
-        <v>224009207</v>
+        <v>219895792</v>
       </c>
       <c r="F83" t="n">
-        <v>3072.667464062345</v>
+        <v>3011.87835665643</v>
       </c>
       <c r="G83" t="n">
-        <v>614.078368716209</v>
+        <v>4707.863846880844</v>
       </c>
       <c r="H83" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="I83" t="n">
-        <v>15039852</v>
+        <v>14977450</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2321585</v>
+        <v>2322601</v>
       </c>
       <c r="E84" t="n">
-        <v>8424963</v>
+        <v>8428283</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>219187</v>
+        <v>228153</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8795523</v>
+        <v>8803924</v>
       </c>
       <c r="E85" t="n">
-        <v>19507097</v>
+        <v>19525731</v>
       </c>
       <c r="F85" t="n">
-        <v>7976.57696108684</v>
+        <v>7721.824594232892</v>
       </c>
       <c r="G85" t="n">
-        <v>8245.922066828742</v>
+        <v>8891.647273761448</v>
       </c>
       <c r="H85" t="n">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="I85" t="n">
-        <v>292840</v>
+        <v>274041</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2442347</v>
+        <v>2446249</v>
       </c>
       <c r="E86" t="n">
-        <v>18378024</v>
+        <v>18407387</v>
       </c>
       <c r="F86" t="n">
-        <v>5315.387775051617</v>
+        <v>5228.186168103508</v>
       </c>
       <c r="G86" t="n">
-        <v>12061.98796648496</v>
+        <v>11988.96741317552</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>156752</v>
+        <v>156454</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18695717</v>
+        <v>18730733</v>
       </c>
       <c r="E87" t="n">
-        <v>74782869</v>
+        <v>74922931</v>
       </c>
       <c r="F87" t="n">
-        <v>3954.756578130943</v>
+        <v>3867.120052407339</v>
       </c>
       <c r="G87" t="n">
-        <v>1649.780204656267</v>
+        <v>1857.598002372054</v>
       </c>
       <c r="H87" t="n">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="I87" t="n">
-        <v>3903310</v>
+        <v>3796591</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4717879</v>
+        <v>4755555</v>
       </c>
       <c r="E88" t="n">
-        <v>4717879</v>
+        <v>4755555</v>
       </c>
       <c r="F88" t="n">
-        <v>329.7470667678392</v>
+        <v>265.9222072816645</v>
       </c>
       <c r="G88" t="n">
-        <v>784.9525343365369</v>
+        <v>2830.957455053886</v>
       </c>
       <c r="H88" t="n">
-        <v>0.58</v>
+        <v>1.55</v>
       </c>
       <c r="I88" t="n">
-        <v>2743609</v>
+        <v>2635898</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13095743</v>
+        <v>13145203</v>
       </c>
       <c r="E89" t="n">
-        <v>41417958</v>
+        <v>41574201</v>
       </c>
       <c r="F89" t="n">
-        <v>13427.55154302565</v>
+        <v>13187.43342244988</v>
       </c>
       <c r="G89" t="n">
-        <v>7168.783907470688</v>
+        <v>12417.62079404184</v>
       </c>
       <c r="H89" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="I89" t="n">
-        <v>1271916</v>
+        <v>1291867</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>24671</v>
+        <v>23933</v>
       </c>
       <c r="E90" t="n">
-        <v>194031</v>
+        <v>188225</v>
       </c>
       <c r="F90" t="n">
-        <v>277.5946690421795</v>
+        <v>2180.696503706316</v>
       </c>
       <c r="G90" t="n">
-        <v>657.2503625264269</v>
+        <v>410.3335232323467</v>
       </c>
       <c r="H90" t="n">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="I90" t="n">
-        <v>26634</v>
+        <v>26483</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8340833</v>
+        <v>8367476</v>
       </c>
       <c r="E91" t="n">
-        <v>8340833</v>
+        <v>8367476</v>
       </c>
       <c r="F91" t="n">
-        <v>1229.107306799053</v>
+        <v>3602.520375256449</v>
       </c>
       <c r="G91" t="n">
-        <v>3300.97477129525</v>
+        <v>4361.157556611617</v>
       </c>
       <c r="H91" t="n">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="I91" t="n">
-        <v>4272471</v>
+        <v>4305869</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8981962</v>
+        <v>8937942</v>
       </c>
       <c r="E92" t="n">
-        <v>8981962</v>
+        <v>8937942</v>
       </c>
       <c r="F92" t="n">
-        <v>5825.149970242596</v>
+        <v>3317.849594060633</v>
       </c>
       <c r="G92" t="n">
-        <v>2075.038855555908</v>
+        <v>5176.008199364542</v>
       </c>
       <c r="H92" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="I92" t="n">
-        <v>1382567</v>
+        <v>1347381</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31598014</v>
+        <v>31488088</v>
       </c>
       <c r="E93" t="n">
-        <v>79675022</v>
+        <v>79397841</v>
       </c>
       <c r="F93" t="n">
-        <v>69.78281836442855</v>
+        <v>381.3847881381797</v>
       </c>
       <c r="G93" t="n">
-        <v>976.5480105099814</v>
+        <v>9631.862940211602</v>
       </c>
       <c r="H93" t="n">
-        <v>2.44</v>
+        <v>0.88</v>
       </c>
       <c r="I93" t="n">
-        <v>6517380</v>
+        <v>6463330</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301183432</v>
+        <v>301606356</v>
       </c>
       <c r="E94" t="n">
-        <v>305894704</v>
+        <v>306323271</v>
       </c>
       <c r="F94" t="n">
-        <v>4617.437417633266</v>
+        <v>6600.03249099239</v>
       </c>
       <c r="G94" t="n">
-        <v>5665.368274782374</v>
+        <v>6263.934123868882</v>
       </c>
       <c r="H94" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I94" t="n">
-        <v>23214762</v>
+        <v>23211098</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>1004.112963697706</v>
+        <v>3603.457542986512</v>
       </c>
       <c r="G95" t="n">
-        <v>6533.989592582507</v>
+        <v>6384.054322451509</v>
       </c>
       <c r="H95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I95" t="n">
-        <v>153760</v>
+        <v>151704</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77996775</v>
+        <v>77866488</v>
       </c>
       <c r="E96" t="n">
-        <v>77996775</v>
+        <v>77866488</v>
       </c>
       <c r="F96" t="n">
-        <v>10300.03370769115</v>
+        <v>12106.63339959523</v>
       </c>
       <c r="G96" t="n">
-        <v>7090.890639554741</v>
+        <v>7089.844120756097</v>
       </c>
       <c r="H96" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="I96" t="n">
-        <v>4324905</v>
+        <v>4378165</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>299943949</v>
+        <v>302405729</v>
       </c>
       <c r="E97" t="n">
-        <v>299943949</v>
+        <v>302405729</v>
       </c>
       <c r="F97" t="n">
-        <v>262516.4393970417</v>
+        <v>350091.1136762223</v>
       </c>
       <c r="G97" t="n">
-        <v>505603.1016487231</v>
+        <v>440623.1045690951</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>91339566</v>
+        <v>91351033</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4579664</v>
+        <v>4578702</v>
       </c>
       <c r="E98" t="n">
-        <v>31292522</v>
+        <v>31285946</v>
       </c>
       <c r="F98" t="n">
-        <v>24254.34471431493</v>
+        <v>277.5734572286003</v>
       </c>
       <c r="G98" t="n">
-        <v>25644.92460294147</v>
+        <v>2601.68577421713</v>
       </c>
       <c r="H98" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I98" t="n">
-        <v>3084016</v>
+        <v>3089205</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84498037</v>
+        <v>84365157</v>
       </c>
       <c r="E99" t="n">
-        <v>486914137</v>
+        <v>486148425</v>
       </c>
       <c r="F99" t="n">
-        <v>140487.8367832834</v>
+        <v>141051.8495102036</v>
       </c>
       <c r="G99" t="n">
-        <v>145613.8794451609</v>
+        <v>142616.3647648563</v>
       </c>
       <c r="H99" t="n">
         <v>0.06</v>
       </c>
       <c r="I99" t="n">
-        <v>21429350</v>
+        <v>21004993</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>108486087</v>
+        <v>107964526</v>
       </c>
       <c r="E100" t="n">
-        <v>266918159</v>
+        <v>265634916</v>
       </c>
       <c r="F100" t="n">
-        <v>42229.68408839183</v>
+        <v>42710.76475207392</v>
       </c>
       <c r="G100" t="n">
-        <v>43361.23461558087</v>
+        <v>41314.55103679499</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I100" t="n">
-        <v>3263666</v>
+        <v>3242350</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>240183669</v>
+        <v>240168886</v>
       </c>
       <c r="E101" t="n">
-        <v>240186055</v>
+        <v>240171272</v>
       </c>
       <c r="F101" t="n">
-        <v>43062.55515273563</v>
+        <v>6523.979392721321</v>
       </c>
       <c r="G101" t="n">
-        <v>28749.43458316127</v>
+        <v>18638.4865867792</v>
       </c>
       <c r="H101" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I101" t="n">
-        <v>2985460</v>
+        <v>2956048</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30543385</v>
+        <v>30105325</v>
       </c>
       <c r="E102" t="n">
-        <v>136755263</v>
+        <v>134793890</v>
       </c>
       <c r="F102" t="n">
-        <v>60952.00920762769</v>
+        <v>53908.44745997038</v>
       </c>
       <c r="G102" t="n">
-        <v>85466.65580417092</v>
+        <v>98472.38175706072</v>
       </c>
       <c r="H102" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I102" t="n">
-        <v>19744476</v>
+        <v>20037227</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2808302</v>
+        <v>2749919</v>
       </c>
       <c r="E103" t="n">
-        <v>2808302</v>
+        <v>2749919</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>299312</v>
+        <v>317192</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5952898</v>
+        <v>5955818</v>
       </c>
       <c r="E104" t="n">
-        <v>15623355</v>
+        <v>15631018</v>
       </c>
       <c r="F104" t="n">
-        <v>625.9580492483252</v>
+        <v>555.7123376349367</v>
       </c>
       <c r="G104" t="n">
-        <v>570.3764314275156</v>
+        <v>425.3648636087914</v>
       </c>
       <c r="H104" t="n">
-        <v>1.63</v>
+        <v>2.43</v>
       </c>
       <c r="I104" t="n">
-        <v>26624</v>
+        <v>24291</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16225866</v>
+        <v>16188097</v>
       </c>
       <c r="E105" t="n">
-        <v>74896604</v>
+        <v>74722265</v>
       </c>
       <c r="F105" t="n">
-        <v>7928.939731963574</v>
+        <v>7842.283228428099</v>
       </c>
       <c r="G105" t="n">
-        <v>13090.89826968316</v>
+        <v>12740.3855925385</v>
       </c>
       <c r="H105" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="I105" t="n">
-        <v>1159692</v>
+        <v>1146217</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48055023</v>
+        <v>48303747</v>
       </c>
       <c r="E106" t="n">
-        <v>311624032</v>
+        <v>313236946</v>
       </c>
       <c r="F106" t="n">
-        <v>108675.4357280301</v>
+        <v>138459.7499934473</v>
       </c>
       <c r="G106" t="n">
-        <v>155779.4776202496</v>
+        <v>160893.5464158793</v>
       </c>
       <c r="H106" t="n">
         <v>0.16</v>
       </c>
       <c r="I106" t="n">
-        <v>21790930</v>
+        <v>21646209</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2428660</v>
+        <v>2446715</v>
       </c>
       <c r="E107" t="n">
-        <v>4399975</v>
+        <v>4432686</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>81766</v>
+        <v>77581</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>122816822</v>
+        <v>122917866</v>
       </c>
       <c r="E108" t="n">
-        <v>2033947169</v>
+        <v>2035620537</v>
       </c>
       <c r="F108" t="n">
-        <v>22133.51171984322</v>
+        <v>12830.12881442755</v>
       </c>
       <c r="G108" t="n">
-        <v>168112.3498232181</v>
+        <v>143631.9708141081</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>61452966</v>
+        <v>77232284</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23031539</v>
+        <v>23078417</v>
       </c>
       <c r="E109" t="n">
-        <v>137802330</v>
+        <v>138082808</v>
       </c>
       <c r="F109" t="n">
-        <v>40003.4100375843</v>
+        <v>3421.957691530029</v>
       </c>
       <c r="G109" t="n">
-        <v>39366.79488030777</v>
+        <v>37341.50385800143</v>
       </c>
       <c r="H109" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="I109" t="n">
-        <v>17845707</v>
+        <v>17519222</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1029440</v>
+        <v>1030411</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>87371</v>
+        <v>86292</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2404749</v>
+        <v>2391700</v>
       </c>
       <c r="F111" t="n">
-        <v>421.6278515055644</v>
+        <v>4298.294230482496</v>
       </c>
       <c r="G111" t="n">
-        <v>156.6150235993577</v>
+        <v>153.339835646709</v>
       </c>
       <c r="H111" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I111" t="n">
-        <v>217359</v>
+        <v>217296</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149681917</v>
+        <v>149681830</v>
       </c>
       <c r="F112" t="n">
-        <v>4957.215780067198</v>
+        <v>5225.748713605301</v>
       </c>
       <c r="G112" t="n">
-        <v>3478.612855051584</v>
+        <v>3478.543770750432</v>
       </c>
       <c r="H112" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>80991</v>
+        <v>80802</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6254751</v>
+        <v>6184050</v>
       </c>
       <c r="E113" t="n">
-        <v>32178792</v>
+        <v>31815056</v>
       </c>
       <c r="F113" t="n">
-        <v>3601.928323072694</v>
+        <v>471.3191924105286</v>
       </c>
       <c r="G113" t="n">
-        <v>926.7072869988776</v>
+        <v>575.1092355908062</v>
       </c>
       <c r="H113" t="n">
-        <v>0.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I113" t="n">
-        <v>983967</v>
+        <v>964462</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30645750</v>
+        <v>30637896</v>
       </c>
       <c r="E114" t="n">
-        <v>42020682</v>
+        <v>42009912</v>
       </c>
       <c r="F114" t="n">
-        <v>4149.398887056695</v>
+        <v>5494.71160566349</v>
       </c>
       <c r="G114" t="n">
-        <v>2374.982312684845</v>
+        <v>4262.409889696189</v>
       </c>
       <c r="H114" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I114" t="n">
-        <v>1581358</v>
+        <v>1583949</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7575908</v>
+        <v>7598948</v>
       </c>
       <c r="F115" t="n">
-        <v>1651.143406320664</v>
+        <v>3832.577100945767</v>
       </c>
       <c r="G115" t="n">
-        <v>5699.605959645333</v>
+        <v>4057.504969872896</v>
       </c>
       <c r="H115" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I115" t="n">
-        <v>682505</v>
+        <v>689487</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3574535</v>
+        <v>3539716</v>
       </c>
       <c r="E116" t="n">
-        <v>4788316</v>
+        <v>4741673</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>126643</v>
+        <v>126242</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32733888</v>
+        <v>32588519</v>
       </c>
       <c r="E117" t="n">
-        <v>163357189</v>
+        <v>162631734</v>
       </c>
       <c r="F117" t="n">
-        <v>107687.1175817411</v>
+        <v>100643.3821364697</v>
       </c>
       <c r="G117" t="n">
-        <v>65319.62880652105</v>
+        <v>75700.84166930962</v>
       </c>
       <c r="H117" t="n">
         <v>0.18</v>
       </c>
       <c r="I117" t="n">
-        <v>13761049</v>
+        <v>13566367</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3491647</v>
+        <v>3489842</v>
       </c>
       <c r="E118" t="n">
-        <v>5015812</v>
+        <v>5013219</v>
       </c>
       <c r="F118" t="n">
-        <v>616.744145277587</v>
+        <v>616.7246483360186</v>
       </c>
       <c r="G118" t="n">
-        <v>651.7976238077096</v>
+        <v>673.7120013272481</v>
       </c>
       <c r="H118" t="n">
         <v>0.79</v>
       </c>
       <c r="I118" t="n">
-        <v>180170</v>
+        <v>183958</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>300203080</v>
+        <v>304653044</v>
       </c>
       <c r="E119" t="n">
-        <v>555444159</v>
+        <v>563677606</v>
       </c>
       <c r="F119" t="n">
-        <v>31178.85451524009</v>
+        <v>30781.42906214605</v>
       </c>
       <c r="G119" t="n">
-        <v>41304.21071323912</v>
+        <v>47855.60970136344</v>
       </c>
       <c r="H119" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="I119" t="n">
-        <v>26334839</v>
+        <v>27138263</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69193092</v>
+        <v>69927888</v>
       </c>
       <c r="E120" t="n">
-        <v>659898541</v>
+        <v>666899602</v>
       </c>
       <c r="F120" t="n">
-        <v>1946.0809613089</v>
+        <v>2537.360020620243</v>
       </c>
       <c r="G120" t="n">
-        <v>6529.740508717005</v>
+        <v>4730.578533883061</v>
       </c>
       <c r="H120" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="I120" t="n">
-        <v>24808611</v>
+        <v>25405377</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36908084</v>
+        <v>36957803</v>
       </c>
       <c r="E121" t="n">
-        <v>48249250</v>
+        <v>48314238</v>
       </c>
       <c r="F121" t="n">
-        <v>6049.079474216315</v>
+        <v>6039.627940472982</v>
       </c>
       <c r="G121" t="n">
-        <v>245.2847805851173</v>
+        <v>245.8524350094418</v>
       </c>
       <c r="H121" t="n">
         <v>1.84</v>
       </c>
       <c r="I121" t="n">
-        <v>88414</v>
+        <v>679622</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9832823</v>
+        <v>9753127</v>
       </c>
       <c r="E122" t="n">
-        <v>29149781</v>
+        <v>28913518</v>
       </c>
       <c r="F122" t="n">
-        <v>504.6718597671247</v>
+        <v>1061.774525598311</v>
       </c>
       <c r="G122" t="n">
-        <v>4979.404017931166</v>
+        <v>4159.970328563468</v>
       </c>
       <c r="H122" t="n">
         <v>0.6</v>
       </c>
       <c r="I122" t="n">
-        <v>6734663</v>
+        <v>6592195</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2268553</v>
+        <v>2262741</v>
       </c>
       <c r="E123" t="n">
-        <v>7580674</v>
+        <v>7561253</v>
       </c>
       <c r="F123" t="n">
-        <v>483.5321521207018</v>
+        <v>696.1076323891201</v>
       </c>
       <c r="G123" t="n">
-        <v>1249.072155424589</v>
+        <v>1326.35986025245</v>
       </c>
       <c r="H123" t="n">
         <v>0.78</v>
       </c>
       <c r="I123" t="n">
-        <v>1001053</v>
+        <v>1041223</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7348875</v>
+        <v>7303614</v>
       </c>
       <c r="E124" t="n">
-        <v>7348886</v>
+        <v>7303625</v>
       </c>
       <c r="F124" t="n">
-        <v>717.8852165671146</v>
+        <v>564.0156683344887</v>
       </c>
       <c r="G124" t="n">
-        <v>545.1969304771706</v>
+        <v>615.2383177401323</v>
       </c>
       <c r="H124" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I124" t="n">
-        <v>223877</v>
+        <v>224148</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6313216</v>
+        <v>6384905</v>
       </c>
       <c r="E125" t="n">
-        <v>6313216</v>
+        <v>6384905</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>584558</v>
+        <v>605862</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6143719</v>
+        <v>6183634</v>
       </c>
       <c r="E126" t="n">
-        <v>22440630</v>
+        <v>22586423</v>
       </c>
       <c r="F126" t="n">
-        <v>298.9802865607776</v>
+        <v>290.9240897303025</v>
       </c>
       <c r="G126" t="n">
-        <v>2574.947417168117</v>
+        <v>2594.636529195858</v>
       </c>
       <c r="H126" t="n">
         <v>0.62</v>
       </c>
       <c r="I126" t="n">
-        <v>531751</v>
+        <v>597827</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44437743</v>
+        <v>44483104</v>
       </c>
       <c r="E127" t="n">
-        <v>44437743</v>
+        <v>44483104</v>
       </c>
       <c r="F127" t="n">
-        <v>46925.65234607654</v>
+        <v>56090.46038637117</v>
       </c>
       <c r="G127" t="n">
-        <v>87208.93328794361</v>
+        <v>80108.55455195776</v>
       </c>
       <c r="H127" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="I127" t="n">
-        <v>13758310</v>
+        <v>12254322</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>141398786</v>
+        <v>142649757</v>
       </c>
       <c r="F128" t="n">
-        <v>633.5522340803526</v>
+        <v>636.4045643858494</v>
       </c>
       <c r="G128" t="n">
-        <v>3112.884167992635</v>
+        <v>2801.494222448535</v>
       </c>
       <c r="H128" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I128" t="n">
-        <v>1754356</v>
+        <v>1716169</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2885067</v>
+        <v>2883202</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>65608</v>
+        <v>63590</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19487185</v>
+        <v>19357384</v>
       </c>
       <c r="F130" t="n">
-        <v>538.503898007848</v>
+        <v>641.6190231170879</v>
       </c>
       <c r="G130" t="n">
-        <v>1056.520614264867</v>
+        <v>1086.63697731876</v>
       </c>
       <c r="H130" t="n">
-        <v>1.83</v>
+        <v>0.82</v>
       </c>
       <c r="I130" t="n">
-        <v>2899028</v>
+        <v>2901351</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1273858</v>
+        <v>1275705</v>
       </c>
       <c r="E131" t="n">
-        <v>3845104</v>
+        <v>3850553</v>
       </c>
       <c r="F131" t="n">
-        <v>802.3790598997761</v>
+        <v>836.0066690472155</v>
       </c>
       <c r="G131" t="n">
-        <v>691.1598411299663</v>
+        <v>701.5565573937996</v>
       </c>
       <c r="H131" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="I131" t="n">
-        <v>44922</v>
+        <v>42699</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>582045747</v>
+        <v>583016929</v>
       </c>
       <c r="E132" t="n">
-        <v>2254177302</v>
+        <v>2257938549</v>
       </c>
       <c r="F132" t="n">
-        <v>889016.4282061643</v>
+        <v>807856.3487434484</v>
       </c>
       <c r="G132" t="n">
-        <v>1031627.111183013</v>
+        <v>936351.1657134111</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>61983627</v>
+        <v>62007491</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3600769</v>
+        <v>3597990</v>
       </c>
       <c r="E133" t="n">
-        <v>6138000</v>
+        <v>6133263</v>
       </c>
       <c r="F133" t="n">
-        <v>5072.831127611896</v>
+        <v>5013.398123642238</v>
       </c>
       <c r="G133" t="n">
-        <v>5030.902480612094</v>
+        <v>4967.159569232549</v>
       </c>
       <c r="H133" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I133" t="n">
-        <v>1195592</v>
+        <v>1213359</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>108483193</v>
+        <v>107906001</v>
       </c>
       <c r="E134" t="n">
-        <v>1026442231</v>
+        <v>1020980974</v>
       </c>
       <c r="F134" t="n">
-        <v>98596.63344402563</v>
+        <v>102077.3644302597</v>
       </c>
       <c r="G134" t="n">
-        <v>98370.26177487394</v>
+        <v>101783.3512902859</v>
       </c>
       <c r="H134" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I134" t="n">
-        <v>17968266</v>
+        <v>17984956</v>
       </c>
     </row>
     <row r="135">
@@ -5090,22 +5090,22 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>977194947</v>
+        <v>972135189</v>
       </c>
       <c r="E135" t="n">
-        <v>1073451328</v>
+        <v>1067893169</v>
       </c>
       <c r="F135" t="n">
-        <v>10804.56054181806</v>
+        <v>11163.5983194685</v>
       </c>
       <c r="G135" t="n">
-        <v>14234.92897053452</v>
+        <v>13805.82292766295</v>
       </c>
       <c r="H135" t="n">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="I135" t="n">
-        <v>10097706</v>
+        <v>9773573</v>
       </c>
     </row>
     <row r="136">
@@ -5125,10 +5125,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1059597</v>
+        <v>1062210</v>
       </c>
       <c r="E136" t="n">
-        <v>4102991</v>
+        <v>4113107</v>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>267725</v>
+        <v>270122</v>
       </c>
     </row>
     <row r="137">
@@ -5158,22 +5158,22 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>121765076</v>
+        <v>123143156</v>
       </c>
       <c r="E137" t="n">
-        <v>467110431</v>
+        <v>472396969</v>
       </c>
       <c r="F137" t="n">
-        <v>178326.2571887316</v>
+        <v>130310.3423735467</v>
       </c>
       <c r="G137" t="n">
-        <v>202430.2301276255</v>
+        <v>223631.207267347</v>
       </c>
       <c r="H137" t="n">
         <v>0.11</v>
       </c>
       <c r="I137" t="n">
-        <v>32104912</v>
+        <v>31154557</v>
       </c>
     </row>
     <row r="138">
@@ -5193,22 +5193,22 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>3172784</v>
+        <v>3166705</v>
       </c>
       <c r="E138" t="n">
-        <v>30062596</v>
+        <v>30004994</v>
       </c>
       <c r="F138" t="n">
-        <v>5010.437950150268</v>
+        <v>5558.303532737166</v>
       </c>
       <c r="G138" t="n">
-        <v>2949.635881191855</v>
+        <v>2829.572105521197</v>
       </c>
       <c r="H138" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I138" t="n">
-        <v>230433</v>
+        <v>244639</v>
       </c>
     </row>
     <row r="139">
@@ -5228,22 +5228,22 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>24419963</v>
+        <v>24302915</v>
       </c>
       <c r="E139" t="n">
-        <v>24419963</v>
+        <v>24302915</v>
       </c>
       <c r="F139" t="n">
-        <v>89.47865056337514</v>
+        <v>2246.037110839533</v>
       </c>
       <c r="G139" t="n">
-        <v>22.90005824524691</v>
+        <v>380.6388239372837</v>
       </c>
       <c r="H139" t="n">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="I139" t="n">
-        <v>876699</v>
+        <v>858764</v>
       </c>
     </row>
     <row r="140">
@@ -5263,22 +5263,22 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>494222457</v>
+        <v>494594670</v>
       </c>
       <c r="E140" t="n">
-        <v>494222457</v>
+        <v>494594670</v>
       </c>
       <c r="F140" t="n">
-        <v>773660.6700814989</v>
+        <v>916515.543349391</v>
       </c>
       <c r="G140" t="n">
-        <v>847799.6621667189</v>
+        <v>858050.7627218723</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I140" t="n">
-        <v>49973424</v>
+        <v>50060696</v>
       </c>
     </row>
     <row r="141">
@@ -5301,19 +5301,19 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>42820343</v>
+        <v>42266064</v>
       </c>
       <c r="F141" t="n">
-        <v>46525.54783996538</v>
+        <v>62297.01868361619</v>
       </c>
       <c r="G141" t="n">
-        <v>45860.31254547367</v>
+        <v>49947.49949277941</v>
       </c>
       <c r="H141" t="n">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="I141" t="n">
-        <v>12012468</v>
+        <v>12062155</v>
       </c>
     </row>
     <row r="142">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>761552</v>
+        <v>752060</v>
       </c>
       <c r="E142" t="n">
-        <v>12146484</v>
+        <v>11995083</v>
       </c>
       <c r="F142" t="n">
-        <v>96.67386325967327</v>
+        <v>296.2840038322105</v>
       </c>
       <c r="G142" t="n">
-        <v>230.0347387249214</v>
+        <v>135.2858588061857</v>
       </c>
       <c r="H142" t="n">
-        <v>2.58</v>
+        <v>0.82</v>
       </c>
       <c r="I142" t="n">
-        <v>131989</v>
+        <v>129187</v>
       </c>
     </row>
     <row r="143">
@@ -5368,22 +5368,22 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2549282003</v>
+        <v>2542426243</v>
       </c>
       <c r="E143" t="n">
-        <v>2706674156</v>
+        <v>2699395123</v>
       </c>
       <c r="F143" t="n">
-        <v>2952.425502903476</v>
+        <v>2921.566688720467</v>
       </c>
       <c r="G143" t="n">
-        <v>23452.71548548908</v>
+        <v>24768.21214412453</v>
       </c>
       <c r="H143" t="n">
         <v>0.19</v>
       </c>
       <c r="I143" t="n">
-        <v>60456396</v>
+        <v>60135927</v>
       </c>
     </row>
     <row r="144">
@@ -5403,22 +5403,22 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1699600</v>
+        <v>1700968</v>
       </c>
       <c r="E144" t="n">
-        <v>1705599</v>
+        <v>1706972</v>
       </c>
       <c r="F144" t="n">
-        <v>3603.768082181889</v>
+        <v>3692.318612762665</v>
       </c>
       <c r="G144" t="n">
-        <v>3635.218871476601</v>
+        <v>278.2319926075066</v>
       </c>
       <c r="H144" t="n">
-        <v>0.99</v>
+        <v>1.45</v>
       </c>
       <c r="I144" t="n">
-        <v>424574</v>
+        <v>400437</v>
       </c>
     </row>
     <row r="145">
@@ -5438,22 +5438,22 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55549406</v>
+        <v>55328439</v>
       </c>
       <c r="E145" t="n">
-        <v>136258927</v>
+        <v>135716911</v>
       </c>
       <c r="F145" t="n">
-        <v>5182.963415455411</v>
+        <v>4326.394690832417</v>
       </c>
       <c r="G145" t="n">
-        <v>4458.088505321457</v>
+        <v>4790.896702964495</v>
       </c>
       <c r="H145" t="n">
-        <v>0.98</v>
+        <v>0.25</v>
       </c>
       <c r="I145" t="n">
-        <v>22191829</v>
+        <v>22095826</v>
       </c>
     </row>
     <row r="146">
@@ -5473,22 +5473,22 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>759897361</v>
+        <v>759893248</v>
       </c>
       <c r="E146" t="n">
-        <v>1171828824</v>
+        <v>1171822480</v>
       </c>
       <c r="F146" t="n">
-        <v>137942.4401048685</v>
+        <v>131697.8478228608</v>
       </c>
       <c r="G146" t="n">
-        <v>168649.2127770646</v>
+        <v>160270.6018577281</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I146" t="n">
-        <v>339162595</v>
+        <v>322611219</v>
       </c>
     </row>
     <row r="147">
@@ -5508,22 +5508,22 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>22859720</v>
+        <v>22590420</v>
       </c>
       <c r="E147" t="n">
-        <v>22859720</v>
+        <v>22590420</v>
       </c>
       <c r="F147" t="n">
-        <v>4391.091848215582</v>
+        <v>4187.563317538943</v>
       </c>
       <c r="G147" t="n">
-        <v>7075.427357560034</v>
+        <v>8153.700755475063</v>
       </c>
       <c r="H147" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="I147" t="n">
-        <v>5536709</v>
+        <v>5622742</v>
       </c>
     </row>
     <row r="148">
@@ -5543,22 +5543,22 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3806503</v>
+        <v>3802005</v>
       </c>
       <c r="E148" t="n">
-        <v>8297642</v>
+        <v>8287838</v>
       </c>
       <c r="F148" t="n">
-        <v>6738.896287976695</v>
+        <v>6751.765646375618</v>
       </c>
       <c r="G148" t="n">
-        <v>7518.981553705969</v>
+        <v>7527.172350018642</v>
       </c>
       <c r="H148" t="n">
         <v>0.12</v>
       </c>
       <c r="I148" t="n">
-        <v>2255728</v>
+        <v>2261328</v>
       </c>
     </row>
     <row r="149">
@@ -5578,22 +5578,22 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9247666</v>
+        <v>9248450</v>
       </c>
       <c r="E149" t="n">
-        <v>9247666</v>
+        <v>9248450</v>
       </c>
       <c r="F149" t="n">
-        <v>72757.71738165582</v>
+        <v>75228.71013343538</v>
       </c>
       <c r="G149" t="n">
-        <v>84773.66986087228</v>
+        <v>79791.63139157368</v>
       </c>
       <c r="H149" t="n">
         <v>0.09</v>
       </c>
       <c r="I149" t="n">
-        <v>6600681</v>
+        <v>6530960</v>
       </c>
     </row>
     <row r="150">
@@ -5613,22 +5613,22 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>465194440</v>
+        <v>467838418</v>
       </c>
       <c r="E150" t="n">
-        <v>1618482427</v>
+        <v>1627681230</v>
       </c>
       <c r="F150" t="n">
-        <v>749748.2665274735</v>
+        <v>752511.9641921544</v>
       </c>
       <c r="G150" t="n">
-        <v>678913.8387859638</v>
+        <v>869785.4579257745</v>
       </c>
       <c r="H150" t="n">
         <v>0.12</v>
       </c>
       <c r="I150" t="n">
-        <v>49007469</v>
+        <v>49212481</v>
       </c>
     </row>
     <row r="151">
@@ -5648,22 +5648,22 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>46255103</v>
+        <v>46375270</v>
       </c>
       <c r="E151" t="n">
-        <v>113863350</v>
+        <v>114159164</v>
       </c>
       <c r="F151" t="n">
-        <v>8517.696709535547</v>
+        <v>8891.434996251201</v>
       </c>
       <c r="G151" t="n">
-        <v>5544.621535402162</v>
+        <v>9393.75665321337</v>
       </c>
       <c r="H151" t="n">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="I151" t="n">
-        <v>174985</v>
+        <v>175259</v>
       </c>
     </row>
     <row r="152">
@@ -5683,22 +5683,22 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7254170</v>
+        <v>7294748</v>
       </c>
       <c r="E152" t="n">
-        <v>18845554</v>
+        <v>18950970</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>50.87527839949345</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>12.17992142781073</v>
       </c>
       <c r="H152" t="n">
-        <v>4.12</v>
+        <v>3.11</v>
       </c>
       <c r="I152" t="n">
-        <v>815297</v>
+        <v>820184</v>
       </c>
     </row>
     <row r="153">
@@ -5721,19 +5721,19 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>18952531435</v>
+        <v>18955066449</v>
       </c>
       <c r="F153" t="n">
-        <v>1494.457810483273</v>
+        <v>1472.813927726249</v>
       </c>
       <c r="G153" t="n">
-        <v>29460.13574680376</v>
+        <v>29447.85165156769</v>
       </c>
       <c r="H153" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="I153" t="n">
-        <v>16190931</v>
+        <v>14722853</v>
       </c>
     </row>
     <row r="154">
@@ -5753,22 +5753,22 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2281576</v>
+        <v>2267246</v>
       </c>
       <c r="E154" t="n">
-        <v>9126305</v>
+        <v>9068984</v>
       </c>
       <c r="F154" t="n">
-        <v>949.3672124784764</v>
+        <v>1132.267798641208</v>
       </c>
       <c r="G154" t="n">
-        <v>1480.961652588341</v>
+        <v>1124.888458144274</v>
       </c>
       <c r="H154" t="n">
         <v>0.44</v>
       </c>
       <c r="I154" t="n">
-        <v>8239799</v>
+        <v>8259962</v>
       </c>
     </row>
     <row r="155">
@@ -5788,22 +5788,22 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>212240223</v>
+        <v>211563171</v>
       </c>
       <c r="E155" t="n">
-        <v>652558814</v>
+        <v>650477134</v>
       </c>
       <c r="F155" t="n">
-        <v>46393.72479165535</v>
+        <v>50939.72149705538</v>
       </c>
       <c r="G155" t="n">
-        <v>72938.38857109625</v>
+        <v>73125.05208226881</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
       </c>
       <c r="I155" t="n">
-        <v>20905346</v>
+        <v>20009823</v>
       </c>
     </row>
     <row r="156">
@@ -5823,22 +5823,22 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>381174562</v>
+        <v>381616952</v>
       </c>
       <c r="E156" t="n">
-        <v>2178140356</v>
+        <v>2180668295</v>
       </c>
       <c r="F156" t="n">
-        <v>273743.7156892931</v>
+        <v>275819.4637445695</v>
       </c>
       <c r="G156" t="n">
-        <v>342728.7830196046</v>
+        <v>328368.3709514129</v>
       </c>
       <c r="H156" t="n">
         <v>0.1</v>
       </c>
       <c r="I156" t="n">
-        <v>64687889</v>
+        <v>64048760</v>
       </c>
     </row>
   </sheetData>

--- a/BitgetData.xlsx
+++ b/BitgetData.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3822634</v>
+        <v>4053555</v>
       </c>
       <c r="F2" t="n">
-        <v>387.034759666037</v>
+        <v>5420.325591338802</v>
       </c>
       <c r="G2" t="n">
-        <v>1260.539319802261</v>
+        <v>3449.644559665036</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.72</v>
       </c>
       <c r="I2" t="n">
-        <v>129145</v>
+        <v>137122</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>608916720</v>
+        <v>632702572</v>
       </c>
       <c r="E3" t="n">
-        <v>1181761352</v>
+        <v>1227969346</v>
       </c>
       <c r="F3" t="n">
-        <v>17909.39799659325</v>
+        <v>16200.38276204874</v>
       </c>
       <c r="G3" t="n">
-        <v>32447.90315233983</v>
+        <v>32579.00420568261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>46862827</v>
+        <v>35305864</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252112985</v>
+        <v>265992746</v>
       </c>
       <c r="E4" t="n">
-        <v>1580965093</v>
+        <v>1668003122</v>
       </c>
       <c r="F4" t="n">
-        <v>217501.2691769829</v>
+        <v>196590.2776072194</v>
       </c>
       <c r="G4" t="n">
-        <v>262300.4788959394</v>
+        <v>235312.4894310251</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>29773893</v>
+        <v>31932768</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142017043</v>
+        <v>148706811</v>
       </c>
       <c r="E5" t="n">
-        <v>157377079</v>
+        <v>164790386</v>
       </c>
       <c r="F5" t="n">
-        <v>8912.005505627338</v>
+        <v>8696.465391906853</v>
       </c>
       <c r="G5" t="n">
-        <v>810.5521450394187</v>
+        <v>604.4897746636782</v>
       </c>
       <c r="H5" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I5" t="n">
-        <v>51964073</v>
+        <v>40041643</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>49219793</v>
+        <v>51777367</v>
       </c>
       <c r="E6" t="n">
-        <v>61572699</v>
+        <v>64772158</v>
       </c>
       <c r="F6" t="n">
-        <v>6002.245004057339</v>
+        <v>7582.250724889373</v>
       </c>
       <c r="G6" t="n">
-        <v>5380.438314954875</v>
+        <v>5166.372001935027</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="I6" t="n">
-        <v>745501</v>
+        <v>452880</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66145787</v>
+        <v>65870369</v>
       </c>
       <c r="E7" t="n">
-        <v>131713841</v>
+        <v>131165410</v>
       </c>
       <c r="F7" t="n">
-        <v>11050.65631390985</v>
+        <v>12021.28029199773</v>
       </c>
       <c r="G7" t="n">
-        <v>12537.86085734024</v>
+        <v>12173.10539771738</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="I7" t="n">
-        <v>941980</v>
+        <v>820996</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42307919</v>
+        <v>42431161</v>
       </c>
       <c r="E8" t="n">
-        <v>47348656</v>
+        <v>47486581</v>
       </c>
       <c r="F8" t="n">
-        <v>509.7740333205508</v>
+        <v>2683.219530979949</v>
       </c>
       <c r="G8" t="n">
-        <v>280.3011514386292</v>
+        <v>322.2226924220772</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>1.05</v>
       </c>
       <c r="I8" t="n">
-        <v>14589230</v>
+        <v>14308996</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13710078</v>
+        <v>13613008</v>
       </c>
       <c r="E9" t="n">
-        <v>40402713</v>
+        <v>40116654</v>
       </c>
       <c r="F9" t="n">
-        <v>4999.558196538922</v>
+        <v>4723.558315127061</v>
       </c>
       <c r="G9" t="n">
-        <v>4270.945869454192</v>
+        <v>4720.49783221524</v>
       </c>
       <c r="H9" t="n">
-        <v>1.06</v>
+        <v>0.76</v>
       </c>
       <c r="I9" t="n">
-        <v>803495</v>
+        <v>722991</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9744655</v>
+        <v>9398080</v>
       </c>
       <c r="E10" t="n">
-        <v>41887947</v>
+        <v>40398177</v>
       </c>
       <c r="F10" t="n">
-        <v>382.0515621567142</v>
+        <v>961.400225533715</v>
       </c>
       <c r="G10" t="n">
-        <v>13676.79583860307</v>
+        <v>1739.826191716448</v>
       </c>
       <c r="H10" t="n">
-        <v>1.08</v>
+        <v>1.27</v>
       </c>
       <c r="I10" t="n">
-        <v>725075</v>
+        <v>468178</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>558459134</v>
+        <v>580447428</v>
       </c>
       <c r="E11" t="n">
-        <v>698549374</v>
+        <v>726053462</v>
       </c>
       <c r="F11" t="n">
-        <v>302220.1433762977</v>
+        <v>288507.3296657944</v>
       </c>
       <c r="G11" t="n">
-        <v>328676.987406065</v>
+        <v>281075.1928200083</v>
       </c>
       <c r="H11" t="n">
         <v>0.14</v>
       </c>
       <c r="I11" t="n">
-        <v>98737932</v>
+        <v>82578945</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4394219</v>
+        <v>4250877</v>
       </c>
       <c r="E12" t="n">
-        <v>26979695</v>
+        <v>26096113</v>
       </c>
       <c r="F12" t="n">
-        <v>7939.340291697354</v>
+        <v>8141.602754413914</v>
       </c>
       <c r="G12" t="n">
-        <v>9187.728589196358</v>
+        <v>7277.850545676805</v>
       </c>
       <c r="H12" t="n">
-        <v>1.11</v>
+        <v>0.76</v>
       </c>
       <c r="I12" t="n">
-        <v>377352</v>
+        <v>202322</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23489684</v>
+        <v>23258057</v>
       </c>
       <c r="E13" t="n">
-        <v>23532602</v>
+        <v>23300480</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>857602</v>
+        <v>751067</v>
       </c>
     </row>
     <row r="14">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>79505703</v>
+        <v>81267081</v>
       </c>
       <c r="E14" t="n">
-        <v>233915638</v>
+        <v>239097831</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>424981</v>
+        <v>374682</v>
       </c>
     </row>
     <row r="15">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>478075077</v>
+        <v>516277564</v>
       </c>
       <c r="E15" t="n">
-        <v>478075079</v>
+        <v>516277568</v>
       </c>
       <c r="F15" t="n">
-        <v>29640.52360092572</v>
+        <v>27006.81883844906</v>
       </c>
       <c r="G15" t="n">
-        <v>23416.5325998055</v>
+        <v>23413.92629106519</v>
       </c>
       <c r="H15" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I15" t="n">
-        <v>73624877</v>
+        <v>52663105</v>
       </c>
     </row>
     <row r="16">
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4634343</v>
+        <v>4699111</v>
       </c>
       <c r="E16" t="n">
-        <v>4634343</v>
+        <v>4699111</v>
       </c>
       <c r="F16" t="n">
-        <v>166.3987151662587</v>
+        <v>307.2275425142011</v>
       </c>
       <c r="G16" t="n">
-        <v>985.794589344254</v>
+        <v>646.335278401107</v>
       </c>
       <c r="H16" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I16" t="n">
-        <v>2307359</v>
+        <v>1929128</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3259294</v>
+        <v>3244453</v>
       </c>
       <c r="E17" t="n">
-        <v>3259294</v>
+        <v>3244453</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>744037</v>
+        <v>613785</v>
       </c>
     </row>
     <row r="18">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>168346966</v>
+        <v>168415929</v>
       </c>
       <c r="E18" t="n">
-        <v>208420555</v>
+        <v>208505934</v>
       </c>
       <c r="F18" t="n">
-        <v>8505.068672054793</v>
+        <v>4499.595994554227</v>
       </c>
       <c r="G18" t="n">
-        <v>9531.838426514687</v>
+        <v>11672.49780121357</v>
       </c>
       <c r="H18" t="n">
-        <v>1.47</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>447828</v>
+        <v>371851</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6517853</v>
+        <v>6210122</v>
       </c>
       <c r="E19" t="n">
-        <v>8976749</v>
+        <v>8552925</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>396222</v>
+        <v>367107</v>
       </c>
     </row>
     <row r="20">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>884104</v>
+        <v>948250</v>
       </c>
       <c r="E20" t="n">
-        <v>6188725</v>
+        <v>6637750</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>163622</v>
+        <v>186799</v>
       </c>
     </row>
     <row r="21">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>112500989</v>
+        <v>118080503</v>
       </c>
       <c r="E21" t="n">
-        <v>437042158</v>
+        <v>458496464</v>
       </c>
       <c r="F21" t="n">
-        <v>15229.22860813626</v>
+        <v>12038.99122930665</v>
       </c>
       <c r="G21" t="n">
-        <v>15772.42000260158</v>
+        <v>14700.63190195561</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>12528969</v>
+        <v>9787965</v>
       </c>
     </row>
     <row r="22">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1713793</v>
+        <v>1713067</v>
       </c>
       <c r="E22" t="n">
-        <v>12344307</v>
+        <v>12339079</v>
       </c>
       <c r="F22" t="n">
-        <v>4906.304823418682</v>
+        <v>4969.029040382566</v>
       </c>
       <c r="G22" t="n">
-        <v>5992.834816102873</v>
+        <v>5858.868111281768</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I22" t="n">
-        <v>54240</v>
+        <v>4954.98</v>
       </c>
     </row>
     <row r="23">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>142570903</v>
+        <v>153574313</v>
       </c>
       <c r="E23" t="n">
-        <v>142570903</v>
+        <v>153574313</v>
       </c>
       <c r="F23" t="n">
-        <v>893076.1411907912</v>
+        <v>867063.0312280356</v>
       </c>
       <c r="G23" t="n">
-        <v>1301007.920274158</v>
+        <v>1303405.154938777</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I23" t="n">
-        <v>94191965</v>
+        <v>101188991</v>
       </c>
     </row>
     <row r="24">
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63226894</v>
+        <v>68824545</v>
       </c>
       <c r="E24" t="n">
-        <v>324240485</v>
+        <v>352946385</v>
       </c>
       <c r="F24" t="n">
-        <v>92693.94608205417</v>
+        <v>115726.8203390515</v>
       </c>
       <c r="G24" t="n">
-        <v>123131.6781548811</v>
+        <v>145626.2174547918</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
-        <v>22881200</v>
+        <v>17719472</v>
       </c>
     </row>
     <row r="25">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>252949940</v>
+        <v>264743592</v>
       </c>
       <c r="E25" t="n">
-        <v>252949940</v>
+        <v>264743592</v>
       </c>
       <c r="F25" t="n">
-        <v>346340.3617278238</v>
+        <v>190772.6448383627</v>
       </c>
       <c r="G25" t="n">
-        <v>406571.5176008554</v>
+        <v>188647.3624971879</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I25" t="n">
-        <v>28905549</v>
+        <v>22752662</v>
       </c>
     </row>
     <row r="26">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1124547</v>
+        <v>1127970</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>125606</v>
+        <v>155386</v>
       </c>
     </row>
     <row r="27">
@@ -1360,22 +1360,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2191031</v>
+        <v>2038247</v>
       </c>
       <c r="E27" t="n">
-        <v>2449433</v>
+        <v>2282669</v>
       </c>
       <c r="F27" t="n">
-        <v>366.687232891663</v>
+        <v>535.1336568376312</v>
       </c>
       <c r="G27" t="n">
-        <v>343.7464540278862</v>
+        <v>281.0752541987381</v>
       </c>
       <c r="H27" t="n">
-        <v>1.49</v>
+        <v>0.14</v>
       </c>
       <c r="I27" t="n">
-        <v>573663</v>
+        <v>358168</v>
       </c>
     </row>
     <row r="28">
@@ -1395,22 +1395,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3802322</v>
+        <v>3839373</v>
       </c>
       <c r="E28" t="n">
-        <v>3803182</v>
+        <v>3840239</v>
       </c>
       <c r="F28" t="n">
-        <v>983.6018736624281</v>
+        <v>843.2374261139614</v>
       </c>
       <c r="G28" t="n">
-        <v>3579.621196749451</v>
+        <v>1918.021739941443</v>
       </c>
       <c r="H28" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I28" t="n">
-        <v>224280</v>
+        <v>236311</v>
       </c>
     </row>
     <row r="29">
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6852931</v>
+        <v>6726963</v>
       </c>
       <c r="E29" t="n">
-        <v>16645241</v>
+        <v>16339274</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>441814</v>
+        <v>442070</v>
       </c>
     </row>
     <row r="30">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>97273440</v>
+        <v>98789785</v>
       </c>
       <c r="E30" t="n">
-        <v>121288577</v>
+        <v>123179282</v>
       </c>
       <c r="F30" t="n">
-        <v>106410.953744641</v>
+        <v>106150.0789713168</v>
       </c>
       <c r="G30" t="n">
-        <v>109773.50182075</v>
+        <v>115346.6222376647</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>13251462</v>
+        <v>11676244</v>
       </c>
     </row>
     <row r="31">
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1109260</v>
+        <v>1130662</v>
       </c>
       <c r="E31" t="n">
-        <v>12055019</v>
+        <v>12287609</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>12817.11</v>
+        <v>608.46</v>
       </c>
     </row>
     <row r="32">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>78020894</v>
+        <v>86298501</v>
       </c>
       <c r="E32" t="n">
-        <v>218361890</v>
+        <v>241460506</v>
       </c>
       <c r="F32" t="n">
-        <v>55328.96760601167</v>
+        <v>49955.89265418579</v>
       </c>
       <c r="G32" t="n">
-        <v>64081.50785107686</v>
+        <v>64631.10189978043</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>50004037</v>
+        <v>44761974</v>
       </c>
     </row>
     <row r="33">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4071148</v>
+        <v>4082565</v>
       </c>
       <c r="E33" t="n">
-        <v>8028646</v>
+        <v>8051161</v>
       </c>
       <c r="F33" t="n">
-        <v>7942.356823069819</v>
+        <v>7761.327980412884</v>
       </c>
       <c r="G33" t="n">
-        <v>6256.50654318786</v>
+        <v>8023.783970489631</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="I33" t="n">
-        <v>1135193</v>
+        <v>1661202</v>
       </c>
     </row>
     <row r="34">
@@ -1604,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>36206942</v>
+        <v>36550656</v>
       </c>
       <c r="F34" t="n">
-        <v>231.6799704749533</v>
+        <v>47.65244549271601</v>
       </c>
       <c r="G34" t="n">
-        <v>250.6097407466736</v>
+        <v>315.6286097052556</v>
       </c>
       <c r="H34" t="n">
-        <v>0.28</v>
+        <v>1.46</v>
       </c>
       <c r="I34" t="n">
-        <v>11785.06</v>
+        <v>11004.79</v>
       </c>
     </row>
     <row r="35">
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>17172354</v>
+        <v>17183986</v>
       </c>
       <c r="E35" t="n">
-        <v>18099258</v>
+        <v>18111518</v>
       </c>
       <c r="F35" t="n">
-        <v>3486.741585617606</v>
+        <v>3502.443419940822</v>
       </c>
       <c r="G35" t="n">
-        <v>2560.671584165486</v>
+        <v>2560.950642545388</v>
       </c>
       <c r="H35" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="I35" t="n">
-        <v>48806</v>
+        <v>47246</v>
       </c>
     </row>
     <row r="36">
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>23121150</v>
+        <v>23063529</v>
       </c>
       <c r="F36" t="n">
-        <v>5184.83657059449</v>
+        <v>5174.625596292385</v>
       </c>
       <c r="G36" t="n">
-        <v>5260.818602952739</v>
+        <v>5145.775806119319</v>
       </c>
       <c r="H36" t="n">
-        <v>1.04</v>
+        <v>0.61</v>
       </c>
       <c r="I36" t="n">
-        <v>126652</v>
+        <v>133162</v>
       </c>
     </row>
     <row r="37">
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>84109199</v>
+        <v>92849220</v>
       </c>
       <c r="E37" t="n">
-        <v>175360926</v>
+        <v>193583167</v>
       </c>
       <c r="F37" t="n">
-        <v>54456.31137965369</v>
+        <v>42395.76297326111</v>
       </c>
       <c r="G37" t="n">
-        <v>52857.10507678687</v>
+        <v>87094.3831788547</v>
       </c>
       <c r="H37" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I37" t="n">
-        <v>85152690</v>
+        <v>50440311</v>
       </c>
     </row>
     <row r="38">
@@ -1741,22 +1741,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>277855500</v>
+        <v>280617414</v>
       </c>
       <c r="E38" t="n">
-        <v>277855500</v>
+        <v>280617414</v>
       </c>
       <c r="F38" t="n">
-        <v>35610.59811099888</v>
+        <v>33419.18843435382</v>
       </c>
       <c r="G38" t="n">
-        <v>20809.80451139545</v>
+        <v>37513.99083712803</v>
       </c>
       <c r="H38" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>11676077</v>
+        <v>7629628</v>
       </c>
     </row>
     <row r="39">
@@ -1776,22 +1776,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>192879737</v>
+        <v>197493138</v>
       </c>
       <c r="E39" t="n">
-        <v>670081638</v>
+        <v>686109009</v>
       </c>
       <c r="F39" t="n">
-        <v>219750.459608526</v>
+        <v>171727.8295551385</v>
       </c>
       <c r="G39" t="n">
-        <v>229809.0864575761</v>
+        <v>312761.792854875</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>41201688</v>
+        <v>31828056</v>
       </c>
     </row>
     <row r="40">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3387939</v>
+        <v>3294332</v>
       </c>
       <c r="E40" t="n">
-        <v>3387939</v>
+        <v>3294332</v>
       </c>
       <c r="F40" t="n">
-        <v>2682.981495570973</v>
+        <v>1837.363270472457</v>
       </c>
       <c r="G40" t="n">
-        <v>2169.058284395383</v>
+        <v>1622.936595496089</v>
       </c>
       <c r="H40" t="n">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="I40" t="n">
-        <v>1664971</v>
+        <v>1174935</v>
       </c>
     </row>
     <row r="41">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>112133484</v>
+        <v>120056234</v>
       </c>
       <c r="E41" t="n">
-        <v>475083392</v>
+        <v>508223639</v>
       </c>
       <c r="F41" t="n">
-        <v>5628.089103645687</v>
+        <v>5710.006802012955</v>
       </c>
       <c r="G41" t="n">
-        <v>6736.001695138776</v>
+        <v>6703.74090158838</v>
       </c>
       <c r="H41" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I41" t="n">
-        <v>14809030</v>
+        <v>12988574</v>
       </c>
     </row>
     <row r="42">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
+          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio, Action Games</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>639492</v>
+        <v>567172</v>
       </c>
       <c r="E42" t="n">
-        <v>7756414</v>
+        <v>6879243</v>
       </c>
       <c r="F42" t="n">
-        <v>896.1215026398373</v>
+        <v>547.7445073998217</v>
       </c>
       <c r="G42" t="n">
-        <v>573.252859840369</v>
+        <v>963.4416447002993</v>
       </c>
       <c r="H42" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="I42" t="n">
-        <v>3179073</v>
+        <v>3209126</v>
       </c>
     </row>
     <row r="43">
@@ -1916,22 +1916,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1398510764</v>
+        <v>1425931770</v>
       </c>
       <c r="E43" t="n">
-        <v>6706145522</v>
+        <v>6837634859</v>
       </c>
       <c r="F43" t="n">
-        <v>47790.76299359654</v>
+        <v>22055.48021824761</v>
       </c>
       <c r="G43" t="n">
-        <v>49793.10454540456</v>
+        <v>22629.27085534259</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I43" t="n">
-        <v>595291781</v>
+        <v>402145204</v>
       </c>
     </row>
     <row r="44">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5886614089</v>
+        <v>5883895704</v>
       </c>
       <c r="E44" t="n">
-        <v>5886201130</v>
+        <v>5883895704</v>
       </c>
       <c r="F44" t="n">
-        <v>646060.8710212746</v>
+        <v>1178394.980736591</v>
       </c>
       <c r="G44" t="n">
-        <v>413233.4298817337</v>
+        <v>500007.2891497197</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>441501845</v>
+        <v>269036363</v>
       </c>
     </row>
     <row r="45">
@@ -1986,22 +1986,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>262206217</v>
+        <v>274313190</v>
       </c>
       <c r="E45" t="n">
-        <v>1131827595</v>
+        <v>1184088012</v>
       </c>
       <c r="F45" t="n">
-        <v>95912.16687492267</v>
+        <v>105808.0921207634</v>
       </c>
       <c r="G45" t="n">
-        <v>92793.44251946689</v>
+        <v>109323.9394929162</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>139586129</v>
+        <v>93198602</v>
       </c>
     </row>
     <row r="46">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>118779370</v>
+        <v>116213767</v>
       </c>
       <c r="E46" t="n">
-        <v>118779370</v>
+        <v>116213767</v>
       </c>
       <c r="F46" t="n">
-        <v>23889.72380979371</v>
+        <v>30834.22074724409</v>
       </c>
       <c r="G46" t="n">
-        <v>43817.39208785864</v>
+        <v>33176.4939455084</v>
       </c>
       <c r="H46" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="I46" t="n">
-        <v>10196600</v>
+        <v>10486886</v>
       </c>
     </row>
     <row r="47">
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2046145992</v>
+        <v>2041282021</v>
       </c>
       <c r="E47" t="n">
-        <v>2046145992</v>
+        <v>2041282021</v>
       </c>
       <c r="F47" t="n">
-        <v>221225.7463446016</v>
+        <v>219977.8872759701</v>
       </c>
       <c r="G47" t="n">
-        <v>199950.6864071007</v>
+        <v>198815.5265981539</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I47" t="n">
-        <v>8829516239</v>
+        <v>6715645701</v>
       </c>
     </row>
     <row r="48">
@@ -2094,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>10332954</v>
+        <v>10210859</v>
       </c>
       <c r="F48" t="n">
-        <v>6691.737438380611</v>
+        <v>5433.135806677449</v>
       </c>
       <c r="G48" t="n">
-        <v>7312.104685859894</v>
+        <v>6938.231234715711</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>159145</v>
+        <v>127357</v>
       </c>
     </row>
     <row r="49">
@@ -2126,22 +2126,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4510157</v>
+        <v>4533638</v>
       </c>
       <c r="E49" t="n">
-        <v>5921248</v>
+        <v>5952076</v>
       </c>
       <c r="F49" t="n">
-        <v>3984.282148287709</v>
+        <v>3108.42496101631</v>
       </c>
       <c r="G49" t="n">
-        <v>5796.574203924003</v>
+        <v>15079.19837880661</v>
       </c>
       <c r="H49" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I49" t="n">
-        <v>712921</v>
+        <v>825401</v>
       </c>
     </row>
     <row r="50">
@@ -2161,22 +2161,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12826167</v>
+        <v>12829821</v>
       </c>
       <c r="E50" t="n">
-        <v>18860637</v>
+        <v>18866010</v>
       </c>
       <c r="F50" t="n">
-        <v>6946.002976827414</v>
+        <v>6907.264985256715</v>
       </c>
       <c r="G50" t="n">
-        <v>6931.416812371111</v>
+        <v>6950.862932877722</v>
       </c>
       <c r="H50" t="n">
         <v>0.21</v>
       </c>
       <c r="I50" t="n">
-        <v>6265996</v>
+        <v>4210304</v>
       </c>
     </row>
     <row r="51">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22372784</v>
+        <v>22397954</v>
       </c>
       <c r="E51" t="n">
-        <v>29022619</v>
+        <v>29055270</v>
       </c>
       <c r="F51" t="n">
-        <v>13557.37601742979</v>
+        <v>14431.25231826393</v>
       </c>
       <c r="G51" t="n">
-        <v>10195.89568308324</v>
+        <v>7927.123258833567</v>
       </c>
       <c r="H51" t="n">
         <v>0.28</v>
       </c>
       <c r="I51" t="n">
-        <v>220665</v>
+        <v>224308</v>
       </c>
     </row>
     <row r="52">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>14473823</v>
+        <v>14673042</v>
       </c>
       <c r="E52" t="n">
-        <v>14473823</v>
+        <v>14673042</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5922456</v>
+        <v>5592033</v>
       </c>
     </row>
     <row r="53">
@@ -2264,22 +2264,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>99440138</v>
+        <v>100980756</v>
       </c>
       <c r="E53" t="n">
-        <v>123003891</v>
+        <v>124909431</v>
       </c>
       <c r="F53" t="n">
-        <v>915.8048964294829</v>
+        <v>496.3965969942643</v>
       </c>
       <c r="G53" t="n">
-        <v>1261.888536956068</v>
+        <v>2973.094530880407</v>
       </c>
       <c r="H53" t="n">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="I53" t="n">
-        <v>1040410</v>
+        <v>1438397</v>
       </c>
     </row>
     <row r="54">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4978738</v>
+        <v>4862522</v>
       </c>
       <c r="E54" t="n">
-        <v>6965976</v>
+        <v>6803374</v>
       </c>
       <c r="F54" t="n">
-        <v>493.1385089342866</v>
+        <v>78.68141810033448</v>
       </c>
       <c r="G54" t="n">
-        <v>136.7005044604819</v>
+        <v>197.4923279367204</v>
       </c>
       <c r="H54" t="n">
-        <v>2.13</v>
+        <v>3.03</v>
       </c>
       <c r="I54" t="n">
-        <v>59037</v>
+        <v>57885</v>
       </c>
     </row>
     <row r="55">
@@ -2334,22 +2334,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>14110053</v>
+        <v>15337856</v>
       </c>
       <c r="E55" t="n">
-        <v>68337241</v>
+        <v>74283686</v>
       </c>
       <c r="F55" t="n">
-        <v>11556.31399188238</v>
+        <v>9990.158184860184</v>
       </c>
       <c r="G55" t="n">
-        <v>9697.218629169005</v>
+        <v>16888.80736163594</v>
       </c>
       <c r="H55" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="I55" t="n">
-        <v>5272835</v>
+        <v>4255935</v>
       </c>
     </row>
     <row r="56">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55223</v>
+        <v>56981</v>
       </c>
       <c r="E56" t="n">
-        <v>132270</v>
+        <v>136483</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>16876.46</v>
+        <v>7842.88</v>
       </c>
     </row>
     <row r="57">
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1844070531</v>
+        <v>1843679732</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>32105430</v>
+        <v>30523599</v>
       </c>
     </row>
     <row r="58">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12105339</v>
+        <v>12032266</v>
       </c>
       <c r="E58" t="n">
-        <v>17550995</v>
+        <v>17445050</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1789926</v>
+        <v>1742794</v>
       </c>
     </row>
     <row r="59">
@@ -2464,22 +2464,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>120712096</v>
+        <v>120591405</v>
       </c>
       <c r="E59" t="n">
-        <v>321025361</v>
+        <v>320704392</v>
       </c>
       <c r="F59" t="n">
-        <v>7994.788413935405</v>
+        <v>8073.88795701307</v>
       </c>
       <c r="G59" t="n">
-        <v>7109.624732971602</v>
+        <v>6777.013873794775</v>
       </c>
       <c r="H59" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="I59" t="n">
-        <v>858275</v>
+        <v>851341</v>
       </c>
     </row>
     <row r="60">
@@ -2499,22 +2499,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>29064918</v>
+        <v>28863704</v>
       </c>
       <c r="E60" t="n">
-        <v>90498828</v>
+        <v>89872313</v>
       </c>
       <c r="F60" t="n">
-        <v>2504.913526393229</v>
+        <v>3445.863493693982</v>
       </c>
       <c r="G60" t="n">
-        <v>7871.250124688118</v>
+        <v>4429.710755042868</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I60" t="n">
-        <v>11233347</v>
+        <v>11434570</v>
       </c>
     </row>
     <row r="61">
@@ -2534,22 +2534,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1808312</v>
+        <v>1860810</v>
       </c>
       <c r="E61" t="n">
-        <v>12967226</v>
+        <v>13343682</v>
       </c>
       <c r="F61" t="n">
-        <v>5205.299694446152</v>
+        <v>5326.686013145567</v>
       </c>
       <c r="G61" t="n">
-        <v>5302.246378015424</v>
+        <v>5256.224231213682</v>
       </c>
       <c r="H61" t="n">
-        <v>1.21</v>
+        <v>2.67</v>
       </c>
       <c r="I61" t="n">
-        <v>2191613</v>
+        <v>2281823</v>
       </c>
     </row>
     <row r="62">
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>194816177</v>
+        <v>200595538</v>
       </c>
       <c r="E62" t="n">
-        <v>1103168897</v>
+        <v>1135895190</v>
       </c>
       <c r="F62" t="n">
-        <v>604085.9811896585</v>
+        <v>674738.2853225078</v>
       </c>
       <c r="G62" t="n">
-        <v>858919.9638026273</v>
+        <v>761223.2740648572</v>
       </c>
       <c r="H62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I62" t="n">
-        <v>80784748</v>
+        <v>55357879</v>
       </c>
     </row>
     <row r="63">
@@ -2604,22 +2604,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>488531</v>
+        <v>487410</v>
       </c>
       <c r="E63" t="n">
-        <v>1644327</v>
+        <v>1640553</v>
       </c>
       <c r="F63" t="n">
-        <v>567.9147156136025</v>
+        <v>5232.62632519411</v>
       </c>
       <c r="G63" t="n">
-        <v>654.5163016270714</v>
+        <v>478.1845365762422</v>
       </c>
       <c r="H63" t="n">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="I63" t="n">
-        <v>643406</v>
+        <v>659137</v>
       </c>
     </row>
     <row r="64">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>365954</v>
+        <v>386069</v>
       </c>
       <c r="E64" t="n">
-        <v>365954</v>
+        <v>386069</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4718.98</v>
+        <v>14953.74</v>
       </c>
     </row>
     <row r="65">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>130410728</v>
+        <v>133960506</v>
       </c>
       <c r="E65" t="n">
-        <v>966005389</v>
+        <v>992300046</v>
       </c>
       <c r="F65" t="n">
-        <v>33862.38396375463</v>
+        <v>33006.07156983895</v>
       </c>
       <c r="G65" t="n">
-        <v>37319.83457917362</v>
+        <v>36706.92452018952</v>
       </c>
       <c r="H65" t="n">
         <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>40380464</v>
+        <v>29638718</v>
       </c>
     </row>
     <row r="66">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8720277</v>
+        <v>8728622</v>
       </c>
       <c r="E66" t="n">
-        <v>11682264</v>
+        <v>11693443</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>92407</v>
+        <v>77633</v>
       </c>
     </row>
     <row r="67">
@@ -2740,22 +2740,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>26082863</v>
+        <v>26026586</v>
       </c>
       <c r="E67" t="n">
-        <v>26082863</v>
+        <v>26026586</v>
       </c>
       <c r="F67" t="n">
-        <v>8032.948597182301</v>
+        <v>8009.763797522469</v>
       </c>
       <c r="G67" t="n">
-        <v>5343.127905922075</v>
+        <v>5106.992579972524</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="I67" t="n">
-        <v>368995</v>
+        <v>362414</v>
       </c>
     </row>
     <row r="68">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1566836</v>
+        <v>1598320</v>
       </c>
       <c r="E68" t="n">
-        <v>12168230</v>
+        <v>12412736</v>
       </c>
       <c r="F68" t="n">
-        <v>18063.47229563144</v>
+        <v>15811.55923729923</v>
       </c>
       <c r="G68" t="n">
-        <v>19482.34969528109</v>
+        <v>22180.08425149374</v>
       </c>
       <c r="H68" t="n">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="I68" t="n">
-        <v>531293</v>
+        <v>515223</v>
       </c>
     </row>
     <row r="69">
@@ -2810,22 +2810,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>316359939</v>
+        <v>329577245</v>
       </c>
       <c r="E69" t="n">
-        <v>2846170181</v>
+        <v>2965081263</v>
       </c>
       <c r="F69" t="n">
-        <v>971465.5683925349</v>
+        <v>1172352.018857093</v>
       </c>
       <c r="G69" t="n">
-        <v>1539162.047090659</v>
+        <v>1538620.695729183</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I69" t="n">
-        <v>71001506</v>
+        <v>57047320</v>
       </c>
     </row>
     <row r="70">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>251239</v>
+        <v>232648</v>
       </c>
       <c r="E70" t="n">
-        <v>2217377</v>
+        <v>2053290</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>74058</v>
+        <v>94260</v>
       </c>
     </row>
     <row r="71">
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1531363</v>
+        <v>1560652</v>
       </c>
       <c r="E71" t="n">
-        <v>12761355</v>
+        <v>13005433</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>32681</v>
+        <v>50652</v>
       </c>
     </row>
     <row r="72">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9388885</v>
+        <v>10241028</v>
       </c>
       <c r="E72" t="n">
-        <v>43518020</v>
+        <v>47467754</v>
       </c>
       <c r="F72" t="n">
-        <v>9729.093235498132</v>
+        <v>8915.527885995709</v>
       </c>
       <c r="G72" t="n">
-        <v>3367.058221660921</v>
+        <v>3380.196138693026</v>
       </c>
       <c r="H72" t="n">
-        <v>0.83</v>
+        <v>1.12</v>
       </c>
       <c r="I72" t="n">
-        <v>111495</v>
+        <v>119930</v>
       </c>
     </row>
     <row r="73">
@@ -2946,22 +2946,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>48259265</v>
+        <v>50611787</v>
       </c>
       <c r="E73" t="n">
-        <v>279401203</v>
+        <v>293021333</v>
       </c>
       <c r="F73" t="n">
-        <v>100736.7357808498</v>
+        <v>89308.49704124519</v>
       </c>
       <c r="G73" t="n">
-        <v>175273.394866771</v>
+        <v>148131.819963789</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>31551305</v>
+        <v>18262280</v>
       </c>
     </row>
     <row r="74">
@@ -2981,22 +2981,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>37886861</v>
+        <v>37732569</v>
       </c>
       <c r="E74" t="n">
-        <v>52327151</v>
+        <v>52114051</v>
       </c>
       <c r="F74" t="n">
-        <v>4231.154598559639</v>
+        <v>4394.389887223409</v>
       </c>
       <c r="G74" t="n">
-        <v>4588.622571252252</v>
+        <v>10668.4411891492</v>
       </c>
       <c r="H74" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I74" t="n">
-        <v>332110</v>
+        <v>308386</v>
       </c>
     </row>
     <row r="75">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>101415</v>
+        <v>127972</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5132.87</v>
+        <v>4554.67</v>
       </c>
     </row>
     <row r="76">
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>13527900</v>
+        <v>14018641</v>
       </c>
       <c r="E76" t="n">
-        <v>13573937</v>
+        <v>14066348</v>
       </c>
       <c r="F76" t="n">
-        <v>5108.01606411492</v>
+        <v>1256.504367423617</v>
       </c>
       <c r="G76" t="n">
-        <v>2839.140732517908</v>
+        <v>5165.50245866225</v>
       </c>
       <c r="H76" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="I76" t="n">
-        <v>7424020</v>
+        <v>6685633</v>
       </c>
     </row>
     <row r="77">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>41800341</v>
+        <v>41859683</v>
       </c>
       <c r="E77" t="n">
-        <v>70956957</v>
+        <v>71057691</v>
       </c>
       <c r="F77" t="n">
-        <v>6674.768006675681</v>
+        <v>6218.927826252147</v>
       </c>
       <c r="G77" t="n">
-        <v>7472.840817415891</v>
+        <v>6001.74407165269</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I77" t="n">
-        <v>1154578</v>
+        <v>1231036</v>
       </c>
     </row>
     <row r="78">
@@ -3119,22 +3119,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19851987</v>
+        <v>20390850</v>
       </c>
       <c r="E78" t="n">
-        <v>59522096</v>
+        <v>61137307</v>
       </c>
       <c r="F78" t="n">
-        <v>58254.45409893699</v>
+        <v>56717.89118451689</v>
       </c>
       <c r="G78" t="n">
-        <v>41103.68341298538</v>
+        <v>61490.84349358956</v>
       </c>
       <c r="H78" t="n">
         <v>0.28</v>
       </c>
       <c r="I78" t="n">
-        <v>4294078</v>
+        <v>3886722</v>
       </c>
     </row>
     <row r="79">
@@ -3154,22 +3154,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106343374</v>
+        <v>105779425</v>
       </c>
       <c r="E79" t="n">
-        <v>113052617</v>
+        <v>112453089</v>
       </c>
       <c r="F79" t="n">
-        <v>2791.353425562736</v>
+        <v>3472.058299533374</v>
       </c>
       <c r="G79" t="n">
-        <v>2175.229514582278</v>
+        <v>4669.732290540922</v>
       </c>
       <c r="H79" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="I79" t="n">
-        <v>964303</v>
+        <v>1011903</v>
       </c>
     </row>
     <row r="80">
@@ -3189,22 +3189,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10460855</v>
+        <v>10712695</v>
       </c>
       <c r="E80" t="n">
-        <v>45388539</v>
+        <v>46475249</v>
       </c>
       <c r="F80" t="n">
-        <v>6142.975283679208</v>
+        <v>6853.661553586439</v>
       </c>
       <c r="G80" t="n">
-        <v>5693.131877714676</v>
+        <v>5545.400553440449</v>
       </c>
       <c r="H80" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I80" t="n">
-        <v>120455</v>
+        <v>124680</v>
       </c>
     </row>
     <row r="81">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15636612</v>
+        <v>15746374</v>
       </c>
       <c r="E81" t="n">
-        <v>95841939</v>
+        <v>96514706</v>
       </c>
       <c r="F81" t="n">
-        <v>4070.640767274234</v>
+        <v>4155.085217594489</v>
       </c>
       <c r="G81" t="n">
-        <v>5778.826466061327</v>
+        <v>6281.954275879536</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I81" t="n">
-        <v>13014552</v>
+        <v>12400946</v>
       </c>
     </row>
     <row r="82">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Entertainment, Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, RPG, Adventure Games</t>
+          <t>Entertainment, Gaming (GameFi), NFT, Polygon Ecosystem, Ethereum Ecosystem, RPG, Adventure Games, MMO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3259,22 +3259,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1435298</v>
+        <v>1486173</v>
       </c>
       <c r="E82" t="n">
-        <v>1475671</v>
+        <v>1527977</v>
       </c>
       <c r="F82" t="n">
-        <v>2307.859397040469</v>
+        <v>1890.377574975513</v>
       </c>
       <c r="G82" t="n">
-        <v>1828.247161309714</v>
+        <v>2226.276344867564</v>
       </c>
       <c r="H82" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I82" t="n">
-        <v>135201</v>
+        <v>123384</v>
       </c>
     </row>
     <row r="83">
@@ -3294,22 +3294,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51044887</v>
+        <v>55028343</v>
       </c>
       <c r="E83" t="n">
-        <v>219895792</v>
+        <v>237056086</v>
       </c>
       <c r="F83" t="n">
-        <v>3011.87835665643</v>
+        <v>3194.245028382545</v>
       </c>
       <c r="G83" t="n">
-        <v>4707.863846880844</v>
+        <v>3933.772482698521</v>
       </c>
       <c r="H83" t="n">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
       <c r="I83" t="n">
-        <v>14977450</v>
+        <v>14475109</v>
       </c>
     </row>
     <row r="84">
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2322601</v>
+        <v>2549012</v>
       </c>
       <c r="E84" t="n">
-        <v>8428283</v>
+        <v>9247054</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>228153</v>
+        <v>184379</v>
       </c>
     </row>
     <row r="85">
@@ -3362,22 +3362,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>8803924</v>
+        <v>8844297</v>
       </c>
       <c r="E85" t="n">
-        <v>19525731</v>
+        <v>19615254</v>
       </c>
       <c r="F85" t="n">
-        <v>7721.824594232892</v>
+        <v>6320.468406913329</v>
       </c>
       <c r="G85" t="n">
-        <v>8891.647273761448</v>
+        <v>7429.375203704481</v>
       </c>
       <c r="H85" t="n">
-        <v>1.02</v>
+        <v>1.62</v>
       </c>
       <c r="I85" t="n">
-        <v>274041</v>
+        <v>149808</v>
       </c>
     </row>
     <row r="86">
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2446249</v>
+        <v>2442319</v>
       </c>
       <c r="E86" t="n">
-        <v>18407387</v>
+        <v>18375037</v>
       </c>
       <c r="F86" t="n">
-        <v>5228.186168103508</v>
+        <v>5560.231601340505</v>
       </c>
       <c r="G86" t="n">
-        <v>11988.96741317552</v>
+        <v>11890.31345153021</v>
       </c>
       <c r="H86" t="n">
         <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>156454</v>
+        <v>155992</v>
       </c>
     </row>
     <row r="87">
@@ -3432,22 +3432,22 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18730733</v>
+        <v>19976471</v>
       </c>
       <c r="E87" t="n">
-        <v>74922931</v>
+        <v>79905884</v>
       </c>
       <c r="F87" t="n">
-        <v>3867.120052407339</v>
+        <v>25495.6119284302</v>
       </c>
       <c r="G87" t="n">
-        <v>1857.598002372054</v>
+        <v>25592.44709872012</v>
       </c>
       <c r="H87" t="n">
-        <v>2.11</v>
+        <v>0.37</v>
       </c>
       <c r="I87" t="n">
-        <v>3796591</v>
+        <v>4420293</v>
       </c>
     </row>
     <row r="88">
@@ -3467,22 +3467,22 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4755555</v>
+        <v>4873829</v>
       </c>
       <c r="E88" t="n">
-        <v>4755555</v>
+        <v>4873829</v>
       </c>
       <c r="F88" t="n">
-        <v>265.9222072816645</v>
+        <v>1335.254906119442</v>
       </c>
       <c r="G88" t="n">
-        <v>2830.957455053886</v>
+        <v>2386.334002256558</v>
       </c>
       <c r="H88" t="n">
-        <v>1.55</v>
+        <v>0.97</v>
       </c>
       <c r="I88" t="n">
-        <v>2635898</v>
+        <v>2684026</v>
       </c>
     </row>
     <row r="89">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>13145203</v>
+        <v>13003127</v>
       </c>
       <c r="E89" t="n">
-        <v>41574201</v>
+        <v>41121692</v>
       </c>
       <c r="F89" t="n">
-        <v>13187.43342244988</v>
+        <v>14467.4091128214</v>
       </c>
       <c r="G89" t="n">
-        <v>12417.62079404184</v>
+        <v>16631.84026347236</v>
       </c>
       <c r="H89" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="I89" t="n">
-        <v>1291867</v>
+        <v>1733947</v>
       </c>
     </row>
     <row r="90">
@@ -3537,22 +3537,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>23933</v>
+        <v>23809</v>
       </c>
       <c r="E90" t="n">
-        <v>188225</v>
+        <v>187249</v>
       </c>
       <c r="F90" t="n">
-        <v>2180.696503706316</v>
+        <v>241.6780439416212</v>
       </c>
       <c r="G90" t="n">
-        <v>410.3335232323467</v>
+        <v>521.049862563</v>
       </c>
       <c r="H90" t="n">
         <v>0.21</v>
       </c>
       <c r="I90" t="n">
-        <v>26483</v>
+        <v>20501</v>
       </c>
     </row>
     <row r="91">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8367476</v>
+        <v>8798385</v>
       </c>
       <c r="E91" t="n">
-        <v>8367476</v>
+        <v>8798385</v>
       </c>
       <c r="F91" t="n">
-        <v>3602.520375256449</v>
+        <v>1256.308493995755</v>
       </c>
       <c r="G91" t="n">
-        <v>4361.157556611617</v>
+        <v>5398.031225917537</v>
       </c>
       <c r="H91" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I91" t="n">
-        <v>4305869</v>
+        <v>4423479</v>
       </c>
     </row>
     <row r="92">
@@ -3607,22 +3607,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8937942</v>
+        <v>10051916</v>
       </c>
       <c r="E92" t="n">
-        <v>8937942</v>
+        <v>10051916</v>
       </c>
       <c r="F92" t="n">
-        <v>3317.849594060633</v>
+        <v>3643.753517187244</v>
       </c>
       <c r="G92" t="n">
-        <v>5176.008199364542</v>
+        <v>6426.303651775585</v>
       </c>
       <c r="H92" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="I92" t="n">
-        <v>1347381</v>
+        <v>980984</v>
       </c>
     </row>
     <row r="93">
@@ -3642,22 +3642,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31488088</v>
+        <v>33196041</v>
       </c>
       <c r="E93" t="n">
-        <v>79397841</v>
+        <v>83704479</v>
       </c>
       <c r="F93" t="n">
-        <v>381.3847881381797</v>
+        <v>645.83028842</v>
       </c>
       <c r="G93" t="n">
-        <v>9631.862940211602</v>
+        <v>5555.117771720029</v>
       </c>
       <c r="H93" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="I93" t="n">
-        <v>6463330</v>
+        <v>6205656</v>
       </c>
     </row>
     <row r="94">
@@ -3677,22 +3677,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>301606356</v>
+        <v>313185876</v>
       </c>
       <c r="E94" t="n">
-        <v>306323271</v>
+        <v>318085577</v>
       </c>
       <c r="F94" t="n">
-        <v>6600.03249099239</v>
+        <v>6601.638767234356</v>
       </c>
       <c r="G94" t="n">
-        <v>6263.934123868882</v>
+        <v>6038.374279980995</v>
       </c>
       <c r="H94" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="I94" t="n">
-        <v>23211098</v>
+        <v>15878416</v>
       </c>
     </row>
     <row r="95">
@@ -3712,16 +3712,16 @@
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>3603.457542986512</v>
+        <v>6054.85892398879</v>
       </c>
       <c r="G95" t="n">
-        <v>6384.054322451509</v>
+        <v>3848.090316349507</v>
       </c>
       <c r="H95" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>151704</v>
+        <v>135318</v>
       </c>
     </row>
     <row r="96">
@@ -3741,22 +3741,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>77866488</v>
+        <v>82828347</v>
       </c>
       <c r="E96" t="n">
-        <v>77866488</v>
+        <v>82828347</v>
       </c>
       <c r="F96" t="n">
-        <v>12106.63339959523</v>
+        <v>7996.227700472946</v>
       </c>
       <c r="G96" t="n">
-        <v>7089.844120756097</v>
+        <v>6793.653715714041</v>
       </c>
       <c r="H96" t="n">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="I96" t="n">
-        <v>4378165</v>
+        <v>3642247</v>
       </c>
     </row>
     <row r="97">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>302405729</v>
+        <v>314868019</v>
       </c>
       <c r="E97" t="n">
-        <v>302405729</v>
+        <v>314868019</v>
       </c>
       <c r="F97" t="n">
-        <v>350091.1136762223</v>
+        <v>292944.9399512743</v>
       </c>
       <c r="G97" t="n">
-        <v>440623.1045690951</v>
+        <v>447798.3508892512</v>
       </c>
       <c r="H97" t="n">
         <v>0.03</v>
       </c>
       <c r="I97" t="n">
-        <v>91351033</v>
+        <v>81943182</v>
       </c>
     </row>
     <row r="98">
@@ -3811,22 +3811,22 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4578702</v>
+        <v>4525600</v>
       </c>
       <c r="E98" t="n">
-        <v>31285946</v>
+        <v>30923109</v>
       </c>
       <c r="F98" t="n">
-        <v>277.5734572286003</v>
+        <v>4837.481419041874</v>
       </c>
       <c r="G98" t="n">
-        <v>2601.68577421713</v>
+        <v>5267.674293812825</v>
       </c>
       <c r="H98" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I98" t="n">
-        <v>3089205</v>
+        <v>3028116</v>
       </c>
     </row>
     <row r="99">
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>84365157</v>
+        <v>89998281</v>
       </c>
       <c r="E99" t="n">
-        <v>486148425</v>
+        <v>518608914</v>
       </c>
       <c r="F99" t="n">
-        <v>141051.8495102036</v>
+        <v>104651.1595919154</v>
       </c>
       <c r="G99" t="n">
-        <v>142616.3647648563</v>
+        <v>143501.4220453909</v>
       </c>
       <c r="H99" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I99" t="n">
-        <v>21004993</v>
+        <v>30698734</v>
       </c>
     </row>
     <row r="100">
@@ -3881,22 +3881,22 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>107964526</v>
+        <v>109389714</v>
       </c>
       <c r="E100" t="n">
-        <v>265634916</v>
+        <v>269141435</v>
       </c>
       <c r="F100" t="n">
-        <v>42710.76475207392</v>
+        <v>32428.01219431757</v>
       </c>
       <c r="G100" t="n">
-        <v>41314.55103679499</v>
+        <v>43750.36578347001</v>
       </c>
       <c r="H100" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="I100" t="n">
-        <v>3242350</v>
+        <v>2801147</v>
       </c>
     </row>
     <row r="101">
@@ -3916,22 +3916,22 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>240168886</v>
+        <v>243140755</v>
       </c>
       <c r="E101" t="n">
-        <v>240171272</v>
+        <v>243143171</v>
       </c>
       <c r="F101" t="n">
-        <v>6523.979392721321</v>
+        <v>12196.62681603312</v>
       </c>
       <c r="G101" t="n">
-        <v>18638.4865867792</v>
+        <v>28137.16725130325</v>
       </c>
       <c r="H101" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I101" t="n">
-        <v>2956048</v>
+        <v>2521614</v>
       </c>
     </row>
     <row r="102">
@@ -3951,22 +3951,22 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30105325</v>
+        <v>31792631</v>
       </c>
       <c r="E102" t="n">
-        <v>134793890</v>
+        <v>142348650</v>
       </c>
       <c r="F102" t="n">
-        <v>53908.44745997038</v>
+        <v>56357.99833436337</v>
       </c>
       <c r="G102" t="n">
-        <v>98472.38175706072</v>
+        <v>110890.7618508902</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I102" t="n">
-        <v>20037227</v>
+        <v>17246804</v>
       </c>
     </row>
     <row r="103">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2749919</v>
+        <v>2948754</v>
       </c>
       <c r="E103" t="n">
-        <v>2749919</v>
+        <v>2948754</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>317192</v>
+        <v>299573</v>
       </c>
     </row>
     <row r="104">
@@ -4019,22 +4019,22 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5955818</v>
+        <v>6087173</v>
       </c>
       <c r="E104" t="n">
-        <v>15631018</v>
+        <v>15975734</v>
       </c>
       <c r="F104" t="n">
-        <v>555.7123376349367</v>
+        <v>635.2550154981461</v>
       </c>
       <c r="G104" t="n">
-        <v>425.3648636087914</v>
+        <v>169.7592056949312</v>
       </c>
       <c r="H104" t="n">
-        <v>2.43</v>
+        <v>1.94</v>
       </c>
       <c r="I104" t="n">
-        <v>24291</v>
+        <v>32289</v>
       </c>
     </row>
     <row r="105">
@@ -4054,22 +4054,22 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>16188097</v>
+        <v>16456127</v>
       </c>
       <c r="E105" t="n">
-        <v>74722265</v>
+        <v>75959758</v>
       </c>
       <c r="F105" t="n">
-        <v>7842.283228428099</v>
+        <v>20475.1528748004</v>
       </c>
       <c r="G105" t="n">
-        <v>12740.3855925385</v>
+        <v>16222.77232182748</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I105" t="n">
-        <v>1146217</v>
+        <v>962479</v>
       </c>
     </row>
     <row r="106">
@@ -4089,22 +4089,22 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>48303747</v>
+        <v>50632044</v>
       </c>
       <c r="E106" t="n">
-        <v>313236946</v>
+        <v>328335327</v>
       </c>
       <c r="F106" t="n">
-        <v>138459.7499934473</v>
+        <v>117006.3134926771</v>
       </c>
       <c r="G106" t="n">
-        <v>160893.5464158793</v>
+        <v>164847.4046495161</v>
       </c>
       <c r="H106" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I106" t="n">
-        <v>21646209</v>
+        <v>18325443</v>
       </c>
     </row>
     <row r="107">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2446715</v>
+        <v>2437933</v>
       </c>
       <c r="E107" t="n">
-        <v>4432686</v>
+        <v>4416774</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>77581</v>
+        <v>35456</v>
       </c>
     </row>
     <row r="108">
@@ -4157,22 +4157,22 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>122917866</v>
+        <v>124004577</v>
       </c>
       <c r="E108" t="n">
-        <v>2035620537</v>
+        <v>2053617358</v>
       </c>
       <c r="F108" t="n">
-        <v>12830.12881442755</v>
+        <v>33865.46772551392</v>
       </c>
       <c r="G108" t="n">
-        <v>143631.9708141081</v>
+        <v>158535.3885951045</v>
       </c>
       <c r="H108" t="n">
         <v>0.05</v>
       </c>
       <c r="I108" t="n">
-        <v>77232284</v>
+        <v>117806311</v>
       </c>
     </row>
     <row r="109">
@@ -4192,22 +4192,22 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>23078417</v>
+        <v>24220498</v>
       </c>
       <c r="E109" t="n">
-        <v>138082808</v>
+        <v>144916109</v>
       </c>
       <c r="F109" t="n">
-        <v>3421.957691530029</v>
+        <v>40489.61552420024</v>
       </c>
       <c r="G109" t="n">
-        <v>37341.50385800143</v>
+        <v>41391.69762731794</v>
       </c>
       <c r="H109" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I109" t="n">
-        <v>17519222</v>
+        <v>15870349</v>
       </c>
     </row>
     <row r="110">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1030411</v>
+        <v>1044568</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>86292</v>
+        <v>73457</v>
       </c>
     </row>
     <row r="111">
@@ -4263,19 +4263,19 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2391700</v>
+        <v>2121854</v>
       </c>
       <c r="F111" t="n">
-        <v>4298.294230482496</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>153.339835646709</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.53</v>
+        <v>5.55</v>
       </c>
       <c r="I111" t="n">
-        <v>217296</v>
+        <v>199104</v>
       </c>
     </row>
     <row r="112">
@@ -4294,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>149681830</v>
+        <v>149802688</v>
       </c>
       <c r="F112" t="n">
-        <v>5225.748713605301</v>
+        <v>4705.029309883706</v>
       </c>
       <c r="G112" t="n">
-        <v>3478.543770750432</v>
+        <v>3669.522574439817</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I112" t="n">
-        <v>80802</v>
+        <v>78370</v>
       </c>
     </row>
     <row r="113">
@@ -4326,22 +4326,22 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>6184050</v>
+        <v>6365481</v>
       </c>
       <c r="E113" t="n">
-        <v>31815056</v>
+        <v>32748467</v>
       </c>
       <c r="F113" t="n">
-        <v>471.3191924105286</v>
+        <v>652.8980552582677</v>
       </c>
       <c r="G113" t="n">
-        <v>575.1092355908062</v>
+        <v>1241.908490649953</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="I113" t="n">
-        <v>964462</v>
+        <v>946642</v>
       </c>
     </row>
     <row r="114">
@@ -4361,22 +4361,22 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>30637896</v>
+        <v>29987139</v>
       </c>
       <c r="E114" t="n">
-        <v>42009912</v>
+        <v>41117611</v>
       </c>
       <c r="F114" t="n">
-        <v>5494.71160566349</v>
+        <v>5417.394567661503</v>
       </c>
       <c r="G114" t="n">
-        <v>4262.409889696189</v>
+        <v>5536.379116089383</v>
       </c>
       <c r="H114" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I114" t="n">
-        <v>1583949</v>
+        <v>1696243</v>
       </c>
     </row>
     <row r="115">
@@ -4399,19 +4399,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>7598948</v>
+        <v>7593169</v>
       </c>
       <c r="F115" t="n">
-        <v>3832.577100945767</v>
+        <v>2554.181051395697</v>
       </c>
       <c r="G115" t="n">
-        <v>4057.504969872896</v>
+        <v>4760.757993770189</v>
       </c>
       <c r="H115" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="I115" t="n">
-        <v>689487</v>
+        <v>712115</v>
       </c>
     </row>
     <row r="116">
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3539716</v>
+        <v>3469824</v>
       </c>
       <c r="E116" t="n">
-        <v>4741673</v>
+        <v>4648048</v>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>126242</v>
+        <v>167789</v>
       </c>
     </row>
     <row r="117">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>32588519</v>
+        <v>35052033</v>
       </c>
       <c r="E117" t="n">
-        <v>162631734</v>
+        <v>174925802</v>
       </c>
       <c r="F117" t="n">
-        <v>100643.3821364697</v>
+        <v>106911.9848884576</v>
       </c>
       <c r="G117" t="n">
-        <v>75700.84166930962</v>
+        <v>82518.57221649506</v>
       </c>
       <c r="H117" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I117" t="n">
-        <v>13566367</v>
+        <v>10554387</v>
       </c>
     </row>
     <row r="118">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3489842</v>
+        <v>3477188</v>
       </c>
       <c r="E118" t="n">
-        <v>5013219</v>
+        <v>4989414</v>
       </c>
       <c r="F118" t="n">
-        <v>616.7246483360186</v>
+        <v>509.0065638068392</v>
       </c>
       <c r="G118" t="n">
-        <v>673.7120013272481</v>
+        <v>587.9834892906831</v>
       </c>
       <c r="H118" t="n">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="I118" t="n">
-        <v>183958</v>
+        <v>222621</v>
       </c>
     </row>
     <row r="119">
@@ -4534,22 +4534,22 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>304653044</v>
+        <v>303867902</v>
       </c>
       <c r="E119" t="n">
-        <v>563677606</v>
+        <v>562224915</v>
       </c>
       <c r="F119" t="n">
-        <v>30781.42906214605</v>
+        <v>38695.64923900142</v>
       </c>
       <c r="G119" t="n">
-        <v>47855.60970136344</v>
+        <v>63392.83754677527</v>
       </c>
       <c r="H119" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I119" t="n">
-        <v>27138263</v>
+        <v>25681099</v>
       </c>
     </row>
     <row r="120">
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69927888</v>
+        <v>73496663</v>
       </c>
       <c r="E120" t="n">
-        <v>666899602</v>
+        <v>700872506</v>
       </c>
       <c r="F120" t="n">
-        <v>2537.360020620243</v>
+        <v>2797.121590883451</v>
       </c>
       <c r="G120" t="n">
-        <v>4730.578533883061</v>
+        <v>41809.48524516747</v>
       </c>
       <c r="H120" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="I120" t="n">
-        <v>25405377</v>
+        <v>21596503</v>
       </c>
     </row>
     <row r="121">
@@ -4604,22 +4604,22 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>36957803</v>
+        <v>36844386</v>
       </c>
       <c r="E121" t="n">
-        <v>48314238</v>
+        <v>48163854</v>
       </c>
       <c r="F121" t="n">
-        <v>6039.627940472982</v>
+        <v>11288.80953641378</v>
       </c>
       <c r="G121" t="n">
-        <v>245.8524350094418</v>
+        <v>251.9872086831836</v>
       </c>
       <c r="H121" t="n">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="I121" t="n">
-        <v>679622</v>
+        <v>445275</v>
       </c>
     </row>
     <row r="122">
@@ -4639,22 +4639,22 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>9753127</v>
+        <v>10240649</v>
       </c>
       <c r="E122" t="n">
-        <v>28913518</v>
+        <v>30353330</v>
       </c>
       <c r="F122" t="n">
-        <v>1061.774525598311</v>
+        <v>2701.386461808471</v>
       </c>
       <c r="G122" t="n">
-        <v>4159.970328563468</v>
+        <v>5717.352065504402</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="I122" t="n">
-        <v>6592195</v>
+        <v>6022186</v>
       </c>
     </row>
     <row r="123">
@@ -4674,22 +4674,22 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2262741</v>
+        <v>2291860</v>
       </c>
       <c r="E123" t="n">
-        <v>7561253</v>
+        <v>7669759</v>
       </c>
       <c r="F123" t="n">
-        <v>696.1076323891201</v>
+        <v>695.093685765911</v>
       </c>
       <c r="G123" t="n">
-        <v>1326.35986025245</v>
+        <v>770.3769008843848</v>
       </c>
       <c r="H123" t="n">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="I123" t="n">
-        <v>1041223</v>
+        <v>892002</v>
       </c>
     </row>
     <row r="124">
@@ -4709,22 +4709,22 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>7303614</v>
+        <v>7243139</v>
       </c>
       <c r="E124" t="n">
-        <v>7303625</v>
+        <v>7243150</v>
       </c>
       <c r="F124" t="n">
-        <v>564.0156683344887</v>
+        <v>693.8247664666058</v>
       </c>
       <c r="G124" t="n">
-        <v>615.2383177401323</v>
+        <v>372.3948309911567</v>
       </c>
       <c r="H124" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="I124" t="n">
-        <v>224148</v>
+        <v>178885</v>
       </c>
     </row>
     <row r="125">
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>6384905</v>
+        <v>6408775</v>
       </c>
       <c r="E125" t="n">
-        <v>6384905</v>
+        <v>6408775</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>605862</v>
+        <v>540265</v>
       </c>
     </row>
     <row r="126">
@@ -4777,22 +4777,22 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6183634</v>
+        <v>6279056</v>
       </c>
       <c r="E126" t="n">
-        <v>22586423</v>
+        <v>22934964</v>
       </c>
       <c r="F126" t="n">
-        <v>290.9240897303025</v>
+        <v>1672.821341024147</v>
       </c>
       <c r="G126" t="n">
-        <v>2594.636529195858</v>
+        <v>7995.968812633532</v>
       </c>
       <c r="H126" t="n">
-        <v>0.62</v>
+        <v>1.14</v>
       </c>
       <c r="I126" t="n">
-        <v>597827</v>
+        <v>550603</v>
       </c>
     </row>
     <row r="127">
@@ -4812,22 +4812,22 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>44483104</v>
+        <v>46526035</v>
       </c>
       <c r="E127" t="n">
-        <v>44483104</v>
+        <v>46526035</v>
       </c>
       <c r="F127" t="n">
-        <v>56090.46038637117</v>
+        <v>56661.94829349402</v>
       </c>
       <c r="G127" t="n">
-        <v>80108.55455195776</v>
+        <v>82535.17794764187</v>
       </c>
       <c r="H127" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="I127" t="n">
-        <v>12254322</v>
+        <v>13379548</v>
       </c>
     </row>
     <row r="128">
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>142649757</v>
+        <v>142541572</v>
       </c>
       <c r="F128" t="n">
-        <v>636.4045643858494</v>
+        <v>300.126349468886</v>
       </c>
       <c r="G128" t="n">
-        <v>2801.494222448535</v>
+        <v>1903.69038820114</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.34</v>
       </c>
       <c r="I128" t="n">
-        <v>1716169</v>
+        <v>1458613</v>
       </c>
     </row>
     <row r="129">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2883202</v>
+        <v>2864792</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>63590</v>
+        <v>60389</v>
       </c>
     </row>
     <row r="130">
@@ -4918,19 +4918,19 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>19357384</v>
+        <v>19740437</v>
       </c>
       <c r="F130" t="n">
-        <v>641.6190231170879</v>
+        <v>398.9220858083746</v>
       </c>
       <c r="G130" t="n">
-        <v>1086.63697731876</v>
+        <v>464.540122579648</v>
       </c>
       <c r="H130" t="n">
-        <v>0.82</v>
+        <v>1.71</v>
       </c>
       <c r="I130" t="n">
-        <v>2901351</v>
+        <v>2877205</v>
       </c>
     </row>
     <row r="131">
@@ -4950,22 +4950,22 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1275705</v>
+        <v>1294218</v>
       </c>
       <c r="E131" t="n">
-        <v>3850553</v>
+        <v>3905600</v>
       </c>
       <c r="F131" t="n">
-        <v>836.0066690472155</v>
+        <v>846.2690293666462</v>
       </c>
       <c r="G131" t="n">
-        <v>701.5565573937996</v>
+        <v>931.81149563541</v>
       </c>
       <c r="H131" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="I131" t="n">
-        <v>42699</v>
+        <v>40311</v>
       </c>
     </row>
     <row r="132">
@@ -4985,22 +4985,22 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>583016929</v>
+        <v>603652203</v>
       </c>
       <c r="E132" t="n">
-        <v>2257938549</v>
+        <v>2337855921</v>
       </c>
       <c r="F132" t="n">
-        <v>807856.3487434484</v>
+        <v>443918.6555716349</v>
       </c>
       <c r="G132" t="n">
-        <v>936351.1657134111</v>
+        <v>530276.9282794888</v>
       </c>
       <c r="H132" t="n">
         <v>0.04</v>
       </c>
       <c r="I132" t="n">
-        <v>62007491</v>
+        <v>41221970</v>
       </c>
     </row>
     <row r="133">
@@ -5020,22 +5020,22 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3597990</v>
+        <v>3630757</v>
       </c>
       <c r="E133" t="n">
-        <v>6133263</v>
+        <v>6189118</v>
       </c>
       <c r="F133" t="n">
-        <v>5013.398123642238</v>
+        <v>5261.140643242939</v>
       </c>
       <c r="G133" t="n">
-        <v>4967.159569232549</v>
+        <v>5386.164002140524</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="I133" t="n">
-        <v>1213359</v>
+        <v>1084120</v>
       </c>
     </row>
     <row r="134">
@@ -5055,22 +5055,22 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>107906001</v>
+        <v>110837199</v>
       </c>
       <c r="E134" t="n">
-        <v>1020980974</v>
+        <v>1048715275</v>
       </c>
       <c r="F1